--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="818" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC66814-680A-4132-AFD5-F52051F27918}"/>
+  <xr:revisionPtr revIDLastSave="872" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5672530B-5FAD-461A-ABAA-C5FBFF252485}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="950" windowWidth="27180" windowHeight="19870" tabRatio="859" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1270" windowWidth="17180" windowHeight="19870" tabRatio="859" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="554">
   <si>
     <t>Name</t>
   </si>
@@ -2324,6 +2324,24 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>FG 40 -30</t>
+  </si>
+  <si>
+    <t>FG 40 -35</t>
+  </si>
+  <si>
+    <t>FG 80 -40</t>
+  </si>
+  <si>
+    <t>FG 120 -50</t>
+  </si>
+  <si>
+    <t>FG 220 -60</t>
+  </si>
+  <si>
+    <t>FG 360 - 80</t>
+  </si>
 </sst>
 </file>
 
@@ -2334,7 +2352,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2497,6 +2515,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3291,13 +3316,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3306,15 +3324,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3408,6 +3417,24 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5039,13 +5066,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>47897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>328377</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>83943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5739,6 +5766,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246945</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>389548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>164575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DF1AC5-C699-CF10-A37B-48DB13A154CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10971389" y="8051881"/>
+          <a:ext cx="5378630" cy="1996306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8114,10 +8185,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8162,940 +8233,1077 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="116" t="s">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="118">
+      <c r="B2" s="115">
         <v>95</v>
       </c>
-      <c r="C2" s="118">
+      <c r="C2" s="115">
         <v>545</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="6">
         <v>22</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="116">
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="116" t="s">
+      <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="118">
+      <c r="B3" s="115">
         <v>147</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="115">
         <v>812</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="6">
         <v>22</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H3" s="116">
+      <c r="H3">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="116" t="s">
+      <c r="A4" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="118">
+      <c r="B4" s="115">
         <v>332</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="115">
         <v>796</v>
       </c>
-      <c r="D4" s="117">
+      <c r="D4" s="6">
         <v>22</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="118">
+      <c r="F4" s="115">
         <v>480</v>
       </c>
-      <c r="G4" s="118">
+      <c r="G4" s="115">
         <v>30</v>
       </c>
-      <c r="H4" s="116">
+      <c r="H4">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="116" t="s">
+      <c r="A5" t="s">
         <v>178</v>
       </c>
-      <c r="B5" s="118">
+      <c r="B5" s="115">
         <v>552</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="115">
         <v>1253</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="6">
         <v>22</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="118">
+      <c r="G5" s="115">
         <v>40</v>
       </c>
-      <c r="H5" s="116">
+      <c r="H5">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="116" t="s">
+      <c r="A6" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="115">
         <v>599</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="115">
         <v>3081</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="6">
         <v>20</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="118">
+      <c r="G6" s="115">
         <v>40</v>
       </c>
-      <c r="H6" s="116">
+      <c r="H6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116" t="s">
+      <c r="A7" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="118">
+      <c r="B7" s="115">
         <v>1063</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="115">
         <v>4092</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="6">
         <v>18</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="118">
+      <c r="G7" s="115">
         <v>50</v>
       </c>
-      <c r="H7" s="116">
+      <c r="H7">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="115">
         <v>1943</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="115">
         <v>10336</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="115">
         <v>12</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="116"/>
-      <c r="G8" s="118">
+      <c r="G8" s="115">
         <v>65</v>
       </c>
-      <c r="H8" s="116">
+      <c r="H8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="119" t="s">
+      <c r="A9" s="116" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="118">
+      <c r="B9" s="115">
         <v>3503</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="115">
         <v>14014</v>
       </c>
-      <c r="D9" s="118">
+      <c r="D9" s="115">
         <v>10</v>
       </c>
-      <c r="E9" s="118" t="s">
+      <c r="E9" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="116"/>
-      <c r="G9" s="118">
+      <c r="G9" s="115">
         <v>80</v>
       </c>
-      <c r="H9" s="116">
+      <c r="H9">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="119" t="s">
+      <c r="A10" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="115">
         <v>130</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="115">
         <v>276</v>
       </c>
-      <c r="D10" s="118">
+      <c r="D10" s="115">
         <v>22</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="116">
+      <c r="H10">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="118">
+      <c r="B11" s="115">
         <v>145</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="115">
         <v>365</v>
       </c>
-      <c r="D11" s="118">
+      <c r="D11" s="115">
         <v>22</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="118">
+      <c r="F11" s="115">
         <v>200</v>
       </c>
-      <c r="G11" s="118" t="s">
+      <c r="G11" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H11" s="116">
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="115">
         <v>332</v>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="115">
         <v>1444</v>
       </c>
-      <c r="D12" s="118">
+      <c r="D12" s="115">
         <v>22</v>
       </c>
-      <c r="E12" s="118" t="s">
+      <c r="E12" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="118">
+      <c r="F12" s="115">
         <v>460</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="115">
         <v>30</v>
       </c>
-      <c r="H12" s="116">
+      <c r="H12">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="118">
+      <c r="B13" s="115">
         <v>542</v>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="115">
         <v>1863</v>
       </c>
-      <c r="D13" s="118">
+      <c r="D13" s="115">
         <v>22</v>
       </c>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="116"/>
-      <c r="G13" s="118">
+      <c r="G13" s="115">
         <v>40</v>
       </c>
-      <c r="H13" s="116">
+      <c r="H13">
         <v>10</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="118">
+      <c r="B14" s="115">
         <v>1000</v>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="115">
         <v>3560</v>
       </c>
-      <c r="D14" s="118">
+      <c r="D14" s="115">
         <v>12</v>
       </c>
-      <c r="E14" s="118" t="s">
+      <c r="E14" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="116"/>
-      <c r="G14" s="118">
+      <c r="G14" s="115">
         <v>50</v>
       </c>
-      <c r="H14" s="116">
+      <c r="H14">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="118">
+      <c r="B15" s="115">
         <v>1063</v>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="115">
         <v>4092</v>
       </c>
-      <c r="D15" s="118">
+      <c r="D15" s="115">
         <v>18</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="115" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116">
+      <c r="H15">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="116" t="s">
+      <c r="A16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="118">
+      <c r="B16" s="115">
         <v>145</v>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="115">
         <v>365</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="6">
         <v>22</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="118">
+      <c r="F16" s="115">
         <v>200</v>
       </c>
-      <c r="G16" s="118" t="s">
+      <c r="G16" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="78"/>
-      <c r="B22" s="121" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="152" t="s">
+        <v>548</v>
+      </c>
+      <c r="B18" s="153">
+        <v>400</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1075</v>
+      </c>
+      <c r="D18" s="153">
+        <v>24</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="152" t="s">
+        <v>549</v>
+      </c>
+      <c r="B19" s="153">
+        <v>400</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1075</v>
+      </c>
+      <c r="D19" s="153">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6">
+        <v>35</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="152" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" s="153">
+        <v>800</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2330</v>
+      </c>
+      <c r="D20" s="153">
+        <v>24</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="152" t="s">
+        <v>551</v>
+      </c>
+      <c r="B21" s="153">
+        <v>1200</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3530</v>
+      </c>
+      <c r="D21" s="153">
+        <v>24</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6">
+        <v>50</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="152" t="s">
+        <v>552</v>
+      </c>
+      <c r="B22" s="153">
+        <v>2200</v>
+      </c>
+      <c r="C22" s="6">
+        <v>6691</v>
+      </c>
+      <c r="D22" s="153">
+        <v>15</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6">
+        <v>60</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="152" t="s">
+        <v>553</v>
+      </c>
+      <c r="B23" s="153">
+        <v>3600</v>
+      </c>
+      <c r="C23" s="6">
+        <v>10260</v>
+      </c>
+      <c r="D23" s="6">
+        <v>15</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="6">
+        <v>80</v>
+      </c>
+      <c r="H23" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="78"/>
+      <c r="C27" s="149" t="s">
         <v>538</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="123"/>
-    </row>
-    <row r="23" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="78"/>
-      <c r="B23" s="124" t="s">
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="78"/>
+      <c r="C28" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="D28" s="119" t="s">
         <v>539</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="E28" s="119" t="s">
         <v>540</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="F28" s="119" t="s">
         <v>541</v>
       </c>
-      <c r="F23" s="125" t="s">
+      <c r="G28" s="119" t="s">
         <v>542</v>
       </c>
-      <c r="G23" s="125" t="s">
+      <c r="H28" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="125" t="s">
+      <c r="I28" s="119" t="s">
         <v>543</v>
       </c>
-      <c r="I23" s="126" t="s">
+      <c r="J28" s="120" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="127" t="s">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="121" t="s">
         <v>545</v>
       </c>
-      <c r="B24" s="128">
+      <c r="C29" s="122">
         <v>1</v>
       </c>
-      <c r="C24" s="129">
+      <c r="D29" s="123">
         <v>2</v>
       </c>
-      <c r="D24" s="129">
+      <c r="E29" s="123">
         <v>3</v>
       </c>
-      <c r="E24" s="129">
+      <c r="F29" s="123">
         <v>4</v>
       </c>
-      <c r="F24" s="129">
+      <c r="G29" s="123">
         <v>5</v>
       </c>
-      <c r="G24" s="129">
+      <c r="H29" s="123">
         <v>6</v>
       </c>
-      <c r="H24" s="129">
+      <c r="I29" s="123">
         <v>7</v>
       </c>
-      <c r="I24" s="130">
+      <c r="J29" s="124">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="131">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="125">
         <v>508</v>
       </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="133"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134">
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128">
         <v>300</v>
       </c>
-      <c r="H25" s="134">
+      <c r="I30" s="128">
         <v>740</v>
       </c>
-      <c r="I25" s="135">
+      <c r="J30" s="129">
         <v>1395</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="136">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="130">
         <v>457</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139">
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133">
         <v>330</v>
       </c>
-      <c r="H26" s="139">
+      <c r="I31" s="133">
         <v>755</v>
       </c>
-      <c r="I26" s="140">
+      <c r="J31" s="134">
         <v>1430</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="141">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="135">
         <v>419</v>
       </c>
-      <c r="B27" s="142"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144">
+      <c r="C32" s="136"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138">
         <v>380</v>
       </c>
-      <c r="H27" s="144">
+      <c r="I32" s="138">
         <v>800</v>
       </c>
-      <c r="I27" s="145">
+      <c r="J32" s="139">
         <v>1500</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="136">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="130">
         <v>406</v>
       </c>
-      <c r="B28" s="137"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139">
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133">
         <v>400</v>
       </c>
-      <c r="H28" s="139">
+      <c r="I33" s="133">
         <v>825</v>
       </c>
-      <c r="I28" s="140">
+      <c r="J33" s="134">
         <v>1545</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="141">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="135">
         <v>368</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144">
+      <c r="C34" s="136"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="138"/>
+      <c r="F34" s="138"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="138">
         <v>450</v>
       </c>
-      <c r="H29" s="144">
+      <c r="I34" s="138">
         <v>890</v>
       </c>
-      <c r="I29" s="145">
+      <c r="J34" s="139">
         <v>1620</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="136">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="130">
         <v>355</v>
       </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139">
+      <c r="C35" s="131"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="133"/>
+      <c r="H35" s="133">
         <v>500</v>
       </c>
-      <c r="H30" s="139">
+      <c r="I35" s="133">
         <v>950</v>
       </c>
-      <c r="I30" s="140">
+      <c r="J35" s="134">
         <v>1700</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="141">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="135">
         <v>323</v>
       </c>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144">
+      <c r="C36" s="136"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="138"/>
+      <c r="F36" s="138"/>
+      <c r="G36" s="138">
         <v>427</v>
       </c>
-      <c r="G31" s="144">
+      <c r="H36" s="138">
         <v>560</v>
       </c>
-      <c r="H31" s="144">
+      <c r="I36" s="138">
         <v>980</v>
       </c>
-      <c r="I31" s="145">
+      <c r="J36" s="139">
         <v>1700</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="136">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="130">
         <v>298</v>
       </c>
-      <c r="B32" s="137"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139">
+      <c r="C37" s="131"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133">
         <v>486</v>
       </c>
-      <c r="G32" s="139">
+      <c r="H37" s="133">
         <v>610</v>
       </c>
-      <c r="H32" s="139">
+      <c r="I37" s="133">
         <v>1110</v>
       </c>
-      <c r="I32" s="140">
+      <c r="J37" s="134">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="141">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="135">
         <v>267</v>
       </c>
-      <c r="B33" s="142"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144">
+      <c r="C38" s="136"/>
+      <c r="D38" s="137"/>
+      <c r="E38" s="138">
         <v>220</v>
       </c>
-      <c r="E33" s="144">
+      <c r="F38" s="138">
         <v>290</v>
       </c>
-      <c r="F33" s="144">
+      <c r="G38" s="138">
         <v>564</v>
       </c>
-      <c r="G33" s="144">
+      <c r="H38" s="138">
         <v>695</v>
       </c>
-      <c r="H33" s="144">
+      <c r="I38" s="138">
         <v>1160</v>
       </c>
-      <c r="I33" s="145">
+      <c r="J38" s="139">
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="136">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="130">
         <v>244</v>
       </c>
-      <c r="B34" s="137"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="139">
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="133">
         <v>250</v>
       </c>
-      <c r="E34" s="139">
+      <c r="F39" s="133">
         <v>310</v>
       </c>
-      <c r="F34" s="139">
+      <c r="G39" s="133">
         <v>632</v>
       </c>
-      <c r="G34" s="139">
+      <c r="H39" s="133">
         <v>720</v>
       </c>
-      <c r="H34" s="139">
+      <c r="I39" s="133">
         <v>1160</v>
       </c>
-      <c r="I34" s="140">
+      <c r="J39" s="134">
         <v>1700</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="141">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="135">
         <v>219</v>
       </c>
-      <c r="B35" s="142"/>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144">
+      <c r="C40" s="136"/>
+      <c r="D40" s="137"/>
+      <c r="E40" s="138">
         <v>290</v>
       </c>
-      <c r="E35" s="144">
+      <c r="F40" s="138">
         <v>355</v>
       </c>
-      <c r="F35" s="144">
+      <c r="G40" s="138">
         <v>721</v>
       </c>
-      <c r="G35" s="144">
+      <c r="H40" s="138">
         <v>830</v>
       </c>
-      <c r="H35" s="144">
+      <c r="I40" s="138">
         <v>1160</v>
       </c>
-      <c r="I35" s="145">
+      <c r="J40" s="139">
         <v>1700</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="136">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="130">
         <v>193</v>
       </c>
-      <c r="B36" s="137"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="139">
+      <c r="C41" s="131"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="133">
         <v>325</v>
       </c>
-      <c r="E36" s="139">
+      <c r="F41" s="133">
         <v>390</v>
       </c>
-      <c r="F36" s="139">
+      <c r="G41" s="133">
         <v>823</v>
       </c>
-      <c r="G36" s="139">
+      <c r="H41" s="133">
         <v>925</v>
       </c>
-      <c r="H36" s="139">
+      <c r="I41" s="133">
         <v>1160</v>
       </c>
-      <c r="I36" s="140">
+      <c r="J41" s="134">
         <v>1700</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="141">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="135">
         <v>178</v>
       </c>
-      <c r="B37" s="142"/>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144">
+      <c r="C42" s="136"/>
+      <c r="D42" s="137"/>
+      <c r="E42" s="138">
         <v>325</v>
       </c>
-      <c r="E37" s="144">
+      <c r="F42" s="138">
         <v>390</v>
       </c>
-      <c r="F37" s="144">
+      <c r="G42" s="138">
         <v>823</v>
       </c>
-      <c r="G37" s="144">
+      <c r="H42" s="138">
         <v>940</v>
       </c>
-      <c r="H37" s="144">
+      <c r="I42" s="138">
         <v>1160</v>
       </c>
-      <c r="I37" s="145">
+      <c r="J42" s="139">
         <v>1700</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="136">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="130">
         <v>165</v>
       </c>
-      <c r="B38" s="137"/>
-      <c r="C38" s="138" t="s">
+      <c r="C43" s="131"/>
+      <c r="D43" s="132" t="s">
         <v>546</v>
       </c>
-      <c r="D38" s="139">
+      <c r="E43" s="133">
         <v>360</v>
       </c>
-      <c r="E38" s="139">
+      <c r="F43" s="133">
         <v>425</v>
       </c>
-      <c r="F38" s="139">
+      <c r="G43" s="133">
         <v>823</v>
       </c>
-      <c r="G38" s="139">
+      <c r="H43" s="133">
         <v>980</v>
       </c>
-      <c r="H38" s="139">
+      <c r="I43" s="133">
         <v>1160</v>
       </c>
-      <c r="I38" s="140">
+      <c r="J43" s="134">
         <v>1700</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="141">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="135">
         <v>159</v>
       </c>
-      <c r="B39" s="142"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144">
+      <c r="C44" s="136"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="138">
         <v>375</v>
       </c>
-      <c r="E39" s="144">
+      <c r="F44" s="138">
         <v>455</v>
       </c>
-      <c r="F39" s="144">
+      <c r="G44" s="138">
         <v>823</v>
       </c>
-      <c r="G39" s="146" t="s">
+      <c r="H44" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="H39" s="146" t="s">
+      <c r="I44" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="I39" s="147" t="s">
+      <c r="J44" s="141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="136">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="130">
         <v>139</v>
       </c>
-      <c r="B40" s="137"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="139">
+      <c r="C45" s="131"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="133">
         <v>405</v>
       </c>
-      <c r="E40" s="148">
+      <c r="F45" s="142">
         <v>487</v>
       </c>
-      <c r="F40" s="139">
+      <c r="G45" s="133">
         <v>823</v>
       </c>
-      <c r="G40" s="146" t="s">
+      <c r="H45" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="H40" s="146" t="s">
+      <c r="I45" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="I40" s="147" t="s">
+      <c r="J45" s="141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="141">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="135">
         <v>133</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144">
+      <c r="C46" s="136"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="138">
         <v>405</v>
       </c>
-      <c r="E41" s="144">
+      <c r="F46" s="138">
         <v>490</v>
       </c>
-      <c r="F41" s="144">
+      <c r="G46" s="138">
         <v>823</v>
       </c>
-      <c r="G41" s="146" t="s">
+      <c r="H46" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="H41" s="146" t="s">
+      <c r="I46" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="I41" s="147" t="s">
+      <c r="J46" s="141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="136">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="130">
         <v>127</v>
       </c>
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="139">
+      <c r="C47" s="131"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="133">
         <v>425</v>
       </c>
-      <c r="E42" s="139">
+      <c r="F47" s="133">
         <v>490</v>
       </c>
-      <c r="F42" s="146">
+      <c r="G47" s="140">
         <v>823</v>
       </c>
-      <c r="G42" s="146" t="s">
+      <c r="H47" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="H42" s="146" t="s">
+      <c r="I47" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="I42" s="147" t="s">
+      <c r="J47" s="141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="141">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="135">
         <v>102</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="138">
+      <c r="C48" s="136"/>
+      <c r="D48" s="132">
         <v>218</v>
       </c>
-      <c r="D43" s="144">
+      <c r="E48" s="138">
         <v>460</v>
       </c>
-      <c r="E43" s="146">
+      <c r="F48" s="140">
         <v>490</v>
       </c>
-      <c r="F43" s="146" t="s">
+      <c r="G48" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="G43" s="146" t="s">
+      <c r="H48" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="H43" s="146" t="s">
+      <c r="I48" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="I43" s="147" t="s">
+      <c r="J48" s="141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="149">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="143">
         <v>83</v>
       </c>
-      <c r="B44" s="137">
+      <c r="C49" s="131">
         <v>204</v>
       </c>
-      <c r="C44" s="138">
+      <c r="D49" s="132">
         <v>234</v>
       </c>
-      <c r="D44" s="146" t="s">
+      <c r="E49" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="E44" s="146" t="s">
+      <c r="F49" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="F44" s="146" t="s">
+      <c r="G49" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="G44" s="146" t="s">
+      <c r="H49" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="H44" s="146" t="s">
+      <c r="I49" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="I44" s="147" t="s">
+      <c r="J49" s="141" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="150">
+    <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="144">
         <v>76</v>
       </c>
-      <c r="B45" s="151">
+      <c r="C50" s="145">
         <v>206</v>
       </c>
-      <c r="C45" s="152">
+      <c r="D50" s="146">
         <v>242</v>
       </c>
-      <c r="D45" s="153" t="s">
+      <c r="E50" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="E45" s="153" t="s">
+      <c r="F50" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="F45" s="153" t="s">
+      <c r="G50" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="G45" s="153" t="s">
+      <c r="H50" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="H45" s="153" t="s">
+      <c r="I50" s="147" t="s">
         <v>547</v>
       </c>
-      <c r="I45" s="154" t="s">
+      <c r="J50" s="148" t="s">
         <v>547</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B22:I22"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9786,15 +9994,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="115">
+      <c r="D6" s="154">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1168" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FA14B0F-84AD-448F-A765-F15C08250D01}"/>
+  <xr:revisionPtr revIDLastSave="1195" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E92667A8-6815-4DB1-81C7-F611C7B62508}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="780" windowWidth="24910" windowHeight="15220" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="1710" windowWidth="25780" windowHeight="18540" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="577">
   <si>
     <t>Name</t>
   </si>
@@ -2405,6 +2405,12 @@
   </si>
   <si>
     <t>KE 80.24   19-57 1 1/4"</t>
+  </si>
+  <si>
+    <t>Ranger 70 1ph 15-57 1/2"</t>
+  </si>
+  <si>
+    <t>CD300 4.5 Kgs/m3</t>
   </si>
 </sst>
 </file>
@@ -3052,7 +3058,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3493,20 +3499,11 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -6219,7 +6216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:U123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
@@ -8209,7 +8206,7 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
-        <f>Chaindrive!A51</f>
+        <f>Chaindrive!A52</f>
         <v>JM200</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -8219,14 +8216,14 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <f>Chaindrive!I51</f>
+        <f>Chaindrive!I52</f>
         <v>110.90909090909092</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F53" s="1">
-        <f>Chaindrive!K51</f>
+        <f>Chaindrive!K52</f>
         <v>6.1311475409836058</v>
       </c>
       <c r="G53" s="1">
@@ -8265,14 +8262,14 @@
         <v>15.01</v>
       </c>
       <c r="D54" s="1">
-        <f>Chaindrive!I52</f>
+        <f>Chaindrive!I53</f>
         <v>344.44444444444446</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F54" s="1">
-        <f>Chaindrive!K52</f>
+        <f>Chaindrive!K53</f>
         <v>6.12</v>
       </c>
       <c r="G54" s="1">
@@ -8311,14 +8308,14 @@
         <v>62.01</v>
       </c>
       <c r="D55" s="1">
-        <f>Chaindrive!I53</f>
+        <f>Chaindrive!I54</f>
         <v>608</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F55" s="1">
-        <f>Chaindrive!K53</f>
+        <f>Chaindrive!K54</f>
         <v>3.4375</v>
       </c>
       <c r="G55" s="1">
@@ -8399,7 +8396,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
-        <f>Chaindrive!A7</f>
+        <f>Chaindrive!A8</f>
         <v>Ranger 90 1ph 19-57 1/2"</v>
       </c>
       <c r="B58" t="s">
@@ -8410,7 +8407,7 @@
         <v>210.01</v>
       </c>
       <c r="D58" s="36">
-        <f>Chaindrive!I7</f>
+        <f>Chaindrive!I8</f>
         <v>270</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -8450,7 +8447,7 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
-        <f>Chaindrive!A8</f>
+        <f>Chaindrive!A9</f>
         <v>Ranger 90 1ph 15-57 1/2"</v>
       </c>
       <c r="B59" t="s">
@@ -8461,14 +8458,14 @@
         <v>270.01</v>
       </c>
       <c r="D59" s="36">
-        <f>Chaindrive!I8</f>
+        <f>Chaindrive!I9</f>
         <v>342</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F59" s="1">
-        <f>Chaindrive!K8</f>
+        <f>Chaindrive!K9</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="G59" s="1">
@@ -8500,7 +8497,7 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="str">
-        <f>Chaindrive!A11</f>
+        <f>Chaindrive!A12</f>
         <v>Ranger 90 3ph 19-57 1/2"</v>
       </c>
       <c r="B61" t="s">
@@ -8510,14 +8507,14 @@
         <v>0</v>
       </c>
       <c r="D61" s="36">
-        <f>Chaindrive!I11</f>
+        <f>Chaindrive!I12</f>
         <v>270</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F61" s="35">
-        <f>Chaindrive!K11</f>
+        <f>Chaindrive!K12</f>
         <v>10.666666666666666</v>
       </c>
       <c r="G61" s="1">
@@ -8553,7 +8550,7 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
-        <f>Chaindrive!A12</f>
+        <f>Chaindrive!A13</f>
         <v>Ranger 90 3ph 15-57 1/2"</v>
       </c>
       <c r="B62" t="s">
@@ -8564,14 +8561,14 @@
         <v>270.01</v>
       </c>
       <c r="D62" s="36">
-        <f>Chaindrive!I12</f>
+        <f>Chaindrive!I13</f>
         <v>342</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F62" s="35">
-        <f>Chaindrive!K12</f>
+        <f>Chaindrive!K13</f>
         <v>8.4210526315789469</v>
       </c>
       <c r="G62" s="1">
@@ -8605,7 +8602,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="str">
-        <f>Chaindrive!A13</f>
+        <f>Chaindrive!A14</f>
         <v>Ranger 90 3ph 12-57 1/2"</v>
       </c>
       <c r="B63" t="s">
@@ -8616,14 +8613,14 @@
         <v>342.01</v>
       </c>
       <c r="D63" s="36">
-        <f>Chaindrive!I13</f>
+        <f>Chaindrive!I14</f>
         <v>427.5</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="2">
-        <f>Chaindrive!K13</f>
+        <f>Chaindrive!K14</f>
         <v>6.7368421052631575</v>
       </c>
       <c r="G63" s="1">
@@ -8656,7 +8653,7 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
-        <f>Chaindrive!A18</f>
+        <f>Chaindrive!A19</f>
         <v>Ranger150 3ph 18-57 5/8"</v>
       </c>
       <c r="B64" t="s">
@@ -8667,15 +8664,15 @@
         <v>427.51</v>
       </c>
       <c r="D64" s="36">
-        <f>Chaindrive!I18</f>
-        <v>475</v>
+        <f>Chaindrive!I19</f>
+        <v>450</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F64" s="2">
-        <f>Chaindrive!K18</f>
-        <v>15.157894736842106</v>
+        <f>Chaindrive!K19</f>
+        <v>16</v>
       </c>
       <c r="G64" s="1">
         <v>415</v>
@@ -8701,7 +8698,7 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
-        <f>Chaindrive!A19</f>
+        <f>Chaindrive!A20</f>
         <v>Ranger150 3ph 12-57 5/8"</v>
       </c>
       <c r="B65" t="s">
@@ -8709,7 +8706,7 @@
       </c>
       <c r="C65" s="2">
         <f>D64+0.01</f>
-        <v>475.01</v>
+        <v>450.01</v>
       </c>
       <c r="D65" s="36">
         <v>713</v>
@@ -8750,7 +8747,7 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
-        <f>Chaindrive!A24</f>
+        <f>Chaindrive!A25</f>
         <v>Ranger220 3ph 15-57 5/8"</v>
       </c>
       <c r="B66" t="s">
@@ -8760,14 +8757,14 @@
         <v>713.01</v>
       </c>
       <c r="D66" s="36">
-        <f>Chaindrive!I24</f>
+        <f>Chaindrive!I25</f>
         <v>836</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F66" s="2">
-        <f>Chaindrive!K24</f>
+        <f>Chaindrive!K25</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="G66" s="1">
@@ -8800,7 +8797,7 @@
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
-        <f>Chaindrive!A28</f>
+        <f>Chaindrive!A29</f>
         <v>KE 20.24 19-57 3/4"</v>
       </c>
       <c r="B68" t="s">
@@ -8810,14 +8807,14 @@
         <v>0</v>
       </c>
       <c r="D68" s="36">
-        <f>Chaindrive!I28</f>
+        <f>Chaindrive!I29</f>
         <v>600</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F68" s="2">
-        <f>Chaindrive!K28</f>
+        <f>Chaindrive!K29</f>
         <v>8</v>
       </c>
       <c r="G68" s="1">
@@ -8841,7 +8838,7 @@
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
-        <f>Chaindrive!A29</f>
+        <f>Chaindrive!A30</f>
         <v>KE 30.24  19-57 3/4"</v>
       </c>
       <c r="B69" t="s">
@@ -8851,14 +8848,14 @@
         <v>600.01</v>
       </c>
       <c r="D69" s="36">
-        <f>Chaindrive!I29</f>
+        <f>Chaindrive!I30</f>
         <v>900</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F69" s="2">
-        <f>Chaindrive!K29</f>
+        <f>Chaindrive!K30</f>
         <v>8</v>
       </c>
       <c r="G69" s="1">
@@ -8882,7 +8879,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
-        <f>Chaindrive!A30</f>
+        <f>Chaindrive!A31</f>
         <v>KE 40.24  19-57 1"</v>
       </c>
       <c r="B70" t="s">
@@ -8892,14 +8889,14 @@
         <v>900.01</v>
       </c>
       <c r="D70" s="36">
-        <f>Chaindrive!I30</f>
+        <f>Chaindrive!I31</f>
         <v>1200</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F70" s="2">
-        <f>Chaindrive!K30</f>
+        <f>Chaindrive!K31</f>
         <v>8</v>
       </c>
       <c r="G70" s="1">
@@ -8923,7 +8920,7 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
-        <f>Chaindrive!A31</f>
+        <f>Chaindrive!A32</f>
         <v>KE 60.24   19-57 1"</v>
       </c>
       <c r="B71" t="s">
@@ -8933,14 +8930,14 @@
         <v>1200.01</v>
       </c>
       <c r="D71" s="36">
-        <f>Chaindrive!I31</f>
+        <f>Chaindrive!I32</f>
         <v>1800</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F71" s="2">
-        <f>Chaindrive!K31</f>
+        <f>Chaindrive!K32</f>
         <v>8</v>
       </c>
       <c r="G71" s="1">
@@ -8964,7 +8961,7 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
-        <f>Chaindrive!A32</f>
+        <f>Chaindrive!A33</f>
         <v>KE 80.24   19-57 1 1/4"</v>
       </c>
       <c r="B72" t="s">
@@ -8974,14 +8971,14 @@
         <v>1800.01</v>
       </c>
       <c r="D72" s="36">
-        <f>Chaindrive!I32</f>
+        <f>Chaindrive!I33</f>
         <v>2400</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F72" s="2">
-        <f>Chaindrive!K32</f>
+        <f>Chaindrive!K33</f>
         <v>8</v>
       </c>
       <c r="G72" s="1">
@@ -9020,436 +9017,420 @@
         <v>503</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="154" t="s">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B76" s="154" t="s">
+      <c r="B76" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C76" s="155">
+      <c r="C76" s="1">
         <f t="shared" ref="C76:C77" si="2">D75+0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D76" s="155">
+      <c r="D76" s="1">
         <v>100</v>
       </c>
-      <c r="E76" s="155" t="s">
+      <c r="E76" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F76" s="155">
+      <c r="F76" s="1">
         <v>15</v>
       </c>
-      <c r="G76" s="155">
+      <c r="G76" s="1">
         <v>415</v>
       </c>
-      <c r="H76" s="155" t="s">
+      <c r="H76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I76" s="155" t="s">
+      <c r="I76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J76" s="155"/>
-      <c r="K76" s="155" t="s">
+      <c r="K76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L76" s="155">
+      <c r="L76" s="1">
         <v>30</v>
       </c>
-      <c r="M76" s="155" t="s">
+      <c r="M76" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N76" s="155">
+      <c r="N76" s="1">
         <v>8</v>
       </c>
-      <c r="O76" s="155"/>
-      <c r="Q76" s="157" t="s">
+      <c r="Q76" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="T76" s="158">
+      <c r="T76" s="153">
         <v>266</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="156" t="s">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="156" t="s">
+      <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="155">
+      <c r="C77" s="1">
         <f t="shared" si="2"/>
         <v>100.01</v>
       </c>
-      <c r="D77" s="157">
+      <c r="D77" s="6">
         <v>170</v>
       </c>
-      <c r="E77" s="155" t="s">
+      <c r="E77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F77" s="157">
+      <c r="F77" s="6">
         <v>15</v>
       </c>
-      <c r="G77" s="155">
+      <c r="G77" s="1">
         <v>415</v>
       </c>
-      <c r="H77" s="155" t="s">
+      <c r="H77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="155" t="s">
+      <c r="I77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J77" s="155"/>
-      <c r="K77" s="155" t="s">
+      <c r="K77" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L77" s="155">
+      <c r="L77" s="1">
         <v>30</v>
       </c>
-      <c r="M77" s="155" t="s">
+      <c r="M77" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N77" s="155">
+      <c r="N77" s="1">
         <v>8</v>
       </c>
-      <c r="O77" s="155"/>
-      <c r="P77" s="156">
+      <c r="P77">
         <v>400</v>
       </c>
-      <c r="Q77" s="157" t="s">
+      <c r="Q77" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="R77" s="156">
+      <c r="R77">
         <v>20</v>
       </c>
-      <c r="T77" s="158">
+      <c r="T77" s="153">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="156" t="s">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>37</v>
       </c>
-      <c r="B78" s="156" t="s">
+      <c r="B78" t="s">
         <v>86</v>
       </c>
-      <c r="C78" s="155">
+      <c r="C78" s="1">
         <f>D77+0.01</f>
         <v>170.01</v>
       </c>
-      <c r="D78" s="157">
+      <c r="D78" s="6">
         <v>250</v>
       </c>
-      <c r="E78" s="155" t="s">
+      <c r="E78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F78" s="157">
+      <c r="F78" s="6">
         <v>15</v>
       </c>
-      <c r="G78" s="155">
+      <c r="G78" s="1">
         <v>415</v>
       </c>
-      <c r="H78" s="155" t="s">
+      <c r="H78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I78" s="155" t="s">
+      <c r="I78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J78" s="155"/>
-      <c r="K78" s="155" t="s">
+      <c r="K78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L78" s="155">
+      <c r="L78" s="1">
         <v>30</v>
       </c>
-      <c r="M78" s="155" t="s">
+      <c r="M78" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N78" s="155">
+      <c r="N78" s="1">
         <v>8</v>
       </c>
-      <c r="O78" s="155"/>
-      <c r="P78" s="156">
+      <c r="P78">
         <v>750</v>
       </c>
-      <c r="Q78" s="157" t="s">
+      <c r="Q78" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="R78" s="156">
+      <c r="R78">
         <v>20</v>
       </c>
-      <c r="T78" s="158">
+      <c r="T78" s="153">
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="156" t="s">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>38</v>
       </c>
-      <c r="B79" s="156" t="s">
+      <c r="B79" t="s">
         <v>86</v>
       </c>
-      <c r="C79" s="155">
+      <c r="C79" s="1">
         <f t="shared" ref="C79:C87" si="3">D78+0.01</f>
         <v>250.01</v>
       </c>
-      <c r="D79" s="157">
+      <c r="D79" s="6">
         <v>350</v>
       </c>
-      <c r="E79" s="155" t="s">
+      <c r="E79" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F79" s="157">
+      <c r="F79" s="6">
         <v>15</v>
       </c>
-      <c r="G79" s="155">
+      <c r="G79" s="1">
         <v>415</v>
       </c>
-      <c r="H79" s="155" t="s">
+      <c r="H79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="155" t="s">
+      <c r="I79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J79" s="155"/>
-      <c r="K79" s="155" t="s">
+      <c r="K79" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L79" s="155">
+      <c r="L79" s="1">
         <v>40</v>
       </c>
-      <c r="M79" s="155" t="s">
+      <c r="M79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N79" s="155">
+      <c r="N79" s="1">
         <v>9</v>
       </c>
-      <c r="O79" s="155"/>
-      <c r="P79" s="156">
+      <c r="P79">
         <v>850</v>
       </c>
-      <c r="Q79" s="157" t="s">
+      <c r="Q79" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="R79" s="156">
+      <c r="R79">
         <v>20</v>
       </c>
-      <c r="T79" s="158">
+      <c r="T79" s="153">
         <v>383</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="156" t="s">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>39</v>
       </c>
-      <c r="B80" s="156" t="s">
+      <c r="B80" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="155">
+      <c r="C80" s="1">
         <f t="shared" si="3"/>
         <v>350.01</v>
       </c>
-      <c r="D80" s="157">
+      <c r="D80" s="6">
         <v>450</v>
       </c>
-      <c r="E80" s="155" t="s">
+      <c r="E80" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F80" s="157">
+      <c r="F80" s="6">
         <v>15</v>
       </c>
-      <c r="G80" s="155">
+      <c r="G80" s="1">
         <v>415</v>
       </c>
-      <c r="H80" s="155" t="s">
+      <c r="H80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I80" s="155" t="s">
+      <c r="I80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J80" s="155"/>
-      <c r="K80" s="155" t="s">
+      <c r="K80" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L80" s="155">
+      <c r="L80" s="1">
         <v>40</v>
       </c>
-      <c r="M80" s="155" t="s">
+      <c r="M80" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N80" s="155">
+      <c r="N80" s="1">
         <v>9</v>
       </c>
-      <c r="O80" s="155"/>
-      <c r="P80" s="156">
+      <c r="P80">
         <v>1100</v>
       </c>
-      <c r="Q80" s="157" t="s">
+      <c r="Q80" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="R80" s="156">
+      <c r="R80">
         <v>20</v>
       </c>
-      <c r="T80" s="158"/>
-    </row>
-    <row r="81" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="156" t="s">
+      <c r="T80" s="153"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="156" t="s">
+      <c r="B81" t="s">
         <v>86</v>
       </c>
-      <c r="C81" s="155">
+      <c r="C81" s="1">
         <f t="shared" si="3"/>
         <v>450.01</v>
       </c>
-      <c r="D81" s="157">
+      <c r="D81" s="6">
         <v>550</v>
       </c>
-      <c r="E81" s="155" t="s">
+      <c r="E81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F81" s="157">
+      <c r="F81" s="6">
         <v>15</v>
       </c>
-      <c r="G81" s="155">
+      <c r="G81" s="1">
         <v>415</v>
       </c>
-      <c r="H81" s="155" t="s">
+      <c r="H81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="155" t="s">
+      <c r="I81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J81" s="155"/>
-      <c r="K81" s="155" t="s">
+      <c r="K81" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L81" s="155">
+      <c r="L81" s="1">
         <v>40</v>
       </c>
-      <c r="M81" s="155" t="s">
+      <c r="M81" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N81" s="155">
+      <c r="N81" s="1">
         <v>9</v>
       </c>
-      <c r="O81" s="155"/>
-      <c r="P81" s="156">
+      <c r="P81">
         <v>1100</v>
       </c>
-      <c r="Q81" s="157" t="s">
+      <c r="Q81" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="R81" s="156">
+      <c r="R81">
         <v>20</v>
       </c>
-      <c r="T81" s="158"/>
-    </row>
-    <row r="82" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="156" t="s">
+      <c r="T81" s="153"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>220</v>
       </c>
-      <c r="B82" s="156" t="s">
+      <c r="B82" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="155">
+      <c r="C82" s="1">
         <f t="shared" si="3"/>
         <v>550.01</v>
       </c>
-      <c r="D82" s="157">
+      <c r="D82" s="6">
         <v>650</v>
       </c>
-      <c r="E82" s="155" t="s">
+      <c r="E82" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F82" s="157">
+      <c r="F82" s="6">
         <v>15</v>
       </c>
-      <c r="G82" s="155">
+      <c r="G82" s="1">
         <v>415</v>
       </c>
-      <c r="H82" s="155" t="s">
+      <c r="H82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I82" s="155" t="s">
+      <c r="I82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J82" s="155"/>
-      <c r="K82" s="155" t="s">
+      <c r="K82" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L82" s="155">
+      <c r="L82" s="1">
         <v>40</v>
       </c>
-      <c r="M82" s="155" t="s">
+      <c r="M82" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N82" s="155">
+      <c r="N82" s="1">
         <v>9</v>
       </c>
-      <c r="O82" s="155"/>
-      <c r="Q82" s="157" t="s">
+      <c r="Q82" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="R82" s="156">
+      <c r="R82">
         <v>20</v>
       </c>
-      <c r="T82" s="158"/>
-    </row>
-    <row r="83" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="156" t="s">
+      <c r="T82" s="153"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="156" t="s">
+      <c r="B83" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="155">
+      <c r="C83" s="1">
         <f t="shared" si="3"/>
         <v>650.01</v>
       </c>
-      <c r="D83" s="157">
+      <c r="D83" s="6">
         <v>750</v>
       </c>
-      <c r="E83" s="155" t="s">
+      <c r="E83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F83" s="157">
+      <c r="F83" s="6">
         <v>15</v>
       </c>
-      <c r="G83" s="155">
+      <c r="G83" s="1">
         <v>415</v>
       </c>
-      <c r="H83" s="155" t="s">
+      <c r="H83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I83" s="155" t="s">
+      <c r="I83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J83" s="155"/>
-      <c r="K83" s="155" t="s">
+      <c r="K83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L83" s="155">
+      <c r="L83" s="1">
         <v>55</v>
       </c>
-      <c r="M83" s="155" t="s">
+      <c r="M83" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N83" s="155">
+      <c r="N83" s="1">
         <v>9</v>
       </c>
-      <c r="O83" s="155"/>
-      <c r="P83" s="156">
+      <c r="P83">
         <v>1100</v>
       </c>
-      <c r="Q83" s="157" t="s">
+      <c r="Q83" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="R83" s="156">
+      <c r="R83">
         <v>20</v>
       </c>
-      <c r="T83" s="158"/>
+      <c r="T83" s="153"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -10062,53 +10043,51 @@
       </c>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:20" s="156" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="154" t="s">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="154" t="s">
+      <c r="B97" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C97" s="155">
+      <c r="C97" s="1">
         <f>D96+0.01</f>
         <v>250.01</v>
       </c>
-      <c r="D97" s="155">
+      <c r="D97" s="1">
         <v>450</v>
       </c>
-      <c r="E97" s="155" t="s">
+      <c r="E97" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F97" s="155">
+      <c r="F97" s="1">
         <v>7</v>
       </c>
-      <c r="G97" s="155">
+      <c r="G97" s="1">
         <v>230</v>
       </c>
-      <c r="H97" s="155" t="s">
+      <c r="H97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I97" s="155" t="s">
+      <c r="I97" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J97" s="155"/>
-      <c r="K97" s="155" t="s">
+      <c r="K97" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L97" s="155">
+      <c r="L97" s="1">
         <v>40</v>
       </c>
-      <c r="M97" s="155" t="s">
+      <c r="M97" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N97" s="155">
+      <c r="N97" s="1">
         <v>5</v>
       </c>
-      <c r="O97" s="155"/>
-      <c r="Q97" s="157" t="s">
+      <c r="Q97" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="T97" s="158"/>
+      <c r="T97" s="153"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
@@ -11251,11 +11230,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11377,119 +11356,112 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="72" t="s">
+        <v>575</v>
+      </c>
+      <c r="B5" s="91">
+        <v>15</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91">
+        <v>57</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="95">
+        <f>D5/B5</f>
+        <v>3.8</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="91">
+        <v>71</v>
+      </c>
+      <c r="I5" s="93">
+        <f>H5*F5</f>
+        <v>269.8</v>
+      </c>
+      <c r="J5" s="91">
+        <v>33</v>
+      </c>
+      <c r="K5" s="95">
+        <f>J5/F5</f>
+        <v>8.6842105263157894</v>
+      </c>
+      <c r="L5" s="91">
+        <v>231</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="13"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="6">
         <v>12</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D6" s="6">
         <v>57</v>
       </c>
-      <c r="F5" s="94">
-        <f t="shared" ref="F5" si="0">D5/B5</f>
+      <c r="F6" s="94">
+        <f t="shared" ref="F6" si="0">D6/B6</f>
         <v>4.75</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H6" s="6">
         <v>70</v>
       </c>
-      <c r="I5" s="92">
-        <f t="shared" ref="I5" si="1">H5*F5</f>
+      <c r="I6" s="92">
+        <f t="shared" ref="I6" si="1">H6*F6</f>
         <v>332.5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J6" s="6">
         <v>32</v>
       </c>
-      <c r="K5" s="94">
-        <f t="shared" ref="K5" si="2">J5/F5</f>
+      <c r="K6" s="94">
+        <f t="shared" ref="K6" si="2">J6/F6</f>
         <v>6.7368421052631575</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L6" s="6">
         <v>230</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>230</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O6" s="1">
         <v>25.4</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P6" s="13">
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="78"/>
-    </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A7" s="72" t="s">
-        <v>402</v>
-      </c>
-      <c r="B7" s="91">
-        <v>19</v>
-      </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91">
-        <v>57</v>
-      </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="95">
-        <f>D7/B7</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="91">
-        <v>90</v>
-      </c>
-      <c r="I7" s="93">
-        <f>H7*F7</f>
-        <v>270</v>
-      </c>
-      <c r="J7" s="91">
-        <v>24</v>
-      </c>
-      <c r="K7" s="95">
-        <f>J7/F7</f>
-        <v>8</v>
-      </c>
-      <c r="L7" s="91">
-        <v>230</v>
-      </c>
-      <c r="N7">
-        <v>230</v>
-      </c>
-      <c r="O7" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="P7" s="13">
-        <v>18000</v>
-      </c>
+      <c r="A7" s="78"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="78"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="72" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="B8" s="91">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C8" s="91"/>
       <c r="D8" s="91">
@@ -11497,8 +11469,8 @@
       </c>
       <c r="E8" s="91"/>
       <c r="F8" s="95">
-        <f t="shared" ref="F8" si="3">D8/B8</f>
-        <v>3.8</v>
+        <f>D8/B8</f>
+        <v>3</v>
       </c>
       <c r="G8" s="91" t="s">
         <v>80</v>
@@ -11507,15 +11479,15 @@
         <v>90</v>
       </c>
       <c r="I8" s="93">
-        <f t="shared" ref="I8" si="4">H8*F8</f>
-        <v>342</v>
+        <f>H8*F8</f>
+        <v>270</v>
       </c>
       <c r="J8" s="91">
         <v>24</v>
       </c>
       <c r="K8" s="95">
-        <f t="shared" ref="K8" si="5">J8/F8</f>
-        <v>6.3157894736842106</v>
+        <f>J8/F8</f>
+        <v>8</v>
       </c>
       <c r="L8" s="91">
         <v>230</v>
@@ -11531,37 +11503,39 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="6">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="A9" s="72" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="91">
+        <v>15</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91">
         <v>57</v>
       </c>
-      <c r="F9" s="94">
-        <f>D9/B9</f>
-        <v>4.75</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="95">
+        <f t="shared" ref="F9" si="3">D9/B9</f>
+        <v>3.8</v>
+      </c>
+      <c r="G9" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="91">
         <v>90</v>
       </c>
-      <c r="I9" s="92">
-        <f>H9*F9</f>
-        <v>427.5</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="93">
+        <f t="shared" ref="I9" si="4">H9*F9</f>
+        <v>342</v>
+      </c>
+      <c r="J9" s="91">
         <v>24</v>
       </c>
-      <c r="K9" s="94">
-        <f>J9/F9</f>
-        <v>5.0526315789473681</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="K9" s="95">
+        <f t="shared" ref="K9" si="5">J9/F9</f>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L9" s="91">
         <v>230</v>
       </c>
       <c r="N9">
@@ -11575,75 +11549,73 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A10" s="78"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="78"/>
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="6">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6">
+        <v>57</v>
+      </c>
+      <c r="F10" s="94">
+        <f>D10/B10</f>
+        <v>4.75</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="6">
+        <v>90</v>
+      </c>
+      <c r="I10" s="92">
+        <f>H10*F10</f>
+        <v>427.5</v>
+      </c>
+      <c r="J10" s="6">
+        <v>24</v>
+      </c>
+      <c r="K10" s="94">
+        <f>J10/F10</f>
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="L10" s="6">
+        <v>230</v>
+      </c>
+      <c r="N10">
+        <v>230</v>
+      </c>
+      <c r="O10" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="P10" s="13">
+        <v>18000</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A11" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="B11" s="91">
-        <v>19</v>
-      </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91">
-        <v>57</v>
-      </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="95">
-        <f>D11/B11</f>
-        <v>3</v>
-      </c>
-      <c r="G11" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="91">
-        <v>90</v>
-      </c>
-      <c r="I11" s="93">
-        <f>H11*F11</f>
-        <v>270</v>
-      </c>
-      <c r="J11" s="91">
-        <v>32</v>
-      </c>
-      <c r="K11" s="95">
-        <f>J11/F11</f>
-        <v>10.666666666666666</v>
-      </c>
-      <c r="L11" s="91">
-        <v>415</v>
-      </c>
-      <c r="N11">
-        <v>230</v>
-      </c>
-      <c r="O11" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="P11" s="13">
-        <v>18000</v>
-      </c>
+      <c r="A11" s="78"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="78"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B12" s="91">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C12" s="91"/>
       <c r="D12" s="91">
@@ -11651,8 +11623,8 @@
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="95">
-        <f t="shared" ref="F12" si="6">D12/B12</f>
-        <v>3.8</v>
+        <f>D12/B12</f>
+        <v>3</v>
       </c>
       <c r="G12" s="91" t="s">
         <v>80</v>
@@ -11661,15 +11633,15 @@
         <v>90</v>
       </c>
       <c r="I12" s="93">
-        <f t="shared" ref="I12" si="7">H12*F12</f>
-        <v>342</v>
+        <f>H12*F12</f>
+        <v>270</v>
       </c>
       <c r="J12" s="91">
         <v>32</v>
       </c>
       <c r="K12" s="95">
-        <f t="shared" ref="K12" si="8">J12/F12</f>
-        <v>8.4210526315789469</v>
+        <f>J12/F12</f>
+        <v>10.666666666666666</v>
       </c>
       <c r="L12" s="91">
         <v>415</v>
@@ -11686,10 +11658,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="72" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="B13" s="91">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="91"/>
       <c r="D13" s="91">
@@ -11697,8 +11669,8 @@
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="95">
-        <f>D13/B13</f>
-        <v>4.75</v>
+        <f t="shared" ref="F13" si="6">D13/B13</f>
+        <v>3.8</v>
       </c>
       <c r="G13" s="91" t="s">
         <v>80</v>
@@ -11707,15 +11679,15 @@
         <v>90</v>
       </c>
       <c r="I13" s="93">
-        <f>H13*F13</f>
-        <v>427.5</v>
+        <f t="shared" ref="I13" si="7">H13*F13</f>
+        <v>342</v>
       </c>
       <c r="J13" s="91">
         <v>32</v>
       </c>
       <c r="K13" s="95">
-        <f>J13/F13</f>
-        <v>6.7368421052631575</v>
+        <f t="shared" ref="K13" si="8">J13/F13</f>
+        <v>8.4210526315789469</v>
       </c>
       <c r="L13" s="91">
         <v>415</v>
@@ -11731,123 +11703,128 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A14" s="78"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="78"/>
+      <c r="A14" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="91">
+        <v>12</v>
+      </c>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91">
+        <v>57</v>
+      </c>
+      <c r="E14" s="91"/>
+      <c r="F14" s="95">
+        <f>D14/B14</f>
+        <v>4.75</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="91">
+        <v>90</v>
+      </c>
+      <c r="I14" s="93">
+        <f>H14*F14</f>
+        <v>427.5</v>
+      </c>
+      <c r="J14" s="91">
+        <v>32</v>
+      </c>
+      <c r="K14" s="95">
+        <f>J14/F14</f>
+        <v>6.7368421052631575</v>
+      </c>
+      <c r="L14" s="91">
+        <v>415</v>
+      </c>
+      <c r="N14">
+        <v>230</v>
+      </c>
+      <c r="O14" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="P14" s="13">
+        <v>18000</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B16" s="63">
         <v>19</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63">
+      <c r="C16" s="63"/>
+      <c r="D16" s="63">
         <v>57</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="105">
-        <f t="shared" ref="F15:F19" si="9">D15/B15</f>
+      <c r="E16" s="63"/>
+      <c r="F16" s="105">
+        <f t="shared" ref="F16:F20" si="9">D16/B16</f>
         <v>3</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G16" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H16" s="63">
         <v>150</v>
       </c>
-      <c r="I15" s="106">
-        <f>H15*F15</f>
+      <c r="I16" s="106">
+        <f>H16*F16</f>
         <v>450</v>
       </c>
-      <c r="J15" s="63">
+      <c r="J16" s="63">
         <v>48</v>
       </c>
-      <c r="K15" s="105">
-        <f>J15/F15</f>
+      <c r="K16" s="105">
+        <f>J16/F16</f>
         <v>16</v>
       </c>
-      <c r="L15" s="63">
+      <c r="L16" s="63">
         <v>415</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>230</v>
-      </c>
-      <c r="O15" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="P15" s="13">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="157">
-        <v>15</v>
-      </c>
-      <c r="D16" s="6">
-        <v>48</v>
-      </c>
-      <c r="F16" s="94">
-        <f t="shared" si="9"/>
-        <v>3.2</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H16" s="6">
-        <v>150</v>
-      </c>
-      <c r="I16" s="92">
-        <f>H16*F16</f>
-        <v>480</v>
-      </c>
-      <c r="J16" s="6">
-        <v>48</v>
-      </c>
-      <c r="K16" s="94">
-        <f>J16/F16</f>
-        <v>15</v>
-      </c>
-      <c r="L16" s="6">
-        <v>415</v>
       </c>
       <c r="O16" s="1">
         <v>25.4</v>
       </c>
       <c r="P16" s="13">
-        <v>22400</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" s="157">
+      <c r="B17" s="6">
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F17" s="94">
         <f t="shared" si="9"/>
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>203</v>
@@ -11856,22 +11833,19 @@
         <v>150</v>
       </c>
       <c r="I17" s="92">
-        <f t="shared" ref="I17" si="10">H17*F17</f>
-        <v>570</v>
+        <f>H17*F17</f>
+        <v>480</v>
       </c>
       <c r="J17" s="6">
         <v>48</v>
       </c>
       <c r="K17" s="94">
         <f>J17/F17</f>
-        <v>12.631578947368421</v>
+        <v>15</v>
       </c>
       <c r="L17" s="6">
         <v>415</v>
       </c>
-      <c r="N17">
-        <v>288</v>
-      </c>
       <c r="O17" s="1">
         <v>25.4</v>
       </c>
@@ -11880,39 +11854,37 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="72" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="91">
-        <v>18</v>
-      </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="6">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6">
         <v>57</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="95">
+      <c r="F18" s="94">
         <f t="shared" si="9"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="G18" s="91" t="s">
+        <v>3.8</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H18" s="91">
+      <c r="H18" s="6">
         <v>150</v>
       </c>
-      <c r="I18" s="93">
-        <f>H18*F18</f>
-        <v>475</v>
-      </c>
-      <c r="J18" s="91">
+      <c r="I18" s="92">
+        <f t="shared" ref="I18" si="10">H18*F18</f>
+        <v>570</v>
+      </c>
+      <c r="J18" s="6">
         <v>48</v>
       </c>
-      <c r="K18" s="95">
-        <f t="shared" ref="K18" si="11">J18/F18</f>
-        <v>15.157894736842106</v>
-      </c>
-      <c r="L18" s="91">
+      <c r="K18" s="94">
+        <f>J18/F18</f>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="L18" s="6">
         <v>415</v>
       </c>
       <c r="N18">
@@ -11927,10 +11899,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="72" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="B19" s="91">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C19" s="91"/>
       <c r="D19" s="91">
@@ -11939,7 +11911,7 @@
       <c r="E19" s="91"/>
       <c r="F19" s="95">
         <f t="shared" si="9"/>
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="G19" s="91" t="s">
         <v>203</v>
@@ -11949,14 +11921,14 @@
       </c>
       <c r="I19" s="93">
         <f>H19*F19</f>
-        <v>712.5</v>
+        <v>450</v>
       </c>
       <c r="J19" s="91">
         <v>48</v>
       </c>
       <c r="K19" s="95">
-        <f>J19/F19</f>
-        <v>10.105263157894736</v>
+        <f t="shared" ref="K19" si="11">J19/F19</f>
+        <v>16</v>
       </c>
       <c r="L19" s="91">
         <v>415</v>
@@ -11972,63 +11944,68 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
+      <c r="A20" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="91">
+        <v>12</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91">
+        <v>57</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="95">
+        <f t="shared" si="9"/>
+        <v>4.75</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="91">
+        <v>150</v>
+      </c>
+      <c r="I20" s="93">
+        <f>H20*F20</f>
+        <v>712.5</v>
+      </c>
+      <c r="J20" s="91">
+        <v>48</v>
+      </c>
+      <c r="K20" s="95">
+        <f>J20/F20</f>
+        <v>10.105263157894736</v>
+      </c>
+      <c r="L20" s="91">
+        <v>415</v>
+      </c>
+      <c r="N20">
+        <v>288</v>
+      </c>
+      <c r="O20" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="P20" s="13">
+        <v>22400</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="6">
-        <v>19</v>
-      </c>
-      <c r="D21" s="6">
-        <v>48</v>
-      </c>
-      <c r="F21" s="94">
-        <f>D21/B21</f>
-        <v>2.5263157894736841</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="6">
-        <v>220</v>
-      </c>
-      <c r="I21" s="92">
-        <f>H21*F21</f>
-        <v>555.78947368421052</v>
-      </c>
-      <c r="J21" s="6">
-        <v>24</v>
-      </c>
-      <c r="K21" s="94">
-        <f>J21/F21</f>
-        <v>9.5</v>
-      </c>
-      <c r="L21" s="6">
-        <v>415</v>
-      </c>
-      <c r="O21" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="P21" s="13">
-        <v>22400</v>
-      </c>
+      <c r="A21" s="78"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="78"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
@@ -12038,11 +12015,11 @@
         <v>19</v>
       </c>
       <c r="D22" s="6">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F22" s="94">
         <f>D22/B22</f>
-        <v>3</v>
+        <v>2.5263157894736841</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>203</v>
@@ -12052,20 +12029,17 @@
       </c>
       <c r="I22" s="92">
         <f>H22*F22</f>
-        <v>660</v>
+        <v>555.78947368421052</v>
       </c>
       <c r="J22" s="6">
         <v>24</v>
       </c>
       <c r="K22" s="94">
         <f>J22/F22</f>
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="L22" s="6">
         <v>415</v>
-      </c>
-      <c r="N22">
-        <v>288</v>
       </c>
       <c r="O22" s="1">
         <v>25.4</v>
@@ -12079,14 +12053,14 @@
         <v>107</v>
       </c>
       <c r="B23" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D23" s="6">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F23" s="94">
-        <f t="shared" ref="F23" si="12">D23/B23</f>
-        <v>3.2</v>
+        <f>D23/B23</f>
+        <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>203</v>
@@ -12095,19 +12069,22 @@
         <v>220</v>
       </c>
       <c r="I23" s="92">
-        <f t="shared" ref="I23" si="13">H23*F23</f>
-        <v>704</v>
+        <f>H23*F23</f>
+        <v>660</v>
       </c>
       <c r="J23" s="6">
         <v>24</v>
       </c>
       <c r="K23" s="94">
-        <f t="shared" ref="K23" si="14">J23/F23</f>
-        <v>7.5</v>
+        <f>J23/F23</f>
+        <v>8</v>
       </c>
       <c r="L23" s="6">
         <v>415</v>
       </c>
+      <c r="N23">
+        <v>288</v>
+      </c>
       <c r="O23" s="1">
         <v>25.4</v>
       </c>
@@ -12116,43 +12093,38 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="72" t="s">
-        <v>416</v>
-      </c>
-      <c r="B24" s="91">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6">
         <v>15</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91">
-        <v>57</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="95">
-        <f>D24/B24</f>
-        <v>3.8</v>
-      </c>
-      <c r="G24" s="91" t="s">
+      <c r="D24" s="6">
+        <v>48</v>
+      </c>
+      <c r="F24" s="94">
+        <f t="shared" ref="F24" si="12">D24/B24</f>
+        <v>3.2</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="6">
         <v>220</v>
       </c>
-      <c r="I24" s="93">
-        <f>H24*F24</f>
-        <v>836</v>
-      </c>
-      <c r="J24" s="91">
+      <c r="I24" s="92">
+        <f t="shared" ref="I24" si="13">H24*F24</f>
+        <v>704</v>
+      </c>
+      <c r="J24" s="6">
         <v>24</v>
       </c>
-      <c r="K24" s="95">
-        <f>J24/F24</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L24" s="91">
+      <c r="K24" s="94">
+        <f t="shared" ref="K24" si="14">J24/F24</f>
+        <v>7.5</v>
+      </c>
+      <c r="L24" s="6">
         <v>415</v>
-      </c>
-      <c r="N24">
-        <v>288</v>
       </c>
       <c r="O24" s="1">
         <v>25.4</v>
@@ -12162,38 +12134,43 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="6">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6">
-        <v>48</v>
-      </c>
-      <c r="F25" s="94">
+      <c r="A25" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="B25" s="91">
+        <v>15</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91">
+        <v>57</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="95">
         <f>D25/B25</f>
-        <v>4</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>3.8</v>
+      </c>
+      <c r="G25" s="91" t="s">
         <v>203</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="91">
         <v>220</v>
       </c>
-      <c r="I25" s="92">
+      <c r="I25" s="93">
         <f>H25*F25</f>
-        <v>880</v>
-      </c>
-      <c r="J25" s="6">
+        <v>836</v>
+      </c>
+      <c r="J25" s="91">
         <v>24</v>
       </c>
-      <c r="K25" s="94">
+      <c r="K25" s="95">
         <f>J25/F25</f>
-        <v>6</v>
-      </c>
-      <c r="L25" s="6">
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L25" s="91">
         <v>415</v>
+      </c>
+      <c r="N25">
+        <v>288</v>
       </c>
       <c r="O25" s="1">
         <v>25.4</v>
@@ -12203,43 +12180,38 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="72" t="s">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="6">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6">
+        <v>48</v>
+      </c>
+      <c r="F26" s="94">
+        <f>D26/B26</f>
+        <v>4</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H26" s="6">
+        <v>220</v>
+      </c>
+      <c r="I26" s="92">
+        <f>H26*F26</f>
+        <v>880</v>
+      </c>
+      <c r="J26" s="6">
+        <v>24</v>
+      </c>
+      <c r="K26" s="94">
+        <f>J26/F26</f>
+        <v>6</v>
+      </c>
+      <c r="L26" s="6">
         <v>415</v>
-      </c>
-      <c r="B26" s="91">
-        <v>12</v>
-      </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91">
-        <v>57</v>
-      </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="95">
-        <f>D26/B26</f>
-        <v>4.75</v>
-      </c>
-      <c r="G26" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="H26" s="91">
-        <v>220</v>
-      </c>
-      <c r="I26" s="93">
-        <f>H26*F26</f>
-        <v>1045</v>
-      </c>
-      <c r="J26" s="91">
-        <v>24</v>
-      </c>
-      <c r="K26" s="95">
-        <f>J26/F26</f>
-        <v>5.0526315789473681</v>
-      </c>
-      <c r="L26" s="91">
-        <v>415</v>
-      </c>
-      <c r="N26">
-        <v>288</v>
       </c>
       <c r="O26" s="1">
         <v>25.4</v>
@@ -12249,57 +12221,59 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="F27" s="94"/>
-      <c r="I27" s="92"/>
-      <c r="K27" s="94"/>
+      <c r="A27" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="91">
+        <v>12</v>
+      </c>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91">
+        <v>57</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="95">
+        <f>D27/B27</f>
+        <v>4.75</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="H27" s="91">
+        <v>220</v>
+      </c>
+      <c r="I27" s="93">
+        <f>H27*F27</f>
+        <v>1045</v>
+      </c>
+      <c r="J27" s="91">
+        <v>24</v>
+      </c>
+      <c r="K27" s="95">
+        <f>J27/F27</f>
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="L27" s="91">
+        <v>415</v>
+      </c>
+      <c r="N27">
+        <v>288</v>
+      </c>
+      <c r="O27" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="P27" s="13">
+        <v>22400</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="146" t="s">
+      <c r="F28" s="94"/>
+      <c r="I28" s="92"/>
+      <c r="K28" s="94"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="146" t="s">
         <v>570</v>
-      </c>
-      <c r="B28" s="6">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6">
-        <v>40</v>
-      </c>
-      <c r="D28" s="6">
-        <v>57</v>
-      </c>
-      <c r="F28" s="94">
-        <f t="shared" ref="F28:F33" si="15">D28/B28</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H28" s="1">
-        <v>200</v>
-      </c>
-      <c r="I28" s="92">
-        <f t="shared" ref="I28:I33" si="16">H28*F28</f>
-        <v>600</v>
-      </c>
-      <c r="J28" s="1">
-        <v>24</v>
-      </c>
-      <c r="K28" s="94">
-        <f t="shared" ref="K28:K33" si="17">J28/F28</f>
-        <v>8</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="O28" s="6">
-        <v>40</v>
-      </c>
-      <c r="P28" s="6">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>571</v>
       </c>
       <c r="B29" s="6">
         <v>19</v>
@@ -12311,24 +12285,24 @@
         <v>57</v>
       </c>
       <c r="F29" s="94">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F29:F34" si="15">D29/B29</f>
         <v>3</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H29" s="6">
-        <v>300</v>
+      <c r="H29" s="1">
+        <v>200</v>
       </c>
       <c r="I29" s="92">
-        <f t="shared" si="16"/>
-        <v>900</v>
+        <f t="shared" ref="I29:I34" si="16">H29*F29</f>
+        <v>600</v>
       </c>
       <c r="J29" s="1">
         <v>24</v>
       </c>
       <c r="K29" s="94">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K29:K34" si="17">J29/F29</f>
         <v>8</v>
       </c>
       <c r="L29" s="6" t="s">
@@ -12342,8 +12316,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="146" t="s">
-        <v>572</v>
+      <c r="A30" t="s">
+        <v>571</v>
       </c>
       <c r="B30" s="6">
         <v>19</v>
@@ -12359,14 +12333,14 @@
         <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H30" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I30" s="92">
         <f t="shared" si="16"/>
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J30" s="1">
         <v>24</v>
@@ -12381,16 +12355,19 @@
       <c r="O30" s="6">
         <v>40</v>
       </c>
+      <c r="P30" s="6">
+        <v>29000</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>573</v>
+      <c r="A31" s="146" t="s">
+        <v>572</v>
       </c>
       <c r="B31" s="6">
         <v>19</v>
       </c>
       <c r="C31" s="6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D31" s="6">
         <v>57</v>
@@ -12403,11 +12380,11 @@
         <v>207</v>
       </c>
       <c r="H31" s="6">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I31" s="92">
         <f t="shared" si="16"/>
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="J31" s="1">
         <v>24</v>
@@ -12425,7 +12402,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B32" s="6">
         <v>19</v>
@@ -12441,14 +12418,14 @@
         <v>3</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H32" s="6">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I32" s="92">
         <f t="shared" si="16"/>
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="J32" s="1">
         <v>24</v>
@@ -12465,296 +12442,302 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="37" t="s">
-        <v>558</v>
-      </c>
-      <c r="B33" s="63">
+      <c r="A33" t="s">
+        <v>574</v>
+      </c>
+      <c r="B33" s="6">
         <v>19</v>
       </c>
-      <c r="C33" s="63">
+      <c r="C33" s="6">
         <v>55</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="6">
         <v>57</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="105">
+      <c r="F33" s="94">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63">
+      <c r="G33" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H33" s="6">
+        <v>800</v>
+      </c>
+      <c r="I33" s="92">
+        <f t="shared" si="16"/>
+        <v>2400</v>
+      </c>
+      <c r="J33" s="1">
+        <v>24</v>
+      </c>
+      <c r="K33" s="94">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="O33" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="B34" s="63">
+        <v>19</v>
+      </c>
+      <c r="C34" s="63">
+        <v>55</v>
+      </c>
+      <c r="D34" s="63">
+        <v>57</v>
+      </c>
+      <c r="E34" s="63"/>
+      <c r="F34" s="105">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63">
         <v>1200</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I34" s="106">
         <f t="shared" si="16"/>
         <v>3600</v>
       </c>
-      <c r="J33" s="68">
+      <c r="J34" s="68">
         <v>24</v>
       </c>
-      <c r="K33" s="105">
+      <c r="K34" s="105">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="L33" s="63" t="s">
+      <c r="L34" s="63" t="s">
         <v>559</v>
       </c>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="63">
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="63">
         <v>40</v>
       </c>
-      <c r="P33" s="37"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B51" s="6">
-        <v>11</v>
-      </c>
-      <c r="D51" s="6">
-        <v>61</v>
-      </c>
-      <c r="F51" s="6">
-        <f>D51/B51</f>
-        <v>5.5454545454545459</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="1">
-        <v>20</v>
-      </c>
-      <c r="I51" s="1">
-        <f>H51*F51</f>
-        <v>110.90909090909092</v>
-      </c>
-      <c r="J51" s="1">
-        <v>34</v>
-      </c>
-      <c r="K51" s="94">
-        <f t="shared" ref="K51:K56" si="18">J51/F51</f>
-        <v>6.1311475409836058</v>
-      </c>
-      <c r="L51" s="6">
-        <v>415</v>
-      </c>
+      <c r="P34" s="37"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>216</v>
+        <v>493</v>
       </c>
       <c r="B52" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D52" s="6">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" ref="F52:F53" si="19">D52/B52</f>
-        <v>5.5555555555555554</v>
+        <f>D52/B52</f>
+        <v>5.5454545454545459</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="H52" s="1">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" ref="I52:I55" si="20">H52*F52</f>
-        <v>344.44444444444446</v>
+        <f>H52*F52</f>
+        <v>110.90909090909092</v>
       </c>
       <c r="J52" s="1">
         <v>34</v>
       </c>
       <c r="K52" s="94">
+        <f t="shared" ref="K52:K57" si="18">J52/F52</f>
+        <v>6.1311475409836058</v>
+      </c>
+      <c r="L52" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B53" s="6">
+        <v>9</v>
+      </c>
+      <c r="D53" s="6">
+        <v>50</v>
+      </c>
+      <c r="F53" s="6">
+        <f t="shared" ref="F53:F54" si="19">D53/B53</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="1">
+        <v>62</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" ref="I53:I56" si="20">H53*F53</f>
+        <v>344.44444444444446</v>
+      </c>
+      <c r="J53" s="1">
+        <v>34</v>
+      </c>
+      <c r="K53" s="94">
         <f t="shared" si="18"/>
         <v>6.12</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L53" s="6">
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B54" s="6">
         <v>10</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D54" s="6">
         <v>64</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F54" s="6">
         <f t="shared" si="19"/>
         <v>6.4</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G54" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H54" s="1">
         <v>95</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I54" s="1">
         <f t="shared" si="20"/>
         <v>608</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J54" s="1">
         <v>22</v>
       </c>
-      <c r="K53" s="94">
+      <c r="K54" s="94">
         <f t="shared" si="18"/>
         <v>3.4375</v>
       </c>
-      <c r="L53" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="B54" s="6">
-        <v>9</v>
-      </c>
-      <c r="D54" s="6">
-        <v>57</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" ref="F54:F56" si="21">D54/B54</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H54" s="6">
-        <v>128</v>
-      </c>
-      <c r="I54" s="1">
-        <f>H54*F54</f>
-        <v>810.66666666666663</v>
-      </c>
-      <c r="J54" s="6">
-        <v>22</v>
-      </c>
-      <c r="K54" s="94">
-        <f>J54/F54</f>
-        <v>3.4736842105263159</v>
-      </c>
       <c r="L54" s="6">
         <v>415</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B55" s="6">
+        <v>9</v>
+      </c>
+      <c r="D55" s="6">
+        <v>57</v>
+      </c>
+      <c r="F55" s="6">
+        <f t="shared" ref="F55:F57" si="21">D55/B55</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H55" s="6">
+        <v>128</v>
+      </c>
+      <c r="I55" s="1">
+        <f>H55*F55</f>
+        <v>810.66666666666663</v>
+      </c>
+      <c r="J55" s="6">
+        <v>22</v>
+      </c>
+      <c r="K55" s="94">
+        <f>J55/F55</f>
+        <v>3.4736842105263159</v>
+      </c>
+      <c r="L55" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B56" s="6">
         <v>11</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D56" s="6">
         <v>48</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F56" s="6">
         <f t="shared" si="21"/>
         <v>4.3636363636363633</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G56" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H56" s="6">
         <v>369</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I56" s="1">
         <f t="shared" si="20"/>
         <v>1610.181818181818</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J56" s="6">
         <v>15</v>
       </c>
-      <c r="K55" s="94">
+      <c r="K56" s="94">
         <f t="shared" si="18"/>
         <v>3.4375000000000004</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L56" s="6">
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>496</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B57" s="6">
         <v>14</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <v>72</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <f t="shared" si="21"/>
         <v>5.1428571428571432</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G57" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H57" s="6">
         <v>428</v>
       </c>
-      <c r="I56" s="1">
-        <f>H56*F56</f>
+      <c r="I57" s="1">
+        <f>H57*F57</f>
         <v>2201.1428571428573</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J57" s="6">
         <v>16.5</v>
       </c>
-      <c r="K56" s="94">
+      <c r="K57" s="94">
         <f t="shared" si="18"/>
         <v>3.208333333333333</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L57" s="6">
         <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B58" s="6">
-        <v>19</v>
-      </c>
-      <c r="D58" s="6">
-        <v>57</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" ref="F58:F60" si="22">D58/B58</f>
-        <v>3</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" s="1">
-        <v>15</v>
-      </c>
-      <c r="I58" s="1">
-        <f>H58*F58</f>
-        <v>45</v>
-      </c>
-      <c r="J58" s="1">
-        <v>34</v>
-      </c>
-      <c r="K58" s="94">
-        <f>J58/F58</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="L58" s="6">
-        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B59" s="6">
         <v>19</v>
@@ -12763,18 +12746,18 @@
         <v>57</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="F59:F61" si="22">D59/B59</f>
         <v>3</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H59" s="1">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I59" s="1">
         <f>H59*F59</f>
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="J59" s="1">
         <v>34</v>
@@ -12789,7 +12772,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B60" s="6">
         <v>19</v>
@@ -12805,183 +12788,180 @@
         <v>80</v>
       </c>
       <c r="H60" s="1">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" ref="I60" si="23">H60*F60</f>
-        <v>285</v>
+        <f>H60*F60</f>
+        <v>186</v>
       </c>
       <c r="J60" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K60" s="94">
-        <f t="shared" ref="K60" si="24">J60/F60</f>
-        <v>7.333333333333333</v>
+        <f>J60/F60</f>
+        <v>11.333333333333334</v>
       </c>
       <c r="L60" s="6">
         <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F61" s="94"/>
-      <c r="K61" s="94"/>
+      <c r="A61" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" s="6">
+        <v>19</v>
+      </c>
+      <c r="D61" s="6">
+        <v>57</v>
+      </c>
+      <c r="F61" s="6">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" s="1">
+        <v>95</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" ref="I61" si="23">H61*F61</f>
+        <v>285</v>
+      </c>
+      <c r="J61" s="1">
+        <v>22</v>
+      </c>
+      <c r="K61" s="94">
+        <f t="shared" ref="K61" si="24">J61/F61</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L61" s="6">
+        <v>230</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>497</v>
-      </c>
-      <c r="B62" s="6">
-        <v>19</v>
-      </c>
-      <c r="D62" s="6">
-        <v>57</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" ref="F62" si="25">D62/B62</f>
-        <v>3</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" s="1">
-        <v>100</v>
-      </c>
-      <c r="I62" s="1">
-        <f>H62*F62</f>
-        <v>300</v>
-      </c>
-      <c r="J62" s="1">
-        <v>28</v>
-      </c>
-      <c r="K62" s="94">
-        <f t="shared" ref="K62" si="26">J62/F62</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="L62" s="6">
-        <v>415</v>
-      </c>
+      <c r="F62" s="94"/>
+      <c r="K62" s="94"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B63" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D63" s="6">
         <v>57</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" ref="F63" si="27">D63/B63</f>
-        <v>3.8</v>
+        <f t="shared" ref="F63" si="25">D63/B63</f>
+        <v>3</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>80</v>
       </c>
       <c r="H63" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="I63" s="1">
         <f>H63*F63</f>
-        <v>608</v>
+        <v>300</v>
       </c>
       <c r="J63" s="1">
         <v>28</v>
       </c>
       <c r="K63" s="94">
-        <f t="shared" ref="K63" si="28">J63/F63</f>
-        <v>7.3684210526315796</v>
+        <f t="shared" ref="K63" si="26">J63/F63</f>
+        <v>9.3333333333333339</v>
       </c>
       <c r="L63" s="6">
         <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="F64" s="94"/>
-      <c r="K64" s="94"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="A64" t="s">
+        <v>498</v>
+      </c>
+      <c r="B64" s="6">
+        <v>15</v>
+      </c>
+      <c r="D64" s="6">
+        <v>57</v>
+      </c>
+      <c r="F64" s="6">
+        <f t="shared" ref="F64" si="27">D64/B64</f>
+        <v>3.8</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" s="1">
+        <v>160</v>
+      </c>
+      <c r="I64" s="1">
+        <f>H64*F64</f>
+        <v>608</v>
+      </c>
+      <c r="J64" s="1">
+        <v>28</v>
+      </c>
+      <c r="K64" s="94">
+        <f t="shared" ref="K64" si="28">J64/F64</f>
+        <v>7.3684210526315796</v>
+      </c>
+      <c r="L64" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F65" s="94"/>
+      <c r="K65" s="94"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B66" s="6">
         <v>19</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D66" s="6">
         <v>57</v>
       </c>
-      <c r="F65" s="6">
-        <f>D65/B65</f>
+      <c r="F66" s="6">
+        <f>D66/B66</f>
         <v>3</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G66" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H66" s="1">
         <v>70</v>
       </c>
-      <c r="I65" s="1">
-        <f>H65*F65</f>
+      <c r="I66" s="1">
+        <f>H66*F66</f>
         <v>210</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J66" s="1">
         <v>28</v>
       </c>
-      <c r="K65" s="94">
-        <f t="shared" ref="K65" si="29">J65/F65</f>
+      <c r="K66" s="94">
+        <f t="shared" ref="K66" si="29">J66/F66</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L66" s="6">
         <v>230</v>
       </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="R65" s="6"/>
-      <c r="U65" s="101"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="R66" s="6"/>
+      <c r="U66" s="101"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>548</v>
-      </c>
-      <c r="B67" s="6">
-        <v>15</v>
-      </c>
-      <c r="D67" s="6">
-        <v>57</v>
-      </c>
-      <c r="F67" s="6">
-        <f t="shared" ref="F67:F71" si="30">D67/B67</f>
-        <v>3.8</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H67" s="6">
-        <v>200</v>
-      </c>
-      <c r="I67" s="1">
-        <f t="shared" ref="I67:I68" si="31">H67*F67</f>
-        <v>760</v>
-      </c>
-      <c r="J67" s="6">
-        <v>24</v>
-      </c>
-      <c r="K67" s="94">
-        <f t="shared" ref="K67:K68" si="32">J67/F67</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L67" s="6">
-        <v>415</v>
-      </c>
-      <c r="O67" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>547</v>
       </c>
       <c r="B68" s="6">
         <v>15</v>
@@ -12990,64 +12970,64 @@
         <v>57</v>
       </c>
       <c r="F68" s="6">
+        <f t="shared" ref="F68:F72" si="30">D68/B68</f>
+        <v>3.8</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H68" s="6">
+        <v>200</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" ref="I68:I69" si="31">H68*F68</f>
+        <v>760</v>
+      </c>
+      <c r="J68" s="6">
+        <v>24</v>
+      </c>
+      <c r="K68" s="94">
+        <f t="shared" ref="K68:K69" si="32">J68/F68</f>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L68" s="6">
+        <v>415</v>
+      </c>
+      <c r="O68" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>547</v>
+      </c>
+      <c r="B69" s="6">
+        <v>15</v>
+      </c>
+      <c r="D69" s="6">
+        <v>57</v>
+      </c>
+      <c r="F69" s="6">
         <f t="shared" si="30"/>
         <v>3.8</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G69" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H69" s="6">
         <v>300</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I69" s="1">
         <f t="shared" si="31"/>
         <v>1140</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J69" s="6">
         <v>24</v>
       </c>
-      <c r="K68" s="94">
+      <c r="K69" s="94">
         <f t="shared" si="32"/>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L68" s="6">
-        <v>415</v>
-      </c>
-      <c r="O68" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>546</v>
-      </c>
-      <c r="B69" s="6">
-        <v>15</v>
-      </c>
-      <c r="D69" s="6">
-        <v>57</v>
-      </c>
-      <c r="F69" s="6">
-        <f>D69/B69</f>
-        <v>3.8</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H69" s="6">
-        <v>400</v>
-      </c>
-      <c r="I69" s="1">
-        <f>H69*F69</f>
-        <v>1520</v>
-      </c>
-      <c r="J69" s="6">
-        <v>24</v>
-      </c>
-      <c r="K69" s="94">
-        <f>J69/F69</f>
-        <v>6.3157894736842106</v>
-      </c>
       <c r="L69" s="6">
         <v>415</v>
       </c>
@@ -13055,9 +13035,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B70" s="6">
         <v>15</v>
@@ -13066,33 +13046,36 @@
         <v>57</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="30"/>
+        <f>D70/B70</f>
         <v>3.8</v>
       </c>
+      <c r="G70" s="6" t="s">
+        <v>205</v>
+      </c>
       <c r="H70" s="6">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I70" s="1">
-        <f t="shared" ref="I70:I72" si="33">H70*F70</f>
-        <v>2280</v>
+        <f>H70*F70</f>
+        <v>1520</v>
       </c>
       <c r="J70" s="6">
         <v>24</v>
       </c>
       <c r="K70" s="94">
-        <f t="shared" ref="K70:K72" si="34">J70/F70</f>
+        <f>J70/F70</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L70" s="6">
         <v>415</v>
       </c>
       <c r="O70" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B71" s="6">
         <v>15</v>
@@ -13105,46 +13088,46 @@
         <v>3.8</v>
       </c>
       <c r="H71" s="6">
+        <v>600</v>
+      </c>
+      <c r="I71" s="1">
+        <f t="shared" ref="I71:I73" si="33">H71*F71</f>
+        <v>2280</v>
+      </c>
+      <c r="J71" s="6">
+        <v>24</v>
+      </c>
+      <c r="K71" s="94">
+        <f t="shared" ref="K71:K73" si="34">J71/F71</f>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L71" s="6">
+        <v>415</v>
+      </c>
+      <c r="O71" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>550</v>
+      </c>
+      <c r="B72" s="6">
+        <v>15</v>
+      </c>
+      <c r="D72" s="6">
+        <v>57</v>
+      </c>
+      <c r="F72" s="6">
+        <f t="shared" si="30"/>
+        <v>3.8</v>
+      </c>
+      <c r="H72" s="6">
         <v>800</v>
       </c>
-      <c r="I71" s="1">
+      <c r="I72" s="1">
         <f t="shared" si="33"/>
         <v>3040</v>
-      </c>
-      <c r="J71" s="6">
-        <v>24</v>
-      </c>
-      <c r="K71" s="94">
-        <f t="shared" si="34"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L71" s="6">
-        <v>415</v>
-      </c>
-      <c r="O71" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>551</v>
-      </c>
-      <c r="B72" s="6">
-        <v>15</v>
-      </c>
-      <c r="D72" s="6">
-        <v>57</v>
-      </c>
-      <c r="F72" s="6">
-        <f>D72/B72</f>
-        <v>3.8</v>
-      </c>
-      <c r="H72" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I72" s="1">
-        <f t="shared" si="33"/>
-        <v>4560</v>
       </c>
       <c r="J72" s="6">
         <v>24</v>
@@ -13160,94 +13143,112 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F77" s="94"/>
-      <c r="K77" s="94"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>551</v>
+      </c>
+      <c r="B73" s="6">
+        <v>15</v>
+      </c>
+      <c r="D73" s="6">
+        <v>57</v>
+      </c>
+      <c r="F73" s="6">
+        <f>D73/B73</f>
+        <v>3.8</v>
+      </c>
+      <c r="H73" s="6">
+        <v>1200</v>
+      </c>
+      <c r="I73" s="1">
+        <f t="shared" si="33"/>
+        <v>4560</v>
+      </c>
+      <c r="J73" s="6">
+        <v>24</v>
+      </c>
+      <c r="K73" s="94">
+        <f t="shared" si="34"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L73" s="6">
+        <v>415</v>
+      </c>
+      <c r="O73" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F78" s="94"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="D79" s="6" t="s">
+      <c r="K78" s="94"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="F79" s="94"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D80" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="M80" s="6" t="s">
+    <row r="81" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M81" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="N80" s="6">
+      <c r="N81" s="6">
         <v>122.5</v>
       </c>
-      <c r="R80" s="88" t="s">
+      <c r="R81" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="S80" s="88" t="s">
+      <c r="S81" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="T80" s="89">
+      <c r="T81" s="89">
         <v>8</v>
-      </c>
-      <c r="U80" s="88" t="s">
-        <v>407</v>
-      </c>
-      <c r="V80" s="89">
-        <v>179.04</v>
-      </c>
-    </row>
-    <row r="81" spans="13:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="M81" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="N81" s="6">
-        <v>101</v>
-      </c>
-      <c r="R81" s="88" t="s">
-        <v>408</v>
-      </c>
-      <c r="S81" s="88" t="s">
-        <v>409</v>
-      </c>
-      <c r="T81" s="89">
-        <v>3</v>
       </c>
       <c r="U81" s="88" t="s">
         <v>407</v>
       </c>
       <c r="V81" s="89">
-        <v>300.41000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="13:22" x14ac:dyDescent="0.35">
+        <v>179.04</v>
+      </c>
+    </row>
+    <row r="82" spans="13:22" ht="29" x14ac:dyDescent="0.35">
       <c r="M82" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="N82" s="6" t="e">
-        <f>((N80*9.81)*N81)/#REF!</f>
-        <v>#REF!</v>
+        <v>425</v>
+      </c>
+      <c r="N82" s="6">
+        <v>101</v>
       </c>
       <c r="R82" s="88" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="S82" s="88" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T82" s="89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U82" s="88" t="s">
         <v>407</v>
       </c>
       <c r="V82" s="89">
-        <v>472.24</v>
+        <v>300.41000000000003</v>
       </c>
     </row>
     <row r="83" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="M83" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N83" s="6" t="e">
+        <f>((N81*9.81)*N82)/#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="R83" s="88" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="S83" s="88" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T83" s="89">
         <v>1</v>
@@ -13256,6 +13257,23 @@
         <v>407</v>
       </c>
       <c r="V83" s="89">
+        <v>472.24</v>
+      </c>
+    </row>
+    <row r="84" spans="13:22" x14ac:dyDescent="0.35">
+      <c r="R84" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="S84" s="88" t="s">
+        <v>413</v>
+      </c>
+      <c r="T84" s="89">
+        <v>1</v>
+      </c>
+      <c r="U84" s="88" t="s">
+        <v>407</v>
+      </c>
+      <c r="V84" s="89">
         <v>923.01</v>
       </c>
     </row>
@@ -13271,7 +13289,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15629,15 +15647,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="153">
+      <c r="D6" s="154">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15651,9 +15669,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:S213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17227,7 +17245,44 @@
         <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="B41" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D41" s="155">
+        <v>55</v>
+      </c>
+      <c r="E41" s="155">
+        <v>57</v>
+      </c>
+      <c r="F41" s="155">
+        <v>13</v>
+      </c>
+      <c r="G41" s="155">
+        <v>10</v>
+      </c>
+      <c r="H41" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I41" s="6">
+        <v>60</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="R41" s="66" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="42" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17401,6 +17456,7 @@
     <row r="212" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="213" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1349" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31556772-A45A-46F1-A492-8323C06BB15E}"/>
+  <xr:revisionPtr revIDLastSave="1354" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B5EF1E-3245-4FD2-B3B0-352AB1E4C4E9}"/>
   <bookViews>
-    <workbookView xWindow="13790" yWindow="800" windowWidth="23610" windowHeight="19840" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11500" yWindow="970" windowWidth="26840" windowHeight="19840" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="576">
   <si>
     <t>Name</t>
   </si>
@@ -11342,7 +11342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11538,7 +11538,9 @@
       <c r="K6" s="93"/>
       <c r="L6" s="75"/>
       <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="N6" s="76" t="s">
+        <v>494</v>
+      </c>
       <c r="O6" s="76"/>
       <c r="P6" s="75"/>
       <c r="Q6" s="76"/>
@@ -11663,7 +11665,9 @@
       <c r="K9" s="93"/>
       <c r="L9" s="75"/>
       <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
+      <c r="N9" s="76" t="s">
+        <v>494</v>
+      </c>
       <c r="O9" s="76"/>
       <c r="P9" s="75"/>
       <c r="Q9" s="76"/>
@@ -11788,7 +11792,9 @@
       <c r="K12" s="93"/>
       <c r="L12" s="75"/>
       <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
+      <c r="N12" s="76" t="s">
+        <v>494</v>
+      </c>
       <c r="O12" s="76"/>
       <c r="P12" s="75"/>
       <c r="Q12" s="76"/>
@@ -11966,7 +11972,9 @@
       <c r="K16" s="93"/>
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
+      <c r="N16" s="76" t="s">
+        <v>494</v>
+      </c>
       <c r="O16" s="76"/>
       <c r="P16" s="75"/>
       <c r="Q16" s="76"/>
@@ -12187,6 +12195,9 @@
       <c r="F21" s="91"/>
       <c r="I21" s="89"/>
       <c r="K21" s="91"/>
+      <c r="N21" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="143" t="s">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1354" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79B5EF1E-3245-4FD2-B3B0-352AB1E4C4E9}"/>
+  <xr:revisionPtr revIDLastSave="1357" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F23150F1-EE2F-496A-9A45-BFE54315E4DF}"/>
   <bookViews>
-    <workbookView xWindow="11500" yWindow="970" windowWidth="26840" windowHeight="19840" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="550" windowWidth="22440" windowHeight="19840" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1846,9 +1846,6 @@
     <t>Plate bore</t>
   </si>
   <si>
-    <t>Sprokcket bore</t>
-  </si>
-  <si>
     <t>MT209M1</t>
   </si>
   <si>
@@ -2395,9 +2392,6 @@
     <t>Motor Description</t>
   </si>
   <si>
-    <t>Sproket diameter</t>
-  </si>
-  <si>
     <t>Ranger150 3ph 18-57 5/8"</t>
   </si>
   <si>
@@ -2408,6 +2402,12 @@
   </si>
   <si>
     <t xml:space="preserve">Note: need to add in 48 plate wheel again. </t>
+  </si>
+  <si>
+    <t>Sprocket bore</t>
+  </si>
+  <si>
+    <t>Sprocket diameter</t>
   </si>
 </sst>
 </file>
@@ -6305,12 +6305,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U123"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6347,7 +6346,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>12</v>
@@ -6362,7 +6361,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>31</v>
@@ -6383,19 +6382,19 @@
         <v>169</v>
       </c>
       <c r="Q1" s="62" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>209</v>
       </c>
       <c r="T1" s="97" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U1" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6445,7 +6444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6539,7 +6538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -6583,7 +6582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -6627,7 +6626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -6759,13 +6758,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O10" s="66"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>188</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>189</v>
       </c>
@@ -6855,12 +6854,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>156</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>157</v>
       </c>
@@ -6943,7 +6942,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>158</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>159</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>160</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>161</v>
       </c>
@@ -7111,7 +7110,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>162</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>163</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>164</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>165</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>166</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>167</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>168</v>
       </c>
@@ -7405,12 +7404,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="95" t="s">
         <v>170</v>
       </c>
@@ -7454,16 +7453,16 @@
         <v>900</v>
       </c>
       <c r="Q28" s="61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T28" s="99"/>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -7504,10 +7503,10 @@
         <v>900</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -7548,10 +7547,10 @@
         <v>900</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
@@ -7592,10 +7591,10 @@
         <v>900</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
@@ -7636,10 +7635,10 @@
         <v>900</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -7680,10 +7679,10 @@
         <v>1800</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -7724,10 +7723,10 @@
         <v>1800</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -7768,17 +7767,17 @@
         <v>2500</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>87</v>
       </c>
@@ -7816,7 +7815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>89</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="95" t="s">
         <v>90</v>
       </c>
@@ -7934,7 +7933,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>91</v>
       </c>
@@ -7973,7 +7972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>93</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>94</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>95</v>
       </c>
@@ -8129,13 +8128,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>286</v>
       </c>
@@ -8173,7 +8172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>287</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>288</v>
       </c>
@@ -8252,7 +8251,7 @@
       <c r="Q50" s="1"/>
       <c r="T50" s="100"/>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>289</v>
       </c>
@@ -8290,13 +8289,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="str">
         <f>Chaindrive!A45</f>
         <v>JM200</v>
@@ -8340,10 +8339,10 @@
         <v>90</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>213</v>
       </c>
@@ -8386,10 +8385,10 @@
         <v>120</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>214</v>
       </c>
@@ -8429,12 +8428,12 @@
         <v>53</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C56" s="2"/>
     </row>
@@ -8480,7 +8479,7 @@
         <v>450</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R57">
         <v>40</v>
@@ -8534,7 +8533,7 @@
         <v>450</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R58">
         <v>40</v>
@@ -8585,9 +8584,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.35">
@@ -8634,7 +8633,7 @@
         <v>370</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R61">
         <v>40</v>
@@ -8688,7 +8687,7 @@
         <v>370</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="R62">
         <v>40</v>
@@ -8740,7 +8739,7 @@
         <v>370</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R63">
         <v>40</v>
@@ -8831,7 +8830,7 @@
         <v>53</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R65">
         <v>40</v>
@@ -8887,9 +8886,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F67" s="2"/>
     </row>
@@ -9098,25 +9097,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="34"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="34"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.35">
@@ -9161,7 +9160,7 @@
         <v>8</v>
       </c>
       <c r="Q76" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="T76" s="150">
         <v>266</v>
@@ -9212,7 +9211,7 @@
         <v>400</v>
       </c>
       <c r="Q77" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R77">
         <v>20</v>
@@ -9266,7 +9265,7 @@
         <v>750</v>
       </c>
       <c r="Q78" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R78">
         <v>20</v>
@@ -9320,7 +9319,7 @@
         <v>850</v>
       </c>
       <c r="Q79" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="R79">
         <v>20</v>
@@ -9374,7 +9373,7 @@
         <v>1100</v>
       </c>
       <c r="Q80" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R80">
         <v>20</v>
@@ -9426,7 +9425,7 @@
         <v>1100</v>
       </c>
       <c r="Q81" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R81">
         <v>20</v>
@@ -9475,7 +9474,7 @@
         <v>9</v>
       </c>
       <c r="Q82" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="R82">
         <v>20</v>
@@ -9527,7 +9526,7 @@
         <v>1100</v>
       </c>
       <c r="Q83" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="R83">
         <v>20</v>
@@ -9576,7 +9575,7 @@
         <v>7</v>
       </c>
       <c r="Q84" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.35">
@@ -9624,7 +9623,7 @@
         <v>1300</v>
       </c>
       <c r="Q85" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="R85">
         <v>20</v>
@@ -9675,7 +9674,7 @@
         <v>1100</v>
       </c>
       <c r="Q86" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="R86">
         <v>20</v>
@@ -9993,9 +9992,9 @@
       </c>
       <c r="T92" s="99"/>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B93" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.35">
@@ -10041,7 +10040,7 @@
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="R94" s="1"/>
       <c r="T94" s="98">
@@ -10091,7 +10090,7 @@
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R95" s="1"/>
       <c r="T95" s="98">
@@ -10141,7 +10140,7 @@
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R96" s="1"/>
     </row>
@@ -10187,18 +10186,18 @@
         <v>5</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T97" s="150"/>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B99" t="s">
         <v>86</v>
@@ -10211,7 +10210,7 @@
         <v>250</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F99" s="6">
         <v>80</v>
@@ -10246,7 +10245,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B100" t="s">
         <v>86</v>
@@ -10259,7 +10258,7 @@
         <v>400</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F100" s="6">
         <v>40</v>
@@ -10289,7 +10288,7 @@
         <v>750</v>
       </c>
       <c r="Q100" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="R100">
         <v>20</v>
@@ -10300,7 +10299,7 @@
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B101" t="s">
         <v>86</v>
@@ -10313,7 +10312,7 @@
         <v>550</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F101" s="6">
         <v>20</v>
@@ -10348,7 +10347,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B102" t="s">
         <v>86</v>
@@ -10361,7 +10360,7 @@
         <v>750</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F102" s="6">
         <v>20</v>
@@ -10394,14 +10393,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B103" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B104" t="s">
         <v>86</v>
@@ -10413,7 +10412,7 @@
         <v>250</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F104" s="6">
         <v>80</v>
@@ -10448,7 +10447,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B105" t="s">
         <v>86</v>
@@ -10461,7 +10460,7 @@
         <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F105" s="6">
         <v>40</v>
@@ -10496,7 +10495,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B106" t="s">
         <v>86</v>
@@ -10509,7 +10508,7 @@
         <v>450</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F106" s="6">
         <v>60</v>
@@ -10544,7 +10543,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B107" t="s">
         <v>86</v>
@@ -10557,7 +10556,7 @@
         <v>500</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F107" s="6">
         <v>80</v>
@@ -10592,7 +10591,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B108" t="s">
         <v>86</v>
@@ -10605,7 +10604,7 @@
         <v>550</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F108" s="6">
         <v>20</v>
@@ -10640,7 +10639,7 @@
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B109" t="s">
         <v>86</v>
@@ -10653,7 +10652,7 @@
         <v>550</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F109" s="6">
         <v>40</v>
@@ -10688,7 +10687,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B110" t="s">
         <v>86</v>
@@ -10701,7 +10700,7 @@
         <v>750</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F110" s="6">
         <v>20</v>
@@ -10736,7 +10735,7 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B111" t="s">
         <v>86</v>
@@ -10749,7 +10748,7 @@
         <v>750</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F111" s="6">
         <v>45</v>
@@ -10784,7 +10783,7 @@
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B112" t="s">
         <v>86</v>
@@ -10797,7 +10796,7 @@
         <v>1000</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F112" s="6">
         <v>30</v>
@@ -10832,7 +10831,7 @@
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B113" t="s">
         <v>86</v>
@@ -10845,7 +10844,7 @@
         <v>1400</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F113" s="6">
         <v>20</v>
@@ -10878,14 +10877,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B114" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B115" t="s">
         <v>86</v>
@@ -10897,7 +10896,7 @@
         <v>250</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F115" s="6">
         <v>15</v>
@@ -10927,7 +10926,7 @@
         <v>850</v>
       </c>
       <c r="Q115" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R115">
         <v>20</v>
@@ -10938,7 +10937,7 @@
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B116" t="s">
         <v>86</v>
@@ -10951,7 +10950,7 @@
         <v>250</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F116" s="6">
         <v>24</v>
@@ -10986,7 +10985,7 @@
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B117" t="s">
         <v>86</v>
@@ -10999,7 +10998,7 @@
         <v>400</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F117" s="6">
         <v>15</v>
@@ -11034,7 +11033,7 @@
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B118" t="s">
         <v>86</v>
@@ -11047,7 +11046,7 @@
         <v>400</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F118" s="6">
         <v>24</v>
@@ -11082,7 +11081,7 @@
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B119" t="s">
         <v>86</v>
@@ -11095,7 +11094,7 @@
         <v>550</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F119" s="6">
         <v>15</v>
@@ -11130,7 +11129,7 @@
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B120" t="s">
         <v>86</v>
@@ -11143,7 +11142,7 @@
         <v>550</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F120" s="6">
         <v>24</v>
@@ -11178,7 +11177,7 @@
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B121" t="s">
         <v>86</v>
@@ -11191,7 +11190,7 @@
         <v>750</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F121" s="6">
         <v>24</v>
@@ -11226,7 +11225,7 @@
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B122" t="s">
         <v>86</v>
@@ -11239,7 +11238,7 @@
         <v>1000</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F122" s="6">
         <v>24</v>
@@ -11274,7 +11273,7 @@
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B123" t="s">
         <v>86</v>
@@ -11287,7 +11286,7 @@
         <v>1200</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F123" s="6">
         <v>12</v>
@@ -11321,13 +11320,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R123" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="GFA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R123" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11342,7 +11335,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11369,13 +11362,13 @@
   <sheetData>
     <row r="1" spans="1:17" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1" s="62" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>399</v>
+        <v>574</v>
       </c>
       <c r="D1" s="62" t="s">
         <v>76</v>
@@ -11408,7 +11401,7 @@
         <v>208</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="O1" s="12" t="s">
         <v>215</v>
@@ -11417,12 +11410,12 @@
         <v>85</v>
       </c>
       <c r="Q1" s="87" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="88">
         <v>19</v>
@@ -11475,7 +11468,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="70" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B5" s="88">
         <v>15</v>
@@ -11539,7 +11532,7 @@
       <c r="L6" s="75"/>
       <c r="M6" s="76"/>
       <c r="N6" s="76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O6" s="76"/>
       <c r="P6" s="75"/>
@@ -11600,7 +11593,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B8" s="88">
         <v>15</v>
@@ -11666,7 +11659,7 @@
       <c r="L9" s="75"/>
       <c r="M9" s="76"/>
       <c r="N9" s="76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O9" s="76"/>
       <c r="P9" s="75"/>
@@ -11674,7 +11667,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" s="88">
         <v>19</v>
@@ -11727,7 +11720,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B11" s="88">
         <v>15</v>
@@ -11793,7 +11786,7 @@
       <c r="L12" s="75"/>
       <c r="M12" s="76"/>
       <c r="N12" s="76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O12" s="76"/>
       <c r="P12" s="75"/>
@@ -11801,7 +11794,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="61">
         <v>19</v>
@@ -11854,7 +11847,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="70" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B14" s="88">
         <v>18</v>
@@ -11907,7 +11900,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B15" s="88">
         <v>12</v>
@@ -11973,7 +11966,7 @@
       <c r="L16" s="75"/>
       <c r="M16" s="76"/>
       <c r="N16" s="76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O16" s="76"/>
       <c r="P16" s="75"/>
@@ -12087,7 +12080,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="70" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B19" s="88">
         <v>19</v>
@@ -12140,7 +12133,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="70" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B20" s="88">
         <v>12</v>
@@ -12196,12 +12189,12 @@
       <c r="I21" s="89"/>
       <c r="K21" s="91"/>
       <c r="N21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="143" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B22" s="6">
         <v>19</v>
@@ -12237,7 +12230,7 @@
         <v>8</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N22">
         <v>115.75</v>
@@ -12254,7 +12247,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B23" s="6">
         <v>19</v>
@@ -12290,7 +12283,7 @@
         <v>8</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N23">
         <v>115.75</v>
@@ -12307,7 +12300,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="143" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B24" s="6">
         <v>19</v>
@@ -12343,7 +12336,7 @@
         <v>8</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N24">
         <v>192.91</v>
@@ -12360,7 +12353,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B25" s="6">
         <v>19</v>
@@ -12396,7 +12389,7 @@
         <v>8</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N25">
         <v>192.91</v>
@@ -12413,7 +12406,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B26" s="6">
         <v>15</v>
@@ -12449,7 +12442,7 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N26">
         <v>152.72</v>
@@ -12463,7 +12456,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B27" s="61">
         <v>15</v>
@@ -12499,7 +12492,7 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="L27" s="61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M27" s="35"/>
       <c r="N27" s="35">
@@ -12515,12 +12508,12 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B45" s="6">
         <v>11</v>
@@ -12625,7 +12618,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B48" s="6">
         <v>9</v>
@@ -12660,7 +12653,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B49" s="6">
         <v>11</v>
@@ -12695,7 +12688,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B50" s="6">
         <v>14</v>
@@ -12839,7 +12832,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B56" s="6">
         <v>19</v>
@@ -12874,7 +12867,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" s="6">
         <v>15</v>
@@ -12913,7 +12906,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B59" s="6">
         <v>19</v>
@@ -12955,7 +12948,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B61" s="6">
         <v>15</v>
@@ -12993,7 +12986,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B62" s="6">
         <v>15</v>
@@ -13031,7 +13024,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B63" s="6">
         <v>15</v>
@@ -13069,7 +13062,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B64" s="6">
         <v>15</v>
@@ -13104,7 +13097,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B65" s="6">
         <v>15</v>
@@ -13139,7 +13132,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B66" s="6">
         <v>15</v>
@@ -13181,28 +13174,28 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D73" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="M74" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N74" s="6"/>
       <c r="O74" s="6">
         <v>122.5</v>
       </c>
       <c r="S74" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="T74" s="85" t="s">
         <v>400</v>
-      </c>
-      <c r="T74" s="85" t="s">
-        <v>401</v>
       </c>
       <c r="U74" s="86">
         <v>8</v>
       </c>
       <c r="V74" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W74" s="86">
         <v>179.04</v>
@@ -13210,23 +13203,23 @@
     </row>
     <row r="75" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="M75" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N75" s="6"/>
       <c r="O75" s="6">
         <v>101</v>
       </c>
       <c r="S75" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="T75" s="85" t="s">
         <v>403</v>
-      </c>
-      <c r="T75" s="85" t="s">
-        <v>404</v>
       </c>
       <c r="U75" s="86">
         <v>3</v>
       </c>
       <c r="V75" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W75" s="86">
         <v>300.41000000000003</v>
@@ -13234,7 +13227,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="M76" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6" t="e">
@@ -13242,16 +13235,16 @@
         <v>#REF!</v>
       </c>
       <c r="S76" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="T76" s="85" t="s">
         <v>405</v>
-      </c>
-      <c r="T76" s="85" t="s">
-        <v>406</v>
       </c>
       <c r="U76" s="86">
         <v>1</v>
       </c>
       <c r="V76" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W76" s="86">
         <v>472.24</v>
@@ -13259,16 +13252,16 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="S77" s="85" t="s">
+        <v>406</v>
+      </c>
+      <c r="T77" s="85" t="s">
         <v>407</v>
-      </c>
-      <c r="T77" s="85" t="s">
-        <v>408</v>
       </c>
       <c r="U77" s="86">
         <v>1</v>
       </c>
       <c r="V77" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W77" s="86">
         <v>923.01</v>
@@ -13312,13 +13305,13 @@
         <v>198</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>199</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>210</v>
@@ -13364,7 +13357,7 @@
         <v>4.75</v>
       </c>
       <c r="J2" s="145" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -13398,7 +13391,7 @@
         <v>3.8</v>
       </c>
       <c r="J3" s="145" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -13432,7 +13425,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="145" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -13466,7 +13459,7 @@
         <v>4.75</v>
       </c>
       <c r="J5" s="149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -13500,7 +13493,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="J6" s="149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -13534,7 +13527,7 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -13568,7 +13561,7 @@
         <v>4.75</v>
       </c>
       <c r="J8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -13602,7 +13595,7 @@
         <v>3.8</v>
       </c>
       <c r="J9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -14243,7 +14236,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="141" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B18" s="142">
         <v>400</v>
@@ -14267,7 +14260,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="141" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B19" s="142">
         <v>400</v>
@@ -14291,7 +14284,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="141" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B20" s="142">
         <v>800</v>
@@ -14315,7 +14308,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="141" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="142">
         <v>1200</v>
@@ -14339,7 +14332,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="141" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B22" s="142">
         <v>2200</v>
@@ -14363,7 +14356,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="141" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B23" s="142">
         <v>3600</v>
@@ -14388,7 +14381,7 @@
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="71"/>
       <c r="C27" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D27" s="139"/>
       <c r="E27" s="139"/>
@@ -14404,30 +14397,30 @@
         <v>42</v>
       </c>
       <c r="D28" s="108" t="s">
+        <v>520</v>
+      </c>
+      <c r="E28" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="F28" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="G28" s="108" t="s">
         <v>523</v>
-      </c>
-      <c r="G28" s="108" t="s">
-        <v>524</v>
       </c>
       <c r="H28" s="108" t="s">
         <v>44</v>
       </c>
       <c r="I28" s="108" t="s">
+        <v>524</v>
+      </c>
+      <c r="J28" s="109" t="s">
         <v>525</v>
-      </c>
-      <c r="J28" s="109" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="110" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C29" s="111">
         <v>1</v>
@@ -14741,7 +14734,7 @@
       </c>
       <c r="C43" s="120"/>
       <c r="D43" s="121" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E43" s="122">
         <v>360</v>
@@ -14778,13 +14771,13 @@
         <v>823</v>
       </c>
       <c r="H44" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I44" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J44" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
@@ -14803,13 +14796,13 @@
         <v>823</v>
       </c>
       <c r="H45" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I45" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J45" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
@@ -14828,13 +14821,13 @@
         <v>823</v>
       </c>
       <c r="H46" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I46" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J46" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
@@ -14853,13 +14846,13 @@
         <v>823</v>
       </c>
       <c r="H47" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I47" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J47" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
@@ -14877,16 +14870,16 @@
         <v>490</v>
       </c>
       <c r="G48" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H48" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I48" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J48" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
@@ -14900,22 +14893,22 @@
         <v>234</v>
       </c>
       <c r="E49" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F49" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G49" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H49" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I49" s="129" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J49" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -14929,22 +14922,22 @@
         <v>242</v>
       </c>
       <c r="E50" s="136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F50" s="136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G50" s="136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H50" s="136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I50" s="136" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J50" s="137" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -15545,13 +15538,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
+        <v>421</v>
+      </c>
+      <c r="P18" t="s">
         <v>422</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>423</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -15560,18 +15553,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
+        <v>424</v>
+      </c>
+      <c r="P19" t="s">
         <v>425</v>
-      </c>
-      <c r="P19" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -15599,22 +15592,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" t="s">
         <v>428</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>429</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>430</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>431</v>
       </c>
-      <c r="H4" t="s">
-        <v>432</v>
-      </c>
       <c r="I4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -15707,10 +15700,10 @@
         <v>143</v>
       </c>
       <c r="I1" s="55" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J1" s="94" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>240</v>
@@ -16466,7 +16459,7 @@
     </row>
     <row r="18" spans="1:18" s="76" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="80"/>
@@ -16529,7 +16522,7 @@
     </row>
     <row r="20" spans="1:18" s="76" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B20" s="74"/>
       <c r="C20" s="73"/>
@@ -16638,7 +16631,7 @@
     </row>
     <row r="23" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B23" s="5">
         <v>11.9</v>
@@ -16683,7 +16676,7 @@
     </row>
     <row r="24" spans="1:18" s="76" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="80"/>
@@ -16751,7 +16744,7 @@
     </row>
     <row r="26" spans="1:18" s="76" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
@@ -17162,7 +17155,7 @@
     </row>
     <row r="37" spans="1:18" s="76" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B37" s="74"/>
       <c r="C37" s="73"/>
@@ -17222,7 +17215,7 @@
     </row>
     <row r="39" spans="1:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B39" s="6">
         <v>4.5</v>
@@ -17884,30 +17877,30 @@
   <sheetData>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>296</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E3" s="62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C6" s="6">
         <v>65</v>
@@ -17924,10 +17917,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>137</v>
@@ -17944,10 +17937,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C8" s="6">
         <v>65</v>
@@ -17964,10 +17957,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>137</v>
@@ -17984,10 +17977,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>137</v>
@@ -18004,10 +17997,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>137</v>
@@ -18024,10 +18017,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>138</v>
@@ -18044,10 +18037,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>138</v>
@@ -18067,10 +18060,10 @@
         <v>256</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D17" s="6">
         <v>10000</v>
@@ -18084,10 +18077,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C19" s="6">
         <v>65</v>
@@ -18104,10 +18097,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>137</v>
@@ -18124,10 +18117,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>138</v>
@@ -18308,10 +18301,10 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C8" t="s">
         <v>568</v>
-      </c>
-      <c r="C8" t="s">
-        <v>569</v>
       </c>
       <c r="D8" t="s">
         <v>248</v>
@@ -18374,7 +18367,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="154" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="25">
         <f>B3+1.64+0.5</f>
@@ -18418,7 +18411,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="154" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="25">
         <f>B6+0.72+0.5</f>
@@ -18433,7 +18426,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="154" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="25">
         <v>2</v>
@@ -18929,15 +18922,15 @@
         <v>195</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>227</v>
@@ -18969,7 +18962,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>227</v>
@@ -19039,7 +19032,7 @@
         <v>226</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D5" s="30">
         <v>102</v>
@@ -19082,7 +19075,7 @@
         <v>226</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D6" s="30">
         <v>102</v>
@@ -19125,7 +19118,7 @@
         <v>226</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D7" s="15">
         <v>127</v>
@@ -19168,7 +19161,7 @@
         <v>226</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D8" s="30">
         <v>139</v>
@@ -19211,7 +19204,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D9" s="30">
         <v>168</v>
@@ -19248,13 +19241,13 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>226</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D10" s="16">
         <v>193</v>
@@ -19277,7 +19270,7 @@
         <v>53</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
@@ -19299,7 +19292,7 @@
         <v>226</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D11" s="30">
         <v>219</v>
@@ -19322,7 +19315,7 @@
         <v>53</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
@@ -19338,13 +19331,13 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>226</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D12" s="32">
         <v>273.05</v>
@@ -19425,22 +19418,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" t="s">
         <v>553</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>554</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>555</v>
       </c>
-      <c r="F2" t="s">
-        <v>556</v>
-      </c>
       <c r="G2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
@@ -19451,10 +19444,10 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1469" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72CDEAFB-673A-4F45-8954-FDEBDD0009CA}"/>
+  <xr:revisionPtr revIDLastSave="1550" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A62302E1-363F-4B06-B8FE-091014F0F106}"/>
   <bookViews>
-    <workbookView xWindow="11710" yWindow="1670" windowWidth="21170" windowHeight="14960" tabRatio="859" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="0" windowWidth="29530" windowHeight="19090" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Motors!$A$1:$S$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Motors!$A$1:$S$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="578">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -1988,9 +1988,6 @@
   </si>
   <si>
     <t>KE 120.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Note: need to add in 48 plate wheel again. </t>
   </si>
   <si>
     <t>JM200</t>
@@ -3501,11 +3498,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4995,13 +4992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>119065</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>125639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>150811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5042,16 +5039,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>642056</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>126999</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276931</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247744</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>113438</xdr:rowOff>
+      <xdr:colOff>692244</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>129313</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5074,8 +5071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4515556" y="6561666"/>
-          <a:ext cx="4248244" cy="2921550"/>
+          <a:off x="4944181" y="13120687"/>
+          <a:ext cx="4265001" cy="2907439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5086,16 +5083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>86432</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54679</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78494</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>118179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>338590</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>55905</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29027</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>119405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5118,7 +5115,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11056057" y="5547429"/>
+          <a:off x="11905369" y="12548304"/>
           <a:ext cx="4522533" cy="2374539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6312,9 +6309,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
   <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N115" sqref="N115"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6791,14 +6788,17 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N10" s="157" t="s">
-        <v>578</v>
+      <c r="H10" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N10" s="156" t="s">
+        <v>577</v>
       </c>
       <c r="P10" s="66"/>
     </row>
@@ -6899,14 +6899,17 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H13" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N13" s="157" t="s">
-        <v>578</v>
+      <c r="H13" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N13" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
@@ -7371,9 +7374,9 @@
       <c r="B24" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="1" t="e">
-        <f>#REF!+0.01</f>
-        <v>#REF!</v>
+      <c r="C24" s="1">
+        <f>D23+0.01</f>
+        <v>60.01</v>
       </c>
       <c r="D24" s="1">
         <v>80</v>
@@ -7545,14 +7548,17 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H28" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N28" s="157" t="s">
-        <v>578</v>
+      <c r="H28" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N28" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -7593,8 +7599,8 @@
       <c r="M29" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="157" t="s">
-        <v>578</v>
+      <c r="N29" s="156" t="s">
+        <v>577</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="66"/>
@@ -7607,14 +7613,17 @@
       <c r="U29" s="99"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H30" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N30" s="157" t="s">
-        <v>578</v>
+      <c r="H30" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N30" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -7947,16 +7956,19 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="H38" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N38" s="157" t="s">
-        <v>578</v>
+      <c r="H38" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N38" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -8338,15 +8350,18 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="H48" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N48" s="157" t="s">
-        <v>578</v>
+      <c r="H48" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N48" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.35">
@@ -8517,20 +8532,23 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B53" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="H53" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N53" s="157" t="s">
-        <v>578</v>
+      <c r="H53" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N53" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
-        <f>Chaindrive!A45</f>
+        <f>Chaindrive!A31</f>
         <v>JM200</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -8539,15 +8557,15 @@
       <c r="C54" s="2">
         <v>0</v>
       </c>
-      <c r="D54" s="1">
-        <f>Chaindrive!I45</f>
+      <c r="D54" s="34">
+        <f>Chaindrive!I31</f>
         <v>110.90909090909092</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F54" s="1">
-        <f>Chaindrive!K45</f>
+      <c r="F54" s="33">
+        <f>Chaindrive!K31</f>
         <v>6.1311475409836058</v>
       </c>
       <c r="G54" s="1">
@@ -8588,15 +8606,15 @@
       <c r="C55" s="2">
         <v>15.01</v>
       </c>
-      <c r="D55" s="1">
-        <f>Chaindrive!I46</f>
+      <c r="D55" s="34">
+        <f>Chaindrive!I32</f>
         <v>344.44444444444446</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F55" s="1">
-        <f>Chaindrive!K46</f>
+        <f>Chaindrive!K32</f>
         <v>6.12</v>
       </c>
       <c r="G55" s="1">
@@ -8638,14 +8656,14 @@
         <v>62.01</v>
       </c>
       <c r="D56" s="1">
-        <f>Chaindrive!I47</f>
+        <f>Chaindrive!I33</f>
         <v>608</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F56" s="1">
-        <f>Chaindrive!K47</f>
+        <f>Chaindrive!K33</f>
         <v>3.4375</v>
       </c>
       <c r="G56" s="1">
@@ -8674,15 +8692,18 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B57" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="H57" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N57" s="157" t="s">
-        <v>578</v>
+      <c r="H57" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N57" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.35">
@@ -8812,7 +8833,7 @@
       <c r="E60" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60" s="33">
         <f>Chaindrive!K8</f>
         <v>6.3157894736842106</v>
       </c>
@@ -8842,14 +8863,17 @@
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B61" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N61" s="157" t="s">
-        <v>578</v>
+      <c r="H61" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N61" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.35">
@@ -8964,9 +8988,9 @@
       <c r="V63" s="101"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" t="e">
-        <f>Chaindrive!#REF!</f>
-        <v>#REF!</v>
+      <c r="A64" s="3" t="str">
+        <f>Chaindrive!A14</f>
+        <v>Ranger150 3ph 18-57 5/8"</v>
       </c>
       <c r="B64" t="s">
         <v>347</v>
@@ -8975,16 +8999,16 @@
         <f>D63+0.01</f>
         <v>342.01</v>
       </c>
-      <c r="D64" s="34" t="e">
-        <f>Chaindrive!#REF!</f>
-        <v>#REF!</v>
+      <c r="D64" s="34">
+        <f>Chaindrive!I14</f>
+        <v>475</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="2" t="e">
-        <f>Chaindrive!#REF!</f>
-        <v>#REF!</v>
+      <c r="F64" s="2">
+        <f>Chaindrive!K14</f>
+        <v>15.157894736842106</v>
       </c>
       <c r="G64" s="1">
         <v>415</v>
@@ -9007,38 +9031,30 @@
       <c r="N64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q64">
-        <v>370</v>
-      </c>
-      <c r="R64" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="S64">
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
-        <f>Chaindrive!A14</f>
-        <v>Ranger150 3ph 18-57 5/8"</v>
+        <f>Chaindrive!A15</f>
+        <v>Ranger150 3ph 12-57 5/8"</v>
       </c>
       <c r="B65" t="s">
         <v>347</v>
       </c>
-      <c r="C65" s="2" t="e">
+      <c r="C65" s="2">
         <f>D64+0.01</f>
-        <v>#REF!</v>
+        <v>475.01</v>
       </c>
       <c r="D65" s="34">
-        <f>Chaindrive!I14</f>
-        <v>475</v>
+        <v>713</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F65" s="2">
-        <f>Chaindrive!K14</f>
-        <v>15.157894736842106</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1">
         <v>415</v>
@@ -9061,30 +9077,37 @@
       <c r="N65" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="R65" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="S65">
         <v>40</v>
       </c>
+      <c r="U65" s="98">
+        <v>472.24</v>
+      </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
-        <f>Chaindrive!A15</f>
-        <v>Ranger150 3ph 12-57 5/8"</v>
+        <f>Chaindrive!A19</f>
+        <v>Ranger220 3ph 19-57 3/4"</v>
       </c>
       <c r="B66" t="s">
         <v>347</v>
       </c>
       <c r="C66" s="2">
-        <f>D65+0.01</f>
-        <v>475.01</v>
+        <v>713.01</v>
       </c>
       <c r="D66" s="34">
-        <v>713</v>
+        <f>Chaindrive!I19</f>
+        <v>660</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F66" s="2">
-        <v>10</v>
+        <f>Chaindrive!K19</f>
+        <v>8</v>
       </c>
       <c r="G66" s="1">
         <v>415</v>
@@ -9099,7 +9122,7 @@
         <v>283</v>
       </c>
       <c r="L66" s="1">
-        <v>25.4</v>
+        <v>30</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>28</v>
@@ -9107,98 +9130,92 @@
       <c r="N66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R66" s="6" t="s">
-        <v>351</v>
+      <c r="Q66">
+        <v>450</v>
       </c>
       <c r="S66">
         <v>40</v>
       </c>
-      <c r="U66" s="98">
-        <v>472.24</v>
-      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="str">
-        <f>Chaindrive!A19</f>
-        <v>Ranger220 3ph 19-57 3/4"</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="A67" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="H67" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N67" s="156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="str">
+        <f>Chaindrive!A22</f>
+        <v>KE 20.24 19-57 3/4"</v>
+      </c>
+      <c r="B68" t="s">
         <v>347</v>
       </c>
-      <c r="C67" s="2">
-        <v>713.01</v>
-      </c>
-      <c r="D67" s="34">
-        <f>Chaindrive!I19</f>
-        <v>660</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="34">
+        <f>Chaindrive!I22</f>
+        <v>600</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F67" s="2">
-        <f>Chaindrive!K19</f>
+      <c r="F68" s="2">
+        <f>Chaindrive!K22</f>
         <v>8</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G68" s="1">
         <v>415</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L67" s="1">
-        <v>30</v>
-      </c>
-      <c r="M67" s="1" t="s">
+      <c r="L68" s="1">
+        <v>40</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="Q67">
-        <v>450</v>
-      </c>
-      <c r="S67">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B68" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="H68" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N68" s="157" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
-        <f>Chaindrive!A22</f>
-        <v>KE 20.24 19-57 3/4"</v>
+        <f>Chaindrive!A23</f>
+        <v>KE 30.24  19-57 3/4"</v>
       </c>
       <c r="B69" t="s">
         <v>347</v>
       </c>
       <c r="C69" s="1">
-        <v>0</v>
+        <v>600.01</v>
       </c>
       <c r="D69" s="34">
-        <f>Chaindrive!I22</f>
-        <v>600</v>
+        <f>Chaindrive!I23</f>
+        <v>900</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F69" s="2">
-        <f>Chaindrive!K22</f>
+        <f>Chaindrive!K23</f>
         <v>8</v>
       </c>
       <c r="G69" s="1">
@@ -9225,24 +9242,24 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
-        <f>Chaindrive!A23</f>
-        <v>KE 30.24  19-57 3/4"</v>
+        <f>Chaindrive!A24</f>
+        <v>KE 40.24  19-57 1"</v>
       </c>
       <c r="B70" t="s">
         <v>347</v>
       </c>
-      <c r="C70" s="1">
-        <v>600.01</v>
+      <c r="C70" s="2">
+        <v>900.01</v>
       </c>
       <c r="D70" s="34">
-        <f>Chaindrive!I23</f>
-        <v>900</v>
+        <f>Chaindrive!I24</f>
+        <v>1200</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F70" s="2">
-        <f>Chaindrive!K23</f>
+        <f>Chaindrive!K24</f>
         <v>8</v>
       </c>
       <c r="G70" s="1">
@@ -9269,24 +9286,24 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
-        <f>Chaindrive!A24</f>
-        <v>KE 40.24  19-57 1"</v>
+        <f>Chaindrive!A25</f>
+        <v>KE 60.24   19-57 1"</v>
       </c>
       <c r="B71" t="s">
         <v>347</v>
       </c>
       <c r="C71" s="2">
-        <v>900.01</v>
+        <v>1200.01</v>
       </c>
       <c r="D71" s="34">
-        <f>Chaindrive!I24</f>
-        <v>1200</v>
+        <f>Chaindrive!I25</f>
+        <v>1800</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F71" s="2">
-        <f>Chaindrive!K24</f>
+        <f>Chaindrive!K25</f>
         <v>8</v>
       </c>
       <c r="G71" s="1">
@@ -9313,25 +9330,25 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
-        <f>Chaindrive!A25</f>
-        <v>KE 60.24   19-57 1"</v>
+        <f>Chaindrive!A26</f>
+        <v>KE 80.24   19-57 1 1/4"</v>
       </c>
       <c r="B72" t="s">
         <v>347</v>
       </c>
       <c r="C72" s="2">
-        <v>1200.01</v>
+        <v>1800.01</v>
       </c>
       <c r="D72" s="34">
-        <f>Chaindrive!I25</f>
-        <v>1800</v>
+        <f>Chaindrive!I26</f>
+        <v>3040</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F72" s="2">
-        <f>Chaindrive!K25</f>
-        <v>8</v>
+        <f>Chaindrive!K26</f>
+        <v>6.3157894736842106</v>
       </c>
       <c r="G72" s="1">
         <v>415</v>
@@ -9356,106 +9373,122 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="str">
-        <f>Chaindrive!A26</f>
-        <v>KE 80.24   19-57 1 1/4"</v>
-      </c>
-      <c r="B73" t="s">
-        <v>347</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1800.01</v>
-      </c>
-      <c r="D73" s="34">
-        <f>Chaindrive!I26</f>
-        <v>3040</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F73" s="2">
-        <f>Chaindrive!K26</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="G73" s="1">
-        <v>415</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L73" s="1">
-        <v>40</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>28</v>
+      <c r="A73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="34"/>
+      <c r="F73" s="2"/>
+      <c r="H73" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N73" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="34"/>
       <c r="F74" s="2"/>
-      <c r="H74" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N74" s="157" t="s">
-        <v>578</v>
+      <c r="H74" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N74" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B75" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="34"/>
-      <c r="F75" s="2"/>
-      <c r="H75" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N75" s="157" t="s">
-        <v>578</v>
+      <c r="H75" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N75" s="156" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>352</v>
+      </c>
       <c r="B76" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H76" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N76" s="157" t="s">
-        <v>578</v>
+        <v>347</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" ref="C76:C77" si="2">D75+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D76" s="1">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F76" s="1">
+        <v>15</v>
+      </c>
+      <c r="G76" s="1">
+        <v>415</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L76" s="1">
+        <v>30</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O76" s="1">
+        <v>8</v>
+      </c>
+      <c r="R76" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="U76" s="148">
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="A77" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" t="s">
         <v>347</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ref="C77:C78" si="2">D76+0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="D77" s="1">
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>100.01</v>
+      </c>
+      <c r="D77" s="6">
+        <v>170</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="6">
         <v>15</v>
       </c>
       <c r="G77" s="1">
@@ -9482,26 +9515,32 @@
       <c r="O77" s="1">
         <v>8</v>
       </c>
+      <c r="Q77">
+        <v>400</v>
+      </c>
       <c r="R77" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="S77">
+        <v>20</v>
       </c>
       <c r="U77" s="148">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B78" t="s">
         <v>347</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
-        <v>100.01</v>
+        <f>D77+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D78" s="6">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>163</v>
@@ -9534,31 +9573,31 @@
         <v>8</v>
       </c>
       <c r="Q78">
-        <v>400</v>
+        <v>750</v>
       </c>
       <c r="R78" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S78">
         <v>20</v>
       </c>
       <c r="U78" s="148">
-        <v>280</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s">
         <v>347</v>
       </c>
       <c r="C79" s="1">
-        <f>D78+0.01</f>
-        <v>170.01</v>
+        <f t="shared" ref="C79:C87" si="3">D78+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D79" s="6">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>163</v>
@@ -9579,7 +9618,7 @@
         <v>283</v>
       </c>
       <c r="L79" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>62</v>
@@ -9588,34 +9627,34 @@
         <v>28</v>
       </c>
       <c r="O79" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q79">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="S79">
         <v>20</v>
       </c>
       <c r="U79" s="148">
-        <v>307</v>
+        <v>383</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B80" t="s">
         <v>347</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ref="C80:C88" si="3">D79+0.01</f>
-        <v>250.01</v>
+        <f t="shared" si="3"/>
+        <v>350.01</v>
       </c>
       <c r="D80" s="6">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>163</v>
@@ -9648,31 +9687,29 @@
         <v>9</v>
       </c>
       <c r="Q80">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S80">
         <v>20</v>
       </c>
-      <c r="U80" s="148">
-        <v>383</v>
-      </c>
+      <c r="U80" s="148"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B81" t="s">
         <v>347</v>
       </c>
       <c r="C81" s="1">
         <f t="shared" si="3"/>
-        <v>350.01</v>
+        <v>450.01</v>
       </c>
       <c r="D81" s="6">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>163</v>
@@ -9708,7 +9745,7 @@
         <v>1100</v>
       </c>
       <c r="R81" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="S81">
         <v>20</v>
@@ -9717,17 +9754,17 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B82" t="s">
         <v>347</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="3"/>
-        <v>450.01</v>
+        <v>550.01</v>
       </c>
       <c r="D82" s="6">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>163</v>
@@ -9759,11 +9796,8 @@
       <c r="O82" s="1">
         <v>9</v>
       </c>
-      <c r="Q82">
-        <v>1100</v>
-      </c>
       <c r="R82" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="S82">
         <v>20</v>
@@ -9772,17 +9806,17 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B83" t="s">
         <v>347</v>
       </c>
       <c r="C83" s="1">
         <f t="shared" si="3"/>
-        <v>550.01</v>
+        <v>650.01</v>
       </c>
       <c r="D83" s="6">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>163</v>
@@ -9803,7 +9837,7 @@
         <v>283</v>
       </c>
       <c r="L83" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>62</v>
@@ -9814,8 +9848,11 @@
       <c r="O83" s="1">
         <v>9</v>
       </c>
+      <c r="Q83">
+        <v>1100</v>
+      </c>
       <c r="R83" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="S83">
         <v>20</v>
@@ -9824,23 +9861,23 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B84" t="s">
         <v>347</v>
       </c>
       <c r="C84" s="1">
         <f t="shared" si="3"/>
-        <v>650.01</v>
+        <v>750.01</v>
       </c>
       <c r="D84" s="6">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F84" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G84" s="1">
         <v>415</v>
@@ -9864,32 +9901,25 @@
         <v>28</v>
       </c>
       <c r="O84" s="1">
-        <v>9</v>
-      </c>
-      <c r="Q84">
-        <v>1100</v>
+        <v>7</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="S84">
-        <v>20</v>
-      </c>
-      <c r="U84" s="148"/>
+        <v>369</v>
+      </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B85" t="s">
         <v>347</v>
       </c>
       <c r="C85" s="1">
         <f t="shared" si="3"/>
-        <v>750.01</v>
+        <v>850.01</v>
       </c>
       <c r="D85" s="6">
-        <v>850</v>
+        <v>1000</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>163</v>
@@ -9921,29 +9951,35 @@
       <c r="O85" s="1">
         <v>7</v>
       </c>
+      <c r="Q85">
+        <v>1300</v>
+      </c>
       <c r="R85" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
+      </c>
+      <c r="S85">
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B86" t="s">
         <v>347</v>
       </c>
       <c r="C86" s="1">
         <f t="shared" si="3"/>
-        <v>850.01</v>
+        <v>1000.01</v>
       </c>
       <c r="D86" s="6">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F86" s="6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86" s="1">
         <v>415</v>
@@ -9970,88 +10006,89 @@
         <v>7</v>
       </c>
       <c r="Q86">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="R86" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="S86">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>372</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="87" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="B87" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="66">
         <f t="shared" si="3"/>
-        <v>1000.01</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E87" s="1" t="s">
+        <v>1400.01</v>
+      </c>
+      <c r="D87" s="61">
+        <v>1800</v>
+      </c>
+      <c r="E87" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F87" s="6">
-        <v>7</v>
-      </c>
-      <c r="G87" s="1">
+      <c r="F87" s="61">
+        <v>6</v>
+      </c>
+      <c r="G87" s="66">
         <v>415</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="J87" s="66"/>
+      <c r="K87" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="L87" s="1">
-        <v>55</v>
-      </c>
-      <c r="M87" s="1" t="s">
+      <c r="L87" s="66">
+        <v>60</v>
+      </c>
+      <c r="M87" s="66" t="s">
         <v>62</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="66">
         <v>7</v>
       </c>
-      <c r="Q87">
-        <v>1100</v>
-      </c>
-      <c r="R87" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="S87">
-        <v>20</v>
-      </c>
+      <c r="P87" s="66"/>
+      <c r="Q87" s="35">
+        <v>1300</v>
+      </c>
+      <c r="R87" s="61"/>
+      <c r="S87" s="35">
+        <v>10</v>
+      </c>
+      <c r="U87" s="99"/>
     </row>
     <row r="88" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B88" s="35" t="s">
         <v>347</v>
       </c>
       <c r="C88" s="66">
-        <f t="shared" si="3"/>
-        <v>1400.01</v>
-      </c>
-      <c r="D88" s="61">
-        <v>1800</v>
+        <f t="shared" ref="C88:C91" si="4">D87+0.01</f>
+        <v>1800.01</v>
+      </c>
+      <c r="D88" s="66">
+        <v>2600</v>
       </c>
       <c r="E88" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F88" s="61">
-        <v>6</v>
+      <c r="F88" s="66">
+        <v>5</v>
       </c>
       <c r="G88" s="66">
         <v>415</v>
@@ -10067,7 +10104,7 @@
         <v>283</v>
       </c>
       <c r="L88" s="66">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M88" s="66" t="s">
         <v>62</v>
@@ -10076,11 +10113,11 @@
         <v>28</v>
       </c>
       <c r="O88" s="66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P88" s="66"/>
       <c r="Q88" s="35">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="R88" s="61"/>
       <c r="S88" s="35">
@@ -10090,17 +10127,17 @@
     </row>
     <row r="89" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B89" s="35" t="s">
         <v>347</v>
       </c>
       <c r="C89" s="66">
-        <f t="shared" ref="C89:C92" si="4">D88+0.01</f>
-        <v>1800.01</v>
+        <f t="shared" si="4"/>
+        <v>2600.0100000000002</v>
       </c>
       <c r="D89" s="66">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="E89" s="66" t="s">
         <v>163</v>
@@ -10135,7 +10172,7 @@
       </c>
       <c r="P89" s="66"/>
       <c r="Q89" s="35">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="R89" s="61"/>
       <c r="S89" s="35">
@@ -10145,14 +10182,14 @@
     </row>
     <row r="90" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B90" s="35" t="s">
         <v>347</v>
       </c>
       <c r="C90" s="66">
         <f t="shared" si="4"/>
-        <v>2600.0100000000002</v>
+        <v>3600.01</v>
       </c>
       <c r="D90" s="66">
         <v>3600</v>
@@ -10161,7 +10198,7 @@
         <v>163</v>
       </c>
       <c r="F90" s="66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G90" s="66">
         <v>415</v>
@@ -10200,7 +10237,7 @@
     </row>
     <row r="91" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B91" s="35" t="s">
         <v>347</v>
@@ -10210,7 +10247,7 @@
         <v>3600.01</v>
       </c>
       <c r="D91" s="66">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="E91" s="66" t="s">
         <v>163</v>
@@ -10232,7 +10269,7 @@
         <v>283</v>
       </c>
       <c r="L91" s="66">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M91" s="66" t="s">
         <v>62</v>
@@ -10241,7 +10278,7 @@
         <v>28</v>
       </c>
       <c r="O91" s="66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P91" s="66"/>
       <c r="Q91" s="35">
@@ -10255,23 +10292,23 @@
     </row>
     <row r="92" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B92" s="35" t="s">
         <v>347</v>
       </c>
       <c r="C92" s="66">
-        <f t="shared" si="4"/>
-        <v>3600.01</v>
+        <f t="shared" ref="C92" si="5">D91+0.01</f>
+        <v>4800.01</v>
       </c>
       <c r="D92" s="66">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="E92" s="66" t="s">
         <v>163</v>
       </c>
       <c r="F92" s="66">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G92" s="66">
         <v>415</v>
@@ -10287,7 +10324,7 @@
         <v>283</v>
       </c>
       <c r="L92" s="66">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M92" s="66" t="s">
         <v>62</v>
@@ -10296,11 +10333,11 @@
         <v>28</v>
       </c>
       <c r="O92" s="66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P92" s="66"/>
       <c r="Q92" s="35">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="R92" s="61"/>
       <c r="S92" s="35">
@@ -10308,85 +10345,86 @@
       </c>
       <c r="U92" s="99"/>
     </row>
-    <row r="93" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="B93" s="35" t="s">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H93" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N93" s="156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C93" s="66">
-        <f t="shared" ref="C93" si="5">D92+0.01</f>
-        <v>4800.01</v>
-      </c>
-      <c r="D93" s="66">
-        <v>5000</v>
-      </c>
-      <c r="E93" s="66" t="s">
+      <c r="C94" s="1">
+        <f>D93+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D94" s="1">
+        <v>170</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F93" s="66">
-        <v>5</v>
-      </c>
-      <c r="G93" s="66">
-        <v>415</v>
-      </c>
-      <c r="H93" s="66" t="s">
+      <c r="F94" s="1">
+        <v>10</v>
+      </c>
+      <c r="G94" s="1">
+        <v>230</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I93" s="66" t="s">
+      <c r="I94" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66" t="s">
+      <c r="K94" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L93" s="66">
-        <v>101</v>
-      </c>
-      <c r="M93" s="66" t="s">
+      <c r="L94" s="1">
+        <v>30</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O93" s="66">
-        <v>9</v>
-      </c>
-      <c r="P93" s="66"/>
-      <c r="Q93" s="35">
-        <v>2500</v>
-      </c>
-      <c r="R93" s="61"/>
-      <c r="S93" s="35">
-        <v>10</v>
-      </c>
-      <c r="U93" s="99"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B94" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H94" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N94" s="157" t="s">
-        <v>578</v>
+      <c r="O94" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="S94" s="1"/>
+      <c r="U94" s="98">
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C95" s="1">
         <f>D94+0.01</f>
-        <v>0.01</v>
+        <v>170.01</v>
       </c>
       <c r="D95" s="1">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>163</v>
@@ -10420,23 +10458,23 @@
       </c>
       <c r="Q95" s="1"/>
       <c r="R95" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S95" s="1"/>
       <c r="U95" s="98">
-        <v>418</v>
+        <v>474</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>347</v>
       </c>
       <c r="C96" s="1">
         <f>D95+0.01</f>
-        <v>170.01</v>
+        <v>250.01</v>
       </c>
       <c r="D96" s="1">
         <v>250</v>
@@ -10445,7 +10483,7 @@
         <v>163</v>
       </c>
       <c r="F96" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G96" s="1">
         <v>230</v>
@@ -10469,20 +10507,17 @@
         <v>28</v>
       </c>
       <c r="O96" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q96" s="1"/>
       <c r="R96" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="S96" s="1"/>
-      <c r="U96" s="98">
-        <v>474</v>
-      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>347</v>
@@ -10492,13 +10527,13 @@
         <v>250.01</v>
       </c>
       <c r="D97" s="1">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F97" s="1">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G97" s="1">
         <v>230</v>
@@ -10513,7 +10548,7 @@
         <v>283</v>
       </c>
       <c r="L97" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>62</v>
@@ -10522,93 +10557,97 @@
         <v>28</v>
       </c>
       <c r="O97" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q97" s="1"/>
+        <v>5</v>
+      </c>
       <c r="R97" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="S97" s="1"/>
+        <v>387</v>
+      </c>
+      <c r="U97" s="148"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H98" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N98" s="156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>388</v>
+      </c>
+      <c r="B99" t="s">
         <v>347</v>
       </c>
-      <c r="C98" s="1">
-        <f>D97+0.01</f>
-        <v>250.01</v>
-      </c>
-      <c r="D98" s="1">
-        <v>450</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F98" s="1">
-        <v>7</v>
-      </c>
-      <c r="G98" s="1">
+      <c r="C99" s="1">
+        <f>D98+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D99" s="6">
+        <v>250</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F99" s="6">
+        <v>80</v>
+      </c>
+      <c r="G99" s="1">
         <v>230</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="L98" s="1">
-        <v>40</v>
-      </c>
-      <c r="M98" s="1" t="s">
+      <c r="L99" s="1">
+        <v>30</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O98" s="1">
-        <v>5</v>
-      </c>
-      <c r="R98" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="U98" s="148"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H99" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N99" s="157" t="s">
-        <v>578</v>
+      <c r="O99" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q99">
+        <v>750</v>
+      </c>
+      <c r="S99">
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B100" t="s">
         <v>347</v>
       </c>
       <c r="C100" s="1">
         <f>D99+0.01</f>
-        <v>0.01</v>
+        <v>250.01</v>
       </c>
       <c r="D100" s="6">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F100" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G100" s="1">
         <v>230</v>
@@ -10623,7 +10662,7 @@
         <v>283</v>
       </c>
       <c r="L100" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>62</v>
@@ -10637,29 +10676,35 @@
       <c r="Q100">
         <v>750</v>
       </c>
+      <c r="R100" s="6" t="s">
+        <v>391</v>
+      </c>
       <c r="S100">
         <v>20</v>
       </c>
+      <c r="U100" s="98">
+        <v>1481.78</v>
+      </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>390</v>
+      <c r="A101" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="B101" t="s">
         <v>347</v>
       </c>
       <c r="C101" s="1">
         <f>D100+0.01</f>
-        <v>250.01</v>
+        <v>400.01</v>
       </c>
       <c r="D101" s="6">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F101" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G101" s="1">
         <v>230</v>
@@ -10688,29 +10733,23 @@
       <c r="Q101">
         <v>750</v>
       </c>
-      <c r="R101" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="S101">
         <v>20</v>
       </c>
-      <c r="U101" s="98">
-        <v>1481.78</v>
-      </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B102" t="s">
         <v>347</v>
       </c>
       <c r="C102" s="1">
         <f>D101+0.01</f>
-        <v>400.01</v>
+        <v>550.01</v>
       </c>
       <c r="D102" s="6">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>389</v>
@@ -10731,7 +10770,7 @@
         <v>283</v>
       </c>
       <c r="L102" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>62</v>
@@ -10751,84 +10790,87 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B103" t="s">
+        <v>291</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H103" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N103" s="156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>388</v>
+      </c>
+      <c r="B104" t="s">
         <v>347</v>
       </c>
-      <c r="C103" s="1">
-        <f>D102+0.01</f>
-        <v>550.01</v>
-      </c>
-      <c r="D103" s="6">
+      <c r="C104" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D104" s="6">
+        <v>250</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F104" s="6">
+        <v>80</v>
+      </c>
+      <c r="G104" s="1">
+        <v>415</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L104" s="1">
+        <v>40</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q104">
         <v>750</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F103" s="6">
+      <c r="S104">
         <v>20</v>
-      </c>
-      <c r="G103" s="1">
-        <v>230</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L103" s="1">
-        <v>55</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O103" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q103">
-        <v>750</v>
-      </c>
-      <c r="S103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B104" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H104" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N104" s="157" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B105" t="s">
         <v>347</v>
       </c>
       <c r="C105" s="1">
-        <v>0.01</v>
+        <f t="shared" ref="C105:C113" si="6">D104+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D105" s="6">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F105" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G105" s="1">
         <v>415</v>
@@ -10863,23 +10905,23 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B106" t="s">
         <v>347</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ref="C106:C114" si="6">D105+0.01</f>
-        <v>250.01</v>
+        <f t="shared" si="6"/>
+        <v>400.01</v>
       </c>
       <c r="D106" s="6">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F106" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G106" s="1">
         <v>415</v>
@@ -10914,23 +10956,23 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B107" t="s">
         <v>347</v>
       </c>
       <c r="C107" s="1">
         <f t="shared" si="6"/>
-        <v>400.01</v>
+        <v>450.01</v>
       </c>
       <c r="D107" s="6">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F107" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G107" s="1">
         <v>415</v>
@@ -10945,7 +10987,7 @@
         <v>283</v>
       </c>
       <c r="L107" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>62</v>
@@ -10964,24 +11006,24 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>395</v>
+      <c r="A108" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="B108" t="s">
         <v>347</v>
       </c>
       <c r="C108" s="1">
         <f t="shared" si="6"/>
-        <v>450.01</v>
+        <v>500.01</v>
       </c>
       <c r="D108" s="6">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F108" s="6">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G108" s="1">
         <v>415</v>
@@ -10996,7 +11038,7 @@
         <v>283</v>
       </c>
       <c r="L108" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>62</v>
@@ -11016,14 +11058,14 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B109" t="s">
         <v>347</v>
       </c>
       <c r="C109" s="1">
         <f t="shared" si="6"/>
-        <v>500.01</v>
+        <v>550.01</v>
       </c>
       <c r="D109" s="6">
         <v>550</v>
@@ -11032,7 +11074,7 @@
         <v>389</v>
       </c>
       <c r="F109" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G109" s="1">
         <v>415</v>
@@ -11067,7 +11109,7 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B110" t="s">
         <v>347</v>
@@ -11077,13 +11119,13 @@
         <v>550.01</v>
       </c>
       <c r="D110" s="6">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F110" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G110" s="1">
         <v>415</v>
@@ -11098,7 +11140,7 @@
         <v>283</v>
       </c>
       <c r="L110" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>62</v>
@@ -11118,14 +11160,14 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B111" t="s">
         <v>347</v>
       </c>
       <c r="C111" s="1">
         <f t="shared" si="6"/>
-        <v>550.01</v>
+        <v>750.01</v>
       </c>
       <c r="D111" s="6">
         <v>750</v>
@@ -11134,7 +11176,7 @@
         <v>389</v>
       </c>
       <c r="F111" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G111" s="1">
         <v>415</v>
@@ -11169,7 +11211,7 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B112" t="s">
         <v>347</v>
@@ -11179,13 +11221,13 @@
         <v>750.01</v>
       </c>
       <c r="D112" s="6">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F112" s="6">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G112" s="1">
         <v>415</v>
@@ -11220,23 +11262,23 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B113" t="s">
         <v>347</v>
       </c>
       <c r="C113" s="1">
         <f t="shared" si="6"/>
-        <v>750.01</v>
+        <v>1000.01</v>
       </c>
       <c r="D113" s="6">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>389</v>
       </c>
       <c r="F113" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G113" s="1">
         <v>415</v>
@@ -11271,64 +11313,72 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H114" s="156" t="s">
+        <v>577</v>
+      </c>
+      <c r="N114" s="156" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B115" t="s">
         <v>347</v>
       </c>
-      <c r="C114" s="1">
-        <f t="shared" si="6"/>
-        <v>1000.01</v>
-      </c>
-      <c r="D114" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="F114" s="6">
+      <c r="C115" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D115" s="6">
+        <v>250</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F115" s="6">
+        <v>15</v>
+      </c>
+      <c r="G115" s="1">
+        <v>415</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L115" s="1">
+        <v>30</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q115">
+        <v>850</v>
+      </c>
+      <c r="R115" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="S115">
         <v>20</v>
       </c>
-      <c r="G114" s="1">
-        <v>415</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L114" s="1">
-        <v>55</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O114" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q114">
-        <v>750</v>
-      </c>
-      <c r="S114">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B115" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H115" s="157" t="s">
-        <v>578</v>
-      </c>
-      <c r="N115" s="157" t="s">
-        <v>578</v>
+      <c r="U115" s="98">
+        <v>624.37</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.35">
@@ -11339,7 +11389,8 @@
         <v>347</v>
       </c>
       <c r="C116" s="1">
-        <v>0.01</v>
+        <f>D115+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D116" s="6">
         <v>250</v>
@@ -11348,7 +11399,7 @@
         <v>401</v>
       </c>
       <c r="F116" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G116" s="1">
         <v>415</v>
@@ -11377,35 +11428,29 @@
       <c r="Q116">
         <v>850</v>
       </c>
-      <c r="R116" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="S116">
         <v>20</v>
       </c>
-      <c r="U116" s="98">
-        <v>624.37</v>
-      </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B117" t="s">
         <v>347</v>
       </c>
       <c r="C117" s="1">
-        <f>D116+0.01</f>
+        <f t="shared" ref="C117:C123" si="7">D116+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D117" s="6">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F117" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G117" s="1">
         <v>415</v>
@@ -11420,7 +11465,7 @@
         <v>283</v>
       </c>
       <c r="L117" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>62</v>
@@ -11432,7 +11477,7 @@
         <v>11</v>
       </c>
       <c r="Q117">
-        <v>850</v>
+        <v>1100</v>
       </c>
       <c r="S117">
         <v>20</v>
@@ -11440,14 +11485,14 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B118" t="s">
         <v>347</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ref="C118:C124" si="7">D117+0.01</f>
-        <v>250.01</v>
+        <f t="shared" si="7"/>
+        <v>400.01</v>
       </c>
       <c r="D118" s="6">
         <v>400</v>
@@ -11456,7 +11501,7 @@
         <v>401</v>
       </c>
       <c r="F118" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G118" s="1">
         <v>415</v>
@@ -11491,7 +11536,7 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B119" t="s">
         <v>347</v>
@@ -11501,13 +11546,13 @@
         <v>400.01</v>
       </c>
       <c r="D119" s="6">
-        <v>400</v>
+        <v>550</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F119" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G119" s="1">
         <v>415</v>
@@ -11542,14 +11587,14 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B120" t="s">
         <v>347</v>
       </c>
       <c r="C120" s="1">
         <f t="shared" si="7"/>
-        <v>400.01</v>
+        <v>550.01</v>
       </c>
       <c r="D120" s="6">
         <v>550</v>
@@ -11558,7 +11603,7 @@
         <v>401</v>
       </c>
       <c r="F120" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G120" s="1">
         <v>415</v>
@@ -11573,7 +11618,7 @@
         <v>283</v>
       </c>
       <c r="L120" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>62</v>
@@ -11585,7 +11630,7 @@
         <v>11</v>
       </c>
       <c r="Q120">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="S120">
         <v>20</v>
@@ -11593,7 +11638,7 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B121" t="s">
         <v>347</v>
@@ -11603,7 +11648,7 @@
         <v>550.01</v>
       </c>
       <c r="D121" s="6">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>401</v>
@@ -11633,10 +11678,10 @@
         <v>28</v>
       </c>
       <c r="O121" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q121">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="S121">
         <v>20</v>
@@ -11644,17 +11689,17 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B122" t="s">
         <v>347</v>
       </c>
       <c r="C122" s="1">
         <f t="shared" si="7"/>
-        <v>550.01</v>
+        <v>750.01</v>
       </c>
       <c r="D122" s="6">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>401</v>
@@ -11684,10 +11729,10 @@
         <v>28</v>
       </c>
       <c r="O122" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q122">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="S122">
         <v>20</v>
@@ -11702,16 +11747,16 @@
       </c>
       <c r="C123" s="1">
         <f t="shared" si="7"/>
-        <v>750.01</v>
+        <v>1000.01</v>
       </c>
       <c r="D123" s="6">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>401</v>
       </c>
       <c r="F123" s="6">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G123" s="1">
         <v>415</v>
@@ -11735,10 +11780,10 @@
         <v>28</v>
       </c>
       <c r="O123" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q123">
-        <v>3000</v>
+        <v>750</v>
       </c>
       <c r="S123">
         <v>20</v>
@@ -11746,57 +11791,11 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B124" t="s">
-        <v>347</v>
-      </c>
-      <c r="C124" s="1">
-        <f t="shared" si="7"/>
-        <v>1000.01</v>
-      </c>
-      <c r="D124" s="6">
-        <v>1200</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F124" s="6">
-        <v>12</v>
-      </c>
-      <c r="G124" s="1">
-        <v>415</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="L124" s="1">
-        <v>55</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O124" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q124">
-        <v>750</v>
-      </c>
-      <c r="S124">
-        <v>20</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S124" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
+  <autoFilter ref="A1:S123" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11807,11 +11806,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12982,764 +12981,844 @@
       </c>
       <c r="Q27" s="35"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="6">
+        <v>11</v>
+      </c>
+      <c r="C31" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="D31" s="6">
+        <v>61</v>
+      </c>
+      <c r="F31" s="6">
+        <f>D31/B31</f>
+        <v>5.5454545454545459</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H31" s="1">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1">
+        <f>H31*F31</f>
+        <v>110.90909090909092</v>
+      </c>
+      <c r="J31" s="1">
+        <v>34</v>
+      </c>
+      <c r="K31" s="91">
+        <f t="shared" ref="K31:K36" si="11">J31/F31</f>
+        <v>6.1311475409836058</v>
+      </c>
+      <c r="L31" s="6">
+        <v>415</v>
+      </c>
+      <c r="P31" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" s="6">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6">
+        <v>50</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F33" si="12">D32/B32</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H32" s="1">
+        <v>62</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ref="I32:I35" si="13">H32*F32</f>
+        <v>344.44444444444446</v>
+      </c>
+      <c r="J32" s="1">
+        <v>34</v>
+      </c>
+      <c r="K32" s="91">
+        <f t="shared" si="11"/>
+        <v>6.12</v>
+      </c>
+      <c r="L32" s="6">
+        <v>415</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" s="6">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6">
+        <v>64</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="12"/>
+        <v>6.4</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="H33" s="1">
+        <v>95</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="13"/>
+        <v>608</v>
+      </c>
+      <c r="J33" s="1">
+        <v>22</v>
+      </c>
+      <c r="K33" s="91">
+        <f t="shared" si="11"/>
+        <v>3.4375</v>
+      </c>
+      <c r="L33" s="6">
+        <v>415</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" s="6">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6">
+        <v>57</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F36" si="14">D34/B34</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H34" s="6">
+        <v>128</v>
+      </c>
+      <c r="I34" s="1">
+        <f>H34*F34</f>
+        <v>810.66666666666663</v>
+      </c>
+      <c r="J34" s="6">
+        <v>22</v>
+      </c>
+      <c r="K34" s="91">
+        <f>J34/F34</f>
+        <v>3.4736842105263159</v>
+      </c>
+      <c r="L34" s="6">
+        <v>415</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="6">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6">
+        <v>48</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="14"/>
+        <v>4.3636363636363633</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H35" s="6">
+        <v>369</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="13"/>
+        <v>1610.181818181818</v>
+      </c>
+      <c r="J35" s="6">
+        <v>15</v>
+      </c>
+      <c r="K35" s="91">
+        <f t="shared" si="11"/>
+        <v>3.4375000000000004</v>
+      </c>
+      <c r="L35" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B36" s="6">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6">
+        <v>72</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="14"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H36" s="6">
+        <v>428</v>
+      </c>
+      <c r="I36" s="1">
+        <f>H36*F36</f>
+        <v>2201.1428571428573</v>
+      </c>
+      <c r="J36" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="K36" s="91">
+        <f t="shared" si="11"/>
+        <v>3.208333333333333</v>
+      </c>
+      <c r="L36" s="6">
+        <v>415</v>
+      </c>
+      <c r="P36" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B38" s="6">
+        <v>19</v>
+      </c>
+      <c r="C38" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="D38" s="6">
+        <v>57</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" ref="F38:F40" si="15">D38/B38</f>
+        <v>3</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H38" s="1">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1">
+        <f>H38*F38</f>
+        <v>45</v>
+      </c>
+      <c r="J38" s="1">
+        <v>34</v>
+      </c>
+      <c r="K38" s="91">
+        <f>J38/F38</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="L38" s="6">
+        <v>230</v>
+      </c>
+      <c r="P38" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B39" s="6">
+        <v>19</v>
+      </c>
+      <c r="C39" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="D39" s="6">
+        <v>57</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H39" s="1">
+        <v>62</v>
+      </c>
+      <c r="I39" s="1">
+        <f>H39*F39</f>
+        <v>186</v>
+      </c>
+      <c r="J39" s="1">
+        <v>34</v>
+      </c>
+      <c r="K39" s="91">
+        <f>J39/F39</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="L39" s="6">
+        <v>230</v>
+      </c>
+      <c r="P39" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B40" s="6">
+        <v>19</v>
+      </c>
+      <c r="C40" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="D40" s="6">
+        <v>57</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H40" s="1">
+        <v>95</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="I40" si="16">H40*F40</f>
+        <v>285</v>
+      </c>
+      <c r="J40" s="1">
+        <v>22</v>
+      </c>
+      <c r="K40" s="91">
+        <f t="shared" ref="K40" si="17">J40/F40</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="L40" s="6">
+        <v>230</v>
+      </c>
+      <c r="P40" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F41" s="91"/>
+      <c r="K41" s="91"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>452</v>
+      </c>
+      <c r="B42" s="6">
+        <v>19</v>
+      </c>
+      <c r="C42" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="D42" s="6">
+        <v>57</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" ref="F42" si="18">D42/B42</f>
+        <v>3</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H42" s="1">
+        <v>100</v>
+      </c>
+      <c r="I42" s="1">
+        <f>H42*F42</f>
+        <v>300</v>
+      </c>
+      <c r="J42" s="1">
+        <v>28</v>
+      </c>
+      <c r="K42" s="91">
+        <f t="shared" ref="K42" si="19">J42/F42</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L42" s="6">
+        <v>415</v>
+      </c>
+      <c r="P42" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="6">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="D43" s="6">
+        <v>57</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" ref="F43" si="20">D43/B43</f>
+        <v>3.8</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="H43" s="1">
+        <v>160</v>
+      </c>
+      <c r="I43" s="1">
+        <f>H43*F43</f>
+        <v>608</v>
+      </c>
+      <c r="J43" s="1">
+        <v>28</v>
+      </c>
+      <c r="K43" s="91">
+        <f t="shared" ref="K43" si="21">J43/F43</f>
+        <v>7.3684210526315796</v>
+      </c>
+      <c r="L43" s="6">
+        <v>415</v>
+      </c>
+      <c r="P43" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="F44" s="91"/>
+      <c r="K44" s="91"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B45" s="6">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C45" s="6">
+        <v>25.4</v>
       </c>
       <c r="D45" s="6">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F45" s="6">
         <f>D45/B45</f>
-        <v>5.5454545454545459</v>
+        <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>424</v>
       </c>
       <c r="H45" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I45" s="1">
         <f>H45*F45</f>
-        <v>110.90909090909092</v>
+        <v>210</v>
       </c>
       <c r="J45" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="K45" s="91">
-        <f t="shared" ref="K45:K50" si="11">J45/F45</f>
-        <v>6.1311475409836058</v>
+        <f t="shared" ref="K45" si="22">J45/F45</f>
+        <v>9.3333333333333339</v>
       </c>
       <c r="L45" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="6">
-        <v>9</v>
-      </c>
-      <c r="D46" s="6">
-        <v>50</v>
-      </c>
-      <c r="F46" s="6">
-        <f t="shared" ref="F46:F47" si="12">D46/B46</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="H46" s="1">
-        <v>62</v>
-      </c>
-      <c r="I46" s="1">
-        <f t="shared" ref="I46:I49" si="13">H46*F46</f>
-        <v>344.44444444444446</v>
-      </c>
-      <c r="J46" s="1">
-        <v>34</v>
-      </c>
-      <c r="K46" s="91">
-        <f t="shared" si="11"/>
-        <v>6.12</v>
-      </c>
-      <c r="L46" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>345</v>
+        <v>230</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>18000</v>
+      </c>
+      <c r="S45" s="6"/>
+      <c r="V45" s="98"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>455</v>
       </c>
       <c r="B47" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D47" s="6">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="12"/>
-        <v>6.4</v>
+        <f t="shared" ref="F47:F51" si="23">D47/B47</f>
+        <v>3.8</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="H47" s="1">
-        <v>95</v>
+      <c r="H47" s="6">
+        <v>200</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="13"/>
-        <v>608</v>
-      </c>
-      <c r="J47" s="1">
-        <v>22</v>
+        <f t="shared" ref="I47:I48" si="24">H47*F47</f>
+        <v>760</v>
+      </c>
+      <c r="J47" s="6">
+        <v>24</v>
       </c>
       <c r="K47" s="91">
-        <f t="shared" si="11"/>
-        <v>3.4375</v>
+        <f t="shared" ref="K47:K48" si="25">J47/F47</f>
+        <v>6.3157894736842106</v>
       </c>
       <c r="L47" s="6">
         <v>415</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>449</v>
+      <c r="P47" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>456</v>
       </c>
       <c r="B48" s="6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="6">
         <v>57</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" ref="F48:F50" si="14">D48/B48</f>
-        <v>6.333333333333333</v>
+        <f t="shared" si="23"/>
+        <v>3.8</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>436</v>
       </c>
       <c r="H48" s="6">
-        <v>128</v>
+        <v>300</v>
       </c>
       <c r="I48" s="1">
-        <f>H48*F48</f>
-        <v>810.66666666666663</v>
+        <f t="shared" si="24"/>
+        <v>1140</v>
       </c>
       <c r="J48" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K48" s="91">
-        <f>J48/F48</f>
-        <v>3.4736842105263159</v>
+        <f t="shared" si="25"/>
+        <v>6.3157894736842106</v>
       </c>
       <c r="L48" s="6">
         <v>415</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>450</v>
+      <c r="P48" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>457</v>
       </c>
       <c r="B49" s="6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D49" s="6">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="14"/>
-        <v>4.3636363636363633</v>
+        <f>D49/B49</f>
+        <v>3.8</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H49" s="6">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="13"/>
-        <v>1610.181818181818</v>
+        <f>H49*F49</f>
+        <v>1520</v>
       </c>
       <c r="J49" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K49" s="91">
-        <f t="shared" si="11"/>
-        <v>3.4375000000000004</v>
+        <f>J49/F49</f>
+        <v>6.3157894736842106</v>
       </c>
       <c r="L49" s="6">
         <v>415</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P49" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B50" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="6">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="14"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>424</v>
+        <f t="shared" si="23"/>
+        <v>3.8</v>
       </c>
       <c r="H50" s="6">
-        <v>428</v>
+        <v>600</v>
       </c>
       <c r="I50" s="1">
-        <f>H50*F50</f>
-        <v>2201.1428571428573</v>
+        <f t="shared" ref="I50:I52" si="26">H50*F50</f>
+        <v>2280</v>
       </c>
       <c r="J50" s="6">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="K50" s="91">
-        <f t="shared" si="11"/>
-        <v>3.208333333333333</v>
+        <f t="shared" ref="K50:K52" si="27">J50/F50</f>
+        <v>6.3157894736842106</v>
       </c>
       <c r="L50" s="6">
         <v>415</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>452</v>
+      <c r="P50" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>459</v>
+      </c>
+      <c r="B51" s="6">
+        <v>15</v>
+      </c>
+      <c r="D51" s="6">
+        <v>57</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="23"/>
+        <v>3.8</v>
+      </c>
+      <c r="H51" s="6">
+        <v>800</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="26"/>
+        <v>3040</v>
+      </c>
+      <c r="J51" s="6">
+        <v>24</v>
+      </c>
+      <c r="K51" s="91">
+        <f t="shared" si="27"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="L51" s="6">
+        <v>415</v>
+      </c>
+      <c r="P51" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>460</v>
       </c>
       <c r="B52" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D52" s="6">
         <v>57</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" ref="F52:F54" si="15">D52/B52</f>
-        <v>3</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H52" s="1">
-        <v>15</v>
+        <f>D52/B52</f>
+        <v>3.8</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1200</v>
       </c>
       <c r="I52" s="1">
-        <f>H52*F52</f>
-        <v>45</v>
-      </c>
-      <c r="J52" s="1">
-        <v>34</v>
+        <f t="shared" si="26"/>
+        <v>4560</v>
+      </c>
+      <c r="J52" s="6">
+        <v>24</v>
       </c>
       <c r="K52" s="91">
-        <f>J52/F52</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="L52" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="B53" s="6">
-        <v>19</v>
-      </c>
-      <c r="D53" s="6">
-        <v>57</v>
-      </c>
-      <c r="F53" s="6">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H53" s="1">
-        <v>62</v>
-      </c>
-      <c r="I53" s="1">
-        <f>H53*F53</f>
-        <v>186</v>
-      </c>
-      <c r="J53" s="1">
-        <v>34</v>
-      </c>
-      <c r="K53" s="91">
-        <f>J53/F53</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="L53" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B54" s="6">
-        <v>19</v>
-      </c>
-      <c r="D54" s="6">
-        <v>57</v>
-      </c>
-      <c r="F54" s="6">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H54" s="1">
-        <v>95</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" ref="I54" si="16">H54*F54</f>
-        <v>285</v>
-      </c>
-      <c r="J54" s="1">
-        <v>22</v>
-      </c>
-      <c r="K54" s="91">
-        <f t="shared" ref="K54" si="17">J54/F54</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="L54" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F55" s="91"/>
-      <c r="K55" s="91"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>453</v>
-      </c>
-      <c r="B56" s="6">
-        <v>19</v>
-      </c>
-      <c r="D56" s="6">
-        <v>57</v>
-      </c>
-      <c r="F56" s="6">
-        <f t="shared" ref="F56" si="18">D56/B56</f>
-        <v>3</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H56" s="1">
-        <v>100</v>
-      </c>
-      <c r="I56" s="1">
-        <f>H56*F56</f>
-        <v>300</v>
-      </c>
-      <c r="J56" s="1">
-        <v>28</v>
-      </c>
-      <c r="K56" s="91">
-        <f t="shared" ref="K56" si="19">J56/F56</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="L56" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>454</v>
-      </c>
-      <c r="B57" s="6">
-        <v>15</v>
-      </c>
-      <c r="D57" s="6">
-        <v>57</v>
-      </c>
-      <c r="F57" s="6">
-        <f t="shared" ref="F57" si="20">D57/B57</f>
-        <v>3.8</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H57" s="1">
-        <v>160</v>
-      </c>
-      <c r="I57" s="1">
-        <f>H57*F57</f>
-        <v>608</v>
-      </c>
-      <c r="J57" s="1">
-        <v>28</v>
-      </c>
-      <c r="K57" s="91">
-        <f t="shared" ref="K57" si="21">J57/F57</f>
-        <v>7.3684210526315796</v>
-      </c>
-      <c r="L57" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F58" s="91"/>
-      <c r="K58" s="91"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="B59" s="6">
-        <v>19</v>
-      </c>
-      <c r="D59" s="6">
-        <v>57</v>
-      </c>
-      <c r="F59" s="6">
-        <f>D59/B59</f>
-        <v>3</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H59" s="1">
-        <v>70</v>
-      </c>
-      <c r="I59" s="1">
-        <f>H59*F59</f>
-        <v>210</v>
-      </c>
-      <c r="J59" s="1">
-        <v>28</v>
-      </c>
-      <c r="K59" s="91">
-        <f t="shared" ref="K59" si="22">J59/F59</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="L59" s="6">
-        <v>230</v>
-      </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="S59" s="6"/>
-      <c r="V59" s="98"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>456</v>
-      </c>
-      <c r="B61" s="6">
-        <v>15</v>
-      </c>
-      <c r="D61" s="6">
-        <v>57</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" ref="F61:F65" si="23">D61/B61</f>
-        <v>3.8</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="H61" s="6">
-        <v>200</v>
-      </c>
-      <c r="I61" s="1">
-        <f t="shared" ref="I61:I62" si="24">H61*F61</f>
-        <v>760</v>
-      </c>
-      <c r="J61" s="6">
-        <v>24</v>
-      </c>
-      <c r="K61" s="91">
-        <f t="shared" ref="K61:K62" si="25">J61/F61</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L61" s="6">
-        <v>415</v>
-      </c>
-      <c r="P61" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>457</v>
-      </c>
-      <c r="B62" s="6">
-        <v>15</v>
-      </c>
-      <c r="D62" s="6">
-        <v>57</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="23"/>
-        <v>3.8</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="H62" s="6">
-        <v>300</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="24"/>
-        <v>1140</v>
-      </c>
-      <c r="J62" s="6">
-        <v>24</v>
-      </c>
-      <c r="K62" s="91">
-        <f t="shared" si="25"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L62" s="6">
-        <v>415</v>
-      </c>
-      <c r="P62" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>458</v>
-      </c>
-      <c r="B63" s="6">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6">
-        <v>57</v>
-      </c>
-      <c r="F63" s="6">
-        <f>D63/B63</f>
-        <v>3.8</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="H63" s="6">
-        <v>400</v>
-      </c>
-      <c r="I63" s="1">
-        <f>H63*F63</f>
-        <v>1520</v>
-      </c>
-      <c r="J63" s="6">
-        <v>24</v>
-      </c>
-      <c r="K63" s="91">
-        <f>J63/F63</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L63" s="6">
-        <v>415</v>
-      </c>
-      <c r="P63" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>459</v>
-      </c>
-      <c r="B64" s="6">
-        <v>15</v>
-      </c>
-      <c r="D64" s="6">
-        <v>57</v>
-      </c>
-      <c r="F64" s="6">
-        <f t="shared" si="23"/>
-        <v>3.8</v>
-      </c>
-      <c r="H64" s="6">
-        <v>600</v>
-      </c>
-      <c r="I64" s="1">
-        <f t="shared" ref="I64:I66" si="26">H64*F64</f>
-        <v>2280</v>
-      </c>
-      <c r="J64" s="6">
-        <v>24</v>
-      </c>
-      <c r="K64" s="91">
-        <f t="shared" ref="K64:K66" si="27">J64/F64</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L64" s="6">
-        <v>415</v>
-      </c>
-      <c r="P64" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>460</v>
-      </c>
-      <c r="B65" s="6">
-        <v>15</v>
-      </c>
-      <c r="D65" s="6">
-        <v>57</v>
-      </c>
-      <c r="F65" s="6">
-        <f t="shared" si="23"/>
-        <v>3.8</v>
-      </c>
-      <c r="H65" s="6">
-        <v>800</v>
-      </c>
-      <c r="I65" s="1">
-        <f t="shared" si="26"/>
-        <v>3040</v>
-      </c>
-      <c r="J65" s="6">
-        <v>24</v>
-      </c>
-      <c r="K65" s="91">
         <f t="shared" si="27"/>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L52" s="6">
         <v>415</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P52" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F57" s="91"/>
+      <c r="K57" s="91"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F58" s="91"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="D59" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B66" s="6">
-        <v>15</v>
-      </c>
-      <c r="D66" s="6">
-        <v>57</v>
-      </c>
-      <c r="F66" s="6">
-        <f>D66/B66</f>
-        <v>3.8</v>
-      </c>
-      <c r="H66" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I66" s="1">
-        <f t="shared" si="26"/>
-        <v>4560</v>
-      </c>
-      <c r="J66" s="6">
-        <v>24</v>
-      </c>
-      <c r="K66" s="91">
-        <f t="shared" si="27"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L66" s="6">
-        <v>415</v>
-      </c>
-      <c r="P66" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F71" s="91"/>
-      <c r="K71" s="91"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F72" s="91"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="D73" s="6" t="s">
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="M60" s="6" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M74" s="6" t="s">
+      <c r="N60" s="6"/>
+      <c r="O60" s="6">
+        <v>122.5</v>
+      </c>
+      <c r="S60" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="T60" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6">
-        <v>122.5</v>
-      </c>
-      <c r="S74" s="85" t="s">
-        <v>349</v>
-      </c>
-      <c r="T74" s="85" t="s">
+      <c r="U60" s="86">
+        <v>8</v>
+      </c>
+      <c r="V60" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="U74" s="86">
-        <v>8</v>
-      </c>
-      <c r="V74" s="85" t="s">
+      <c r="W60" s="86">
+        <v>179.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="29" x14ac:dyDescent="0.35">
+      <c r="M61" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="W74" s="86">
-        <v>179.04</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="29" x14ac:dyDescent="0.35">
-      <c r="M75" s="6" t="s">
+      <c r="N61" s="6"/>
+      <c r="O61" s="6">
+        <v>101</v>
+      </c>
+      <c r="S61" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="T61" s="85" t="s">
         <v>466</v>
       </c>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6">
-        <v>101</v>
-      </c>
-      <c r="S75" s="85" t="s">
-        <v>348</v>
-      </c>
-      <c r="T75" s="85" t="s">
+      <c r="U61" s="86">
+        <v>3</v>
+      </c>
+      <c r="V61" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="W61" s="86">
+        <v>300.41000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="M62" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="U75" s="86">
-        <v>3</v>
-      </c>
-      <c r="V75" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="W75" s="86">
-        <v>300.41000000000003</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M76" s="6" t="s">
+      <c r="N62" s="6"/>
+      <c r="O62" s="6" t="e">
+        <f>((O60*9.81)*O61)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S62" s="85" t="s">
+        <v>351</v>
+      </c>
+      <c r="T62" s="85" t="s">
         <v>468</v>
       </c>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6" t="e">
-        <f>((O74*9.81)*O75)/#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S76" s="85" t="s">
-        <v>351</v>
-      </c>
-      <c r="T76" s="85" t="s">
+      <c r="U62" s="86">
+        <v>1</v>
+      </c>
+      <c r="V62" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="W62" s="86">
+        <v>472.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="S63" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="T63" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="U76" s="86">
+      <c r="U63" s="86">
         <v>1</v>
       </c>
-      <c r="V76" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="W76" s="86">
-        <v>472.24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="S77" s="85" t="s">
-        <v>350</v>
-      </c>
-      <c r="T77" s="85" t="s">
-        <v>470</v>
-      </c>
-      <c r="U77" s="86">
-        <v>1</v>
-      </c>
-      <c r="V77" s="85" t="s">
-        <v>465</v>
-      </c>
-      <c r="W77" s="86">
+      <c r="V63" s="85" t="s">
+        <v>464</v>
+      </c>
+      <c r="W63" s="86">
         <v>923.01</v>
       </c>
     </row>
@@ -13775,31 +13854,31 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>478</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -13833,7 +13912,7 @@
         <v>4.75</v>
       </c>
       <c r="J2" s="143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -13867,7 +13946,7 @@
         <v>3.8</v>
       </c>
       <c r="J3" s="143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -13901,7 +13980,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="143" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -13918,7 +13997,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="145" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F5" s="145">
         <v>22400</v>
@@ -13935,7 +14014,7 @@
         <v>4.75</v>
       </c>
       <c r="J5" s="147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -13952,7 +14031,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="145" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F6" s="145">
         <v>22400</v>
@@ -13969,7 +14048,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="J6" s="147" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -13986,7 +14065,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F7" s="6">
         <v>29000</v>
@@ -14003,7 +14082,7 @@
         <v>4.75</v>
       </c>
       <c r="J7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -14020,7 +14099,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F8" s="6">
         <v>29000</v>
@@ -14037,7 +14116,7 @@
         <v>4.75</v>
       </c>
       <c r="J8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -14054,7 +14133,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F9" s="6">
         <v>29000</v>
@@ -14071,7 +14150,7 @@
         <v>3.8</v>
       </c>
       <c r="J9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -14091,7 +14170,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F16" s="6">
         <v>60000</v>
@@ -14121,7 +14200,7 @@
         <v>57</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F17" s="6">
         <v>95000</v>
@@ -14150,7 +14229,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14158,33 +14237,33 @@
     <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" t="s">
         <v>487</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>488</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>489</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>490</v>
-      </c>
-      <c r="E1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" t="s">
         <v>492</v>
-      </c>
-      <c r="B3" t="s">
-        <v>493</v>
       </c>
       <c r="C3">
         <v>5900</v>
@@ -14199,10 +14278,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" t="s">
         <v>494</v>
-      </c>
-      <c r="B4" t="s">
-        <v>495</v>
       </c>
       <c r="C4">
         <v>10800</v>
@@ -14220,10 +14299,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" t="s">
         <v>492</v>
-      </c>
-      <c r="B6" t="s">
-        <v>493</v>
       </c>
       <c r="C6">
         <v>11250</v>
@@ -14238,10 +14317,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
         <v>494</v>
-      </c>
-      <c r="B7" t="s">
-        <v>495</v>
       </c>
       <c r="C7">
         <v>18100</v>
@@ -14256,10 +14335,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" t="s">
         <v>496</v>
-      </c>
-      <c r="B8" t="s">
-        <v>497</v>
       </c>
       <c r="C8">
         <v>29200</v>
@@ -14274,7 +14353,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
         <v>148</v>
@@ -14321,34 +14400,34 @@
         <v>3</v>
       </c>
       <c r="B1" s="48" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="D1" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="E1" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>501</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>502</v>
       </c>
       <c r="G1" s="50" t="s">
         <v>271</v>
       </c>
       <c r="H1" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="52" t="s">
         <v>503</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>504</v>
       </c>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B2" s="104">
         <v>95</v>
@@ -14360,10 +14439,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="G2" s="104" t="s">
         <v>506</v>
-      </c>
-      <c r="G2" s="104" t="s">
-        <v>507</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -14371,7 +14450,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B3" s="104">
         <v>147</v>
@@ -14383,10 +14462,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="G3" s="104" t="s">
         <v>506</v>
-      </c>
-      <c r="G3" s="104" t="s">
-        <v>507</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -14394,7 +14473,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B4" s="104">
         <v>332</v>
@@ -14406,7 +14485,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F4" s="104">
         <v>480</v>
@@ -14420,7 +14499,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="104">
         <v>552</v>
@@ -14432,7 +14511,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G5" s="104">
         <v>40</v>
@@ -14443,7 +14522,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B6" s="104">
         <v>599</v>
@@ -14455,7 +14534,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G6" s="104">
         <v>40</v>
@@ -14466,7 +14545,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7" s="104">
         <v>1063</v>
@@ -14478,7 +14557,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G7" s="104">
         <v>50</v>
@@ -14489,7 +14568,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="105" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B8" s="104">
         <v>1943</v>
@@ -14501,7 +14580,7 @@
         <v>12</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G8" s="104">
         <v>65</v>
@@ -14512,7 +14591,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="105" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="104">
         <v>3503</v>
@@ -14524,7 +14603,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G9" s="104">
         <v>80</v>
@@ -14535,7 +14614,7 @@
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="105" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B10" s="104">
         <v>130</v>
@@ -14550,7 +14629,7 @@
         <v>261</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -14558,7 +14637,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B11" s="104">
         <v>145</v>
@@ -14576,7 +14655,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -14584,7 +14663,7 @@
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="105" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B12" s="104">
         <v>332</v>
@@ -14610,7 +14689,7 @@
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="106" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B13" s="104">
         <v>542</v>
@@ -14635,7 +14714,7 @@
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="105" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B14" s="104">
         <v>1000</v>
@@ -14658,7 +14737,7 @@
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="105" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B15" s="104">
         <v>1063</v>
@@ -14678,7 +14757,7 @@
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B16" s="104">
         <v>145</v>
@@ -14696,7 +14775,7 @@
         <v>200</v>
       </c>
       <c r="G16" s="104" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -14712,7 +14791,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="154" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B18" s="155">
         <v>400</v>
@@ -14724,7 +14803,7 @@
         <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6">
@@ -14736,7 +14815,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="154" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B19" s="155">
         <v>400</v>
@@ -14748,7 +14827,7 @@
         <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6">
@@ -14760,7 +14839,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="154" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B20" s="155">
         <v>800</v>
@@ -14772,7 +14851,7 @@
         <v>24</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6">
@@ -14784,7 +14863,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="154" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B21" s="155">
         <v>1200</v>
@@ -14796,7 +14875,7 @@
         <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6">
@@ -14808,7 +14887,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="154" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B22" s="155">
         <v>2200</v>
@@ -14820,7 +14899,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6">
@@ -14832,7 +14911,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="154" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B23" s="155">
         <v>3600</v>
@@ -14844,7 +14923,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G23" s="6">
         <v>80</v>
@@ -14857,7 +14936,7 @@
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="71"/>
       <c r="C27" s="138" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D27" s="139"/>
       <c r="E27" s="139"/>
@@ -14870,33 +14949,33 @@
     <row r="28" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="71"/>
       <c r="C28" s="107" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D28" s="108" t="s">
+        <v>528</v>
+      </c>
+      <c r="E28" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="F28" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="F28" s="108" t="s">
+      <c r="G28" s="108" t="s">
         <v>531</v>
       </c>
-      <c r="G28" s="108" t="s">
+      <c r="H28" s="108" t="s">
+        <v>519</v>
+      </c>
+      <c r="I28" s="108" t="s">
         <v>532</v>
       </c>
-      <c r="H28" s="108" t="s">
-        <v>520</v>
-      </c>
-      <c r="I28" s="108" t="s">
+      <c r="J28" s="109" t="s">
         <v>533</v>
-      </c>
-      <c r="J28" s="109" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C29" s="111">
         <v>1</v>
@@ -15210,7 +15289,7 @@
       </c>
       <c r="C43" s="120"/>
       <c r="D43" s="121" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E43" s="122">
         <v>360</v>
@@ -15247,13 +15326,13 @@
         <v>823</v>
       </c>
       <c r="H44" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I44" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J44" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
@@ -15272,13 +15351,13 @@
         <v>823</v>
       </c>
       <c r="H45" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I45" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J45" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
@@ -15297,13 +15376,13 @@
         <v>823</v>
       </c>
       <c r="H46" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I46" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J46" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
@@ -15322,13 +15401,13 @@
         <v>823</v>
       </c>
       <c r="H47" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I47" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J47" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
@@ -15346,16 +15425,16 @@
         <v>490</v>
       </c>
       <c r="G48" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H48" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I48" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J48" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
@@ -15369,22 +15448,22 @@
         <v>234</v>
       </c>
       <c r="E49" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F49" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G49" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H49" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I49" s="129" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J49" s="130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15398,22 +15477,22 @@
         <v>242</v>
       </c>
       <c r="E50" s="136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F50" s="136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G50" s="136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H50" s="136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I50" s="136" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J50" s="137" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -15446,22 +15525,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>538</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>541</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -15474,7 +15553,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -15496,7 +15575,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -15518,7 +15597,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -15540,7 +15619,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -15570,7 +15649,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B8" s="6">
         <v>300</v>
@@ -15592,7 +15671,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B9" s="6">
         <v>350</v>
@@ -15614,7 +15693,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B10" s="6">
         <v>400</v>
@@ -15636,7 +15715,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B11" s="6">
         <v>450</v>
@@ -15658,7 +15737,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B12" s="6">
         <v>500</v>
@@ -15680,7 +15759,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B13" s="6">
         <v>550</v>
@@ -15702,7 +15781,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B14" s="61">
         <v>600</v>
@@ -15727,7 +15806,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B16" s="6">
         <v>135</v>
@@ -15748,7 +15827,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B17" s="6">
         <v>180</v>
@@ -15769,7 +15848,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B18" s="6">
         <v>205</v>
@@ -15790,7 +15869,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B19" s="6">
         <v>250</v>
@@ -15811,7 +15890,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B20" s="6">
         <v>300</v>
@@ -15832,7 +15911,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B21" s="6">
         <v>350</v>
@@ -15877,7 +15956,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -15896,7 +15975,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -15927,19 +16006,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" t="s">
         <v>562</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>563</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>564</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>565</v>
-      </c>
-      <c r="E3" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16014,13 +16093,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
+        <v>566</v>
+      </c>
+      <c r="P18" t="s">
         <v>567</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>568</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -16029,18 +16108,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
+        <v>569</v>
+      </c>
+      <c r="P19" t="s">
         <v>570</v>
-      </c>
-      <c r="P19" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -16068,22 +16147,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" t="s">
         <v>573</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>574</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>575</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>576</v>
       </c>
-      <c r="H4" t="s">
-        <v>577</v>
-      </c>
       <c r="I4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -16108,15 +16187,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="156">
+      <c r="D6" s="157">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="156"/>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16131,8 +16210,8 @@
   <dimension ref="A1:S211"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16230,7 +16309,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="5">
-        <v>9000</v>
+        <v>6100</v>
       </c>
       <c r="I2" s="53">
         <v>100</v>
@@ -16279,7 +16358,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="22">
-        <v>9000</v>
+        <v>6100</v>
       </c>
       <c r="I3" s="54">
         <v>100</v>
@@ -16774,7 +16853,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="5">
-        <v>9000</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="53">
         <v>100</v>
@@ -16819,7 +16898,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="22">
-        <v>9000</v>
+        <v>6100</v>
       </c>
       <c r="I15" s="54">
         <v>100</v>
@@ -18341,7 +18420,7 @@
   <dimension ref="A3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1861" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7DD044-79BD-49B0-B7EE-BF7C9A2B90EA}"/>
+  <xr:revisionPtr revIDLastSave="1902" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5082A8B2-AAC0-4ED8-9E02-A957117C959E}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1490" windowWidth="24070" windowHeight="19090" tabRatio="859" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1830" windowWidth="29900" windowHeight="19090" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -574,6 +574,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{8F8F8522-49CB-439A-9FEB-C3BEC8E28A0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>robert hyrons:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This is to check the number of barrel rotations, number must not exceed this.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -671,7 +695,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="588">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2437,9 +2461,6 @@
     <t>name 80dr standard</t>
   </si>
   <si>
-    <t>78mm for 100mm</t>
-  </si>
-  <si>
     <t>CD100GU stock code</t>
   </si>
   <si>
@@ -2462,6 +2483,15 @@
   </si>
   <si>
     <t>Supplier ref</t>
+  </si>
+  <si>
+    <t>78mm for 100mm wind</t>
+  </si>
+  <si>
+    <t>H40s wind</t>
+  </si>
+  <si>
+    <t>Limit turn ratio adjustement</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3118,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3328,9 +3358,6 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3523,16 +3550,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3549,16 +3566,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6031,10 +6057,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6371,9 +6393,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6392,7 +6414,7 @@
     <col min="17" max="17" width="10.54296875" customWidth="1"/>
     <col min="18" max="18" width="25.81640625" style="6" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" style="94" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" style="93" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6454,7 +6476,7 @@
       <c r="S1" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="U1" s="93" t="s">
+      <c r="U1" s="92" t="s">
         <v>279</v>
       </c>
       <c r="V1" s="12" t="s">
@@ -6856,10 +6878,10 @@
       <c r="B10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="152" t="s">
+      <c r="H10" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N10" s="152" t="s">
+      <c r="N10" s="151" t="s">
         <v>563</v>
       </c>
       <c r="P10" s="64"/>
@@ -6967,10 +6989,10 @@
       <c r="B13" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H13" s="152" t="s">
+      <c r="H13" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N13" s="152" t="s">
+      <c r="N13" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7616,24 +7638,24 @@
       <c r="B28" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H28" s="152" t="s">
+      <c r="H28" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N28" s="152" t="s">
+      <c r="N28" s="151" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="90" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="92">
+      <c r="C29" s="91">
         <v>0</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="91">
         <v>300</v>
       </c>
       <c r="E29" s="64" t="s">
@@ -7661,7 +7683,7 @@
       <c r="M29" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="152" t="s">
+      <c r="N29" s="151" t="s">
         <v>563</v>
       </c>
       <c r="O29" s="64"/>
@@ -7672,7 +7694,7 @@
       <c r="R29" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="U29" s="95"/>
+      <c r="U29" s="94"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
@@ -7681,10 +7703,10 @@
       <c r="B30" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H30" s="152" t="s">
+      <c r="H30" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N30" s="152" t="s">
+      <c r="N30" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8026,10 +8048,10 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="H38" s="152" t="s">
+      <c r="H38" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N38" s="152" t="s">
+      <c r="N38" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8159,13 +8181,13 @@
       </c>
     </row>
     <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="90" t="s">
         <v>328</v>
       </c>
-      <c r="C42" s="92">
+      <c r="C42" s="91">
         <f t="shared" si="1"/>
         <v>300.01</v>
       </c>
@@ -8419,10 +8441,10 @@
         <v>291</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="H48" s="152" t="s">
+      <c r="H48" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N48" s="152" t="s">
+      <c r="N48" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8550,7 +8572,7 @@
         <v>28</v>
       </c>
       <c r="R51" s="1"/>
-      <c r="U51" s="96"/>
+      <c r="U51" s="95"/>
     </row>
     <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
@@ -8601,10 +8623,10 @@
         <v>291</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="H53" s="152" t="s">
+      <c r="H53" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N53" s="152" t="s">
+      <c r="N53" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8761,10 +8783,10 @@
         <v>291</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="H57" s="152" t="s">
+      <c r="H57" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N57" s="152" t="s">
+      <c r="N57" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8818,7 +8840,7 @@
       <c r="S58">
         <v>40</v>
       </c>
-      <c r="U58" s="94">
+      <c r="U58" s="93">
         <v>300.41000000000003</v>
       </c>
     </row>
@@ -8931,10 +8953,10 @@
       <c r="B61" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="152" t="s">
+      <c r="H61" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N61" s="152" t="s">
+      <c r="N61" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8990,7 +9012,7 @@
       <c r="S62">
         <v>40</v>
       </c>
-      <c r="U62" s="94">
+      <c r="U62" s="93">
         <v>179.04</v>
       </c>
       <c r="W62">
@@ -9051,7 +9073,7 @@
       <c r="S63">
         <v>40</v>
       </c>
-      <c r="V63" s="97"/>
+      <c r="V63" s="96"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
@@ -9149,7 +9171,7 @@
       <c r="S65">
         <v>40</v>
       </c>
-      <c r="U65" s="94">
+      <c r="U65" s="93">
         <v>472.24</v>
       </c>
     </row>
@@ -9211,10 +9233,10 @@
         <v>291</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="H67" s="152" t="s">
+      <c r="H67" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N67" s="152" t="s">
+      <c r="N67" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9240,8 +9262,9 @@
         <f>Chaindrive!K22</f>
         <v>8</v>
       </c>
-      <c r="G68" s="1">
-        <v>415</v>
+      <c r="G68" s="1" t="str">
+        <f>Chaindrive!L22</f>
+        <v>230/415</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>341</v>
@@ -9284,8 +9307,9 @@
         <f>Chaindrive!K23</f>
         <v>8</v>
       </c>
-      <c r="G69" s="1">
-        <v>415</v>
+      <c r="G69" s="1" t="str">
+        <f>Chaindrive!L23</f>
+        <v>230/415</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>341</v>
@@ -9328,8 +9352,9 @@
         <f>Chaindrive!K24</f>
         <v>8</v>
       </c>
-      <c r="G70" s="1">
-        <v>415</v>
+      <c r="G70" s="1" t="str">
+        <f>Chaindrive!L24</f>
+        <v>230/415</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>341</v>
@@ -9372,8 +9397,9 @@
         <f>Chaindrive!K25</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G71" s="1">
-        <v>415</v>
+      <c r="G71" s="1" t="str">
+        <f>Chaindrive!L25</f>
+        <v>230/415</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>341</v>
@@ -9417,8 +9443,9 @@
         <f>Chaindrive!K26</f>
         <v>8</v>
       </c>
-      <c r="G72" s="1">
-        <v>415</v>
+      <c r="G72" s="1" t="str">
+        <f>Chaindrive!L26</f>
+        <v>230/415</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>341</v>
@@ -9461,8 +9488,9 @@
         <f>Chaindrive!K27</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G73" s="1">
-        <v>415</v>
+      <c r="G73" s="1" t="str">
+        <f>Chaindrive!L27</f>
+        <v>230/415</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>341</v>
@@ -9493,10 +9521,10 @@
       <c r="C74" s="2"/>
       <c r="D74" s="32"/>
       <c r="F74" s="2"/>
-      <c r="H74" s="152" t="s">
+      <c r="H74" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N74" s="152" t="s">
+      <c r="N74" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9510,10 +9538,10 @@
       <c r="C75" s="2"/>
       <c r="D75" s="32"/>
       <c r="F75" s="2"/>
-      <c r="H75" s="152" t="s">
+      <c r="H75" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N75" s="152" t="s">
+      <c r="N75" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9524,10 +9552,10 @@
       <c r="B76" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H76" s="152" t="s">
+      <c r="H76" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N76" s="152" t="s">
+      <c r="N76" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -9578,7 +9606,7 @@
       <c r="R77" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="U77" s="144">
+      <c r="U77" s="143">
         <v>266</v>
       </c>
     </row>
@@ -9635,7 +9663,7 @@
       <c r="S78">
         <v>20</v>
       </c>
-      <c r="U78" s="144">
+      <c r="U78" s="143">
         <v>280</v>
       </c>
     </row>
@@ -9692,7 +9720,7 @@
       <c r="S79">
         <v>20</v>
       </c>
-      <c r="U79" s="144">
+      <c r="U79" s="143">
         <v>307</v>
       </c>
     </row>
@@ -9749,7 +9777,7 @@
       <c r="S80">
         <v>20</v>
       </c>
-      <c r="U80" s="144">
+      <c r="U80" s="143">
         <v>383</v>
       </c>
     </row>
@@ -9806,7 +9834,7 @@
       <c r="S81">
         <v>20</v>
       </c>
-      <c r="U81" s="144"/>
+      <c r="U81" s="143"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -9861,7 +9889,7 @@
       <c r="S82">
         <v>20</v>
       </c>
-      <c r="U82" s="144"/>
+      <c r="U82" s="143"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -9913,7 +9941,7 @@
       <c r="S83">
         <v>20</v>
       </c>
-      <c r="U83" s="144"/>
+      <c r="U83" s="143"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -9968,7 +9996,7 @@
       <c r="S84">
         <v>20</v>
       </c>
-      <c r="U84" s="144"/>
+      <c r="U84" s="143"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -10179,7 +10207,7 @@
       <c r="S88" s="33">
         <v>10</v>
       </c>
-      <c r="U88" s="95"/>
+      <c r="U88" s="94"/>
     </row>
     <row r="89" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
@@ -10234,7 +10262,7 @@
       <c r="S89" s="33">
         <v>10</v>
       </c>
-      <c r="U89" s="95"/>
+      <c r="U89" s="94"/>
     </row>
     <row r="90" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
@@ -10289,7 +10317,7 @@
       <c r="S90" s="33">
         <v>10</v>
       </c>
-      <c r="U90" s="95"/>
+      <c r="U90" s="94"/>
     </row>
     <row r="91" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
@@ -10344,7 +10372,7 @@
       <c r="S91" s="33">
         <v>10</v>
       </c>
-      <c r="U91" s="95"/>
+      <c r="U91" s="94"/>
     </row>
     <row r="92" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
@@ -10399,7 +10427,7 @@
       <c r="S92" s="33">
         <v>10</v>
       </c>
-      <c r="U92" s="95"/>
+      <c r="U92" s="94"/>
     </row>
     <row r="93" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
@@ -10454,7 +10482,7 @@
       <c r="S93" s="33">
         <v>10</v>
       </c>
-      <c r="U93" s="95"/>
+      <c r="U93" s="94"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
@@ -10463,10 +10491,10 @@
       <c r="B94" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H94" s="152" t="s">
+      <c r="H94" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N94" s="152" t="s">
+      <c r="N94" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10519,7 +10547,7 @@
         <v>380</v>
       </c>
       <c r="S95" s="1"/>
-      <c r="U95" s="94">
+      <c r="U95" s="93">
         <v>418</v>
       </c>
     </row>
@@ -10572,7 +10600,7 @@
         <v>382</v>
       </c>
       <c r="S96" s="1"/>
-      <c r="U96" s="94">
+      <c r="U96" s="93">
         <v>474</v>
       </c>
     </row>
@@ -10673,7 +10701,7 @@
       <c r="R98" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="U98" s="144"/>
+      <c r="U98" s="143"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
@@ -10682,10 +10710,10 @@
       <c r="B99" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H99" s="152" t="s">
+      <c r="H99" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N99" s="152" t="s">
+      <c r="N99" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -10793,7 +10821,7 @@
       <c r="S101">
         <v>20</v>
       </c>
-      <c r="U101" s="94">
+      <c r="U101" s="93">
         <v>1481.78</v>
       </c>
     </row>
@@ -10906,10 +10934,10 @@
       <c r="B104" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H104" s="152" t="s">
+      <c r="H104" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N104" s="152" t="s">
+      <c r="N104" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11429,10 +11457,10 @@
       <c r="B115" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H115" s="152" t="s">
+      <c r="H115" s="151" t="s">
         <v>563</v>
       </c>
-      <c r="N115" s="152" t="s">
+      <c r="N115" s="151" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11488,7 +11516,7 @@
       <c r="S116">
         <v>20</v>
       </c>
-      <c r="U116" s="94">
+      <c r="U116" s="93">
         <v>624.37</v>
       </c>
     </row>
@@ -11925,11 +11953,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11944,17 +11972,19 @@
     <col min="10" max="10" width="11.1796875" style="6" customWidth="1"/>
     <col min="11" max="11" width="15.1796875" style="6" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="6"/>
-    <col min="13" max="14" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="16.54296875" customWidth="1"/>
-    <col min="18" max="18" width="5.1796875" customWidth="1"/>
-    <col min="19" max="19" width="17.26953125" customWidth="1"/>
-    <col min="20" max="20" width="32.54296875" customWidth="1"/>
-    <col min="21" max="21" width="9.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.26953125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" style="6" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" style="6" customWidth="1"/>
+    <col min="19" max="19" width="5.1796875" customWidth="1"/>
+    <col min="20" max="20" width="17.26953125" customWidth="1"/>
+    <col min="21" max="21" width="32.54296875" customWidth="1"/>
+    <col min="22" max="22" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>408</v>
       </c>
@@ -11995,398 +12025,446 @@
         <v>418</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="60" t="s">
         <v>420</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="R1" s="160" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="83">
         <v>19</v>
       </c>
-      <c r="C4" s="84">
+      <c r="C4" s="83">
         <v>25.4</v>
       </c>
-      <c r="D4" s="84">
+      <c r="D4" s="83">
         <v>57</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="83">
         <v>30</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="87">
         <f>D4/B4</f>
         <v>3</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H4" s="84">
+      <c r="H4" s="83">
         <v>70</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="85">
         <f>H4*F4</f>
         <v>210</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="83">
         <v>32</v>
       </c>
-      <c r="K4" s="88">
+      <c r="K4" s="87">
         <f>J4/F4</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="83">
         <v>230</v>
       </c>
-      <c r="N4">
+      <c r="M4" s="83">
+        <v>40</v>
+      </c>
+      <c r="N4" s="83">
+        <f>M4/F4</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O4" s="6">
         <v>77.16</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="161">
         <v>230</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="R4" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="83">
         <v>15</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="83">
         <v>25.4</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="83">
         <v>57</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="83">
         <v>30</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="87">
         <f>D5/B5</f>
         <v>3.8</v>
       </c>
-      <c r="G5" s="84" t="s">
+      <c r="G5" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H5" s="84">
+      <c r="H5" s="83">
         <v>71</v>
       </c>
-      <c r="I5" s="86">
+      <c r="I5" s="85">
         <f>H5*F5</f>
         <v>269.8</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="83">
         <v>33</v>
       </c>
-      <c r="K5" s="88">
+      <c r="K5" s="87">
         <f>J5/F5</f>
         <v>8.6842105263157894</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="83">
         <v>230</v>
       </c>
-      <c r="N5">
+      <c r="M5" s="83">
+        <v>40</v>
+      </c>
+      <c r="N5" s="83">
+        <f>M5/F5</f>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="O5" s="6">
         <v>61.09</v>
       </c>
-      <c r="O5">
+      <c r="P5" s="161">
         <v>230</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="13">
+      <c r="Q5" s="162"/>
+      <c r="R5" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="74"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
       <c r="D6" s="73"/>
       <c r="E6" s="73"/>
-      <c r="F6" s="89"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
       <c r="I6" s="73"/>
       <c r="J6" s="73"/>
-      <c r="K6" s="89"/>
+      <c r="K6" s="88"/>
       <c r="L6" s="73"/>
       <c r="M6" s="74"/>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="73"/>
+      <c r="O6" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="O6" s="74"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P6" s="163"/>
+      <c r="Q6" s="163"/>
+      <c r="R6" s="163"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
         <v>425</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="83">
         <v>19</v>
       </c>
-      <c r="C7" s="84">
+      <c r="C7" s="83">
         <v>25.4</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="83">
         <v>57</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="83">
         <v>30</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="87">
         <f>D7/B7</f>
         <v>3</v>
       </c>
-      <c r="G7" s="84" t="s">
+      <c r="G7" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H7" s="84">
+      <c r="H7" s="83">
         <v>90</v>
       </c>
-      <c r="I7" s="86">
+      <c r="I7" s="85">
         <f>H7*F7</f>
         <v>270</v>
       </c>
-      <c r="J7" s="84">
+      <c r="J7" s="83">
         <v>24</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="87">
         <f>J7/F7</f>
         <v>8</v>
       </c>
-      <c r="L7" s="84">
+      <c r="L7" s="83">
         <v>230</v>
       </c>
-      <c r="N7">
+      <c r="M7" s="83">
+        <v>40</v>
+      </c>
+      <c r="N7" s="83">
+        <f t="shared" ref="N6:N20" si="0">M7/F7</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O7" s="6">
         <v>77.16</v>
       </c>
-      <c r="O7">
+      <c r="P7" s="161">
         <v>230</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="R7" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
         <v>426</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <v>15</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="83">
         <v>25.4</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="83">
         <v>57</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="83">
         <v>30</v>
       </c>
-      <c r="F8" s="88">
-        <f t="shared" ref="F8" si="0">D8/B8</f>
+      <c r="F8" s="87">
+        <f t="shared" ref="F8" si="1">D8/B8</f>
         <v>3.8</v>
       </c>
-      <c r="G8" s="84" t="s">
+      <c r="G8" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="83">
         <v>90</v>
       </c>
-      <c r="I8" s="86">
-        <f t="shared" ref="I8" si="1">H8*F8</f>
+      <c r="I8" s="85">
+        <f t="shared" ref="I8" si="2">H8*F8</f>
         <v>342</v>
       </c>
-      <c r="J8" s="84">
+      <c r="J8" s="83">
         <v>24</v>
       </c>
-      <c r="K8" s="88">
-        <f t="shared" ref="K8" si="2">J8/F8</f>
+      <c r="K8" s="87">
+        <f t="shared" ref="K8" si="3">J8/F8</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L8" s="84">
+      <c r="L8" s="83">
         <v>230</v>
       </c>
-      <c r="N8">
+      <c r="M8" s="83">
+        <v>40</v>
+      </c>
+      <c r="N8" s="83">
+        <f t="shared" si="0"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="O8" s="6">
         <v>61.09</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="161">
         <v>230</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="R8" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="74"/>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
-      <c r="F9" s="89"/>
+      <c r="F9" s="88"/>
       <c r="G9" s="73"/>
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
-      <c r="K9" s="89"/>
+      <c r="K9" s="88"/>
       <c r="L9" s="73"/>
       <c r="M9" s="74"/>
-      <c r="N9" s="74" t="s">
+      <c r="N9" s="73"/>
+      <c r="O9" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="O9" s="74"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>19</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="83">
         <v>25.4</v>
       </c>
-      <c r="D10" s="84">
+      <c r="D10" s="83">
         <v>57</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="83">
         <v>30</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="87">
         <f>D10/B10</f>
         <v>3</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H10" s="84">
+      <c r="H10" s="83">
         <v>90</v>
       </c>
-      <c r="I10" s="86">
+      <c r="I10" s="85">
         <f>H10*F10</f>
         <v>270</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="83">
         <v>32</v>
       </c>
-      <c r="K10" s="88">
+      <c r="K10" s="87">
         <f>J10/F10</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L10" s="84">
+      <c r="L10" s="83">
         <v>415</v>
       </c>
-      <c r="N10">
+      <c r="M10" s="83">
+        <v>40</v>
+      </c>
+      <c r="N10" s="83">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O10" s="6">
         <v>77.16</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="161">
         <v>230</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="R10" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>15</v>
       </c>
-      <c r="C11" s="84">
+      <c r="C11" s="83">
         <v>25.4</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="83">
         <v>57</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="83">
         <v>30</v>
       </c>
-      <c r="F11" s="88">
-        <f t="shared" ref="F11" si="3">D11/B11</f>
+      <c r="F11" s="87">
+        <f t="shared" ref="F11" si="4">D11/B11</f>
         <v>3.8</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H11" s="84">
+      <c r="H11" s="83">
         <v>90</v>
       </c>
-      <c r="I11" s="86">
-        <f t="shared" ref="I11" si="4">H11*F11</f>
+      <c r="I11" s="85">
+        <f t="shared" ref="I11" si="5">H11*F11</f>
         <v>342</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="83">
         <v>32</v>
       </c>
-      <c r="K11" s="88">
-        <f t="shared" ref="K11" si="5">J11/F11</f>
+      <c r="K11" s="87">
+        <f t="shared" ref="K11" si="6">J11/F11</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="L11" s="84">
+      <c r="L11" s="83">
         <v>415</v>
       </c>
-      <c r="N11">
+      <c r="M11" s="83">
+        <v>40</v>
+      </c>
+      <c r="N11" s="83">
+        <f t="shared" si="0"/>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="O11" s="6">
         <v>61.09</v>
       </c>
-      <c r="O11">
+      <c r="P11" s="161">
         <v>230</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="R11" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="74"/>
       <c r="B12" s="73"/>
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
-      <c r="F12" s="89"/>
+      <c r="F12" s="88"/>
       <c r="G12" s="73"/>
       <c r="H12" s="73"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
-      <c r="K12" s="89"/>
+      <c r="K12" s="88"/>
       <c r="L12" s="73"/>
       <c r="M12" s="74"/>
-      <c r="N12" s="74" t="s">
+      <c r="N12" s="73"/>
+      <c r="O12" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P12" s="163"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="163"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>429</v>
       </c>
@@ -12402,8 +12480,8 @@
       <c r="E13" s="59">
         <v>30</v>
       </c>
-      <c r="F13" s="98">
-        <f t="shared" ref="F13:F15" si="6">D13/B13</f>
+      <c r="F13" s="97">
+        <f t="shared" ref="F13:F15" si="7">D13/B13</f>
         <v>3</v>
       </c>
       <c r="G13" s="59" t="s">
@@ -12412,161 +12490,183 @@
       <c r="H13" s="59">
         <v>150</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I13" s="98">
         <f>H13*F13</f>
         <v>450</v>
       </c>
       <c r="J13" s="59">
         <v>48</v>
       </c>
-      <c r="K13" s="98">
+      <c r="K13" s="97">
         <f>J13/F13</f>
         <v>16</v>
       </c>
       <c r="L13" s="59">
         <v>415</v>
       </c>
-      <c r="N13">
+      <c r="M13" s="83">
+        <v>40</v>
+      </c>
+      <c r="N13" s="83">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O13" s="6">
         <v>77.16</v>
       </c>
-      <c r="O13">
+      <c r="P13" s="161">
         <v>230</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="R13" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
         <v>430</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>18</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="83">
         <v>25.4</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="83">
         <v>57</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="83">
         <v>30</v>
       </c>
-      <c r="F14" s="88">
-        <f t="shared" si="6"/>
+      <c r="F14" s="87">
+        <f t="shared" si="7"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="83" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="83">
         <v>150</v>
       </c>
-      <c r="I14" s="86">
+      <c r="I14" s="85">
         <f>H14*F14</f>
         <v>475</v>
       </c>
-      <c r="J14" s="84">
+      <c r="J14" s="83">
         <v>48</v>
       </c>
-      <c r="K14" s="88">
-        <f t="shared" ref="K14" si="7">J14/F14</f>
+      <c r="K14" s="87">
+        <f t="shared" ref="K14" si="8">J14/F14</f>
         <v>15.157894736842106</v>
       </c>
-      <c r="L14" s="84">
+      <c r="L14" s="83">
         <v>415</v>
       </c>
-      <c r="N14">
+      <c r="M14" s="83">
+        <v>40</v>
+      </c>
+      <c r="N14" s="83">
+        <f t="shared" si="0"/>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="O14" s="6">
         <v>91.42</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="161">
         <v>288</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q14" s="13">
+      <c r="R14" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>12</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="83">
         <v>25.4</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="83">
         <v>57</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="83">
         <v>40</v>
       </c>
-      <c r="F15" s="88">
-        <f t="shared" si="6"/>
+      <c r="F15" s="87">
+        <f t="shared" si="7"/>
         <v>4.75</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="83" t="s">
         <v>431</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="83">
         <v>150</v>
       </c>
-      <c r="I15" s="86">
+      <c r="I15" s="85">
         <f>H15*F15</f>
         <v>712.5</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="83">
         <v>48</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="87">
         <f>J15/F15</f>
         <v>10.105263157894736</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="83">
         <v>415</v>
       </c>
-      <c r="N15">
+      <c r="M15" s="83">
+        <v>40</v>
+      </c>
+      <c r="N15" s="83">
+        <f t="shared" si="0"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="O15" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="O15">
+      <c r="P15" s="161">
         <v>288</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="R15" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="74"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
-      <c r="F16" s="89"/>
+      <c r="F16" s="88"/>
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
       <c r="I16" s="73"/>
       <c r="J16" s="73"/>
-      <c r="K16" s="89"/>
+      <c r="K16" s="88"/>
       <c r="L16" s="73"/>
       <c r="M16" s="74"/>
-      <c r="N16" s="74" t="s">
+      <c r="N16" s="73"/>
+      <c r="O16" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P16" s="163"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="163"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>433</v>
       </c>
@@ -12582,7 +12682,7 @@
       <c r="E17" s="6">
         <v>30</v>
       </c>
-      <c r="F17" s="87">
+      <c r="F17" s="86">
         <f>D17/B17</f>
         <v>3.1666666666666665</v>
       </c>
@@ -12592,34 +12692,41 @@
       <c r="H17" s="6">
         <v>220</v>
       </c>
-      <c r="I17" s="85">
+      <c r="I17" s="84">
         <f>H17*F17</f>
         <v>696.66666666666663</v>
       </c>
       <c r="J17" s="6">
         <v>24</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="86">
         <f>J17/F17</f>
         <v>7.5789473684210531</v>
       </c>
       <c r="L17" s="6">
         <v>415</v>
       </c>
-      <c r="N17">
+      <c r="M17" s="83">
+        <v>40</v>
+      </c>
+      <c r="N17" s="83">
+        <f t="shared" si="0"/>
+        <v>12.631578947368421</v>
+      </c>
+      <c r="O17" s="6">
         <v>91.42</v>
       </c>
-      <c r="O17">
+      <c r="P17" s="161">
         <v>288</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="R17" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>433</v>
       </c>
@@ -12635,7 +12742,7 @@
       <c r="E18" s="6">
         <v>30</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="86">
         <f>D18/B18</f>
         <v>4.75</v>
       </c>
@@ -12645,149 +12752,173 @@
       <c r="H18" s="6">
         <v>220</v>
       </c>
-      <c r="I18" s="85">
+      <c r="I18" s="84">
         <f>H18*F18</f>
         <v>1045</v>
       </c>
       <c r="J18" s="6">
         <v>24</v>
       </c>
-      <c r="K18" s="87">
+      <c r="K18" s="86">
         <f>J18/F18</f>
         <v>5.0526315789473681</v>
       </c>
       <c r="L18" s="6">
         <v>415</v>
       </c>
-      <c r="N18">
+      <c r="M18" s="83">
+        <v>40</v>
+      </c>
+      <c r="N18" s="83">
+        <f t="shared" si="0"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="O18" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="O18">
+      <c r="P18" s="161">
         <v>288</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="R18" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>19</v>
       </c>
-      <c r="C19" s="84">
+      <c r="C19" s="83">
         <v>30</v>
       </c>
-      <c r="D19" s="84">
+      <c r="D19" s="83">
         <v>57</v>
       </c>
-      <c r="E19" s="84">
+      <c r="E19" s="83">
         <v>30</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="87">
         <f>D19/B19</f>
         <v>3</v>
       </c>
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="83" t="s">
         <v>435</v>
       </c>
-      <c r="H19" s="84">
+      <c r="H19" s="83">
         <v>220</v>
       </c>
-      <c r="I19" s="86">
+      <c r="I19" s="85">
         <f>H19*F19</f>
         <v>660</v>
       </c>
-      <c r="J19" s="84">
+      <c r="J19" s="83">
         <v>24</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K19" s="87">
         <f>J19/F19</f>
         <v>8</v>
       </c>
-      <c r="L19" s="84">
+      <c r="L19" s="83">
         <v>415</v>
       </c>
-      <c r="N19">
+      <c r="M19" s="83">
+        <v>40</v>
+      </c>
+      <c r="N19" s="83">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O19" s="6">
         <v>115.75</v>
       </c>
-      <c r="O19">
+      <c r="P19" s="161">
         <v>345.81</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="R19" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="68" t="s">
         <v>436</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>12</v>
       </c>
-      <c r="C20" s="84">
+      <c r="C20" s="83">
         <v>40</v>
       </c>
-      <c r="D20" s="84">
+      <c r="D20" s="83">
         <v>57</v>
       </c>
-      <c r="E20" s="84">
+      <c r="E20" s="83">
         <v>30</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="87">
         <f>D20/B20</f>
         <v>4.75</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="G20" s="83" t="s">
         <v>435</v>
       </c>
-      <c r="H20" s="84">
+      <c r="H20" s="83">
         <v>220</v>
       </c>
-      <c r="I20" s="86">
+      <c r="I20" s="85">
         <f>H20*F20</f>
         <v>1045</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="83">
         <v>24</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="87">
         <f>J20/F20</f>
         <v>5.0526315789473681</v>
       </c>
-      <c r="L20" s="84">
+      <c r="L20" s="83">
         <v>415</v>
       </c>
-      <c r="N20">
+      <c r="M20" s="83">
+        <v>40</v>
+      </c>
+      <c r="N20" s="83">
+        <f t="shared" si="0"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="O20" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="O20">
+      <c r="P20" s="161">
         <v>345.81</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="R20" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F21" s="87"/>
-      <c r="I21" s="85"/>
-      <c r="K21" s="87"/>
-      <c r="N21" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F21" s="86"/>
+      <c r="I21" s="84"/>
+      <c r="K21" s="86"/>
+      <c r="O21" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="137" t="s">
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="161"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="136" t="s">
         <v>437</v>
       </c>
       <c r="B22" s="6">
@@ -12802,8 +12933,8 @@
       <c r="E22" s="6">
         <v>40</v>
       </c>
-      <c r="F22" s="87">
-        <f t="shared" ref="F22:F28" si="8">D22/B22</f>
+      <c r="F22" s="86">
+        <f t="shared" ref="F22:F28" si="9">D22/B22</f>
         <v>3</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -12812,34 +12943,34 @@
       <c r="H22" s="1">
         <v>200</v>
       </c>
-      <c r="I22" s="85">
-        <f t="shared" ref="I22:I28" si="9">H22*F22</f>
+      <c r="I22" s="84">
+        <f t="shared" ref="I22:I28" si="10">H22*F22</f>
         <v>600</v>
       </c>
       <c r="J22" s="1">
         <v>24</v>
       </c>
-      <c r="K22" s="87">
-        <f t="shared" ref="K22:K28" si="10">J22/F22</f>
+      <c r="K22" s="86">
+        <f t="shared" ref="K22:K28" si="11">J22/F22</f>
         <v>8</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="N22">
+      <c r="O22" s="6">
         <v>115.75</v>
       </c>
-      <c r="O22">
+      <c r="P22" s="161">
         <v>345.81</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="161">
         <v>40</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="R22" s="161">
         <v>29000</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>439</v>
       </c>
@@ -12855,8 +12986,8 @@
       <c r="E23" s="6">
         <v>40</v>
       </c>
-      <c r="F23" s="87">
-        <f t="shared" si="8"/>
+      <c r="F23" s="86">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -12865,35 +12996,35 @@
       <c r="H23" s="6">
         <v>300</v>
       </c>
-      <c r="I23" s="85">
-        <f t="shared" si="9"/>
+      <c r="I23" s="84">
+        <f t="shared" si="10"/>
         <v>900</v>
       </c>
       <c r="J23" s="1">
         <v>24</v>
       </c>
-      <c r="K23" s="87">
-        <f t="shared" si="10"/>
+      <c r="K23" s="86">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="N23">
+      <c r="O23" s="6">
         <v>115.75</v>
       </c>
-      <c r="O23">
+      <c r="P23" s="161">
         <v>345.81</v>
       </c>
-      <c r="P23" s="6">
+      <c r="Q23" s="161">
         <v>40</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="161">
         <v>29000</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="137" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="136" t="s">
         <v>440</v>
       </c>
       <c r="B24" s="6">
@@ -12908,8 +13039,8 @@
       <c r="E24" s="6">
         <v>40</v>
       </c>
-      <c r="F24" s="87">
-        <f t="shared" si="8"/>
+      <c r="F24" s="86">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -12918,35 +13049,35 @@
       <c r="H24" s="6">
         <v>400</v>
       </c>
-      <c r="I24" s="85">
-        <f t="shared" si="9"/>
+      <c r="I24" s="84">
+        <f t="shared" si="10"/>
         <v>1200</v>
       </c>
       <c r="J24" s="1">
         <v>24</v>
       </c>
-      <c r="K24" s="87">
-        <f t="shared" si="10"/>
+      <c r="K24" s="86">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="N24">
+      <c r="O24" s="6">
         <v>192.91</v>
       </c>
-      <c r="O24">
+      <c r="P24" s="161">
         <v>461</v>
       </c>
-      <c r="P24" s="6">
+      <c r="Q24" s="161">
         <v>40</v>
       </c>
-      <c r="Q24">
+      <c r="R24" s="161">
         <v>60000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="137" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" s="136" t="s">
         <v>564</v>
       </c>
       <c r="B25" s="6">
@@ -12961,8 +13092,8 @@
       <c r="E25" s="6">
         <v>40</v>
       </c>
-      <c r="F25" s="87">
-        <f t="shared" ref="F25" si="11">D25/B25</f>
+      <c r="F25" s="86">
+        <f t="shared" ref="F25" si="12">D25/B25</f>
         <v>3.8</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -12971,34 +13102,34 @@
       <c r="H25" s="6">
         <v>400</v>
       </c>
-      <c r="I25" s="85">
-        <f t="shared" ref="I25" si="12">H25*F25</f>
+      <c r="I25" s="84">
+        <f t="shared" ref="I25" si="13">H25*F25</f>
         <v>1520</v>
       </c>
       <c r="J25" s="1">
         <v>24</v>
       </c>
-      <c r="K25" s="87">
-        <f t="shared" ref="K25" si="13">J25/F25</f>
+      <c r="K25" s="86">
+        <f t="shared" ref="K25" si="14">J25/F25</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="N25">
+      <c r="O25" s="6">
         <v>192.91</v>
       </c>
-      <c r="O25">
+      <c r="P25" s="161">
         <v>461</v>
       </c>
-      <c r="P25" s="6">
+      <c r="Q25" s="161">
         <v>40</v>
       </c>
-      <c r="Q25">
+      <c r="R25" s="161">
         <v>60000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>442</v>
       </c>
@@ -13014,8 +13145,8 @@
       <c r="E26" s="6">
         <v>55</v>
       </c>
-      <c r="F26" s="87">
-        <f t="shared" si="8"/>
+      <c r="F26" s="86">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -13024,34 +13155,34 @@
       <c r="H26" s="6">
         <v>600</v>
       </c>
-      <c r="I26" s="85">
-        <f t="shared" si="9"/>
+      <c r="I26" s="84">
+        <f t="shared" si="10"/>
         <v>1800</v>
       </c>
       <c r="J26" s="1">
         <v>24</v>
       </c>
-      <c r="K26" s="87">
-        <f t="shared" si="10"/>
+      <c r="K26" s="86">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="N26">
+      <c r="O26" s="6">
         <v>192.91</v>
       </c>
-      <c r="O26">
+      <c r="P26" s="161">
         <v>461</v>
       </c>
-      <c r="P26" s="6">
+      <c r="Q26" s="161">
         <v>40</v>
       </c>
-      <c r="Q26">
+      <c r="R26" s="161">
         <v>60000</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>443</v>
       </c>
@@ -13067,8 +13198,8 @@
       <c r="E27" s="6">
         <v>55</v>
       </c>
-      <c r="F27" s="87">
-        <f t="shared" si="8"/>
+      <c r="F27" s="86">
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -13077,31 +13208,32 @@
       <c r="H27" s="6">
         <v>800</v>
       </c>
-      <c r="I27" s="85">
-        <f t="shared" si="9"/>
+      <c r="I27" s="84">
+        <f t="shared" si="10"/>
         <v>3040</v>
       </c>
       <c r="J27" s="1">
         <v>24</v>
       </c>
-      <c r="K27" s="87">
-        <f t="shared" si="10"/>
+      <c r="K27" s="86">
+        <f t="shared" si="11"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="N27">
+      <c r="O27" s="6">
         <v>152.72</v>
       </c>
-      <c r="O27">
+      <c r="P27" s="161">
         <v>576</v>
       </c>
-      <c r="P27" s="6">
+      <c r="Q27" s="161">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R27" s="161"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
         <v>445</v>
       </c>
@@ -13117,8 +13249,8 @@
       <c r="E28" s="59">
         <v>55</v>
       </c>
-      <c r="F28" s="98">
-        <f t="shared" si="8"/>
+      <c r="F28" s="97">
+        <f t="shared" si="9"/>
         <v>3.8</v>
       </c>
       <c r="G28" s="59" t="s">
@@ -13127,33 +13259,49 @@
       <c r="H28" s="59">
         <v>1200</v>
       </c>
-      <c r="I28" s="99">
-        <f t="shared" si="9"/>
+      <c r="I28" s="98">
+        <f t="shared" si="10"/>
         <v>4560</v>
       </c>
       <c r="J28" s="64">
         <v>24</v>
       </c>
-      <c r="K28" s="98">
-        <f t="shared" si="10"/>
+      <c r="K28" s="97">
+        <f t="shared" si="11"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L28" s="59" t="s">
         <v>438</v>
       </c>
       <c r="M28" s="33"/>
-      <c r="N28" s="33">
+      <c r="N28" s="33"/>
+      <c r="O28" s="59">
         <v>152.72</v>
       </c>
-      <c r="O28" s="33">
+      <c r="P28" s="164">
         <v>576</v>
       </c>
-      <c r="P28" s="59">
+      <c r="Q28" s="164">
         <v>40</v>
       </c>
-      <c r="Q28" s="33"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R28" s="164"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="161"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="161"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="161"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>446</v>
       </c>
@@ -13166,7 +13314,7 @@
       <c r="D32" s="6">
         <v>61</v>
       </c>
-      <c r="F32" s="87">
+      <c r="F32" s="86">
         <f>D32/B32</f>
         <v>5.5454545454545459</v>
       </c>
@@ -13183,21 +13331,22 @@
       <c r="J32" s="1">
         <v>34</v>
       </c>
-      <c r="K32" s="87">
-        <f t="shared" ref="K32:K37" si="14">J32/F32</f>
+      <c r="K32" s="86">
+        <f t="shared" ref="K32:K37" si="15">J32/F32</f>
         <v>6.1311475409836058</v>
       </c>
       <c r="L32" s="6">
         <v>415</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="161"/>
+      <c r="Q32" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="R32" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>343</v>
       </c>
@@ -13207,8 +13356,8 @@
       <c r="D33" s="6">
         <v>50</v>
       </c>
-      <c r="F33" s="87">
-        <f t="shared" ref="F33:F34" si="15">D33/B33</f>
+      <c r="F33" s="86">
+        <f t="shared" ref="F33:F34" si="16">D33/B33</f>
         <v>5.5555555555555554</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -13218,24 +13367,26 @@
         <v>62</v>
       </c>
       <c r="I33" s="32">
-        <f t="shared" ref="I33:I36" si="16">H33*F33</f>
+        <f t="shared" ref="I33:I36" si="17">H33*F33</f>
         <v>344.44444444444446</v>
       </c>
       <c r="J33" s="1">
         <v>34</v>
       </c>
-      <c r="K33" s="87">
-        <f t="shared" si="14"/>
+      <c r="K33" s="86">
+        <f t="shared" si="15"/>
         <v>6.12</v>
       </c>
       <c r="L33" s="6">
         <v>415</v>
       </c>
-      <c r="Q33" s="13">
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>345</v>
       </c>
@@ -13245,8 +13396,8 @@
       <c r="D34" s="6">
         <v>64</v>
       </c>
-      <c r="F34" s="87">
-        <f t="shared" si="15"/>
+      <c r="F34" s="86">
+        <f t="shared" si="16"/>
         <v>6.4</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -13256,24 +13407,26 @@
         <v>95</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>608</v>
       </c>
       <c r="J34" s="1">
         <v>22</v>
       </c>
-      <c r="K34" s="87">
-        <f t="shared" si="14"/>
+      <c r="K34" s="86">
+        <f t="shared" si="15"/>
         <v>3.4375</v>
       </c>
       <c r="L34" s="6">
         <v>415</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>447</v>
       </c>
@@ -13283,8 +13436,8 @@
       <c r="D35" s="6">
         <v>57</v>
       </c>
-      <c r="F35" s="87">
-        <f t="shared" ref="F35:F37" si="17">D35/B35</f>
+      <c r="F35" s="86">
+        <f t="shared" ref="F35:F37" si="18">D35/B35</f>
         <v>6.333333333333333</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -13300,18 +13453,20 @@
       <c r="J35" s="6">
         <v>22</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K35" s="86">
         <f>J35/F35</f>
         <v>3.4736842105263159</v>
       </c>
       <c r="L35" s="6">
         <v>415</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="161">
         <v>29000</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>448</v>
       </c>
@@ -13321,8 +13476,8 @@
       <c r="D36" s="6">
         <v>48</v>
       </c>
-      <c r="F36" s="87">
-        <f t="shared" si="17"/>
+      <c r="F36" s="86">
+        <f t="shared" si="18"/>
         <v>4.3636363636363633</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -13332,21 +13487,24 @@
         <v>369</v>
       </c>
       <c r="I36" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1610.181818181818</v>
       </c>
       <c r="J36" s="6">
         <v>15</v>
       </c>
-      <c r="K36" s="87">
-        <f t="shared" si="14"/>
+      <c r="K36" s="86">
+        <f t="shared" si="15"/>
         <v>3.4375000000000004</v>
       </c>
       <c r="L36" s="6">
         <v>415</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="P36" s="161"/>
+      <c r="Q36" s="161"/>
+      <c r="R36" s="161"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>449</v>
       </c>
@@ -13356,8 +13514,8 @@
       <c r="D37" s="6">
         <v>72</v>
       </c>
-      <c r="F37" s="87">
-        <f t="shared" si="17"/>
+      <c r="F37" s="86">
+        <f t="shared" si="18"/>
         <v>5.1428571428571432</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -13373,21 +13531,27 @@
       <c r="J37" s="6">
         <v>16.5</v>
       </c>
-      <c r="K37" s="87">
-        <f t="shared" si="14"/>
+      <c r="K37" s="86">
+        <f t="shared" si="15"/>
         <v>3.208333333333333</v>
       </c>
       <c r="L37" s="6">
         <v>415</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="161"/>
+      <c r="Q37" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="R37" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P38" s="161"/>
+      <c r="Q38" s="161"/>
+      <c r="R38" s="161"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>450</v>
       </c>
@@ -13401,7 +13565,7 @@
         <v>57</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" ref="F39:F41" si="18">D39/B39</f>
+        <f t="shared" ref="F39:F41" si="19">D39/B39</f>
         <v>3</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -13417,21 +13581,22 @@
       <c r="J39" s="1">
         <v>34</v>
       </c>
-      <c r="K39" s="87">
+      <c r="K39" s="86">
         <f>J39/F39</f>
         <v>11.333333333333334</v>
       </c>
       <c r="L39" s="6">
         <v>230</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="161"/>
+      <c r="Q39" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q39" s="13">
+      <c r="R39" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>343</v>
       </c>
@@ -13445,7 +13610,7 @@
         <v>57</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -13461,21 +13626,22 @@
       <c r="J40" s="1">
         <v>34</v>
       </c>
-      <c r="K40" s="87">
+      <c r="K40" s="86">
         <f>J40/F40</f>
         <v>11.333333333333334</v>
       </c>
       <c r="L40" s="6">
         <v>230</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="161"/>
+      <c r="Q40" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q40" s="13">
+      <c r="R40" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>345</v>
       </c>
@@ -13489,7 +13655,7 @@
         <v>57</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -13499,31 +13665,35 @@
         <v>95</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41" si="19">H41*F41</f>
+        <f t="shared" ref="I41" si="20">H41*F41</f>
         <v>285</v>
       </c>
       <c r="J41" s="1">
         <v>22</v>
       </c>
-      <c r="K41" s="87">
-        <f t="shared" ref="K41" si="20">J41/F41</f>
+      <c r="K41" s="86">
+        <f t="shared" ref="K41" si="21">J41/F41</f>
         <v>7.333333333333333</v>
       </c>
       <c r="L41" s="6">
         <v>230</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="161"/>
+      <c r="Q41" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="R41" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F42" s="87"/>
-      <c r="K42" s="87"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>451</v>
       </c>
@@ -13537,7 +13707,7 @@
         <v>57</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" ref="F43" si="21">D43/B43</f>
+        <f t="shared" ref="F43" si="22">D43/B43</f>
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -13553,21 +13723,22 @@
       <c r="J43" s="1">
         <v>28</v>
       </c>
-      <c r="K43" s="87">
-        <f t="shared" ref="K43" si="22">J43/F43</f>
+      <c r="K43" s="86">
+        <f t="shared" ref="K43" si="23">J43/F43</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="L43" s="6">
         <v>415</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="161"/>
+      <c r="Q43" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q43" s="13">
+      <c r="R43" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>452</v>
       </c>
@@ -13581,7 +13752,7 @@
         <v>57</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" ref="F44" si="23">D44/B44</f>
+        <f t="shared" ref="F44" si="24">D44/B44</f>
         <v>3.8</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -13597,25 +13768,29 @@
       <c r="J44" s="1">
         <v>28</v>
       </c>
-      <c r="K44" s="87">
-        <f t="shared" ref="K44" si="24">J44/F44</f>
+      <c r="K44" s="86">
+        <f t="shared" ref="K44" si="25">J44/F44</f>
         <v>7.3684210526315796</v>
       </c>
       <c r="L44" s="6">
         <v>415</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="161"/>
+      <c r="Q44" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q44" s="13">
+      <c r="R44" s="161">
         <v>18000</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="F45" s="87"/>
-      <c r="K45" s="87"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="F45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="161"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>453</v>
       </c>
@@ -13645,8 +13820,8 @@
       <c r="J46" s="1">
         <v>28</v>
       </c>
-      <c r="K46" s="87">
-        <f t="shared" ref="K46" si="25">J46/F46</f>
+      <c r="K46" s="86">
+        <f t="shared" ref="K46" si="26">J46/F46</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="L46" s="6">
@@ -13655,16 +13830,22 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1">
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162">
         <v>25.4</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="R46" s="161">
         <v>18000</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="V46" s="94"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="T46" s="6"/>
+      <c r="W46" s="93"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P47" s="161"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="161"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>454</v>
       </c>
@@ -13675,7 +13856,7 @@
         <v>57</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" ref="F48:F52" si="26">D48/B48</f>
+        <f t="shared" ref="F48:F52" si="27">D48/B48</f>
         <v>3.8</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -13685,27 +13866,28 @@
         <v>200</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:I49" si="27">H48*F48</f>
+        <f t="shared" ref="I48:I49" si="28">H48*F48</f>
         <v>760</v>
       </c>
       <c r="J48" s="6">
         <v>24</v>
       </c>
-      <c r="K48" s="87">
-        <f t="shared" ref="K48:K49" si="28">J48/F48</f>
+      <c r="K48" s="86">
+        <f t="shared" ref="K48:K49" si="29">J48/F48</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L48" s="6">
         <v>415</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48" s="161"/>
+      <c r="Q48" s="161">
         <v>40</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="R48" s="161">
         <v>22400</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>455</v>
       </c>
@@ -13716,7 +13898,7 @@
         <v>57</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.8</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -13726,27 +13908,28 @@
         <v>300</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1140</v>
       </c>
       <c r="J49" s="6">
         <v>24</v>
       </c>
-      <c r="K49" s="87">
-        <f t="shared" si="28"/>
+      <c r="K49" s="86">
+        <f t="shared" si="29"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L49" s="6">
         <v>415</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49" s="161"/>
+      <c r="Q49" s="161">
         <v>40</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="R49" s="161">
         <v>29000</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>456</v>
       </c>
@@ -13773,21 +13956,22 @@
       <c r="J50" s="6">
         <v>24</v>
       </c>
-      <c r="K50" s="87">
+      <c r="K50" s="86">
         <f>J50/F50</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L50" s="6">
         <v>415</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50" s="161"/>
+      <c r="Q50" s="161">
         <v>40</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="R50" s="161">
         <v>29000</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>457</v>
       </c>
@@ -13798,31 +13982,33 @@
         <v>57</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.8</v>
       </c>
       <c r="H51" s="6">
         <v>600</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" ref="I51:I53" si="29">H51*F51</f>
+        <f t="shared" ref="I51:I53" si="30">H51*F51</f>
         <v>2280</v>
       </c>
       <c r="J51" s="6">
         <v>24</v>
       </c>
-      <c r="K51" s="87">
-        <f t="shared" ref="K51:K53" si="30">J51/F51</f>
+      <c r="K51" s="86">
+        <f t="shared" ref="K51:K53" si="31">J51/F51</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L51" s="6">
         <v>415</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51" s="161"/>
+      <c r="Q51" s="161">
         <v>55</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R51" s="161"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>458</v>
       </c>
@@ -13833,31 +14019,33 @@
         <v>57</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.8</v>
       </c>
       <c r="H52" s="6">
         <v>800</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3040</v>
       </c>
       <c r="J52" s="6">
         <v>24</v>
       </c>
-      <c r="K52" s="87">
-        <f t="shared" si="30"/>
+      <c r="K52" s="86">
+        <f t="shared" si="31"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L52" s="6">
         <v>415</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52" s="161"/>
+      <c r="Q52" s="161">
         <v>55</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R52" s="161"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>459</v>
       </c>
@@ -13875,26 +14063,26 @@
         <v>1200</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>4560</v>
       </c>
       <c r="J53" s="6">
         <v>24</v>
       </c>
-      <c r="K53" s="87">
-        <f t="shared" si="30"/>
+      <c r="K53" s="86">
+        <f t="shared" si="31"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L53" s="6">
         <v>415</v>
       </c>
-      <c r="P53" s="6">
+      <c r="Q53" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F58" s="87"/>
-      <c r="K58" s="87"/>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="F58" s="86"/>
+      <c r="K58" s="86"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13956,172 +14144,172 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="137" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="138">
+      <c r="B2" s="137">
         <v>12</v>
       </c>
-      <c r="C2" s="138">
+      <c r="C2" s="137">
         <v>25.4</v>
       </c>
-      <c r="D2" s="138">
+      <c r="D2" s="137">
         <v>57</v>
       </c>
-      <c r="E2" s="138">
+      <c r="E2" s="137">
         <v>30</v>
       </c>
-      <c r="F2" s="138">
+      <c r="F2" s="137">
         <v>18000</v>
       </c>
-      <c r="G2" s="139">
+      <c r="G2" s="138">
         <f>0.5*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H2" s="138">
+      <c r="H2" s="137">
         <v>17999</v>
       </c>
-      <c r="I2" s="138">
+      <c r="I2" s="137">
         <f>D2/B2</f>
         <v>4.75</v>
       </c>
-      <c r="J2" s="139" t="s">
+      <c r="J2" s="138" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="137" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="138">
+      <c r="B3" s="137">
         <v>15</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="137">
         <v>25.4</v>
       </c>
-      <c r="D3" s="138">
+      <c r="D3" s="137">
         <v>57</v>
       </c>
-      <c r="E3" s="138">
+      <c r="E3" s="137">
         <v>30</v>
       </c>
-      <c r="F3" s="138">
+      <c r="F3" s="137">
         <v>18000</v>
       </c>
-      <c r="G3" s="139">
+      <c r="G3" s="138">
         <f>0.5*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H3" s="138">
+      <c r="H3" s="137">
         <v>18000</v>
       </c>
-      <c r="I3" s="138">
+      <c r="I3" s="137">
         <f>D3/B3</f>
         <v>3.8</v>
       </c>
-      <c r="J3" s="139" t="s">
+      <c r="J3" s="138" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>423</v>
       </c>
-      <c r="B4" s="138">
+      <c r="B4" s="137">
         <v>19</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="137">
         <v>25.4</v>
       </c>
-      <c r="D4" s="138">
+      <c r="D4" s="137">
         <v>57</v>
       </c>
-      <c r="E4" s="138">
+      <c r="E4" s="137">
         <v>30</v>
       </c>
-      <c r="F4" s="138">
+      <c r="F4" s="137">
         <v>18000</v>
       </c>
-      <c r="G4" s="139">
+      <c r="G4" s="138">
         <f>0.5*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H4" s="138">
+      <c r="H4" s="137">
         <v>18000</v>
       </c>
-      <c r="I4" s="138">
+      <c r="I4" s="137">
         <f t="shared" ref="I4:I7" si="0">D4/B4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="139" t="s">
+      <c r="J4" s="138" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B5" s="141">
+      <c r="B5" s="140">
         <v>12</v>
       </c>
-      <c r="C5" s="141">
+      <c r="C5" s="140">
         <v>25.4</v>
       </c>
-      <c r="D5" s="141">
+      <c r="D5" s="140">
         <v>57</v>
       </c>
-      <c r="E5" s="141" t="s">
+      <c r="E5" s="140" t="s">
         <v>470</v>
       </c>
-      <c r="F5" s="141">
+      <c r="F5" s="140">
         <v>22400</v>
       </c>
-      <c r="G5" s="142">
+      <c r="G5" s="141">
         <f>0.625*25.4</f>
         <v>15.875</v>
       </c>
-      <c r="H5" s="141">
+      <c r="H5" s="140">
         <v>22400</v>
       </c>
-      <c r="I5" s="141">
+      <c r="I5" s="140">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="J5" s="143" t="s">
+      <c r="J5" s="142" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="139" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="141">
+      <c r="B6" s="140">
         <v>18</v>
       </c>
-      <c r="C6" s="141">
+      <c r="C6" s="140">
         <v>25.4</v>
       </c>
-      <c r="D6" s="141">
+      <c r="D6" s="140">
         <v>57</v>
       </c>
-      <c r="E6" s="141" t="s">
+      <c r="E6" s="140" t="s">
         <v>470</v>
       </c>
-      <c r="F6" s="141">
+      <c r="F6" s="140">
         <v>22400</v>
       </c>
-      <c r="G6" s="142">
+      <c r="G6" s="141">
         <f>0.625*25.4</f>
         <v>15.875</v>
       </c>
-      <c r="H6" s="141">
+      <c r="H6" s="140">
         <v>22400</v>
       </c>
-      <c r="I6" s="141">
+      <c r="I6" s="140">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="J6" s="143" t="s">
+      <c r="J6" s="142" t="s">
         <v>471</v>
       </c>
     </row>
@@ -14503,19 +14691,19 @@
       <c r="A2" t="s">
         <v>494</v>
       </c>
-      <c r="B2" s="100">
+      <c r="B2" s="99">
         <v>95</v>
       </c>
-      <c r="C2" s="100">
+      <c r="C2" s="99">
         <v>545</v>
       </c>
       <c r="D2" s="6">
         <v>22</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="99" t="s">
         <v>496</v>
       </c>
       <c r="H2">
@@ -14526,19 +14714,19 @@
       <c r="A3" t="s">
         <v>497</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="99">
         <v>147</v>
       </c>
-      <c r="C3" s="100">
+      <c r="C3" s="99">
         <v>812</v>
       </c>
       <c r="D3" s="6">
         <v>22</v>
       </c>
-      <c r="E3" s="100" t="s">
+      <c r="E3" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="G3" s="99" t="s">
         <v>496</v>
       </c>
       <c r="H3">
@@ -14549,22 +14737,22 @@
       <c r="A4" t="s">
         <v>498</v>
       </c>
-      <c r="B4" s="100">
+      <c r="B4" s="99">
         <v>332</v>
       </c>
-      <c r="C4" s="100">
+      <c r="C4" s="99">
         <v>796</v>
       </c>
       <c r="D4" s="6">
         <v>22</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="99">
         <v>480</v>
       </c>
-      <c r="G4" s="100">
+      <c r="G4" s="99">
         <v>30</v>
       </c>
       <c r="H4">
@@ -14575,19 +14763,19 @@
       <c r="A5" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="100">
+      <c r="B5" s="99">
         <v>552</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="99">
         <v>1253</v>
       </c>
       <c r="D5" s="6">
         <v>22</v>
       </c>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G5" s="100">
+      <c r="G5" s="99">
         <v>40</v>
       </c>
       <c r="H5">
@@ -14598,19 +14786,19 @@
       <c r="A6" t="s">
         <v>500</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="99">
         <v>599</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="99">
         <v>3081</v>
       </c>
       <c r="D6" s="6">
         <v>20</v>
       </c>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G6" s="100">
+      <c r="G6" s="99">
         <v>40</v>
       </c>
       <c r="H6">
@@ -14621,19 +14809,19 @@
       <c r="A7" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="100">
+      <c r="B7" s="99">
         <v>1063</v>
       </c>
-      <c r="C7" s="100">
+      <c r="C7" s="99">
         <v>4092</v>
       </c>
       <c r="D7" s="6">
         <v>18</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <v>50</v>
       </c>
       <c r="H7">
@@ -14641,22 +14829,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="100" t="s">
         <v>502</v>
       </c>
-      <c r="B8" s="100">
+      <c r="B8" s="99">
         <v>1943</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="99">
         <v>10336</v>
       </c>
-      <c r="D8" s="100">
+      <c r="D8" s="99">
         <v>12</v>
       </c>
-      <c r="E8" s="100" t="s">
+      <c r="E8" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G8" s="100">
+      <c r="G8" s="99">
         <v>65</v>
       </c>
       <c r="H8">
@@ -14664,22 +14852,22 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="B9" s="100">
+      <c r="B9" s="99">
         <v>3503</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="99">
         <v>14014</v>
       </c>
-      <c r="D9" s="100">
+      <c r="D9" s="99">
         <v>10</v>
       </c>
-      <c r="E9" s="100" t="s">
+      <c r="E9" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="G9" s="100">
+      <c r="G9" s="99">
         <v>80</v>
       </c>
       <c r="H9">
@@ -14687,22 +14875,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="100" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="100">
+      <c r="B10" s="99">
         <v>130</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="99">
         <v>276</v>
       </c>
-      <c r="D10" s="100">
+      <c r="D10" s="99">
         <v>22</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="99" t="s">
         <v>496</v>
       </c>
       <c r="H10">
@@ -14710,25 +14898,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>505</v>
       </c>
-      <c r="B11" s="100">
+      <c r="B11" s="99">
         <v>145</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="99">
         <v>365</v>
       </c>
-      <c r="D11" s="100">
+      <c r="D11" s="99">
         <v>22</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="100">
+      <c r="F11" s="99">
         <v>200</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="99" t="s">
         <v>496</v>
       </c>
       <c r="H11">
@@ -14736,25 +14924,25 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="100" t="s">
         <v>506</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="99">
         <v>332</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="99">
         <v>1444</v>
       </c>
-      <c r="D12" s="100">
+      <c r="D12" s="99">
         <v>22</v>
       </c>
-      <c r="E12" s="100" t="s">
+      <c r="E12" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="100">
+      <c r="F12" s="99">
         <v>460</v>
       </c>
-      <c r="G12" s="100">
+      <c r="G12" s="99">
         <v>30</v>
       </c>
       <c r="H12">
@@ -14762,22 +14950,22 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="101" t="s">
         <v>507</v>
       </c>
-      <c r="B13" s="100">
+      <c r="B13" s="99">
         <v>542</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="99">
         <v>1863</v>
       </c>
-      <c r="D13" s="100">
+      <c r="D13" s="99">
         <v>22</v>
       </c>
-      <c r="E13" s="100" t="s">
+      <c r="E13" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="G13" s="100">
+      <c r="G13" s="99">
         <v>40</v>
       </c>
       <c r="H13">
@@ -14787,22 +14975,22 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="100" t="s">
         <v>508</v>
       </c>
-      <c r="B14" s="100">
+      <c r="B14" s="99">
         <v>1000</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="99">
         <v>3560</v>
       </c>
-      <c r="D14" s="100">
+      <c r="D14" s="99">
         <v>12</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="100">
+      <c r="G14" s="99">
         <v>50</v>
       </c>
       <c r="H14">
@@ -14810,19 +14998,19 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="100" t="s">
         <v>509</v>
       </c>
-      <c r="B15" s="100">
+      <c r="B15" s="99">
         <v>1063</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="99">
         <v>4092</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="99">
         <v>18</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="99" t="s">
         <v>261</v>
       </c>
       <c r="H15">
@@ -14833,22 +15021,22 @@
       <c r="A16" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="100">
+      <c r="B16" s="99">
         <v>145</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="99">
         <v>365</v>
       </c>
       <c r="D16" s="6">
         <v>22</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="99">
         <v>200</v>
       </c>
-      <c r="G16" s="100" t="s">
+      <c r="G16" s="99" t="s">
         <v>496</v>
       </c>
       <c r="H16">
@@ -14864,16 +15052,16 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="149" t="s">
         <v>511</v>
       </c>
-      <c r="B18" s="151">
+      <c r="B18" s="150">
         <v>400</v>
       </c>
       <c r="C18" s="6">
         <v>1075</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <v>24</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -14888,16 +15076,16 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="150" t="s">
+      <c r="A19" s="149" t="s">
         <v>512</v>
       </c>
-      <c r="B19" s="151">
+      <c r="B19" s="150">
         <v>400</v>
       </c>
       <c r="C19" s="6">
         <v>1075</v>
       </c>
-      <c r="D19" s="151">
+      <c r="D19" s="150">
         <v>24</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -14912,16 +15100,16 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="150" t="s">
+      <c r="A20" s="149" t="s">
         <v>513</v>
       </c>
-      <c r="B20" s="151">
+      <c r="B20" s="150">
         <v>800</v>
       </c>
       <c r="C20" s="6">
         <v>2330</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <v>24</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -14936,16 +15124,16 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="150" t="s">
+      <c r="A21" s="149" t="s">
         <v>514</v>
       </c>
-      <c r="B21" s="151">
+      <c r="B21" s="150">
         <v>1200</v>
       </c>
       <c r="C21" s="6">
         <v>3530</v>
       </c>
-      <c r="D21" s="151">
+      <c r="D21" s="150">
         <v>24</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -14960,16 +15148,16 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="150" t="s">
+      <c r="A22" s="149" t="s">
         <v>515</v>
       </c>
-      <c r="B22" s="151">
+      <c r="B22" s="150">
         <v>2200</v>
       </c>
       <c r="C22" s="6">
         <v>6691</v>
       </c>
-      <c r="D22" s="151">
+      <c r="D22" s="150">
         <v>15</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -14984,10 +15172,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="150" t="s">
+      <c r="A23" s="149" t="s">
         <v>516</v>
       </c>
-      <c r="B23" s="151">
+      <c r="B23" s="150">
         <v>3600</v>
       </c>
       <c r="C23" s="6">
@@ -15009,563 +15197,563 @@
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="69"/>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="133" t="s">
         <v>517</v>
       </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="135"/>
     </row>
     <row r="28" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="69"/>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="102" t="s">
         <v>504</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="103" t="s">
         <v>518</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="103" t="s">
         <v>519</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="103" t="s">
         <v>520</v>
       </c>
-      <c r="G28" s="104" t="s">
+      <c r="G28" s="103" t="s">
         <v>521</v>
       </c>
-      <c r="H28" s="104" t="s">
+      <c r="H28" s="103" t="s">
         <v>509</v>
       </c>
-      <c r="I28" s="104" t="s">
+      <c r="I28" s="103" t="s">
         <v>522</v>
       </c>
-      <c r="J28" s="105" t="s">
+      <c r="J28" s="104" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="105" t="s">
         <v>524</v>
       </c>
-      <c r="C29" s="107">
+      <c r="C29" s="106">
         <v>1</v>
       </c>
-      <c r="D29" s="108">
+      <c r="D29" s="107">
         <v>2</v>
       </c>
-      <c r="E29" s="108">
+      <c r="E29" s="107">
         <v>3</v>
       </c>
-      <c r="F29" s="108">
+      <c r="F29" s="107">
         <v>4</v>
       </c>
-      <c r="G29" s="108">
+      <c r="G29" s="107">
         <v>5</v>
       </c>
-      <c r="H29" s="108">
+      <c r="H29" s="107">
         <v>6</v>
       </c>
-      <c r="I29" s="108">
+      <c r="I29" s="107">
         <v>7</v>
       </c>
-      <c r="J29" s="109">
+      <c r="J29" s="108">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="110">
+      <c r="B30" s="109">
         <v>508</v>
       </c>
-      <c r="C30" s="111"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113">
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112">
         <v>300</v>
       </c>
-      <c r="I30" s="113">
+      <c r="I30" s="112">
         <v>740</v>
       </c>
-      <c r="J30" s="114">
+      <c r="J30" s="113">
         <v>1395</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="115">
+      <c r="B31" s="114">
         <v>457</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118">
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117">
         <v>330</v>
       </c>
-      <c r="I31" s="118">
+      <c r="I31" s="117">
         <v>755</v>
       </c>
-      <c r="J31" s="119">
+      <c r="J31" s="118">
         <v>1430</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="120">
+      <c r="B32" s="119">
         <v>419</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123">
+      <c r="C32" s="120"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122">
         <v>380</v>
       </c>
-      <c r="I32" s="123">
+      <c r="I32" s="122">
         <v>800</v>
       </c>
-      <c r="J32" s="124">
+      <c r="J32" s="123">
         <v>1500</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="115">
+      <c r="B33" s="114">
         <v>406</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="118"/>
-      <c r="F33" s="118"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="118">
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117">
         <v>400</v>
       </c>
-      <c r="I33" s="118">
+      <c r="I33" s="117">
         <v>825</v>
       </c>
-      <c r="J33" s="119">
+      <c r="J33" s="118">
         <v>1545</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="120">
+      <c r="B34" s="119">
         <v>368</v>
       </c>
-      <c r="C34" s="121"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123">
+      <c r="C34" s="120"/>
+      <c r="D34" s="121"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122">
         <v>450</v>
       </c>
-      <c r="I34" s="123">
+      <c r="I34" s="122">
         <v>890</v>
       </c>
-      <c r="J34" s="124">
+      <c r="J34" s="123">
         <v>1620</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="115">
+      <c r="B35" s="114">
         <v>355</v>
       </c>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118">
+      <c r="C35" s="115"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117">
         <v>500</v>
       </c>
-      <c r="I35" s="118">
+      <c r="I35" s="117">
         <v>950</v>
       </c>
-      <c r="J35" s="119">
+      <c r="J35" s="118">
         <v>1700</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="120">
+      <c r="B36" s="119">
         <v>323</v>
       </c>
-      <c r="C36" s="121"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123">
+      <c r="C36" s="120"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122">
         <v>427</v>
       </c>
-      <c r="H36" s="123">
+      <c r="H36" s="122">
         <v>560</v>
       </c>
-      <c r="I36" s="123">
+      <c r="I36" s="122">
         <v>980</v>
       </c>
-      <c r="J36" s="124">
+      <c r="J36" s="123">
         <v>1700</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="115">
+      <c r="B37" s="114">
         <v>298</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118">
+      <c r="C37" s="115"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117">
         <v>486</v>
       </c>
-      <c r="H37" s="118">
+      <c r="H37" s="117">
         <v>610</v>
       </c>
-      <c r="I37" s="118">
+      <c r="I37" s="117">
         <v>1110</v>
       </c>
-      <c r="J37" s="119">
+      <c r="J37" s="118">
         <v>1700</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="120">
+      <c r="B38" s="119">
         <v>267</v>
       </c>
-      <c r="C38" s="121"/>
-      <c r="D38" s="122"/>
-      <c r="E38" s="123">
+      <c r="C38" s="120"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="122">
         <v>220</v>
       </c>
-      <c r="F38" s="123">
+      <c r="F38" s="122">
         <v>290</v>
       </c>
-      <c r="G38" s="123">
+      <c r="G38" s="122">
         <v>564</v>
       </c>
-      <c r="H38" s="123">
+      <c r="H38" s="122">
         <v>695</v>
       </c>
-      <c r="I38" s="123">
+      <c r="I38" s="122">
         <v>1160</v>
       </c>
-      <c r="J38" s="124">
+      <c r="J38" s="123">
         <v>1700</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="115">
+      <c r="B39" s="114">
         <v>244</v>
       </c>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="118">
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="117">
         <v>250</v>
       </c>
-      <c r="F39" s="118">
+      <c r="F39" s="117">
         <v>310</v>
       </c>
-      <c r="G39" s="118">
+      <c r="G39" s="117">
         <v>632</v>
       </c>
-      <c r="H39" s="118">
+      <c r="H39" s="117">
         <v>720</v>
       </c>
-      <c r="I39" s="118">
+      <c r="I39" s="117">
         <v>1160</v>
       </c>
-      <c r="J39" s="119">
+      <c r="J39" s="118">
         <v>1700</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="120">
+      <c r="B40" s="119">
         <v>219</v>
       </c>
-      <c r="C40" s="121"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="123">
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="122">
         <v>290</v>
       </c>
-      <c r="F40" s="123">
+      <c r="F40" s="122">
         <v>355</v>
       </c>
-      <c r="G40" s="123">
+      <c r="G40" s="122">
         <v>721</v>
       </c>
-      <c r="H40" s="123">
+      <c r="H40" s="122">
         <v>830</v>
       </c>
-      <c r="I40" s="123">
+      <c r="I40" s="122">
         <v>1160</v>
       </c>
-      <c r="J40" s="124">
+      <c r="J40" s="123">
         <v>1700</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="115">
+      <c r="B41" s="114">
         <v>193</v>
       </c>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="118">
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="117">
         <v>325</v>
       </c>
-      <c r="F41" s="118">
+      <c r="F41" s="117">
         <v>390</v>
       </c>
-      <c r="G41" s="118">
+      <c r="G41" s="117">
         <v>823</v>
       </c>
-      <c r="H41" s="118">
+      <c r="H41" s="117">
         <v>925</v>
       </c>
-      <c r="I41" s="118">
+      <c r="I41" s="117">
         <v>1160</v>
       </c>
-      <c r="J41" s="119">
+      <c r="J41" s="118">
         <v>1700</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="120">
+      <c r="B42" s="119">
         <v>178</v>
       </c>
-      <c r="C42" s="121"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="123">
+      <c r="C42" s="120"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="122">
         <v>325</v>
       </c>
-      <c r="F42" s="123">
+      <c r="F42" s="122">
         <v>390</v>
       </c>
-      <c r="G42" s="123">
+      <c r="G42" s="122">
         <v>823</v>
       </c>
-      <c r="H42" s="123">
+      <c r="H42" s="122">
         <v>940</v>
       </c>
-      <c r="I42" s="123">
+      <c r="I42" s="122">
         <v>1160</v>
       </c>
-      <c r="J42" s="124">
+      <c r="J42" s="123">
         <v>1700</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="115">
+      <c r="B43" s="114">
         <v>165</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117" t="s">
+      <c r="C43" s="115"/>
+      <c r="D43" s="116" t="s">
         <v>525</v>
       </c>
-      <c r="E43" s="118">
+      <c r="E43" s="117">
         <v>360</v>
       </c>
-      <c r="F43" s="118">
+      <c r="F43" s="117">
         <v>425</v>
       </c>
-      <c r="G43" s="118">
+      <c r="G43" s="117">
         <v>823</v>
       </c>
-      <c r="H43" s="118">
+      <c r="H43" s="117">
         <v>980</v>
       </c>
-      <c r="I43" s="118">
+      <c r="I43" s="117">
         <v>1160</v>
       </c>
-      <c r="J43" s="119">
+      <c r="J43" s="118">
         <v>1700</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="120">
+      <c r="B44" s="119">
         <v>159</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="123">
+      <c r="C44" s="120"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="122">
         <v>375</v>
       </c>
-      <c r="F44" s="123">
+      <c r="F44" s="122">
         <v>455</v>
       </c>
-      <c r="G44" s="123">
+      <c r="G44" s="122">
         <v>823</v>
       </c>
-      <c r="H44" s="125" t="s">
+      <c r="H44" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="I44" s="125" t="s">
+      <c r="I44" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="J44" s="126" t="s">
+      <c r="J44" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="115">
+      <c r="B45" s="114">
         <v>139</v>
       </c>
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="118">
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="117">
         <v>405</v>
       </c>
-      <c r="F45" s="127">
+      <c r="F45" s="126">
         <v>487</v>
       </c>
-      <c r="G45" s="118">
+      <c r="G45" s="117">
         <v>823</v>
       </c>
-      <c r="H45" s="125" t="s">
+      <c r="H45" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="I45" s="125" t="s">
+      <c r="I45" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="J45" s="126" t="s">
+      <c r="J45" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="120">
+      <c r="B46" s="119">
         <v>133</v>
       </c>
-      <c r="C46" s="121"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="123">
+      <c r="C46" s="120"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="122">
         <v>405</v>
       </c>
-      <c r="F46" s="123">
+      <c r="F46" s="122">
         <v>490</v>
       </c>
-      <c r="G46" s="123">
+      <c r="G46" s="122">
         <v>823</v>
       </c>
-      <c r="H46" s="125" t="s">
+      <c r="H46" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="I46" s="125" t="s">
+      <c r="I46" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="J46" s="126" t="s">
+      <c r="J46" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="115">
+      <c r="B47" s="114">
         <v>127</v>
       </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="117"/>
-      <c r="E47" s="118">
+      <c r="C47" s="115"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="117">
         <v>425</v>
       </c>
-      <c r="F47" s="118">
+      <c r="F47" s="117">
         <v>490</v>
       </c>
-      <c r="G47" s="125">
+      <c r="G47" s="124">
         <v>823</v>
       </c>
-      <c r="H47" s="125" t="s">
+      <c r="H47" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="I47" s="125" t="s">
+      <c r="I47" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="J47" s="126" t="s">
+      <c r="J47" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="120">
+      <c r="B48" s="119">
         <v>102</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="117">
+      <c r="C48" s="120"/>
+      <c r="D48" s="116">
         <v>218</v>
       </c>
-      <c r="E48" s="123">
+      <c r="E48" s="122">
         <v>460</v>
       </c>
-      <c r="F48" s="125">
+      <c r="F48" s="124">
         <v>490</v>
       </c>
-      <c r="G48" s="125" t="s">
+      <c r="G48" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="H48" s="125" t="s">
+      <c r="H48" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="I48" s="125" t="s">
+      <c r="I48" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="J48" s="126" t="s">
+      <c r="J48" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="128">
+      <c r="B49" s="127">
         <v>83</v>
       </c>
-      <c r="C49" s="116">
+      <c r="C49" s="115">
         <v>204</v>
       </c>
-      <c r="D49" s="117">
+      <c r="D49" s="116">
         <v>234</v>
       </c>
-      <c r="E49" s="125" t="s">
+      <c r="E49" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="F49" s="125" t="s">
+      <c r="F49" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="G49" s="125" t="s">
+      <c r="G49" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="H49" s="125" t="s">
+      <c r="H49" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="I49" s="125" t="s">
+      <c r="I49" s="124" t="s">
         <v>526</v>
       </c>
-      <c r="J49" s="126" t="s">
+      <c r="J49" s="125" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="129">
+      <c r="B50" s="128">
         <v>76</v>
       </c>
-      <c r="C50" s="130">
+      <c r="C50" s="129">
         <v>206</v>
       </c>
-      <c r="D50" s="131">
+      <c r="D50" s="130">
         <v>242</v>
       </c>
-      <c r="E50" s="132" t="s">
+      <c r="E50" s="131" t="s">
         <v>526</v>
       </c>
-      <c r="F50" s="132" t="s">
+      <c r="F50" s="131" t="s">
         <v>526</v>
       </c>
-      <c r="G50" s="132" t="s">
+      <c r="G50" s="131" t="s">
         <v>526</v>
       </c>
-      <c r="H50" s="132" t="s">
+      <c r="H50" s="131" t="s">
         <v>526</v>
       </c>
-      <c r="I50" s="132" t="s">
+      <c r="I50" s="131" t="s">
         <v>526</v>
       </c>
-      <c r="J50" s="133" t="s">
+      <c r="J50" s="132" t="s">
         <v>526</v>
       </c>
     </row>
@@ -15842,7 +16030,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="6">
-        <f>B13-50</f>
+        <f t="shared" ref="F13:F19" si="2">B13-50</f>
         <v>250</v>
       </c>
       <c r="G13" s="6">
@@ -15866,7 +16054,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="6">
-        <f>B14-50</f>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="G14" s="6">
@@ -15890,7 +16078,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="6">
-        <f>B15-50</f>
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
       <c r="G15" s="6">
@@ -15914,7 +16102,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="6">
-        <f>B16-50</f>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="G16" s="6">
@@ -15938,7 +16126,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="6">
-        <f>B17-50</f>
+        <f t="shared" si="2"/>
         <v>450</v>
       </c>
       <c r="G17" s="6">
@@ -15962,7 +16150,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="6">
-        <f>B18-50</f>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="G18" s="6">
@@ -15986,7 +16174,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="59">
-        <f>B19-50</f>
+        <f t="shared" si="2"/>
         <v>550</v>
       </c>
       <c r="G19" s="6">
@@ -16013,7 +16201,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="6">
-        <f>B21-50</f>
+        <f t="shared" ref="F21:F26" si="3">B21-50</f>
         <v>85</v>
       </c>
     </row>
@@ -16034,7 +16222,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="6">
-        <f>B22-50</f>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
     </row>
@@ -16055,7 +16243,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="6">
-        <f>B23-50</f>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
     </row>
@@ -16076,7 +16264,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="6">
-        <f>B24-50</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -16097,7 +16285,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="6">
-        <f>B25-50</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -16118,7 +16306,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="6">
-        <f>B26-50</f>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
     </row>
@@ -16379,15 +16567,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="153">
+      <c r="D6" s="159">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16879,7 +17067,7 @@
       <c r="I1" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="89" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="53" t="s">
@@ -17635,7 +17823,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="145" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="78"/>
@@ -17698,7 +17886,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="145" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="72"/>
@@ -17852,7 +18040,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" s="74" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="145" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="78"/>
@@ -17920,7 +18108,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="146" t="s">
+      <c r="A26" s="145" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="76"/>
@@ -18331,7 +18519,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="74" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="146" t="s">
+      <c r="A37" s="145" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="72"/>
@@ -18397,16 +18585,16 @@
       <c r="B39" s="6">
         <v>4.5</v>
       </c>
-      <c r="D39" s="145">
+      <c r="D39" s="144">
         <v>55</v>
       </c>
-      <c r="E39" s="145">
+      <c r="E39" s="144">
         <v>57</v>
       </c>
-      <c r="F39" s="145">
+      <c r="F39" s="144">
         <v>14</v>
       </c>
-      <c r="G39" s="145">
+      <c r="G39" s="144">
         <v>10</v>
       </c>
       <c r="H39" s="6">
@@ -19100,7 +19288,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="147" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="25">
@@ -19114,7 +19302,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="147" t="s">
         <v>178</v>
       </c>
       <c r="B4" s="25">
@@ -19129,7 +19317,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="147" t="s">
         <v>179</v>
       </c>
       <c r="B5" s="25">
@@ -19144,7 +19332,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="147" t="s">
         <v>180</v>
       </c>
       <c r="B6" s="25">
@@ -19158,7 +19346,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="147" t="s">
         <v>181</v>
       </c>
       <c r="B7" s="25">
@@ -19173,7 +19361,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="147" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="25">
@@ -19187,7 +19375,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="148" t="s">
         <v>183</v>
       </c>
       <c r="B9" s="26">
@@ -19201,7 +19389,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="149" t="s">
+      <c r="A10" s="148" t="s">
         <v>184</v>
       </c>
       <c r="B10" s="27">
@@ -19216,10 +19404,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="146" t="s">
         <v>574</v>
       </c>
-      <c r="B11" s="155">
+      <c r="B11" s="25">
         <v>0.95</v>
       </c>
       <c r="C11">
@@ -19230,7 +19418,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="146" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="59">
@@ -19244,7 +19432,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="146" t="s">
         <v>186</v>
       </c>
       <c r="B13" s="59">
@@ -19258,7 +19446,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="147" t="s">
+      <c r="A14" s="146" t="s">
         <v>187</v>
       </c>
       <c r="B14" s="59">
@@ -19272,7 +19460,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="146" t="s">
         <v>188</v>
       </c>
       <c r="B15" s="59">
@@ -19360,18 +19548,18 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.81640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="29.7265625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -19390,10 +19578,10 @@
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>198</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -19417,6 +19605,12 @@
       <c r="E3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -19435,6 +19629,12 @@
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -19453,6 +19653,12 @@
       <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -19471,6 +19677,12 @@
       <c r="E6" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -19489,16 +19701,22 @@
       <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -19510,8 +19728,14 @@
       <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" t="s">
-        <v>578</v>
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -19573,7 +19797,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>586</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -19652,7 +19876,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19711,7 +19935,7 @@
       <c r="N1" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="O1" s="154" t="s">
+      <c r="O1" s="55" t="s">
         <v>565</v>
       </c>
     </row>
@@ -20099,36 +20323,36 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="154" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="154" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="159" t="s">
+      <c r="C11" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="160">
+      <c r="D11" s="156">
         <v>219</v>
       </c>
-      <c r="E11" s="160">
+      <c r="E11" s="156">
         <v>6.3</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="154">
         <f t="shared" ref="F11:F12" si="8">D11-(E11*2)</f>
         <v>206.4</v>
       </c>
-      <c r="G11" s="158">
+      <c r="G11" s="154">
         <v>190000</v>
       </c>
-      <c r="H11" s="158">
+      <c r="H11" s="154">
         <v>7850</v>
       </c>
-      <c r="I11" s="158"/>
-      <c r="J11" s="158" t="s">
+      <c r="I11" s="154"/>
+      <c r="J11" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="158" t="s">
+      <c r="K11" s="154" t="s">
         <v>249</v>
       </c>
       <c r="L11">
@@ -20147,36 +20371,36 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="152" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="152" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="152" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="157">
+      <c r="D12" s="153">
         <v>273.05</v>
       </c>
-      <c r="E12" s="157">
+      <c r="E12" s="153">
         <v>5.89</v>
       </c>
-      <c r="F12" s="156">
+      <c r="F12" s="152">
         <f t="shared" si="8"/>
         <v>261.27000000000004</v>
       </c>
-      <c r="G12" s="156">
+      <c r="G12" s="152">
         <v>199000</v>
       </c>
-      <c r="H12" s="156">
+      <c r="H12" s="152">
         <v>7850</v>
       </c>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156" t="s">
+      <c r="I12" s="152"/>
+      <c r="J12" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="156"/>
+      <c r="K12" s="152"/>
       <c r="L12">
         <f t="shared" si="4"/>
         <v>10.750000000000002</v>
@@ -20206,7 +20430,7 @@
       <c r="K13" s="15"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="161"/>
+      <c r="B15" s="157"/>
       <c r="C15" t="s">
         <v>575</v>
       </c>
@@ -20228,7 +20452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438F573-1137-4940-BD62-685CBD871B42}">
   <dimension ref="A2:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -20246,13 +20470,13 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C2" t="s">
         <v>583</v>
-      </c>
-      <c r="C2" t="s">
-        <v>584</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>253</v>
@@ -20273,7 +20497,7 @@
         <v>258</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20287,14 +20511,14 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B4" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="158">
         <f t="shared" ref="C4:C16" si="0">(D4-B4)/2</f>
         <v>-1.7000000000000028</v>
       </c>
@@ -20311,14 +20535,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="165" t="s">
+      <c r="A5" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B5" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="158">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20335,14 +20559,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B6" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="158">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20359,14 +20583,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="165" t="s">
+      <c r="A7" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B7" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="158">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20383,14 +20607,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="165" t="s">
+      <c r="A8" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B8" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="158">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20407,14 +20631,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B9" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="158">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20431,14 +20655,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B10" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="158">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20455,14 +20679,14 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B11" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="158">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20479,14 +20703,14 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B12" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C12" s="162">
+      <c r="C12" s="158">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20503,14 +20727,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B13" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="158">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20527,14 +20751,14 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="165" t="s">
+      <c r="A14" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B14" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="158">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20551,14 +20775,14 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B15" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="158">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20575,14 +20799,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="165" t="s">
+      <c r="A16" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B16" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="158">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20599,14 +20823,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="162" t="s">
+      <c r="A17" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="162">
+      <c r="B17" s="158">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="158">
         <f>(D17-B17)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -20623,14 +20847,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="162" t="s">
+      <c r="A18" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="162">
+      <c r="B18" s="158">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C18" s="162">
+      <c r="C18" s="158">
         <f t="shared" ref="C18:C34" si="1">(D18-B18)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -20647,14 +20871,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="162">
+      <c r="B19" s="158">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C19" s="162">
+      <c r="C19" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20671,14 +20895,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="162">
+      <c r="B20" s="158">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C20" s="162">
+      <c r="C20" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20695,14 +20919,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="162" t="s">
+      <c r="A21" s="158" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="162">
+      <c r="B21" s="158">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C21" s="162">
+      <c r="C21" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20719,14 +20943,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="163" t="s">
+      <c r="A22" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="163">
+      <c r="B22" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="158">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -20743,14 +20967,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="163">
+      <c r="B23" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C23" s="162">
+      <c r="C23" s="158">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -20767,14 +20991,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="163" t="s">
+      <c r="A24" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="163">
+      <c r="B24" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C24" s="162">
+      <c r="C24" s="158">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -20791,14 +21015,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="163" t="s">
+      <c r="A25" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="163">
+      <c r="B25" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C25" s="162">
+      <c r="C25" s="158">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20815,14 +21039,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="163" t="s">
+      <c r="A26" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="163">
+      <c r="B26" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C26" s="162">
+      <c r="C26" s="158">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20839,14 +21063,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="163">
+      <c r="B27" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C27" s="162">
+      <c r="C27" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20863,14 +21087,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="163">
+      <c r="B28" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C28" s="162">
+      <c r="C28" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20887,14 +21111,14 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="163">
+      <c r="B29" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C29" s="162">
+      <c r="C29" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20911,14 +21135,14 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="163">
+      <c r="B30" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C30" s="162">
+      <c r="C30" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20935,14 +21159,14 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="158" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="163">
+      <c r="B31" s="158">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C31" s="162">
+      <c r="C31" s="158">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20959,14 +21183,14 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B32" s="164">
+      <c r="B32" s="1">
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C32" s="162">
+      <c r="C32" s="158">
         <f t="shared" si="1"/>
         <v>-2.1350000000000193</v>
       </c>
@@ -20983,14 +21207,14 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="164" t="s">
+      <c r="A33" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B33" s="164">
+      <c r="B33" s="1">
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C33" s="162">
+      <c r="C33" s="158">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21007,14 +21231,14 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B34" s="164">
+      <c r="B34" s="1">
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C34" s="162">
+      <c r="C34" s="158">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21043,7 +21267,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -21064,7 +21288,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -21161,7 +21385,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -21182,7 +21406,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1902" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5082A8B2-AAC0-4ED8-9E02-A957117C959E}"/>
+  <xr:revisionPtr revIDLastSave="2004" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF83466D-996A-4B21-9E5C-73DFA8626470}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1830" windowWidth="29900" windowHeight="19090" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3490" yWindow="740" windowWidth="23330" windowHeight="19090" tabRatio="859" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Motors!$A$1:$S$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Motors!$A$1:$T$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -642,6 +642,40 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{42B2D1D3-45D6-4B4F-92A5-C86E44261C2E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>robert hyrons:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+use this data column to match the max lift torque required to spec SB, advised from GFA UK 27/1/2026</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>robert hyrons</author>
+  </authors>
+  <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{680B1BE3-3686-4262-8DBA-BDEB6ADD9486}">
       <text>
         <r>
@@ -695,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="591">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -1984,12 +2018,6 @@
     <t>Ranger 90 3ph 15-57 1/2"</t>
   </si>
   <si>
-    <t>Ranger150 3ph 19-57 1/2"</t>
-  </si>
-  <si>
-    <t>Ranger150 3ph 18-57 5/8"</t>
-  </si>
-  <si>
     <t>5/8"</t>
   </si>
   <si>
@@ -2104,21 +2132,12 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>230.54mm</t>
-  </si>
-  <si>
     <t>30/40</t>
   </si>
   <si>
-    <t>288.18mm</t>
-  </si>
-  <si>
     <t>40/50</t>
   </si>
   <si>
-    <t>345.81mm</t>
-  </si>
-  <si>
     <t>50/60/80</t>
   </si>
   <si>
@@ -2156,9 +2175,6 @@
   </si>
   <si>
     <t>55mm</t>
-  </si>
-  <si>
-    <t>UCF212 - ?</t>
   </si>
   <si>
     <t>Operating Torque (Nm)</t>
@@ -2492,6 +2508,33 @@
   </si>
   <si>
     <t>Limit turn ratio adjustement</t>
+  </si>
+  <si>
+    <t>movements per day</t>
+  </si>
+  <si>
+    <t>273 x 8</t>
+  </si>
+  <si>
+    <t>10 3/4" 8mm</t>
+  </si>
+  <si>
+    <t>Ranger150 3ph 15-57 5/8"</t>
+  </si>
+  <si>
+    <t>Ranger150 3ph 15-57 1/2"</t>
+  </si>
+  <si>
+    <t>Platewheel diameter</t>
+  </si>
+  <si>
+    <t>UCF212 - 4 hole 60mm</t>
+  </si>
+  <si>
+    <t>60mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out side our current scope required. </t>
   </si>
 </sst>
 </file>
@@ -3118,7 +3161,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3525,7 +3568,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3569,22 +3611,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5215,23 +5257,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>489656</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1556550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>51350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595207</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC341D2-376E-3B54-B7E0-21561F00A137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60FF6E1-054A-7255-8C6F-857D7135B192}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5247,52 +5289,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1835856" y="3759200"/>
-          <a:ext cx="4248244" cy="2921550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>49645</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>651679</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>41699</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7733E428-B67E-0B6A-2062-E0B7EB2D4EE3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5765800" y="3548495"/>
-          <a:ext cx="4525179" cy="2386004"/>
+          <a:off x="6045200" y="527050"/>
+          <a:ext cx="3567007" cy="3848935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5309,15 +5307,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>595489</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>47897</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>328377</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>83943</xdr:rowOff>
+      <xdr:colOff>504766</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>140387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5340,8 +5338,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11760200" y="11719197"/>
-          <a:ext cx="5395677" cy="4461996"/>
+          <a:off x="11926711" y="15929953"/>
+          <a:ext cx="5370277" cy="4445768"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5528,16 +5526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113553</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>141775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>37394</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>527377</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>473414</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>555599</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99470</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5560,7 +5558,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10235453" y="7708900"/>
+          <a:off x="10259442" y="12299950"/>
           <a:ext cx="413824" cy="428964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5616,15 +5614,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>29353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>549888</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>457200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5704,15 +5702,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>112527</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>537473</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5748,15 +5746,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5792,15 +5790,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>469900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5836,15 +5834,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>26526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>530495</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>444771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5880,15 +5878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>13826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>536845</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>432071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5924,15 +5922,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>21549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>527345</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>490411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5968,16 +5966,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>147108</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>527503</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>450851</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>267406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6012,23 +6010,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>141112</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184937</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35279</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>56445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>58742</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22243</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>576035</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>456353</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
+        <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DF1AC5-C699-CF10-A37B-48DB13A154CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5482365F-37A9-8A4C-6824-E8497A21E8B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6044,8 +6042,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11472334" y="7847270"/>
-          <a:ext cx="5378630" cy="1996306"/>
+          <a:off x="10152946" y="3654778"/>
+          <a:ext cx="540756" cy="399908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>39513</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580269</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>418253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BDB8A4-C6E6-4A9F-B0B9-6F51BBC62173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10157180" y="3108678"/>
+          <a:ext cx="540756" cy="399908"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>29635</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570391</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>415431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2EB413-5061-4227-85A6-0BA11655A0D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10147302" y="2597856"/>
+          <a:ext cx="540756" cy="399908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6390,12 +6476,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:X125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68:G73"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6410,15 +6495,15 @@
     <col min="9" max="10" width="12.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" style="1" customWidth="1"/>
-    <col min="13" max="16" width="19.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="25.81640625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="21" max="21" width="10.54296875" style="93" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="46.453125" customWidth="1"/>
+    <col min="13" max="17" width="19.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" customWidth="1"/>
+    <col min="19" max="19" width="25.81640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" style="93" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -6465,25 +6550,28 @@
         <v>274</v>
       </c>
       <c r="P1" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="R1" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="R1" s="60" t="s">
+      <c r="S1" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="U1" s="92" t="s">
+      <c r="V1" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>281</v>
       </c>
@@ -6526,17 +6614,17 @@
       <c r="N2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="64">
+      <c r="Q2" s="64">
         <v>3</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>310</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>284</v>
       </c>
@@ -6579,17 +6667,17 @@
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="64">
+      <c r="Q3" s="64">
         <v>3.3</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>310</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>285</v>
       </c>
@@ -6626,17 +6714,17 @@
       <c r="N4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="64">
+      <c r="Q4" s="64">
         <v>5</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>345</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>286</v>
       </c>
@@ -6673,17 +6761,17 @@
       <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="64">
+      <c r="Q5" s="64">
         <v>5.2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>345</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>287</v>
       </c>
@@ -6720,17 +6808,17 @@
       <c r="N6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="64">
+      <c r="Q6" s="64">
         <v>8</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>390</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>288</v>
       </c>
@@ -6767,17 +6855,17 @@
       <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="64">
+      <c r="Q7" s="64">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>390</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>289</v>
       </c>
@@ -6814,17 +6902,17 @@
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="64">
+      <c r="Q8" s="64">
         <v>12</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>570</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>290</v>
       </c>
@@ -6861,32 +6949,38 @@
       <c r="N9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="64">
+      <c r="Q9" s="64">
         <v>14</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>670</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N10" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="P10" s="64"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N10" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q10" s="64"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>292</v>
       </c>
@@ -6927,14 +7021,14 @@
       <c r="N11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="64">
+      <c r="Q11" s="64">
         <v>16</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>294</v>
       </c>
@@ -6975,28 +7069,34 @@
       <c r="N12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P12" s="64">
+      <c r="Q12" s="64">
         <v>19</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H13" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N13" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H13" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N13" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>295</v>
       </c>
@@ -7033,14 +7133,14 @@
       <c r="N14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="1">
         <v>2.44</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>297</v>
       </c>
@@ -7078,14 +7178,14 @@
       <c r="N15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>2.76</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>298</v>
       </c>
@@ -7123,14 +7223,14 @@
       <c r="N16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <v>3.09</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>299</v>
       </c>
@@ -7169,16 +7269,17 @@
         <v>28</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="1">
+      <c r="P17"/>
+      <c r="Q17" s="1">
         <v>3.2</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>260</v>
       </c>
-      <c r="R17"/>
-      <c r="U17"/>
-    </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S17"/>
+      <c r="V17"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>300</v>
       </c>
@@ -7217,16 +7318,17 @@
         <v>28</v>
       </c>
       <c r="O18"/>
-      <c r="P18" s="1">
+      <c r="P18"/>
+      <c r="Q18" s="1">
         <v>3.2</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>260</v>
       </c>
-      <c r="R18"/>
-      <c r="U18"/>
-    </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S18"/>
+      <c r="V18"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>301</v>
       </c>
@@ -7264,14 +7366,14 @@
       <c r="N19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <v>3.38</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>302</v>
       </c>
@@ -7309,14 +7411,14 @@
       <c r="N20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <v>3.38</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>303</v>
       </c>
@@ -7354,14 +7456,14 @@
       <c r="N21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <v>3.09</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>304</v>
       </c>
@@ -7399,14 +7501,14 @@
       <c r="N22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <v>4.17</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>305</v>
       </c>
@@ -7444,14 +7546,14 @@
       <c r="N23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <v>3.92</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>306</v>
       </c>
@@ -7489,14 +7591,14 @@
       <c r="N24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="1">
         <v>4.1900000000000004</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>307</v>
       </c>
@@ -7534,14 +7636,14 @@
       <c r="N25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="P25" s="1">
+      <c r="Q25" s="1">
         <v>4.45</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>308</v>
       </c>
@@ -7579,14 +7681,14 @@
       <c r="N26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P26" s="1">
+      <c r="Q26" s="1">
         <v>4.68</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>309</v>
       </c>
@@ -7624,28 +7726,34 @@
       <c r="N27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="1">
+      <c r="Q27" s="1">
         <v>4.45</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H28" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N28" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="33" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H28" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N28" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="90" t="s">
         <v>310</v>
       </c>
@@ -7683,34 +7791,35 @@
       <c r="M29" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="151" t="s">
-        <v>563</v>
+      <c r="N29" s="150" t="s">
+        <v>557</v>
       </c>
       <c r="O29" s="64"/>
       <c r="P29" s="64"/>
-      <c r="Q29" s="33">
+      <c r="Q29" s="64"/>
+      <c r="R29" s="33">
         <v>900</v>
       </c>
-      <c r="R29" s="59" t="s">
+      <c r="S29" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="U29" s="94"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V29" s="94"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H30" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N30" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N30" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>313</v>
       </c>
@@ -7750,14 +7859,14 @@
       <c r="N31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>900</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="S31" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>315</v>
       </c>
@@ -7797,14 +7906,14 @@
       <c r="N32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>900</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="S32" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>317</v>
       </c>
@@ -7844,14 +7953,14 @@
       <c r="N33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>900</v>
       </c>
-      <c r="R33" s="6" t="s">
+      <c r="S33" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>319</v>
       </c>
@@ -7891,14 +8000,14 @@
       <c r="N34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>900</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>321</v>
       </c>
@@ -7938,14 +8047,14 @@
       <c r="N35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>1800</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="S35" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>323</v>
       </c>
@@ -7985,14 +8094,14 @@
       <c r="N36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>1800</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="S36" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>325</v>
       </c>
@@ -8032,30 +8141,34 @@
       <c r="N37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>2500</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="S37" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="H38" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N38" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H38" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N38" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>327</v>
       </c>
@@ -8096,7 +8209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>329</v>
       </c>
@@ -8138,7 +8251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>330</v>
       </c>
@@ -8180,7 +8293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="90" t="s">
         <v>331</v>
       </c>
@@ -8223,7 +8336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>332</v>
       </c>
@@ -8265,7 +8378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>333</v>
       </c>
@@ -8307,7 +8420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>334</v>
       </c>
@@ -8349,7 +8462,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>335</v>
       </c>
@@ -8391,7 +8504,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>336</v>
       </c>
@@ -8433,22 +8546,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="H48" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N48" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H48" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N48" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>337</v>
       </c>
@@ -8489,7 +8607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>338</v>
       </c>
@@ -8530,7 +8648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>339</v>
       </c>
@@ -8571,10 +8689,10 @@
       <c r="N51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R51" s="1"/>
-      <c r="U51" s="95"/>
-    </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+      <c r="S51" s="1"/>
+      <c r="V51" s="95"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>340</v>
       </c>
@@ -8615,22 +8733,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="H53" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N53" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H53" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N53" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f>Chaindrive!A32</f>
         <v>JM200</v>
@@ -8673,14 +8796,14 @@
       <c r="N54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>90</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="S54" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>343</v>
       </c>
@@ -8722,14 +8845,14 @@
       <c r="N55" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>120</v>
       </c>
-      <c r="R55" s="6" t="s">
+      <c r="S55" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>345</v>
       </c>
@@ -8771,26 +8894,31 @@
       <c r="N56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R56" s="6" t="s">
+      <c r="S56" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="H57" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N57" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C57" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H57" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N57" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f>Chaindrive!A4</f>
         <v>Ranger 70 1ph 19-57 1/2"</v>
@@ -8831,20 +8959,20 @@
       <c r="N58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>450</v>
       </c>
-      <c r="R58" s="6" t="s">
+      <c r="S58" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>40</v>
       </c>
-      <c r="U58" s="93">
+      <c r="V58" s="93">
         <v>300.41000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f>Chaindrive!A7</f>
         <v>Ranger 90 1ph 19-57 1/2"</v>
@@ -8888,17 +9016,17 @@
       <c r="N59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>450</v>
       </c>
-      <c r="R59" s="6" t="s">
+      <c r="S59" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f>Chaindrive!A8</f>
         <v>Ranger 90 1ph 15-57 1/2"</v>
@@ -8942,25 +9070,31 @@
       <c r="N60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H61" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N61" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="C61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H61" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N61" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f>Chaindrive!A10</f>
         <v>Ranger 90 3ph 19-57 1/2"</v>
@@ -9003,24 +9137,24 @@
       <c r="N62" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>370</v>
       </c>
-      <c r="R62" s="6" t="s">
+      <c r="S62" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>40</v>
       </c>
-      <c r="U62" s="93">
+      <c r="V62" s="93">
         <v>179.04</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <f>O62*8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f>Chaindrive!A11</f>
         <v>Ranger 90 3ph 15-57 1/2"</v>
@@ -9064,21 +9198,21 @@
       <c r="N63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>370</v>
       </c>
-      <c r="R63" s="6" t="s">
+      <c r="S63" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>40</v>
       </c>
-      <c r="V63" s="96"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="W63" s="96"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f>Chaindrive!A14</f>
-        <v>Ranger150 3ph 18-57 5/8"</v>
+        <v>Ranger150 3ph 15-57 5/8"</v>
       </c>
       <c r="B64" t="s">
         <v>347</v>
@@ -9089,14 +9223,14 @@
       </c>
       <c r="D64" s="32">
         <f>Chaindrive!I14</f>
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F64" s="2">
         <f>Chaindrive!K14</f>
-        <v>15.157894736842106</v>
+        <v>12.631578947368421</v>
       </c>
       <c r="G64" s="1">
         <v>415</v>
@@ -9119,11 +9253,11 @@
       <c r="N64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f>Chaindrive!A15</f>
         <v>Ranger150 3ph 12-57 5/8"</v>
@@ -9133,7 +9267,7 @@
       </c>
       <c r="C65" s="2">
         <f>D64+0.01</f>
-        <v>475.01</v>
+        <v>570.01</v>
       </c>
       <c r="D65" s="32">
         <v>713</v>
@@ -9165,17 +9299,17 @@
       <c r="N65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R65" s="6" t="s">
+      <c r="S65" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>40</v>
       </c>
-      <c r="U65" s="93">
+      <c r="V65" s="93">
         <v>472.24</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f>Chaindrive!A19</f>
         <v>Ranger220 3ph 19-57 3/4"</v>
@@ -9218,29 +9352,35 @@
       <c r="N66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>450</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="C67" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="F67" s="2"/>
-      <c r="H67" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N67" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H67" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N67" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f>Chaindrive!A22</f>
         <v>KE 20.24 19-57 3/4"</v>
@@ -9262,9 +9402,9 @@
         <f>Chaindrive!K22</f>
         <v>8</v>
       </c>
-      <c r="G68" s="1" t="str">
+      <c r="G68" s="1">
         <f>Chaindrive!L22</f>
-        <v>230/415</v>
+        <v>415</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>341</v>
@@ -9276,6 +9416,7 @@
         <v>283</v>
       </c>
       <c r="L68" s="1">
+        <f>Chaindrive!C22</f>
         <v>40</v>
       </c>
       <c r="M68" s="1" t="s">
@@ -9285,7 +9426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f>Chaindrive!A23</f>
         <v>KE 30.24  19-57 3/4"</v>
@@ -9307,9 +9448,9 @@
         <f>Chaindrive!K23</f>
         <v>8</v>
       </c>
-      <c r="G69" s="1" t="str">
+      <c r="G69" s="1">
         <f>Chaindrive!L23</f>
-        <v>230/415</v>
+        <v>415</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>341</v>
@@ -9321,6 +9462,7 @@
         <v>283</v>
       </c>
       <c r="L69" s="1">
+        <f>Chaindrive!C23</f>
         <v>40</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -9330,7 +9472,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f>Chaindrive!A24</f>
         <v>KE 40.24  19-57 1"</v>
@@ -9352,9 +9494,9 @@
         <f>Chaindrive!K24</f>
         <v>8</v>
       </c>
-      <c r="G70" s="1" t="str">
+      <c r="G70" s="1">
         <f>Chaindrive!L24</f>
-        <v>230/415</v>
+        <v>415</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>341</v>
@@ -9366,6 +9508,7 @@
         <v>283</v>
       </c>
       <c r="L70" s="1">
+        <f>Chaindrive!C24</f>
         <v>40</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -9375,7 +9518,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f>Chaindrive!A25</f>
         <v>KE 40.24  15-57 1"</v>
@@ -9397,9 +9540,9 @@
         <f>Chaindrive!K25</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G71" s="1" t="str">
+      <c r="G71" s="1">
         <f>Chaindrive!L25</f>
-        <v>230/415</v>
+        <v>415</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>341</v>
@@ -9412,6 +9555,7 @@
         <v>283</v>
       </c>
       <c r="L71" s="1">
+        <f>Chaindrive!C25</f>
         <v>40</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -9421,7 +9565,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f>Chaindrive!A26</f>
         <v>KE 60.24   19-57 1"</v>
@@ -9443,9 +9587,9 @@
         <f>Chaindrive!K26</f>
         <v>8</v>
       </c>
-      <c r="G72" s="1" t="str">
+      <c r="G72" s="1">
         <f>Chaindrive!L26</f>
-        <v>230/415</v>
+        <v>415</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>341</v>
@@ -9457,7 +9601,8 @@
         <v>283</v>
       </c>
       <c r="L72" s="1">
-        <v>40</v>
+        <f>Chaindrive!C26</f>
+        <v>55</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>28</v>
@@ -9466,7 +9611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f>Chaindrive!A27</f>
         <v>KE 80.24   19-57 1 1/4"</v>
@@ -9488,9 +9633,9 @@
         <f>Chaindrive!K27</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G73" s="1" t="str">
+      <c r="G73" s="1">
         <f>Chaindrive!L27</f>
-        <v>230/415</v>
+        <v>415</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>341</v>
@@ -9502,7 +9647,8 @@
         <v>283</v>
       </c>
       <c r="L73" s="1">
-        <v>40</v>
+        <f>Chaindrive!C27</f>
+        <v>55</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>28</v>
@@ -9511,55 +9657,69 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="32"/>
+      <c r="C74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="F74" s="2"/>
-      <c r="H74" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N74" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H74" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N74" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="32"/>
+      <c r="C75" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="F75" s="2"/>
-      <c r="H75" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N75" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="H75" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N75" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H76" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N76" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C76" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N76" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>351</v>
       </c>
@@ -9567,8 +9727,7 @@
         <v>347</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" ref="C77:C78" si="2">D76+0.01</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
         <v>100</v>
@@ -9603,14 +9762,18 @@
       <c r="O77" s="1">
         <v>8</v>
       </c>
-      <c r="R77" s="6" t="s">
+      <c r="P77" s="1">
+        <f>(O77*2)*8</f>
+        <v>128</v>
+      </c>
+      <c r="S77" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="U77" s="143">
+      <c r="V77" s="142">
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>353</v>
       </c>
@@ -9618,7 +9781,7 @@
         <v>347</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C78" si="2">D77+0.01</f>
         <v>100.01</v>
       </c>
       <c r="D78" s="6">
@@ -9654,20 +9817,24 @@
       <c r="O78" s="1">
         <v>8</v>
       </c>
-      <c r="Q78">
+      <c r="P78" s="1">
+        <f t="shared" ref="P78:P87" si="3">(O78*2)*8</f>
+        <v>128</v>
+      </c>
+      <c r="R78">
         <v>400</v>
       </c>
-      <c r="R78" s="6" t="s">
+      <c r="S78" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>20</v>
       </c>
-      <c r="U78" s="143">
+      <c r="V78" s="142">
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>355</v>
       </c>
@@ -9711,20 +9878,24 @@
       <c r="O79" s="1">
         <v>8</v>
       </c>
-      <c r="Q79">
+      <c r="P79" s="1">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="R79">
         <v>750</v>
       </c>
-      <c r="R79" s="6" t="s">
+      <c r="S79" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>20</v>
       </c>
-      <c r="U79" s="143">
+      <c r="V79" s="142">
         <v>307</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>357</v>
       </c>
@@ -9732,7 +9903,7 @@
         <v>347</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ref="C80:C88" si="3">D79+0.01</f>
+        <f t="shared" ref="C80:C88" si="4">D79+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D80" s="6">
@@ -9768,20 +9939,24 @@
       <c r="O80" s="1">
         <v>9</v>
       </c>
-      <c r="Q80">
+      <c r="P80" s="1">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="R80">
         <v>850</v>
       </c>
-      <c r="R80" s="6" t="s">
+      <c r="S80" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>20</v>
       </c>
-      <c r="U80" s="143">
+      <c r="V80" s="142">
         <v>383</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>359</v>
       </c>
@@ -9789,7 +9964,7 @@
         <v>347</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>350.01</v>
       </c>
       <c r="D81" s="6">
@@ -9825,18 +10000,22 @@
       <c r="O81" s="1">
         <v>9</v>
       </c>
-      <c r="Q81">
+      <c r="P81" s="1">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="R81">
         <v>1100</v>
       </c>
-      <c r="R81" s="6" t="s">
+      <c r="S81" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>20</v>
       </c>
-      <c r="U81" s="143"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V81" s="142"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>361</v>
       </c>
@@ -9844,7 +10023,7 @@
         <v>347</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>450.01</v>
       </c>
       <c r="D82" s="6">
@@ -9880,18 +10059,22 @@
       <c r="O82" s="1">
         <v>9</v>
       </c>
-      <c r="Q82">
+      <c r="P82" s="1">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="R82">
         <v>1100</v>
       </c>
-      <c r="R82" s="6" t="s">
+      <c r="S82" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>20</v>
       </c>
-      <c r="U82" s="143"/>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V82" s="142"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>363</v>
       </c>
@@ -9899,7 +10082,7 @@
         <v>347</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>550.01</v>
       </c>
       <c r="D83" s="6">
@@ -9935,15 +10118,19 @@
       <c r="O83" s="1">
         <v>9</v>
       </c>
-      <c r="R83" s="6" t="s">
+      <c r="P83" s="1">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="S83" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>20</v>
       </c>
-      <c r="U83" s="143"/>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V83" s="142"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>365</v>
       </c>
@@ -9951,7 +10138,7 @@
         <v>347</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>650.01</v>
       </c>
       <c r="D84" s="6">
@@ -9987,18 +10174,22 @@
       <c r="O84" s="1">
         <v>9</v>
       </c>
-      <c r="Q84">
+      <c r="P84" s="1">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="R84">
         <v>1100</v>
       </c>
-      <c r="R84" s="6" t="s">
+      <c r="S84" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>20</v>
       </c>
-      <c r="U84" s="143"/>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V84" s="142"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>367</v>
       </c>
@@ -10006,7 +10197,7 @@
         <v>347</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>750.01</v>
       </c>
       <c r="D85" s="6">
@@ -10042,11 +10233,15 @@
       <c r="O85" s="1">
         <v>7</v>
       </c>
-      <c r="R85" s="6" t="s">
+      <c r="P85" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="S85" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>369</v>
       </c>
@@ -10054,7 +10249,7 @@
         <v>347</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>850.01</v>
       </c>
       <c r="D86" s="6">
@@ -10090,17 +10285,21 @@
       <c r="O86" s="1">
         <v>7</v>
       </c>
-      <c r="Q86">
+      <c r="P86" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="R86">
         <v>1300</v>
       </c>
-      <c r="R86" s="6" t="s">
+      <c r="S86" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>371</v>
       </c>
@@ -10108,7 +10307,7 @@
         <v>347</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1000.01</v>
       </c>
       <c r="D87" s="6">
@@ -10144,17 +10343,21 @@
       <c r="O87" s="1">
         <v>7</v>
       </c>
-      <c r="Q87">
+      <c r="P87" s="1">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="R87">
         <v>1100</v>
       </c>
-      <c r="R87" s="6" t="s">
+      <c r="S87" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="33" t="s">
         <v>373</v>
       </c>
@@ -10162,7 +10365,7 @@
         <v>347</v>
       </c>
       <c r="C88" s="64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1400.01</v>
       </c>
       <c r="D88" s="59">
@@ -10200,16 +10403,17 @@
         <v>7</v>
       </c>
       <c r="P88" s="64"/>
-      <c r="Q88" s="33">
+      <c r="Q88" s="64"/>
+      <c r="R88" s="33">
         <v>1300</v>
       </c>
-      <c r="R88" s="59"/>
-      <c r="S88" s="33">
+      <c r="S88" s="59"/>
+      <c r="T88" s="33">
         <v>10</v>
       </c>
-      <c r="U88" s="94"/>
-    </row>
-    <row r="89" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V88" s="94"/>
+    </row>
+    <row r="89" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="33" t="s">
         <v>374</v>
       </c>
@@ -10217,7 +10421,7 @@
         <v>347</v>
       </c>
       <c r="C89" s="64">
-        <f t="shared" ref="C89:C92" si="4">D88+0.01</f>
+        <f t="shared" ref="C89:C92" si="5">D88+0.01</f>
         <v>1800.01</v>
       </c>
       <c r="D89" s="64">
@@ -10255,16 +10459,17 @@
         <v>9</v>
       </c>
       <c r="P89" s="64"/>
-      <c r="Q89" s="33">
+      <c r="Q89" s="64"/>
+      <c r="R89" s="33">
         <v>1500</v>
       </c>
-      <c r="R89" s="59"/>
-      <c r="S89" s="33">
+      <c r="S89" s="59"/>
+      <c r="T89" s="33">
         <v>10</v>
       </c>
-      <c r="U89" s="94"/>
-    </row>
-    <row r="90" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V89" s="94"/>
+    </row>
+    <row r="90" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
         <v>375</v>
       </c>
@@ -10272,7 +10477,7 @@
         <v>347</v>
       </c>
       <c r="C90" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2600.0100000000002</v>
       </c>
       <c r="D90" s="64">
@@ -10310,16 +10515,17 @@
         <v>9</v>
       </c>
       <c r="P90" s="64"/>
-      <c r="Q90" s="33">
+      <c r="Q90" s="64"/>
+      <c r="R90" s="33">
         <v>3000</v>
       </c>
-      <c r="R90" s="59"/>
-      <c r="S90" s="33">
+      <c r="S90" s="59"/>
+      <c r="T90" s="33">
         <v>10</v>
       </c>
-      <c r="U90" s="94"/>
-    </row>
-    <row r="91" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V90" s="94"/>
+    </row>
+    <row r="91" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
         <v>376</v>
       </c>
@@ -10327,7 +10533,7 @@
         <v>347</v>
       </c>
       <c r="C91" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3600.01</v>
       </c>
       <c r="D91" s="64">
@@ -10365,16 +10571,17 @@
         <v>9</v>
       </c>
       <c r="P91" s="64"/>
-      <c r="Q91" s="33">
+      <c r="Q91" s="64"/>
+      <c r="R91" s="33">
         <v>3000</v>
       </c>
-      <c r="R91" s="59"/>
-      <c r="S91" s="33">
+      <c r="S91" s="59"/>
+      <c r="T91" s="33">
         <v>10</v>
       </c>
-      <c r="U91" s="94"/>
-    </row>
-    <row r="92" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V91" s="94"/>
+    </row>
+    <row r="92" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>377</v>
       </c>
@@ -10382,7 +10589,7 @@
         <v>347</v>
       </c>
       <c r="C92" s="64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3600.01</v>
       </c>
       <c r="D92" s="64">
@@ -10420,16 +10627,17 @@
         <v>10</v>
       </c>
       <c r="P92" s="64"/>
-      <c r="Q92" s="33">
+      <c r="Q92" s="64"/>
+      <c r="R92" s="33">
         <v>3000</v>
       </c>
-      <c r="R92" s="59"/>
-      <c r="S92" s="33">
+      <c r="S92" s="59"/>
+      <c r="T92" s="33">
         <v>10</v>
       </c>
-      <c r="U92" s="94"/>
-    </row>
-    <row r="93" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="V92" s="94"/>
+    </row>
+    <row r="93" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
         <v>378</v>
       </c>
@@ -10437,7 +10645,7 @@
         <v>347</v>
       </c>
       <c r="C93" s="64">
-        <f t="shared" ref="C93" si="5">D92+0.01</f>
+        <f t="shared" ref="C93" si="6">D92+0.01</f>
         <v>4800.01</v>
       </c>
       <c r="D93" s="64">
@@ -10475,30 +10683,37 @@
         <v>9</v>
       </c>
       <c r="P93" s="64"/>
-      <c r="Q93" s="33">
+      <c r="Q93" s="64"/>
+      <c r="R93" s="33">
         <v>2500</v>
       </c>
-      <c r="R93" s="59"/>
-      <c r="S93" s="33">
+      <c r="S93" s="59"/>
+      <c r="T93" s="33">
         <v>10</v>
       </c>
-      <c r="U93" s="94"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V93" s="94"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H94" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N94" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H94" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N94" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>379</v>
       </c>
@@ -10506,8 +10721,7 @@
         <v>347</v>
       </c>
       <c r="C95" s="1">
-        <f>D94+0.01</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>170</v>
@@ -10542,16 +10756,16 @@
       <c r="O95" s="1">
         <v>8</v>
       </c>
-      <c r="Q95" s="1"/>
-      <c r="R95" s="6" t="s">
+      <c r="R95" s="1"/>
+      <c r="S95" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="S95" s="1"/>
-      <c r="U95" s="93">
+      <c r="T95" s="1"/>
+      <c r="V95" s="93">
         <v>418</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>381</v>
       </c>
@@ -10595,16 +10809,16 @@
       <c r="O96" s="1">
         <v>8</v>
       </c>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="6" t="s">
+      <c r="R96" s="1"/>
+      <c r="S96" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="S96" s="1"/>
-      <c r="U96" s="93">
+      <c r="T96" s="1"/>
+      <c r="V96" s="93">
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>383</v>
       </c>
@@ -10648,13 +10862,13 @@
       <c r="O97" s="1">
         <v>7</v>
       </c>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="6" t="s">
+      <c r="R97" s="1"/>
+      <c r="S97" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>385</v>
       </c>
@@ -10698,26 +10912,32 @@
       <c r="O98" s="1">
         <v>5</v>
       </c>
-      <c r="R98" s="6" t="s">
+      <c r="S98" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="U98" s="143"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="V98" s="142"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H99" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N99" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C99" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H99" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N99" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -10725,8 +10945,7 @@
         <v>347</v>
       </c>
       <c r="C100" s="1">
-        <f>D99+0.01</f>
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D100" s="6">
         <v>250</v>
@@ -10761,14 +10980,14 @@
       <c r="O100" s="1">
         <v>8</v>
       </c>
-      <c r="Q100">
+      <c r="R100">
         <v>750</v>
       </c>
-      <c r="S100">
+      <c r="T100">
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>389</v>
       </c>
@@ -10812,20 +11031,20 @@
       <c r="O101" s="1">
         <v>8</v>
       </c>
-      <c r="Q101">
+      <c r="R101">
         <v>750</v>
       </c>
-      <c r="R101" s="6" t="s">
+      <c r="S101" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="S101">
+      <c r="T101">
         <v>20</v>
       </c>
-      <c r="U101" s="93">
+      <c r="V101" s="93">
         <v>1481.78</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>391</v>
       </c>
@@ -10869,14 +11088,14 @@
       <c r="O102" s="1">
         <v>8</v>
       </c>
-      <c r="Q102">
+      <c r="R102">
         <v>750</v>
       </c>
-      <c r="S102">
+      <c r="T102">
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>392</v>
       </c>
@@ -10920,28 +11139,34 @@
       <c r="O103" s="1">
         <v>8</v>
       </c>
-      <c r="Q103">
+      <c r="R103">
         <v>750</v>
       </c>
-      <c r="S103">
+      <c r="T103">
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H104" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N104" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C104" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H104" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N104" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>387</v>
       </c>
@@ -10984,14 +11209,14 @@
       <c r="O105" s="1">
         <v>8</v>
       </c>
-      <c r="Q105">
+      <c r="R105">
         <v>750</v>
       </c>
-      <c r="S105">
+      <c r="T105">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>389</v>
       </c>
@@ -10999,7 +11224,7 @@
         <v>347</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ref="C106:C114" si="6">D105+0.01</f>
+        <f t="shared" ref="C106:C114" si="7">D105+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D106" s="6">
@@ -11035,14 +11260,14 @@
       <c r="O106" s="1">
         <v>8</v>
       </c>
-      <c r="Q106">
+      <c r="R106">
         <v>750</v>
       </c>
-      <c r="S106">
+      <c r="T106">
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>393</v>
       </c>
@@ -11050,7 +11275,7 @@
         <v>347</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>400.01</v>
       </c>
       <c r="D107" s="6">
@@ -11086,14 +11311,14 @@
       <c r="O107" s="1">
         <v>8</v>
       </c>
-      <c r="Q107">
+      <c r="R107">
         <v>750</v>
       </c>
-      <c r="S107">
+      <c r="T107">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>394</v>
       </c>
@@ -11101,7 +11326,7 @@
         <v>347</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>450.01</v>
       </c>
       <c r="D108" s="6">
@@ -11137,14 +11362,14 @@
       <c r="O108" s="1">
         <v>8</v>
       </c>
-      <c r="Q108">
+      <c r="R108">
         <v>750</v>
       </c>
-      <c r="S108">
+      <c r="T108">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>391</v>
       </c>
@@ -11152,7 +11377,7 @@
         <v>347</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>500.01</v>
       </c>
       <c r="D109" s="6">
@@ -11188,14 +11413,14 @@
       <c r="O109" s="1">
         <v>8</v>
       </c>
-      <c r="Q109">
+      <c r="R109">
         <v>750</v>
       </c>
-      <c r="S109">
+      <c r="T109">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>395</v>
       </c>
@@ -11203,7 +11428,7 @@
         <v>347</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>550.01</v>
       </c>
       <c r="D110" s="6">
@@ -11239,14 +11464,14 @@
       <c r="O110" s="1">
         <v>8</v>
       </c>
-      <c r="Q110">
+      <c r="R110">
         <v>750</v>
       </c>
-      <c r="S110">
+      <c r="T110">
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>392</v>
       </c>
@@ -11254,7 +11479,7 @@
         <v>347</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>550.01</v>
       </c>
       <c r="D111" s="6">
@@ -11290,14 +11515,14 @@
       <c r="O111" s="1">
         <v>8</v>
       </c>
-      <c r="Q111">
+      <c r="R111">
         <v>750</v>
       </c>
-      <c r="S111">
+      <c r="T111">
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>396</v>
       </c>
@@ -11305,7 +11530,7 @@
         <v>347</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>750.01</v>
       </c>
       <c r="D112" s="6">
@@ -11341,14 +11566,14 @@
       <c r="O112" s="1">
         <v>8</v>
       </c>
-      <c r="Q112">
+      <c r="R112">
         <v>750</v>
       </c>
-      <c r="S112">
+      <c r="T112">
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>397</v>
       </c>
@@ -11356,7 +11581,7 @@
         <v>347</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>750.01</v>
       </c>
       <c r="D113" s="6">
@@ -11392,14 +11617,14 @@
       <c r="O113" s="1">
         <v>8</v>
       </c>
-      <c r="Q113">
+      <c r="R113">
         <v>750</v>
       </c>
-      <c r="S113">
+      <c r="T113">
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>398</v>
       </c>
@@ -11407,7 +11632,7 @@
         <v>347</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1000.01</v>
       </c>
       <c r="D114" s="6">
@@ -11443,28 +11668,34 @@
       <c r="O114" s="1">
         <v>8</v>
       </c>
-      <c r="Q114">
+      <c r="R114">
         <v>750</v>
       </c>
-      <c r="S114">
+      <c r="T114">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H115" s="151" t="s">
-        <v>563</v>
-      </c>
-      <c r="N115" s="151" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C115" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H115" s="150" t="s">
+        <v>557</v>
+      </c>
+      <c r="N115" s="150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>399</v>
       </c>
@@ -11507,20 +11738,20 @@
       <c r="O116" s="1">
         <v>11</v>
       </c>
-      <c r="Q116">
+      <c r="R116">
         <v>850</v>
       </c>
-      <c r="R116" s="6" t="s">
+      <c r="S116" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="S116">
+      <c r="T116">
         <v>20</v>
       </c>
-      <c r="U116" s="93">
+      <c r="V116" s="93">
         <v>624.37</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>399</v>
       </c>
@@ -11564,14 +11795,14 @@
       <c r="O117" s="1">
         <v>11</v>
       </c>
-      <c r="Q117">
+      <c r="R117">
         <v>850</v>
       </c>
-      <c r="S117">
+      <c r="T117">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>402</v>
       </c>
@@ -11579,7 +11810,7 @@
         <v>347</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ref="C118:C124" si="7">D117+0.01</f>
+        <f t="shared" ref="C118:C124" si="8">D117+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D118" s="6">
@@ -11615,14 +11846,14 @@
       <c r="O118" s="1">
         <v>11</v>
       </c>
-      <c r="Q118">
+      <c r="R118">
         <v>1100</v>
       </c>
-      <c r="S118">
+      <c r="T118">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>403</v>
       </c>
@@ -11630,7 +11861,7 @@
         <v>347</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>400.01</v>
       </c>
       <c r="D119" s="6">
@@ -11666,14 +11897,14 @@
       <c r="O119" s="1">
         <v>11</v>
       </c>
-      <c r="Q119">
+      <c r="R119">
         <v>1100</v>
       </c>
-      <c r="S119">
+      <c r="T119">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>404</v>
       </c>
@@ -11681,7 +11912,7 @@
         <v>347</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>400.01</v>
       </c>
       <c r="D120" s="6">
@@ -11717,14 +11948,14 @@
       <c r="O120" s="1">
         <v>11</v>
       </c>
-      <c r="Q120">
+      <c r="R120">
         <v>1100</v>
       </c>
-      <c r="S120">
+      <c r="T120">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>405</v>
       </c>
@@ -11732,7 +11963,7 @@
         <v>347</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>550.01</v>
       </c>
       <c r="D121" s="6">
@@ -11768,14 +11999,14 @@
       <c r="O121" s="1">
         <v>11</v>
       </c>
-      <c r="Q121">
+      <c r="R121">
         <v>1500</v>
       </c>
-      <c r="S121">
+      <c r="T121">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>406</v>
       </c>
@@ -11783,7 +12014,7 @@
         <v>347</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>550.01</v>
       </c>
       <c r="D122" s="6">
@@ -11819,14 +12050,14 @@
       <c r="O122" s="1">
         <v>12</v>
       </c>
-      <c r="Q122">
+      <c r="R122">
         <v>2000</v>
       </c>
-      <c r="S122">
+      <c r="T122">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>407</v>
       </c>
@@ -11834,7 +12065,7 @@
         <v>347</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>750.01</v>
       </c>
       <c r="D123" s="6">
@@ -11870,14 +12101,14 @@
       <c r="O123" s="1">
         <v>11</v>
       </c>
-      <c r="Q123">
+      <c r="R123">
         <v>3000</v>
       </c>
-      <c r="S123">
+      <c r="T123">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>407</v>
       </c>
@@ -11885,7 +12116,7 @@
         <v>347</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1000.01</v>
       </c>
       <c r="D124" s="6">
@@ -11921,28 +12152,26 @@
       <c r="O124" s="1">
         <v>10</v>
       </c>
-      <c r="Q124">
+      <c r="R124">
         <v>750</v>
       </c>
-      <c r="S124">
+      <c r="T124">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>291</v>
       </c>
+      <c r="C125" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S125" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="-"/>
-        <filter val="GFA"/>
-        <filter val="Simu"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T125" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11957,7 +12186,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:R54"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12025,7 +12254,7 @@
         <v>418</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="O1" s="60" t="s">
         <v>419</v>
@@ -12036,7 +12265,7 @@
       <c r="Q1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="R1" s="160" t="s">
+      <c r="R1" s="158" t="s">
         <v>421</v>
       </c>
     </row>
@@ -12090,13 +12319,13 @@
       <c r="O4" s="6">
         <v>77.16</v>
       </c>
-      <c r="P4" s="161">
+      <c r="P4" s="6">
         <v>230</v>
       </c>
-      <c r="Q4" s="162">
+      <c r="Q4" s="1">
         <v>25.4</v>
       </c>
-      <c r="R4" s="161">
+      <c r="R4" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -12150,11 +12379,11 @@
       <c r="O5" s="6">
         <v>61.09</v>
       </c>
-      <c r="P5" s="161">
+      <c r="P5" s="6">
         <v>230</v>
       </c>
-      <c r="Q5" s="162"/>
-      <c r="R5" s="161">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -12176,9 +12405,9 @@
       <c r="O6" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="P6" s="163"/>
-      <c r="Q6" s="163"/>
-      <c r="R6" s="163"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
@@ -12224,19 +12453,19 @@
         <v>40</v>
       </c>
       <c r="N7" s="83">
-        <f t="shared" ref="N6:N20" si="0">M7/F7</f>
+        <f t="shared" ref="N7:N27" si="0">M7/F7</f>
         <v>13.333333333333334</v>
       </c>
       <c r="O7" s="6">
         <v>77.16</v>
       </c>
-      <c r="P7" s="161">
+      <c r="P7" s="6">
         <v>230</v>
       </c>
-      <c r="Q7" s="162">
+      <c r="Q7" s="1">
         <v>25.4</v>
       </c>
-      <c r="R7" s="161">
+      <c r="R7" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -12290,13 +12519,13 @@
       <c r="O8" s="6">
         <v>61.09</v>
       </c>
-      <c r="P8" s="161">
+      <c r="P8" s="6">
         <v>230</v>
       </c>
-      <c r="Q8" s="162">
+      <c r="Q8" s="1">
         <v>25.4</v>
       </c>
-      <c r="R8" s="161">
+      <c r="R8" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -12318,9 +12547,9 @@
       <c r="O9" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
@@ -12372,13 +12601,13 @@
       <c r="O10" s="6">
         <v>77.16</v>
       </c>
-      <c r="P10" s="161">
+      <c r="P10" s="6">
         <v>230</v>
       </c>
-      <c r="Q10" s="162">
+      <c r="Q10" s="1">
         <v>25.4</v>
       </c>
-      <c r="R10" s="161">
+      <c r="R10" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -12432,13 +12661,13 @@
       <c r="O11" s="6">
         <v>61.09</v>
       </c>
-      <c r="P11" s="161">
+      <c r="P11" s="6">
         <v>230</v>
       </c>
-      <c r="Q11" s="162">
+      <c r="Q11" s="1">
         <v>25.4</v>
       </c>
-      <c r="R11" s="161">
+      <c r="R11" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -12460,48 +12689,48 @@
       <c r="O12" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="P12" s="163"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="163"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="59">
-        <v>19</v>
-      </c>
-      <c r="C13" s="59">
+      <c r="A13" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B13" s="83">
+        <v>15</v>
+      </c>
+      <c r="C13" s="83">
         <v>25.4</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="83">
         <v>57</v>
       </c>
-      <c r="E13" s="59">
+      <c r="E13" s="83">
         <v>30</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="87">
         <f t="shared" ref="F13:F15" si="7">D13/B13</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="59" t="s">
+        <v>3.8</v>
+      </c>
+      <c r="G13" s="83" t="s">
         <v>423</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="83">
         <v>150</v>
       </c>
-      <c r="I13" s="98">
+      <c r="I13" s="85">
         <f>H13*F13</f>
-        <v>450</v>
-      </c>
-      <c r="J13" s="59">
+        <v>570</v>
+      </c>
+      <c r="J13" s="83">
         <v>48</v>
       </c>
-      <c r="K13" s="97">
+      <c r="K13" s="87">
         <f>J13/F13</f>
-        <v>16</v>
-      </c>
-      <c r="L13" s="59">
+        <v>12.631578947368421</v>
+      </c>
+      <c r="L13" s="83">
         <v>415</v>
       </c>
       <c r="M13" s="83">
@@ -12509,27 +12738,27 @@
       </c>
       <c r="N13" s="83">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="O13" s="6">
         <v>77.16</v>
       </c>
-      <c r="P13" s="161">
+      <c r="P13" s="6">
         <v>230</v>
       </c>
-      <c r="Q13" s="162">
+      <c r="Q13" s="1">
         <v>25.4</v>
       </c>
-      <c r="R13" s="161">
+      <c r="R13" s="6">
         <v>18000</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
-        <v>430</v>
+        <v>585</v>
       </c>
       <c r="B14" s="83">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" s="83">
         <v>25.4</v>
@@ -12542,24 +12771,24 @@
       </c>
       <c r="F14" s="87">
         <f t="shared" si="7"/>
-        <v>3.1666666666666665</v>
+        <v>3.8</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H14" s="83">
         <v>150</v>
       </c>
       <c r="I14" s="85">
         <f>H14*F14</f>
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="J14" s="83">
         <v>48</v>
       </c>
       <c r="K14" s="87">
         <f t="shared" ref="K14" si="8">J14/F14</f>
-        <v>15.157894736842106</v>
+        <v>12.631578947368421</v>
       </c>
       <c r="L14" s="83">
         <v>415</v>
@@ -12569,24 +12798,24 @@
       </c>
       <c r="N14" s="83">
         <f t="shared" si="0"/>
-        <v>12.631578947368421</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="O14" s="6">
         <v>91.42</v>
       </c>
-      <c r="P14" s="161">
+      <c r="P14" s="6">
         <v>288</v>
       </c>
-      <c r="Q14" s="162">
+      <c r="Q14" s="1">
         <v>25.4</v>
       </c>
-      <c r="R14" s="161">
+      <c r="R14" s="6">
         <v>22400</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B15" s="83">
         <v>12</v>
@@ -12605,7 +12834,7 @@
         <v>4.75</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H15" s="83">
         <v>150</v>
@@ -12634,13 +12863,13 @@
       <c r="O15" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="P15" s="161">
+      <c r="P15" s="6">
         <v>288</v>
       </c>
-      <c r="Q15" s="162">
+      <c r="Q15" s="1">
         <v>25.4</v>
       </c>
-      <c r="R15" s="161">
+      <c r="R15" s="6">
         <v>22400</v>
       </c>
     </row>
@@ -12662,19 +12891,19 @@
       <c r="O16" s="73" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="163"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="163"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B17" s="6">
         <v>18</v>
       </c>
       <c r="C17" s="6">
-        <v>25.4</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6">
         <v>57</v>
@@ -12687,7 +12916,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H17" s="6">
         <v>220</v>
@@ -12716,25 +12945,25 @@
       <c r="O17" s="6">
         <v>91.42</v>
       </c>
-      <c r="P17" s="161">
+      <c r="P17" s="6">
         <v>288</v>
       </c>
-      <c r="Q17" s="162">
+      <c r="Q17" s="1">
         <v>25.4</v>
       </c>
-      <c r="R17" s="161">
+      <c r="R17" s="6">
         <v>22400</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B18" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" s="6">
-        <v>25.4</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6">
         <v>57</v>
@@ -12744,24 +12973,24 @@
       </c>
       <c r="F18" s="86">
         <f>D18/B18</f>
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H18" s="6">
         <v>220</v>
       </c>
       <c r="I18" s="84">
         <f>H18*F18</f>
-        <v>1045</v>
+        <v>836</v>
       </c>
       <c r="J18" s="6">
         <v>24</v>
       </c>
       <c r="K18" s="86">
         <f>J18/F18</f>
-        <v>5.0526315789473681</v>
+        <v>6.3157894736842106</v>
       </c>
       <c r="L18" s="6">
         <v>415</v>
@@ -12771,24 +13000,24 @@
       </c>
       <c r="N18" s="83">
         <f t="shared" si="0"/>
-        <v>8.4210526315789469</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="O18" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="P18" s="161">
+      <c r="P18" s="6">
         <v>288</v>
       </c>
-      <c r="Q18" s="162">
+      <c r="Q18" s="1">
         <v>25.4</v>
       </c>
-      <c r="R18" s="161">
+      <c r="R18" s="6">
         <v>22400</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="68" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" s="83">
         <v>19</v>
@@ -12807,7 +13036,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H19" s="83">
         <v>220</v>
@@ -12836,19 +13065,19 @@
       <c r="O19" s="6">
         <v>115.75</v>
       </c>
-      <c r="P19" s="161">
+      <c r="P19" s="6">
         <v>345.81</v>
       </c>
-      <c r="Q19" s="162">
+      <c r="Q19" s="1">
         <v>25.4</v>
       </c>
-      <c r="R19" s="161">
+      <c r="R19" s="6">
         <v>22400</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="68" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B20" s="83">
         <v>12</v>
@@ -12867,7 +13096,7 @@
         <v>4.75</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H20" s="83">
         <v>220</v>
@@ -12896,13 +13125,13 @@
       <c r="O20" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="P20" s="161">
+      <c r="P20" s="6">
         <v>345.81</v>
       </c>
-      <c r="Q20" s="162">
+      <c r="Q20" s="1">
         <v>25.4</v>
       </c>
-      <c r="R20" s="161">
+      <c r="R20" s="6">
         <v>22400</v>
       </c>
     </row>
@@ -12910,69 +13139,72 @@
       <c r="F21" s="86"/>
       <c r="I21" s="84"/>
       <c r="K21" s="86"/>
+      <c r="N21" s="161"/>
       <c r="O21" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="136" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="160" t="s">
+        <v>435</v>
+      </c>
+      <c r="B22" s="59">
         <v>19</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="59">
         <v>40</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="59">
         <v>57</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="59">
         <v>40</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="97">
         <f t="shared" ref="F22:F28" si="9">D22/B22</f>
         <v>3</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" s="64">
         <v>200</v>
       </c>
-      <c r="I22" s="84">
+      <c r="I22" s="98">
         <f t="shared" ref="I22:I28" si="10">H22*F22</f>
         <v>600</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="64">
         <v>24</v>
       </c>
-      <c r="K22" s="86">
+      <c r="K22" s="97">
         <f t="shared" ref="K22:K28" si="11">J22/F22</f>
         <v>8</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="L22" s="59">
+        <v>415</v>
+      </c>
+      <c r="M22" s="33"/>
+      <c r="N22" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="59">
         <v>115.75</v>
       </c>
-      <c r="P22" s="161">
+      <c r="P22" s="59">
         <v>345.81</v>
       </c>
-      <c r="Q22" s="161">
+      <c r="Q22" s="59">
         <v>40</v>
       </c>
-      <c r="R22" s="161">
+      <c r="R22" s="59">
         <v>29000</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B23" s="6">
         <v>19</v>
@@ -12991,7 +13223,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H23" s="6">
         <v>300</v>
@@ -13007,25 +13239,29 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>438</v>
+      <c r="L23" s="6">
+        <v>415</v>
+      </c>
+      <c r="N23" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O23" s="6">
         <v>115.75</v>
       </c>
-      <c r="P23" s="161">
+      <c r="P23" s="6">
         <v>345.81</v>
       </c>
-      <c r="Q23" s="161">
+      <c r="Q23" s="6">
         <v>40</v>
       </c>
-      <c r="R23" s="161">
+      <c r="R23" s="6">
         <v>29000</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B24" s="6">
         <v>19</v>
@@ -13044,7 +13280,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H24" s="6">
         <v>400</v>
@@ -13060,25 +13296,29 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>438</v>
+      <c r="L24" s="6">
+        <v>415</v>
+      </c>
+      <c r="N24" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O24" s="6">
         <v>192.91</v>
       </c>
-      <c r="P24" s="161">
+      <c r="P24" s="6">
         <v>461</v>
       </c>
-      <c r="Q24" s="161">
+      <c r="Q24" s="6">
         <v>40</v>
       </c>
-      <c r="R24" s="161">
+      <c r="R24" s="6">
         <v>60000</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="136" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B25" s="6">
         <v>15</v>
@@ -13097,7 +13337,7 @@
         <v>3.8</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H25" s="6">
         <v>400</v>
@@ -13113,25 +13353,29 @@
         <f t="shared" ref="K25" si="14">J25/F25</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>438</v>
+      <c r="L25" s="6">
+        <v>415</v>
+      </c>
+      <c r="N25" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O25" s="6">
         <v>192.91</v>
       </c>
-      <c r="P25" s="161">
+      <c r="P25" s="6">
         <v>461</v>
       </c>
-      <c r="Q25" s="161">
+      <c r="Q25" s="6">
         <v>40</v>
       </c>
-      <c r="R25" s="161">
+      <c r="R25" s="6">
         <v>60000</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B26" s="6">
         <v>19</v>
@@ -13150,7 +13394,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H26" s="6">
         <v>600</v>
@@ -13166,25 +13410,29 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>438</v>
+      <c r="L26" s="6">
+        <v>415</v>
+      </c>
+      <c r="N26" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O26" s="6">
         <v>192.91</v>
       </c>
-      <c r="P26" s="161">
+      <c r="P26" s="6">
         <v>461</v>
       </c>
-      <c r="Q26" s="161">
+      <c r="Q26" s="6">
         <v>40</v>
       </c>
-      <c r="R26" s="161">
+      <c r="R26" s="6">
         <v>60000</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B27" s="6">
         <v>15</v>
@@ -13203,7 +13451,7 @@
         <v>3.8</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H27" s="6">
         <v>800</v>
@@ -13219,23 +13467,26 @@
         <f t="shared" si="11"/>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>438</v>
+      <c r="L27" s="6">
+        <v>415</v>
+      </c>
+      <c r="N27" s="83">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="O27" s="6">
         <v>152.72</v>
       </c>
-      <c r="P27" s="161">
+      <c r="P27" s="6">
         <v>576</v>
       </c>
-      <c r="Q27" s="161">
+      <c r="Q27" s="6">
         <v>40</v>
       </c>
-      <c r="R27" s="161"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B28" s="59">
         <v>15</v>
@@ -13254,7 +13505,7 @@
         <v>3.8</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H28" s="59">
         <v>1200</v>
@@ -13271,39 +13522,24 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
       <c r="O28" s="59">
         <v>152.72</v>
       </c>
-      <c r="P28" s="164">
+      <c r="P28" s="59">
         <v>576</v>
       </c>
-      <c r="Q28" s="164">
+      <c r="Q28" s="59">
         <v>40</v>
       </c>
-      <c r="R28" s="164"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P29" s="161"/>
-      <c r="Q29" s="161"/>
-      <c r="R29" s="161"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P30" s="161"/>
-      <c r="Q30" s="161"/>
-      <c r="R30" s="161"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="161"/>
+      <c r="R28" s="59"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B32" s="6">
         <v>11</v>
@@ -13338,11 +13574,10 @@
       <c r="L32" s="6">
         <v>415</v>
       </c>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="162">
+      <c r="Q32" s="1">
         <v>25.4</v>
       </c>
-      <c r="R32" s="161">
+      <c r="R32" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -13361,7 +13596,7 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H33" s="1">
         <v>62</v>
@@ -13380,9 +13615,7 @@
       <c r="L33" s="6">
         <v>415</v>
       </c>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="161">
+      <c r="R33" s="6">
         <v>22400</v>
       </c>
     </row>
@@ -13401,7 +13634,7 @@
         <v>6.4</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H34" s="1">
         <v>95</v>
@@ -13420,15 +13653,13 @@
       <c r="L34" s="6">
         <v>415</v>
       </c>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161">
+      <c r="R34" s="6">
         <v>22400</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B35" s="6">
         <v>9</v>
@@ -13441,7 +13672,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H35" s="6">
         <v>128</v>
@@ -13460,15 +13691,13 @@
       <c r="L35" s="6">
         <v>415</v>
       </c>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="161">
+      <c r="R35" s="6">
         <v>29000</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="6">
         <v>11</v>
@@ -13481,7 +13710,7 @@
         <v>4.3636363636363633</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H36" s="6">
         <v>369</v>
@@ -13500,13 +13729,10 @@
       <c r="L36" s="6">
         <v>415</v>
       </c>
-      <c r="P36" s="161"/>
-      <c r="Q36" s="161"/>
-      <c r="R36" s="161"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B37" s="6">
         <v>14</v>
@@ -13538,22 +13764,16 @@
       <c r="L37" s="6">
         <v>415</v>
       </c>
-      <c r="P37" s="161"/>
-      <c r="Q37" s="162">
+      <c r="Q37" s="1">
         <v>25.4</v>
       </c>
-      <c r="R37" s="161">
+      <c r="R37" s="6">
         <v>18000</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="P38" s="161"/>
-      <c r="Q38" s="161"/>
-      <c r="R38" s="161"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B39" s="6">
         <v>19</v>
@@ -13588,11 +13808,10 @@
       <c r="L39" s="6">
         <v>230</v>
       </c>
-      <c r="P39" s="161"/>
-      <c r="Q39" s="162">
+      <c r="Q39" s="1">
         <v>25.4</v>
       </c>
-      <c r="R39" s="161">
+      <c r="R39" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -13633,11 +13852,10 @@
       <c r="L40" s="6">
         <v>230</v>
       </c>
-      <c r="P40" s="161"/>
-      <c r="Q40" s="162">
+      <c r="Q40" s="1">
         <v>25.4</v>
       </c>
-      <c r="R40" s="161">
+      <c r="R40" s="6">
         <v>18000</v>
       </c>
     </row>
@@ -13678,24 +13896,20 @@
       <c r="L41" s="6">
         <v>230</v>
       </c>
-      <c r="P41" s="161"/>
-      <c r="Q41" s="162">
+      <c r="Q41" s="1">
         <v>25.4</v>
       </c>
-      <c r="R41" s="161">
+      <c r="R41" s="6">
         <v>18000</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F42" s="86"/>
       <c r="K42" s="86"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B43" s="6">
         <v>19</v>
@@ -13730,17 +13944,16 @@
       <c r="L43" s="6">
         <v>415</v>
       </c>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="162">
+      <c r="Q43" s="1">
         <v>25.4</v>
       </c>
-      <c r="R43" s="161">
+      <c r="R43" s="6">
         <v>18000</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B44" s="6">
         <v>15</v>
@@ -13775,24 +13988,20 @@
       <c r="L44" s="6">
         <v>415</v>
       </c>
-      <c r="P44" s="161"/>
-      <c r="Q44" s="162">
+      <c r="Q44" s="1">
         <v>25.4</v>
       </c>
-      <c r="R44" s="161">
+      <c r="R44" s="6">
         <v>18000</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="F45" s="86"/>
       <c r="K45" s="86"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="161"/>
-      <c r="R45" s="161"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B46" s="6">
         <v>19</v>
@@ -13830,24 +14039,19 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162">
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1">
         <v>25.4</v>
       </c>
-      <c r="R46" s="161">
+      <c r="R46" s="6">
         <v>18000</v>
       </c>
       <c r="T46" s="6"/>
       <c r="W46" s="93"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="P47" s="161"/>
-      <c r="Q47" s="161"/>
-      <c r="R47" s="161"/>
-    </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B48" s="6">
         <v>15</v>
@@ -13860,7 +14064,7 @@
         <v>3.8</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H48" s="6">
         <v>200</v>
@@ -13879,17 +14083,16 @@
       <c r="L48" s="6">
         <v>415</v>
       </c>
-      <c r="P48" s="161"/>
-      <c r="Q48" s="161">
+      <c r="Q48" s="6">
         <v>40</v>
       </c>
-      <c r="R48" s="161">
+      <c r="R48" s="6">
         <v>22400</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B49" s="6">
         <v>15</v>
@@ -13902,7 +14105,7 @@
         <v>3.8</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H49" s="6">
         <v>300</v>
@@ -13921,17 +14124,16 @@
       <c r="L49" s="6">
         <v>415</v>
       </c>
-      <c r="P49" s="161"/>
-      <c r="Q49" s="161">
+      <c r="Q49" s="6">
         <v>40</v>
       </c>
-      <c r="R49" s="161">
+      <c r="R49" s="6">
         <v>29000</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B50" s="6">
         <v>15</v>
@@ -13944,7 +14146,7 @@
         <v>3.8</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H50" s="6">
         <v>400</v>
@@ -13963,17 +14165,16 @@
       <c r="L50" s="6">
         <v>415</v>
       </c>
-      <c r="P50" s="161"/>
-      <c r="Q50" s="161">
+      <c r="Q50" s="6">
         <v>40</v>
       </c>
-      <c r="R50" s="161">
+      <c r="R50" s="6">
         <v>29000</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B51" s="6">
         <v>15</v>
@@ -14002,15 +14203,13 @@
       <c r="L51" s="6">
         <v>415</v>
       </c>
-      <c r="P51" s="161"/>
-      <c r="Q51" s="161">
+      <c r="Q51" s="6">
         <v>55</v>
       </c>
-      <c r="R51" s="161"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B52" s="6">
         <v>15</v>
@@ -14039,15 +14238,13 @@
       <c r="L52" s="6">
         <v>415</v>
       </c>
-      <c r="P52" s="161"/>
-      <c r="Q52" s="161">
+      <c r="Q52" s="6">
         <v>55</v>
       </c>
-      <c r="R52" s="161"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B53" s="6">
         <v>15</v>
@@ -14094,10 +14291,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BBB0E4-3072-46AD-B687-93FC8399DD89}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14111,36 +14308,39 @@
     <col min="7" max="7" width="15.54296875" style="6" customWidth="1"/>
     <col min="8" max="8" width="18.54296875" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="6"/>
-    <col min="10" max="10" width="20.81640625" customWidth="1"/>
+    <col min="10" max="10" width="20.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>468</v>
+      <c r="J1" s="9" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -14173,8 +14373,8 @@
         <f>D2/B2</f>
         <v>4.75</v>
       </c>
-      <c r="J2" s="138" t="s">
-        <v>469</v>
+      <c r="J2" s="137">
+        <v>230.54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -14207,8 +14407,8 @@
         <f>D3/B3</f>
         <v>3.8</v>
       </c>
-      <c r="J3" s="138" t="s">
-        <v>469</v>
+      <c r="J3" s="137">
+        <v>230.54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -14241,13 +14441,13 @@
         <f t="shared" ref="I4:I7" si="0">D4/B4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="138" t="s">
-        <v>469</v>
+      <c r="J4" s="137">
+        <v>230.54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="139" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B5" s="140">
         <v>12</v>
@@ -14259,7 +14459,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F5" s="140">
         <v>22400</v>
@@ -14275,13 +14475,13 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="J5" s="142" t="s">
-        <v>471</v>
+      <c r="J5" s="140">
+        <v>288.18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="139" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B6" s="140">
         <v>18</v>
@@ -14293,7 +14493,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="140" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F6" s="140">
         <v>22400</v>
@@ -14309,13 +14509,13 @@
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="J6" s="142" t="s">
-        <v>471</v>
+      <c r="J6" s="140">
+        <v>288.18</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B7" s="6">
         <v>12</v>
@@ -14327,7 +14527,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F7" s="6">
         <v>29000</v>
@@ -14343,13 +14543,13 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="J7" t="s">
-        <v>473</v>
+      <c r="J7" s="6">
+        <v>345.81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B8" s="6">
         <v>12</v>
@@ -14361,7 +14561,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F8" s="6">
         <v>29000</v>
@@ -14377,13 +14577,13 @@
         <f t="shared" ref="I8" si="1">D8/B8</f>
         <v>4.75</v>
       </c>
-      <c r="J8" t="s">
-        <v>473</v>
+      <c r="J8" s="6">
+        <v>345.81</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B9" s="6">
         <v>15</v>
@@ -14395,7 +14595,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F9" s="6">
         <v>29000</v>
@@ -14411,78 +14611,83 @@
         <f>D9/B9</f>
         <v>3.8</v>
       </c>
-      <c r="J9" t="s">
-        <v>473</v>
+      <c r="J9" s="6">
+        <v>345.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F10" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G10">
+        <v>25.4</v>
+      </c>
+      <c r="H10" s="6">
+        <v>60000</v>
+      </c>
+      <c r="I10" s="6">
+        <f>D10/B10</f>
+        <v>3.8</v>
+      </c>
+      <c r="J10" s="6">
+        <v>461.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="6">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6">
+        <v>55</v>
+      </c>
+      <c r="D11" s="6">
+        <v>57</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F11" s="6">
+        <v>95000</v>
+      </c>
+      <c r="G11">
+        <f>1.25*25.4</f>
+        <v>31.75</v>
+      </c>
+      <c r="H11" s="6">
+        <v>95000</v>
+      </c>
+      <c r="I11" s="6">
+        <f>D11/B11</f>
+        <v>3.8</v>
+      </c>
+      <c r="J11" s="6">
+        <v>576.36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="56"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6">
-        <v>57</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="F16" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G16">
-        <v>25.4</v>
-      </c>
-      <c r="H16" s="6">
-        <v>60000</v>
-      </c>
-      <c r="I16" s="6">
-        <f>D16/B16</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6">
-        <v>55</v>
-      </c>
-      <c r="D17" s="6">
-        <v>57</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="F17" s="6">
-        <v>95000</v>
-      </c>
-      <c r="G17">
-        <f>1.25*25.4</f>
-        <v>31.75</v>
-      </c>
-      <c r="H17" s="6">
-        <v>95000</v>
-      </c>
-      <c r="I17" s="6">
-        <f>D17/B17</f>
-        <v>3.8</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14491,7 +14696,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14505,27 +14710,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C3">
         <v>5900</v>
@@ -14540,10 +14745,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C4">
         <v>10800</v>
@@ -14561,10 +14766,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C6">
         <v>11250</v>
@@ -14579,10 +14784,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C7">
         <v>18100</v>
@@ -14597,10 +14802,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C8">
         <v>29200</v>
@@ -14615,10 +14820,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>588</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>589</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -14634,16 +14839,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
-  <dimension ref="A1:J50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
+  <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14655,6 +14861,7 @@
     <col min="5" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="20.1796875" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="10" max="10" width="49.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -14662,34 +14869,36 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>271</v>
       </c>
       <c r="H1" s="49" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="I1" s="50" t="s">
-        <v>493</v>
-      </c>
-      <c r="J1" s="7"/>
+        <v>487</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B2" s="99">
         <v>95</v>
@@ -14701,10 +14910,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G2" s="99" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -14712,7 +14921,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B3" s="99">
         <v>147</v>
@@ -14724,10 +14933,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -14735,7 +14944,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B4" s="99">
         <v>332</v>
@@ -14747,7 +14956,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F4" s="99">
         <v>480</v>
@@ -14761,7 +14970,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B5" s="99">
         <v>552</v>
@@ -14773,7 +14982,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G5" s="99">
         <v>40</v>
@@ -14783,22 +14992,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B6" s="99">
-        <v>599</v>
-      </c>
-      <c r="C6" s="99">
-        <v>3081</v>
-      </c>
-      <c r="D6" s="6">
-        <v>20</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="G6" s="99">
+      <c r="A6" s="148" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" s="149">
+        <v>800</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2330</v>
+      </c>
+      <c r="D6" s="149">
+        <v>24</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
         <v>40</v>
       </c>
       <c r="H6">
@@ -14806,22 +15016,23 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B7" s="99">
-        <v>1063</v>
-      </c>
-      <c r="C7" s="99">
-        <v>4092</v>
-      </c>
-      <c r="D7" s="6">
-        <v>18</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="G7" s="99">
+      <c r="A7" s="148" t="s">
+        <v>508</v>
+      </c>
+      <c r="B7" s="149">
+        <v>1200</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3530</v>
+      </c>
+      <c r="D7" s="149">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>50</v>
       </c>
       <c r="H7">
@@ -14829,54 +15040,60 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="100" t="s">
-        <v>502</v>
-      </c>
-      <c r="B8" s="99">
-        <v>1943</v>
-      </c>
-      <c r="C8" s="99">
-        <v>10336</v>
-      </c>
-      <c r="D8" s="99">
-        <v>12</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="G8" s="99">
-        <v>65</v>
+      <c r="A8" s="148" t="s">
+        <v>509</v>
+      </c>
+      <c r="B8" s="149">
+        <v>2200</v>
+      </c>
+      <c r="C8" s="6">
+        <v>6691</v>
+      </c>
+      <c r="D8" s="149">
+        <v>15</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6">
+        <v>60</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="100" t="s">
-        <v>503</v>
-      </c>
-      <c r="B9" s="99">
-        <v>3503</v>
-      </c>
-      <c r="C9" s="99">
-        <v>14014</v>
-      </c>
-      <c r="D9" s="99">
+      <c r="A9" s="162" t="s">
+        <v>510</v>
+      </c>
+      <c r="B9" s="163">
+        <v>3600</v>
+      </c>
+      <c r="C9" s="59">
+        <v>10260</v>
+      </c>
+      <c r="D9" s="59">
+        <v>15</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="59">
+        <v>80</v>
+      </c>
+      <c r="H9" s="59">
         <v>10</v>
       </c>
-      <c r="E9" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="G9" s="99">
-        <v>80</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
+      <c r="I9" s="33"/>
+      <c r="J9" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="100" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B10" s="99">
         <v>130</v>
@@ -14891,7 +15108,7 @@
         <v>261</v>
       </c>
       <c r="G10" s="99" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -14899,7 +15116,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="100" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B11" s="99">
         <v>145</v>
@@ -14917,133 +15134,13 @@
         <v>200</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="100" t="s">
-        <v>506</v>
-      </c>
-      <c r="B12" s="99">
-        <v>332</v>
-      </c>
-      <c r="C12" s="99">
-        <v>1444</v>
-      </c>
-      <c r="D12" s="99">
-        <v>22</v>
-      </c>
-      <c r="E12" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="99">
-        <v>460</v>
-      </c>
-      <c r="G12" s="99">
-        <v>30</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="101" t="s">
-        <v>507</v>
-      </c>
-      <c r="B13" s="99">
-        <v>542</v>
-      </c>
-      <c r="C13" s="99">
-        <v>1863</v>
-      </c>
-      <c r="D13" s="99">
-        <v>22</v>
-      </c>
-      <c r="E13" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="G13" s="99">
-        <v>40</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
-        <v>508</v>
-      </c>
-      <c r="B14" s="99">
-        <v>1000</v>
-      </c>
-      <c r="C14" s="99">
-        <v>3560</v>
-      </c>
-      <c r="D14" s="99">
-        <v>12</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="99">
-        <v>50</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100" t="s">
-        <v>509</v>
-      </c>
-      <c r="B15" s="99">
-        <v>1063</v>
-      </c>
-      <c r="C15" s="99">
-        <v>4092</v>
-      </c>
-      <c r="D15" s="99">
-        <v>18</v>
-      </c>
-      <c r="E15" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>510</v>
-      </c>
-      <c r="B16" s="99">
-        <v>145</v>
-      </c>
-      <c r="C16" s="99">
-        <v>365</v>
-      </c>
-      <c r="D16" s="6">
-        <v>22</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>328</v>
-      </c>
-      <c r="F16" s="99">
-        <v>200</v>
-      </c>
-      <c r="G16" s="99" t="s">
-        <v>496</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.35">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
@@ -15051,716 +15148,837 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="149" t="s">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P24" s="148" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q24" s="149">
+        <v>400</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1075</v>
+      </c>
+      <c r="S24" s="149">
+        <v>24</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6">
+        <v>30</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="148" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q25" s="149">
+        <v>400</v>
+      </c>
+      <c r="R25" s="6">
+        <v>1075</v>
+      </c>
+      <c r="S25" s="149">
+        <v>24</v>
+      </c>
+      <c r="T25" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6">
+        <v>35</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P26" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q26" s="99">
+        <v>599</v>
+      </c>
+      <c r="R26" s="99">
+        <v>3081</v>
+      </c>
+      <c r="S26" s="6">
+        <v>20</v>
+      </c>
+      <c r="T26" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="V26" s="99">
+        <v>40</v>
+      </c>
+      <c r="W26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P27" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q27" s="99">
+        <v>1063</v>
+      </c>
+      <c r="R27" s="99">
+        <v>4092</v>
+      </c>
+      <c r="S27" s="6">
+        <v>18</v>
+      </c>
+      <c r="T27" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="V27" s="99">
+        <v>50</v>
+      </c>
+      <c r="W27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P28" s="100" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q28" s="99">
+        <v>1943</v>
+      </c>
+      <c r="R28" s="99">
+        <v>10336</v>
+      </c>
+      <c r="S28" s="99">
+        <v>12</v>
+      </c>
+      <c r="T28" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="V28" s="99">
+        <v>65</v>
+      </c>
+      <c r="W28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.35">
+      <c r="P29" s="100" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q29" s="99">
+        <v>3503</v>
+      </c>
+      <c r="R29" s="99">
+        <v>14014</v>
+      </c>
+      <c r="S29" s="99">
+        <v>10</v>
+      </c>
+      <c r="T29" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="V29" s="99">
+        <v>80</v>
+      </c>
+      <c r="W29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="8"/>
+      <c r="P31" s="100" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q31" s="99">
+        <v>332</v>
+      </c>
+      <c r="R31" s="99">
+        <v>1444</v>
+      </c>
+      <c r="S31" s="99">
+        <v>22</v>
+      </c>
+      <c r="T31" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="U31" s="99">
+        <v>460</v>
+      </c>
+      <c r="V31" s="99">
+        <v>30</v>
+      </c>
+      <c r="W31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P32" s="101" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q32" s="99">
+        <v>542</v>
+      </c>
+      <c r="R32" s="99">
+        <v>1863</v>
+      </c>
+      <c r="S32" s="99">
+        <v>22</v>
+      </c>
+      <c r="T32" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="V32" s="99">
+        <v>40</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+      <c r="X32" s="8"/>
+    </row>
+    <row r="33" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P33" s="100" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q33" s="99">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="99">
+        <v>3560</v>
+      </c>
+      <c r="S33" s="99">
+        <v>12</v>
+      </c>
+      <c r="T33" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="V33" s="99">
+        <v>50</v>
+      </c>
+      <c r="W33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P34" s="100" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q34" s="99">
+        <v>1063</v>
+      </c>
+      <c r="R34" s="99">
+        <v>4092</v>
+      </c>
+      <c r="S34" s="99">
+        <v>18</v>
+      </c>
+      <c r="T34" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="W34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="16:23" x14ac:dyDescent="0.35">
+      <c r="P35" t="s">
+        <v>504</v>
+      </c>
+      <c r="Q35" s="99">
+        <v>145</v>
+      </c>
+      <c r="R35" s="99">
+        <v>365</v>
+      </c>
+      <c r="S35" s="6">
+        <v>22</v>
+      </c>
+      <c r="T35" s="99" t="s">
+        <v>328</v>
+      </c>
+      <c r="U35" s="99">
+        <v>200</v>
+      </c>
+      <c r="V35" s="99" t="s">
+        <v>490</v>
+      </c>
+      <c r="W35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="69"/>
+      <c r="C59" s="133" t="s">
         <v>511</v>
       </c>
-      <c r="B18" s="150">
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="135"/>
+    </row>
+    <row r="60" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="69"/>
+      <c r="C60" s="102" t="s">
+        <v>498</v>
+      </c>
+      <c r="D60" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="E60" s="103" t="s">
+        <v>513</v>
+      </c>
+      <c r="F60" s="103" t="s">
+        <v>514</v>
+      </c>
+      <c r="G60" s="103" t="s">
+        <v>515</v>
+      </c>
+      <c r="H60" s="103" t="s">
+        <v>503</v>
+      </c>
+      <c r="I60" s="103" t="s">
+        <v>516</v>
+      </c>
+      <c r="J60" s="104" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="105" t="s">
+        <v>518</v>
+      </c>
+      <c r="C61" s="106">
+        <v>1</v>
+      </c>
+      <c r="D61" s="107">
+        <v>2</v>
+      </c>
+      <c r="E61" s="107">
+        <v>3</v>
+      </c>
+      <c r="F61" s="107">
+        <v>4</v>
+      </c>
+      <c r="G61" s="107">
+        <v>5</v>
+      </c>
+      <c r="H61" s="107">
+        <v>6</v>
+      </c>
+      <c r="I61" s="107">
+        <v>7</v>
+      </c>
+      <c r="J61" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="109">
+        <v>508</v>
+      </c>
+      <c r="C62" s="110"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112">
+        <v>300</v>
+      </c>
+      <c r="I62" s="112">
+        <v>740</v>
+      </c>
+      <c r="J62" s="113">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="114">
+        <v>457</v>
+      </c>
+      <c r="C63" s="115"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="117">
+        <v>330</v>
+      </c>
+      <c r="I63" s="117">
+        <v>755</v>
+      </c>
+      <c r="J63" s="118">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="119">
+        <v>419</v>
+      </c>
+      <c r="C64" s="120"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122">
+        <v>380</v>
+      </c>
+      <c r="I64" s="122">
+        <v>800</v>
+      </c>
+      <c r="J64" s="123">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="114">
+        <v>406</v>
+      </c>
+      <c r="C65" s="115"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="117">
         <v>400</v>
       </c>
-      <c r="C18" s="6">
-        <v>1075</v>
-      </c>
-      <c r="D18" s="150">
-        <v>24</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6">
-        <v>30</v>
-      </c>
-      <c r="H18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="149" t="s">
-        <v>512</v>
-      </c>
-      <c r="B19" s="150">
-        <v>400</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1075</v>
-      </c>
-      <c r="D19" s="150">
-        <v>24</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6">
-        <v>35</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="149" t="s">
-        <v>513</v>
-      </c>
-      <c r="B20" s="150">
-        <v>800</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2330</v>
-      </c>
-      <c r="D20" s="150">
-        <v>24</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6">
-        <v>40</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="149" t="s">
-        <v>514</v>
-      </c>
-      <c r="B21" s="150">
-        <v>1200</v>
-      </c>
-      <c r="C21" s="6">
-        <v>3530</v>
-      </c>
-      <c r="D21" s="150">
-        <v>24</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="149" t="s">
-        <v>515</v>
-      </c>
-      <c r="B22" s="150">
-        <v>2200</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6691</v>
-      </c>
-      <c r="D22" s="150">
-        <v>15</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6">
-        <v>60</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="149" t="s">
-        <v>516</v>
-      </c>
-      <c r="B23" s="150">
-        <v>3600</v>
-      </c>
-      <c r="C23" s="6">
-        <v>10260</v>
-      </c>
-      <c r="D23" s="6">
-        <v>15</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="G23" s="6">
-        <v>80</v>
-      </c>
-      <c r="H23" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="69"/>
-      <c r="C27" s="133" t="s">
-        <v>517</v>
-      </c>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="69"/>
-      <c r="C28" s="102" t="s">
-        <v>504</v>
-      </c>
-      <c r="D28" s="103" t="s">
-        <v>518</v>
-      </c>
-      <c r="E28" s="103" t="s">
+      <c r="I65" s="117">
+        <v>825</v>
+      </c>
+      <c r="J65" s="118">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="119">
+        <v>368</v>
+      </c>
+      <c r="C66" s="120"/>
+      <c r="D66" s="121"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122">
+        <v>450</v>
+      </c>
+      <c r="I66" s="122">
+        <v>890</v>
+      </c>
+      <c r="J66" s="123">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="114">
+        <v>355</v>
+      </c>
+      <c r="C67" s="115"/>
+      <c r="D67" s="116"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117">
+        <v>500</v>
+      </c>
+      <c r="I67" s="117">
+        <v>950</v>
+      </c>
+      <c r="J67" s="118">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="119">
+        <v>323</v>
+      </c>
+      <c r="C68" s="120"/>
+      <c r="D68" s="121"/>
+      <c r="E68" s="122"/>
+      <c r="F68" s="122"/>
+      <c r="G68" s="122">
+        <v>427</v>
+      </c>
+      <c r="H68" s="122">
+        <v>560</v>
+      </c>
+      <c r="I68" s="122">
+        <v>980</v>
+      </c>
+      <c r="J68" s="123">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="114">
+        <v>298</v>
+      </c>
+      <c r="C69" s="115"/>
+      <c r="D69" s="116"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117">
+        <v>486</v>
+      </c>
+      <c r="H69" s="117">
+        <v>610</v>
+      </c>
+      <c r="I69" s="117">
+        <v>1110</v>
+      </c>
+      <c r="J69" s="118">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="119">
+        <v>267</v>
+      </c>
+      <c r="C70" s="120"/>
+      <c r="D70" s="121"/>
+      <c r="E70" s="122">
+        <v>220</v>
+      </c>
+      <c r="F70" s="122">
+        <v>290</v>
+      </c>
+      <c r="G70" s="122">
+        <v>564</v>
+      </c>
+      <c r="H70" s="122">
+        <v>695</v>
+      </c>
+      <c r="I70" s="122">
+        <v>1160</v>
+      </c>
+      <c r="J70" s="123">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="114">
+        <v>244</v>
+      </c>
+      <c r="C71" s="115"/>
+      <c r="D71" s="116"/>
+      <c r="E71" s="117">
+        <v>250</v>
+      </c>
+      <c r="F71" s="117">
+        <v>310</v>
+      </c>
+      <c r="G71" s="117">
+        <v>632</v>
+      </c>
+      <c r="H71" s="117">
+        <v>720</v>
+      </c>
+      <c r="I71" s="117">
+        <v>1160</v>
+      </c>
+      <c r="J71" s="118">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="119">
+        <v>219</v>
+      </c>
+      <c r="C72" s="120"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="122">
+        <v>290</v>
+      </c>
+      <c r="F72" s="122">
+        <v>355</v>
+      </c>
+      <c r="G72" s="122">
+        <v>721</v>
+      </c>
+      <c r="H72" s="122">
+        <v>830</v>
+      </c>
+      <c r="I72" s="122">
+        <v>1160</v>
+      </c>
+      <c r="J72" s="123">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="114">
+        <v>193</v>
+      </c>
+      <c r="C73" s="115"/>
+      <c r="D73" s="116"/>
+      <c r="E73" s="117">
+        <v>325</v>
+      </c>
+      <c r="F73" s="117">
+        <v>390</v>
+      </c>
+      <c r="G73" s="117">
+        <v>823</v>
+      </c>
+      <c r="H73" s="117">
+        <v>925</v>
+      </c>
+      <c r="I73" s="117">
+        <v>1160</v>
+      </c>
+      <c r="J73" s="118">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="119">
+        <v>178</v>
+      </c>
+      <c r="C74" s="120"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="122">
+        <v>325</v>
+      </c>
+      <c r="F74" s="122">
+        <v>390</v>
+      </c>
+      <c r="G74" s="122">
+        <v>823</v>
+      </c>
+      <c r="H74" s="122">
+        <v>940</v>
+      </c>
+      <c r="I74" s="122">
+        <v>1160</v>
+      </c>
+      <c r="J74" s="123">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="114">
+        <v>165</v>
+      </c>
+      <c r="C75" s="115"/>
+      <c r="D75" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="F28" s="103" t="s">
+      <c r="E75" s="117">
+        <v>360</v>
+      </c>
+      <c r="F75" s="117">
+        <v>425</v>
+      </c>
+      <c r="G75" s="117">
+        <v>823</v>
+      </c>
+      <c r="H75" s="117">
+        <v>980</v>
+      </c>
+      <c r="I75" s="117">
+        <v>1160</v>
+      </c>
+      <c r="J75" s="118">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="119">
+        <v>159</v>
+      </c>
+      <c r="C76" s="120"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="122">
+        <v>375</v>
+      </c>
+      <c r="F76" s="122">
+        <v>455</v>
+      </c>
+      <c r="G76" s="122">
+        <v>823</v>
+      </c>
+      <c r="H76" s="124" t="s">
         <v>520</v>
       </c>
-      <c r="G28" s="103" t="s">
-        <v>521</v>
-      </c>
-      <c r="H28" s="103" t="s">
-        <v>509</v>
-      </c>
-      <c r="I28" s="103" t="s">
-        <v>522</v>
-      </c>
-      <c r="J28" s="104" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="105" t="s">
-        <v>524</v>
-      </c>
-      <c r="C29" s="106">
-        <v>1</v>
-      </c>
-      <c r="D29" s="107">
-        <v>2</v>
-      </c>
-      <c r="E29" s="107">
-        <v>3</v>
-      </c>
-      <c r="F29" s="107">
-        <v>4</v>
-      </c>
-      <c r="G29" s="107">
-        <v>5</v>
-      </c>
-      <c r="H29" s="107">
-        <v>6</v>
-      </c>
-      <c r="I29" s="107">
-        <v>7</v>
-      </c>
-      <c r="J29" s="108">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="109">
-        <v>508</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112">
-        <v>300</v>
-      </c>
-      <c r="I30" s="112">
-        <v>740</v>
-      </c>
-      <c r="J30" s="113">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="114">
-        <v>457</v>
-      </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117">
-        <v>330</v>
-      </c>
-      <c r="I31" s="117">
-        <v>755</v>
-      </c>
-      <c r="J31" s="118">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="119">
-        <v>419</v>
-      </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122">
-        <v>380</v>
-      </c>
-      <c r="I32" s="122">
-        <v>800</v>
-      </c>
-      <c r="J32" s="123">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="114">
-        <v>406</v>
-      </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117">
-        <v>400</v>
-      </c>
-      <c r="I33" s="117">
-        <v>825</v>
-      </c>
-      <c r="J33" s="118">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="119">
-        <v>368</v>
-      </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="121"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122">
-        <v>450</v>
-      </c>
-      <c r="I34" s="122">
-        <v>890</v>
-      </c>
-      <c r="J34" s="123">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="114">
-        <v>355</v>
-      </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117">
-        <v>500</v>
-      </c>
-      <c r="I35" s="117">
-        <v>950</v>
-      </c>
-      <c r="J35" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="119">
-        <v>323</v>
-      </c>
-      <c r="C36" s="120"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="122">
-        <v>427</v>
-      </c>
-      <c r="H36" s="122">
-        <v>560</v>
-      </c>
-      <c r="I36" s="122">
-        <v>980</v>
-      </c>
-      <c r="J36" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="114">
-        <v>298</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117">
-        <v>486</v>
-      </c>
-      <c r="H37" s="117">
-        <v>610</v>
-      </c>
-      <c r="I37" s="117">
-        <v>1110</v>
-      </c>
-      <c r="J37" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="119">
-        <v>267</v>
-      </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="122">
-        <v>220</v>
-      </c>
-      <c r="F38" s="122">
-        <v>290</v>
-      </c>
-      <c r="G38" s="122">
-        <v>564</v>
-      </c>
-      <c r="H38" s="122">
-        <v>695</v>
-      </c>
-      <c r="I38" s="122">
-        <v>1160</v>
-      </c>
-      <c r="J38" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="114">
-        <v>244</v>
-      </c>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="117">
-        <v>250</v>
-      </c>
-      <c r="F39" s="117">
-        <v>310</v>
-      </c>
-      <c r="G39" s="117">
-        <v>632</v>
-      </c>
-      <c r="H39" s="117">
-        <v>720</v>
-      </c>
-      <c r="I39" s="117">
-        <v>1160</v>
-      </c>
-      <c r="J39" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="119">
-        <v>219</v>
-      </c>
-      <c r="C40" s="120"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="122">
-        <v>290</v>
-      </c>
-      <c r="F40" s="122">
-        <v>355</v>
-      </c>
-      <c r="G40" s="122">
-        <v>721</v>
-      </c>
-      <c r="H40" s="122">
-        <v>830</v>
-      </c>
-      <c r="I40" s="122">
-        <v>1160</v>
-      </c>
-      <c r="J40" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="114">
-        <v>193</v>
-      </c>
-      <c r="C41" s="115"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="117">
-        <v>325</v>
-      </c>
-      <c r="F41" s="117">
-        <v>390</v>
-      </c>
-      <c r="G41" s="117">
+      <c r="I76" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="J76" s="125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="114">
+        <v>139</v>
+      </c>
+      <c r="C77" s="115"/>
+      <c r="D77" s="116"/>
+      <c r="E77" s="117">
+        <v>405</v>
+      </c>
+      <c r="F77" s="126">
+        <v>487</v>
+      </c>
+      <c r="G77" s="117">
         <v>823</v>
       </c>
-      <c r="H41" s="117">
-        <v>925</v>
-      </c>
-      <c r="I41" s="117">
-        <v>1160</v>
-      </c>
-      <c r="J41" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="119">
-        <v>178</v>
-      </c>
-      <c r="C42" s="120"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="122">
-        <v>325</v>
-      </c>
-      <c r="F42" s="122">
-        <v>390</v>
-      </c>
-      <c r="G42" s="122">
+      <c r="H77" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="I77" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="J77" s="125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="119">
+        <v>133</v>
+      </c>
+      <c r="C78" s="120"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="122">
+        <v>405</v>
+      </c>
+      <c r="F78" s="122">
+        <v>490</v>
+      </c>
+      <c r="G78" s="122">
         <v>823</v>
       </c>
-      <c r="H42" s="122">
-        <v>940</v>
-      </c>
-      <c r="I42" s="122">
-        <v>1160</v>
-      </c>
-      <c r="J42" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="114">
-        <v>165</v>
-      </c>
-      <c r="C43" s="115"/>
-      <c r="D43" s="116" t="s">
-        <v>525</v>
-      </c>
-      <c r="E43" s="117">
-        <v>360</v>
-      </c>
-      <c r="F43" s="117">
+      <c r="H78" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="I78" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="J78" s="125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="114">
+        <v>127</v>
+      </c>
+      <c r="C79" s="115"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117">
         <v>425</v>
       </c>
-      <c r="G43" s="117">
+      <c r="F79" s="117">
+        <v>490</v>
+      </c>
+      <c r="G79" s="124">
         <v>823</v>
       </c>
-      <c r="H43" s="117">
-        <v>980</v>
-      </c>
-      <c r="I43" s="117">
-        <v>1160</v>
-      </c>
-      <c r="J43" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="119">
-        <v>159</v>
-      </c>
-      <c r="C44" s="120"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="122">
-        <v>375</v>
-      </c>
-      <c r="F44" s="122">
-        <v>455</v>
-      </c>
-      <c r="G44" s="122">
-        <v>823</v>
-      </c>
-      <c r="H44" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="I44" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J44" s="125" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="114">
-        <v>139</v>
-      </c>
-      <c r="C45" s="115"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="117">
-        <v>405</v>
-      </c>
-      <c r="F45" s="126">
-        <v>487</v>
-      </c>
-      <c r="G45" s="117">
-        <v>823</v>
-      </c>
-      <c r="H45" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="I45" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J45" s="125" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="119">
-        <v>133</v>
-      </c>
-      <c r="C46" s="120"/>
-      <c r="D46" s="121"/>
-      <c r="E46" s="122">
-        <v>405</v>
-      </c>
-      <c r="F46" s="122">
+      <c r="H79" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="I79" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="J79" s="125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="119">
+        <v>102</v>
+      </c>
+      <c r="C80" s="120"/>
+      <c r="D80" s="116">
+        <v>218</v>
+      </c>
+      <c r="E80" s="122">
+        <v>460</v>
+      </c>
+      <c r="F80" s="124">
         <v>490</v>
       </c>
-      <c r="G46" s="122">
-        <v>823</v>
-      </c>
-      <c r="H46" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="I46" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J46" s="125" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="114">
-        <v>127</v>
-      </c>
-      <c r="C47" s="115"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="117">
-        <v>425</v>
-      </c>
-      <c r="F47" s="117">
-        <v>490</v>
-      </c>
-      <c r="G47" s="124">
-        <v>823</v>
-      </c>
-      <c r="H47" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="I47" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J47" s="125" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="119">
-        <v>102</v>
-      </c>
-      <c r="C48" s="120"/>
-      <c r="D48" s="116">
-        <v>218</v>
-      </c>
-      <c r="E48" s="122">
-        <v>460</v>
-      </c>
-      <c r="F48" s="124">
-        <v>490</v>
-      </c>
-      <c r="G48" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="H48" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="I48" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J48" s="125" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="127">
+      <c r="G80" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="H80" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="I80" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="J80" s="125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="127">
         <v>83</v>
       </c>
-      <c r="C49" s="115">
+      <c r="C81" s="115">
         <v>204</v>
       </c>
-      <c r="D49" s="116">
+      <c r="D81" s="116">
         <v>234</v>
       </c>
-      <c r="E49" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="F49" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="G49" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="H49" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="I49" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="J49" s="125" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="128">
+      <c r="E81" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="F81" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="G81" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="H81" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="I81" s="124" t="s">
+        <v>520</v>
+      </c>
+      <c r="J81" s="125" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="128">
         <v>76</v>
       </c>
-      <c r="C50" s="129">
+      <c r="C82" s="129">
         <v>206</v>
       </c>
-      <c r="D50" s="130">
+      <c r="D82" s="130">
         <v>242</v>
       </c>
-      <c r="E50" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="F50" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="G50" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="H50" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="I50" s="131" t="s">
-        <v>526</v>
-      </c>
-      <c r="J50" s="132" t="s">
-        <v>526</v>
+      <c r="E82" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="F82" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="G82" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="H82" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="I82" s="131" t="s">
+        <v>520</v>
+      </c>
+      <c r="J82" s="132" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15787,22 +16005,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -15815,7 +16033,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -15839,7 +16057,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -15863,7 +16081,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -15887,7 +16105,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -15911,7 +16129,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B7" s="6">
         <v>300</v>
@@ -15935,7 +16153,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B8" s="6">
         <v>350</v>
@@ -15959,7 +16177,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B9" s="6">
         <v>400</v>
@@ -15983,7 +16201,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B10" s="6">
         <v>450</v>
@@ -16015,7 +16233,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -16039,7 +16257,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -16063,7 +16281,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -16087,7 +16305,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B16" s="6">
         <v>450</v>
@@ -16111,7 +16329,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>
@@ -16135,7 +16353,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B18" s="6">
         <v>550</v>
@@ -16159,7 +16377,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B19" s="59">
         <v>600</v>
@@ -16186,7 +16404,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B21" s="6">
         <v>135</v>
@@ -16207,7 +16425,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B22" s="6">
         <v>180</v>
@@ -16228,7 +16446,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B23" s="6">
         <v>205</v>
@@ -16249,7 +16467,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B24" s="6">
         <v>250</v>
@@ -16270,7 +16488,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B25" s="6">
         <v>300</v>
@@ -16291,7 +16509,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B26" s="6">
         <v>350</v>
@@ -16336,7 +16554,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -16355,7 +16573,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -16386,19 +16604,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16473,13 +16691,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="P18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="Q18" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -16488,18 +16706,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P19" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P20" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -16527,22 +16745,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F4" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G4" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H4" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -17823,7 +18041,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="145" t="s">
+      <c r="A18" s="144" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="78"/>
@@ -17886,7 +18104,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="144" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="72"/>
@@ -18040,7 +18258,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" s="74" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="144" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="78"/>
@@ -18108,7 +18326,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="145" t="s">
+      <c r="A26" s="144" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="76"/>
@@ -18519,7 +18737,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="74" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="145" t="s">
+      <c r="A37" s="144" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="72"/>
@@ -18585,16 +18803,16 @@
       <c r="B39" s="6">
         <v>4.5</v>
       </c>
-      <c r="D39" s="144">
+      <c r="D39" s="143">
         <v>55</v>
       </c>
-      <c r="E39" s="144">
+      <c r="E39" s="143">
         <v>57</v>
       </c>
-      <c r="F39" s="144">
+      <c r="F39" s="143">
         <v>14</v>
       </c>
-      <c r="G39" s="144">
+      <c r="G39" s="143">
         <v>10</v>
       </c>
       <c r="H39" s="6">
@@ -19288,7 +19506,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="146" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="25">
@@ -19302,7 +19520,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="147" t="s">
+      <c r="A4" s="146" t="s">
         <v>178</v>
       </c>
       <c r="B4" s="25">
@@ -19317,7 +19535,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="146" t="s">
         <v>179</v>
       </c>
       <c r="B5" s="25">
@@ -19332,7 +19550,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="147" t="s">
+      <c r="A6" s="146" t="s">
         <v>180</v>
       </c>
       <c r="B6" s="25">
@@ -19346,7 +19564,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="146" t="s">
         <v>181</v>
       </c>
       <c r="B7" s="25">
@@ -19361,7 +19579,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="146" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="25">
@@ -19375,7 +19593,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="147" t="s">
         <v>183</v>
       </c>
       <c r="B9" s="26">
@@ -19389,7 +19607,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="147" t="s">
         <v>184</v>
       </c>
       <c r="B10" s="27">
@@ -19404,8 +19622,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="146" t="s">
-        <v>574</v>
+      <c r="A11" s="145" t="s">
+        <v>568</v>
       </c>
       <c r="B11" s="25">
         <v>0.95</v>
@@ -19418,7 +19636,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="145" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="59">
@@ -19432,7 +19650,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="145" t="s">
         <v>186</v>
       </c>
       <c r="B13" s="59">
@@ -19446,7 +19664,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="145" t="s">
         <v>187</v>
       </c>
       <c r="B14" s="59">
@@ -19460,7 +19678,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="145" t="s">
         <v>188</v>
       </c>
       <c r="B15" s="59">
@@ -19708,15 +19926,15 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -19735,7 +19953,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -19797,7 +20015,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -19876,7 +20094,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J12" sqref="J12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19936,7 +20154,7 @@
         <v>226</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -20323,36 +20541,36 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="153" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="153" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="155" t="s">
+      <c r="C11" s="154" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="156">
+      <c r="D11" s="155">
         <v>219</v>
       </c>
-      <c r="E11" s="156">
+      <c r="E11" s="155">
         <v>6.3</v>
       </c>
-      <c r="F11" s="154">
+      <c r="F11" s="153">
         <f t="shared" ref="F11:F12" si="8">D11-(E11*2)</f>
         <v>206.4</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="153">
         <v>190000</v>
       </c>
-      <c r="H11" s="154">
+      <c r="H11" s="153">
         <v>7850</v>
       </c>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154" t="s">
+      <c r="I11" s="153"/>
+      <c r="J11" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="154" t="s">
+      <c r="K11" s="153" t="s">
         <v>249</v>
       </c>
       <c r="L11">
@@ -20371,36 +20589,36 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="151" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="152">
         <v>273.05</v>
       </c>
-      <c r="E12" s="153">
+      <c r="E12" s="152">
         <v>5.89</v>
       </c>
-      <c r="F12" s="152">
+      <c r="F12" s="151">
         <f t="shared" si="8"/>
         <v>261.27000000000004</v>
       </c>
-      <c r="G12" s="152">
+      <c r="G12" s="151">
         <v>199000</v>
       </c>
-      <c r="H12" s="152">
+      <c r="H12" s="151">
         <v>7850</v>
       </c>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="152"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="151"/>
       <c r="L12">
         <f t="shared" si="4"/>
         <v>10.750000000000002</v>
@@ -20417,22 +20635,41 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+      <c r="A13" s="151" t="s">
+        <v>583</v>
+      </c>
+      <c r="B13" s="151" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="152">
+        <v>273.05</v>
+      </c>
+      <c r="E13" s="152">
+        <v>8</v>
+      </c>
+      <c r="F13" s="151">
+        <f t="shared" ref="F13" si="9">D13-(E13*2)</f>
+        <v>257.05</v>
+      </c>
+      <c r="G13" s="151">
+        <v>199000</v>
+      </c>
+      <c r="H13" s="151">
+        <v>7850</v>
+      </c>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="151"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="157"/>
+      <c r="B15" s="156"/>
       <c r="C15" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -20470,13 +20707,13 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>253</v>
@@ -20497,7 +20734,7 @@
         <v>258</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20518,7 +20755,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C4" s="158">
+      <c r="C4" s="157">
         <f t="shared" ref="C4:C16" si="0">(D4-B4)/2</f>
         <v>-1.7000000000000028</v>
       </c>
@@ -20542,7 +20779,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C5" s="158">
+      <c r="C5" s="157">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20566,7 +20803,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C6" s="158">
+      <c r="C6" s="157">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20590,7 +20827,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C7" s="158">
+      <c r="C7" s="157">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20614,7 +20851,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="157">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20638,7 +20875,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C9" s="158">
+      <c r="C9" s="157">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20662,7 +20899,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C10" s="158">
+      <c r="C10" s="157">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20686,7 +20923,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C11" s="158">
+      <c r="C11" s="157">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20710,7 +20947,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C12" s="158">
+      <c r="C12" s="157">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20734,7 +20971,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C13" s="158">
+      <c r="C13" s="157">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20758,7 +20995,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C14" s="158">
+      <c r="C14" s="157">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20782,7 +21019,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C15" s="158">
+      <c r="C15" s="157">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20806,7 +21043,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C16" s="158">
+      <c r="C16" s="157">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20823,14 +21060,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="158">
+      <c r="B17" s="157">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C17" s="158">
+      <c r="C17" s="157">
         <f>(D17-B17)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -20847,14 +21084,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="158">
+      <c r="B18" s="157">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C18" s="158">
+      <c r="C18" s="157">
         <f t="shared" ref="C18:C34" si="1">(D18-B18)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -20871,14 +21108,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="158">
+      <c r="B19" s="157">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C19" s="158">
+      <c r="C19" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20895,14 +21132,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="158">
+      <c r="B20" s="157">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C20" s="158">
+      <c r="C20" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20919,14 +21156,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="158">
+      <c r="B21" s="157">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C21" s="158">
+      <c r="C21" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20943,14 +21180,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="158">
+      <c r="B22" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C22" s="158">
+      <c r="C22" s="157">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -20967,14 +21204,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="158" t="s">
+      <c r="A23" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="158">
+      <c r="B23" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C23" s="158">
+      <c r="C23" s="157">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -20991,14 +21228,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="158" t="s">
+      <c r="A24" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="158">
+      <c r="B24" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C24" s="158">
+      <c r="C24" s="157">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21015,14 +21252,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="158">
+      <c r="B25" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C25" s="158">
+      <c r="C25" s="157">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -21039,14 +21276,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="158">
+      <c r="B26" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C26" s="158">
+      <c r="C26" s="157">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -21063,14 +21300,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="158">
+      <c r="B27" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C27" s="158">
+      <c r="C27" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21087,14 +21324,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="158">
+      <c r="B28" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C28" s="158">
+      <c r="C28" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21111,14 +21348,14 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="158" t="s">
+      <c r="A29" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="158">
+      <c r="B29" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C29" s="158">
+      <c r="C29" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21135,14 +21372,14 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="158" t="s">
+      <c r="A30" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="158">
+      <c r="B30" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C30" s="158">
+      <c r="C30" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21159,14 +21396,14 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="158" t="s">
+      <c r="A31" s="157" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="158">
+      <c r="B31" s="157">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C31" s="158">
+      <c r="C31" s="157">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21190,7 +21427,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C32" s="158">
+      <c r="C32" s="157">
         <f t="shared" si="1"/>
         <v>-2.1350000000000193</v>
       </c>
@@ -21214,7 +21451,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C33" s="158">
+      <c r="C33" s="157">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21238,7 +21475,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C34" s="158">
+      <c r="C34" s="157">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21267,7 +21504,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -21288,7 +21525,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -21385,7 +21622,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -21406,7 +21643,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2004" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF83466D-996A-4B21-9E5C-73DFA8626470}"/>
+  <xr:revisionPtr revIDLastSave="2046" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9F0551-B55B-49EB-9DA7-89D06A2F3862}"/>
   <bookViews>
-    <workbookView xWindow="3490" yWindow="740" windowWidth="23330" windowHeight="19090" tabRatio="859" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9460" yWindow="440" windowWidth="28780" windowHeight="19120" tabRatio="859" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Motors!$A$1:$T$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="590">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -1485,9 +1485,6 @@
   </si>
   <si>
     <t>10 3/4" 3g</t>
-  </si>
-  <si>
-    <t>this is not used by sws yet.</t>
   </si>
   <si>
     <t>Disc o/d</t>
@@ -2471,9 +2468,6 @@
     <t>100mm  Rail with wireless-rubber 0.95kg/m</t>
   </si>
   <si>
-    <t>not currenlty used.</t>
-  </si>
-  <si>
     <t>name 80dr standard</t>
   </si>
   <si>
@@ -2510,9 +2504,6 @@
     <t>Limit turn ratio adjustement</t>
   </si>
   <si>
-    <t>movements per day</t>
-  </si>
-  <si>
     <t>273 x 8</t>
   </si>
   <si>
@@ -2535,6 +2526,12 @@
   </si>
   <si>
     <t xml:space="preserve">Out side our current scope required. </t>
+  </si>
+  <si>
+    <t>80mm</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -3161,7 +3158,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3607,21 +3604,14 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3629,6 +3619,17 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -5257,16 +5258,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595207</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>140535</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>385657</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5289,8 +5290,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6045200" y="527050"/>
+          <a:off x="8883650" y="196850"/>
           <a:ext cx="3567007" cy="3848935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>159677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF71B909-C218-17AE-B567-72183024469C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="4454945"/>
+          <a:ext cx="3937000" cy="2886582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514093</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>35852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2760AEA-C132-22B3-EDB3-7C286D4E207E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="4381500"/>
+          <a:ext cx="4298693" cy="3020352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6055,22 +6144,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>39513</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>18345</xdr:rowOff>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>580269</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>418253</xdr:rowOff>
+      <xdr:colOff>590062</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>437445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
+        <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BDB8A4-C6E6-4A9F-B0B9-6F51BBC62173}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3556A5C-39E4-33B5-6B86-D546B14CC391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6079,15 +6168,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10157180" y="3108678"/>
-          <a:ext cx="540756" cy="399908"/>
+          <a:off x="10160000" y="2610555"/>
+          <a:ext cx="547729" cy="409223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6099,22 +6188,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>29635</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15523</xdr:rowOff>
+      <xdr:colOff>32455</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>570391</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>415431</xdr:rowOff>
+      <xdr:colOff>580184</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>448734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
+        <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2EB413-5061-4227-85A6-0BA11655A0D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88CB0FC-D133-4DC8-BFC9-C9B579676B89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6123,15 +6212,59 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10147302" y="2597856"/>
-          <a:ext cx="540756" cy="399908"/>
+          <a:off x="10150122" y="3129844"/>
+          <a:ext cx="547729" cy="409223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437445</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169497</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471555</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>382658</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C8453F-2286-E446-08D5-DF5978B12486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11161889" y="4783830"/>
+          <a:ext cx="4105166" cy="4121939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6476,11 +6609,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:X125"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L75" sqref="L75"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6495,15 +6628,16 @@
     <col min="9" max="10" width="12.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" style="1" customWidth="1"/>
-    <col min="13" max="17" width="19.453125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="19.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="17" width="19.453125" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.54296875" customWidth="1"/>
     <col min="19" max="19" width="25.81640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="22" max="22" width="10.54296875" style="93" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="46.453125" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" style="93" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -6511,72 +6645,69 @@
         <v>140</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="S1" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="S1" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="92" t="s">
         <v>278</v>
       </c>
-      <c r="V1" s="92" t="s">
+      <c r="V1" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="W1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>281</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -6594,7 +6725,7 @@
         <v>230</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2" s="1">
         <v>26</v>
@@ -6606,7 +6737,7 @@
         <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>28</v>
@@ -6614,22 +6745,22 @@
       <c r="N2" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="O2">
+        <v>22</v>
+      </c>
       <c r="Q2" s="64">
         <v>3</v>
       </c>
       <c r="R2">
         <v>310</v>
       </c>
-      <c r="T2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -6647,7 +6778,7 @@
         <v>230</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I3" s="1">
         <v>23</v>
@@ -6659,7 +6790,7 @@
         <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>28</v>
@@ -6667,22 +6798,22 @@
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
       <c r="Q3" s="64">
         <v>3.3</v>
       </c>
       <c r="R3">
         <v>310</v>
       </c>
-      <c r="T3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1">
         <v>50.01</v>
@@ -6700,13 +6831,13 @@
         <v>230</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K4" s="1">
         <v>59</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>28</v>
@@ -6714,22 +6845,22 @@
       <c r="N4" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="O4">
+        <v>22</v>
+      </c>
       <c r="Q4" s="64">
         <v>5</v>
       </c>
       <c r="R4">
         <v>345</v>
       </c>
-      <c r="T4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="1">
         <v>50.01</v>
@@ -6747,13 +6878,13 @@
         <v>230</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K5" s="1">
         <v>59</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>28</v>
@@ -6761,22 +6892,22 @@
       <c r="N5" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O5">
+        <v>22</v>
+      </c>
       <c r="Q5" s="64">
         <v>5.2</v>
       </c>
       <c r="R5">
         <v>345</v>
       </c>
-      <c r="T5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C6" s="1">
         <v>100.01</v>
@@ -6794,13 +6925,13 @@
         <v>230</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K6" s="1">
         <v>59</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>28</v>
@@ -6808,22 +6939,22 @@
       <c r="N6" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="O6">
+        <v>22</v>
+      </c>
       <c r="Q6" s="64">
         <v>8</v>
       </c>
       <c r="R6">
         <v>390</v>
       </c>
-      <c r="T6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="1">
         <v>100.01</v>
@@ -6841,13 +6972,13 @@
         <v>230</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K7" s="1">
         <v>59</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>28</v>
@@ -6855,22 +6986,22 @@
       <c r="N7" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O7">
+        <v>22</v>
+      </c>
       <c r="Q7" s="64">
         <v>8.3000000000000007</v>
       </c>
       <c r="R7">
         <v>390</v>
       </c>
-      <c r="T7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C8" s="1">
         <v>150.01</v>
@@ -6888,13 +7019,13 @@
         <v>230</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K8" s="1">
         <v>92</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>28</v>
@@ -6902,22 +7033,22 @@
       <c r="N8" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O8">
+        <v>22</v>
+      </c>
       <c r="Q8" s="64">
         <v>12</v>
       </c>
       <c r="R8">
         <v>570</v>
       </c>
-      <c r="T8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="1">
         <v>230.01</v>
@@ -6935,13 +7066,13 @@
         <v>230</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K9" s="1">
         <v>92</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>28</v>
@@ -6949,43 +7080,43 @@
       <c r="N9" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O9">
+        <v>22</v>
+      </c>
       <c r="Q9" s="64">
         <v>14</v>
       </c>
       <c r="R9">
         <v>670</v>
       </c>
-      <c r="T9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H10" s="150" t="s">
+        <v>556</v>
+      </c>
+      <c r="N10" s="150" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q10" s="64"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="150" t="s">
-        <v>557</v>
-      </c>
-      <c r="N10" s="150" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q10" s="64"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="C11" s="1">
         <f>D9+0.01</f>
@@ -7004,7 +7135,7 @@
         <v>230</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I11" s="1">
         <v>85</v>
@@ -7013,7 +7144,7 @@
         <v>89</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>28</v>
@@ -7028,12 +7159,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C12" s="1">
         <f>D11+0.01</f>
@@ -7052,7 +7183,7 @@
         <v>230</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I12" s="1">
         <v>83</v>
@@ -7061,7 +7192,7 @@
         <v>89</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>28</v>
@@ -7076,32 +7207,32 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H13" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N13" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -7119,13 +7250,13 @@
         <v>230</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K14" s="1">
         <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>28</v>
@@ -7140,12 +7271,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:C27" si="0">D14+0.01</f>
@@ -7164,13 +7295,13 @@
         <v>230</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K15" s="1">
         <v>48</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>28</v>
@@ -7185,12 +7316,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -7209,13 +7340,13 @@
         <v>230</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K16" s="1">
         <v>48</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>28</v>
@@ -7230,12 +7361,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="1">
         <f>D16+0.01</f>
@@ -7254,13 +7385,13 @@
         <v>230</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K17" s="1">
         <v>48</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>28</v>
@@ -7268,7 +7399,6 @@
       <c r="N17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O17"/>
       <c r="P17"/>
       <c r="Q17" s="1">
         <v>3.2</v>
@@ -7277,14 +7407,14 @@
         <v>260</v>
       </c>
       <c r="S17"/>
-      <c r="V17"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U17"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="1">
         <f>C17</f>
@@ -7303,13 +7433,13 @@
         <v>230</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K18" s="1">
         <v>48</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>28</v>
@@ -7317,7 +7447,6 @@
       <c r="N18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O18"/>
       <c r="P18"/>
       <c r="Q18" s="1">
         <v>3.2</v>
@@ -7326,14 +7455,14 @@
         <v>260</v>
       </c>
       <c r="S18"/>
-      <c r="V18"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U18"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C19" s="1">
         <f>D17+0.01</f>
@@ -7352,13 +7481,13 @@
         <v>230</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K19" s="1">
         <v>48</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>28</v>
@@ -7373,12 +7502,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -7397,13 +7526,13 @@
         <v>230</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K20" s="1">
         <v>48</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>28</v>
@@ -7418,12 +7547,12 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -7442,13 +7571,13 @@
         <v>230</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K21" s="1">
         <v>48</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>28</v>
@@ -7463,12 +7592,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -7487,13 +7616,13 @@
         <v>230</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K22" s="1">
         <v>60</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>28</v>
@@ -7508,12 +7637,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -7532,13 +7661,13 @@
         <v>230</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K23" s="1">
         <v>60</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>28</v>
@@ -7553,12 +7682,12 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="1">
         <f>D23+0.01</f>
@@ -7577,13 +7706,13 @@
         <v>230</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K24" s="1">
         <v>60</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>28</v>
@@ -7598,12 +7727,12 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -7622,13 +7751,13 @@
         <v>230</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K25" s="1">
         <v>60</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>28</v>
@@ -7643,12 +7772,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -7667,13 +7796,13 @@
         <v>230</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K26" s="1">
         <v>60</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>28</v>
@@ -7688,12 +7817,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
@@ -7712,13 +7841,13 @@
         <v>230</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K27" s="1">
         <v>60</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>28</v>
@@ -7733,32 +7862,32 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H28" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N28" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="90" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B29" s="90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C29" s="91">
         <v>0</v>
@@ -7776,14 +7905,14 @@
         <v>230</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I29" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J29" s="64"/>
       <c r="K29" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L29" s="64">
         <v>40</v>
@@ -7792,39 +7921,38 @@
         <v>62</v>
       </c>
       <c r="N29" s="150" t="s">
-        <v>557</v>
-      </c>
-      <c r="O29" s="64"/>
+        <v>556</v>
+      </c>
       <c r="P29" s="64"/>
       <c r="Q29" s="64"/>
       <c r="R29" s="33">
         <v>900</v>
       </c>
       <c r="S29" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="U29" s="94"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" s="150" t="s">
+        <v>556</v>
+      </c>
+      <c r="N30" s="150" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="V29" s="94"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H30" s="150" t="s">
-        <v>557</v>
-      </c>
-      <c r="N30" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="B31" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2">
         <v>0</v>
@@ -7842,13 +7970,13 @@
         <v>415</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L31" s="1">
         <v>30</v>
@@ -7863,15 +7991,15 @@
         <v>900</v>
       </c>
       <c r="S31" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="B32" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2">
         <v>170.01</v>
@@ -7889,13 +8017,13 @@
         <v>415</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L32" s="1">
         <v>40</v>
@@ -7910,15 +8038,15 @@
         <v>900</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="2">
         <v>260.01</v>
@@ -7936,13 +8064,13 @@
         <v>415</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L33" s="1">
         <v>40</v>
@@ -7957,15 +8085,15 @@
         <v>900</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="2">
         <v>351.01</v>
@@ -7983,13 +8111,13 @@
         <v>415</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L34" s="1">
         <v>40</v>
@@ -8004,15 +8132,15 @@
         <v>900</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2">
         <v>500.01</v>
@@ -8030,13 +8158,13 @@
         <v>415</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L35" s="1">
         <v>55</v>
@@ -8051,15 +8179,15 @@
         <v>1800</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2">
         <v>650.01</v>
@@ -8077,13 +8205,13 @@
         <v>415</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L36" s="1">
         <v>55</v>
@@ -8098,15 +8226,15 @@
         <v>1800</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2">
         <v>750.01</v>
@@ -8124,13 +8252,13 @@
         <v>415</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L37" s="1">
         <v>55</v>
@@ -8145,35 +8273,35 @@
         <v>2500</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H38" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N38" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>328</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -8191,13 +8319,13 @@
         <v>415</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L39" s="1">
         <v>30</v>
@@ -8211,10 +8339,10 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" ref="C40:C47" si="1">D39+0.01</f>
@@ -8233,13 +8361,13 @@
         <v>415</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L40" s="1">
         <v>30</v>
@@ -8253,10 +8381,10 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="1"/>
@@ -8275,13 +8403,13 @@
         <v>415</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L41" s="1">
         <v>30</v>
@@ -8295,10 +8423,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" s="90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C42" s="91">
         <f t="shared" si="1"/>
@@ -8317,14 +8445,14 @@
         <v>415</v>
       </c>
       <c r="H42" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I42" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J42" s="64"/>
       <c r="K42" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L42" s="64">
         <v>40</v>
@@ -8338,10 +8466,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="1"/>
@@ -8360,13 +8488,13 @@
         <v>415</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L43" s="1">
         <v>40</v>
@@ -8380,10 +8508,10 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="1"/>
@@ -8402,13 +8530,13 @@
         <v>415</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L44" s="1">
         <v>55</v>
@@ -8422,10 +8550,10 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="1"/>
@@ -8444,13 +8572,13 @@
         <v>415</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L45" s="1">
         <v>55</v>
@@ -8464,10 +8592,10 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="1"/>
@@ -8486,13 +8614,13 @@
         <v>415</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L46" s="1">
         <v>55</v>
@@ -8506,10 +8634,10 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="1"/>
@@ -8528,13 +8656,13 @@
         <v>415</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L47" s="1">
         <v>55</v>
@@ -8548,30 +8676,30 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H48" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N48" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C49" s="2">
         <v>0</v>
@@ -8589,13 +8717,13 @@
         <v>230</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L49" s="1">
         <v>30</v>
@@ -8607,12 +8735,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2">
         <v>140.01</v>
@@ -8630,13 +8758,13 @@
         <v>230</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L50" s="1">
         <v>30</v>
@@ -8648,12 +8776,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C51" s="1">
         <v>220.01</v>
@@ -8671,14 +8799,14 @@
         <v>230</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L51" s="1">
         <v>30</v>
@@ -8690,14 +8818,14 @@
         <v>28</v>
       </c>
       <c r="S51" s="1"/>
-      <c r="V51" s="95"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="U51" s="95"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C52" s="2">
         <v>280.01</v>
@@ -8715,13 +8843,13 @@
         <v>230</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L52" s="1">
         <v>40</v>
@@ -8733,33 +8861,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H53" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N53" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f>Chaindrive!A32</f>
         <v>JM200</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -8779,13 +8907,13 @@
         <v>415</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L54" s="1">
         <v>25.4</v>
@@ -8800,15 +8928,15 @@
         <v>90</v>
       </c>
       <c r="S54" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>343</v>
-      </c>
       <c r="B55" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C55" s="2">
         <v>15.01</v>
@@ -8828,13 +8956,13 @@
         <v>415</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L55" s="1">
         <v>25.4</v>
@@ -8849,15 +8977,15 @@
         <v>120</v>
       </c>
       <c r="S55" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="B56" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C56" s="2">
         <v>62.01</v>
@@ -8877,13 +9005,13 @@
         <v>415</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L56" s="1">
         <v>25.4</v>
@@ -8895,36 +9023,36 @@
         <v>28</v>
       </c>
       <c r="S56" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H57" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N57" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f>Chaindrive!A4</f>
         <v>Ranger 70 1ph 19-57 1/2"</v>
       </c>
       <c r="B58" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -8942,13 +9070,13 @@
         <v>230</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L58" s="1">
         <v>25.4</v>
@@ -8959,26 +9087,27 @@
       <c r="N58" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O58">
+        <f>Chaindrive!N4</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="R58">
         <v>450</v>
       </c>
       <c r="S58" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="T58">
-        <v>40</v>
-      </c>
-      <c r="V58" s="93">
+        <v>347</v>
+      </c>
+      <c r="U58" s="93">
         <v>300.41000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f>Chaindrive!A7</f>
         <v>Ranger 90 1ph 19-57 1/2"</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C59" s="2">
         <f>D58+0.01</f>
@@ -8999,13 +9128,13 @@
         <v>230</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L59" s="1">
         <v>25.4</v>
@@ -9016,23 +9145,24 @@
       <c r="N59" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O59">
+        <f>Chaindrive!N7</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="R59">
         <v>450</v>
       </c>
       <c r="S59" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="T59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f>Chaindrive!A8</f>
         <v>Ranger 90 1ph 15-57 1/2"</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C60" s="2">
         <f>D59+0.01</f>
@@ -9053,13 +9183,13 @@
         <v>230</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L60" s="1">
         <v>26.4</v>
@@ -9070,37 +9200,38 @@
       <c r="N60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T60">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="O60">
+        <f>Chaindrive!N8</f>
+        <v>10.526315789473685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H61" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N61" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f>Chaindrive!A10</f>
         <v>Ranger 90 3ph 19-57 1/2"</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -9120,13 +9251,13 @@
         <v>415</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L62" s="1">
         <v>25.4</v>
@@ -9137,30 +9268,31 @@
       <c r="N62" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O62">
+        <f>Chaindrive!N10</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="R62">
         <v>370</v>
       </c>
       <c r="S62" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="T62">
-        <v>40</v>
-      </c>
-      <c r="V62" s="93">
+        <v>348</v>
+      </c>
+      <c r="U62" s="93">
         <v>179.04</v>
       </c>
-      <c r="X62">
-        <f>O62*8</f>
+      <c r="W62">
+        <f>P62*8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f>Chaindrive!A11</f>
         <v>Ranger 90 3ph 15-57 1/2"</v>
       </c>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C63" s="2">
         <f>D62+0.01</f>
@@ -9181,13 +9313,13 @@
         <v>415</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L63" s="1">
         <v>25.4</v>
@@ -9198,24 +9330,25 @@
       <c r="N63" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O63">
+        <f>Chaindrive!N11</f>
+        <v>10.526315789473685</v>
+      </c>
       <c r="R63">
         <v>370</v>
       </c>
       <c r="S63" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="T63">
-        <v>40</v>
-      </c>
-      <c r="W63" s="96"/>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="V63" s="96"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f>Chaindrive!A14</f>
         <v>Ranger150 3ph 15-57 5/8"</v>
       </c>
       <c r="B64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C64" s="2">
         <f>D63+0.01</f>
@@ -9236,13 +9369,13 @@
         <v>415</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L64" s="1">
         <v>25.4</v>
@@ -9253,17 +9386,18 @@
       <c r="N64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T64">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O64">
+        <f>Chaindrive!N14</f>
+        <v>10.526315789473685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f>Chaindrive!A15</f>
         <v>Ranger150 3ph 12-57 5/8"</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C65" s="2">
         <f>D64+0.01</f>
@@ -9282,13 +9416,13 @@
         <v>415</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L65" s="1">
         <v>25.4</v>
@@ -9299,23 +9433,24 @@
       <c r="N65" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O65">
+        <f>Chaindrive!N15</f>
+        <v>8.4210526315789469</v>
+      </c>
       <c r="S65" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="T65">
-        <v>40</v>
-      </c>
-      <c r="V65" s="93">
+        <v>349</v>
+      </c>
+      <c r="U65" s="93">
         <v>472.24</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f>Chaindrive!A19</f>
         <v>Ranger220 3ph 19-57 3/4"</v>
       </c>
       <c r="B66" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C66" s="2">
         <v>713.01</v>
@@ -9335,13 +9470,13 @@
         <v>415</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L66" s="1">
         <v>30</v>
@@ -9352,41 +9487,42 @@
       <c r="N66" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O66">
+        <f>Chaindrive!N19</f>
+        <v>13.333333333333334</v>
+      </c>
       <c r="R66">
         <v>450</v>
       </c>
-      <c r="T66">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F67" s="2"/>
       <c r="H67" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N67" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f>Chaindrive!A22</f>
         <v>KE 20.24 19-57 3/4"</v>
       </c>
       <c r="B68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -9407,13 +9543,13 @@
         <v>415</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L68" s="1">
         <f>Chaindrive!C22</f>
@@ -9425,14 +9561,18 @@
       <c r="N68" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O68">
+        <f>Chaindrive!N22</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f>Chaindrive!A23</f>
         <v>KE 30.24  19-57 3/4"</v>
       </c>
       <c r="B69" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C69" s="1">
         <v>600.01</v>
@@ -9453,13 +9593,13 @@
         <v>415</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L69" s="1">
         <f>Chaindrive!C23</f>
@@ -9471,14 +9611,18 @@
       <c r="N69" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O69">
+        <f>Chaindrive!N23</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f>Chaindrive!A24</f>
         <v>KE 40.24  19-57 1"</v>
       </c>
       <c r="B70" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C70" s="2">
         <v>900.01</v>
@@ -9499,13 +9643,13 @@
         <v>415</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L70" s="1">
         <f>Chaindrive!C24</f>
@@ -9517,14 +9661,18 @@
       <c r="N70" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O70">
+        <f>Chaindrive!N24</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f>Chaindrive!A25</f>
         <v>KE 40.24  15-57 1"</v>
       </c>
       <c r="B71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C71" s="2">
         <v>900.01</v>
@@ -9545,14 +9693,14 @@
         <v>415</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J71" s="3"/>
       <c r="K71" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L71" s="1">
         <f>Chaindrive!C25</f>
@@ -9564,14 +9712,18 @@
       <c r="N71" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O71">
+        <f>Chaindrive!N25</f>
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f>Chaindrive!A26</f>
         <v>KE 60.24   19-57 1"</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C72" s="2">
         <v>1200.01</v>
@@ -9592,13 +9744,13 @@
         <v>415</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L72" s="1">
         <f>Chaindrive!C26</f>
@@ -9610,14 +9762,18 @@
       <c r="N72" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O72">
+        <f>Chaindrive!N26</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f>Chaindrive!A27</f>
         <v>KE 80.24   19-57 1 1/4"</v>
       </c>
       <c r="B73" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C73" s="2">
         <v>1800.01</v>
@@ -9638,13 +9794,13 @@
         <v>415</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L73" s="1">
         <f>Chaindrive!C27</f>
@@ -9656,75 +9812,79 @@
       <c r="N73" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="O73">
+        <f>Chaindrive!N27</f>
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F74" s="2"/>
       <c r="H74" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N74" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F75" s="2"/>
       <c r="H75" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N75" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H76" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N76" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -9742,13 +9902,13 @@
         <v>415</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L77" s="1">
         <v>30</v>
@@ -9759,26 +9919,22 @@
       <c r="N77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O77" s="1">
+      <c r="P77" s="1">
         <v>8</v>
       </c>
-      <c r="P77" s="1">
-        <f>(O77*2)*8</f>
-        <v>128</v>
-      </c>
       <c r="S77" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="U77" s="142">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>352</v>
       </c>
-      <c r="V77" s="142">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>353</v>
-      </c>
       <c r="B78" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C78" s="1">
         <f t="shared" ref="C78" si="2">D77+0.01</f>
@@ -9797,13 +9953,13 @@
         <v>415</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L78" s="1">
         <v>30</v>
@@ -9814,32 +9970,28 @@
       <c r="N78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78">
+        <v>20</v>
+      </c>
+      <c r="P78" s="1">
         <v>8</v>
-      </c>
-      <c r="P78" s="1">
-        <f t="shared" ref="P78:P87" si="3">(O78*2)*8</f>
-        <v>128</v>
       </c>
       <c r="R78">
         <v>400</v>
       </c>
       <c r="S78" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="U78" s="142">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>354</v>
       </c>
-      <c r="T78">
-        <v>20</v>
-      </c>
-      <c r="V78" s="142">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>355</v>
-      </c>
       <c r="B79" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C79" s="1">
         <f>D78+0.01</f>
@@ -9858,13 +10010,13 @@
         <v>415</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L79" s="1">
         <v>30</v>
@@ -9875,35 +10027,31 @@
       <c r="N79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79">
+        <v>20</v>
+      </c>
+      <c r="P79" s="1">
         <v>8</v>
-      </c>
-      <c r="P79" s="1">
-        <f t="shared" si="3"/>
-        <v>128</v>
       </c>
       <c r="R79">
         <v>750</v>
       </c>
       <c r="S79" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="U79" s="142">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>356</v>
       </c>
-      <c r="T79">
-        <v>20</v>
-      </c>
-      <c r="V79" s="142">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>357</v>
-      </c>
       <c r="B80" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ref="C80:C88" si="4">D79+0.01</f>
+        <f t="shared" ref="C80:C88" si="3">D79+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D80" s="6">
@@ -9919,13 +10067,13 @@
         <v>415</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L80" s="1">
         <v>40</v>
@@ -9936,35 +10084,31 @@
       <c r="N80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80">
+        <v>20</v>
+      </c>
+      <c r="P80" s="1">
         <v>9</v>
-      </c>
-      <c r="P80" s="1">
-        <f t="shared" si="3"/>
-        <v>144</v>
       </c>
       <c r="R80">
         <v>850</v>
       </c>
       <c r="S80" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="U80" s="142">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>358</v>
       </c>
-      <c r="T80">
-        <v>20</v>
-      </c>
-      <c r="V80" s="142">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>359</v>
-      </c>
       <c r="B81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>350.01</v>
       </c>
       <c r="D81" s="6">
@@ -9980,13 +10124,13 @@
         <v>415</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L81" s="1">
         <v>40</v>
@@ -9997,33 +10141,29 @@
       <c r="N81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81">
+        <v>20</v>
+      </c>
+      <c r="P81" s="1">
         <v>9</v>
-      </c>
-      <c r="P81" s="1">
-        <f t="shared" si="3"/>
-        <v>144</v>
       </c>
       <c r="R81">
         <v>1100</v>
       </c>
       <c r="S81" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="U81" s="142"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>360</v>
       </c>
-      <c r="T81">
-        <v>20</v>
-      </c>
-      <c r="V81" s="142"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>361</v>
-      </c>
       <c r="B82" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>450.01</v>
       </c>
       <c r="D82" s="6">
@@ -10039,13 +10179,13 @@
         <v>415</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L82" s="1">
         <v>40</v>
@@ -10056,33 +10196,29 @@
       <c r="N82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82">
+        <v>20</v>
+      </c>
+      <c r="P82" s="1">
         <v>9</v>
-      </c>
-      <c r="P82" s="1">
-        <f t="shared" si="3"/>
-        <v>144</v>
       </c>
       <c r="R82">
         <v>1100</v>
       </c>
       <c r="S82" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="U82" s="142"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>362</v>
       </c>
-      <c r="T82">
-        <v>20</v>
-      </c>
-      <c r="V82" s="142"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>363</v>
-      </c>
       <c r="B83" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>550.01</v>
       </c>
       <c r="D83" s="6">
@@ -10098,13 +10234,13 @@
         <v>415</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L83" s="1">
         <v>40</v>
@@ -10115,30 +10251,26 @@
       <c r="N83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83">
+        <v>20</v>
+      </c>
+      <c r="P83" s="1">
         <v>9</v>
       </c>
-      <c r="P83" s="1">
+      <c r="S83" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="U83" s="142"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" t="s">
+        <v>346</v>
+      </c>
+      <c r="C84" s="1">
         <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="S83" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="T83">
-        <v>20</v>
-      </c>
-      <c r="V83" s="142"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>365</v>
-      </c>
-      <c r="B84" t="s">
-        <v>347</v>
-      </c>
-      <c r="C84" s="1">
-        <f t="shared" si="4"/>
         <v>650.01</v>
       </c>
       <c r="D84" s="6">
@@ -10154,13 +10286,13 @@
         <v>415</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L84" s="1">
         <v>55</v>
@@ -10171,33 +10303,29 @@
       <c r="N84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84">
+        <v>20</v>
+      </c>
+      <c r="P84" s="1">
         <v>9</v>
-      </c>
-      <c r="P84" s="1">
-        <f t="shared" si="3"/>
-        <v>144</v>
       </c>
       <c r="R84">
         <v>1100</v>
       </c>
       <c r="S84" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="U84" s="142"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>366</v>
       </c>
-      <c r="T84">
-        <v>20</v>
-      </c>
-      <c r="V84" s="142"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>367</v>
-      </c>
       <c r="B85" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>750.01</v>
       </c>
       <c r="D85" s="6">
@@ -10213,13 +10341,13 @@
         <v>415</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L85" s="1">
         <v>55</v>
@@ -10230,26 +10358,22 @@
       <c r="N85" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O85" s="1">
+      <c r="P85" s="1">
         <v>7</v>
       </c>
-      <c r="P85" s="1">
+      <c r="S85" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>368</v>
+      </c>
+      <c r="B86" t="s">
+        <v>346</v>
+      </c>
+      <c r="C86" s="1">
         <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="S85" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>369</v>
-      </c>
-      <c r="B86" t="s">
-        <v>347</v>
-      </c>
-      <c r="C86" s="1">
-        <f t="shared" si="4"/>
         <v>850.01</v>
       </c>
       <c r="D86" s="6">
@@ -10265,13 +10389,13 @@
         <v>415</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L86" s="1">
         <v>55</v>
@@ -10282,32 +10406,28 @@
       <c r="N86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86">
+        <v>20</v>
+      </c>
+      <c r="P86" s="1">
         <v>7</v>
-      </c>
-      <c r="P86" s="1">
-        <f t="shared" si="3"/>
-        <v>112</v>
       </c>
       <c r="R86">
         <v>1300</v>
       </c>
       <c r="S86" s="6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>370</v>
       </c>
-      <c r="T86">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>371</v>
-      </c>
       <c r="B87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1000.01</v>
       </c>
       <c r="D87" s="6">
@@ -10323,13 +10443,13 @@
         <v>415</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L87" s="1">
         <v>55</v>
@@ -10340,144 +10460,138 @@
       <c r="N87" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87">
+        <v>20</v>
+      </c>
+      <c r="P87" s="1">
         <v>7</v>
-      </c>
-      <c r="P87" s="1">
-        <f t="shared" si="3"/>
-        <v>112</v>
       </c>
       <c r="R87">
         <v>1100</v>
       </c>
       <c r="S87" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" s="162" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="162" t="s">
         <v>372</v>
       </c>
-      <c r="T87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="33" t="s">
+      <c r="B88" s="162" t="s">
+        <v>346</v>
+      </c>
+      <c r="C88" s="163">
+        <f t="shared" si="3"/>
+        <v>1400.01</v>
+      </c>
+      <c r="D88" s="164">
+        <v>1800</v>
+      </c>
+      <c r="E88" s="163" t="s">
+        <v>163</v>
+      </c>
+      <c r="F88" s="164">
+        <v>6</v>
+      </c>
+      <c r="G88" s="163">
+        <v>415</v>
+      </c>
+      <c r="H88" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="I88" s="163" t="s">
+        <v>282</v>
+      </c>
+      <c r="J88" s="163"/>
+      <c r="K88" s="163" t="s">
+        <v>282</v>
+      </c>
+      <c r="L88" s="163">
+        <v>60</v>
+      </c>
+      <c r="M88" s="163" t="s">
+        <v>62</v>
+      </c>
+      <c r="N88" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="O88" s="162">
+        <v>10</v>
+      </c>
+      <c r="P88" s="163">
+        <v>7</v>
+      </c>
+      <c r="Q88" s="163"/>
+      <c r="R88" s="162">
+        <v>1300</v>
+      </c>
+      <c r="S88" s="164"/>
+      <c r="U88" s="142"/>
+    </row>
+    <row r="89" spans="1:21" s="162" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="162" t="s">
         <v>373</v>
       </c>
-      <c r="B88" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C88" s="64">
+      <c r="B89" s="162" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" s="163">
+        <f t="shared" ref="C89:C92" si="4">D88+0.01</f>
+        <v>1800.01</v>
+      </c>
+      <c r="D89" s="163">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="163" t="s">
+        <v>163</v>
+      </c>
+      <c r="F89" s="163">
+        <v>5</v>
+      </c>
+      <c r="G89" s="163">
+        <v>415</v>
+      </c>
+      <c r="H89" s="163" t="s">
+        <v>310</v>
+      </c>
+      <c r="I89" s="163" t="s">
+        <v>282</v>
+      </c>
+      <c r="J89" s="163"/>
+      <c r="K89" s="163" t="s">
+        <v>282</v>
+      </c>
+      <c r="L89" s="163">
+        <v>80</v>
+      </c>
+      <c r="M89" s="163" t="s">
+        <v>62</v>
+      </c>
+      <c r="N89" s="163" t="s">
+        <v>28</v>
+      </c>
+      <c r="O89" s="162">
+        <v>10</v>
+      </c>
+      <c r="P89" s="163">
+        <v>9</v>
+      </c>
+      <c r="Q89" s="163"/>
+      <c r="R89" s="162">
+        <v>1500</v>
+      </c>
+      <c r="S89" s="164"/>
+      <c r="U89" s="142"/>
+    </row>
+    <row r="90" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" s="64">
         <f t="shared" si="4"/>
-        <v>1400.01</v>
-      </c>
-      <c r="D88" s="59">
-        <v>1800</v>
-      </c>
-      <c r="E88" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" s="59">
-        <v>6</v>
-      </c>
-      <c r="G88" s="64">
-        <v>415</v>
-      </c>
-      <c r="H88" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="I88" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="J88" s="64"/>
-      <c r="K88" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="L88" s="64">
-        <v>60</v>
-      </c>
-      <c r="M88" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O88" s="64">
-        <v>7</v>
-      </c>
-      <c r="P88" s="64"/>
-      <c r="Q88" s="64"/>
-      <c r="R88" s="33">
-        <v>1300</v>
-      </c>
-      <c r="S88" s="59"/>
-      <c r="T88" s="33">
-        <v>10</v>
-      </c>
-      <c r="V88" s="94"/>
-    </row>
-    <row r="89" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C89" s="64">
-        <f t="shared" ref="C89:C92" si="5">D88+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D89" s="64">
-        <v>2600</v>
-      </c>
-      <c r="E89" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="F89" s="64">
-        <v>5</v>
-      </c>
-      <c r="G89" s="64">
-        <v>415</v>
-      </c>
-      <c r="H89" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="I89" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64" t="s">
-        <v>283</v>
-      </c>
-      <c r="L89" s="64">
-        <v>80</v>
-      </c>
-      <c r="M89" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O89" s="64">
-        <v>9</v>
-      </c>
-      <c r="P89" s="64"/>
-      <c r="Q89" s="64"/>
-      <c r="R89" s="33">
-        <v>1500</v>
-      </c>
-      <c r="S89" s="59"/>
-      <c r="T89" s="33">
-        <v>10</v>
-      </c>
-      <c r="V89" s="94"/>
-    </row>
-    <row r="90" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="C90" s="64">
-        <f t="shared" si="5"/>
         <v>2600.0100000000002</v>
       </c>
       <c r="D90" s="64">
@@ -10493,14 +10607,14 @@
         <v>415</v>
       </c>
       <c r="H90" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I90" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J90" s="64"/>
       <c r="K90" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L90" s="64">
         <v>80</v>
@@ -10508,32 +10622,31 @@
       <c r="M90" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="N90" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O90" s="64">
+      <c r="O90" s="33">
+        <v>10</v>
+      </c>
+      <c r="P90" s="64">
         <v>9</v>
       </c>
-      <c r="P90" s="64"/>
       <c r="Q90" s="64"/>
       <c r="R90" s="33">
         <v>3000</v>
       </c>
       <c r="S90" s="59"/>
-      <c r="T90" s="33">
-        <v>10</v>
-      </c>
-      <c r="V90" s="94"/>
-    </row>
-    <row r="91" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U90" s="94"/>
+    </row>
+    <row r="91" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C91" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
       <c r="D91" s="64">
@@ -10549,14 +10662,14 @@
         <v>415</v>
       </c>
       <c r="H91" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I91" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J91" s="64"/>
       <c r="K91" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L91" s="64">
         <v>80</v>
@@ -10564,32 +10677,31 @@
       <c r="M91" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="N91" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O91" s="64">
+      <c r="O91" s="33">
+        <v>10</v>
+      </c>
+      <c r="P91" s="64">
         <v>9</v>
       </c>
-      <c r="P91" s="64"/>
       <c r="Q91" s="64"/>
       <c r="R91" s="33">
         <v>3000</v>
       </c>
       <c r="S91" s="59"/>
-      <c r="T91" s="33">
-        <v>10</v>
-      </c>
-      <c r="V91" s="94"/>
-    </row>
-    <row r="92" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U91" s="94"/>
+    </row>
+    <row r="92" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C92" s="64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3600.01</v>
       </c>
       <c r="D92" s="64">
@@ -10605,14 +10717,14 @@
         <v>415</v>
       </c>
       <c r="H92" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I92" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J92" s="64"/>
       <c r="K92" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L92" s="64">
         <v>100</v>
@@ -10620,32 +10732,31 @@
       <c r="M92" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="N92" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O92" s="64">
+      <c r="O92" s="33">
         <v>10</v>
       </c>
-      <c r="P92" s="64"/>
+      <c r="P92" s="64">
+        <v>10</v>
+      </c>
       <c r="Q92" s="64"/>
       <c r="R92" s="33">
         <v>3000</v>
       </c>
       <c r="S92" s="59"/>
-      <c r="T92" s="33">
-        <v>10</v>
-      </c>
-      <c r="V92" s="94"/>
-    </row>
-    <row r="93" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="U92" s="94"/>
+    </row>
+    <row r="93" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C93" s="64">
-        <f t="shared" ref="C93" si="6">D92+0.01</f>
+        <f t="shared" ref="C93" si="5">D92+0.01</f>
         <v>4800.01</v>
       </c>
       <c r="D93" s="64">
@@ -10661,14 +10772,14 @@
         <v>415</v>
       </c>
       <c r="H93" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I93" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J93" s="64"/>
       <c r="K93" s="64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L93" s="64">
         <v>101</v>
@@ -10676,49 +10787,48 @@
       <c r="M93" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N93" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="O93" s="64">
+      <c r="O93" s="33">
+        <v>10</v>
+      </c>
+      <c r="P93" s="64">
         <v>9</v>
       </c>
-      <c r="P93" s="64"/>
       <c r="Q93" s="64"/>
       <c r="R93" s="33">
         <v>2500</v>
       </c>
       <c r="S93" s="59"/>
-      <c r="T93" s="33">
-        <v>10</v>
-      </c>
-      <c r="V93" s="94"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U93" s="94"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H94" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N94" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -10736,13 +10846,13 @@
         <v>230</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L95" s="1">
         <v>30</v>
@@ -10753,24 +10863,24 @@
       <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O95" s="1">
+      <c r="O95" s="1"/>
+      <c r="P95" s="1">
         <v>8</v>
       </c>
       <c r="R95" s="1"/>
       <c r="S95" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="U95" s="93">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="T95" s="1"/>
-      <c r="V95" s="93">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>381</v>
-      </c>
       <c r="B96" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C96" s="1">
         <f>D95+0.01</f>
@@ -10789,13 +10899,13 @@
         <v>230</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L96" s="1">
         <v>30</v>
@@ -10806,24 +10916,24 @@
       <c r="N96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O96" s="1">
+      <c r="O96" s="1"/>
+      <c r="P96" s="1">
         <v>8</v>
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="U96" s="93">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="T96" s="1"/>
-      <c r="V96" s="93">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="B97" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C97" s="1">
         <f>D96+0.01</f>
@@ -10842,13 +10952,13 @@
         <v>230</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L97" s="1">
         <v>30</v>
@@ -10859,21 +10969,21 @@
       <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="1">
+      <c r="O97" s="1"/>
+      <c r="P97" s="1">
         <v>7</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="T97" s="1"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="B98" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C98" s="1">
         <f>D97+0.01</f>
@@ -10892,13 +11002,13 @@
         <v>230</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L98" s="1">
         <v>40</v>
@@ -10909,40 +11019,40 @@
       <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O98" s="1">
+      <c r="P98" s="1">
         <v>5</v>
       </c>
       <c r="S98" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="U98" s="142"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H99" s="150" t="s">
+        <v>556</v>
+      </c>
+      <c r="N99" s="150" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>386</v>
       </c>
-      <c r="V98" s="142"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H99" s="150" t="s">
-        <v>557</v>
-      </c>
-      <c r="N99" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>387</v>
-      </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -10951,7 +11061,7 @@
         <v>250</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F100" s="6">
         <v>80</v>
@@ -10960,13 +11070,13 @@
         <v>230</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L100" s="1">
         <v>30</v>
@@ -10977,22 +11087,22 @@
       <c r="N100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O100">
+        <v>20</v>
+      </c>
+      <c r="P100" s="1">
         <v>8</v>
       </c>
       <c r="R100">
         <v>750</v>
       </c>
-      <c r="T100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B101" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C101" s="1">
         <f>D100+0.01</f>
@@ -11002,7 +11112,7 @@
         <v>400</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F101" s="6">
         <v>40</v>
@@ -11011,13 +11121,13 @@
         <v>230</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L101" s="1">
         <v>40</v>
@@ -11028,28 +11138,28 @@
       <c r="N101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O101" s="1">
+      <c r="O101">
+        <v>20</v>
+      </c>
+      <c r="P101" s="1">
         <v>8</v>
       </c>
       <c r="R101">
         <v>750</v>
       </c>
       <c r="S101" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="U101" s="93">
+        <v>1481.78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="T101">
-        <v>20</v>
-      </c>
-      <c r="V101" s="93">
-        <v>1481.78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="B102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C102" s="1">
         <f>D101+0.01</f>
@@ -11059,7 +11169,7 @@
         <v>550</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F102" s="6">
         <v>20</v>
@@ -11068,13 +11178,13 @@
         <v>230</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L102" s="1">
         <v>40</v>
@@ -11085,22 +11195,22 @@
       <c r="N102" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O102" s="1">
+      <c r="O102">
+        <v>20</v>
+      </c>
+      <c r="P102" s="1">
         <v>8</v>
       </c>
       <c r="R102">
         <v>750</v>
       </c>
-      <c r="T102">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B103" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C103" s="1">
         <f>D102+0.01</f>
@@ -11110,7 +11220,7 @@
         <v>750</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F103" s="6">
         <v>20</v>
@@ -11119,13 +11229,13 @@
         <v>230</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L103" s="1">
         <v>55</v>
@@ -11136,42 +11246,42 @@
       <c r="N103" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O103" s="1">
+      <c r="O103">
+        <v>20</v>
+      </c>
+      <c r="P103" s="1">
         <v>8</v>
       </c>
       <c r="R103">
         <v>750</v>
       </c>
-      <c r="T103">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H104" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N104" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C105" s="1">
         <v>0.01</v>
@@ -11180,7 +11290,7 @@
         <v>250</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F105" s="6">
         <v>80</v>
@@ -11189,13 +11299,13 @@
         <v>415</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L105" s="1">
         <v>40</v>
@@ -11206,32 +11316,32 @@
       <c r="N105" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O105" s="1">
+      <c r="O105">
+        <v>20</v>
+      </c>
+      <c r="P105" s="1">
         <v>8</v>
       </c>
       <c r="R105">
         <v>750</v>
       </c>
-      <c r="T105">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ref="C106:C114" si="7">D105+0.01</f>
+        <f t="shared" ref="C106:C114" si="6">D105+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D106" s="6">
         <v>400</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F106" s="6">
         <v>40</v>
@@ -11240,13 +11350,13 @@
         <v>415</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L106" s="1">
         <v>40</v>
@@ -11257,32 +11367,32 @@
       <c r="N106" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O106" s="1">
+      <c r="O106">
+        <v>20</v>
+      </c>
+      <c r="P106" s="1">
         <v>8</v>
       </c>
       <c r="R106">
         <v>750</v>
       </c>
-      <c r="T106">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>400.01</v>
       </c>
       <c r="D107" s="6">
         <v>450</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F107" s="6">
         <v>60</v>
@@ -11291,13 +11401,13 @@
         <v>415</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L107" s="1">
         <v>40</v>
@@ -11308,32 +11418,32 @@
       <c r="N107" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O107" s="1">
+      <c r="O107">
+        <v>20</v>
+      </c>
+      <c r="P107" s="1">
         <v>8</v>
       </c>
       <c r="R107">
         <v>750</v>
       </c>
-      <c r="T107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>450.01</v>
       </c>
       <c r="D108" s="6">
         <v>500</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F108" s="6">
         <v>80</v>
@@ -11342,13 +11452,13 @@
         <v>415</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L108" s="1">
         <v>55</v>
@@ -11359,32 +11469,32 @@
       <c r="N108" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O108" s="1">
+      <c r="O108">
+        <v>20</v>
+      </c>
+      <c r="P108" s="1">
         <v>8</v>
       </c>
       <c r="R108">
         <v>750</v>
       </c>
-      <c r="T108">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>500.01</v>
       </c>
       <c r="D109" s="6">
         <v>550</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F109" s="6">
         <v>20</v>
@@ -11393,13 +11503,13 @@
         <v>415</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L109" s="1">
         <v>40</v>
@@ -11410,32 +11520,32 @@
       <c r="N109" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O109" s="1">
+      <c r="O109">
+        <v>20</v>
+      </c>
+      <c r="P109" s="1">
         <v>8</v>
       </c>
       <c r="R109">
         <v>750</v>
       </c>
-      <c r="T109">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B110" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>550.01</v>
       </c>
       <c r="D110" s="6">
         <v>550</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F110" s="6">
         <v>40</v>
@@ -11444,13 +11554,13 @@
         <v>415</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L110" s="1">
         <v>40</v>
@@ -11461,32 +11571,32 @@
       <c r="N110" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O110" s="1">
+      <c r="O110">
+        <v>20</v>
+      </c>
+      <c r="P110" s="1">
         <v>8</v>
       </c>
       <c r="R110">
         <v>750</v>
       </c>
-      <c r="T110">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>550.01</v>
       </c>
       <c r="D111" s="6">
         <v>750</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F111" s="6">
         <v>20</v>
@@ -11495,13 +11605,13 @@
         <v>415</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L111" s="1">
         <v>55</v>
@@ -11512,32 +11622,32 @@
       <c r="N111" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O111" s="1">
+      <c r="O111">
+        <v>20</v>
+      </c>
+      <c r="P111" s="1">
         <v>8</v>
       </c>
       <c r="R111">
         <v>750</v>
       </c>
-      <c r="T111">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>750.01</v>
       </c>
       <c r="D112" s="6">
         <v>750</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F112" s="6">
         <v>45</v>
@@ -11546,13 +11656,13 @@
         <v>415</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L112" s="1">
         <v>55</v>
@@ -11563,32 +11673,32 @@
       <c r="N112" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O112" s="1">
+      <c r="O112">
+        <v>20</v>
+      </c>
+      <c r="P112" s="1">
         <v>8</v>
       </c>
       <c r="R112">
         <v>750</v>
       </c>
-      <c r="T112">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>750.01</v>
       </c>
       <c r="D113" s="6">
         <v>1000</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F113" s="6">
         <v>30</v>
@@ -11597,13 +11707,13 @@
         <v>415</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L113" s="1">
         <v>55</v>
@@ -11614,32 +11724,32 @@
       <c r="N113" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O113" s="1">
+      <c r="O113">
+        <v>20</v>
+      </c>
+      <c r="P113" s="1">
         <v>8</v>
       </c>
       <c r="R113">
         <v>750</v>
       </c>
-      <c r="T113">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1000.01</v>
       </c>
       <c r="D114" s="6">
         <v>1400</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F114" s="6">
         <v>20</v>
@@ -11648,13 +11758,13 @@
         <v>415</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L114" s="1">
         <v>55</v>
@@ -11665,42 +11775,42 @@
       <c r="N114" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O114" s="1">
+      <c r="O114">
+        <v>20</v>
+      </c>
+      <c r="P114" s="1">
         <v>8</v>
       </c>
       <c r="R114">
         <v>750</v>
       </c>
-      <c r="T114">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H115" s="150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N115" s="150" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B116" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C116" s="1">
         <v>0.01</v>
@@ -11709,7 +11819,7 @@
         <v>250</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F116" s="6">
         <v>15</v>
@@ -11718,13 +11828,13 @@
         <v>415</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L116" s="1">
         <v>30</v>
@@ -11735,28 +11845,28 @@
       <c r="N116" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O116" s="1">
+      <c r="O116">
+        <v>20</v>
+      </c>
+      <c r="P116" s="1">
         <v>11</v>
       </c>
       <c r="R116">
         <v>850</v>
       </c>
       <c r="S116" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="T116">
-        <v>20</v>
-      </c>
-      <c r="V116" s="93">
+        <v>400</v>
+      </c>
+      <c r="U116" s="93">
         <v>624.37</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C117" s="1">
         <f>D116+0.01</f>
@@ -11766,7 +11876,7 @@
         <v>250</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F117" s="6">
         <v>24</v>
@@ -11775,13 +11885,13 @@
         <v>415</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L117" s="1">
         <v>30</v>
@@ -11792,32 +11902,32 @@
       <c r="N117" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O117" s="1">
+      <c r="O117">
+        <v>20</v>
+      </c>
+      <c r="P117" s="1">
         <v>11</v>
       </c>
       <c r="R117">
         <v>850</v>
       </c>
-      <c r="T117">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C118" s="1">
-        <f t="shared" ref="C118:C124" si="8">D117+0.01</f>
+        <f t="shared" ref="C118:C124" si="7">D117+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D118" s="6">
         <v>400</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F118" s="6">
         <v>15</v>
@@ -11826,13 +11936,13 @@
         <v>415</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L118" s="1">
         <v>40</v>
@@ -11843,32 +11953,32 @@
       <c r="N118" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O118" s="1">
+      <c r="O118">
+        <v>20</v>
+      </c>
+      <c r="P118" s="1">
         <v>11</v>
       </c>
       <c r="R118">
         <v>1100</v>
       </c>
-      <c r="T118">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>400.01</v>
       </c>
       <c r="D119" s="6">
         <v>400</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F119" s="6">
         <v>24</v>
@@ -11877,13 +11987,13 @@
         <v>415</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L119" s="1">
         <v>40</v>
@@ -11894,32 +12004,32 @@
       <c r="N119" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O119" s="1">
+      <c r="O119">
+        <v>20</v>
+      </c>
+      <c r="P119" s="1">
         <v>11</v>
       </c>
       <c r="R119">
         <v>1100</v>
       </c>
-      <c r="T119">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B120" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>400.01</v>
       </c>
       <c r="D120" s="6">
         <v>550</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F120" s="6">
         <v>15</v>
@@ -11928,13 +12038,13 @@
         <v>415</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L120" s="1">
         <v>40</v>
@@ -11945,32 +12055,32 @@
       <c r="N120" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O120" s="1">
+      <c r="O120">
+        <v>20</v>
+      </c>
+      <c r="P120" s="1">
         <v>11</v>
       </c>
       <c r="R120">
         <v>1100</v>
       </c>
-      <c r="T120">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B121" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>550.01</v>
       </c>
       <c r="D121" s="6">
         <v>550</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F121" s="6">
         <v>24</v>
@@ -11979,13 +12089,13 @@
         <v>415</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L121" s="1">
         <v>55</v>
@@ -11996,32 +12106,32 @@
       <c r="N121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O121" s="1">
+      <c r="O121">
+        <v>20</v>
+      </c>
+      <c r="P121" s="1">
         <v>11</v>
       </c>
       <c r="R121">
         <v>1500</v>
       </c>
-      <c r="T121">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B122" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>550.01</v>
       </c>
       <c r="D122" s="6">
         <v>750</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F122" s="6">
         <v>24</v>
@@ -12030,13 +12140,13 @@
         <v>415</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L122" s="1">
         <v>55</v>
@@ -12047,32 +12157,32 @@
       <c r="N122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O122" s="1">
+      <c r="O122">
+        <v>20</v>
+      </c>
+      <c r="P122" s="1">
         <v>12</v>
       </c>
       <c r="R122">
         <v>2000</v>
       </c>
-      <c r="T122">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>750.01</v>
       </c>
       <c r="D123" s="6">
         <v>1000</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F123" s="6">
         <v>24</v>
@@ -12081,13 +12191,13 @@
         <v>415</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L123" s="1">
         <v>55</v>
@@ -12098,32 +12208,32 @@
       <c r="N123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O123" s="1">
+      <c r="O123">
+        <v>20</v>
+      </c>
+      <c r="P123" s="1">
         <v>11</v>
       </c>
       <c r="R123">
         <v>3000</v>
       </c>
-      <c r="T123">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B124" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1000.01</v>
       </c>
       <c r="D124" s="6">
         <v>1200</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F124" s="6">
         <v>12</v>
@@ -12132,13 +12242,13 @@
         <v>415</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L124" s="1">
         <v>55</v>
@@ -12149,29 +12259,29 @@
       <c r="N124" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O124" s="1">
+      <c r="O124">
+        <v>20</v>
+      </c>
+      <c r="P124" s="1">
         <v>10</v>
       </c>
       <c r="R124">
         <v>750</v>
       </c>
-      <c r="T124">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T125" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
+  <autoFilter ref="A1:S125" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12186,7 +12296,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12215,63 +12325,69 @@
   <sheetData>
     <row r="1" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="I1" s="60" t="s">
         <v>415</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="J1" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="60" t="s">
         <v>416</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="L1" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="M1" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="L1" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="O1" s="60" t="s">
         <v>418</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="O1" s="60" t="s">
+      <c r="P1" s="60" t="s">
         <v>419</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="157" t="s">
         <v>420</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="R1" s="158" t="s">
-        <v>421</v>
-      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B4" s="83">
         <v>19</v>
@@ -12290,7 +12406,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H4" s="83">
         <v>70</v>
@@ -12331,7 +12447,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" s="83">
         <v>15</v>
@@ -12350,7 +12466,7 @@
         <v>3.8</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H5" s="83">
         <v>71</v>
@@ -12400,10 +12516,10 @@
       <c r="J6" s="73"/>
       <c r="K6" s="88"/>
       <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="73"/>
       <c r="O6" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P6" s="73"/>
       <c r="Q6" s="73"/>
@@ -12411,7 +12527,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="83">
         <v>19</v>
@@ -12430,7 +12546,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H7" s="83">
         <v>90</v>
@@ -12453,7 +12569,7 @@
         <v>40</v>
       </c>
       <c r="N7" s="83">
-        <f t="shared" ref="N7:N27" si="0">M7/F7</f>
+        <f t="shared" ref="N7:N28" si="0">M7/F7</f>
         <v>13.333333333333334</v>
       </c>
       <c r="O7" s="6">
@@ -12471,7 +12587,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B8" s="83">
         <v>15</v>
@@ -12490,7 +12606,7 @@
         <v>3.8</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H8" s="83">
         <v>90</v>
@@ -12542,10 +12658,10 @@
       <c r="J9" s="73"/>
       <c r="K9" s="88"/>
       <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
+      <c r="M9" s="73"/>
       <c r="N9" s="73"/>
       <c r="O9" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P9" s="73"/>
       <c r="Q9" s="73"/>
@@ -12553,7 +12669,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B10" s="83">
         <v>19</v>
@@ -12572,7 +12688,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H10" s="83">
         <v>90</v>
@@ -12613,7 +12729,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B11" s="83">
         <v>15</v>
@@ -12632,7 +12748,7 @@
         <v>3.8</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H11" s="83">
         <v>90</v>
@@ -12684,10 +12800,10 @@
       <c r="J12" s="73"/>
       <c r="K12" s="88"/>
       <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
+      <c r="M12" s="73"/>
       <c r="N12" s="73"/>
       <c r="O12" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P12" s="73"/>
       <c r="Q12" s="73"/>
@@ -12695,7 +12811,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B13" s="83">
         <v>15</v>
@@ -12714,7 +12830,7 @@
         <v>3.8</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H13" s="83">
         <v>150</v>
@@ -12755,7 +12871,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B14" s="83">
         <v>15</v>
@@ -12774,7 +12890,7 @@
         <v>3.8</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H14" s="83">
         <v>150</v>
@@ -12815,7 +12931,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" s="83">
         <v>12</v>
@@ -12834,7 +12950,7 @@
         <v>4.75</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H15" s="83">
         <v>150</v>
@@ -12886,10 +13002,10 @@
       <c r="J16" s="73"/>
       <c r="K16" s="88"/>
       <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
+      <c r="M16" s="73"/>
       <c r="N16" s="73"/>
       <c r="O16" s="73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P16" s="73"/>
       <c r="Q16" s="73"/>
@@ -12897,7 +13013,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="6">
         <v>18</v>
@@ -12916,7 +13032,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H17" s="6">
         <v>220</v>
@@ -12957,7 +13073,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B18" s="6">
         <v>15</v>
@@ -12976,7 +13092,7 @@
         <v>3.8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H18" s="6">
         <v>220</v>
@@ -13017,7 +13133,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="68" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="83">
         <v>19</v>
@@ -13036,7 +13152,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H19" s="83">
         <v>220</v>
@@ -13077,7 +13193,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B20" s="83">
         <v>12</v>
@@ -13096,7 +13212,7 @@
         <v>4.75</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H20" s="83">
         <v>220</v>
@@ -13139,14 +13255,15 @@
       <c r="F21" s="86"/>
       <c r="I21" s="84"/>
       <c r="K21" s="86"/>
-      <c r="N21" s="161"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="160" t="s">
-        <v>435</v>
+      <c r="A22" s="158" t="s">
+        <v>434</v>
       </c>
       <c r="B22" s="59">
         <v>19</v>
@@ -13165,7 +13282,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H22" s="64">
         <v>200</v>
@@ -13184,10 +13301,12 @@
       <c r="L22" s="59">
         <v>415</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="59">
+        <v>20</v>
+      </c>
       <c r="N22" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="O22" s="59">
         <v>115.75</v>
@@ -13204,7 +13323,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B23" s="6">
         <v>19</v>
@@ -13223,7 +13342,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H23" s="6">
         <v>300</v>
@@ -13242,9 +13361,12 @@
       <c r="L23" s="6">
         <v>415</v>
       </c>
+      <c r="M23" s="83">
+        <v>20</v>
+      </c>
       <c r="N23" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="O23" s="6">
         <v>115.75</v>
@@ -13261,7 +13383,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="136" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" s="6">
         <v>19</v>
@@ -13280,7 +13402,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H24" s="6">
         <v>400</v>
@@ -13299,9 +13421,12 @@
       <c r="L24" s="6">
         <v>415</v>
       </c>
+      <c r="M24" s="83">
+        <v>20</v>
+      </c>
       <c r="N24" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="O24" s="6">
         <v>192.91</v>
@@ -13318,7 +13443,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="136" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B25" s="6">
         <v>15</v>
@@ -13337,7 +13462,7 @@
         <v>3.8</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H25" s="6">
         <v>400</v>
@@ -13356,9 +13481,12 @@
       <c r="L25" s="6">
         <v>415</v>
       </c>
+      <c r="M25" s="83">
+        <v>20</v>
+      </c>
       <c r="N25" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="O25" s="6">
         <v>192.91</v>
@@ -13375,7 +13503,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" s="6">
         <v>19</v>
@@ -13394,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H26" s="6">
         <v>600</v>
@@ -13413,9 +13541,12 @@
       <c r="L26" s="6">
         <v>415</v>
       </c>
+      <c r="M26" s="83">
+        <v>20</v>
+      </c>
       <c r="N26" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="O26" s="6">
         <v>192.91</v>
@@ -13432,7 +13563,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B27" s="6">
         <v>15</v>
@@ -13451,7 +13582,7 @@
         <v>3.8</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H27" s="6">
         <v>800</v>
@@ -13470,9 +13601,12 @@
       <c r="L27" s="6">
         <v>415</v>
       </c>
+      <c r="M27" s="83">
+        <v>20</v>
+      </c>
       <c r="N27" s="83">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="O27" s="6">
         <v>152.72</v>
@@ -13486,7 +13620,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B28" s="59">
         <v>15</v>
@@ -13505,7 +13639,7 @@
         <v>3.8</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H28" s="59">
         <v>1200</v>
@@ -13522,10 +13656,15 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
+        <v>435</v>
+      </c>
+      <c r="M28" s="59">
+        <v>20</v>
+      </c>
+      <c r="N28" s="33">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368425</v>
+      </c>
       <c r="O28" s="59">
         <v>152.72</v>
       </c>
@@ -13537,9 +13676,12 @@
       </c>
       <c r="R28" s="59"/>
     </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="M29" s="6"/>
+    </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B32" s="6">
         <v>11</v>
@@ -13555,7 +13697,7 @@
         <v>5.5454545454545459</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H32" s="1">
         <v>20</v>
@@ -13583,7 +13725,7 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B33" s="6">
         <v>9</v>
@@ -13596,7 +13738,7 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H33" s="1">
         <v>62</v>
@@ -13621,7 +13763,7 @@
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" s="6">
         <v>10</v>
@@ -13634,7 +13776,7 @@
         <v>6.4</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H34" s="1">
         <v>95</v>
@@ -13659,7 +13801,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B35" s="6">
         <v>9</v>
@@ -13672,7 +13814,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H35" s="6">
         <v>128</v>
@@ -13697,7 +13839,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B36" s="6">
         <v>11</v>
@@ -13710,7 +13852,7 @@
         <v>4.3636363636363633</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H36" s="6">
         <v>369</v>
@@ -13732,7 +13874,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B37" s="6">
         <v>14</v>
@@ -13745,7 +13887,7 @@
         <v>5.1428571428571432</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H37" s="6">
         <v>428</v>
@@ -13773,7 +13915,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B39" s="6">
         <v>19</v>
@@ -13789,7 +13931,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H39" s="1">
         <v>15</v>
@@ -13817,7 +13959,7 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B40" s="6">
         <v>19</v>
@@ -13833,7 +13975,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H40" s="1">
         <v>62</v>
@@ -13861,7 +14003,7 @@
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="6">
         <v>19</v>
@@ -13877,7 +14019,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H41" s="1">
         <v>95</v>
@@ -13909,7 +14051,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B43" s="6">
         <v>19</v>
@@ -13925,7 +14067,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H43" s="1">
         <v>100</v>
@@ -13953,7 +14095,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B44" s="6">
         <v>15</v>
@@ -13969,7 +14111,7 @@
         <v>3.8</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H44" s="1">
         <v>160</v>
@@ -14001,7 +14143,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B46" s="6">
         <v>19</v>
@@ -14017,7 +14159,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H46" s="1">
         <v>70</v>
@@ -14051,7 +14193,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" s="6">
         <v>15</v>
@@ -14064,7 +14206,7 @@
         <v>3.8</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H48" s="6">
         <v>200</v>
@@ -14092,7 +14234,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B49" s="6">
         <v>15</v>
@@ -14105,7 +14247,7 @@
         <v>3.8</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H49" s="6">
         <v>300</v>
@@ -14133,7 +14275,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B50" s="6">
         <v>15</v>
@@ -14146,7 +14288,7 @@
         <v>3.8</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H50" s="6">
         <v>400</v>
@@ -14174,7 +14316,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B51" s="6">
         <v>15</v>
@@ -14209,7 +14351,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B52" s="6">
         <v>15</v>
@@ -14244,7 +14386,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B53" s="6">
         <v>15</v>
@@ -14313,39 +14455,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>466</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="137">
         <v>12</v>
@@ -14379,7 +14521,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" s="137">
         <v>15</v>
@@ -14413,7 +14555,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="137" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="137">
         <v>19</v>
@@ -14447,7 +14589,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="139" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="140">
         <v>12</v>
@@ -14459,7 +14601,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F5" s="140">
         <v>22400</v>
@@ -14481,7 +14623,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="139" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" s="140">
         <v>18</v>
@@ -14493,7 +14635,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="140" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F6" s="140">
         <v>22400</v>
@@ -14515,7 +14657,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" s="6">
         <v>12</v>
@@ -14527,7 +14669,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F7" s="6">
         <v>29000</v>
@@ -14549,7 +14691,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B8" s="6">
         <v>12</v>
@@ -14561,7 +14703,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F8" s="6">
         <v>29000</v>
@@ -14583,7 +14725,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B9" s="6">
         <v>15</v>
@@ -14595,7 +14737,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F9" s="6">
         <v>29000</v>
@@ -14617,7 +14759,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B10" s="6">
         <v>15</v>
@@ -14629,7 +14771,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F10" s="6">
         <v>60000</v>
@@ -14650,7 +14792,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -14662,7 +14804,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F11" s="6">
         <v>95000</v>
@@ -14693,10 +14835,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91673066-48CE-40A8-80D4-43FC435ADD39}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14710,27 +14852,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B1" t="s">
         <v>471</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>472</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>473</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>474</v>
-      </c>
-      <c r="E1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" t="s">
         <v>476</v>
-      </c>
-      <c r="B3" t="s">
-        <v>477</v>
       </c>
       <c r="C3">
         <v>5900</v>
@@ -14740,15 +14882,15 @@
         <v>601.63256566999996</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" t="s">
         <v>478</v>
-      </c>
-      <c r="B4" t="s">
-        <v>479</v>
       </c>
       <c r="C4">
         <v>10800</v>
@@ -14758,7 +14900,7 @@
         <v>1101.29351004</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -14766,10 +14908,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" t="s">
         <v>476</v>
-      </c>
-      <c r="B6" t="s">
-        <v>477</v>
       </c>
       <c r="C6">
         <v>11250</v>
@@ -14779,15 +14921,15 @@
         <v>1147.1807396249999</v>
       </c>
       <c r="E6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B7" t="s">
         <v>478</v>
-      </c>
-      <c r="B7" t="s">
-        <v>479</v>
       </c>
       <c r="C7">
         <v>18100</v>
@@ -14797,15 +14939,15 @@
         <v>1845.6863455299999</v>
       </c>
       <c r="E7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" t="s">
         <v>480</v>
-      </c>
-      <c r="B8" t="s">
-        <v>481</v>
       </c>
       <c r="C8">
         <v>29200</v>
@@ -14815,15 +14957,15 @@
         <v>2977.5713419599997</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -14833,8 +14975,19 @@
         <v>3344.6691786399997</v>
       </c>
       <c r="E9" t="s">
-        <v>347</v>
-      </c>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>588</v>
+      </c>
+      <c r="E10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="165"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14849,7 +15002,7 @@
   <dimension ref="A1:X82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14869,28 +15022,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="E1" s="46" t="s">
-        <v>475</v>
-      </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="49" t="s">
         <v>485</v>
       </c>
-      <c r="G1" s="48" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="49" t="s">
+      <c r="I1" s="50" t="s">
         <v>486</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>487</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>199</v>
@@ -14898,7 +15051,7 @@
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2" s="99">
         <v>95</v>
@@ -14910,10 +15063,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>489</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>490</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -14921,7 +15074,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B3" s="99">
         <v>147</v>
@@ -14933,10 +15086,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="99" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="99" t="s">
         <v>489</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>490</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -14944,7 +15097,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B4" s="99">
         <v>332</v>
@@ -14956,7 +15109,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F4" s="99">
         <v>480</v>
@@ -14970,7 +15123,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" s="99">
         <v>552</v>
@@ -14982,7 +15135,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G5" s="99">
         <v>40</v>
@@ -14993,7 +15146,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="148" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B6" s="149">
         <v>800</v>
@@ -15005,7 +15158,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -15017,7 +15170,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="148" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B7" s="149">
         <v>1200</v>
@@ -15029,7 +15182,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -15041,7 +15194,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="148" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B8" s="149">
         <v>2200</v>
@@ -15053,7 +15206,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -15064,10 +15217,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="162" t="s">
-        <v>510</v>
-      </c>
-      <c r="B9" s="163">
+      <c r="A9" s="159" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="160">
         <v>3600</v>
       </c>
       <c r="C9" s="59">
@@ -15077,7 +15230,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="59">
@@ -15088,12 +15241,12 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B10" s="99">
         <v>130</v>
@@ -15105,10 +15258,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G10" s="99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -15116,7 +15269,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="100" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B11" s="99">
         <v>145</v>
@@ -15128,13 +15281,13 @@
         <v>22</v>
       </c>
       <c r="E11" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F11" s="99">
         <v>200</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -15150,7 +15303,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P24" s="148" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q24" s="149">
         <v>400</v>
@@ -15162,7 +15315,7 @@
         <v>24</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6">
@@ -15174,7 +15327,7 @@
     </row>
     <row r="25" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P25" s="148" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q25" s="149">
         <v>400</v>
@@ -15186,7 +15339,7 @@
         <v>24</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6">
@@ -15198,7 +15351,7 @@
     </row>
     <row r="26" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q26" s="99">
         <v>599</v>
@@ -15210,7 +15363,7 @@
         <v>20</v>
       </c>
       <c r="T26" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V26" s="99">
         <v>40</v>
@@ -15221,7 +15374,7 @@
     </row>
     <row r="27" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q27" s="99">
         <v>1063</v>
@@ -15233,7 +15386,7 @@
         <v>18</v>
       </c>
       <c r="T27" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V27" s="99">
         <v>50</v>
@@ -15244,7 +15397,7 @@
     </row>
     <row r="28" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P28" s="100" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q28" s="99">
         <v>1943</v>
@@ -15256,7 +15409,7 @@
         <v>12</v>
       </c>
       <c r="T28" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V28" s="99">
         <v>65</v>
@@ -15267,7 +15420,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P29" s="100" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q29" s="99">
         <v>3503</v>
@@ -15279,7 +15432,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V29" s="99">
         <v>80</v>
@@ -15294,7 +15447,7 @@
     <row r="31" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J31" s="8"/>
       <c r="P31" s="100" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q31" s="99">
         <v>332</v>
@@ -15306,7 +15459,7 @@
         <v>22</v>
       </c>
       <c r="T31" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U31" s="99">
         <v>460</v>
@@ -15320,7 +15473,7 @@
     </row>
     <row r="32" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P32" s="101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="99">
         <v>542</v>
@@ -15332,7 +15485,7 @@
         <v>22</v>
       </c>
       <c r="T32" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V32" s="99">
         <v>40</v>
@@ -15344,7 +15497,7 @@
     </row>
     <row r="33" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P33" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q33" s="99">
         <v>1000</v>
@@ -15356,7 +15509,7 @@
         <v>12</v>
       </c>
       <c r="T33" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="V33" s="99">
         <v>50</v>
@@ -15367,7 +15520,7 @@
     </row>
     <row r="34" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P34" s="100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q34" s="99">
         <v>1063</v>
@@ -15379,7 +15532,7 @@
         <v>18</v>
       </c>
       <c r="T34" s="99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="W34">
         <v>10</v>
@@ -15387,7 +15540,7 @@
     </row>
     <row r="35" spans="16:23" x14ac:dyDescent="0.35">
       <c r="P35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q35" s="99">
         <v>145</v>
@@ -15399,13 +15552,13 @@
         <v>22</v>
       </c>
       <c r="T35" s="99" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="U35" s="99">
         <v>200</v>
       </c>
       <c r="V35" s="99" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W35">
         <v>10</v>
@@ -15415,7 +15568,7 @@
     <row r="59" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B59" s="69"/>
       <c r="C59" s="133" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D59" s="134"/>
       <c r="E59" s="134"/>
@@ -15428,33 +15581,33 @@
     <row r="60" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="69"/>
       <c r="C60" s="102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D60" s="103" t="s">
+        <v>511</v>
+      </c>
+      <c r="E60" s="103" t="s">
         <v>512</v>
       </c>
-      <c r="E60" s="103" t="s">
+      <c r="F60" s="103" t="s">
         <v>513</v>
       </c>
-      <c r="F60" s="103" t="s">
+      <c r="G60" s="103" t="s">
         <v>514</v>
       </c>
-      <c r="G60" s="103" t="s">
+      <c r="H60" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="I60" s="103" t="s">
         <v>515</v>
       </c>
-      <c r="H60" s="103" t="s">
-        <v>503</v>
-      </c>
-      <c r="I60" s="103" t="s">
+      <c r="J60" s="104" t="s">
         <v>516</v>
-      </c>
-      <c r="J60" s="104" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="105" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C61" s="106">
         <v>1</v>
@@ -15768,7 +15921,7 @@
       </c>
       <c r="C75" s="115"/>
       <c r="D75" s="116" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E75" s="117">
         <v>360</v>
@@ -15805,13 +15958,13 @@
         <v>823</v>
       </c>
       <c r="H76" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I76" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J76" s="125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
@@ -15830,13 +15983,13 @@
         <v>823</v>
       </c>
       <c r="H77" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I77" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J77" s="125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
@@ -15855,13 +16008,13 @@
         <v>823</v>
       </c>
       <c r="H78" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I78" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J78" s="125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
@@ -15880,13 +16033,13 @@
         <v>823</v>
       </c>
       <c r="H79" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I79" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J79" s="125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
@@ -15904,16 +16057,16 @@
         <v>490</v>
       </c>
       <c r="G80" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H80" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I80" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J80" s="125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
@@ -15927,22 +16080,22 @@
         <v>234</v>
       </c>
       <c r="E81" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F81" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G81" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H81" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I81" s="124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J81" s="125" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -15956,22 +16109,22 @@
         <v>242</v>
       </c>
       <c r="E82" s="131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F82" s="131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G82" s="131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H82" s="131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I82" s="131" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J82" s="132" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -16005,22 +16158,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>521</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>522</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -16033,7 +16186,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -16057,7 +16210,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -16081,7 +16234,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -16105,7 +16258,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -16129,7 +16282,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B7" s="6">
         <v>300</v>
@@ -16153,7 +16306,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B8" s="6">
         <v>350</v>
@@ -16177,7 +16330,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B9" s="6">
         <v>400</v>
@@ -16201,7 +16354,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B10" s="6">
         <v>450</v>
@@ -16233,7 +16386,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -16257,7 +16410,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -16281,7 +16434,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -16305,7 +16458,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B16" s="6">
         <v>450</v>
@@ -16329,7 +16482,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>
@@ -16353,7 +16506,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B18" s="6">
         <v>550</v>
@@ -16377,7 +16530,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B19" s="59">
         <v>600</v>
@@ -16404,7 +16557,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B21" s="6">
         <v>135</v>
@@ -16425,7 +16578,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B22" s="6">
         <v>180</v>
@@ -16446,7 +16599,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B23" s="6">
         <v>205</v>
@@ -16467,7 +16620,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B24" s="6">
         <v>250</v>
@@ -16488,7 +16641,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B25" s="6">
         <v>300</v>
@@ -16509,7 +16662,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B26" s="6">
         <v>350</v>
@@ -16554,7 +16707,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -16573,7 +16726,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -16604,19 +16757,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B3" t="s">
         <v>541</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>542</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>543</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>544</v>
-      </c>
-      <c r="E3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16691,13 +16844,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
+        <v>545</v>
+      </c>
+      <c r="P18" t="s">
         <v>546</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>547</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -16706,18 +16859,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
+        <v>548</v>
+      </c>
+      <c r="P19" t="s">
         <v>549</v>
-      </c>
-      <c r="P19" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -16745,22 +16898,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" t="s">
         <v>552</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>553</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>554</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>555</v>
       </c>
-      <c r="H4" t="s">
-        <v>556</v>
-      </c>
       <c r="I4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -16785,15 +16938,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="159">
+      <c r="D6" s="161">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -19481,7 +19634,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19623,7 +19776,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="145" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B11" s="25">
         <v>0.95</v>
@@ -19926,15 +20079,15 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -19953,7 +20106,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -20015,7 +20168,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -20091,10 +20244,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB295D-7881-4D5C-8380-F1C84A7F5934}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:J13"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20154,7 +20307,7 @@
         <v>226</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -20636,13 +20789,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="151" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B13" s="151" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D13" s="152">
         <v>273.05</v>
@@ -20665,17 +20818,8 @@
         <v>28</v>
       </c>
       <c r="K13" s="151"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="156"/>
-      <c r="C15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16" s="33"/>
-      <c r="C16" t="s">
-        <v>252</v>
+      <c r="O13" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -20707,34 +20851,34 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="C2" t="s">
-        <v>577</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20755,7 +20899,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C4" s="157">
+      <c r="C4" s="156">
         <f t="shared" ref="C4:C16" si="0">(D4-B4)/2</f>
         <v>-1.7000000000000028</v>
       </c>
@@ -20768,7 +20912,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -20779,7 +20923,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C5" s="157">
+      <c r="C5" s="156">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20792,7 +20936,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -20803,7 +20947,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C6" s="157">
+      <c r="C6" s="156">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20816,7 +20960,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -20827,7 +20971,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="156">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20840,7 +20984,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -20851,7 +20995,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C8" s="157">
+      <c r="C8" s="156">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20864,7 +21008,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -20875,7 +21019,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C9" s="157">
+      <c r="C9" s="156">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20888,7 +21032,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -20899,7 +21043,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C10" s="157">
+      <c r="C10" s="156">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20912,7 +21056,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -20923,7 +21067,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C11" s="157">
+      <c r="C11" s="156">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20936,7 +21080,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -20947,7 +21091,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C12" s="157">
+      <c r="C12" s="156">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20960,7 +21104,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -20971,7 +21115,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C13" s="157">
+      <c r="C13" s="156">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -20984,7 +21128,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -20995,7 +21139,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C14" s="157">
+      <c r="C14" s="156">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21008,7 +21152,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -21019,7 +21163,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C15" s="157">
+      <c r="C15" s="156">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21032,7 +21176,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
@@ -21043,7 +21187,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C16" s="157">
+      <c r="C16" s="156">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21056,18 +21200,18 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="157">
+      <c r="B17" s="156">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C17" s="157">
+      <c r="C17" s="156">
         <f>(D17-B17)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -21080,18 +21224,18 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="157">
+      <c r="B18" s="156">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C18" s="157">
+      <c r="C18" s="156">
         <f t="shared" ref="C18:C34" si="1">(D18-B18)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -21104,18 +21248,18 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="157">
+      <c r="B19" s="156">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C19" s="157">
+      <c r="C19" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21128,18 +21272,18 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="157">
+      <c r="B20" s="156">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C20" s="157">
+      <c r="C20" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21152,18 +21296,18 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="156" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="157">
+      <c r="B21" s="156">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C21" s="157">
+      <c r="C21" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21176,18 +21320,18 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="157">
+      <c r="B22" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C22" s="157">
+      <c r="C22" s="156">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21200,18 +21344,18 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="157">
+      <c r="B23" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C23" s="157">
+      <c r="C23" s="156">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21224,18 +21368,18 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="157" t="s">
+      <c r="A24" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="157">
+      <c r="B24" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C24" s="157">
+      <c r="C24" s="156">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21248,18 +21392,18 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="157">
+      <c r="B25" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C25" s="157">
+      <c r="C25" s="156">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -21272,18 +21416,18 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="157">
+      <c r="B26" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C26" s="157">
+      <c r="C26" s="156">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -21296,18 +21440,18 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="157">
+      <c r="B27" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C27" s="157">
+      <c r="C27" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21320,18 +21464,18 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="157">
+      <c r="B28" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C28" s="157">
+      <c r="C28" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21344,18 +21488,18 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="157">
+      <c r="B29" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C29" s="157">
+      <c r="C29" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21368,18 +21512,18 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="157">
+      <c r="B30" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C30" s="157">
+      <c r="C30" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21392,18 +21536,18 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="157" t="s">
+      <c r="A31" s="156" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="157">
+      <c r="B31" s="156">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C31" s="157">
+      <c r="C31" s="156">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21416,7 +21560,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -21427,7 +21571,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C32" s="157">
+      <c r="C32" s="156">
         <f t="shared" si="1"/>
         <v>-2.1350000000000193</v>
       </c>
@@ -21440,7 +21584,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -21451,7 +21595,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C33" s="157">
+      <c r="C33" s="156">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21464,7 +21608,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -21475,7 +21619,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C34" s="157">
+      <c r="C34" s="156">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21488,7 +21632,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -21504,7 +21648,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -21520,12 +21664,12 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -21541,7 +21685,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -21560,7 +21704,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -21579,7 +21723,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -21598,7 +21742,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -21617,12 +21761,12 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -21638,12 +21782,12 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -21659,7 +21803,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -21678,7 +21822,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
@@ -21697,7 +21841,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
@@ -21716,7 +21860,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
@@ -21735,7 +21879,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
@@ -21754,7 +21898,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
@@ -21773,7 +21917,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -21792,7 +21936,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -21811,7 +21955,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -21846,10 +21990,10 @@
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="I54" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2046" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9F0551-B55B-49EB-9DA7-89D06A2F3862}"/>
+  <xr:revisionPtr revIDLastSave="2052" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3A5FF7-321C-49DB-BC0A-82A85E0E12C9}"/>
   <bookViews>
     <workbookView xWindow="9460" yWindow="440" windowWidth="28780" windowHeight="19120" tabRatio="859" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="580">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2259,69 +2259,6 @@
   </si>
   <si>
     <t>FG 360 - 80</t>
-  </si>
-  <si>
-    <t>Max. Catch Weight (kg) per Tube Diameter and Safety Break</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GDB 18</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RSB 1 / 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(RSB1-30)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RSB 2 / 3 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(RSB1-40)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RSB 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(PCM10A)</t>
-    </r>
-  </si>
-  <si>
-    <t>TA5</t>
-  </si>
-  <si>
-    <t>TA6</t>
-  </si>
-  <si>
-    <t>Tube O/D (mm)</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Size</t>
@@ -2543,7 +2480,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2683,19 +2620,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF2E2F3C"/>
       <name val="Calibri"/>
@@ -2716,7 +2640,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2773,24 +2697,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2808,7 +2714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2842,315 +2748,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3158,7 +2755,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3449,122 +3046,20 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3595,13 +3090,13 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3610,7 +3105,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3619,17 +3114,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{4B6C72F7-C4CA-450E-9C13-94CEF72F8B8D}"/>
@@ -5395,50 +4883,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595489</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>47897</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>504766</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>140387</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2722705-3BF1-4074-AFB2-A2DBB12E1448}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11926711" y="15929953"/>
-          <a:ext cx="5370277" cy="4445768"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5464,7 +4908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5508,7 +4952,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5552,7 +4996,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5596,7 +5040,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5640,7 +5084,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5684,7 +5128,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5728,7 +5172,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5772,7 +5216,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5816,7 +5260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5860,7 +5304,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5904,7 +5348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5948,7 +5392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5992,7 +5436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6036,7 +5480,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6080,7 +5524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6124,7 +5568,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6168,7 +5612,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6212,7 +5656,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6231,16 +5675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437445</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>169497</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>471555</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>382658</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>48222</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6256,14 +5700,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11161889" y="4783830"/>
+          <a:off x="3358445" y="6124385"/>
           <a:ext cx="4105166" cy="4121939"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7103,11 +6547,11 @@
       <c r="D10" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H10" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N10" s="150" t="s">
-        <v>556</v>
+      <c r="H10" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N10" s="116" t="s">
+        <v>546</v>
       </c>
       <c r="Q10" s="64"/>
     </row>
@@ -7220,11 +6664,11 @@
       <c r="D13" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H13" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N13" s="150" t="s">
-        <v>556</v>
+      <c r="H13" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N13" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
@@ -7875,11 +7319,11 @@
       <c r="D28" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N28" s="150" t="s">
-        <v>556</v>
+      <c r="H28" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N28" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -7920,8 +7364,8 @@
       <c r="M29" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="N29" s="150" t="s">
-        <v>556</v>
+      <c r="N29" s="116" t="s">
+        <v>546</v>
       </c>
       <c r="P29" s="64"/>
       <c r="Q29" s="64"/>
@@ -7940,11 +7384,11 @@
       <c r="B30" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H30" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N30" s="150" t="s">
-        <v>556</v>
+      <c r="H30" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N30" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -8289,11 +7733,11 @@
       <c r="D38" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H38" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N38" s="150" t="s">
-        <v>556</v>
+      <c r="H38" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N38" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -8687,11 +8131,11 @@
       <c r="D48" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H48" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N48" s="150" t="s">
-        <v>556</v>
+      <c r="H48" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N48" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.35">
@@ -8874,11 +8318,11 @@
       <c r="D53" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H53" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N53" s="150" t="s">
-        <v>556</v>
+      <c r="H53" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N53" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.35">
@@ -9039,11 +8483,11 @@
       <c r="D57" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H57" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N57" s="150" t="s">
-        <v>556</v>
+      <c r="H57" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N57" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.35">
@@ -9218,11 +8662,11 @@
       <c r="D61" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H61" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N61" s="150" t="s">
-        <v>556</v>
+      <c r="H61" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N61" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.35">
@@ -9509,11 +8953,11 @@
         <v>290</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="H67" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N67" s="150" t="s">
-        <v>556</v>
+      <c r="H67" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N67" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.35">
@@ -9831,11 +9275,11 @@
         <v>290</v>
       </c>
       <c r="F74" s="2"/>
-      <c r="H74" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N74" s="150" t="s">
-        <v>556</v>
+      <c r="H74" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N74" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.35">
@@ -9852,11 +9296,11 @@
         <v>290</v>
       </c>
       <c r="F75" s="2"/>
-      <c r="H75" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N75" s="150" t="s">
-        <v>556</v>
+      <c r="H75" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N75" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.35">
@@ -9872,11 +9316,11 @@
       <c r="D76" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H76" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N76" s="150" t="s">
-        <v>556</v>
+      <c r="H76" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N76" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.35">
@@ -9925,7 +9369,7 @@
       <c r="S77" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="U77" s="142">
+      <c r="U77" s="108">
         <v>266</v>
       </c>
     </row>
@@ -9982,7 +9426,7 @@
       <c r="S78" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="U78" s="142">
+      <c r="U78" s="108">
         <v>280</v>
       </c>
     </row>
@@ -10039,7 +9483,7 @@
       <c r="S79" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="U79" s="142">
+      <c r="U79" s="108">
         <v>307</v>
       </c>
     </row>
@@ -10096,7 +9540,7 @@
       <c r="S80" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="U80" s="142">
+      <c r="U80" s="108">
         <v>383</v>
       </c>
     </row>
@@ -10153,7 +9597,7 @@
       <c r="S81" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="U81" s="142"/>
+      <c r="U81" s="108"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
@@ -10208,7 +9652,7 @@
       <c r="S82" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="U82" s="142"/>
+      <c r="U82" s="108"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
@@ -10260,7 +9704,7 @@
       <c r="S83" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="U83" s="142"/>
+      <c r="U83" s="108"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
@@ -10315,7 +9759,7 @@
       <c r="S84" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="U84" s="142"/>
+      <c r="U84" s="108"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
@@ -10473,115 +9917,109 @@
         <v>371</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="162" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="162" t="s">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>372</v>
       </c>
-      <c r="B88" s="162" t="s">
+      <c r="B88" t="s">
         <v>346</v>
       </c>
-      <c r="C88" s="163">
+      <c r="C88" s="1">
         <f t="shared" si="3"/>
         <v>1400.01</v>
       </c>
-      <c r="D88" s="164">
+      <c r="D88" s="6">
         <v>1800</v>
       </c>
-      <c r="E88" s="163" t="s">
+      <c r="E88" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F88" s="164">
+      <c r="F88" s="6">
         <v>6</v>
       </c>
-      <c r="G88" s="163">
+      <c r="G88" s="1">
         <v>415</v>
       </c>
-      <c r="H88" s="163" t="s">
+      <c r="H88" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I88" s="163" t="s">
+      <c r="I88" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J88" s="163"/>
-      <c r="K88" s="163" t="s">
+      <c r="K88" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L88" s="163">
+      <c r="L88" s="1">
         <v>60</v>
       </c>
-      <c r="M88" s="163" t="s">
+      <c r="M88" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N88" s="163" t="s">
+      <c r="N88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O88" s="162">
+      <c r="O88">
         <v>10</v>
       </c>
-      <c r="P88" s="163">
+      <c r="P88" s="1">
         <v>7</v>
       </c>
-      <c r="Q88" s="163"/>
-      <c r="R88" s="162">
+      <c r="R88">
         <v>1300</v>
       </c>
-      <c r="S88" s="164"/>
-      <c r="U88" s="142"/>
-    </row>
-    <row r="89" spans="1:21" s="162" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="162" t="s">
+      <c r="U88" s="108"/>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>373</v>
       </c>
-      <c r="B89" s="162" t="s">
+      <c r="B89" t="s">
         <v>346</v>
       </c>
-      <c r="C89" s="163">
+      <c r="C89" s="1">
         <f t="shared" ref="C89:C92" si="4">D88+0.01</f>
         <v>1800.01</v>
       </c>
-      <c r="D89" s="163">
+      <c r="D89" s="1">
         <v>2600</v>
       </c>
-      <c r="E89" s="163" t="s">
+      <c r="E89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F89" s="163">
+      <c r="F89" s="1">
         <v>5</v>
       </c>
-      <c r="G89" s="163">
+      <c r="G89" s="1">
         <v>415</v>
       </c>
-      <c r="H89" s="163" t="s">
+      <c r="H89" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I89" s="163" t="s">
+      <c r="I89" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J89" s="163"/>
-      <c r="K89" s="163" t="s">
+      <c r="K89" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L89" s="163">
+      <c r="L89" s="1">
         <v>80</v>
       </c>
-      <c r="M89" s="163" t="s">
+      <c r="M89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N89" s="163" t="s">
+      <c r="N89" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O89" s="162">
+      <c r="O89">
         <v>10</v>
       </c>
-      <c r="P89" s="163">
+      <c r="P89" s="1">
         <v>9</v>
       </c>
-      <c r="Q89" s="163"/>
-      <c r="R89" s="162">
+      <c r="R89">
         <v>1500</v>
       </c>
-      <c r="S89" s="164"/>
-      <c r="U89" s="142"/>
+      <c r="U89" s="108"/>
     </row>
     <row r="90" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="33" t="s">
@@ -10816,11 +10254,11 @@
       <c r="D94" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H94" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N94" s="150" t="s">
-        <v>556</v>
+      <c r="H94" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N94" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.35">
@@ -11025,7 +10463,7 @@
       <c r="S98" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="U98" s="142"/>
+      <c r="U98" s="108"/>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
@@ -11040,11 +10478,11 @@
       <c r="D99" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H99" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N99" s="150" t="s">
-        <v>556</v>
+      <c r="H99" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N99" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.35">
@@ -11269,11 +10707,11 @@
       <c r="D104" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H104" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N104" s="150" t="s">
-        <v>556</v>
+      <c r="H104" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N104" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.35">
@@ -11798,11 +11236,11 @@
       <c r="D115" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="H115" s="150" t="s">
-        <v>556</v>
-      </c>
-      <c r="N115" s="150" t="s">
-        <v>556</v>
+      <c r="H115" s="116" t="s">
+        <v>546</v>
+      </c>
+      <c r="N115" s="116" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.35">
@@ -12364,7 +11802,7 @@
         <v>417</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="O1" s="60" t="s">
         <v>418</v>
@@ -12375,7 +11813,7 @@
       <c r="Q1" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="R1" s="157" t="s">
+      <c r="R1" s="123" t="s">
         <v>420</v>
       </c>
     </row>
@@ -12811,7 +12249,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B13" s="83">
         <v>15</v>
@@ -12871,7 +12309,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B14" s="83">
         <v>15</v>
@@ -13262,7 +12700,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="158" t="s">
+      <c r="A22" s="124" t="s">
         <v>434</v>
       </c>
       <c r="B22" s="59">
@@ -13382,7 +12820,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="102" t="s">
         <v>437</v>
       </c>
       <c r="B24" s="6">
@@ -13442,8 +12880,8 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="136" t="s">
-        <v>557</v>
+      <c r="A25" s="102" t="s">
+        <v>547</v>
       </c>
       <c r="B25" s="6">
         <v>15</v>
@@ -14482,176 +13920,176 @@
         <v>465</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="103" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="137">
+      <c r="B2" s="103">
         <v>12</v>
       </c>
-      <c r="C2" s="137">
+      <c r="C2" s="103">
         <v>25.4</v>
       </c>
-      <c r="D2" s="137">
+      <c r="D2" s="103">
         <v>57</v>
       </c>
-      <c r="E2" s="137">
+      <c r="E2" s="103">
         <v>30</v>
       </c>
-      <c r="F2" s="137">
+      <c r="F2" s="103">
         <v>18000</v>
       </c>
-      <c r="G2" s="138">
+      <c r="G2" s="104">
         <f>0.5*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H2" s="137">
+      <c r="H2" s="103">
         <v>17999</v>
       </c>
-      <c r="I2" s="137">
+      <c r="I2" s="103">
         <f>D2/B2</f>
         <v>4.75</v>
       </c>
-      <c r="J2" s="137">
+      <c r="J2" s="103">
         <v>230.54</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="103" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="137">
+      <c r="B3" s="103">
         <v>15</v>
       </c>
-      <c r="C3" s="137">
+      <c r="C3" s="103">
         <v>25.4</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="103">
         <v>57</v>
       </c>
-      <c r="E3" s="137">
+      <c r="E3" s="103">
         <v>30</v>
       </c>
-      <c r="F3" s="137">
+      <c r="F3" s="103">
         <v>18000</v>
       </c>
-      <c r="G3" s="138">
+      <c r="G3" s="104">
         <f>0.5*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H3" s="137">
+      <c r="H3" s="103">
         <v>18000</v>
       </c>
-      <c r="I3" s="137">
+      <c r="I3" s="103">
         <f>D3/B3</f>
         <v>3.8</v>
       </c>
-      <c r="J3" s="137">
+      <c r="J3" s="103">
         <v>230.54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="103" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="137">
+      <c r="B4" s="103">
         <v>19</v>
       </c>
-      <c r="C4" s="137">
+      <c r="C4" s="103">
         <v>25.4</v>
       </c>
-      <c r="D4" s="137">
+      <c r="D4" s="103">
         <v>57</v>
       </c>
-      <c r="E4" s="137">
+      <c r="E4" s="103">
         <v>30</v>
       </c>
-      <c r="F4" s="137">
+      <c r="F4" s="103">
         <v>18000</v>
       </c>
-      <c r="G4" s="138">
+      <c r="G4" s="104">
         <f>0.5*25.4</f>
         <v>12.7</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="103">
         <v>18000</v>
       </c>
-      <c r="I4" s="137">
+      <c r="I4" s="103">
         <f t="shared" ref="I4:I7" si="0">D4/B4</f>
         <v>3</v>
       </c>
-      <c r="J4" s="137">
+      <c r="J4" s="103">
         <v>230.54</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="106">
         <v>12</v>
       </c>
-      <c r="C5" s="140">
+      <c r="C5" s="106">
         <v>25.4</v>
       </c>
-      <c r="D5" s="140">
+      <c r="D5" s="106">
         <v>57</v>
       </c>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="106" t="s">
         <v>466</v>
       </c>
-      <c r="F5" s="140">
+      <c r="F5" s="106">
         <v>22400</v>
       </c>
-      <c r="G5" s="141">
+      <c r="G5" s="107">
         <f>0.625*25.4</f>
         <v>15.875</v>
       </c>
-      <c r="H5" s="140">
+      <c r="H5" s="106">
         <v>22400</v>
       </c>
-      <c r="I5" s="140">
+      <c r="I5" s="106">
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="J5" s="140">
+      <c r="J5" s="106">
         <v>288.18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="139" t="s">
+      <c r="A6" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="B6" s="140">
+      <c r="B6" s="106">
         <v>18</v>
       </c>
-      <c r="C6" s="140">
+      <c r="C6" s="106">
         <v>25.4</v>
       </c>
-      <c r="D6" s="140">
+      <c r="D6" s="106">
         <v>57</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="106" t="s">
         <v>466</v>
       </c>
-      <c r="F6" s="140">
+      <c r="F6" s="106">
         <v>22400</v>
       </c>
-      <c r="G6" s="141">
+      <c r="G6" s="107">
         <f>0.625*25.4</f>
         <v>15.875</v>
       </c>
-      <c r="H6" s="140">
+      <c r="H6" s="106">
         <v>22400</v>
       </c>
-      <c r="I6" s="140">
+      <c r="I6" s="106">
         <f t="shared" si="0"/>
         <v>3.1666666666666665</v>
       </c>
-      <c r="J6" s="140">
+      <c r="J6" s="106">
         <v>288.18</v>
       </c>
     </row>
@@ -14962,10 +14400,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B9" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -14980,14 +14418,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E10" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E14" s="165"/>
+      <c r="E14" s="127"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -14999,10 +14437,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
-  <dimension ref="A1:X82"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15145,16 +14583,16 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="114" t="s">
         <v>506</v>
       </c>
-      <c r="B6" s="149">
+      <c r="B6" s="115">
         <v>800</v>
       </c>
       <c r="C6" s="6">
         <v>2330</v>
       </c>
-      <c r="D6" s="149">
+      <c r="D6" s="115">
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -15169,16 +14607,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="114" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="149">
+      <c r="B7" s="115">
         <v>1200</v>
       </c>
       <c r="C7" s="6">
         <v>3530</v>
       </c>
-      <c r="D7" s="149">
+      <c r="D7" s="115">
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -15193,16 +14631,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="114" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="149">
+      <c r="B8" s="115">
         <v>2200</v>
       </c>
       <c r="C8" s="6">
         <v>6691</v>
       </c>
-      <c r="D8" s="149">
+      <c r="D8" s="115">
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -15217,10 +14655,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="125" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="160">
+      <c r="B9" s="126">
         <v>3600</v>
       </c>
       <c r="C9" s="59">
@@ -15241,7 +14679,7 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -15302,16 +14740,16 @@
       <c r="H17" s="6"/>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="P24" s="148" t="s">
+      <c r="P24" s="114" t="s">
         <v>504</v>
       </c>
-      <c r="Q24" s="149">
+      <c r="Q24" s="115">
         <v>400</v>
       </c>
       <c r="R24" s="6">
         <v>1075</v>
       </c>
-      <c r="S24" s="149">
+      <c r="S24" s="115">
         <v>24</v>
       </c>
       <c r="T24" s="6" t="s">
@@ -15326,16 +14764,16 @@
       </c>
     </row>
     <row r="25" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="P25" s="148" t="s">
+      <c r="P25" s="114" t="s">
         <v>505</v>
       </c>
-      <c r="Q25" s="149">
+      <c r="Q25" s="115">
         <v>400</v>
       </c>
       <c r="R25" s="6">
         <v>1075</v>
       </c>
-      <c r="S25" s="149">
+      <c r="S25" s="115">
         <v>24</v>
       </c>
       <c r="T25" s="6" t="s">
@@ -15562,569 +15000,6 @@
       </c>
       <c r="W35">
         <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="69"/>
-      <c r="C59" s="133" t="s">
-        <v>510</v>
-      </c>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="135"/>
-    </row>
-    <row r="60" spans="2:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="69"/>
-      <c r="C60" s="102" t="s">
-        <v>497</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>511</v>
-      </c>
-      <c r="E60" s="103" t="s">
-        <v>512</v>
-      </c>
-      <c r="F60" s="103" t="s">
-        <v>513</v>
-      </c>
-      <c r="G60" s="103" t="s">
-        <v>514</v>
-      </c>
-      <c r="H60" s="103" t="s">
-        <v>502</v>
-      </c>
-      <c r="I60" s="103" t="s">
-        <v>515</v>
-      </c>
-      <c r="J60" s="104" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="C61" s="106">
-        <v>1</v>
-      </c>
-      <c r="D61" s="107">
-        <v>2</v>
-      </c>
-      <c r="E61" s="107">
-        <v>3</v>
-      </c>
-      <c r="F61" s="107">
-        <v>4</v>
-      </c>
-      <c r="G61" s="107">
-        <v>5</v>
-      </c>
-      <c r="H61" s="107">
-        <v>6</v>
-      </c>
-      <c r="I61" s="107">
-        <v>7</v>
-      </c>
-      <c r="J61" s="108">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="109">
-        <v>508</v>
-      </c>
-      <c r="C62" s="110"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="112"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="112">
-        <v>300</v>
-      </c>
-      <c r="I62" s="112">
-        <v>740</v>
-      </c>
-      <c r="J62" s="113">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="114">
-        <v>457</v>
-      </c>
-      <c r="C63" s="115"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117">
-        <v>330</v>
-      </c>
-      <c r="I63" s="117">
-        <v>755</v>
-      </c>
-      <c r="J63" s="118">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="119">
-        <v>419</v>
-      </c>
-      <c r="C64" s="120"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122">
-        <v>380</v>
-      </c>
-      <c r="I64" s="122">
-        <v>800</v>
-      </c>
-      <c r="J64" s="123">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="114">
-        <v>406</v>
-      </c>
-      <c r="C65" s="115"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="117"/>
-      <c r="H65" s="117">
-        <v>400</v>
-      </c>
-      <c r="I65" s="117">
-        <v>825</v>
-      </c>
-      <c r="J65" s="118">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="119">
-        <v>368</v>
-      </c>
-      <c r="C66" s="120"/>
-      <c r="D66" s="121"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="122">
-        <v>450</v>
-      </c>
-      <c r="I66" s="122">
-        <v>890</v>
-      </c>
-      <c r="J66" s="123">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="114">
-        <v>355</v>
-      </c>
-      <c r="C67" s="115"/>
-      <c r="D67" s="116"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="117"/>
-      <c r="H67" s="117">
-        <v>500</v>
-      </c>
-      <c r="I67" s="117">
-        <v>950</v>
-      </c>
-      <c r="J67" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="119">
-        <v>323</v>
-      </c>
-      <c r="C68" s="120"/>
-      <c r="D68" s="121"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="122"/>
-      <c r="G68" s="122">
-        <v>427</v>
-      </c>
-      <c r="H68" s="122">
-        <v>560</v>
-      </c>
-      <c r="I68" s="122">
-        <v>980</v>
-      </c>
-      <c r="J68" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="114">
-        <v>298</v>
-      </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="116"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117">
-        <v>486</v>
-      </c>
-      <c r="H69" s="117">
-        <v>610</v>
-      </c>
-      <c r="I69" s="117">
-        <v>1110</v>
-      </c>
-      <c r="J69" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="119">
-        <v>267</v>
-      </c>
-      <c r="C70" s="120"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="122">
-        <v>220</v>
-      </c>
-      <c r="F70" s="122">
-        <v>290</v>
-      </c>
-      <c r="G70" s="122">
-        <v>564</v>
-      </c>
-      <c r="H70" s="122">
-        <v>695</v>
-      </c>
-      <c r="I70" s="122">
-        <v>1160</v>
-      </c>
-      <c r="J70" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="114">
-        <v>244</v>
-      </c>
-      <c r="C71" s="115"/>
-      <c r="D71" s="116"/>
-      <c r="E71" s="117">
-        <v>250</v>
-      </c>
-      <c r="F71" s="117">
-        <v>310</v>
-      </c>
-      <c r="G71" s="117">
-        <v>632</v>
-      </c>
-      <c r="H71" s="117">
-        <v>720</v>
-      </c>
-      <c r="I71" s="117">
-        <v>1160</v>
-      </c>
-      <c r="J71" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="119">
-        <v>219</v>
-      </c>
-      <c r="C72" s="120"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="122">
-        <v>290</v>
-      </c>
-      <c r="F72" s="122">
-        <v>355</v>
-      </c>
-      <c r="G72" s="122">
-        <v>721</v>
-      </c>
-      <c r="H72" s="122">
-        <v>830</v>
-      </c>
-      <c r="I72" s="122">
-        <v>1160</v>
-      </c>
-      <c r="J72" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="114">
-        <v>193</v>
-      </c>
-      <c r="C73" s="115"/>
-      <c r="D73" s="116"/>
-      <c r="E73" s="117">
-        <v>325</v>
-      </c>
-      <c r="F73" s="117">
-        <v>390</v>
-      </c>
-      <c r="G73" s="117">
-        <v>823</v>
-      </c>
-      <c r="H73" s="117">
-        <v>925</v>
-      </c>
-      <c r="I73" s="117">
-        <v>1160</v>
-      </c>
-      <c r="J73" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="119">
-        <v>178</v>
-      </c>
-      <c r="C74" s="120"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="122">
-        <v>325</v>
-      </c>
-      <c r="F74" s="122">
-        <v>390</v>
-      </c>
-      <c r="G74" s="122">
-        <v>823</v>
-      </c>
-      <c r="H74" s="122">
-        <v>940</v>
-      </c>
-      <c r="I74" s="122">
-        <v>1160</v>
-      </c>
-      <c r="J74" s="123">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="114">
-        <v>165</v>
-      </c>
-      <c r="C75" s="115"/>
-      <c r="D75" s="116" t="s">
-        <v>518</v>
-      </c>
-      <c r="E75" s="117">
-        <v>360</v>
-      </c>
-      <c r="F75" s="117">
-        <v>425</v>
-      </c>
-      <c r="G75" s="117">
-        <v>823</v>
-      </c>
-      <c r="H75" s="117">
-        <v>980</v>
-      </c>
-      <c r="I75" s="117">
-        <v>1160</v>
-      </c>
-      <c r="J75" s="118">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="119">
-        <v>159</v>
-      </c>
-      <c r="C76" s="120"/>
-      <c r="D76" s="121"/>
-      <c r="E76" s="122">
-        <v>375</v>
-      </c>
-      <c r="F76" s="122">
-        <v>455</v>
-      </c>
-      <c r="G76" s="122">
-        <v>823</v>
-      </c>
-      <c r="H76" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="I76" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="J76" s="125" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="114">
-        <v>139</v>
-      </c>
-      <c r="C77" s="115"/>
-      <c r="D77" s="116"/>
-      <c r="E77" s="117">
-        <v>405</v>
-      </c>
-      <c r="F77" s="126">
-        <v>487</v>
-      </c>
-      <c r="G77" s="117">
-        <v>823</v>
-      </c>
-      <c r="H77" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="I77" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="J77" s="125" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="119">
-        <v>133</v>
-      </c>
-      <c r="C78" s="120"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="122">
-        <v>405</v>
-      </c>
-      <c r="F78" s="122">
-        <v>490</v>
-      </c>
-      <c r="G78" s="122">
-        <v>823</v>
-      </c>
-      <c r="H78" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="I78" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="J78" s="125" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="114">
-        <v>127</v>
-      </c>
-      <c r="C79" s="115"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="117">
-        <v>425</v>
-      </c>
-      <c r="F79" s="117">
-        <v>490</v>
-      </c>
-      <c r="G79" s="124">
-        <v>823</v>
-      </c>
-      <c r="H79" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="I79" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="J79" s="125" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="119">
-        <v>102</v>
-      </c>
-      <c r="C80" s="120"/>
-      <c r="D80" s="116">
-        <v>218</v>
-      </c>
-      <c r="E80" s="122">
-        <v>460</v>
-      </c>
-      <c r="F80" s="124">
-        <v>490</v>
-      </c>
-      <c r="G80" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="H80" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="I80" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="J80" s="125" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="127">
-        <v>83</v>
-      </c>
-      <c r="C81" s="115">
-        <v>204</v>
-      </c>
-      <c r="D81" s="116">
-        <v>234</v>
-      </c>
-      <c r="E81" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="F81" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="G81" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="H81" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="I81" s="124" t="s">
-        <v>519</v>
-      </c>
-      <c r="J81" s="125" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="128">
-        <v>76</v>
-      </c>
-      <c r="C82" s="129">
-        <v>206</v>
-      </c>
-      <c r="D82" s="130">
-        <v>242</v>
-      </c>
-      <c r="E82" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="F82" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="G82" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="H82" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="I82" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="J82" s="132" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -16158,22 +15033,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -16186,7 +15061,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -16210,7 +15085,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -16234,7 +15109,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -16258,7 +15133,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -16282,7 +15157,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B7" s="6">
         <v>300</v>
@@ -16306,7 +15181,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B8" s="6">
         <v>350</v>
@@ -16330,7 +15205,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B9" s="6">
         <v>400</v>
@@ -16354,7 +15229,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B10" s="6">
         <v>450</v>
@@ -16386,7 +15261,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -16410,7 +15285,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -16434,7 +15309,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -16458,7 +15333,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B16" s="6">
         <v>450</v>
@@ -16482,7 +15357,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>
@@ -16506,7 +15381,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B18" s="6">
         <v>550</v>
@@ -16530,7 +15405,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B19" s="59">
         <v>600</v>
@@ -16557,7 +15432,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B21" s="6">
         <v>135</v>
@@ -16578,7 +15453,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B22" s="6">
         <v>180</v>
@@ -16599,7 +15474,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B23" s="6">
         <v>205</v>
@@ -16620,7 +15495,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B24" s="6">
         <v>250</v>
@@ -16641,7 +15516,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B25" s="6">
         <v>300</v>
@@ -16662,7 +15537,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B26" s="6">
         <v>350</v>
@@ -16707,7 +15582,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -16726,7 +15601,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -16757,19 +15632,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D3" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="E3" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -16844,13 +15719,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="P18" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="Q18" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -16859,18 +15734,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="P19" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="P20" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -16898,22 +15773,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E4" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F4" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H4" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I4" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -16938,15 +15813,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="161">
+      <c r="D6" s="128">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18194,7 +17069,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" s="74" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="110" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="78"/>
@@ -18257,7 +17132,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="144" t="s">
+      <c r="A20" s="110" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="72"/>
@@ -18411,7 +17286,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" s="74" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="110" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="78"/>
@@ -18479,7 +17354,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" s="74" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="144" t="s">
+      <c r="A26" s="110" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="76"/>
@@ -18890,7 +17765,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" s="74" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="144" t="s">
+      <c r="A37" s="110" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="72"/>
@@ -18956,16 +17831,16 @@
       <c r="B39" s="6">
         <v>4.5</v>
       </c>
-      <c r="D39" s="143">
+      <c r="D39" s="109">
         <v>55</v>
       </c>
-      <c r="E39" s="143">
+      <c r="E39" s="109">
         <v>57</v>
       </c>
-      <c r="F39" s="143">
+      <c r="F39" s="109">
         <v>14</v>
       </c>
-      <c r="G39" s="143">
+      <c r="G39" s="109">
         <v>10</v>
       </c>
       <c r="H39" s="6">
@@ -19659,7 +18534,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="112" t="s">
         <v>177</v>
       </c>
       <c r="B3" s="25">
@@ -19673,7 +18548,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="112" t="s">
         <v>178</v>
       </c>
       <c r="B4" s="25">
@@ -19688,7 +18563,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="146" t="s">
+      <c r="A5" s="112" t="s">
         <v>179</v>
       </c>
       <c r="B5" s="25">
@@ -19703,7 +18578,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="112" t="s">
         <v>180</v>
       </c>
       <c r="B6" s="25">
@@ -19717,7 +18592,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="146" t="s">
+      <c r="A7" s="112" t="s">
         <v>181</v>
       </c>
       <c r="B7" s="25">
@@ -19732,7 +18607,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="112" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="25">
@@ -19746,7 +18621,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="147" t="s">
+      <c r="A9" s="113" t="s">
         <v>183</v>
       </c>
       <c r="B9" s="26">
@@ -19760,7 +18635,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="147" t="s">
+      <c r="A10" s="113" t="s">
         <v>184</v>
       </c>
       <c r="B10" s="27">
@@ -19775,8 +18650,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="145" t="s">
-        <v>567</v>
+      <c r="A11" s="111" t="s">
+        <v>557</v>
       </c>
       <c r="B11" s="25">
         <v>0.95</v>
@@ -19789,7 +18664,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="111" t="s">
         <v>185</v>
       </c>
       <c r="B12" s="59">
@@ -19803,7 +18678,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="111" t="s">
         <v>186</v>
       </c>
       <c r="B13" s="59">
@@ -19817,7 +18692,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="145" t="s">
+      <c r="A14" s="111" t="s">
         <v>187</v>
       </c>
       <c r="B14" s="59">
@@ -19831,7 +18706,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="111" t="s">
         <v>188</v>
       </c>
       <c r="B15" s="59">
@@ -20079,15 +18954,15 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -20106,7 +18981,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -20168,7 +19043,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -20307,7 +19182,7 @@
         <v>226</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -20694,36 +19569,36 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="155">
+      <c r="D11" s="121">
         <v>219</v>
       </c>
-      <c r="E11" s="155">
+      <c r="E11" s="121">
         <v>6.3</v>
       </c>
-      <c r="F11" s="153">
+      <c r="F11" s="119">
         <f t="shared" ref="F11:F12" si="8">D11-(E11*2)</f>
         <v>206.4</v>
       </c>
-      <c r="G11" s="153">
+      <c r="G11" s="119">
         <v>190000</v>
       </c>
-      <c r="H11" s="153">
+      <c r="H11" s="119">
         <v>7850</v>
       </c>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153" t="s">
+      <c r="I11" s="119"/>
+      <c r="J11" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="153" t="s">
+      <c r="K11" s="119" t="s">
         <v>249</v>
       </c>
       <c r="L11">
@@ -20742,36 +19617,36 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="D12" s="152">
+      <c r="D12" s="118">
         <v>273.05</v>
       </c>
-      <c r="E12" s="152">
+      <c r="E12" s="118">
         <v>5.89</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="117">
         <f t="shared" si="8"/>
         <v>261.27000000000004</v>
       </c>
-      <c r="G12" s="151">
+      <c r="G12" s="117">
         <v>199000</v>
       </c>
-      <c r="H12" s="151">
+      <c r="H12" s="117">
         <v>7850</v>
       </c>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151" t="s">
+      <c r="I12" s="117"/>
+      <c r="J12" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="151"/>
+      <c r="K12" s="117"/>
       <c r="L12">
         <f t="shared" si="4"/>
         <v>10.750000000000002</v>
@@ -20788,36 +19663,36 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="151" t="s">
-        <v>580</v>
-      </c>
-      <c r="B13" s="151" t="s">
+      <c r="A13" s="117" t="s">
+        <v>570</v>
+      </c>
+      <c r="B13" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="151" t="s">
-        <v>581</v>
-      </c>
-      <c r="D13" s="152">
+      <c r="C13" s="117" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" s="118">
         <v>273.05</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="118">
         <v>8</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="117">
         <f t="shared" ref="F13" si="9">D13-(E13*2)</f>
         <v>257.05</v>
       </c>
-      <c r="G13" s="151">
+      <c r="G13" s="117">
         <v>199000</v>
       </c>
-      <c r="H13" s="151">
+      <c r="H13" s="117">
         <v>7850</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151" t="s">
+      <c r="I13" s="117"/>
+      <c r="J13" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="151"/>
+      <c r="K13" s="117"/>
       <c r="O13" s="1" t="s">
         <v>62</v>
       </c>
@@ -20851,13 +19726,13 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C2" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>252</v>
@@ -20878,7 +19753,7 @@
         <v>257</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20899,7 +19774,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C4" s="156">
+      <c r="C4" s="122">
         <f t="shared" ref="C4:C16" si="0">(D4-B4)/2</f>
         <v>-1.7000000000000028</v>
       </c>
@@ -20923,7 +19798,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C5" s="156">
+      <c r="C5" s="122">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20947,7 +19822,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C6" s="156">
+      <c r="C6" s="122">
         <f t="shared" si="0"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -20971,7 +19846,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C7" s="156">
+      <c r="C7" s="122">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -20995,7 +19870,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C8" s="156">
+      <c r="C8" s="122">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21019,7 +19894,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C9" s="156">
+      <c r="C9" s="122">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21043,7 +19918,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C10" s="156">
+      <c r="C10" s="122">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21067,7 +19942,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C11" s="156">
+      <c r="C11" s="122">
         <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21091,7 +19966,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C12" s="156">
+      <c r="C12" s="122">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21115,7 +19990,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C13" s="156">
+      <c r="C13" s="122">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21139,7 +20014,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C14" s="156">
+      <c r="C14" s="122">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21163,7 +20038,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C15" s="156">
+      <c r="C15" s="122">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21187,7 +20062,7 @@
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C16" s="156">
+      <c r="C16" s="122">
         <f t="shared" si="0"/>
         <v>1.2999999999999972</v>
       </c>
@@ -21204,14 +20079,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="156">
+      <c r="B17" s="122">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C17" s="156">
+      <c r="C17" s="122">
         <f>(D17-B17)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -21228,14 +20103,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="156">
+      <c r="B18" s="122">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C18" s="156">
+      <c r="C18" s="122">
         <f t="shared" ref="C18:C34" si="1">(D18-B18)/2</f>
         <v>-0.20000000000000284</v>
       </c>
@@ -21252,14 +20127,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="156" t="s">
+      <c r="A19" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="B19" s="156">
+      <c r="B19" s="122">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C19" s="156">
+      <c r="C19" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21276,14 +20151,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="156" t="s">
+      <c r="A20" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="B20" s="156">
+      <c r="B20" s="122">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C20" s="156">
+      <c r="C20" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21300,14 +20175,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="122" t="s">
         <v>245</v>
       </c>
-      <c r="B21" s="156">
+      <c r="B21" s="122">
         <f>Axles!F10</f>
         <v>180.4</v>
       </c>
-      <c r="C21" s="156">
+      <c r="C21" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21324,14 +20199,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B22" s="156">
+      <c r="B22" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C22" s="156">
+      <c r="C22" s="122">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21348,14 +20223,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="156" t="s">
+      <c r="A23" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B23" s="156">
+      <c r="B23" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C23" s="156">
+      <c r="C23" s="122">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21372,14 +20247,14 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="156" t="s">
+      <c r="A24" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="156">
+      <c r="B24" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C24" s="156">
+      <c r="C24" s="122">
         <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
@@ -21396,14 +20271,14 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="156">
+      <c r="B25" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C25" s="156">
+      <c r="C25" s="122">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -21420,14 +20295,14 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B26" s="156">
+      <c r="B26" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C26" s="156">
+      <c r="C26" s="122">
         <f t="shared" si="1"/>
         <v>-1.7000000000000028</v>
       </c>
@@ -21444,14 +20319,14 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="156" t="s">
+      <c r="A27" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B27" s="156">
+      <c r="B27" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C27" s="156">
+      <c r="C27" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21468,14 +20343,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B28" s="156">
+      <c r="B28" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C28" s="156">
+      <c r="C28" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21492,14 +20367,14 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="156" t="s">
+      <c r="A29" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="156">
+      <c r="B29" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C29" s="156">
+      <c r="C29" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21516,14 +20391,14 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B30" s="156">
+      <c r="B30" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C30" s="156">
+      <c r="C30" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21540,14 +20415,14 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="156" t="s">
+      <c r="A31" s="122" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="156">
+      <c r="B31" s="122">
         <f>Axles!F11</f>
         <v>206.4</v>
       </c>
-      <c r="C31" s="156">
+      <c r="C31" s="122">
         <f t="shared" si="1"/>
         <v>-0.20000000000000284</v>
       </c>
@@ -21571,7 +20446,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C32" s="156">
+      <c r="C32" s="122">
         <f t="shared" si="1"/>
         <v>-2.1350000000000193</v>
       </c>
@@ -21595,7 +20470,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C33" s="156">
+      <c r="C33" s="122">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21619,7 +20494,7 @@
         <f>Axles!F12</f>
         <v>261.27000000000004</v>
       </c>
-      <c r="C34" s="156">
+      <c r="C34" s="122">
         <f t="shared" si="1"/>
         <v>-1.1350000000000193</v>
       </c>
@@ -21648,7 +20523,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -21669,7 +20544,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -21766,7 +20641,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -21787,7 +20662,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2052" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A3A5FF7-321C-49DB-BC0A-82A85E0E12C9}"/>
+  <xr:revisionPtr revIDLastSave="2236" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FB32B4-B59D-42F6-B1D6-E4DDBFB88598}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="440" windowWidth="28780" windowHeight="19120" tabRatio="859" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11820" yWindow="50" windowWidth="26460" windowHeight="20280" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$128</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -729,7 +729,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="588">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -1862,9 +1862,6 @@
     <t>GA480/09GD</t>
   </si>
   <si>
-    <t>GA4500/05GD</t>
-  </si>
-  <si>
     <t>GA17M/10WRD</t>
   </si>
   <si>
@@ -2469,6 +2466,33 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>SI 180.12 FI</t>
+  </si>
+  <si>
+    <t>SI 25.80 FI</t>
+  </si>
+  <si>
+    <t>Motor Image</t>
+  </si>
+  <si>
+    <t>GA14/20GD</t>
+  </si>
+  <si>
+    <t>GA500/05GD</t>
+  </si>
+  <si>
+    <t>SI 25HC.24</t>
+  </si>
+  <si>
+    <t>SI 120HC.12</t>
+  </si>
+  <si>
+    <t>SI 17.60 FI</t>
+  </si>
+  <si>
+    <t>25/30/40</t>
   </si>
 </sst>
 </file>
@@ -2755,7 +2779,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3116,6 +3140,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4605,15 +4653,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>119065</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>125639</xdr:rowOff>
+      <xdr:colOff>146279</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>143781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>777875</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>150811</xdr:rowOff>
+      <xdr:colOff>1358447</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>96382</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4636,8 +4684,1988 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="119065" y="22215702"/>
-          <a:ext cx="4079873" cy="2215923"/>
+          <a:off x="146279" y="24464281"/>
+          <a:ext cx="4078739" cy="2202315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>616015</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77072750-90EB-D39B-9550-F260E1A7F8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22016357" y="47788286"/>
+          <a:ext cx="425515" cy="453571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>616015</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>498928</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C782E821-60C0-430E-BDAB-4FA34C60DA39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22016357" y="48305357"/>
+          <a:ext cx="425515" cy="453571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>106622</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>736337</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B6FFE8-45F5-BEC5-5799-24D79E082EBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21932479" y="48831500"/>
+          <a:ext cx="629715" cy="453571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>86701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>728201</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>430558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D896714-1C39-78DE-DC8D-86573A28BD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21916571" y="49362701"/>
+          <a:ext cx="637487" cy="343857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121004</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>734999</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>480035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4479F211-0EB1-3780-827C-4109A75C7891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21946861" y="38635214"/>
+          <a:ext cx="613995" cy="452821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>30855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>774441</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>463230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CE5EFE-4CDA-8A10-D891-B03E764D20E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21971000" y="39146855"/>
+          <a:ext cx="629298" cy="432375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>772287</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CEE744-6F35-511A-3781-A95FD5DE87CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21925643" y="39651214"/>
+          <a:ext cx="672501" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>777604</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>408216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE54489-7193-6B54-480E-6150CB6BB913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907501" y="40159216"/>
+          <a:ext cx="695960" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>750388</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7947EE-2712-4512-A496-7324027BE8B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21880285" y="40703500"/>
+          <a:ext cx="695960" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>750389</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>435428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC94500B-9C55-4FFC-9800-AF668D761874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21880286" y="41202428"/>
+          <a:ext cx="695960" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>792239</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>471715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25670B3-D7F0-A2B3-F2EF-7E8DA292810D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21898429" y="41665072"/>
+          <a:ext cx="719667" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>719667</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>462643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C50C941-6D6E-435C-AA13-10B2A1D1FAA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="42164000"/>
+          <a:ext cx="719667" cy="462643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>18144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>772809</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>462644</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD960E0-BCE3-F7E9-28DB-F80C973840EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21889358" y="42690144"/>
+          <a:ext cx="709308" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>52615</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>16330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>761923</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>460830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82F2089-1E44-40F6-9019-588DC9B82965}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21878472" y="43196330"/>
+          <a:ext cx="709308" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>709308</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98BFEEF-2432-4F62-A238-DAD37CBD7EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="43688000"/>
+          <a:ext cx="709308" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>709308</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34E3D1E-4282-4B1A-BB0F-37372CA54C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="44196000"/>
+          <a:ext cx="709308" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>43636</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>794886</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5A11D7-9AC2-679E-9447-56A8ED5F27B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21869493" y="44722142"/>
+          <a:ext cx="751250" cy="471715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>507999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>713384</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9AF7DC-8C36-D0D0-6024-957896834504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21880285" y="45211999"/>
+          <a:ext cx="658956" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>658956</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C159589-5EBF-4681-A06A-D83968180640}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="45720000"/>
+          <a:ext cx="658956" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>658956</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EB0AB6-E62A-406D-953E-9FFF2888E421}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="46228000"/>
+          <a:ext cx="658956" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>658956</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBF5863-5B44-43E1-8E47-D145F90696ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="46736000"/>
+          <a:ext cx="658956" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>658956</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD3319-F3DF-4076-B60B-145F4D0BE659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="47244000"/>
+          <a:ext cx="658956" cy="526143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45359</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>679100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3764B4-675C-5502-D609-F4C594806417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21871216" y="34099501"/>
+          <a:ext cx="633741" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>61688</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>695429</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>469900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7BBE67-3E93-4FB4-8080-B5A470BB40FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21887545" y="34569401"/>
+          <a:ext cx="633741" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>633741</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>444499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA795B7-5651-4F67-A229-B2F8F7B4ADE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="35052000"/>
+          <a:ext cx="633741" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>633741</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>444499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19D814D-A6E6-4D95-8B73-BCAE5A92FA10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="35560000"/>
+          <a:ext cx="633741" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>633741</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>444499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48974CC-EF79-4638-86B7-AC9F0F38A963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="36068000"/>
+          <a:ext cx="633741" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>633741</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>444499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C303A46-6EA6-4E57-98AD-25C04611C449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="36576000"/>
+          <a:ext cx="633741" cy="444499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>452023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55F5925-B645-5114-C6E6-E2DEF250D8F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21898429" y="28983215"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>424808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D564B6-7522-46F1-95CB-F6A2C5B57274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="29464000"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>424808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B17BA4-4E1C-4F40-85E8-E5A22FD53EA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="29972000"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>424808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E329CD-E1A1-4170-B7A2-EF7B615FA91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="30988000"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>424808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F98DB58-F4EB-407D-9048-890027F9BABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="31496000"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>424808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC10E86-CF72-41DD-9E57-2920A5F5F05A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="32004000"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>580571</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>424808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CA5A80-B0E4-4182-B395-A0A5D9FF02E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="32512000"/>
+          <a:ext cx="580571" cy="424808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9073</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>482242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB202026-0E48-7447-4EB1-3BA0AB96B56C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21834930" y="33029072"/>
+          <a:ext cx="589642" cy="473170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>75448</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>749955</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>480787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC301FD-58D6-2E43-075A-CA011DFA1D7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21901305" y="59445073"/>
+          <a:ext cx="674507" cy="471714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>18143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>756150</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F18F122-A3DC-48A4-BF8E-C7811B39B0E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907500" y="59962143"/>
+          <a:ext cx="674507" cy="471714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>741795</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>491905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A67CE4-3B35-ECBB-D082-586FCB25BDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21925643" y="60488286"/>
+          <a:ext cx="642009" cy="455619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>674507</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>471714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7639AA65-1B53-46AE-87E9-DD2168AC644D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="60960000"/>
+          <a:ext cx="674507" cy="471714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642009</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>455619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482F52DC-66DF-4216-BAC3-48079C8A54B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="61468000"/>
+          <a:ext cx="642009" cy="455619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>51744</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>771072</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>24463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D001D5E-BF8A-3D70-7359-25C5C34A3DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21877601" y="63046429"/>
+          <a:ext cx="719328" cy="478034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642009</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>455619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE404805-750B-4856-8BA0-58FB83C765E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="61976000"/>
+          <a:ext cx="642009" cy="455619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>642009</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>455619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9D4613-A979-435F-8A7E-17911E623C60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="62484000"/>
+          <a:ext cx="642009" cy="455619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>45359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>718240</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>489857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9810B4A8-F668-6451-A7A9-2262437E8FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21916571" y="53385359"/>
+          <a:ext cx="627526" cy="444498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5675,16 +7703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>338667</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>127163</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>227542</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>79538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>48222</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15768</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>206972</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5707,8 +7735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358445" y="6124385"/>
-          <a:ext cx="4105166" cy="4121939"/>
+          <a:off x="4942417" y="8699663"/>
+          <a:ext cx="4091055" cy="4206605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6053,17 +8081,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O76" sqref="O76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" style="3" customWidth="1"/>
     <col min="3" max="3" width="19.453125" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" style="1" customWidth="1"/>
@@ -6074,14 +8102,16 @@
     <col min="12" max="12" width="16.7265625" style="1" customWidth="1"/>
     <col min="13" max="14" width="19.453125" style="1" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="17" width="19.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.08984375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.54296875" customWidth="1"/>
     <col min="19" max="19" width="25.81640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" customWidth="1"/>
     <col min="21" max="21" width="10.54296875" style="93" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -6139,6 +8169,9 @@
       <c r="S1" s="60" t="s">
         <v>276</v>
       </c>
+      <c r="T1" s="12" t="s">
+        <v>581</v>
+      </c>
       <c r="U1" s="92" t="s">
         <v>278</v>
       </c>
@@ -6146,7 +8179,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>280</v>
       </c>
@@ -6199,7 +8232,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>283</v>
       </c>
@@ -6252,7 +8285,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>284</v>
       </c>
@@ -6299,7 +8332,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>285</v>
       </c>
@@ -6346,7 +8379,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>286</v>
       </c>
@@ -6393,7 +8426,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>287</v>
       </c>
@@ -6440,7 +8473,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>288</v>
       </c>
@@ -6487,7 +8520,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>289</v>
       </c>
@@ -6534,7 +8567,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>290</v>
       </c>
@@ -6548,14 +8581,14 @@
         <v>290</v>
       </c>
       <c r="H10" s="116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N10" s="116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="64"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>291</v>
       </c>
@@ -6603,7 +8636,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>293</v>
       </c>
@@ -6651,27 +8684,39 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:22" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H13" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N13" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="S13" s="133"/>
+      <c r="U13" s="134"/>
+    </row>
+    <row r="14" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>294</v>
       </c>
@@ -6715,7 +8760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>296</v>
       </c>
@@ -6760,7 +8805,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>297</v>
       </c>
@@ -6805,7 +8850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -6853,7 +8898,7 @@
       <c r="S17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -6901,7 +8946,7 @@
       <c r="S18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>300</v>
       </c>
@@ -6946,7 +8991,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>301</v>
       </c>
@@ -6991,7 +9036,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>302</v>
       </c>
@@ -7036,7 +9081,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>303</v>
       </c>
@@ -7081,7 +9126,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>304</v>
       </c>
@@ -7126,7 +9171,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>305</v>
       </c>
@@ -7171,7 +9216,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>306</v>
       </c>
@@ -7216,7 +9261,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>307</v>
       </c>
@@ -7261,7 +9306,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>308</v>
       </c>
@@ -7306,27 +9351,39 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N28" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I28" s="130"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="130"/>
+      <c r="M28" s="130"/>
+      <c r="N28" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P28" s="130"/>
+      <c r="Q28" s="130"/>
+      <c r="S28" s="133"/>
+      <c r="U28" s="134"/>
+    </row>
+    <row r="29" spans="1:21" s="33" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="90" t="s">
         <v>309</v>
       </c>
@@ -7365,7 +9422,7 @@
         <v>62</v>
       </c>
       <c r="N29" s="116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="P29" s="64"/>
       <c r="Q29" s="64"/>
@@ -7377,21 +9434,35 @@
       </c>
       <c r="U29" s="94"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H30" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N30" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P30" s="130"/>
+      <c r="Q30" s="130"/>
+      <c r="S30" s="133"/>
+      <c r="U30" s="134"/>
+    </row>
+    <row r="31" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>312</v>
       </c>
@@ -7438,7 +9509,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>314</v>
       </c>
@@ -7485,7 +9556,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>316</v>
       </c>
@@ -7532,7 +9603,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>318</v>
       </c>
@@ -7579,7 +9650,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>320</v>
       </c>
@@ -7626,7 +9697,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>322</v>
       </c>
@@ -7673,7 +9744,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>324</v>
       </c>
@@ -7720,27 +9791,39 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H38" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N38" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
+      <c r="K38" s="130"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P38" s="130"/>
+      <c r="Q38" s="130"/>
+      <c r="S38" s="133"/>
+      <c r="U38" s="134"/>
+    </row>
+    <row r="39" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>326</v>
       </c>
@@ -7781,7 +9864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>328</v>
       </c>
@@ -7823,7 +9906,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>329</v>
       </c>
@@ -7865,7 +9948,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="90" t="s">
         <v>330</v>
       </c>
@@ -7908,7 +9991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>331</v>
       </c>
@@ -7950,7 +10033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>332</v>
       </c>
@@ -7992,7 +10075,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>333</v>
       </c>
@@ -8034,7 +10117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>334</v>
       </c>
@@ -8076,7 +10159,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>335</v>
       </c>
@@ -8118,27 +10201,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H48" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N48" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P48" s="130"/>
+      <c r="Q48" s="130"/>
+      <c r="S48" s="133"/>
+      <c r="U48" s="134"/>
+    </row>
+    <row r="49" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>336</v>
       </c>
@@ -8179,7 +10274,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>337</v>
       </c>
@@ -8220,7 +10315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" s="3" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>338</v>
       </c>
@@ -8264,7 +10359,7 @@
       <c r="S51" s="1"/>
       <c r="U51" s="95"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>339</v>
       </c>
@@ -8305,27 +10400,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:23" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H53" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N53" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="S53" s="133"/>
+      <c r="U53" s="134"/>
+    </row>
+    <row r="54" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
         <f>Chaindrive!A32</f>
         <v>JM200</v>
@@ -8375,7 +10482,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>342</v>
       </c>
@@ -8424,7 +10531,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>344</v>
       </c>
@@ -8470,27 +10577,39 @@
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:23" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H57" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N57" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P57" s="130"/>
+      <c r="Q57" s="130"/>
+      <c r="S57" s="133"/>
+      <c r="U57" s="134"/>
+    </row>
+    <row r="58" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
         <f>Chaindrive!A4</f>
         <v>Ranger 70 1ph 19-57 1/2"</v>
@@ -8545,7 +10664,7 @@
         <v>300.41000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
         <f>Chaindrive!A7</f>
         <v>Ranger 90 1ph 19-57 1/2"</v>
@@ -8600,7 +10719,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
         <f>Chaindrive!A8</f>
         <v>Ranger 90 1ph 15-57 1/2"</v>
@@ -8649,27 +10768,39 @@
         <v>10.526315789473685</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:23" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H61" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N61" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P61" s="130"/>
+      <c r="Q61" s="130"/>
+      <c r="S61" s="133"/>
+      <c r="U61" s="134"/>
+    </row>
+    <row r="62" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
         <f>Chaindrive!A10</f>
         <v>Ranger 90 3ph 19-57 1/2"</v>
@@ -8730,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="str">
         <f>Chaindrive!A11</f>
         <v>Ranger 90 3ph 15-57 1/2"</v>
@@ -8786,7 +10917,7 @@
       </c>
       <c r="V63" s="96"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="str">
         <f>Chaindrive!A14</f>
         <v>Ranger150 3ph 15-57 5/8"</v>
@@ -8835,7 +10966,7 @@
         <v>10.526315789473685</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
         <f>Chaindrive!A15</f>
         <v>Ranger150 3ph 12-57 5/8"</v>
@@ -8888,7 +11019,7 @@
         <v>472.24</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="str">
         <f>Chaindrive!A19</f>
         <v>Ranger220 3ph 19-57 3/4"</v>
@@ -8939,28 +11070,39 @@
         <v>450</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="H67" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N67" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E67" s="130"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
+      <c r="M67" s="130"/>
+      <c r="N67" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P67" s="130"/>
+      <c r="Q67" s="130"/>
+      <c r="S67" s="133"/>
+      <c r="U67" s="134"/>
+    </row>
+    <row r="68" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
         <f>Chaindrive!A22</f>
         <v>KE 20.24 19-57 3/4"</v>
@@ -9010,7 +11152,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f>Chaindrive!A23</f>
         <v>KE 30.24  19-57 3/4"</v>
@@ -9060,7 +11202,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
         <f>Chaindrive!A24</f>
         <v>KE 40.24  19-57 1"</v>
@@ -9110,7 +11252,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
         <f>Chaindrive!A25</f>
         <v>KE 40.24  15-57 1"</v>
@@ -9161,7 +11303,7 @@
         <v>5.2631578947368425</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
         <f>Chaindrive!A26</f>
         <v>KE 60.24   19-57 1"</v>
@@ -9211,7 +11353,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
         <f>Chaindrive!A27</f>
         <v>KE 80.24   19-57 1 1/4"</v>
@@ -9261,28 +11403,39 @@
         <v>5.2631578947368425</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="H74" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N74" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E74" s="130"/>
+      <c r="F74" s="135"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I74" s="130"/>
+      <c r="J74" s="130"/>
+      <c r="K74" s="130"/>
+      <c r="L74" s="130"/>
+      <c r="M74" s="130"/>
+      <c r="N74" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P74" s="130"/>
+      <c r="Q74" s="130"/>
+      <c r="S74" s="133"/>
+      <c r="U74" s="134"/>
+    </row>
+    <row r="75" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>290</v>
       </c>
@@ -9297,13 +11450,13 @@
       </c>
       <c r="F75" s="2"/>
       <c r="H75" s="116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N75" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>290</v>
       </c>
@@ -9317,13 +11470,13 @@
         <v>290</v>
       </c>
       <c r="H76" s="116" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N76" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>350</v>
       </c>
@@ -9363,9 +11516,15 @@
       <c r="N77" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O77">
+        <v>20</v>
+      </c>
       <c r="P77" s="1">
         <v>8</v>
       </c>
+      <c r="R77">
+        <v>300</v>
+      </c>
       <c r="S77" s="6" t="s">
         <v>351</v>
       </c>
@@ -9373,9 +11532,9 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="B78" t="s">
         <v>346</v>
@@ -9385,13 +11544,13 @@
         <v>100.01</v>
       </c>
       <c r="D78" s="6">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F78" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G78" s="1">
         <v>415</v>
@@ -9430,19 +11589,19 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s">
         <v>346</v>
       </c>
       <c r="C79" s="1">
-        <f>D78+0.01</f>
-        <v>170.01</v>
+        <f t="shared" ref="C79" si="3">D78+0.01</f>
+        <v>140.01</v>
       </c>
       <c r="D79" s="6">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>163</v>
@@ -9478,28 +11637,23 @@
         <v>8</v>
       </c>
       <c r="R79">
-        <v>750</v>
-      </c>
-      <c r="S79" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="U79" s="108">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
+        <v>450</v>
+      </c>
+      <c r="U79" s="108"/>
+    </row>
+    <row r="80" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s">
         <v>346</v>
       </c>
       <c r="C80" s="1">
-        <f t="shared" ref="C80:C88" si="3">D79+0.01</f>
-        <v>250.01</v>
+        <f>D79+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D80" s="6">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>163</v>
@@ -9520,7 +11674,7 @@
         <v>282</v>
       </c>
       <c r="L80" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>62</v>
@@ -9532,31 +11686,31 @@
         <v>20</v>
       </c>
       <c r="P80" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R80">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="S80" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U80" s="108">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s">
         <v>346</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="3"/>
-        <v>350.01</v>
+        <f t="shared" ref="C81:C89" si="4">D80+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D81" s="6">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>163</v>
@@ -9592,26 +11746,28 @@
         <v>9</v>
       </c>
       <c r="R81">
-        <v>1100</v>
+        <v>850</v>
       </c>
       <c r="S81" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="U81" s="108"/>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+      <c r="U81" s="108">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B82" t="s">
         <v>346</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="3"/>
-        <v>450.01</v>
+        <f t="shared" si="4"/>
+        <v>350.01</v>
       </c>
       <c r="D82" s="6">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>163</v>
@@ -9650,23 +11806,23 @@
         <v>1100</v>
       </c>
       <c r="S82" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U82" s="108"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B83" t="s">
         <v>346</v>
       </c>
       <c r="C83" s="1">
-        <f t="shared" si="3"/>
-        <v>550.01</v>
+        <f t="shared" si="4"/>
+        <v>450.01</v>
       </c>
       <c r="D83" s="6">
-        <v>650</v>
+        <v>550</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>163</v>
@@ -9701,24 +11857,27 @@
       <c r="P83" s="1">
         <v>9</v>
       </c>
+      <c r="R83">
+        <v>1100</v>
+      </c>
       <c r="S83" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U83" s="108"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B84" t="s">
         <v>346</v>
       </c>
       <c r="C84" s="1">
-        <f t="shared" si="3"/>
-        <v>650.01</v>
+        <f t="shared" si="4"/>
+        <v>550.01</v>
       </c>
       <c r="D84" s="6">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>163</v>
@@ -9739,7 +11898,7 @@
         <v>282</v>
       </c>
       <c r="L84" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>62</v>
@@ -9757,29 +11916,29 @@
         <v>1100</v>
       </c>
       <c r="S84" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U84" s="108"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
         <v>346</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="3"/>
-        <v>750.01</v>
+        <f t="shared" si="4"/>
+        <v>650.01</v>
       </c>
       <c r="D85" s="6">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F85" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G85" s="1">
         <v>415</v>
@@ -9802,26 +11961,33 @@
       <c r="N85" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O85">
+        <v>20</v>
+      </c>
       <c r="P85" s="1">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="R85">
+        <v>2800</v>
       </c>
       <c r="S85" s="6" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
+        <v>365</v>
+      </c>
+      <c r="U85" s="108"/>
+    </row>
+    <row r="86" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B86" t="s">
         <v>346</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="3"/>
-        <v>850.01</v>
+        <f t="shared" si="4"/>
+        <v>750.01</v>
       </c>
       <c r="D86" s="6">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>163</v>
@@ -9857,31 +12023,31 @@
         <v>7</v>
       </c>
       <c r="R86">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="S86" s="6" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B87" t="s">
         <v>346</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="3"/>
-        <v>1000.01</v>
+        <f t="shared" si="4"/>
+        <v>850.01</v>
       </c>
       <c r="D87" s="6">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F87" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G87" s="1">
         <v>415</v>
@@ -9911,31 +12077,31 @@
         <v>7</v>
       </c>
       <c r="R87">
-        <v>1100</v>
+        <v>2800</v>
       </c>
       <c r="S87" s="6" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B88" t="s">
         <v>346</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="3"/>
-        <v>1400.01</v>
+        <f t="shared" si="4"/>
+        <v>1000.01</v>
       </c>
       <c r="D88" s="6">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F88" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88" s="1">
         <v>415</v>
@@ -9950,7 +12116,7 @@
         <v>282</v>
       </c>
       <c r="L88" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>62</v>
@@ -9959,35 +12125,37 @@
         <v>28</v>
       </c>
       <c r="O88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P88" s="1">
         <v>7</v>
       </c>
       <c r="R88">
-        <v>1300</v>
-      </c>
-      <c r="U88" s="108"/>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
+        <v>2800</v>
+      </c>
+      <c r="S88" s="6" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B89" t="s">
         <v>346</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ref="C89:C92" si="4">D88+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D89" s="1">
-        <v>2600</v>
+        <f t="shared" si="4"/>
+        <v>1400.01</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1800</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F89" s="1">
-        <v>5</v>
+      <c r="F89" s="6">
+        <v>6</v>
       </c>
       <c r="G89" s="1">
         <v>415</v>
@@ -10002,7 +12170,7 @@
         <v>282</v>
       </c>
       <c r="L89" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>62</v>
@@ -10014,318 +12182,329 @@
         <v>10</v>
       </c>
       <c r="P89" s="1">
+        <v>7</v>
+      </c>
+      <c r="R89">
+        <v>3125</v>
+      </c>
+      <c r="U89" s="108"/>
+    </row>
+    <row r="90" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" t="s">
+        <v>346</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" ref="C90:C93" si="5">D89+0.01</f>
+        <v>1800.01</v>
+      </c>
+      <c r="D90" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1">
+        <v>415</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L90" s="1">
+        <v>80</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O90">
+        <v>10</v>
+      </c>
+      <c r="P90" s="1">
         <v>9</v>
       </c>
-      <c r="R89">
+      <c r="R90">
         <v>1500</v>
       </c>
-      <c r="U89" s="108"/>
-    </row>
-    <row r="90" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="33" t="s">
+      <c r="U90" s="108"/>
+    </row>
+    <row r="91" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="136" t="s">
         <v>374</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B91" s="136" t="s">
         <v>346</v>
       </c>
-      <c r="C90" s="64">
-        <f t="shared" si="4"/>
+      <c r="C91" s="137">
+        <f t="shared" si="5"/>
         <v>2600.0100000000002</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D91" s="137">
         <v>3600</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E91" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F91" s="137">
         <v>5</v>
       </c>
-      <c r="G90" s="64">
+      <c r="G91" s="137">
         <v>415</v>
       </c>
-      <c r="H90" s="64" t="s">
+      <c r="H91" s="137" t="s">
         <v>310</v>
       </c>
-      <c r="I90" s="64" t="s">
+      <c r="I91" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64" t="s">
+      <c r="J91" s="137"/>
+      <c r="K91" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="L90" s="64">
+      <c r="L91" s="137">
         <v>80</v>
       </c>
-      <c r="M90" s="64" t="s">
+      <c r="M91" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="N90" s="64" t="s">
+      <c r="N91" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="O90" s="33">
+      <c r="O91" s="136">
         <v>10</v>
       </c>
-      <c r="P90" s="64">
+      <c r="P91" s="137">
         <v>9</v>
       </c>
-      <c r="Q90" s="64"/>
-      <c r="R90" s="33">
+      <c r="Q91" s="137"/>
+      <c r="R91" s="136">
+        <v>2000</v>
+      </c>
+      <c r="S91" s="138"/>
+      <c r="U91" s="108"/>
+    </row>
+    <row r="92" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="136" t="s">
+        <v>375</v>
+      </c>
+      <c r="B92" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C92" s="137">
+        <f t="shared" si="5"/>
+        <v>3600.01</v>
+      </c>
+      <c r="D92" s="137">
+        <v>3600</v>
+      </c>
+      <c r="E92" s="137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="137">
+        <v>9</v>
+      </c>
+      <c r="G92" s="137">
+        <v>415</v>
+      </c>
+      <c r="H92" s="137" t="s">
+        <v>310</v>
+      </c>
+      <c r="I92" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="J92" s="137"/>
+      <c r="K92" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="L92" s="137">
+        <v>80</v>
+      </c>
+      <c r="M92" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="N92" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="O92" s="136">
+        <v>10</v>
+      </c>
+      <c r="P92" s="137">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="137"/>
+      <c r="R92" s="136">
         <v>3000</v>
       </c>
-      <c r="S90" s="59"/>
-      <c r="U90" s="94"/>
-    </row>
-    <row r="91" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B91" s="33" t="s">
+      <c r="S92" s="138"/>
+      <c r="U92" s="108"/>
+    </row>
+    <row r="93" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="136" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" s="136" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="64">
-        <f t="shared" si="4"/>
+      <c r="C93" s="137">
+        <f t="shared" si="5"/>
         <v>3600.01</v>
       </c>
-      <c r="D91" s="64">
-        <v>3600</v>
-      </c>
-      <c r="E91" s="64" t="s">
+      <c r="D93" s="137">
+        <v>4800</v>
+      </c>
+      <c r="E93" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="F91" s="64">
+      <c r="F93" s="137">
         <v>9</v>
       </c>
-      <c r="G91" s="64">
+      <c r="G93" s="137">
         <v>415</v>
       </c>
-      <c r="H91" s="64" t="s">
+      <c r="H93" s="137" t="s">
         <v>310</v>
       </c>
-      <c r="I91" s="64" t="s">
+      <c r="I93" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64" t="s">
+      <c r="J93" s="137"/>
+      <c r="K93" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="L91" s="64">
-        <v>80</v>
-      </c>
-      <c r="M91" s="64" t="s">
+      <c r="L93" s="137">
+        <v>100</v>
+      </c>
+      <c r="M93" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="N91" s="64" t="s">
+      <c r="N93" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="O91" s="33">
+      <c r="O93" s="136">
         <v>10</v>
       </c>
-      <c r="P91" s="64">
+      <c r="P93" s="137">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="137"/>
+      <c r="R93" s="136">
+        <v>3000</v>
+      </c>
+      <c r="S93" s="138"/>
+      <c r="U93" s="108"/>
+    </row>
+    <row r="94" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="136" t="s">
+        <v>583</v>
+      </c>
+      <c r="B94" s="136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C94" s="137">
+        <f t="shared" ref="C94" si="6">D93+0.01</f>
+        <v>4800.01</v>
+      </c>
+      <c r="D94" s="137">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="137" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="137">
+        <v>5</v>
+      </c>
+      <c r="G94" s="137">
+        <v>415</v>
+      </c>
+      <c r="H94" s="137" t="s">
+        <v>310</v>
+      </c>
+      <c r="I94" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="L94" s="137">
+        <v>100</v>
+      </c>
+      <c r="M94" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="N94" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="O94" s="136">
+        <v>10</v>
+      </c>
+      <c r="P94" s="137">
         <v>9</v>
       </c>
-      <c r="Q91" s="64"/>
-      <c r="R91" s="33">
-        <v>3000</v>
-      </c>
-      <c r="S91" s="59"/>
-      <c r="U91" s="94"/>
-    </row>
-    <row r="92" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="C92" s="64">
-        <f t="shared" si="4"/>
-        <v>3600.01</v>
-      </c>
-      <c r="D92" s="64">
-        <v>4800</v>
-      </c>
-      <c r="E92" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="F92" s="64">
-        <v>9</v>
-      </c>
-      <c r="G92" s="64">
-        <v>415</v>
-      </c>
-      <c r="H92" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="I92" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="L92" s="64">
-        <v>100</v>
-      </c>
-      <c r="M92" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="N92" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="O92" s="33">
-        <v>10</v>
-      </c>
-      <c r="P92" s="64">
-        <v>10</v>
-      </c>
-      <c r="Q92" s="64"/>
-      <c r="R92" s="33">
-        <v>3000</v>
-      </c>
-      <c r="S92" s="59"/>
-      <c r="U92" s="94"/>
-    </row>
-    <row r="93" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="33" t="s">
+      <c r="Q94" s="137"/>
+      <c r="R94" s="136">
+        <v>2500</v>
+      </c>
+      <c r="S94" s="138"/>
+      <c r="U94" s="108"/>
+    </row>
+    <row r="95" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C95" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E95" s="130"/>
+      <c r="F95" s="130"/>
+      <c r="G95" s="130"/>
+      <c r="H95" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I95" s="130"/>
+      <c r="J95" s="130"/>
+      <c r="K95" s="130"/>
+      <c r="L95" s="130"/>
+      <c r="M95" s="130"/>
+      <c r="N95" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P95" s="130"/>
+      <c r="Q95" s="130"/>
+      <c r="S95" s="133"/>
+      <c r="U95" s="134"/>
+    </row>
+    <row r="96" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="C93" s="64">
-        <f t="shared" ref="C93" si="5">D92+0.01</f>
-        <v>4800.01</v>
-      </c>
-      <c r="D93" s="64">
-        <v>5000</v>
-      </c>
-      <c r="E93" s="64" t="s">
-        <v>163</v>
-      </c>
-      <c r="F93" s="64">
-        <v>5</v>
-      </c>
-      <c r="G93" s="64">
-        <v>415</v>
-      </c>
-      <c r="H93" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="I93" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="L93" s="64">
-        <v>101</v>
-      </c>
-      <c r="M93" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="N93" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="O93" s="33">
-        <v>10</v>
-      </c>
-      <c r="P93" s="64">
-        <v>9</v>
-      </c>
-      <c r="Q93" s="64"/>
-      <c r="R93" s="33">
-        <v>2500</v>
-      </c>
-      <c r="S93" s="59"/>
-      <c r="U93" s="94"/>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H94" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N94" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C95" s="1">
-        <v>0</v>
-      </c>
-      <c r="D95" s="1">
-        <v>170</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F95" s="1">
-        <v>10</v>
-      </c>
-      <c r="G95" s="1">
-        <v>230</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L95" s="1">
-        <v>30</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1">
-        <v>8</v>
-      </c>
-      <c r="R95" s="1"/>
-      <c r="S95" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="U95" s="93">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C96" s="1">
-        <f>D95+0.01</f>
-        <v>170.01</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>163</v>
@@ -10354,28 +12533,32 @@
       <c r="N96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O96" s="1"/>
+      <c r="O96" s="1">
+        <v>10</v>
+      </c>
       <c r="P96" s="1">
         <v>8</v>
       </c>
-      <c r="R96" s="1"/>
+      <c r="R96" s="1">
+        <v>400</v>
+      </c>
       <c r="S96" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="U96" s="93">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>346</v>
       </c>
       <c r="C97" s="1">
         <f>D96+0.01</f>
-        <v>250.01</v>
+        <v>170.01</v>
       </c>
       <c r="D97" s="1">
         <v>250</v>
@@ -10384,7 +12567,7 @@
         <v>163</v>
       </c>
       <c r="F97" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G97" s="1">
         <v>230</v>
@@ -10407,18 +12590,25 @@
       <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="1"/>
+      <c r="O97" s="1">
+        <v>10</v>
+      </c>
       <c r="P97" s="1">
-        <v>7</v>
-      </c>
-      <c r="R97" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="R97" s="1">
+        <v>400</v>
+      </c>
       <c r="S97" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+      <c r="U97" s="93">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>346</v>
@@ -10428,13 +12618,13 @@
         <v>250.01</v>
       </c>
       <c r="D98" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F98" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G98" s="1">
         <v>230</v>
@@ -10449,7 +12639,7 @@
         <v>282</v>
       </c>
       <c r="L98" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>62</v>
@@ -10457,103 +12647,124 @@
       <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="O98" s="1">
+        <v>20</v>
+      </c>
       <c r="P98" s="1">
+        <v>7</v>
+      </c>
+      <c r="R98" s="1">
+        <v>550</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C99" s="1">
+        <f>D98+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D99" s="1">
+        <v>450</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F99" s="1">
+        <v>7</v>
+      </c>
+      <c r="G99" s="1">
+        <v>230</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L99" s="1">
+        <v>40</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O99" s="1">
+        <v>20</v>
+      </c>
+      <c r="P99" s="1">
         <v>5</v>
       </c>
-      <c r="S98" s="6" t="s">
+      <c r="R99" s="1">
+        <v>750</v>
+      </c>
+      <c r="S99" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="U99" s="108"/>
+    </row>
+    <row r="100" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="B100" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C100" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D100" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E100" s="130"/>
+      <c r="F100" s="130"/>
+      <c r="G100" s="130"/>
+      <c r="H100" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I100" s="130"/>
+      <c r="J100" s="130"/>
+      <c r="K100" s="130"/>
+      <c r="L100" s="130"/>
+      <c r="M100" s="130"/>
+      <c r="N100" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P100" s="130"/>
+      <c r="Q100" s="130"/>
+      <c r="S100" s="133"/>
+      <c r="U100" s="134"/>
+    </row>
+    <row r="101" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>385</v>
-      </c>
-      <c r="U98" s="108"/>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H99" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N99" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>386</v>
-      </c>
-      <c r="B100" t="s">
-        <v>346</v>
-      </c>
-      <c r="C100" s="1">
-        <v>0</v>
-      </c>
-      <c r="D100" s="6">
-        <v>250</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F100" s="6">
-        <v>80</v>
-      </c>
-      <c r="G100" s="1">
-        <v>230</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L100" s="1">
-        <v>30</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100">
-        <v>20</v>
-      </c>
-      <c r="P100" s="1">
-        <v>8</v>
-      </c>
-      <c r="R100">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>388</v>
       </c>
       <c r="B101" t="s">
         <v>346</v>
       </c>
       <c r="C101" s="1">
-        <f>D100+0.01</f>
-        <v>250.01</v>
+        <v>0</v>
       </c>
       <c r="D101" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F101" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G101" s="1">
         <v>230</v>
@@ -10567,8 +12778,8 @@
       <c r="K101" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L101" s="1">
-        <v>40</v>
+      <c r="L101" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>62</v>
@@ -10585,32 +12796,26 @@
       <c r="R101">
         <v>750</v>
       </c>
-      <c r="S101" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="U101" s="93">
-        <v>1481.78</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>390</v>
+    </row>
+    <row r="102" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>387</v>
       </c>
       <c r="B102" t="s">
         <v>346</v>
       </c>
       <c r="C102" s="1">
         <f>D101+0.01</f>
-        <v>400.01</v>
+        <v>250.01</v>
       </c>
       <c r="D102" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F102" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G102" s="1">
         <v>230</v>
@@ -10642,23 +12847,29 @@
       <c r="R102">
         <v>750</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S102" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="U102" s="93">
+        <v>1481.78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B103" t="s">
         <v>346</v>
       </c>
       <c r="C103" s="1">
         <f>D102+0.01</f>
-        <v>550.01</v>
+        <v>400.01</v>
       </c>
       <c r="D103" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F103" s="6">
         <v>20</v>
@@ -10676,7 +12887,7 @@
         <v>282</v>
       </c>
       <c r="L103" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>62</v>
@@ -10694,95 +12905,107 @@
         <v>750</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B104" t="s">
+        <v>346</v>
+      </c>
+      <c r="C104" s="1">
+        <f>D103+0.01</f>
+        <v>550.01</v>
+      </c>
+      <c r="D104" s="6">
+        <v>750</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F104" s="6">
+        <v>20</v>
+      </c>
+      <c r="G104" s="1">
+        <v>230</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L104" s="1">
+        <v>55</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O104">
+        <v>20</v>
+      </c>
+      <c r="P104" s="1">
+        <v>8</v>
+      </c>
+      <c r="R104">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B105" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C105" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D105" s="129" t="s">
         <v>290</v>
       </c>
-      <c r="H104" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N104" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>386</v>
-      </c>
-      <c r="B105" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D105" s="6">
-        <v>250</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F105" s="6">
-        <v>80</v>
-      </c>
-      <c r="G105" s="1">
-        <v>415</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L105" s="1">
-        <v>40</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O105">
-        <v>20</v>
-      </c>
-      <c r="P105" s="1">
-        <v>8</v>
-      </c>
-      <c r="R105">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="E105" s="130"/>
+      <c r="F105" s="130"/>
+      <c r="G105" s="130"/>
+      <c r="H105" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I105" s="130"/>
+      <c r="J105" s="130"/>
+      <c r="K105" s="130"/>
+      <c r="L105" s="130"/>
+      <c r="M105" s="130"/>
+      <c r="N105" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P105" s="130"/>
+      <c r="Q105" s="130"/>
+      <c r="S105" s="133"/>
+      <c r="U105" s="134"/>
+    </row>
+    <row r="106" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>388</v>
+        <v>586</v>
       </c>
       <c r="B106" t="s">
         <v>346</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ref="C106:C114" si="6">D105+0.01</f>
-        <v>250.01</v>
+        <v>0.01</v>
       </c>
       <c r="D106" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F106" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G106" s="1">
         <v>415</v>
@@ -10796,8 +13019,8 @@
       <c r="K106" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L106" s="1">
-        <v>40</v>
+      <c r="L106" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>62</v>
@@ -10809,31 +13032,30 @@
         <v>20</v>
       </c>
       <c r="P106" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="R106">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>392</v>
+        <v>580</v>
       </c>
       <c r="B107" t="s">
         <v>346</v>
       </c>
       <c r="C107" s="1">
-        <f t="shared" si="6"/>
-        <v>400.01</v>
+        <v>0.01</v>
       </c>
       <c r="D107" s="6">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F107" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G107" s="1">
         <v>415</v>
@@ -10860,31 +13082,31 @@
         <v>20</v>
       </c>
       <c r="P107" s="1">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="R107">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B108" t="s">
         <v>346</v>
       </c>
       <c r="C108" s="1">
-        <f t="shared" si="6"/>
-        <v>450.01</v>
+        <f t="shared" ref="C108:C116" si="7">D107+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D108" s="6">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F108" s="6">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G108" s="1">
         <v>415</v>
@@ -10899,7 +13121,7 @@
         <v>282</v>
       </c>
       <c r="L108" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>62</v>
@@ -10911,31 +13133,31 @@
         <v>20</v>
       </c>
       <c r="P108" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R108">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
-        <v>390</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>391</v>
       </c>
       <c r="B109" t="s">
         <v>346</v>
       </c>
       <c r="C109" s="1">
-        <f t="shared" si="6"/>
-        <v>500.01</v>
+        <f t="shared" si="7"/>
+        <v>400.01</v>
       </c>
       <c r="D109" s="6">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F109" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G109" s="1">
         <v>415</v>
@@ -10962,31 +13184,31 @@
         <v>20</v>
       </c>
       <c r="P109" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R109">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
-        <v>394</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>392</v>
       </c>
       <c r="B110" t="s">
         <v>346</v>
       </c>
       <c r="C110" s="1">
-        <f t="shared" si="6"/>
-        <v>550.01</v>
+        <f t="shared" si="7"/>
+        <v>450.01</v>
       </c>
       <c r="D110" s="6">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F110" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G110" s="1">
         <v>415</v>
@@ -11001,7 +13223,7 @@
         <v>282</v>
       </c>
       <c r="L110" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>62</v>
@@ -11013,28 +13235,28 @@
         <v>20</v>
       </c>
       <c r="P110" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R110">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B111" t="s">
         <v>346</v>
       </c>
       <c r="C111" s="1">
-        <f t="shared" si="6"/>
-        <v>550.01</v>
+        <f t="shared" si="7"/>
+        <v>500.01</v>
       </c>
       <c r="D111" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F111" s="6">
         <v>20</v>
@@ -11052,7 +13274,7 @@
         <v>282</v>
       </c>
       <c r="L111" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>62</v>
@@ -11064,31 +13286,31 @@
         <v>20</v>
       </c>
       <c r="P111" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R111">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B112" t="s">
         <v>346</v>
       </c>
       <c r="C112" s="1">
-        <f t="shared" si="6"/>
-        <v>750.01</v>
+        <f t="shared" si="7"/>
+        <v>550.01</v>
       </c>
       <c r="D112" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F112" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G112" s="1">
         <v>415</v>
@@ -11103,7 +13325,7 @@
         <v>282</v>
       </c>
       <c r="L112" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>62</v>
@@ -11115,31 +13337,31 @@
         <v>20</v>
       </c>
       <c r="P112" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R112">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B113" t="s">
         <v>346</v>
       </c>
       <c r="C113" s="1">
-        <f t="shared" si="6"/>
-        <v>750.01</v>
+        <f t="shared" si="7"/>
+        <v>550.01</v>
       </c>
       <c r="D113" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F113" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G113" s="1">
         <v>415</v>
@@ -11163,34 +13385,34 @@
         <v>28</v>
       </c>
       <c r="O113">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P113" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R113">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B114" t="s">
         <v>346</v>
       </c>
       <c r="C114" s="1">
-        <f t="shared" si="6"/>
-        <v>1000.01</v>
+        <f t="shared" si="7"/>
+        <v>750.01</v>
       </c>
       <c r="D114" s="6">
-        <v>1400</v>
+        <v>750</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F114" s="6">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G114" s="1">
         <v>415</v>
@@ -11217,50 +13439,82 @@
         <v>20</v>
       </c>
       <c r="P114" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R114">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H115" s="116" t="s">
-        <v>546</v>
-      </c>
-      <c r="N115" s="116" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+      <c r="B115" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="1">
+        <f t="shared" si="7"/>
+        <v>750.01</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F115" s="6">
+        <v>30</v>
+      </c>
+      <c r="G115" s="1">
+        <v>415</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L115" s="1">
+        <v>55</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O115">
+        <v>20</v>
+      </c>
+      <c r="P115" s="1">
+        <v>11</v>
+      </c>
+      <c r="R115">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B116" t="s">
         <v>346</v>
       </c>
       <c r="C116" s="1">
-        <v>0.01</v>
+        <f t="shared" si="7"/>
+        <v>1000.01</v>
       </c>
       <c r="D116" s="6">
-        <v>250</v>
+        <v>1400</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F116" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G116" s="1">
         <v>415</v>
@@ -11275,7 +13529,7 @@
         <v>282</v>
       </c>
       <c r="L116" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>62</v>
@@ -11287,37 +13541,31 @@
         <v>20</v>
       </c>
       <c r="P116" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R116">
-        <v>850</v>
-      </c>
-      <c r="S116" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="U116" s="93">
-        <v>624.37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>398</v>
+        <v>579</v>
       </c>
       <c r="B117" t="s">
         <v>346</v>
       </c>
       <c r="C117" s="1">
-        <f>D116+0.01</f>
-        <v>250.01</v>
+        <f t="shared" ref="C117" si="8">D116+0.01</f>
+        <v>1400.01</v>
       </c>
       <c r="D117" s="6">
-        <v>250</v>
+        <v>1800</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F117" s="6">
-        <v>24</v>
+        <v>386</v>
+      </c>
+      <c r="F117" s="1">
+        <v>12</v>
       </c>
       <c r="G117" s="1">
         <v>415</v>
@@ -11332,7 +13580,7 @@
         <v>282</v>
       </c>
       <c r="L117" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>62</v>
@@ -11341,85 +13589,65 @@
         <v>28</v>
       </c>
       <c r="O117">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P117" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R117">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B118" t="s">
-        <v>346</v>
-      </c>
-      <c r="C118" s="1">
-        <f t="shared" ref="C118:C124" si="7">D117+0.01</f>
-        <v>250.01</v>
-      </c>
-      <c r="D118" s="6">
-        <v>400</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F118" s="6">
-        <v>15</v>
-      </c>
-      <c r="G118" s="1">
-        <v>415</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L118" s="1">
-        <v>40</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O118">
-        <v>20</v>
-      </c>
-      <c r="P118" s="1">
-        <v>11</v>
-      </c>
-      <c r="R118">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="B118" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="C118" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="D118" s="129" t="s">
+        <v>290</v>
+      </c>
+      <c r="E118" s="130"/>
+      <c r="F118" s="130"/>
+      <c r="G118" s="130"/>
+      <c r="H118" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="I118" s="130"/>
+      <c r="J118" s="130"/>
+      <c r="K118" s="130"/>
+      <c r="L118" s="130"/>
+      <c r="M118" s="130"/>
+      <c r="N118" s="131" t="s">
+        <v>545</v>
+      </c>
+      <c r="P118" s="130"/>
+      <c r="Q118" s="130"/>
+      <c r="S118" s="133"/>
+      <c r="U118" s="134"/>
+    </row>
+    <row r="119" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B119" t="s">
         <v>346</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="7"/>
-        <v>400.01</v>
+        <v>0.01</v>
       </c>
       <c r="D119" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F119" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G119" s="1">
         <v>415</v>
@@ -11434,7 +13662,7 @@
         <v>282</v>
       </c>
       <c r="L119" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>62</v>
@@ -11449,28 +13677,34 @@
         <v>11</v>
       </c>
       <c r="R119">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+      <c r="S119" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="U119" s="93">
+        <v>624.37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>403</v>
+        <v>584</v>
       </c>
       <c r="B120" t="s">
         <v>346</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" si="7"/>
-        <v>400.01</v>
+        <f>D119+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D120" s="6">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F120" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G120" s="1">
         <v>415</v>
@@ -11485,7 +13719,7 @@
         <v>282</v>
       </c>
       <c r="L120" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>62</v>
@@ -11500,28 +13734,28 @@
         <v>11</v>
       </c>
       <c r="R120">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B121" t="s">
         <v>346</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" si="7"/>
-        <v>550.01</v>
+        <f t="shared" ref="C121:C127" si="9">D120+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D121" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F121" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G121" s="1">
         <v>415</v>
@@ -11536,7 +13770,7 @@
         <v>282</v>
       </c>
       <c r="L121" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>62</v>
@@ -11551,25 +13785,25 @@
         <v>11</v>
       </c>
       <c r="R121">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B122" t="s">
         <v>346</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="7"/>
-        <v>550.01</v>
+        <f t="shared" si="9"/>
+        <v>400.01</v>
       </c>
       <c r="D122" s="6">
-        <v>750</v>
+        <v>400</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F122" s="6">
         <v>24</v>
@@ -11587,7 +13821,7 @@
         <v>282</v>
       </c>
       <c r="L122" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>62</v>
@@ -11599,31 +13833,31 @@
         <v>20</v>
       </c>
       <c r="P122" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R122">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B123" t="s">
         <v>346</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="7"/>
-        <v>750.01</v>
+        <f t="shared" si="9"/>
+        <v>400.01</v>
       </c>
       <c r="D123" s="6">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F123" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G123" s="1">
         <v>415</v>
@@ -11638,7 +13872,7 @@
         <v>282</v>
       </c>
       <c r="L123" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>62</v>
@@ -11650,31 +13884,31 @@
         <v>20</v>
       </c>
       <c r="P123" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R123">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B124" t="s">
         <v>346</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="7"/>
-        <v>1000.01</v>
+        <f t="shared" si="9"/>
+        <v>550.01</v>
       </c>
       <c r="D124" s="6">
-        <v>1200</v>
+        <v>550</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F124" s="6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G124" s="1">
         <v>415</v>
@@ -11701,25 +13935,189 @@
         <v>20</v>
       </c>
       <c r="P124" s="1">
+        <v>11</v>
+      </c>
+      <c r="R124">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" t="s">
+        <v>346</v>
+      </c>
+      <c r="C125" s="1">
+        <f t="shared" si="9"/>
+        <v>550.01</v>
+      </c>
+      <c r="D125" s="6">
+        <v>750</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F125" s="6">
+        <v>24</v>
+      </c>
+      <c r="G125" s="1">
+        <v>415</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L125" s="1">
+        <v>55</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O125">
+        <v>20</v>
+      </c>
+      <c r="P125" s="1">
+        <v>12</v>
+      </c>
+      <c r="R125">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B126" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126" s="1">
+        <f t="shared" si="9"/>
+        <v>750.01</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F126" s="6">
+        <v>24</v>
+      </c>
+      <c r="G126" s="1">
+        <v>415</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L126" s="1">
+        <v>55</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O126">
+        <v>20</v>
+      </c>
+      <c r="P126" s="1">
+        <v>11</v>
+      </c>
+      <c r="R126">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B127" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127" s="1">
+        <f t="shared" si="9"/>
+        <v>1000.01</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F127" s="6">
+        <v>12</v>
+      </c>
+      <c r="G127" s="1">
+        <v>415</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L127" s="1">
+        <v>55</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127">
+        <v>20</v>
+      </c>
+      <c r="P127" s="1">
         <v>10</v>
       </c>
-      <c r="R124">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+      <c r="R127">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>290</v>
       </c>
     </row>
+    <row r="129" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:S125" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
+  <autoFilter ref="A1:S128" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -11763,58 +14161,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="60" t="s">
         <v>408</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D1" s="60" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="E1" s="60" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>411</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>412</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>413</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="I1" s="60" t="s">
         <v>414</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>415</v>
       </c>
       <c r="J1" s="60" t="s">
         <v>264</v>
       </c>
       <c r="K1" s="60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L1" s="60" t="s">
         <v>265</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="O1" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="O1" s="60" t="s">
+      <c r="P1" s="60" t="s">
         <v>418</v>
-      </c>
-      <c r="P1" s="60" t="s">
-        <v>419</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>270</v>
       </c>
       <c r="R1" s="123" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -11825,7 +14223,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="83">
         <v>19</v>
@@ -11844,7 +14242,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H4" s="83">
         <v>70</v>
@@ -11885,7 +14283,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B5" s="83">
         <v>15</v>
@@ -11904,7 +14302,7 @@
         <v>3.8</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H5" s="83">
         <v>71</v>
@@ -11965,7 +14363,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="83">
         <v>19</v>
@@ -11984,7 +14382,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H7" s="83">
         <v>90</v>
@@ -12025,7 +14423,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="83">
         <v>15</v>
@@ -12044,7 +14442,7 @@
         <v>3.8</v>
       </c>
       <c r="G8" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H8" s="83">
         <v>90</v>
@@ -12107,7 +14505,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" s="83">
         <v>19</v>
@@ -12126,7 +14524,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H10" s="83">
         <v>90</v>
@@ -12167,7 +14565,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11" s="83">
         <v>15</v>
@@ -12186,7 +14584,7 @@
         <v>3.8</v>
       </c>
       <c r="G11" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H11" s="83">
         <v>90</v>
@@ -12249,7 +14647,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B13" s="83">
         <v>15</v>
@@ -12268,7 +14666,7 @@
         <v>3.8</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H13" s="83">
         <v>150</v>
@@ -12309,7 +14707,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B14" s="83">
         <v>15</v>
@@ -12328,7 +14726,7 @@
         <v>3.8</v>
       </c>
       <c r="G14" s="83" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H14" s="83">
         <v>150</v>
@@ -12369,7 +14767,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" s="83">
         <v>12</v>
@@ -12388,7 +14786,7 @@
         <v>4.75</v>
       </c>
       <c r="G15" s="83" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H15" s="83">
         <v>150</v>
@@ -12451,7 +14849,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B17" s="6">
         <v>18</v>
@@ -12470,7 +14868,7 @@
         <v>3.1666666666666665</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H17" s="6">
         <v>220</v>
@@ -12511,7 +14909,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B18" s="6">
         <v>15</v>
@@ -12530,7 +14928,7 @@
         <v>3.8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H18" s="6">
         <v>220</v>
@@ -12571,7 +14969,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="83">
         <v>19</v>
@@ -12590,7 +14988,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H19" s="83">
         <v>220</v>
@@ -12631,7 +15029,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" s="83">
         <v>12</v>
@@ -12650,7 +15048,7 @@
         <v>4.75</v>
       </c>
       <c r="G20" s="83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H20" s="83">
         <v>220</v>
@@ -12701,7 +15099,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="124" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B22" s="59">
         <v>19</v>
@@ -12720,7 +15118,7 @@
         <v>3</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H22" s="64">
         <v>200</v>
@@ -12761,7 +15159,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B23" s="6">
         <v>19</v>
@@ -12780,7 +15178,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H23" s="6">
         <v>300</v>
@@ -12821,7 +15219,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" s="6">
         <v>19</v>
@@ -12840,7 +15238,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H24" s="6">
         <v>400</v>
@@ -12881,7 +15279,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="102" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B25" s="6">
         <v>15</v>
@@ -12900,7 +15298,7 @@
         <v>3.8</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H25" s="6">
         <v>400</v>
@@ -12941,7 +15339,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" s="6">
         <v>19</v>
@@ -12960,7 +15358,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H26" s="6">
         <v>600</v>
@@ -13001,7 +15399,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B27" s="6">
         <v>15</v>
@@ -13020,7 +15418,7 @@
         <v>3.8</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H27" s="6">
         <v>800</v>
@@ -13058,7 +15456,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B28" s="59">
         <v>15</v>
@@ -13077,7 +15475,7 @@
         <v>3.8</v>
       </c>
       <c r="G28" s="59" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H28" s="59">
         <v>1200</v>
@@ -13094,7 +15492,7 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="L28" s="59" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M28" s="59">
         <v>20</v>
@@ -13119,7 +15517,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B32" s="6">
         <v>11</v>
@@ -13135,7 +15533,7 @@
         <v>5.5454545454545459</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H32" s="1">
         <v>20</v>
@@ -13176,7 +15574,7 @@
         <v>5.5555555555555554</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H33" s="1">
         <v>62</v>
@@ -13214,7 +15612,7 @@
         <v>6.4</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H34" s="1">
         <v>95</v>
@@ -13239,7 +15637,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B35" s="6">
         <v>9</v>
@@ -13252,7 +15650,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H35" s="6">
         <v>128</v>
@@ -13277,7 +15675,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B36" s="6">
         <v>11</v>
@@ -13290,7 +15688,7 @@
         <v>4.3636363636363633</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H36" s="6">
         <v>369</v>
@@ -13312,7 +15710,7 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B37" s="6">
         <v>14</v>
@@ -13325,7 +15723,7 @@
         <v>5.1428571428571432</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H37" s="6">
         <v>428</v>
@@ -13353,7 +15751,7 @@
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B39" s="6">
         <v>19</v>
@@ -13369,7 +15767,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H39" s="1">
         <v>15</v>
@@ -13413,7 +15811,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H40" s="1">
         <v>62</v>
@@ -13457,7 +15855,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H41" s="1">
         <v>95</v>
@@ -13489,7 +15887,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B43" s="6">
         <v>19</v>
@@ -13505,7 +15903,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H43" s="1">
         <v>100</v>
@@ -13533,7 +15931,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B44" s="6">
         <v>15</v>
@@ -13549,7 +15947,7 @@
         <v>3.8</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H44" s="1">
         <v>160</v>
@@ -13581,7 +15979,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B46" s="6">
         <v>19</v>
@@ -13597,7 +15995,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H46" s="1">
         <v>70</v>
@@ -13631,7 +16029,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B48" s="6">
         <v>15</v>
@@ -13644,7 +16042,7 @@
         <v>3.8</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H48" s="6">
         <v>200</v>
@@ -13672,7 +16070,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B49" s="6">
         <v>15</v>
@@ -13685,7 +16083,7 @@
         <v>3.8</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H49" s="6">
         <v>300</v>
@@ -13713,7 +16111,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B50" s="6">
         <v>15</v>
@@ -13726,7 +16124,7 @@
         <v>3.8</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H50" s="6">
         <v>400</v>
@@ -13754,7 +16152,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B51" s="6">
         <v>15</v>
@@ -13789,7 +16187,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B52" s="6">
         <v>15</v>
@@ -13824,7 +16222,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B53" s="6">
         <v>15</v>
@@ -13893,39 +16291,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>465</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2" s="103">
         <v>12</v>
@@ -13959,7 +16357,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" s="103">
         <v>15</v>
@@ -13993,7 +16391,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B4" s="103">
         <v>19</v>
@@ -14027,7 +16425,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="105" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B5" s="106">
         <v>12</v>
@@ -14039,7 +16437,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F5" s="106">
         <v>22400</v>
@@ -14061,7 +16459,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="105" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B6" s="106">
         <v>18</v>
@@ -14073,7 +16471,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F6" s="106">
         <v>22400</v>
@@ -14095,7 +16493,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B7" s="6">
         <v>12</v>
@@ -14107,7 +16505,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F7" s="6">
         <v>29000</v>
@@ -14129,7 +16527,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B8" s="6">
         <v>12</v>
@@ -14141,7 +16539,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F8" s="6">
         <v>29000</v>
@@ -14163,7 +16561,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B9" s="6">
         <v>15</v>
@@ -14175,7 +16573,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F9" s="6">
         <v>29000</v>
@@ -14197,7 +16595,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="6">
         <v>15</v>
@@ -14209,7 +16607,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F10" s="6">
         <v>60000</v>
@@ -14230,7 +16628,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -14242,7 +16640,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F11" s="6">
         <v>95000</v>
@@ -14290,27 +16688,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" t="s">
         <v>470</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>471</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>472</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>473</v>
-      </c>
-      <c r="E1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" t="s">
         <v>475</v>
-      </c>
-      <c r="B3" t="s">
-        <v>476</v>
       </c>
       <c r="C3">
         <v>5900</v>
@@ -14325,10 +16723,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
         <v>477</v>
-      </c>
-      <c r="B4" t="s">
-        <v>478</v>
       </c>
       <c r="C4">
         <v>10800</v>
@@ -14346,10 +16744,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" t="s">
         <v>475</v>
-      </c>
-      <c r="B6" t="s">
-        <v>476</v>
       </c>
       <c r="C6">
         <v>11250</v>
@@ -14364,10 +16762,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
         <v>477</v>
-      </c>
-      <c r="B7" t="s">
-        <v>478</v>
       </c>
       <c r="C7">
         <v>18100</v>
@@ -14382,10 +16780,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
         <v>479</v>
-      </c>
-      <c r="B8" t="s">
-        <v>480</v>
       </c>
       <c r="C8">
         <v>29200</v>
@@ -14400,10 +16798,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" t="s">
         <v>575</v>
-      </c>
-      <c r="B9" t="s">
-        <v>576</v>
       </c>
       <c r="C9">
         <v>32800</v>
@@ -14418,10 +16816,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>577</v>
+      </c>
+      <c r="E10" t="s">
         <v>578</v>
-      </c>
-      <c r="E10" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -14439,8 +16837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14460,28 +16858,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>483</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>474</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>484</v>
       </c>
       <c r="G1" s="48" t="s">
         <v>270</v>
       </c>
       <c r="H1" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="I1" s="50" t="s">
         <v>485</v>
-      </c>
-      <c r="I1" s="50" t="s">
-        <v>486</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>199</v>
@@ -14489,7 +16887,7 @@
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2" s="99">
         <v>95</v>
@@ -14501,10 +16899,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="G2" s="99" t="s">
         <v>488</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>489</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -14512,7 +16910,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" s="99">
         <v>147</v>
@@ -14524,10 +16922,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="G3" s="99" t="s">
         <v>488</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>489</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -14535,7 +16933,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B4" s="99">
         <v>332</v>
@@ -14547,7 +16945,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F4" s="99">
         <v>480</v>
@@ -14561,7 +16959,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B5" s="99">
         <v>552</v>
@@ -14573,7 +16971,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G5" s="99">
         <v>40</v>
@@ -14584,7 +16982,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="114" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="115">
         <v>800</v>
@@ -14596,7 +16994,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -14608,7 +17006,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="114" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" s="115">
         <v>1200</v>
@@ -14620,7 +17018,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -14632,7 +17030,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="114" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B8" s="115">
         <v>2200</v>
@@ -14644,7 +17042,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -14656,7 +17054,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="125" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B9" s="126">
         <v>3600</v>
@@ -14668,7 +17066,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="59">
@@ -14679,12 +17077,12 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="100" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B10" s="99">
         <v>130</v>
@@ -14699,7 +17097,7 @@
         <v>260</v>
       </c>
       <c r="G10" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -14707,7 +17105,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="100" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B11" s="99">
         <v>145</v>
@@ -14725,7 +17123,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -14741,7 +17139,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P24" s="114" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="115">
         <v>400</v>
@@ -14753,7 +17151,7 @@
         <v>24</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6">
@@ -14765,7 +17163,7 @@
     </row>
     <row r="25" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P25" s="114" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q25" s="115">
         <v>400</v>
@@ -14777,7 +17175,7 @@
         <v>24</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6">
@@ -14789,7 +17187,7 @@
     </row>
     <row r="26" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="Q26" s="99">
         <v>599</v>
@@ -14801,7 +17199,7 @@
         <v>20</v>
       </c>
       <c r="T26" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V26" s="99">
         <v>40</v>
@@ -14812,7 +17210,7 @@
     </row>
     <row r="27" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Q27" s="99">
         <v>1063</v>
@@ -14824,7 +17222,7 @@
         <v>18</v>
       </c>
       <c r="T27" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V27" s="99">
         <v>50</v>
@@ -14835,7 +17233,7 @@
     </row>
     <row r="28" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P28" s="100" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="Q28" s="99">
         <v>1943</v>
@@ -14847,7 +17245,7 @@
         <v>12</v>
       </c>
       <c r="T28" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V28" s="99">
         <v>65</v>
@@ -14858,7 +17256,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P29" s="100" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="99">
         <v>3503</v>
@@ -14870,7 +17268,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="V29" s="99">
         <v>80</v>
@@ -14885,7 +17283,7 @@
     <row r="31" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J31" s="8"/>
       <c r="P31" s="100" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q31" s="99">
         <v>332</v>
@@ -14911,7 +17309,7 @@
     </row>
     <row r="32" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P32" s="101" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Q32" s="99">
         <v>542</v>
@@ -14935,7 +17333,7 @@
     </row>
     <row r="33" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P33" s="100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q33" s="99">
         <v>1000</v>
@@ -14958,7 +17356,7 @@
     </row>
     <row r="34" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P34" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Q34" s="99">
         <v>1063</v>
@@ -14978,7 +17376,7 @@
     </row>
     <row r="35" spans="16:23" x14ac:dyDescent="0.35">
       <c r="P35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Q35" s="99">
         <v>145</v>
@@ -14996,7 +17394,7 @@
         <v>200</v>
       </c>
       <c r="V35" s="99" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W35">
         <v>10</v>
@@ -15033,22 +17431,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>513</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -15061,7 +17459,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -15085,7 +17483,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -15109,7 +17507,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -15133,7 +17531,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -15157,7 +17555,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" s="6">
         <v>300</v>
@@ -15181,7 +17579,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B8" s="6">
         <v>350</v>
@@ -15205,7 +17603,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B9" s="6">
         <v>400</v>
@@ -15229,7 +17627,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B10" s="6">
         <v>450</v>
@@ -15261,7 +17659,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -15285,7 +17683,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -15309,7 +17707,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -15333,7 +17731,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" s="6">
         <v>450</v>
@@ -15357,7 +17755,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>
@@ -15381,7 +17779,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B18" s="6">
         <v>550</v>
@@ -15405,7 +17803,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="58" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B19" s="59">
         <v>600</v>
@@ -15432,7 +17830,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B21" s="6">
         <v>135</v>
@@ -15453,7 +17851,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B22" s="6">
         <v>180</v>
@@ -15474,7 +17872,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B23" s="6">
         <v>205</v>
@@ -15495,7 +17893,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B24" s="6">
         <v>250</v>
@@ -15516,7 +17914,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B25" s="6">
         <v>300</v>
@@ -15537,7 +17935,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B26" s="6">
         <v>350</v>
@@ -15582,7 +17980,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -15601,7 +17999,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -15632,19 +18030,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
         <v>530</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>531</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>532</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>533</v>
-      </c>
-      <c r="E3" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -15719,13 +18117,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
+        <v>534</v>
+      </c>
+      <c r="P18" t="s">
         <v>535</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>536</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -15734,18 +18132,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
+        <v>537</v>
+      </c>
+      <c r="P19" t="s">
         <v>538</v>
-      </c>
-      <c r="P19" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -15773,22 +18171,22 @@
   <sheetData>
     <row r="4" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" t="s">
         <v>541</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>542</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>543</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>544</v>
       </c>
-      <c r="H4" t="s">
-        <v>545</v>
-      </c>
       <c r="I4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.35">
@@ -18651,7 +21049,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="111" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B11" s="25">
         <v>0.95</v>
@@ -18954,15 +21352,15 @@
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -18981,7 +21379,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -19043,7 +21441,7 @@
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -19182,7 +21580,7 @@
         <v>226</v>
       </c>
       <c r="O1" s="55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -19664,13 +22062,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="117" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" s="117" t="s">
         <v>234</v>
       </c>
       <c r="C13" s="117" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D13" s="118">
         <v>273.05</v>
@@ -19726,13 +22124,13 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" t="s">
         <v>564</v>
-      </c>
-      <c r="C2" t="s">
-        <v>565</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>252</v>
@@ -19753,7 +22151,7 @@
         <v>257</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -20523,7 +22921,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -20544,7 +22942,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -20641,7 +23039,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -20662,7 +23060,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2236" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42FB32B4-B59D-42F6-B1D6-E4DDBFB88598}"/>
+  <xr:revisionPtr revIDLastSave="2304" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{361032D1-5526-4598-943C-C6171B675A40}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="50" windowWidth="26460" windowHeight="20280" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9460" yWindow="440" windowWidth="28780" windowHeight="19120" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -728,6 +728,338 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="32">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="10"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="11"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="12"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="13"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="14"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="15"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="16"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="17"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="18"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="19"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="20"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="21"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="22"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="23"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="24"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="25"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="26"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="27"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="28"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="29"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="31"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="32">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+    <bk>
+      <rc t="1" v="9"/>
+    </bk>
+    <bk>
+      <rc t="1" v="10"/>
+    </bk>
+    <bk>
+      <rc t="1" v="11"/>
+    </bk>
+    <bk>
+      <rc t="1" v="12"/>
+    </bk>
+    <bk>
+      <rc t="1" v="13"/>
+    </bk>
+    <bk>
+      <rc t="1" v="14"/>
+    </bk>
+    <bk>
+      <rc t="1" v="15"/>
+    </bk>
+    <bk>
+      <rc t="1" v="16"/>
+    </bk>
+    <bk>
+      <rc t="1" v="17"/>
+    </bk>
+    <bk>
+      <rc t="1" v="18"/>
+    </bk>
+    <bk>
+      <rc t="1" v="19"/>
+    </bk>
+    <bk>
+      <rc t="1" v="20"/>
+    </bk>
+    <bk>
+      <rc t="1" v="21"/>
+    </bk>
+    <bk>
+      <rc t="1" v="22"/>
+    </bk>
+    <bk>
+      <rc t="1" v="23"/>
+    </bk>
+    <bk>
+      <rc t="1" v="24"/>
+    </bk>
+    <bk>
+      <rc t="1" v="25"/>
+    </bk>
+    <bk>
+      <rc t="1" v="26"/>
+    </bk>
+    <bk>
+      <rc t="1" v="27"/>
+    </bk>
+    <bk>
+      <rc t="1" v="28"/>
+    </bk>
+    <bk>
+      <rc t="1" v="29"/>
+    </bk>
+    <bk>
+      <rc t="1" v="30"/>
+    </bk>
+    <bk>
+      <rc t="1" v="31"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="588">
   <si>
@@ -2779,7 +3111,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3139,9 +3471,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3159,11 +3488,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4697,22 +5022,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>616015</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
+      <xdr:colOff>628682</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77072750-90EB-D39B-9550-F260E1A7F8E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C420EC-4F12-B6EC-511D-631E41AB56A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4728,8 +5053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22016357" y="47788286"/>
-          <a:ext cx="425515" cy="453571"/>
+          <a:off x="21825857" y="49276000"/>
+          <a:ext cx="628682" cy="457223"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4741,66 +5066,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>616015</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>498928</xdr:rowOff>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>342918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="49" name="Picture 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C782E821-60C0-430E-BDAB-4FA34C60DA39}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="22016357" y="48305357"/>
-          <a:ext cx="425515" cy="453571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>106622</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>736337</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>9071</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B6FFE8-45F5-BEC5-5799-24D79E082EBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D20FA-249A-22F2-B86C-66D2C53599A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4816,8 +5097,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21932479" y="48831500"/>
-          <a:ext cx="629715" cy="453571"/>
+          <a:off x="21825857" y="49784000"/>
+          <a:ext cx="641383" cy="342918"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4829,22 +5110,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>90714</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>86701</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>728201</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>430558</xdr:rowOff>
+      <xdr:colOff>628682</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="50" name="Picture 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D896714-1C39-78DE-DC8D-86573A28BD51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E856D4AB-B6E4-F645-BDA6-515A9BEB9074}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4860,1812 +5141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21916571" y="49362701"/>
-          <a:ext cx="637487" cy="343857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>121004</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>734999</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>480035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4479F211-0EB1-3780-827C-4109A75C7891}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21946861" y="38635214"/>
-          <a:ext cx="613995" cy="452821"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>145143</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>30855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>774441</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>463230</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1CE5EFE-4CDA-8A10-D891-B03E764D20E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21971000" y="39146855"/>
-          <a:ext cx="629298" cy="432375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>99786</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>772287</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CEE744-6F35-511A-3781-A95FD5DE87CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21925643" y="39651214"/>
-          <a:ext cx="672501" cy="462643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>81644</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>27216</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>777604</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>408216</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE54489-7193-6B54-480E-6150CB6BB913}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21907501" y="40159216"/>
-          <a:ext cx="695960" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>750388</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>444500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7947EE-2712-4512-A496-7324027BE8B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21880285" y="40703500"/>
-          <a:ext cx="695960" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>750389</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>435428</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC94500B-9C55-4FFC-9800-AF668D761874}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21880286" y="41202428"/>
-          <a:ext cx="695960" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>9072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>792239</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>471715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25670B3-D7F0-A2B3-F2EF-7E8DA292810D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21898429" y="41665072"/>
-          <a:ext cx="719667" cy="462643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>719667</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>462643</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C50C941-6D6E-435C-AA13-10B2A1D1FAA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="42164000"/>
-          <a:ext cx="719667" cy="462643"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>63501</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>18144</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>772809</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>462644</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD960E0-BCE3-F7E9-28DB-F80C973840EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21889358" y="42690144"/>
-          <a:ext cx="709308" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>52615</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>16330</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>761923</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>460830</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82F2089-1E44-40F6-9019-588DC9B82965}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21878472" y="43196330"/>
-          <a:ext cx="709308" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>709308</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>444500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B98BFEEF-2432-4F62-A238-DAD37CBD7EFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="43688000"/>
-          <a:ext cx="709308" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>709308</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>444500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34E3D1E-4282-4B1A-BB0F-37372CA54C56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="44196000"/>
-          <a:ext cx="709308" cy="444500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>43636</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>794886</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5A11D7-9AC2-679E-9447-56A8ED5F27B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21869493" y="44722142"/>
-          <a:ext cx="751250" cy="471715"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>507999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>713384</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>18142</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE9AF7DC-8C36-D0D0-6024-957896834504}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21880285" y="45211999"/>
-          <a:ext cx="658956" cy="526143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>658956</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C159589-5EBF-4681-A06A-D83968180640}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="45720000"/>
-          <a:ext cx="658956" cy="526143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>658956</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EB0AB6-E62A-406D-953E-9FFF2888E421}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="46228000"/>
-          <a:ext cx="658956" cy="526143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>658956</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBF5863-5B44-43E1-8E47-D145F90696ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="46736000"/>
-          <a:ext cx="658956" cy="526143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>658956</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD3319-F3DF-4076-B60B-145F4D0BE659}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="47244000"/>
-          <a:ext cx="658956" cy="526143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45359</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>679100</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3764B4-675C-5502-D609-F4C594806417}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21871216" y="34099501"/>
-          <a:ext cx="633741" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>61688</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>695429</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>469900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7BBE67-3E93-4FB4-8080-B5A470BB40FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21887545" y="34569401"/>
-          <a:ext cx="633741" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>633741</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>444499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA795B7-5651-4F67-A229-B2F8F7B4ADE8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="35052000"/>
-          <a:ext cx="633741" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>633741</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>444499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19D814D-A6E6-4D95-8B73-BCAE5A92FA10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="35560000"/>
-          <a:ext cx="633741" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>633741</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>444499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48974CC-EF79-4638-86B7-AC9F0F38A963}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="36068000"/>
-          <a:ext cx="633741" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>633741</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>444499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C303A46-6EA6-4E57-98AD-25C04611C449}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="36576000"/>
-          <a:ext cx="633741" cy="444499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>452023</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55F5925-B645-5114-C6E6-E2DEF250D8F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21898429" y="28983215"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>424808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D564B6-7522-46F1-95CB-F6A2C5B57274}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="29464000"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>424808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B17BA4-4E1C-4F40-85E8-E5A22FD53EA1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="29972000"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>424808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E329CD-E1A1-4170-B7A2-EF7B615FA91B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="30988000"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>424808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F98DB58-F4EB-407D-9048-890027F9BABA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="31496000"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>424808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC10E86-CF72-41DD-9E57-2920A5F5F05A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="32004000"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>580571</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>424808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CA5A80-B0E4-4182-B395-A0A5D9FF02E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="32512000"/>
-          <a:ext cx="580571" cy="424808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9073</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9072</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>598715</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>482242</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB202026-0E48-7447-4EB1-3BA0AB96B56C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21834930" y="33029072"/>
-          <a:ext cx="589642" cy="473170"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>75448</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>9073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>749955</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>480787</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC301FD-58D6-2E43-075A-CA011DFA1D7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21901305" y="59445073"/>
-          <a:ext cx="674507" cy="471714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>756150</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F18F122-A3DC-48A4-BF8E-C7811B39B0E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21907500" y="59962143"/>
-          <a:ext cx="674507" cy="471714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>99786</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>36286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>741795</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>491905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A67CE4-3B35-ECBB-D082-586FCB25BDD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21925643" y="60488286"/>
-          <a:ext cx="642009" cy="455619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>674507</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>471714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7639AA65-1B53-46AE-87E9-DD2168AC644D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="60960000"/>
-          <a:ext cx="674507" cy="471714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>642009</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>455619</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482F52DC-66DF-4216-BAC3-48079C8A54B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="61468000"/>
-          <a:ext cx="642009" cy="455619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>51744</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>771072</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>24463</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D001D5E-BF8A-3D70-7359-25C5C34A3DCB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21877601" y="63046429"/>
-          <a:ext cx="719328" cy="478034"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>642009</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>455619</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE404805-750B-4856-8BA0-58FB83C765E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="61976000"/>
-          <a:ext cx="642009" cy="455619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>642009</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>455619</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9D4613-A979-435F-8A7E-17911E623C60}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="62484000"/>
-          <a:ext cx="642009" cy="455619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>90714</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>45359</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>718240</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>489857</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9810B4A8-F668-6451-A7A9-2262437E8FC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21916571" y="53385359"/>
-          <a:ext cx="627526" cy="444498"/>
+          <a:off x="21825857" y="53340000"/>
+          <a:ext cx="628682" cy="450873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7748,6 +6225,225 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="32">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>9</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>10</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>11</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>12</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>13</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>14</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>15</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>16</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>17</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>18</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>19</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>20</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>21</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>22</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>23</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>24</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>25</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>26</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>27</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>28</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>29</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>30</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>31</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+  <rel r:id="rId10"/>
+  <rel r:id="rId11"/>
+  <rel r:id="rId12"/>
+  <rel r:id="rId13"/>
+  <rel r:id="rId14"/>
+  <rel r:id="rId15"/>
+  <rel r:id="rId16"/>
+  <rel r:id="rId17"/>
+  <rel r:id="rId18"/>
+  <rel r:id="rId19"/>
+  <rel r:id="rId20"/>
+  <rel r:id="rId21"/>
+  <rel r:id="rId22"/>
+  <rel r:id="rId23"/>
+  <rel r:id="rId24"/>
+  <rel r:id="rId25"/>
+  <rel r:id="rId26"/>
+  <rel r:id="rId27"/>
+  <rel r:id="rId28"/>
+  <rel r:id="rId29"/>
+  <rel r:id="rId30"/>
+  <rel r:id="rId31"/>
+  <rel r:id="rId32"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8084,8 +6780,8 @@
   <dimension ref="A1:W139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L107" sqref="L107"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8684,37 +7380,37 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="129" t="s">
+    <row r="13" spans="1:22" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D13" s="129" t="s">
+      <c r="D13" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="131" t="s">
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I13" s="130"/>
-      <c r="J13" s="130"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="130"/>
-      <c r="N13" s="131" t="s">
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P13" s="130"/>
-      <c r="Q13" s="130"/>
-      <c r="S13" s="133"/>
-      <c r="U13" s="134"/>
+      <c r="P13" s="129"/>
+      <c r="Q13" s="129"/>
+      <c r="S13" s="132"/>
+      <c r="U13" s="133"/>
     </row>
     <row r="14" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -9351,37 +8047,37 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="129" t="s">
+    <row r="28" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="129" t="s">
+      <c r="B28" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C28" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="131" t="s">
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I28" s="130"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="130"/>
-      <c r="M28" s="130"/>
-      <c r="N28" s="131" t="s">
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P28" s="130"/>
-      <c r="Q28" s="130"/>
-      <c r="S28" s="133"/>
-      <c r="U28" s="134"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="S28" s="132"/>
+      <c r="U28" s="133"/>
     </row>
     <row r="29" spans="1:21" s="33" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="90" t="s">
@@ -9434,33 +8130,33 @@
       </c>
       <c r="U29" s="94"/>
     </row>
-    <row r="30" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="129" t="s">
+    <row r="30" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="129" t="s">
+      <c r="B30" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="131" t="s">
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I30" s="130"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="130"/>
-      <c r="N30" s="131" t="s">
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P30" s="130"/>
-      <c r="Q30" s="130"/>
-      <c r="S30" s="133"/>
-      <c r="U30" s="134"/>
+      <c r="P30" s="129"/>
+      <c r="Q30" s="129"/>
+      <c r="S30" s="132"/>
+      <c r="U30" s="133"/>
     </row>
     <row r="31" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
@@ -9508,6 +8204,9 @@
       <c r="S31" s="6" t="s">
         <v>313</v>
       </c>
+      <c r="T31" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="32" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -9555,6 +8254,9 @@
       <c r="S32" s="6" t="s">
         <v>315</v>
       </c>
+      <c r="T32" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
@@ -9602,6 +8304,9 @@
       <c r="S33" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="T33" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="34" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
@@ -9649,6 +8354,9 @@
       <c r="S34" s="6" t="s">
         <v>319</v>
       </c>
+      <c r="T34" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="35" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
@@ -9696,6 +8404,9 @@
       <c r="S35" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="T35" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="36" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -9743,6 +8454,9 @@
       <c r="S36" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="T36" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="37" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -9790,38 +8504,41 @@
       <c r="S37" s="6" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="129" t="s">
+      <c r="T37" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="129" t="s">
+      <c r="B38" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C38" s="129" t="s">
+      <c r="C38" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="129" t="s">
+      <c r="D38" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="131" t="s">
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="130"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="130"/>
-      <c r="N38" s="131" t="s">
+      <c r="I38" s="129"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="129"/>
+      <c r="N38" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="130"/>
-      <c r="S38" s="133"/>
-      <c r="U38" s="134"/>
+      <c r="P38" s="129"/>
+      <c r="Q38" s="129"/>
+      <c r="S38" s="132"/>
+      <c r="U38" s="133"/>
     </row>
     <row r="39" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
@@ -9863,6 +8580,9 @@
       <c r="N39" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="T39" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
@@ -9905,6 +8625,9 @@
       <c r="N40" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="T40" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="41" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
@@ -10201,37 +8924,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="129" t="s">
+    <row r="48" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B48" s="129" t="s">
+      <c r="B48" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C48" s="129" t="s">
+      <c r="C48" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D48" s="129" t="s">
+      <c r="D48" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="131" t="s">
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="131" t="s">
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P48" s="130"/>
-      <c r="Q48" s="130"/>
-      <c r="S48" s="133"/>
-      <c r="U48" s="134"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="S48" s="132"/>
+      <c r="U48" s="133"/>
     </row>
     <row r="49" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
@@ -10400,37 +9123,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:23" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="129" t="s">
+    <row r="53" spans="1:23" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B53" s="129" t="s">
+      <c r="B53" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="131" t="s">
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="131" t="s">
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P53" s="130"/>
-      <c r="Q53" s="130"/>
-      <c r="S53" s="133"/>
-      <c r="U53" s="134"/>
+      <c r="P53" s="129"/>
+      <c r="Q53" s="129"/>
+      <c r="S53" s="132"/>
+      <c r="U53" s="133"/>
     </row>
     <row r="54" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
@@ -10577,37 +9300,37 @@
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:23" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="129" t="s">
+    <row r="57" spans="1:23" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B57" s="129" t="s">
+      <c r="B57" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C57" s="129" t="s">
+      <c r="C57" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D57" s="129" t="s">
+      <c r="D57" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="131" t="s">
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="131" t="s">
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P57" s="130"/>
-      <c r="Q57" s="130"/>
-      <c r="S57" s="133"/>
-      <c r="U57" s="134"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="S57" s="132"/>
+      <c r="U57" s="133"/>
     </row>
     <row r="58" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
@@ -10660,6 +9383,9 @@
       <c r="S58" s="6" t="s">
         <v>347</v>
       </c>
+      <c r="T58" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
       <c r="U58" s="93">
         <v>300.41000000000003</v>
       </c>
@@ -10718,6 +9444,9 @@
       <c r="S59" s="6" t="s">
         <v>348</v>
       </c>
+      <c r="T59" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="60" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
@@ -10767,38 +9496,41 @@
         <f>Chaindrive!N8</f>
         <v>10.526315789473685</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="129" t="s">
+      <c r="T60" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B61" s="129" t="s">
+      <c r="B61" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="129" t="s">
+      <c r="C61" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="129" t="s">
+      <c r="D61" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="131" t="s">
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="131" t="s">
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P61" s="130"/>
-      <c r="Q61" s="130"/>
-      <c r="S61" s="133"/>
-      <c r="U61" s="134"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="S61" s="132"/>
+      <c r="U61" s="133"/>
     </row>
     <row r="62" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="str">
@@ -10853,6 +9585,9 @@
       <c r="S62" s="6" t="s">
         <v>348</v>
       </c>
+      <c r="T62" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
       <c r="U62" s="93">
         <v>179.04</v>
       </c>
@@ -10915,6 +9650,9 @@
       <c r="S63" s="6" t="s">
         <v>348</v>
       </c>
+      <c r="T63" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
       <c r="V63" s="96"/>
     </row>
     <row r="64" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10965,6 +9703,9 @@
         <f>Chaindrive!N14</f>
         <v>10.526315789473685</v>
       </c>
+      <c r="T64" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="65" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
@@ -11015,6 +9756,9 @@
       <c r="S65" s="6" t="s">
         <v>349</v>
       </c>
+      <c r="T65" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
       <c r="U65" s="93">
         <v>472.24</v>
       </c>
@@ -11069,38 +9813,41 @@
       <c r="R66">
         <v>450</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="129" t="s">
+      <c r="T66" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B67" s="129" t="s">
+      <c r="B67" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C67" s="129" t="s">
+      <c r="C67" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D67" s="129" t="s">
+      <c r="D67" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="130"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="131" t="s">
+      <c r="E67" s="129"/>
+      <c r="F67" s="134"/>
+      <c r="G67" s="129"/>
+      <c r="H67" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="130"/>
-      <c r="M67" s="130"/>
-      <c r="N67" s="131" t="s">
+      <c r="I67" s="129"/>
+      <c r="J67" s="129"/>
+      <c r="K67" s="129"/>
+      <c r="L67" s="129"/>
+      <c r="M67" s="129"/>
+      <c r="N67" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P67" s="130"/>
-      <c r="Q67" s="130"/>
-      <c r="S67" s="133"/>
-      <c r="U67" s="134"/>
+      <c r="P67" s="129"/>
+      <c r="Q67" s="129"/>
+      <c r="S67" s="132"/>
+      <c r="U67" s="133"/>
     </row>
     <row r="68" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
@@ -11151,6 +9898,9 @@
         <f>Chaindrive!N22</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="T68" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="69" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
@@ -11201,6 +9951,9 @@
         <f>Chaindrive!N23</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="T69" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="70" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
@@ -11251,6 +10004,9 @@
         <f>Chaindrive!N24</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="T70" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="71" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
@@ -11302,6 +10058,9 @@
         <f>Chaindrive!N25</f>
         <v>5.2631578947368425</v>
       </c>
+      <c r="T71" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="72" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
@@ -11352,6 +10111,9 @@
         <f>Chaindrive!N26</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="T72" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="73" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
@@ -11402,38 +10164,41 @@
         <f>Chaindrive!N27</f>
         <v>5.2631578947368425</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="129" t="s">
+      <c r="T73" t="e" vm="10">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B74" s="129" t="s">
+      <c r="B74" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C74" s="129" t="s">
+      <c r="C74" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="129" t="s">
+      <c r="D74" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E74" s="130"/>
-      <c r="F74" s="135"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="131" t="s">
+      <c r="E74" s="129"/>
+      <c r="F74" s="134"/>
+      <c r="G74" s="129"/>
+      <c r="H74" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
-      <c r="K74" s="130"/>
-      <c r="L74" s="130"/>
-      <c r="M74" s="130"/>
-      <c r="N74" s="131" t="s">
+      <c r="I74" s="129"/>
+      <c r="J74" s="129"/>
+      <c r="K74" s="129"/>
+      <c r="L74" s="129"/>
+      <c r="M74" s="129"/>
+      <c r="N74" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P74" s="130"/>
-      <c r="Q74" s="130"/>
-      <c r="S74" s="133"/>
-      <c r="U74" s="134"/>
+      <c r="P74" s="129"/>
+      <c r="Q74" s="129"/>
+      <c r="S74" s="132"/>
+      <c r="U74" s="133"/>
     </row>
     <row r="75" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
@@ -11528,6 +10293,9 @@
       <c r="S77" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="T77" t="e" vm="11">
+        <v>#VALUE!</v>
+      </c>
       <c r="U77" s="108">
         <v>266</v>
       </c>
@@ -11585,6 +10353,9 @@
       <c r="S78" s="6" t="s">
         <v>353</v>
       </c>
+      <c r="T78" t="e" vm="12">
+        <v>#VALUE!</v>
+      </c>
       <c r="U78" s="108">
         <v>280</v>
       </c>
@@ -11639,6 +10410,9 @@
       <c r="R79">
         <v>450</v>
       </c>
+      <c r="T79" t="e" vm="13">
+        <v>#VALUE!</v>
+      </c>
       <c r="U79" s="108"/>
     </row>
     <row r="80" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11694,6 +10468,9 @@
       <c r="S80" s="6" t="s">
         <v>355</v>
       </c>
+      <c r="T80" t="e" vm="14">
+        <v>#VALUE!</v>
+      </c>
       <c r="U80" s="108">
         <v>307</v>
       </c>
@@ -11751,6 +10528,9 @@
       <c r="S81" s="6" t="s">
         <v>357</v>
       </c>
+      <c r="T81" t="e" vm="15">
+        <v>#VALUE!</v>
+      </c>
       <c r="U81" s="108">
         <v>383</v>
       </c>
@@ -11808,6 +10588,9 @@
       <c r="S82" s="6" t="s">
         <v>359</v>
       </c>
+      <c r="T82" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
       <c r="U82" s="108"/>
     </row>
     <row r="83" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11863,6 +10646,9 @@
       <c r="S83" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="T83" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
       <c r="U83" s="108"/>
     </row>
     <row r="84" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11918,6 +10704,9 @@
       <c r="S84" s="6" t="s">
         <v>363</v>
       </c>
+      <c r="T84" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
       <c r="U84" s="108"/>
     </row>
     <row r="85" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11973,6 +10762,9 @@
       <c r="S85" s="6" t="s">
         <v>365</v>
       </c>
+      <c r="T85" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
       <c r="U85" s="108"/>
     </row>
     <row r="86" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -12028,6 +10820,9 @@
       <c r="S86" s="6" t="s">
         <v>367</v>
       </c>
+      <c r="T86" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="87" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -12082,6 +10877,9 @@
       <c r="S87" s="6" t="s">
         <v>369</v>
       </c>
+      <c r="T87" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="88" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -12136,6 +10934,9 @@
       <c r="S88" s="6" t="s">
         <v>371</v>
       </c>
+      <c r="T88" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -12187,6 +10988,9 @@
       <c r="R89">
         <v>3125</v>
       </c>
+      <c r="T89" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
       <c r="U89" s="108"/>
     </row>
     <row r="90" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -12239,259 +11043,262 @@
       <c r="R90">
         <v>1500</v>
       </c>
+      <c r="T90" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
       <c r="U90" s="108"/>
     </row>
-    <row r="91" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="136" t="s">
+    <row r="91" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>374</v>
       </c>
-      <c r="B91" s="136" t="s">
+      <c r="B91" t="s">
         <v>346</v>
       </c>
-      <c r="C91" s="137">
+      <c r="C91" s="1">
         <f t="shared" si="5"/>
         <v>2600.0100000000002</v>
       </c>
-      <c r="D91" s="137">
+      <c r="D91" s="1">
         <v>3600</v>
       </c>
-      <c r="E91" s="137" t="s">
+      <c r="E91" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F91" s="137">
+      <c r="F91" s="1">
         <v>5</v>
       </c>
-      <c r="G91" s="137">
+      <c r="G91" s="1">
         <v>415</v>
       </c>
-      <c r="H91" s="137" t="s">
+      <c r="H91" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I91" s="137" t="s">
+      <c r="I91" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J91" s="137"/>
-      <c r="K91" s="137" t="s">
+      <c r="K91" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L91" s="137">
+      <c r="L91" s="1">
         <v>80</v>
       </c>
-      <c r="M91" s="137" t="s">
+      <c r="M91" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N91" s="137" t="s">
+      <c r="N91" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O91" s="136">
+      <c r="O91">
         <v>10</v>
       </c>
-      <c r="P91" s="137">
+      <c r="P91" s="1">
         <v>9</v>
       </c>
-      <c r="Q91" s="137"/>
-      <c r="R91" s="136">
+      <c r="R91">
         <v>2000</v>
       </c>
-      <c r="S91" s="138"/>
+      <c r="T91" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
       <c r="U91" s="108"/>
     </row>
-    <row r="92" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="136" t="s">
+    <row r="92" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>375</v>
       </c>
-      <c r="B92" s="136" t="s">
+      <c r="B92" t="s">
         <v>346</v>
       </c>
-      <c r="C92" s="137">
+      <c r="C92" s="1">
         <f t="shared" si="5"/>
         <v>3600.01</v>
       </c>
-      <c r="D92" s="137">
+      <c r="D92" s="1">
         <v>3600</v>
       </c>
-      <c r="E92" s="137" t="s">
+      <c r="E92" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F92" s="137">
+      <c r="F92" s="1">
         <v>9</v>
       </c>
-      <c r="G92" s="137">
+      <c r="G92" s="1">
         <v>415</v>
       </c>
-      <c r="H92" s="137" t="s">
+      <c r="H92" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I92" s="137" t="s">
+      <c r="I92" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J92" s="137"/>
-      <c r="K92" s="137" t="s">
+      <c r="K92" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L92" s="137">
+      <c r="L92" s="1">
         <v>80</v>
       </c>
-      <c r="M92" s="137" t="s">
+      <c r="M92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N92" s="137" t="s">
+      <c r="N92" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O92" s="136">
+      <c r="O92">
         <v>10</v>
       </c>
-      <c r="P92" s="137">
+      <c r="P92" s="1">
         <v>10</v>
       </c>
-      <c r="Q92" s="137"/>
-      <c r="R92" s="136">
+      <c r="R92">
         <v>3000</v>
       </c>
-      <c r="S92" s="138"/>
+      <c r="T92" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
       <c r="U92" s="108"/>
     </row>
-    <row r="93" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="136" t="s">
+    <row r="93" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="136" t="s">
+      <c r="B93" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="137">
+      <c r="C93" s="1">
         <f t="shared" si="5"/>
         <v>3600.01</v>
       </c>
-      <c r="D93" s="137">
+      <c r="D93" s="1">
         <v>4800</v>
       </c>
-      <c r="E93" s="137" t="s">
+      <c r="E93" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F93" s="137">
+      <c r="F93" s="1">
         <v>9</v>
       </c>
-      <c r="G93" s="137">
+      <c r="G93" s="1">
         <v>415</v>
       </c>
-      <c r="H93" s="137" t="s">
+      <c r="H93" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I93" s="137" t="s">
+      <c r="I93" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J93" s="137"/>
-      <c r="K93" s="137" t="s">
+      <c r="K93" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L93" s="137">
+      <c r="L93" s="1">
         <v>100</v>
       </c>
-      <c r="M93" s="137" t="s">
+      <c r="M93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N93" s="137" t="s">
+      <c r="N93" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O93" s="136">
+      <c r="O93">
         <v>10</v>
       </c>
-      <c r="P93" s="137">
+      <c r="P93" s="1">
         <v>10</v>
       </c>
-      <c r="Q93" s="137"/>
-      <c r="R93" s="136">
+      <c r="R93">
         <v>3000</v>
       </c>
-      <c r="S93" s="138"/>
+      <c r="T93" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
       <c r="U93" s="108"/>
     </row>
-    <row r="94" spans="1:21" s="136" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="136" t="s">
+    <row r="94" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>583</v>
       </c>
-      <c r="B94" s="136" t="s">
+      <c r="B94" t="s">
         <v>346</v>
       </c>
-      <c r="C94" s="137">
+      <c r="C94" s="1">
         <f t="shared" ref="C94" si="6">D93+0.01</f>
         <v>4800.01</v>
       </c>
-      <c r="D94" s="137">
+      <c r="D94" s="1">
         <v>5000</v>
       </c>
-      <c r="E94" s="137" t="s">
+      <c r="E94" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="137">
+      <c r="F94" s="1">
         <v>5</v>
       </c>
-      <c r="G94" s="137">
+      <c r="G94" s="1">
         <v>415</v>
       </c>
-      <c r="H94" s="137" t="s">
+      <c r="H94" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I94" s="137" t="s">
+      <c r="I94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J94" s="137"/>
-      <c r="K94" s="137" t="s">
+      <c r="K94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L94" s="137">
+      <c r="L94" s="1">
         <v>100</v>
       </c>
-      <c r="M94" s="137" t="s">
+      <c r="M94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N94" s="137" t="s">
+      <c r="N94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="136">
+      <c r="O94">
         <v>10</v>
       </c>
-      <c r="P94" s="137">
+      <c r="P94" s="1">
         <v>9</v>
       </c>
-      <c r="Q94" s="137"/>
-      <c r="R94" s="136">
+      <c r="R94">
         <v>2500</v>
       </c>
-      <c r="S94" s="138"/>
+      <c r="T94" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
       <c r="U94" s="108"/>
     </row>
-    <row r="95" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="129" t="s">
+    <row r="95" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B95" s="129" t="s">
+      <c r="B95" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C95" s="129" t="s">
+      <c r="C95" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D95" s="129" t="s">
+      <c r="D95" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E95" s="130"/>
-      <c r="F95" s="130"/>
-      <c r="G95" s="130"/>
-      <c r="H95" s="131" t="s">
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I95" s="130"/>
-      <c r="J95" s="130"/>
-      <c r="K95" s="130"/>
-      <c r="L95" s="130"/>
-      <c r="M95" s="130"/>
-      <c r="N95" s="131" t="s">
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="129"/>
+      <c r="L95" s="129"/>
+      <c r="M95" s="129"/>
+      <c r="N95" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P95" s="130"/>
-      <c r="Q95" s="130"/>
-      <c r="S95" s="133"/>
-      <c r="U95" s="134"/>
+      <c r="P95" s="129"/>
+      <c r="Q95" s="129"/>
+      <c r="S95" s="132"/>
+      <c r="U95" s="133"/>
     </row>
     <row r="96" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
@@ -12545,6 +11352,9 @@
       <c r="S96" s="6" t="s">
         <v>378</v>
       </c>
+      <c r="T96" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
       <c r="U96" s="93">
         <v>418</v>
       </c>
@@ -12602,6 +11412,9 @@
       <c r="S97" s="6" t="s">
         <v>380</v>
       </c>
+      <c r="T97" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
       <c r="U97" s="93">
         <v>474</v>
       </c>
@@ -12715,37 +11528,37 @@
       </c>
       <c r="U99" s="108"/>
     </row>
-    <row r="100" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="129" t="s">
+    <row r="100" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B100" s="129" t="s">
+      <c r="B100" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C100" s="129" t="s">
+      <c r="C100" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D100" s="129" t="s">
+      <c r="D100" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E100" s="130"/>
-      <c r="F100" s="130"/>
-      <c r="G100" s="130"/>
-      <c r="H100" s="131" t="s">
+      <c r="E100" s="129"/>
+      <c r="F100" s="129"/>
+      <c r="G100" s="129"/>
+      <c r="H100" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I100" s="130"/>
-      <c r="J100" s="130"/>
-      <c r="K100" s="130"/>
-      <c r="L100" s="130"/>
-      <c r="M100" s="130"/>
-      <c r="N100" s="131" t="s">
+      <c r="I100" s="129"/>
+      <c r="J100" s="129"/>
+      <c r="K100" s="129"/>
+      <c r="L100" s="129"/>
+      <c r="M100" s="129"/>
+      <c r="N100" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P100" s="130"/>
-      <c r="Q100" s="130"/>
-      <c r="S100" s="133"/>
-      <c r="U100" s="134"/>
+      <c r="P100" s="129"/>
+      <c r="Q100" s="129"/>
+      <c r="S100" s="132"/>
+      <c r="U100" s="133"/>
     </row>
     <row r="101" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
@@ -12956,37 +11769,37 @@
         <v>750</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="129" t="s">
+    <row r="105" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B105" s="129" t="s">
+      <c r="B105" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C105" s="129" t="s">
+      <c r="C105" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D105" s="129" t="s">
+      <c r="D105" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E105" s="130"/>
-      <c r="F105" s="130"/>
-      <c r="G105" s="130"/>
-      <c r="H105" s="131" t="s">
+      <c r="E105" s="129"/>
+      <c r="F105" s="129"/>
+      <c r="G105" s="129"/>
+      <c r="H105" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I105" s="130"/>
-      <c r="J105" s="130"/>
-      <c r="K105" s="130"/>
-      <c r="L105" s="130"/>
-      <c r="M105" s="130"/>
-      <c r="N105" s="131" t="s">
+      <c r="I105" s="129"/>
+      <c r="J105" s="129"/>
+      <c r="K105" s="129"/>
+      <c r="L105" s="129"/>
+      <c r="M105" s="129"/>
+      <c r="N105" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P105" s="130"/>
-      <c r="Q105" s="130"/>
-      <c r="S105" s="133"/>
-      <c r="U105" s="134"/>
+      <c r="P105" s="129"/>
+      <c r="Q105" s="129"/>
+      <c r="S105" s="132"/>
+      <c r="U105" s="133"/>
     </row>
     <row r="106" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
@@ -13598,37 +12411,37 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="132" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="129" t="s">
+    <row r="118" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="B118" s="129" t="s">
+      <c r="B118" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="C118" s="129" t="s">
+      <c r="C118" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="D118" s="129" t="s">
+      <c r="D118" s="128" t="s">
         <v>290</v>
       </c>
-      <c r="E118" s="130"/>
-      <c r="F118" s="130"/>
-      <c r="G118" s="130"/>
-      <c r="H118" s="131" t="s">
+      <c r="E118" s="129"/>
+      <c r="F118" s="129"/>
+      <c r="G118" s="129"/>
+      <c r="H118" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="I118" s="130"/>
-      <c r="J118" s="130"/>
-      <c r="K118" s="130"/>
-      <c r="L118" s="130"/>
-      <c r="M118" s="130"/>
-      <c r="N118" s="131" t="s">
+      <c r="I118" s="129"/>
+      <c r="J118" s="129"/>
+      <c r="K118" s="129"/>
+      <c r="L118" s="129"/>
+      <c r="M118" s="129"/>
+      <c r="N118" s="130" t="s">
         <v>545</v>
       </c>
-      <c r="P118" s="130"/>
-      <c r="Q118" s="130"/>
-      <c r="S118" s="133"/>
-      <c r="U118" s="134"/>
+      <c r="P118" s="129"/>
+      <c r="Q118" s="129"/>
+      <c r="S118" s="132"/>
+      <c r="U118" s="133"/>
     </row>
     <row r="119" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
@@ -13682,6 +12495,9 @@
       <c r="S119" s="6" t="s">
         <v>399</v>
       </c>
+      <c r="T119" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
       <c r="U119" s="93">
         <v>624.37</v>
       </c>
@@ -13736,6 +12552,9 @@
       <c r="R120">
         <v>850</v>
       </c>
+      <c r="T120" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="121" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
@@ -13787,6 +12606,9 @@
       <c r="R121">
         <v>1100</v>
       </c>
+      <c r="T121" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
@@ -13838,6 +12660,9 @@
       <c r="R122">
         <v>1100</v>
       </c>
+      <c r="T122" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
@@ -13889,6 +12714,9 @@
       <c r="R123">
         <v>1100</v>
       </c>
+      <c r="T123" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="124" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
@@ -13940,6 +12768,9 @@
       <c r="R124">
         <v>1500</v>
       </c>
+      <c r="T124" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="125" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
@@ -13991,6 +12822,9 @@
       <c r="R125">
         <v>2000</v>
       </c>
+      <c r="T125" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="126" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
@@ -14041,6 +12875,9 @@
       </c>
       <c r="R126">
         <v>3000</v>
+      </c>
+      <c r="T126" t="e" vm="32">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -18211,15 +17048,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="128">
+      <c r="D6" s="135">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="128"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2304" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{361032D1-5526-4598-943C-C6171B675A40}"/>
+  <xr:revisionPtr revIDLastSave="2399" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAEDADC-6A28-4D63-9E02-A948F4D39C12}"/>
   <bookViews>
     <workbookView xWindow="9460" yWindow="440" windowWidth="28780" windowHeight="19120" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -733,7 +733,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="32">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -748,313 +748,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="4"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="5"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="8"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="9"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="10"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="11"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="12"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="13"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="14"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="15"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="16"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="17"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="18"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="19"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="20"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="21"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="22"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="23"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="24"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="25"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="26"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="27"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="28"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="29"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="30"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="31"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
-  <valueMetadata count="32">
+  <valueMetadata count="2">
     <bk>
       <rc t="1" v="0"/>
     </bk>
     <bk>
       <rc t="1" v="1"/>
-    </bk>
-    <bk>
-      <rc t="1" v="2"/>
-    </bk>
-    <bk>
-      <rc t="1" v="3"/>
-    </bk>
-    <bk>
-      <rc t="1" v="4"/>
-    </bk>
-    <bk>
-      <rc t="1" v="5"/>
-    </bk>
-    <bk>
-      <rc t="1" v="6"/>
-    </bk>
-    <bk>
-      <rc t="1" v="7"/>
-    </bk>
-    <bk>
-      <rc t="1" v="8"/>
-    </bk>
-    <bk>
-      <rc t="1" v="9"/>
-    </bk>
-    <bk>
-      <rc t="1" v="10"/>
-    </bk>
-    <bk>
-      <rc t="1" v="11"/>
-    </bk>
-    <bk>
-      <rc t="1" v="12"/>
-    </bk>
-    <bk>
-      <rc t="1" v="13"/>
-    </bk>
-    <bk>
-      <rc t="1" v="14"/>
-    </bk>
-    <bk>
-      <rc t="1" v="15"/>
-    </bk>
-    <bk>
-      <rc t="1" v="16"/>
-    </bk>
-    <bk>
-      <rc t="1" v="17"/>
-    </bk>
-    <bk>
-      <rc t="1" v="18"/>
-    </bk>
-    <bk>
-      <rc t="1" v="19"/>
-    </bk>
-    <bk>
-      <rc t="1" v="20"/>
-    </bk>
-    <bk>
-      <rc t="1" v="21"/>
-    </bk>
-    <bk>
-      <rc t="1" v="22"/>
-    </bk>
-    <bk>
-      <rc t="1" v="23"/>
-    </bk>
-    <bk>
-      <rc t="1" v="24"/>
-    </bk>
-    <bk>
-      <rc t="1" v="25"/>
-    </bk>
-    <bk>
-      <rc t="1" v="26"/>
-    </bk>
-    <bk>
-      <rc t="1" v="27"/>
-    </bk>
-    <bk>
-      <rc t="1" v="28"/>
-    </bk>
-    <bk>
-      <rc t="1" v="29"/>
-    </bk>
-    <bk>
-      <rc t="1" v="30"/>
-    </bk>
-    <bk>
-      <rc t="1" v="31"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -5023,94 +4723,6 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>628682</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>457223</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C420EC-4F12-B6EC-511D-631E41AB56A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="49276000"/>
-          <a:ext cx="628682" cy="457223"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>641383</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>342918</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F3D20FA-249A-22F2-B86C-66D2C53599A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21825857" y="49784000"/>
-          <a:ext cx="641383" cy="342918"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -5134,7 +4746,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -5143,6 +4755,2778 @@
         <a:xfrm>
           <a:off x="21825857" y="53340000"/>
           <a:ext cx="628682" cy="450873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36285</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>725714</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>439415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A28C39E-71B9-6047-A2B2-C580DFB1A79C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21862142" y="20329071"/>
+          <a:ext cx="689429" cy="430344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>686740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>493509</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959EBBB9-8E36-5A65-8986-903DBC246365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21871214" y="19340286"/>
+          <a:ext cx="641383" cy="457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>747523</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>449056</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6689A7A1-F22C-0EF3-A9F8-88947AD352E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21862143" y="19848285"/>
+          <a:ext cx="711237" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>755689</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>439985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{230AB6AF-7A07-98DA-FDBA-4101771CCE9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="18315214"/>
+          <a:ext cx="755689" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>782903</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>449057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4377A759-31FD-9949-3AB4-C4FF992696CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21853071" y="17816286"/>
+          <a:ext cx="755689" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1796142</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>746617</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>439985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBBDEF6-221D-9889-400A-7A107AA34BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21816785" y="17299214"/>
+          <a:ext cx="755689" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>773832</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>439985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09469F3B-DC62-009B-DA84-EA63DBD05D85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21844000" y="16791214"/>
+          <a:ext cx="755689" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>755689</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>412771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3109961-8E6F-2E7D-62EA-6F16623C5AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="16256000"/>
+          <a:ext cx="755689" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>764760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>458128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75025A31-C7CC-A7C2-31B9-1603D936D482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21834928" y="15793357"/>
+          <a:ext cx="755689" cy="412771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>737543</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>444520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C19D5A7E-64DA-A2B2-EF6D-42921A12F5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21871214" y="15303500"/>
+          <a:ext cx="692186" cy="381020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665873</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>459037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5880048-32EB-9E7E-87C8-BE102F25C41E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907500" y="28983215"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665873</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>468107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F4D766-2AB5-0C88-23E0-6FBF9BA253AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907500" y="29500285"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>684016</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>477179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F315A77-A0FC-D9F0-9AA0-4FFD005F673B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21925643" y="30017357"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>656802</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>477180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33AE30E3-EA60-CC3E-4498-5686C1AED07D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21898429" y="31033358"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584230</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>431822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7814FB35-5507-892F-7535-8E2411737CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="31496000"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584230</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>431822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CA4110-D201-8A1F-3326-6AC64BF1FA3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="32004000"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584230</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>431822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61F901BF-E8D3-78DE-FE25-8746642284E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="32512000"/>
+          <a:ext cx="584230" cy="431822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596931</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>476274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78487E3-17CB-75C8-1775-6ADA6551F69A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="33020000"/>
+          <a:ext cx="596931" cy="476274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC5CC6D-C180-1ADC-02FB-292AE5B8B516}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="34036000"/>
+          <a:ext cx="641383" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>450873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1311926-4E92-3BCF-6F72-8E15F223C539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="34544000"/>
+          <a:ext cx="641383" cy="450873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8D1682-FB57-C8A6-9860-6B5D9F0B44EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="35052000"/>
+          <a:ext cx="641383" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297E5D44-7191-5902-F4C8-1E5D08CF77D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="35560000"/>
+          <a:ext cx="641383" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9695CB4F-C06E-4EAC-27A5-96085754F159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="36068000"/>
+          <a:ext cx="641383" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>641383</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BA054C-5B1C-4BB5-2A44-AC065F5E6F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="36576000"/>
+          <a:ext cx="641383" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622332</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>457223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71280831-29D6-8149-4916-6BDA36F904C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="38608000"/>
+          <a:ext cx="622332" cy="457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>628682</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>438173</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB88B409-FCF4-03BD-6B42-0951233E2EA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="39116000"/>
+          <a:ext cx="628682" cy="438173"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>679485</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>469924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086E9866-7ABC-46C0-5156-DA625E7A3984}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="39624000"/>
+          <a:ext cx="679485" cy="469924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>698536</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>387370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E80B8C2-8307-1004-FD2B-740107FA628C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="40132000"/>
+          <a:ext cx="698536" cy="387370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704886</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>381020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EA28BA-E2D1-D0CF-F173-DBE45BDE5D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="40640000"/>
+          <a:ext cx="704886" cy="381020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704886</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>387370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D9E1CFB-CB9E-876C-BE05-1520DBD7ADC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="41148000"/>
+          <a:ext cx="704886" cy="387370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>723937</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>469924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EB30F17-9E9D-59CE-657E-0B229BCA5B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="41656000"/>
+          <a:ext cx="723937" cy="469924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>717587</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>463574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E83D13-2A14-3FE6-F66B-6D1808D6B808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="42164000"/>
+          <a:ext cx="717587" cy="463574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>711237</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>450873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E266B6F-FC48-FA62-6021-26DBB66AC424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="42672000"/>
+          <a:ext cx="711237" cy="450873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>717587</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>450873</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA92BF24-EE79-86E9-918B-99BC6794F8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="43180000"/>
+          <a:ext cx="717587" cy="450873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>711237</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AC9681-D326-71C5-1926-FB93FCB441A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="43688000"/>
+          <a:ext cx="711237" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>711237</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>444523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8A33B3-C5EB-8390-3B87-A6F7C65A3D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="44196000"/>
+          <a:ext cx="711237" cy="444523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>654084</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>12727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BE0177-9634-DEEC-6F76-2DC66024318C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="45212000"/>
+          <a:ext cx="654084" cy="520727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666784</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A78DC7C-16A9-D9A5-16DF-CB2C5A7D97C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="45720000"/>
+          <a:ext cx="666784" cy="527077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666784</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BCA79D-1DD3-9CFE-4793-F0160539DC81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="46228000"/>
+          <a:ext cx="666784" cy="527077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666784</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{164A2089-7231-CD0B-38D5-FAAFF1913271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="46736000"/>
+          <a:ext cx="666784" cy="527077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666784</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5E79B9-1240-5A53-E528-66E4EE8186A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="47244000"/>
+          <a:ext cx="666784" cy="527077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431822</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>463574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4A653B-DAA4-4EE0-51B2-796F7DA49D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="48260000"/>
+          <a:ext cx="431822" cy="463574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431822</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>457223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0242B63-4AA1-A506-CC7E-88B4253101CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="48768000"/>
+          <a:ext cx="431822" cy="457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647733</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>403696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{189B333B-2056-E915-2821-89D4CF762335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="49838428"/>
+          <a:ext cx="647733" cy="349268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685835</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>476274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BC56BA-AB44-77C3-C270-FA46A422A6A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="59944000"/>
+          <a:ext cx="685835" cy="476274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>673135</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>482625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ECB0D6-C1AB-2534-3AA6-F7FA666D27C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="60452000"/>
+          <a:ext cx="673135" cy="482625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>654084</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>463574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5868663D-72A1-EFAF-8CF5-4F0884B41646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="60960000"/>
+          <a:ext cx="654084" cy="463574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>679485</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>476274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59B53C64-D6B3-1050-06A4-A04C989C1C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="61468000"/>
+          <a:ext cx="679485" cy="476274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647733</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>457223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5870FC9A-F116-674F-095A-4F773E7E0A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="61976000"/>
+          <a:ext cx="647733" cy="457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647733</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>457223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855EA467-5070-92AB-31D6-CB9A34E82226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="62484000"/>
+          <a:ext cx="647733" cy="457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647733</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>457223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E1312F-78AC-FC70-E4E3-3348CA7ABA43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="62992000"/>
+          <a:ext cx="647733" cy="457223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>723937</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>488975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E146088-3A42-ACBF-8A5D-594EF955AA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21825857" y="63500000"/>
+          <a:ext cx="723937" cy="488975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9073</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>154214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>770315</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>326571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD70498-3D04-072D-6958-38278B68884E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21834930" y="662214"/>
+          <a:ext cx="761242" cy="172357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>775609</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>290286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38C4CCB-79B4-C817-0C0C-E99AC844C8B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21834929" y="1143000"/>
+          <a:ext cx="766537" cy="163286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1796142</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>757465</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>308429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E262C32-53EE-4E94-9F24-76D9971D4E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21816785" y="2177143"/>
+          <a:ext cx="766537" cy="163286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>199571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>784680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>362857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C348CCB-C2BD-4179-ACE6-00E060987EC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21844000" y="3247571"/>
+          <a:ext cx="766537" cy="163286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>788456</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>335643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D34E611-D424-466F-BF46-95816CD34981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21853071" y="1687286"/>
+          <a:ext cx="761242" cy="172357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>208642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>17384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1BE639-09F9-4FB6-A1F9-9114E710C418}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21880285" y="2748642"/>
+          <a:ext cx="761242" cy="172357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>786622</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>299357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC79B8D0-00FD-1DA7-A4B4-53DEE69EE639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21834929" y="3637643"/>
+          <a:ext cx="777550" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>795693</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7DF670-5C4A-43DC-9164-B9326049BC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21844000" y="4145642"/>
+          <a:ext cx="777550" cy="217714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>778517</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>453572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333EB27D-67FE-1F27-FBB7-963FDABFA3A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21862143" y="26933072"/>
+          <a:ext cx="742231" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>36286</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>759907</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>371929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2953DF0-D607-2BCE-A012-C6FDE41536BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21862143" y="27495500"/>
+          <a:ext cx="723621" cy="308429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>752928</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>471398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE32620-8FCA-8D80-7BC8-D0DEC0964CA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21853071" y="27985357"/>
+          <a:ext cx="725714" cy="426041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6266,133 +8650,13 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="32">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
   <rv s="0">
     <v>0</v>
     <v>5</v>
   </rv>
   <rv s="0">
     <v>1</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>2</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>3</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>4</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>5</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>6</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>7</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>8</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>9</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>10</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>11</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>12</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>13</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>14</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>15</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>16</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>17</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>18</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>19</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>20</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>21</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>22</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>23</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>24</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>25</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>26</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>27</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>28</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>29</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>30</v>
-    <v>5</v>
-  </rv>
-  <rv s="0">
-    <v>31</v>
     <v>5</v>
   </rv>
 </rvData>
@@ -6411,36 +8675,6 @@
 <richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
-  <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-  <rel r:id="rId5"/>
-  <rel r:id="rId6"/>
-  <rel r:id="rId7"/>
-  <rel r:id="rId8"/>
-  <rel r:id="rId9"/>
-  <rel r:id="rId10"/>
-  <rel r:id="rId11"/>
-  <rel r:id="rId12"/>
-  <rel r:id="rId13"/>
-  <rel r:id="rId14"/>
-  <rel r:id="rId15"/>
-  <rel r:id="rId16"/>
-  <rel r:id="rId17"/>
-  <rel r:id="rId18"/>
-  <rel r:id="rId19"/>
-  <rel r:id="rId20"/>
-  <rel r:id="rId21"/>
-  <rel r:id="rId22"/>
-  <rel r:id="rId23"/>
-  <rel r:id="rId24"/>
-  <rel r:id="rId25"/>
-  <rel r:id="rId26"/>
-  <rel r:id="rId27"/>
-  <rel r:id="rId28"/>
-  <rel r:id="rId29"/>
-  <rel r:id="rId30"/>
-  <rel r:id="rId31"/>
-  <rel r:id="rId32"/>
 </richValueRels>
 </file>
 
@@ -6780,8 +9014,8 @@
   <dimension ref="A1:W139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U41" sqref="U41"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8204,9 +10438,6 @@
       <c r="S31" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="T31" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="32" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
@@ -8254,9 +10485,6 @@
       <c r="S32" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="T32" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="33" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
@@ -8304,9 +10532,6 @@
       <c r="S33" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="T33" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="34" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
@@ -8354,9 +10579,6 @@
       <c r="S34" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="T34" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="35" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
@@ -8404,9 +10626,6 @@
       <c r="S35" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="T35" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="36" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
@@ -8454,9 +10673,6 @@
       <c r="S36" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="T36" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="37" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
@@ -8503,9 +10719,6 @@
       </c>
       <c r="S37" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="T37" t="e" vm="2">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -8580,9 +10793,6 @@
       <c r="N39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T39" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="40" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
@@ -8624,9 +10834,6 @@
       </c>
       <c r="N40" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="T40" t="e" vm="4">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -9383,9 +11590,6 @@
       <c r="S58" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="T58" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
       <c r="U58" s="93">
         <v>300.41000000000003</v>
       </c>
@@ -9444,9 +11648,6 @@
       <c r="S59" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="T59" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="60" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="str">
@@ -9495,9 +11696,6 @@
       <c r="O60">
         <f>Chaindrive!N8</f>
         <v>10.526315789473685</v>
-      </c>
-      <c r="T60" t="e" vm="6">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:23" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -9585,9 +11783,6 @@
       <c r="S62" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="T62" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
       <c r="U62" s="93">
         <v>179.04</v>
       </c>
@@ -9650,9 +11845,6 @@
       <c r="S63" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="T63" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
       <c r="V63" s="96"/>
     </row>
     <row r="64" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -9703,9 +11895,6 @@
         <f>Chaindrive!N14</f>
         <v>10.526315789473685</v>
       </c>
-      <c r="T64" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="65" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="str">
@@ -9756,9 +11945,6 @@
       <c r="S65" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="T65" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
       <c r="U65" s="93">
         <v>472.24</v>
       </c>
@@ -9812,9 +11998,6 @@
       </c>
       <c r="R66">
         <v>450</v>
-      </c>
-      <c r="T66" t="e" vm="7">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -9898,9 +12081,6 @@
         <f>Chaindrive!N22</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="T68" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="69" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
@@ -9951,9 +12131,6 @@
         <f>Chaindrive!N23</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="T69" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="70" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="str">
@@ -10004,9 +12181,6 @@
         <f>Chaindrive!N24</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="T70" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="71" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
@@ -10058,9 +12232,6 @@
         <f>Chaindrive!N25</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="T71" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="72" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
@@ -10111,9 +12282,6 @@
         <f>Chaindrive!N26</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="T72" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="73" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
@@ -10163,9 +12331,6 @@
       <c r="O73">
         <f>Chaindrive!N27</f>
         <v>5.2631578947368425</v>
-      </c>
-      <c r="T73" t="e" vm="10">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="74" spans="1:21" s="131" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10293,9 +12458,6 @@
       <c r="S77" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="T77" t="e" vm="11">
-        <v>#VALUE!</v>
-      </c>
       <c r="U77" s="108">
         <v>266</v>
       </c>
@@ -10353,9 +12515,6 @@
       <c r="S78" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="T78" t="e" vm="12">
-        <v>#VALUE!</v>
-      </c>
       <c r="U78" s="108">
         <v>280</v>
       </c>
@@ -10410,9 +12569,6 @@
       <c r="R79">
         <v>450</v>
       </c>
-      <c r="T79" t="e" vm="13">
-        <v>#VALUE!</v>
-      </c>
       <c r="U79" s="108"/>
     </row>
     <row r="80" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10468,9 +12624,6 @@
       <c r="S80" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="T80" t="e" vm="14">
-        <v>#VALUE!</v>
-      </c>
       <c r="U80" s="108">
         <v>307</v>
       </c>
@@ -10528,9 +12681,6 @@
       <c r="S81" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="T81" t="e" vm="15">
-        <v>#VALUE!</v>
-      </c>
       <c r="U81" s="108">
         <v>383</v>
       </c>
@@ -10588,9 +12738,6 @@
       <c r="S82" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="T82" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
       <c r="U82" s="108"/>
     </row>
     <row r="83" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10646,9 +12793,6 @@
       <c r="S83" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="T83" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
       <c r="U83" s="108"/>
     </row>
     <row r="84" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10704,9 +12848,6 @@
       <c r="S84" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="T84" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
       <c r="U84" s="108"/>
     </row>
     <row r="85" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10762,9 +12903,6 @@
       <c r="S85" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="T85" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
       <c r="U85" s="108"/>
     </row>
     <row r="86" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -10820,9 +12958,6 @@
       <c r="S86" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="T86" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="87" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
@@ -10877,9 +13012,6 @@
       <c r="S87" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="T87" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="88" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
@@ -10934,9 +13066,6 @@
       <c r="S88" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="T88" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
@@ -10988,7 +13117,7 @@
       <c r="R89">
         <v>3125</v>
       </c>
-      <c r="T89" t="e" vm="22">
+      <c r="T89" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="U89" s="108"/>
@@ -11043,9 +13172,6 @@
       <c r="R90">
         <v>1500</v>
       </c>
-      <c r="T90" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
       <c r="U90" s="108"/>
     </row>
     <row r="91" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11098,9 +13224,6 @@
       <c r="R91">
         <v>2000</v>
       </c>
-      <c r="T91" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
       <c r="U91" s="108"/>
     </row>
     <row r="92" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11153,9 +13276,6 @@
       <c r="R92">
         <v>3000</v>
       </c>
-      <c r="T92" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
       <c r="U92" s="108"/>
     </row>
     <row r="93" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11208,9 +13328,6 @@
       <c r="R93">
         <v>3000</v>
       </c>
-      <c r="T93" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
       <c r="U93" s="108"/>
     </row>
     <row r="94" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -11262,9 +13379,6 @@
       </c>
       <c r="R94">
         <v>2500</v>
-      </c>
-      <c r="T94" t="e" vm="24">
-        <v>#VALUE!</v>
       </c>
       <c r="U94" s="108"/>
     </row>
@@ -11352,9 +13466,6 @@
       <c r="S96" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="T96" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
       <c r="U96" s="93">
         <v>418</v>
       </c>
@@ -11412,9 +13523,6 @@
       <c r="S97" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="T97" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
       <c r="U97" s="93">
         <v>474</v>
       </c>
@@ -11471,6 +13579,9 @@
       </c>
       <c r="S98" s="6" t="s">
         <v>382</v>
+      </c>
+      <c r="T98" t="e" vm="2">
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="99" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -12495,9 +14606,6 @@
       <c r="S119" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="T119" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
       <c r="U119" s="93">
         <v>624.37</v>
       </c>
@@ -12552,9 +14660,6 @@
       <c r="R120">
         <v>850</v>
       </c>
-      <c r="T120" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="121" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
@@ -12606,9 +14711,6 @@
       <c r="R121">
         <v>1100</v>
       </c>
-      <c r="T121" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
@@ -12660,9 +14762,6 @@
       <c r="R122">
         <v>1100</v>
       </c>
-      <c r="T122" t="e" vm="30">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
@@ -12714,9 +14813,6 @@
       <c r="R123">
         <v>1100</v>
       </c>
-      <c r="T123" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="124" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
@@ -12768,9 +14864,6 @@
       <c r="R124">
         <v>1500</v>
       </c>
-      <c r="T124" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="125" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
@@ -12822,9 +14915,6 @@
       <c r="R125">
         <v>2000</v>
       </c>
-      <c r="T125" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="126" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
@@ -12875,9 +14965,6 @@
       </c>
       <c r="R126">
         <v>3000</v>
-      </c>
-      <c r="T126" t="e" vm="32">
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2634" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9E21B3C-B919-4C72-9E01-55DF8458B849}"/>
+  <xr:revisionPtr revIDLastSave="2677" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C5DD91-38C0-4826-B20A-EC531AF405AF}"/>
   <bookViews>
-    <workbookView xWindow="12500" yWindow="870" windowWidth="25760" windowHeight="19120" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Sheet1" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="594">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2539,7 +2539,10 @@
     <t>Ranger140 fi 3ph 12-57 5/8"</t>
   </si>
   <si>
-    <t>KE 40.40  19-57 3/4"</t>
+    <t>KE 40.40 Fi 19-57 3/4"</t>
+  </si>
+  <si>
+    <t>KE 50.80 Fi 19-57 1"</t>
   </si>
 </sst>
 </file>
@@ -3200,14 +3203,14 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4697,13 +4700,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146279</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>143781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3780</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>96381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4741,13 +4744,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>628682</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5010,7 +5013,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>746617</xdr:colOff>
+      <xdr:colOff>746616</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>439985</xdr:rowOff>
     </xdr:to>
@@ -5797,13 +5800,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>622332</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5841,13 +5844,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>628682</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>438173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5885,13 +5888,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>679485</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>469924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5929,13 +5932,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>698536</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>387370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5973,13 +5976,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>704886</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>381020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6017,13 +6020,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>704886</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>387370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6061,13 +6064,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>723937</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>469924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6105,13 +6108,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>717587</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>463574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6149,13 +6152,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>711237</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6193,13 +6196,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>717587</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6237,13 +6240,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>711237</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6281,13 +6284,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>711237</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6325,13 +6328,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>654084</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>12727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6369,13 +6372,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6413,13 +6416,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6457,13 +6460,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6501,13 +6504,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6545,13 +6548,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431822</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>463574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6589,13 +6592,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431822</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6633,13 +6636,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>403696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6677,13 +6680,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>685835</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>476274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6721,13 +6724,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>673135</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>482625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6765,13 +6768,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>654084</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>463574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6809,13 +6812,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>679485</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>476274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6853,13 +6856,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6897,13 +6900,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6941,13 +6944,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6985,13 +6988,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>723937</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>488975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7122,7 +7125,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>757465</xdr:colOff>
+      <xdr:colOff>757464</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>308429</xdr:rowOff>
     </xdr:to>
@@ -7254,7 +7257,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>17384</xdr:colOff>
+      <xdr:colOff>17385</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>380999</xdr:rowOff>
     </xdr:to>
@@ -8129,13 +8132,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>27216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666012</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>495054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8173,13 +8176,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>656941</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>504123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8217,13 +8220,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>102333</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>695956</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>475915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8261,13 +8264,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>34470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>682341</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>502308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8305,13 +8308,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>45358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>702480</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>439630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8349,13 +8352,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>720623</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>457772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8393,13 +8396,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>154214</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>747837</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>448700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8437,13 +8440,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>720623</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>439629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8481,13 +8484,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>172358</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>693709</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>399405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8525,13 +8528,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>86082</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>722315</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>435429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8569,13 +8572,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>125186</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>79829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>646537</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>415733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8613,13 +8616,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>151269</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>758090</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>480786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8657,7 +8660,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>151269</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="606821" cy="435429"/>
@@ -8947,6 +8950,50 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22087417" y="41666583"/>
+          <a:ext cx="603250" cy="483373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>137584</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>740834</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>493956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C17FC5D-61EF-43DB-8C2C-E6FF58499C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22584834" y="42174583"/>
           <a:ext cx="603250" cy="483373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10339,11 +10386,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:W152"/>
+  <dimension ref="A1:W153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10359,7 +10406,7 @@
     <col min="11" max="11" width="14.1796875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" style="1" customWidth="1"/>
     <col min="13" max="14" width="19.453125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.36328125" style="6" customWidth="1"/>
     <col min="16" max="16" width="13.90625" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.08984375" style="1" customWidth="1"/>
     <col min="18" max="18" width="10.54296875" style="6" customWidth="1"/>
@@ -13877,7 +13924,7 @@
     <row r="76" spans="1:23" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="126"/>
       <c r="C76" s="127"/>
-      <c r="D76" s="136"/>
+      <c r="D76" s="135"/>
       <c r="E76" s="127"/>
       <c r="F76" s="132"/>
       <c r="G76" s="127"/>
@@ -13944,6 +13991,12 @@
         <f>Chaindrive!N30</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="P77" s="1">
+        <v>11</v>
+      </c>
+      <c r="R77" s="6">
+        <v>850</v>
+      </c>
     </row>
     <row r="78" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
@@ -13994,6 +14047,12 @@
         <f>Chaindrive!N31</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="P78" s="1">
+        <v>11</v>
+      </c>
+      <c r="R78" s="6">
+        <v>1100</v>
+      </c>
     </row>
     <row r="79" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="str">
@@ -14045,6 +14104,12 @@
         <f>Chaindrive!N32</f>
         <v>5.2631578947368425</v>
       </c>
+      <c r="P79" s="1">
+        <v>11</v>
+      </c>
+      <c r="R79" s="6">
+        <v>1100</v>
+      </c>
     </row>
     <row r="80" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="str">
@@ -14095,6 +14160,12 @@
         <f>Chaindrive!N33</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="P80" s="1">
+        <v>11</v>
+      </c>
+      <c r="R80" s="6">
+        <v>1500</v>
+      </c>
     </row>
     <row r="81" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="str">
@@ -14144,6 +14215,12 @@
       <c r="O81" s="6">
         <f>Chaindrive!N34</f>
         <v>5.2631578947368425</v>
+      </c>
+      <c r="P81" s="1">
+        <v>12</v>
+      </c>
+      <c r="R81" s="6">
+        <v>2000</v>
       </c>
     </row>
     <row r="82" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -14180,12 +14257,12 @@
       <c r="S82" s="130"/>
       <c r="U82" s="131"/>
     </row>
-    <row r="83" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="str">
         <f>Chaindrive!A38</f>
-        <v>KE 40.40  19-57 3/4"</v>
-      </c>
-      <c r="B83" t="s">
+        <v>KE 40.40 Fi 19-57 3/4"</v>
+      </c>
+      <c r="B83" s="68" t="s">
         <v>345</v>
       </c>
       <c r="C83" s="1">
@@ -14193,14 +14270,14 @@
       </c>
       <c r="D83" s="32">
         <f>Chaindrive!I38</f>
-        <v>900</v>
+        <v>1140</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>163</v>
+        <v>385</v>
       </c>
       <c r="F83" s="2">
         <f>Chaindrive!K38</f>
-        <v>13.333333333333334</v>
+        <v>10.526315789473685</v>
       </c>
       <c r="G83" s="1" t="str">
         <f>Chaindrive!L38</f>
@@ -14212,6 +14289,7 @@
       <c r="I83" s="1" t="s">
         <v>282</v>
       </c>
+      <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
         <v>282</v>
       </c>
@@ -14225,160 +14303,183 @@
       <c r="N83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83" s="1">
         <f>Chaindrive!N38</f>
-        <v>6.666666666666667</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="P83" s="1">
         <v>17</v>
       </c>
-      <c r="R83" s="6">
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1">
         <v>1500</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84"/>
-      <c r="D84" s="32"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="126"/>
-      <c r="B85" s="126"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="132"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="128"/>
-      <c r="I85" s="127"/>
-      <c r="J85" s="127"/>
-      <c r="K85" s="127"/>
-      <c r="L85" s="127"/>
-      <c r="M85" s="127"/>
-      <c r="N85" s="128"/>
-      <c r="O85" s="130"/>
-      <c r="P85" s="127"/>
-      <c r="Q85" s="127"/>
-      <c r="R85" s="130"/>
-      <c r="S85" s="130"/>
-      <c r="U85" s="131"/>
-    </row>
-    <row r="86" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>290</v>
-      </c>
+      <c r="S83" s="1"/>
+      <c r="U83" s="133"/>
+    </row>
+    <row r="84" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="str">
+        <f>Chaindrive!A39</f>
+        <v>KE 50.80 Fi 19-57 1"</v>
+      </c>
+      <c r="B84" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="C84" s="2">
+        <f>D83+0.01</f>
+        <v>1140.01</v>
+      </c>
+      <c r="D84" s="32">
+        <f>Chaindrive!I39</f>
+        <v>1900</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F84" s="2">
+        <f>Chaindrive!K39</f>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="G84" s="1" t="str">
+        <f>Chaindrive!L39</f>
+        <v>230/415</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L84" s="1">
+        <f>Chaindrive!Q39</f>
+        <v>55</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O84" s="1">
+        <f>Chaindrive!N39</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P84" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1">
+        <v>4500</v>
+      </c>
+      <c r="S84" s="1"/>
+      <c r="U84" s="133"/>
+    </row>
+    <row r="85" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="U85" s="133"/>
+    </row>
+    <row r="86" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="2"/>
-      <c r="H86" s="115" t="s">
-        <v>541</v>
-      </c>
-      <c r="N86" s="115" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H87" s="115" t="s">
-        <v>541</v>
-      </c>
-      <c r="N87" s="115" t="s">
-        <v>541</v>
-      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="U86" s="133"/>
+    </row>
+    <row r="87" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="126"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="132"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="127"/>
+      <c r="J87" s="127"/>
+      <c r="K87" s="127"/>
+      <c r="L87" s="127"/>
+      <c r="M87" s="127"/>
+      <c r="N87" s="128"/>
+      <c r="O87" s="130"/>
+      <c r="P87" s="127"/>
+      <c r="Q87" s="127"/>
+      <c r="R87" s="130"/>
+      <c r="S87" s="130"/>
+      <c r="U87" s="131"/>
     </row>
     <row r="88" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H88" s="115" t="s">
+        <v>541</v>
+      </c>
+      <c r="N88" s="115" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C89" s="1">
         <v>0</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D89" s="1">
         <v>100</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" s="1">
-        <v>15</v>
-      </c>
-      <c r="G88" s="1">
-        <v>415</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L88" s="1">
-        <v>30</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O88" s="6">
-        <v>20</v>
-      </c>
-      <c r="P88" s="1">
-        <v>8</v>
-      </c>
-      <c r="R88" s="6">
-        <v>300</v>
-      </c>
-      <c r="S88" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="U88" s="107">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>577</v>
-      </c>
-      <c r="B89" t="s">
-        <v>345</v>
-      </c>
-      <c r="C89" s="1">
-        <f t="shared" ref="C89" si="2">D88+0.01</f>
-        <v>100.01</v>
-      </c>
-      <c r="D89" s="6">
-        <v>140</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F89" s="6">
-        <v>20</v>
+      <c r="F89" s="1">
+        <v>15</v>
       </c>
       <c r="G89" s="1">
         <v>415</v>
@@ -14408,34 +14509,34 @@
         <v>8</v>
       </c>
       <c r="R89" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S89" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U89" s="107">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>351</v>
+        <v>577</v>
       </c>
       <c r="B90" t="s">
         <v>345</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" ref="C90" si="3">D89+0.01</f>
-        <v>140.01</v>
+        <f t="shared" ref="C90" si="2">D89+0.01</f>
+        <v>100.01</v>
       </c>
       <c r="D90" s="6">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F90" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G90" s="1">
         <v>415</v>
@@ -14465,23 +14566,28 @@
         <v>8</v>
       </c>
       <c r="R90" s="6">
-        <v>450</v>
-      </c>
-      <c r="U90" s="107"/>
+        <v>400</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="U90" s="107">
+        <v>280</v>
+      </c>
     </row>
     <row r="91" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B91" t="s">
         <v>345</v>
       </c>
       <c r="C91" s="1">
-        <f>D90+0.01</f>
-        <v>170.01</v>
+        <f t="shared" ref="C91" si="3">D90+0.01</f>
+        <v>140.01</v>
       </c>
       <c r="D91" s="6">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>163</v>
@@ -14514,31 +14620,26 @@
         <v>20</v>
       </c>
       <c r="P91" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R91" s="6">
-        <v>750</v>
-      </c>
-      <c r="S91" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="U91" s="107">
-        <v>307</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="U91" s="107"/>
     </row>
     <row r="92" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B92" t="s">
         <v>345</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" ref="C92:C100" si="4">D91+0.01</f>
-        <v>250.01</v>
+        <f>D91+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D92" s="6">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>163</v>
@@ -14559,7 +14660,7 @@
         <v>282</v>
       </c>
       <c r="L92" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>62</v>
@@ -14571,474 +14672,476 @@
         <v>20</v>
       </c>
       <c r="P92" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R92" s="6">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="S92" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U92" s="107">
-        <v>383</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B93" t="s">
         <v>345</v>
       </c>
       <c r="C93" s="1">
+        <f t="shared" ref="C93:C101" si="4">D92+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D93" s="6">
+        <v>350</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="6">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1">
+        <v>415</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L93" s="1">
+        <v>40</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O93" s="6">
+        <v>20</v>
+      </c>
+      <c r="P93" s="1">
+        <v>9</v>
+      </c>
+      <c r="R93" s="6">
+        <v>850</v>
+      </c>
+      <c r="S93" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="U93" s="107">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>357</v>
+      </c>
+      <c r="B94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" s="1">
         <f t="shared" si="4"/>
         <v>350.01</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D94" s="6">
         <v>450</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>15</v>
       </c>
-      <c r="G93" s="1">
+      <c r="G94" s="1">
         <v>415</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L93" s="1">
+      <c r="L94" s="1">
         <v>40</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O94" s="6">
         <v>20</v>
       </c>
-      <c r="P93" s="1">
+      <c r="P94" s="1">
         <v>9</v>
       </c>
-      <c r="R93" s="6">
+      <c r="R94" s="6">
         <v>1100</v>
       </c>
-      <c r="S93" s="6" t="s">
+      <c r="S94" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="U93" s="107"/>
-    </row>
-    <row r="94" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="U94" s="107"/>
+    </row>
+    <row r="95" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>359</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>345</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C95" s="1">
         <f t="shared" si="4"/>
         <v>450.01</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D95" s="6">
         <v>550</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>15</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G95" s="1">
         <v>415</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L95" s="1">
         <v>40</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O95" s="6">
         <v>20</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P95" s="1">
         <v>9</v>
       </c>
-      <c r="R94" s="6">
+      <c r="R95" s="6">
         <v>1100</v>
       </c>
-      <c r="S94" s="6" t="s">
+      <c r="S95" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="U94" s="107"/>
-    </row>
-    <row r="95" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="U95" s="107"/>
+    </row>
+    <row r="96" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>361</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>345</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C96" s="1">
         <f t="shared" si="4"/>
         <v>550.01</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D96" s="6">
         <v>650</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>15</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G96" s="1">
         <v>415</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L95" s="1">
+      <c r="L96" s="1">
         <v>40</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O96" s="6">
         <v>20</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P96" s="1">
         <v>9</v>
       </c>
-      <c r="R95" s="6">
+      <c r="R96" s="6">
         <v>1100</v>
       </c>
-      <c r="S95" s="6" t="s">
+      <c r="S96" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="U95" s="107"/>
-    </row>
-    <row r="96" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="U96" s="107"/>
+    </row>
+    <row r="97" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>363</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>345</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C97" s="1">
         <f t="shared" si="4"/>
         <v>650.01</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D97" s="6">
         <v>750</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F97" s="6">
         <v>15</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>415</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="1">
         <v>55</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O97" s="6">
         <v>20</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P97" s="1">
         <v>9</v>
       </c>
-      <c r="R96" s="6">
+      <c r="R97" s="6">
         <v>2800</v>
       </c>
-      <c r="S96" s="6" t="s">
+      <c r="S97" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="U96" s="107"/>
-    </row>
-    <row r="97" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="U97" s="107"/>
+    </row>
+    <row r="98" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>365</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>345</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C98" s="1">
         <f t="shared" si="4"/>
         <v>750.01</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D98" s="6">
         <v>850</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>10</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G98" s="1">
         <v>415</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L97" s="1">
+      <c r="L98" s="1">
         <v>55</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O98" s="6">
         <v>20</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P98" s="1">
         <v>7</v>
       </c>
-      <c r="R97" s="6">
+      <c r="R98" s="6">
         <v>1100</v>
       </c>
-      <c r="S97" s="6" t="s">
+      <c r="S98" s="6" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="99" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>367</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>345</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C99" s="1">
         <f t="shared" si="4"/>
         <v>850.01</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D99" s="6">
         <v>1000</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F99" s="6">
         <v>10</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G99" s="1">
         <v>415</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L99" s="1">
         <v>55</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O99" s="6">
         <v>20</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P99" s="1">
         <v>7</v>
       </c>
-      <c r="R98" s="6">
+      <c r="R99" s="6">
         <v>2800</v>
       </c>
-      <c r="S98" s="6" t="s">
+      <c r="S99" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>369</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>345</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C100" s="1">
         <f t="shared" si="4"/>
         <v>1000.01</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D100" s="6">
         <v>1400</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F100" s="6">
         <v>7</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G100" s="1">
         <v>415</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <v>55</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O100" s="6">
         <v>20</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P100" s="1">
         <v>7</v>
       </c>
-      <c r="R99" s="6">
+      <c r="R100" s="6">
         <v>2800</v>
       </c>
-      <c r="S99" s="6" t="s">
+      <c r="S100" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>371</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>345</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C101" s="1">
         <f t="shared" si="4"/>
         <v>1400.01</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D101" s="6">
         <v>1800</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F100" s="6">
-        <v>6</v>
-      </c>
-      <c r="G100" s="1">
-        <v>415</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L100" s="1">
-        <v>60</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O100" s="6">
-        <v>10</v>
-      </c>
-      <c r="P100" s="1">
-        <v>7</v>
-      </c>
-      <c r="R100" s="6">
-        <v>3125</v>
-      </c>
-      <c r="T100" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U100" s="107"/>
-    </row>
-    <row r="101" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>372</v>
-      </c>
-      <c r="B101" t="s">
-        <v>345</v>
-      </c>
-      <c r="C101" s="1">
-        <f t="shared" ref="C101:C104" si="5">D100+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D101" s="1">
-        <v>2600</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F101" s="1">
-        <v>5</v>
+      <c r="F101" s="6">
+        <v>6</v>
       </c>
       <c r="G101" s="1">
         <v>415</v>
@@ -15053,7 +15156,7 @@
         <v>282</v>
       </c>
       <c r="L101" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>62</v>
@@ -15065,76 +15168,79 @@
         <v>10</v>
       </c>
       <c r="P101" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R101" s="6">
-        <v>1500</v>
+        <v>3125</v>
+      </c>
+      <c r="T101" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="U101" s="107"/>
     </row>
     <row r="102" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B102" t="s">
         <v>345</v>
       </c>
       <c r="C102" s="1">
+        <f t="shared" ref="C102:C105" si="5">D101+0.01</f>
+        <v>1800.01</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="1">
+        <v>5</v>
+      </c>
+      <c r="G102" s="1">
+        <v>415</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L102" s="1">
+        <v>80</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" s="6">
+        <v>10</v>
+      </c>
+      <c r="P102" s="1">
+        <v>9</v>
+      </c>
+      <c r="R102" s="6">
+        <v>1500</v>
+      </c>
+      <c r="U102" s="107"/>
+    </row>
+    <row r="103" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" t="s">
+        <v>345</v>
+      </c>
+      <c r="C103" s="1">
         <f t="shared" si="5"/>
         <v>2600.0100000000002</v>
       </c>
-      <c r="D102" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F102" s="1">
-        <v>5</v>
-      </c>
-      <c r="G102" s="1">
-        <v>415</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L102" s="1">
-        <v>80</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O102" s="6">
-        <v>10</v>
-      </c>
-      <c r="P102" s="1">
-        <v>9</v>
-      </c>
-      <c r="R102" s="6">
-        <v>2000</v>
-      </c>
-      <c r="U102" s="107"/>
-    </row>
-    <row r="103" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>374</v>
-      </c>
-      <c r="B103" t="s">
-        <v>345</v>
-      </c>
-      <c r="C103" s="1">
-        <f t="shared" si="5"/>
-        <v>3600.01</v>
-      </c>
       <c r="D103" s="1">
         <v>3600</v>
       </c>
@@ -15142,7 +15248,7 @@
         <v>163</v>
       </c>
       <c r="F103" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G103" s="1">
         <v>415</v>
@@ -15169,16 +15275,16 @@
         <v>10</v>
       </c>
       <c r="P103" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R103" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="U103" s="107"/>
     </row>
     <row r="104" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B104" t="s">
         <v>345</v>
@@ -15188,7 +15294,7 @@
         <v>3600.01</v>
       </c>
       <c r="D104" s="1">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>163</v>
@@ -15209,7 +15315,7 @@
         <v>282</v>
       </c>
       <c r="L104" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>62</v>
@@ -15230,23 +15336,23 @@
     </row>
     <row r="105" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>578</v>
+        <v>375</v>
       </c>
       <c r="B105" t="s">
         <v>345</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ref="C105" si="6">D104+0.01</f>
-        <v>4800.01</v>
+        <f t="shared" si="5"/>
+        <v>3600.01</v>
       </c>
       <c r="D105" s="1">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F105" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G105" s="1">
         <v>415</v>
@@ -15273,116 +15379,111 @@
         <v>10</v>
       </c>
       <c r="P105" s="1">
+        <v>10</v>
+      </c>
+      <c r="R105" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U105" s="107"/>
+    </row>
+    <row r="106" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>578</v>
+      </c>
+      <c r="B106" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" s="1">
+        <f t="shared" ref="C106" si="6">D105+0.01</f>
+        <v>4800.01</v>
+      </c>
+      <c r="D106" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="1">
+        <v>5</v>
+      </c>
+      <c r="G106" s="1">
+        <v>415</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L106" s="1">
+        <v>100</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O106" s="6">
+        <v>10</v>
+      </c>
+      <c r="P106" s="1">
         <v>9</v>
       </c>
-      <c r="R105" s="6">
+      <c r="R106" s="6">
         <v>2500</v>
       </c>
-      <c r="U105" s="107"/>
-    </row>
-    <row r="106" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="126" t="s">
+      <c r="U106" s="107"/>
+    </row>
+    <row r="107" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="126" t="s">
+      <c r="B107" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="C106" s="126" t="s">
+      <c r="C107" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="D106" s="126" t="s">
+      <c r="D107" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="E106" s="127"/>
-      <c r="F106" s="127"/>
-      <c r="G106" s="127"/>
-      <c r="H106" s="128" t="s">
+      <c r="E107" s="127"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="I106" s="127"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="127"/>
-      <c r="L106" s="127"/>
-      <c r="M106" s="127"/>
-      <c r="N106" s="128" t="s">
+      <c r="I107" s="127"/>
+      <c r="J107" s="127"/>
+      <c r="K107" s="127"/>
+      <c r="L107" s="127"/>
+      <c r="M107" s="127"/>
+      <c r="N107" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="O106" s="130"/>
-      <c r="P106" s="127"/>
-      <c r="Q106" s="127"/>
-      <c r="R106" s="130"/>
-      <c r="S106" s="130"/>
-      <c r="U106" s="131"/>
-    </row>
-    <row r="107" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C107" s="1">
-        <v>0</v>
-      </c>
-      <c r="D107" s="1">
-        <v>170</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F107" s="1">
-        <v>10</v>
-      </c>
-      <c r="G107" s="1">
-        <v>230</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L107" s="1">
-        <v>30</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O107" s="1">
-        <v>10</v>
-      </c>
-      <c r="P107" s="1">
-        <v>8</v>
-      </c>
-      <c r="R107" s="1">
-        <v>400</v>
-      </c>
-      <c r="S107" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="U107" s="92">
-        <v>418</v>
-      </c>
+      <c r="O107" s="130"/>
+      <c r="P107" s="127"/>
+      <c r="Q107" s="127"/>
+      <c r="R107" s="130"/>
+      <c r="S107" s="130"/>
+      <c r="U107" s="131"/>
     </row>
     <row r="108" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C108" s="1">
-        <f>D107+0.01</f>
-        <v>170.01</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>163</v>
@@ -15415,28 +15516,28 @@
         <v>10</v>
       </c>
       <c r="P108" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R108" s="1">
         <v>400</v>
       </c>
       <c r="S108" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="U108" s="92">
-        <v>474</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>345</v>
       </c>
       <c r="C109" s="1">
         <f>D108+0.01</f>
-        <v>250.01</v>
+        <v>170.01</v>
       </c>
       <c r="D109" s="1">
         <v>250</v>
@@ -15445,7 +15546,7 @@
         <v>163</v>
       </c>
       <c r="F109" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G109" s="1">
         <v>230</v>
@@ -15469,24 +15570,24 @@
         <v>28</v>
       </c>
       <c r="O109" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P109" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R109" s="1">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="T109" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>379</v>
+      </c>
+      <c r="U109" s="92">
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>345</v>
@@ -15496,13 +15597,13 @@
         <v>250.01</v>
       </c>
       <c r="D110" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F110" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G110" s="1">
         <v>230</v>
@@ -15517,7 +15618,7 @@
         <v>282</v>
       </c>
       <c r="L110" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>62</v>
@@ -15529,119 +15630,125 @@
         <v>20</v>
       </c>
       <c r="P110" s="1">
+        <v>7</v>
+      </c>
+      <c r="R110" s="1">
+        <v>550</v>
+      </c>
+      <c r="S110" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="T110" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="1">
+        <f>D110+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D111" s="1">
+        <v>450</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="1">
+        <v>7</v>
+      </c>
+      <c r="G111" s="1">
+        <v>230</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L111" s="1">
+        <v>40</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O111" s="1">
+        <v>20</v>
+      </c>
+      <c r="P111" s="1">
         <v>5</v>
       </c>
-      <c r="R110" s="1">
+      <c r="R111" s="1">
         <v>750</v>
       </c>
-      <c r="S110" s="6" t="s">
+      <c r="S111" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="U110" s="107"/>
-    </row>
-    <row r="111" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="126" t="s">
+      <c r="U111" s="107"/>
+    </row>
+    <row r="112" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="B111" s="126" t="s">
+      <c r="B112" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="C111" s="126" t="s">
+      <c r="C112" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="D111" s="126" t="s">
+      <c r="D112" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="E111" s="127"/>
-      <c r="F111" s="127"/>
-      <c r="G111" s="127"/>
-      <c r="H111" s="128" t="s">
+      <c r="E112" s="127"/>
+      <c r="F112" s="127"/>
+      <c r="G112" s="127"/>
+      <c r="H112" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="I111" s="127"/>
-      <c r="J111" s="127"/>
-      <c r="K111" s="127"/>
-      <c r="L111" s="127"/>
-      <c r="M111" s="127"/>
-      <c r="N111" s="128" t="s">
+      <c r="I112" s="127"/>
+      <c r="J112" s="127"/>
+      <c r="K112" s="127"/>
+      <c r="L112" s="127"/>
+      <c r="M112" s="127"/>
+      <c r="N112" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="O111" s="130"/>
-      <c r="P111" s="127"/>
-      <c r="Q111" s="127"/>
-      <c r="R111" s="130"/>
-      <c r="S111" s="130"/>
-      <c r="U111" s="131"/>
-    </row>
-    <row r="112" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>384</v>
-      </c>
-      <c r="B112" t="s">
-        <v>345</v>
-      </c>
-      <c r="C112" s="1">
-        <v>0</v>
-      </c>
-      <c r="D112" s="6">
-        <v>250</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F112" s="6">
-        <v>80</v>
-      </c>
-      <c r="G112" s="1">
-        <v>230</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O112" s="6">
-        <v>20</v>
-      </c>
-      <c r="P112" s="1">
-        <v>8</v>
-      </c>
-      <c r="R112" s="6">
-        <v>750</v>
-      </c>
+      <c r="O112" s="130"/>
+      <c r="P112" s="127"/>
+      <c r="Q112" s="127"/>
+      <c r="R112" s="130"/>
+      <c r="S112" s="130"/>
+      <c r="U112" s="131"/>
     </row>
     <row r="113" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B113" t="s">
         <v>345</v>
       </c>
       <c r="C113" s="1">
-        <f>D112+0.01</f>
-        <v>250.01</v>
+        <v>0</v>
       </c>
       <c r="D113" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F113" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G113" s="1">
         <v>230</v>
@@ -15655,8 +15762,8 @@
       <c r="K113" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L113" s="1">
-        <v>40</v>
+      <c r="L113" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>62</v>
@@ -15673,32 +15780,26 @@
       <c r="R113" s="6">
         <v>750</v>
       </c>
-      <c r="S113" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="U113" s="92">
-        <v>1481.78</v>
-      </c>
     </row>
     <row r="114" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
-        <v>388</v>
+      <c r="A114" t="s">
+        <v>386</v>
       </c>
       <c r="B114" t="s">
         <v>345</v>
       </c>
       <c r="C114" s="1">
         <f>D113+0.01</f>
-        <v>400.01</v>
+        <v>250.01</v>
       </c>
       <c r="D114" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F114" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G114" s="1">
         <v>230</v>
@@ -15730,20 +15831,26 @@
       <c r="R114" s="6">
         <v>750</v>
       </c>
+      <c r="S114" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="U114" s="92">
+        <v>1481.78</v>
+      </c>
     </row>
     <row r="115" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B115" t="s">
         <v>345</v>
       </c>
       <c r="C115" s="1">
         <f>D114+0.01</f>
-        <v>550.01</v>
+        <v>400.01</v>
       </c>
       <c r="D115" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>385</v>
@@ -15764,7 +15871,7 @@
         <v>282</v>
       </c>
       <c r="L115" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>62</v>
@@ -15782,93 +15889,94 @@
         <v>750</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="126" t="s">
+    <row r="116" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B116" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="1">
+        <f>D115+0.01</f>
+        <v>550.01</v>
+      </c>
+      <c r="D116" s="6">
+        <v>750</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F116" s="6">
+        <v>20</v>
+      </c>
+      <c r="G116" s="1">
+        <v>230</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L116" s="1">
+        <v>55</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O116" s="6">
+        <v>20</v>
+      </c>
+      <c r="P116" s="1">
+        <v>8</v>
+      </c>
+      <c r="R116" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="B116" s="126" t="s">
+      <c r="B117" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="C116" s="126" t="s">
+      <c r="C117" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="D116" s="126" t="s">
+      <c r="D117" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="E116" s="127"/>
-      <c r="F116" s="127"/>
-      <c r="G116" s="127"/>
-      <c r="H116" s="128" t="s">
+      <c r="E117" s="127"/>
+      <c r="F117" s="127"/>
+      <c r="G117" s="127"/>
+      <c r="H117" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="I116" s="127"/>
-      <c r="J116" s="127"/>
-      <c r="K116" s="127"/>
-      <c r="L116" s="127"/>
-      <c r="M116" s="127"/>
-      <c r="N116" s="128" t="s">
+      <c r="I117" s="127"/>
+      <c r="J117" s="127"/>
+      <c r="K117" s="127"/>
+      <c r="L117" s="127"/>
+      <c r="M117" s="127"/>
+      <c r="N117" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="O116" s="130"/>
-      <c r="P116" s="127"/>
-      <c r="Q116" s="127"/>
-      <c r="R116" s="130"/>
-      <c r="S116" s="130"/>
-      <c r="U116" s="131"/>
-    </row>
-    <row r="117" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>581</v>
-      </c>
-      <c r="B117" t="s">
-        <v>345</v>
-      </c>
-      <c r="C117" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D117" s="6">
-        <v>250</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F117" s="6">
-        <v>80</v>
-      </c>
-      <c r="G117" s="1">
-        <v>415</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O117" s="6">
-        <v>20</v>
-      </c>
-      <c r="P117" s="1">
-        <v>26</v>
-      </c>
-      <c r="R117" s="6">
-        <v>1500</v>
-      </c>
+      <c r="O117" s="130"/>
+      <c r="P117" s="127"/>
+      <c r="Q117" s="127"/>
+      <c r="R117" s="130"/>
+      <c r="S117" s="130"/>
+      <c r="U117" s="131"/>
     </row>
     <row r="118" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B118" t="s">
         <v>345</v>
@@ -15898,7 +16006,7 @@
         <v>282</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>62</v>
@@ -15918,23 +16026,22 @@
     </row>
     <row r="119" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>386</v>
+        <v>575</v>
       </c>
       <c r="B119" t="s">
         <v>345</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" ref="C119:C127" si="7">D118+0.01</f>
-        <v>250.01</v>
+        <v>0.01</v>
       </c>
       <c r="D119" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F119" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G119" s="1">
         <v>415</v>
@@ -15948,8 +16055,8 @@
       <c r="K119" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L119" s="1">
-        <v>40</v>
+      <c r="L119" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>62</v>
@@ -15961,7 +16068,7 @@
         <v>20</v>
       </c>
       <c r="P119" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="R119" s="6">
         <v>1500</v>
@@ -15969,168 +16076,168 @@
     </row>
     <row r="120" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B120" t="s">
         <v>345</v>
       </c>
       <c r="C120" s="1">
+        <f t="shared" ref="C120:C128" si="7">D119+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D120" s="6">
+        <v>400</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F120" s="6">
+        <v>40</v>
+      </c>
+      <c r="G120" s="1">
+        <v>415</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L120" s="1">
+        <v>40</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O120" s="6">
+        <v>20</v>
+      </c>
+      <c r="P120" s="1">
+        <v>17</v>
+      </c>
+      <c r="R120" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>390</v>
+      </c>
+      <c r="B121" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" s="1">
         <f t="shared" si="7"/>
         <v>400.01</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D121" s="6">
         <v>450</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F121" s="6">
         <v>60</v>
       </c>
-      <c r="G120" s="1">
+      <c r="G121" s="1">
         <v>415</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I121" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K120" s="1" t="s">
+      <c r="K121" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L120" s="1">
+      <c r="L121" s="1">
         <v>40</v>
       </c>
-      <c r="M120" s="1" t="s">
+      <c r="M121" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N120" s="1" t="s">
+      <c r="N121" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O120" s="6">
+      <c r="O121" s="6">
         <v>20</v>
       </c>
-      <c r="P120" s="1">
+      <c r="P121" s="1">
         <v>11</v>
       </c>
-      <c r="R120" s="6">
+      <c r="R121" s="6">
         <v>1500</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>391</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>345</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C122" s="1">
         <f t="shared" si="7"/>
         <v>450.01</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D122" s="6">
         <v>500</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F122" s="6">
         <v>80</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G122" s="1">
         <v>415</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="L121" s="1">
+      <c r="L122" s="1">
         <v>55</v>
       </c>
-      <c r="M121" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N121" s="1" t="s">
+      <c r="N122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O121" s="6">
+      <c r="O122" s="6">
         <v>20</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P122" s="1">
         <v>19</v>
       </c>
-      <c r="R121" s="6">
+      <c r="R122" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>345</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C123" s="1">
         <f t="shared" si="7"/>
         <v>500.01</v>
       </c>
-      <c r="D122" s="6">
-        <v>550</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F122" s="6">
-        <v>20</v>
-      </c>
-      <c r="G122" s="1">
-        <v>415</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L122" s="1">
-        <v>40</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O122" s="6">
-        <v>20</v>
-      </c>
-      <c r="P122" s="1">
-        <v>12</v>
-      </c>
-      <c r="R122" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B123" t="s">
-        <v>345</v>
-      </c>
-      <c r="C123" s="1">
-        <f t="shared" si="7"/>
-        <v>550.01</v>
-      </c>
       <c r="D123" s="6">
         <v>550</v>
       </c>
@@ -16138,7 +16245,7 @@
         <v>385</v>
       </c>
       <c r="F123" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G123" s="1">
         <v>415</v>
@@ -16168,12 +16275,12 @@
         <v>12</v>
       </c>
       <c r="R123" s="6">
-        <v>4500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B124" t="s">
         <v>345</v>
@@ -16183,13 +16290,13 @@
         <v>550.01</v>
       </c>
       <c r="D124" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F124" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G124" s="1">
         <v>415</v>
@@ -16204,7 +16311,7 @@
         <v>282</v>
       </c>
       <c r="L124" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>62</v>
@@ -16213,25 +16320,25 @@
         <v>28</v>
       </c>
       <c r="O124" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P124" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R124" s="6">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
         <v>345</v>
       </c>
       <c r="C125" s="1">
         <f t="shared" si="7"/>
-        <v>750.01</v>
+        <v>550.01</v>
       </c>
       <c r="D125" s="6">
         <v>750</v>
@@ -16240,7 +16347,7 @@
         <v>385</v>
       </c>
       <c r="F125" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G125" s="1">
         <v>415</v>
@@ -16264,18 +16371,18 @@
         <v>28</v>
       </c>
       <c r="O125" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P125" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R125" s="6">
-        <v>4500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B126" t="s">
         <v>345</v>
@@ -16285,13 +16392,13 @@
         <v>750.01</v>
       </c>
       <c r="D126" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F126" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G126" s="1">
         <v>415</v>
@@ -16318,7 +16425,7 @@
         <v>20</v>
       </c>
       <c r="P126" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R126" s="6">
         <v>4500</v>
@@ -16326,23 +16433,23 @@
     </row>
     <row r="127" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B127" t="s">
         <v>345</v>
       </c>
       <c r="C127" s="1">
         <f t="shared" si="7"/>
-        <v>1000.01</v>
+        <v>750.01</v>
       </c>
       <c r="D127" s="6">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F127" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G127" s="1">
         <v>415</v>
@@ -16369,7 +16476,7 @@
         <v>20</v>
       </c>
       <c r="P127" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R127" s="6">
         <v>4500</v>
@@ -16377,23 +16484,23 @@
     </row>
     <row r="128" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>574</v>
+        <v>395</v>
       </c>
       <c r="B128" t="s">
         <v>345</v>
       </c>
       <c r="C128" s="1">
-        <f t="shared" ref="C128" si="8">D127+0.01</f>
-        <v>1400.01</v>
+        <f t="shared" si="7"/>
+        <v>1000.01</v>
       </c>
       <c r="D128" s="6">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F128" s="1">
-        <v>12</v>
+      <c r="F128" s="6">
+        <v>20</v>
       </c>
       <c r="G128" s="1">
         <v>415</v>
@@ -16408,7 +16515,7 @@
         <v>282</v>
       </c>
       <c r="L128" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>62</v>
@@ -16417,7 +16524,7 @@
         <v>28</v>
       </c>
       <c r="O128" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P128" s="1">
         <v>10</v>
@@ -16428,17 +16535,17 @@
     </row>
     <row r="129" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B129" t="s">
         <v>345</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" ref="C129" si="9">D128+0.01</f>
-        <v>1800.01</v>
+        <f t="shared" ref="C129" si="8">D128+0.01</f>
+        <v>1400.01</v>
       </c>
       <c r="D129" s="6">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>385</v>
@@ -16459,7 +16566,7 @@
         <v>282</v>
       </c>
       <c r="L129" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>62</v>
@@ -16471,7 +16578,7 @@
         <v>10</v>
       </c>
       <c r="P129" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R129" s="6">
         <v>4500</v>
@@ -16479,17 +16586,17 @@
     </row>
     <row r="130" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B130" t="s">
         <v>345</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ref="C130" si="10">D129+0.01</f>
-        <v>2600.0100000000002</v>
+        <f t="shared" ref="C130" si="9">D129+0.01</f>
+        <v>1800.01</v>
       </c>
       <c r="D130" s="6">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>385</v>
@@ -16528,106 +16635,100 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="126" t="s">
+    <row r="131" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B131" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" s="1">
+        <f t="shared" ref="C131" si="10">D130+0.01</f>
+        <v>2600.0100000000002</v>
+      </c>
+      <c r="D131" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F131" s="1">
+        <v>12</v>
+      </c>
+      <c r="G131" s="1">
+        <v>415</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L131" s="1">
+        <v>80</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O131" s="6">
+        <v>10</v>
+      </c>
+      <c r="P131" s="1">
+        <v>11</v>
+      </c>
+      <c r="R131" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="B131" s="126" t="s">
+      <c r="B132" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="C131" s="126" t="s">
+      <c r="C132" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="D131" s="126" t="s">
+      <c r="D132" s="126" t="s">
         <v>290</v>
       </c>
-      <c r="E131" s="127"/>
-      <c r="F131" s="127"/>
-      <c r="G131" s="127"/>
-      <c r="H131" s="128" t="s">
+      <c r="E132" s="127"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="127"/>
+      <c r="H132" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="I131" s="127"/>
-      <c r="J131" s="127"/>
-      <c r="K131" s="127"/>
-      <c r="L131" s="127"/>
-      <c r="M131" s="127"/>
-      <c r="N131" s="128" t="s">
+      <c r="I132" s="127"/>
+      <c r="J132" s="127"/>
+      <c r="K132" s="127"/>
+      <c r="L132" s="127"/>
+      <c r="M132" s="127"/>
+      <c r="N132" s="128" t="s">
         <v>541</v>
       </c>
-      <c r="O131" s="130"/>
-      <c r="P131" s="127"/>
-      <c r="Q131" s="127"/>
-      <c r="R131" s="130"/>
-      <c r="S131" s="130"/>
-      <c r="U131" s="131"/>
-    </row>
-    <row r="132" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="B132" t="s">
-        <v>345</v>
-      </c>
-      <c r="C132" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D132" s="6">
-        <v>250</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F132" s="6">
-        <v>15</v>
-      </c>
-      <c r="G132" s="1">
-        <v>415</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L132" s="1">
-        <v>30</v>
-      </c>
-      <c r="M132" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N132" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O132" s="6">
-        <v>20</v>
-      </c>
-      <c r="P132" s="1">
-        <v>11</v>
-      </c>
-      <c r="R132" s="6">
-        <v>510</v>
-      </c>
-      <c r="S132" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="U132" s="92">
-        <v>624.37</v>
-      </c>
+      <c r="O132" s="130"/>
+      <c r="P132" s="127"/>
+      <c r="Q132" s="127"/>
+      <c r="R132" s="130"/>
+      <c r="S132" s="130"/>
+      <c r="U132" s="131"/>
     </row>
     <row r="133" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>579</v>
+        <v>396</v>
       </c>
       <c r="B133" t="s">
         <v>345</v>
       </c>
       <c r="C133" s="1">
-        <f>D132+0.01</f>
-        <v>250.01</v>
+        <v>0.01</v>
       </c>
       <c r="D133" s="6">
         <v>250</v>
@@ -16636,7 +16737,7 @@
         <v>397</v>
       </c>
       <c r="F133" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G133" s="1">
         <v>415</v>
@@ -16666,28 +16767,34 @@
         <v>11</v>
       </c>
       <c r="R133" s="6">
-        <v>850</v>
+        <v>510</v>
+      </c>
+      <c r="S133" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="U133" s="92">
+        <v>624.37</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>399</v>
+        <v>579</v>
       </c>
       <c r="B134" t="s">
         <v>345</v>
       </c>
       <c r="C134" s="1">
-        <f t="shared" ref="C134:C140" si="11">D133+0.01</f>
+        <f>D133+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D134" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F134" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G134" s="1">
         <v>415</v>
@@ -16702,7 +16809,7 @@
         <v>282</v>
       </c>
       <c r="L134" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>62</v>
@@ -16717,19 +16824,19 @@
         <v>11</v>
       </c>
       <c r="R134" s="6">
-        <v>1100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s">
         <v>345</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" si="11"/>
-        <v>400.01</v>
+        <f t="shared" ref="C135:C141" si="11">D134+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D135" s="6">
         <v>400</v>
@@ -16738,7 +16845,7 @@
         <v>397</v>
       </c>
       <c r="F135" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G135" s="1">
         <v>415</v>
@@ -16773,7 +16880,7 @@
     </row>
     <row r="136" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B136" t="s">
         <v>345</v>
@@ -16783,13 +16890,13 @@
         <v>400.01</v>
       </c>
       <c r="D136" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F136" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G136" s="1">
         <v>415</v>
@@ -16816,7 +16923,7 @@
         <v>20</v>
       </c>
       <c r="P136" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R136" s="6">
         <v>1100</v>
@@ -16824,14 +16931,14 @@
     </row>
     <row r="137" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B137" t="s">
         <v>345</v>
       </c>
       <c r="C137" s="1">
         <f t="shared" si="11"/>
-        <v>550.01</v>
+        <v>400.01</v>
       </c>
       <c r="D137" s="6">
         <v>550</v>
@@ -16840,7 +16947,7 @@
         <v>397</v>
       </c>
       <c r="F137" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G137" s="1">
         <v>415</v>
@@ -16855,7 +16962,7 @@
         <v>282</v>
       </c>
       <c r="L137" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>62</v>
@@ -16867,15 +16974,15 @@
         <v>20</v>
       </c>
       <c r="P137" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R137" s="6">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B138" t="s">
         <v>345</v>
@@ -16885,7 +16992,7 @@
         <v>550.01</v>
       </c>
       <c r="D138" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>397</v>
@@ -16918,25 +17025,25 @@
         <v>20</v>
       </c>
       <c r="P138" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R138" s="6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B139" t="s">
         <v>345</v>
       </c>
       <c r="C139" s="1">
         <f t="shared" si="11"/>
-        <v>750.01</v>
+        <v>550.01</v>
       </c>
       <c r="D139" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>397</v>
@@ -16969,31 +17076,31 @@
         <v>20</v>
       </c>
       <c r="P139" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R139" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>580</v>
+        <v>404</v>
       </c>
       <c r="B140" t="s">
         <v>345</v>
       </c>
       <c r="C140" s="1">
         <f t="shared" si="11"/>
-        <v>1000.01</v>
+        <v>750.01</v>
       </c>
       <c r="D140" s="6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F140" s="6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G140" s="1">
         <v>415</v>
@@ -17020,7 +17127,7 @@
         <v>20</v>
       </c>
       <c r="P140" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R140" s="6">
         <v>3000</v>
@@ -17028,16 +17135,66 @@
     </row>
     <row r="141" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B141" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" s="1">
+        <f t="shared" si="11"/>
+        <v>1000.01</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F141" s="6">
+        <v>12</v>
+      </c>
+      <c r="G141" s="1">
+        <v>415</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L141" s="1">
+        <v>55</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O141" s="6">
+        <v>20</v>
+      </c>
+      <c r="P141" s="1">
+        <v>10</v>
+      </c>
+      <c r="R141" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="143" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17048,8 +17205,9 @@
     <row r="150" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="151" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="152" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:S141" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
+  <autoFilter ref="A1:S142" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -17064,7 +17222,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18286,6 +18444,7 @@
         <v>345.81</v>
       </c>
       <c r="Q30" s="6">
+        <f>C30</f>
         <v>40</v>
       </c>
       <c r="R30" s="6">
@@ -18336,7 +18495,7 @@
         <v>20</v>
       </c>
       <c r="N31" s="82">
-        <f>M31/F31</f>
+        <f t="shared" ref="N31:N35" si="19">M31/F31</f>
         <v>6.666666666666667</v>
       </c>
       <c r="O31" s="6">
@@ -18346,6 +18505,7 @@
         <v>461</v>
       </c>
       <c r="Q31" s="6">
+        <f t="shared" ref="Q31:Q35" si="20">C31</f>
         <v>40</v>
       </c>
       <c r="R31" s="6">
@@ -18369,7 +18529,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="85">
-        <f t="shared" ref="F32" si="19">D32/B32</f>
+        <f t="shared" ref="F32" si="21">D32/B32</f>
         <v>3.8</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -18379,14 +18539,14 @@
         <v>400</v>
       </c>
       <c r="I32" s="83">
-        <f t="shared" ref="I32" si="20">H32*F32</f>
+        <f t="shared" ref="I32" si="22">H32*F32</f>
         <v>1520</v>
       </c>
       <c r="J32" s="1">
         <v>24</v>
       </c>
       <c r="K32" s="85">
-        <f t="shared" ref="K32" si="21">J32/F32</f>
+        <f t="shared" ref="K32" si="23">J32/F32</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L32" s="6">
@@ -18396,7 +18556,7 @@
         <v>20</v>
       </c>
       <c r="N32" s="82">
-        <f>M32/F32</f>
+        <f t="shared" si="19"/>
         <v>5.2631578947368425</v>
       </c>
       <c r="O32" s="6">
@@ -18406,6 +18566,7 @@
         <v>461</v>
       </c>
       <c r="Q32" s="6">
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="R32" s="6">
@@ -18456,7 +18617,7 @@
         <v>20</v>
       </c>
       <c r="N33" s="82">
-        <f>M33/F33</f>
+        <f t="shared" si="19"/>
         <v>6.666666666666667</v>
       </c>
       <c r="O33" s="6">
@@ -18466,7 +18627,8 @@
         <v>461</v>
       </c>
       <c r="Q33" s="6">
-        <v>40</v>
+        <f t="shared" si="20"/>
+        <v>55</v>
       </c>
       <c r="R33" s="6">
         <v>60000</v>
@@ -18516,7 +18678,7 @@
         <v>20</v>
       </c>
       <c r="N34" s="82">
-        <f>M34/F34</f>
+        <f t="shared" si="19"/>
         <v>5.2631578947368425</v>
       </c>
       <c r="O34" s="6">
@@ -18526,7 +18688,11 @@
         <v>576</v>
       </c>
       <c r="Q34" s="6">
-        <v>40</v>
+        <f t="shared" si="20"/>
+        <v>55</v>
+      </c>
+      <c r="R34" s="6">
+        <v>95000</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -18573,7 +18739,7 @@
         <v>20</v>
       </c>
       <c r="N35" s="33">
-        <f>M35/F35</f>
+        <f t="shared" si="19"/>
         <v>5.2631578947368425</v>
       </c>
       <c r="O35" s="58">
@@ -18582,17 +18748,20 @@
       <c r="P35" s="58">
         <v>576</v>
       </c>
-      <c r="Q35" s="58">
-        <v>40</v>
-      </c>
-      <c r="R35" s="58"/>
+      <c r="Q35" s="6">
+        <f t="shared" si="20"/>
+        <v>55</v>
+      </c>
+      <c r="R35" s="6">
+        <v>95000</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>592</v>
       </c>
       <c r="B38" s="6">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C38" s="6">
         <v>40</v>
@@ -18604,8 +18773,8 @@
         <v>40</v>
       </c>
       <c r="F38" s="85">
-        <f t="shared" ref="F38" si="22">D38/B38</f>
-        <v>3</v>
+        <f t="shared" ref="F38" si="24">D38/B38</f>
+        <v>3.8</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>430</v>
@@ -18614,15 +18783,15 @@
         <v>300</v>
       </c>
       <c r="I38" s="83">
-        <f t="shared" ref="I38" si="23">H38*F38</f>
-        <v>900</v>
+        <f t="shared" ref="I38" si="25">H38*F38</f>
+        <v>1140</v>
       </c>
       <c r="J38" s="1">
         <v>40</v>
       </c>
       <c r="K38" s="85">
-        <f t="shared" ref="K38" si="24">J38/F38</f>
-        <v>13.333333333333334</v>
+        <f t="shared" ref="K38" si="26">J38/F38</f>
+        <v>10.526315789473685</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>432</v>
@@ -18632,7 +18801,7 @@
       </c>
       <c r="N38" s="82">
         <f>M38/F38</f>
-        <v>6.666666666666667</v>
+        <v>5.2631578947368425</v>
       </c>
       <c r="O38" s="6">
         <v>115.75</v>
@@ -18644,6 +18813,66 @@
         <v>40</v>
       </c>
       <c r="R38" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39" s="6">
+        <v>15</v>
+      </c>
+      <c r="C39" s="6">
+        <v>55</v>
+      </c>
+      <c r="D39" s="6">
+        <v>57</v>
+      </c>
+      <c r="E39" s="6">
+        <v>55</v>
+      </c>
+      <c r="F39" s="85">
+        <f t="shared" ref="F39" si="27">D39/B39</f>
+        <v>3.8</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H39" s="6">
+        <v>500</v>
+      </c>
+      <c r="I39" s="83">
+        <f t="shared" ref="I39" si="28">H39*F39</f>
+        <v>1900</v>
+      </c>
+      <c r="J39" s="1">
+        <v>80</v>
+      </c>
+      <c r="K39" s="85">
+        <f>J39/F39</f>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="M39" s="82">
+        <v>20</v>
+      </c>
+      <c r="N39" s="82">
+        <f>M39/F39</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="O39" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="P39" s="6">
+        <v>345.81</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>55</v>
+      </c>
+      <c r="R39" s="6">
         <v>29000</v>
       </c>
     </row>
@@ -18678,7 +18907,7 @@
         <v>34</v>
       </c>
       <c r="K59" s="85">
-        <f t="shared" ref="K59:K64" si="25">J59/F59</f>
+        <f t="shared" ref="K59:K64" si="29">J59/F59</f>
         <v>6.1311475409836058</v>
       </c>
       <c r="L59" s="6">
@@ -18702,7 +18931,7 @@
         <v>50</v>
       </c>
       <c r="F60" s="85">
-        <f t="shared" ref="F60:F61" si="26">D60/B60</f>
+        <f t="shared" ref="F60:F61" si="30">D60/B60</f>
         <v>5.5555555555555554</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -18712,14 +18941,14 @@
         <v>62</v>
       </c>
       <c r="I60" s="32">
-        <f t="shared" ref="I60:I63" si="27">H60*F60</f>
+        <f t="shared" ref="I60:I63" si="31">H60*F60</f>
         <v>344.44444444444446</v>
       </c>
       <c r="J60" s="1">
         <v>34</v>
       </c>
       <c r="K60" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>6.12</v>
       </c>
       <c r="L60" s="6">
@@ -18740,7 +18969,7 @@
         <v>64</v>
       </c>
       <c r="F61" s="85">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>6.4</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -18750,14 +18979,14 @@
         <v>95</v>
       </c>
       <c r="I61" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>608</v>
       </c>
       <c r="J61" s="1">
         <v>22</v>
       </c>
       <c r="K61" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.4375</v>
       </c>
       <c r="L61" s="6">
@@ -18778,7 +19007,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="85">
-        <f t="shared" ref="F62:F64" si="28">D62/B62</f>
+        <f t="shared" ref="F62:F64" si="32">D62/B62</f>
         <v>6.333333333333333</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -18816,7 +19045,7 @@
         <v>48</v>
       </c>
       <c r="F63" s="85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4.3636363636363633</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -18826,14 +19055,14 @@
         <v>369</v>
       </c>
       <c r="I63" s="32">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1610.181818181818</v>
       </c>
       <c r="J63" s="6">
         <v>15</v>
       </c>
       <c r="K63" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.4375000000000004</v>
       </c>
       <c r="L63" s="6">
@@ -18851,7 +19080,7 @@
         <v>72</v>
       </c>
       <c r="F64" s="85">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5.1428571428571432</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -18868,7 +19097,7 @@
         <v>16.5</v>
       </c>
       <c r="K64" s="85">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>3.208333333333333</v>
       </c>
       <c r="L64" s="6">
@@ -18895,7 +19124,7 @@
         <v>57</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F68" si="29">D66/B66</f>
+        <f t="shared" ref="F66:F68" si="33">D66/B66</f>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -18939,7 +19168,7 @@
         <v>57</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
@@ -18983,7 +19212,7 @@
         <v>57</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
@@ -18993,14 +19222,14 @@
         <v>95</v>
       </c>
       <c r="I68" s="1">
-        <f t="shared" ref="I68" si="30">H68*F68</f>
+        <f t="shared" ref="I68" si="34">H68*F68</f>
         <v>285</v>
       </c>
       <c r="J68" s="1">
         <v>22</v>
       </c>
       <c r="K68" s="85">
-        <f t="shared" ref="K68" si="31">J68/F68</f>
+        <f t="shared" ref="K68" si="35">J68/F68</f>
         <v>7.333333333333333</v>
       </c>
       <c r="L68" s="6">
@@ -19032,24 +19261,24 @@
       </c>
       <c r="E70" s="82"/>
       <c r="F70" s="82">
-        <f t="shared" ref="F70" si="32">D70/B70</f>
+        <f t="shared" ref="F70" si="36">D70/B70</f>
         <v>3</v>
       </c>
       <c r="G70" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="135">
+      <c r="H70" s="134">
         <v>100</v>
       </c>
-      <c r="I70" s="135">
+      <c r="I70" s="134">
         <f>H70*F70</f>
         <v>300</v>
       </c>
-      <c r="J70" s="135">
+      <c r="J70" s="134">
         <v>28</v>
       </c>
       <c r="K70" s="86">
-        <f t="shared" ref="K70" si="33">J70/F70</f>
+        <f t="shared" ref="K70" si="37">J70/F70</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="L70" s="82">
@@ -19059,7 +19288,7 @@
       <c r="N70" s="67"/>
       <c r="O70" s="82"/>
       <c r="P70" s="82"/>
-      <c r="Q70" s="135">
+      <c r="Q70" s="134">
         <v>25.4</v>
       </c>
       <c r="R70" s="82">
@@ -19081,24 +19310,24 @@
       </c>
       <c r="E71" s="82"/>
       <c r="F71" s="82">
-        <f t="shared" ref="F71" si="34">D71/B71</f>
+        <f t="shared" ref="F71" si="38">D71/B71</f>
         <v>3.8</v>
       </c>
       <c r="G71" s="82" t="s">
         <v>420</v>
       </c>
-      <c r="H71" s="135">
+      <c r="H71" s="134">
         <v>160</v>
       </c>
-      <c r="I71" s="135">
+      <c r="I71" s="134">
         <f>H71*F71</f>
         <v>608</v>
       </c>
-      <c r="J71" s="135">
+      <c r="J71" s="134">
         <v>28</v>
       </c>
       <c r="K71" s="86">
-        <f t="shared" ref="K71" si="35">J71/F71</f>
+        <f t="shared" ref="K71" si="39">J71/F71</f>
         <v>7.3684210526315796</v>
       </c>
       <c r="L71" s="82">
@@ -19108,7 +19337,7 @@
       <c r="N71" s="67"/>
       <c r="O71" s="82"/>
       <c r="P71" s="82"/>
-      <c r="Q71" s="135">
+      <c r="Q71" s="134">
         <v>25.4</v>
       </c>
       <c r="R71" s="82">
@@ -19150,7 +19379,7 @@
         <v>28</v>
       </c>
       <c r="K73" s="85">
-        <f t="shared" ref="K73" si="36">J73/F73</f>
+        <f t="shared" ref="K73" si="40">J73/F73</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="L73" s="6">
@@ -19180,7 +19409,7 @@
         <v>57</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" ref="F75:F79" si="37">D75/B75</f>
+        <f t="shared" ref="F75:F79" si="41">D75/B75</f>
         <v>3.8</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -19190,14 +19419,14 @@
         <v>200</v>
       </c>
       <c r="I75" s="1">
-        <f t="shared" ref="I75:I76" si="38">H75*F75</f>
+        <f t="shared" ref="I75:I76" si="42">H75*F75</f>
         <v>760</v>
       </c>
       <c r="J75" s="6">
         <v>24</v>
       </c>
       <c r="K75" s="85">
-        <f t="shared" ref="K75:K76" si="39">J75/F75</f>
+        <f t="shared" ref="K75:K76" si="43">J75/F75</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L75" s="6">
@@ -19221,7 +19450,7 @@
         <v>57</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3.8</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -19231,14 +19460,14 @@
         <v>300</v>
       </c>
       <c r="I76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1140</v>
       </c>
       <c r="J76" s="6">
         <v>24</v>
       </c>
       <c r="K76" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L76" s="6">
@@ -19303,21 +19532,21 @@
         <v>57</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3.8</v>
       </c>
       <c r="H78" s="6">
         <v>600</v>
       </c>
       <c r="I78" s="1">
-        <f t="shared" ref="I78:I80" si="40">H78*F78</f>
+        <f t="shared" ref="I78:I80" si="44">H78*F78</f>
         <v>2280</v>
       </c>
       <c r="J78" s="6">
         <v>24</v>
       </c>
       <c r="K78" s="85">
-        <f t="shared" ref="K78:K80" si="41">J78/F78</f>
+        <f t="shared" ref="K78:K80" si="45">J78/F78</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="L78" s="6">
@@ -19338,21 +19567,21 @@
         <v>57</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3.8</v>
       </c>
       <c r="H79" s="6">
         <v>800</v>
       </c>
       <c r="I79" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3040</v>
       </c>
       <c r="J79" s="6">
         <v>24</v>
       </c>
       <c r="K79" s="85">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L79" s="6">
@@ -19380,14 +19609,14 @@
         <v>1200</v>
       </c>
       <c r="I80" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>4560</v>
       </c>
       <c r="J80" s="6">
         <v>24</v>
       </c>
       <c r="K80" s="85">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>6.3157894736842106</v>
       </c>
       <c r="L80" s="6">
@@ -21348,15 +21577,15 @@
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="134">
+      <c r="D6" s="136">
         <f>SUM(D5:I5)+15</f>
         <v>587</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2820" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD450456-CDE9-4656-9B27-9F11900BC68E}"/>
+  <xr:revisionPtr revIDLastSave="2915" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A1F9D9-8823-41E7-AA81-485ED6CA3E41}"/>
   <bookViews>
-    <workbookView xWindow="4510" yWindow="180" windowWidth="25540" windowHeight="19120" tabRatio="859" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3550" yWindow="490" windowWidth="32860" windowHeight="21110" tabRatio="859" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -340,7 +340,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>robert hyrons:</t>
         </r>
@@ -349,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This column adds a filter for chain opp only to select availabe barrel size, check availablity of gears</t>
@@ -549,7 +549,7 @@
     <author>robert hyrons</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EC1481A7-B545-49FC-A0C1-0473B7759E24}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EC1481A7-B545-49FC-A0C1-0473B7759E24}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{8F8F8522-49CB-439A-9FEB-C3BEC8E28A0C}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{8F8F8522-49CB-439A-9FEB-C3BEC8E28A0C}">
       <text>
         <r>
           <rPr>
@@ -582,7 +582,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>robert hyrons:</t>
         </r>
@@ -591,7 +591,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 This is to check the number of barrel rotations, number must not exceed this.</t>
@@ -650,7 +650,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>robert hyrons:</t>
         </r>
@@ -659,7 +659,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 use this data column to match the max lift torque required to spec SB, advised from GFA UK 27/1/2026</t>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="596">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2083,24 +2083,6 @@
     <t>W370c</t>
   </si>
   <si>
-    <t>GT20</t>
-  </si>
-  <si>
-    <t>GT30</t>
-  </si>
-  <si>
-    <t>GT40</t>
-  </si>
-  <si>
-    <t>GT60</t>
-  </si>
-  <si>
-    <t>GT80</t>
-  </si>
-  <si>
-    <t>GT120</t>
-  </si>
-  <si>
     <t>Chain Size</t>
   </si>
   <si>
@@ -2561,6 +2543,12 @@
   </si>
   <si>
     <t>78 for 100mm wind</t>
+  </si>
+  <si>
+    <t>Ranger 90 3ph 12-57 1/2"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is in current offering, too slow and should be removed. </t>
   </si>
 </sst>
 </file>
@@ -2572,7 +2560,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2718,21 +2706,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2805,6 +2780,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2847,7 +2828,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3229,6 +3210,19 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9207,16 +9201,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67095</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155995</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>7277</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>96177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9239,52 +9233,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8496300" y="4302545"/>
+          <a:off x="1320800" y="2956345"/>
           <a:ext cx="3937000" cy="2886582"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>539493</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>156502</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2760AEA-C132-22B3-EDB3-7C286D4E207E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4127500" y="4318000"/>
-          <a:ext cx="4298693" cy="3020352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10092,16 +10042,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1105958</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>153621</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1288521</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>799638</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>253893</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>336618</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>396768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10124,8 +10074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4122208" y="7763038"/>
-          <a:ext cx="4096347" cy="4196022"/>
+          <a:off x="2741084" y="6397788"/>
+          <a:ext cx="4096347" cy="4222480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10542,8 +10492,8 @@
   <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10628,7 +10578,7 @@
         <v>275</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="U1" s="91" t="s">
         <v>277</v>
@@ -11039,10 +10989,10 @@
         <v>289</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N10" s="115" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="63"/>
     </row>
@@ -11159,7 +11109,7 @@
       <c r="F13" s="127"/>
       <c r="G13" s="127"/>
       <c r="H13" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -11167,7 +11117,7 @@
       <c r="L13" s="127"/>
       <c r="M13" s="127"/>
       <c r="N13" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O13" s="130"/>
       <c r="P13" s="127"/>
@@ -11291,7 +11241,7 @@
     </row>
     <row r="16" spans="1:22" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>294</v>
@@ -11946,7 +11896,7 @@
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
       <c r="H28" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I28" s="127"/>
       <c r="J28" s="127"/>
@@ -11954,7 +11904,7 @@
       <c r="L28" s="127"/>
       <c r="M28" s="127"/>
       <c r="N28" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O28" s="130"/>
       <c r="P28" s="127"/>
@@ -12002,7 +11952,7 @@
         <v>62</v>
       </c>
       <c r="N29" s="115" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O29" s="58"/>
       <c r="P29" s="63"/>
@@ -12028,7 +11978,7 @@
       <c r="F30" s="127"/>
       <c r="G30" s="127"/>
       <c r="H30" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I30" s="127"/>
       <c r="J30" s="127"/>
@@ -12036,7 +11986,7 @@
       <c r="L30" s="127"/>
       <c r="M30" s="127"/>
       <c r="N30" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O30" s="130"/>
       <c r="P30" s="127"/>
@@ -12391,7 +12341,7 @@
       <c r="F38" s="127"/>
       <c r="G38" s="127"/>
       <c r="H38" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I38" s="127"/>
       <c r="J38" s="127"/>
@@ -12399,7 +12349,7 @@
       <c r="L38" s="127"/>
       <c r="M38" s="127"/>
       <c r="N38" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O38" s="130"/>
       <c r="P38" s="127"/>
@@ -12410,7 +12360,7 @@
     </row>
     <row r="39" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>324</v>
@@ -12458,7 +12408,7 @@
     </row>
     <row r="40" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>324</v>
@@ -12507,7 +12457,7 @@
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>324</v>
@@ -12556,7 +12506,7 @@
     </row>
     <row r="42" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>324</v>
@@ -12835,7 +12785,7 @@
       <c r="F48" s="127"/>
       <c r="G48" s="127"/>
       <c r="H48" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I48" s="127"/>
       <c r="J48" s="127"/>
@@ -12843,7 +12793,7 @@
       <c r="L48" s="127"/>
       <c r="M48" s="127"/>
       <c r="N48" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O48" s="130"/>
       <c r="P48" s="127"/>
@@ -13038,7 +12988,7 @@
       <c r="F53" s="127"/>
       <c r="G53" s="127"/>
       <c r="H53" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I53" s="127"/>
       <c r="J53" s="127"/>
@@ -13046,7 +12996,7 @@
       <c r="L53" s="127"/>
       <c r="M53" s="127"/>
       <c r="N53" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O53" s="130"/>
       <c r="P53" s="127"/>
@@ -13057,7 +13007,7 @@
     </row>
     <row r="54" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="str">
-        <f>Chaindrive!A42</f>
+        <f>Chaindrive!A43</f>
         <v>JM200</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -13067,14 +13017,14 @@
         <v>0</v>
       </c>
       <c r="D54" s="32">
-        <f>Chaindrive!I42</f>
+        <f>Chaindrive!J43</f>
         <v>110.90909090909092</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F54" s="31">
-        <f>Chaindrive!K42</f>
+        <f>Chaindrive!L43</f>
         <v>6.1311475409836058</v>
       </c>
       <c r="G54" s="1">
@@ -13116,14 +13066,14 @@
         <v>15.01</v>
       </c>
       <c r="D55" s="32">
-        <f>Chaindrive!I43</f>
+        <f>Chaindrive!J44</f>
         <v>344.44444444444446</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F55" s="1">
-        <f>Chaindrive!K43</f>
+        <f>Chaindrive!L44</f>
         <v>6.12</v>
       </c>
       <c r="G55" s="1">
@@ -13165,14 +13115,14 @@
         <v>62.01</v>
       </c>
       <c r="D56" s="1">
-        <f>Chaindrive!I44</f>
+        <f>Chaindrive!J45</f>
         <v>608</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F56" s="1">
-        <f>Chaindrive!K44</f>
+        <f>Chaindrive!L45</f>
         <v>3.4375</v>
       </c>
       <c r="G56" s="1">
@@ -13217,7 +13167,7 @@
       <c r="F57" s="127"/>
       <c r="G57" s="127"/>
       <c r="H57" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I57" s="127"/>
       <c r="J57" s="127"/>
@@ -13225,7 +13175,7 @@
       <c r="L57" s="127"/>
       <c r="M57" s="127"/>
       <c r="N57" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O57" s="130"/>
       <c r="P57" s="127"/>
@@ -13236,7 +13186,7 @@
     </row>
     <row r="58" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="str">
-        <f>Chaindrive!A53</f>
+        <f>Chaindrive!A54</f>
         <v>F100c</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -13246,14 +13196,14 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <f>Chaindrive!I53</f>
+        <f>Chaindrive!J54</f>
         <v>300</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F58" s="1">
-        <f>Chaindrive!K46</f>
+        <f>Chaindrive!L47</f>
         <v>3.4375000000000004</v>
       </c>
       <c r="G58" s="1">
@@ -13280,7 +13230,7 @@
     </row>
     <row r="59" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="str">
-        <f>Chaindrive!A54</f>
+        <f>Chaindrive!A55</f>
         <v>F160c</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -13290,14 +13240,14 @@
         <v>1</v>
       </c>
       <c r="D59" s="1">
-        <f>Chaindrive!I54</f>
+        <f>Chaindrive!J55</f>
         <v>608</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F59" s="1">
-        <f>Chaindrive!K47</f>
+        <f>Chaindrive!L48</f>
         <v>3.208333333333333</v>
       </c>
       <c r="G59" s="1">
@@ -13386,7 +13336,7 @@
         <v>28</v>
       </c>
       <c r="O61" s="6">
-        <f>Chaindrive!N4</f>
+        <f>Chaindrive!O4</f>
         <v>13.333333333333334</v>
       </c>
       <c r="P61" s="1">
@@ -13415,7 +13365,7 @@
         <v>210.01</v>
       </c>
       <c r="D62" s="32">
-        <f>Chaindrive!I7</f>
+        <f>Chaindrive!J7</f>
         <v>270</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -13447,7 +13397,7 @@
         <v>28</v>
       </c>
       <c r="O62" s="6">
-        <f>Chaindrive!N7</f>
+        <f>Chaindrive!O7</f>
         <v>13.333333333333334</v>
       </c>
       <c r="P62" s="1">
@@ -13473,14 +13423,14 @@
         <v>270.01</v>
       </c>
       <c r="D63" s="32">
-        <f>Chaindrive!I8</f>
+        <f>Chaindrive!J8</f>
         <v>342</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F63" s="31">
-        <f>Chaindrive!K8</f>
+        <f>Chaindrive!L8</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="G63" s="1">
@@ -13505,7 +13455,7 @@
         <v>28</v>
       </c>
       <c r="O63" s="6">
-        <f>Chaindrive!N8</f>
+        <f>Chaindrive!O8</f>
         <v>10.526315789473685</v>
       </c>
       <c r="P63" s="1">
@@ -13532,7 +13482,7 @@
       <c r="F64" s="127"/>
       <c r="G64" s="127"/>
       <c r="H64" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I64" s="127"/>
       <c r="J64" s="127"/>
@@ -13540,7 +13490,7 @@
       <c r="L64" s="127"/>
       <c r="M64" s="127"/>
       <c r="N64" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O64" s="130"/>
       <c r="P64" s="127"/>
@@ -13561,14 +13511,14 @@
         <v>0</v>
       </c>
       <c r="D65" s="32">
-        <f>Chaindrive!I10</f>
+        <f>Chaindrive!J10</f>
         <v>270</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F65" s="31">
-        <f>Chaindrive!K10</f>
+        <f>Chaindrive!L10</f>
         <v>10.666666666666666</v>
       </c>
       <c r="G65" s="1">
@@ -13593,7 +13543,7 @@
         <v>28</v>
       </c>
       <c r="O65" s="6">
-        <f>Chaindrive!N10</f>
+        <f>Chaindrive!O10</f>
         <v>13.333333333333334</v>
       </c>
       <c r="P65" s="1">
@@ -13622,14 +13572,14 @@
         <v>270.01</v>
       </c>
       <c r="D66" s="32">
-        <f>Chaindrive!I11</f>
+        <f>Chaindrive!J11</f>
         <v>342</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F66" s="31">
-        <f>Chaindrive!K11</f>
+        <f>Chaindrive!L11</f>
         <v>8.4210526315789469</v>
       </c>
       <c r="G66" s="1">
@@ -13654,7 +13604,7 @@
         <v>28</v>
       </c>
       <c r="O66" s="6">
-        <f>Chaindrive!N11</f>
+        <f>Chaindrive!O11</f>
         <v>10.526315789473685</v>
       </c>
       <c r="P66" s="1">
@@ -13670,7 +13620,7 @@
     </row>
     <row r="67" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="str">
-        <f>Chaindrive!A13</f>
+        <f>Chaindrive!A14</f>
         <v>Ranger150 3ph 15-57 5/8"</v>
       </c>
       <c r="B67" t="s">
@@ -13681,14 +13631,14 @@
         <v>342.01</v>
       </c>
       <c r="D67" s="32">
-        <f>Chaindrive!I13</f>
+        <f>Chaindrive!J14</f>
         <v>570</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F67" s="2">
-        <f>Chaindrive!K13</f>
+        <f>Chaindrive!L14</f>
         <v>12.631578947368421</v>
       </c>
       <c r="G67" s="1">
@@ -13713,7 +13663,7 @@
         <v>28</v>
       </c>
       <c r="O67" s="6">
-        <f>Chaindrive!N13</f>
+        <f>Chaindrive!O14</f>
         <v>10.526315789473685</v>
       </c>
       <c r="P67" s="1">
@@ -13725,7 +13675,7 @@
     </row>
     <row r="68" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="str">
-        <f>Chaindrive!A14</f>
+        <f>Chaindrive!A15</f>
         <v>Ranger150 3ph 12-57 5/8"</v>
       </c>
       <c r="B68" t="s">
@@ -13766,7 +13716,7 @@
         <v>28</v>
       </c>
       <c r="O68" s="6">
-        <f>Chaindrive!N14</f>
+        <f>Chaindrive!O15</f>
         <v>8.4210526315789469</v>
       </c>
       <c r="P68" s="1">
@@ -13784,7 +13734,7 @@
     </row>
     <row r="69" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
-        <f>Chaindrive!A16</f>
+        <f>Chaindrive!A17</f>
         <v>Ranger220 3ph 19-57 3/4"</v>
       </c>
       <c r="B69" t="s">
@@ -13794,14 +13744,14 @@
         <v>713.01</v>
       </c>
       <c r="D69" s="32">
-        <f>Chaindrive!I16</f>
+        <f>Chaindrive!J17</f>
         <v>836</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F69" s="2">
-        <f>Chaindrive!K16</f>
+        <f>Chaindrive!L17</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="G69" s="1">
@@ -13826,7 +13776,7 @@
         <v>28</v>
       </c>
       <c r="O69" s="6">
-        <f>Chaindrive!N16</f>
+        <f>Chaindrive!O17</f>
         <v>10.526315789473685</v>
       </c>
       <c r="P69" s="1">
@@ -13853,7 +13803,7 @@
       <c r="F70" s="132"/>
       <c r="G70" s="127"/>
       <c r="H70" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I70" s="127"/>
       <c r="J70" s="127"/>
@@ -13861,7 +13811,7 @@
       <c r="L70" s="127"/>
       <c r="M70" s="127"/>
       <c r="N70" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O70" s="130"/>
       <c r="P70" s="127"/>
@@ -13872,7 +13822,7 @@
     </row>
     <row r="71" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="str">
-        <f>Chaindrive!A20</f>
+        <f>Chaindrive!A21</f>
         <v>Ranger 90 Fi 1ph 19-57 1/2"</v>
       </c>
       <c r="B71" t="s">
@@ -13882,14 +13832,14 @@
         <v>0</v>
       </c>
       <c r="D71" s="32">
-        <f>Chaindrive!I20</f>
+        <f>Chaindrive!J21</f>
         <v>270</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F71" s="31">
-        <f>Chaindrive!K20</f>
+        <f>Chaindrive!L21</f>
         <v>26.666666666666668</v>
       </c>
       <c r="G71" s="1">
@@ -13914,7 +13864,7 @@
         <v>28</v>
       </c>
       <c r="O71" s="6">
-        <f>Chaindrive!N20</f>
+        <f>Chaindrive!O21</f>
         <v>6.666666666666667</v>
       </c>
       <c r="P71" s="1">
@@ -13929,7 +13879,7 @@
     </row>
     <row r="72" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="str">
-        <f>Chaindrive!A21</f>
+        <f>Chaindrive!A22</f>
         <v>Ranger 90 Fi 1ph 15-57 1/2"</v>
       </c>
       <c r="B72" t="s">
@@ -13940,14 +13890,14 @@
         <v>270.01</v>
       </c>
       <c r="D72" s="32">
-        <f>Chaindrive!I21</f>
+        <f>Chaindrive!J22</f>
         <v>342</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F72" s="31">
-        <f>Chaindrive!K21</f>
+        <f>Chaindrive!L22</f>
         <v>21.05263157894737</v>
       </c>
       <c r="G72" s="1">
@@ -13972,7 +13922,7 @@
         <v>28</v>
       </c>
       <c r="O72" s="6">
-        <f>Chaindrive!N21</f>
+        <f>Chaindrive!O22</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P72" s="1">
@@ -13984,7 +13934,7 @@
     </row>
     <row r="73" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="str">
-        <f>Chaindrive!A23</f>
+        <f>Chaindrive!A24</f>
         <v>Ranger140 Fi 3ph 15-57 5/8"</v>
       </c>
       <c r="B73" t="s">
@@ -13995,14 +13945,14 @@
         <v>342.01</v>
       </c>
       <c r="D73" s="32">
-        <f>Chaindrive!I23</f>
+        <f>Chaindrive!J24</f>
         <v>570</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F73" s="31">
-        <f>Chaindrive!K23</f>
+        <f>Chaindrive!L24</f>
         <v>21.05263157894737</v>
       </c>
       <c r="G73" s="1">
@@ -14027,7 +13977,7 @@
         <v>28</v>
       </c>
       <c r="O73" s="6">
-        <f>Chaindrive!N23</f>
+        <f>Chaindrive!O24</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P73" s="1">
@@ -14039,7 +13989,7 @@
     </row>
     <row r="74" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="str">
-        <f>Chaindrive!A24</f>
+        <f>Chaindrive!A25</f>
         <v>Ranger140 fi 3ph 12-57 5/8"</v>
       </c>
       <c r="B74" t="s">
@@ -14050,14 +14000,14 @@
         <v>570.01</v>
       </c>
       <c r="D74" s="32">
-        <f>Chaindrive!I24</f>
+        <f>Chaindrive!J25</f>
         <v>712.5</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F74" s="31">
-        <f>Chaindrive!K24</f>
+        <f>Chaindrive!L25</f>
         <v>16.842105263157894</v>
       </c>
       <c r="G74" s="1">
@@ -14082,7 +14032,7 @@
         <v>28</v>
       </c>
       <c r="O74" s="6">
-        <f>Chaindrive!N24</f>
+        <f>Chaindrive!O25</f>
         <v>4.2105263157894735</v>
       </c>
       <c r="P74" s="1">
@@ -14121,7 +14071,7 @@
     </row>
     <row r="77" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="str">
-        <f>Chaindrive!A28</f>
+        <f>Chaindrive!A29</f>
         <v>KE 30.24  19-57 3/4"</v>
       </c>
       <c r="B77" t="s">
@@ -14131,18 +14081,18 @@
         <v>600.01</v>
       </c>
       <c r="D77" s="32">
-        <f>Chaindrive!I28</f>
+        <f>Chaindrive!J29</f>
         <v>900</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F77" s="2">
-        <f>Chaindrive!K28</f>
+        <f>Chaindrive!L29</f>
         <v>8</v>
       </c>
       <c r="G77" s="1">
-        <f>Chaindrive!L28</f>
+        <f>Chaindrive!M29</f>
         <v>415</v>
       </c>
       <c r="H77" s="1" t="s">
@@ -14155,7 +14105,7 @@
         <v>281</v>
       </c>
       <c r="L77" s="1">
-        <f>Chaindrive!C28</f>
+        <f>Chaindrive!D29</f>
         <v>40</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -14165,7 +14115,7 @@
         <v>28</v>
       </c>
       <c r="O77" s="6">
-        <f>Chaindrive!N28</f>
+        <f>Chaindrive!O29</f>
         <v>6.666666666666667</v>
       </c>
       <c r="P77" s="1">
@@ -14177,7 +14127,7 @@
     </row>
     <row r="78" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="str">
-        <f>Chaindrive!A29</f>
+        <f>Chaindrive!A30</f>
         <v>KE 40.24  19-57 1"</v>
       </c>
       <c r="B78" t="s">
@@ -14187,18 +14137,18 @@
         <v>900.01</v>
       </c>
       <c r="D78" s="32">
-        <f>Chaindrive!I29</f>
+        <f>Chaindrive!J30</f>
         <v>1200</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F78" s="2">
-        <f>Chaindrive!K29</f>
+        <f>Chaindrive!L30</f>
         <v>8</v>
       </c>
       <c r="G78" s="1">
-        <f>Chaindrive!L29</f>
+        <f>Chaindrive!M30</f>
         <v>415</v>
       </c>
       <c r="H78" s="1" t="s">
@@ -14211,7 +14161,7 @@
         <v>281</v>
       </c>
       <c r="L78" s="1">
-        <f>Chaindrive!C29</f>
+        <f>Chaindrive!D30</f>
         <v>40</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -14221,7 +14171,7 @@
         <v>28</v>
       </c>
       <c r="O78" s="6">
-        <f>Chaindrive!N29</f>
+        <f>Chaindrive!O30</f>
         <v>6.666666666666667</v>
       </c>
       <c r="P78" s="1">
@@ -14233,7 +14183,7 @@
     </row>
     <row r="79" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="str">
-        <f>Chaindrive!A30</f>
+        <f>Chaindrive!A31</f>
         <v>KE 40.24  15-57 1"</v>
       </c>
       <c r="B79" t="s">
@@ -14243,18 +14193,18 @@
         <v>900.01</v>
       </c>
       <c r="D79" s="32">
-        <f>Chaindrive!I30</f>
+        <f>Chaindrive!J31</f>
         <v>1520</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F79" s="2">
-        <f>Chaindrive!K30</f>
+        <f>Chaindrive!L31</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="G79" s="1">
-        <f>Chaindrive!L30</f>
+        <f>Chaindrive!M31</f>
         <v>415</v>
       </c>
       <c r="H79" s="1" t="s">
@@ -14268,7 +14218,7 @@
         <v>281</v>
       </c>
       <c r="L79" s="1">
-        <f>Chaindrive!C30</f>
+        <f>Chaindrive!D31</f>
         <v>40</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -14278,7 +14228,7 @@
         <v>28</v>
       </c>
       <c r="O79" s="6">
-        <f>Chaindrive!N30</f>
+        <f>Chaindrive!O31</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P79" s="1">
@@ -14290,7 +14240,7 @@
     </row>
     <row r="80" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="str">
-        <f>Chaindrive!A31</f>
+        <f>Chaindrive!A32</f>
         <v>KE 60.24   19-57 1"</v>
       </c>
       <c r="B80" t="s">
@@ -14300,18 +14250,18 @@
         <v>1200.01</v>
       </c>
       <c r="D80" s="32">
-        <f>Chaindrive!I31</f>
+        <f>Chaindrive!J32</f>
         <v>1800</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F80" s="2">
-        <f>Chaindrive!K31</f>
+        <f>Chaindrive!L32</f>
         <v>8</v>
       </c>
       <c r="G80" s="1">
-        <f>Chaindrive!L31</f>
+        <f>Chaindrive!M32</f>
         <v>415</v>
       </c>
       <c r="H80" s="1" t="s">
@@ -14324,7 +14274,7 @@
         <v>281</v>
       </c>
       <c r="L80" s="1">
-        <f>Chaindrive!C31</f>
+        <f>Chaindrive!D32</f>
         <v>55</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -14334,7 +14284,7 @@
         <v>28</v>
       </c>
       <c r="O80" s="6">
-        <f>Chaindrive!N31</f>
+        <f>Chaindrive!O32</f>
         <v>6.666666666666667</v>
       </c>
       <c r="P80" s="1">
@@ -14346,7 +14296,7 @@
     </row>
     <row r="81" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="str">
-        <f>Chaindrive!A32</f>
+        <f>Chaindrive!A33</f>
         <v>KE 80.24   19-57 1 1/4"</v>
       </c>
       <c r="B81" t="s">
@@ -14356,18 +14306,18 @@
         <v>1800.01</v>
       </c>
       <c r="D81" s="32">
-        <f>Chaindrive!I32</f>
+        <f>Chaindrive!J33</f>
         <v>3040</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F81" s="2">
-        <f>Chaindrive!K32</f>
+        <f>Chaindrive!L33</f>
         <v>6.3157894736842106</v>
       </c>
       <c r="G81" s="1">
-        <f>Chaindrive!L32</f>
+        <f>Chaindrive!M33</f>
         <v>415</v>
       </c>
       <c r="H81" s="1" t="s">
@@ -14380,7 +14330,7 @@
         <v>281</v>
       </c>
       <c r="L81" s="1">
-        <f>Chaindrive!C32</f>
+        <f>Chaindrive!D33</f>
         <v>55</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -14390,7 +14340,7 @@
         <v>28</v>
       </c>
       <c r="O81" s="6">
-        <f>Chaindrive!N32</f>
+        <f>Chaindrive!O33</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P81" s="1">
@@ -14417,7 +14367,7 @@
       <c r="F82" s="132"/>
       <c r="G82" s="127"/>
       <c r="H82" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I82" s="127"/>
       <c r="J82" s="127"/>
@@ -14425,7 +14375,7 @@
       <c r="L82" s="127"/>
       <c r="M82" s="127"/>
       <c r="N82" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O82" s="130"/>
       <c r="P82" s="127"/>
@@ -14436,7 +14386,7 @@
     </row>
     <row r="83" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="str">
-        <f>Chaindrive!A36</f>
+        <f>Chaindrive!A37</f>
         <v>KE 40.40 Fi 19-57 3/4"</v>
       </c>
       <c r="B83" s="68" t="s">
@@ -14446,18 +14396,18 @@
         <v>0</v>
       </c>
       <c r="D83" s="32">
-        <f>Chaindrive!I36</f>
+        <f>Chaindrive!J37</f>
         <v>1140</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F83" s="2">
-        <f>Chaindrive!K36</f>
+        <f>Chaindrive!L37</f>
         <v>10.526315789473685</v>
       </c>
       <c r="G83" s="1" t="str">
-        <f>Chaindrive!L36</f>
+        <f>Chaindrive!M37</f>
         <v>230/415</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -14471,7 +14421,7 @@
         <v>281</v>
       </c>
       <c r="L83" s="1">
-        <f>Chaindrive!Q36</f>
+        <f>Chaindrive!R37</f>
         <v>40</v>
       </c>
       <c r="M83" s="1" t="s">
@@ -14481,7 +14431,7 @@
         <v>28</v>
       </c>
       <c r="O83" s="1">
-        <f>Chaindrive!N36</f>
+        <f>Chaindrive!O37</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P83" s="1">
@@ -14496,7 +14446,7 @@
     </row>
     <row r="84" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="str">
-        <f>Chaindrive!A37</f>
+        <f>Chaindrive!A38</f>
         <v>KE 50.80 Fi 19-57 1"</v>
       </c>
       <c r="B84" s="68" t="s">
@@ -14507,18 +14457,18 @@
         <v>1140.01</v>
       </c>
       <c r="D84" s="32">
-        <f>Chaindrive!I37</f>
+        <f>Chaindrive!J38</f>
         <v>1900</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F84" s="2">
-        <f>Chaindrive!K37</f>
+        <f>Chaindrive!L38</f>
         <v>21.05263157894737</v>
       </c>
       <c r="G84" s="1" t="str">
-        <f>Chaindrive!L37</f>
+        <f>Chaindrive!M38</f>
         <v>230/415</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -14532,7 +14482,7 @@
         <v>281</v>
       </c>
       <c r="L84" s="1">
-        <f>Chaindrive!Q37</f>
+        <f>Chaindrive!R38</f>
         <v>55</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -14542,7 +14492,7 @@
         <v>28</v>
       </c>
       <c r="O84" s="1">
-        <f>Chaindrive!N37</f>
+        <f>Chaindrive!O38</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P84" s="1">
@@ -14557,7 +14507,7 @@
     </row>
     <row r="85" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="str">
-        <f>Chaindrive!A38</f>
+        <f>Chaindrive!A39</f>
         <v>KE 80.40 Fi 19-57 1"</v>
       </c>
       <c r="B85" s="68" t="s">
@@ -14568,18 +14518,18 @@
         <v>1900.01</v>
       </c>
       <c r="D85" s="32">
-        <f>Chaindrive!I38</f>
+        <f>Chaindrive!J39</f>
         <v>3040</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F85" s="2">
-        <f>Chaindrive!K38</f>
+        <f>Chaindrive!L39</f>
         <v>10.526315789473685</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>Chaindrive!L38</f>
+        <f>Chaindrive!M39</f>
         <v>230/415</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -14593,7 +14543,7 @@
         <v>281</v>
       </c>
       <c r="L85" s="1">
-        <f>Chaindrive!Q38</f>
+        <f>Chaindrive!R39</f>
         <v>55</v>
       </c>
       <c r="M85" s="1" t="s">
@@ -14603,7 +14553,7 @@
         <v>28</v>
       </c>
       <c r="O85" s="1">
-        <f>Chaindrive!N38</f>
+        <f>Chaindrive!O39</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P85" s="1">
@@ -14618,7 +14568,7 @@
     </row>
     <row r="86" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="str">
-        <f>Chaindrive!A39</f>
+        <f>Chaindrive!A40</f>
         <v>KE 120.30 Fi 19-57 1 1/4""</v>
       </c>
       <c r="B86" s="68" t="s">
@@ -14629,18 +14579,18 @@
         <v>3040.01</v>
       </c>
       <c r="D86" s="32">
-        <f>Chaindrive!I39</f>
+        <f>Chaindrive!J40</f>
         <v>4560</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F86" s="2">
-        <f>Chaindrive!K39</f>
+        <f>Chaindrive!L40</f>
         <v>10.526315789473685</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>Chaindrive!L39</f>
+        <f>Chaindrive!M40</f>
         <v>230/415</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -14654,7 +14604,7 @@
         <v>281</v>
       </c>
       <c r="L86" s="1">
-        <f>Chaindrive!Q39</f>
+        <f>Chaindrive!R40</f>
         <v>55</v>
       </c>
       <c r="M86" s="1" t="s">
@@ -14664,7 +14614,7 @@
         <v>28</v>
       </c>
       <c r="O86" s="1">
-        <f>Chaindrive!N39</f>
+        <f>Chaindrive!O40</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P86" s="1">
@@ -14713,10 +14663,10 @@
         <v>289</v>
       </c>
       <c r="H88" s="115" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="N88" s="115" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -14777,7 +14727,7 @@
     </row>
     <row r="90" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B90" t="s">
         <v>340</v>
@@ -15645,7 +15595,7 @@
     </row>
     <row r="106" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B106" t="s">
         <v>340</v>
@@ -15712,7 +15662,7 @@
       <c r="F107" s="127"/>
       <c r="G107" s="127"/>
       <c r="H107" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I107" s="127"/>
       <c r="J107" s="127"/>
@@ -15720,7 +15670,7 @@
       <c r="L107" s="127"/>
       <c r="M107" s="127"/>
       <c r="N107" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O107" s="130"/>
       <c r="P107" s="127"/>
@@ -15971,7 +15921,7 @@
       <c r="F112" s="127"/>
       <c r="G112" s="127"/>
       <c r="H112" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I112" s="127"/>
       <c r="J112" s="127"/>
@@ -15979,7 +15929,7 @@
       <c r="L112" s="127"/>
       <c r="M112" s="127"/>
       <c r="N112" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O112" s="130"/>
       <c r="P112" s="127"/>
@@ -16020,7 +15970,7 @@
         <v>281</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>62</v>
@@ -16214,7 +16164,7 @@
       <c r="F117" s="127"/>
       <c r="G117" s="127"/>
       <c r="H117" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I117" s="127"/>
       <c r="J117" s="127"/>
@@ -16222,7 +16172,7 @@
       <c r="L117" s="127"/>
       <c r="M117" s="127"/>
       <c r="N117" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O117" s="130"/>
       <c r="P117" s="127"/>
@@ -16233,7 +16183,7 @@
     </row>
     <row r="118" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B118" t="s">
         <v>340</v>
@@ -16263,7 +16213,7 @@
         <v>281</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>62</v>
@@ -16283,7 +16233,7 @@
     </row>
     <row r="119" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B119" t="s">
         <v>340</v>
@@ -16313,7 +16263,7 @@
         <v>281</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>62</v>
@@ -16792,7 +16742,7 @@
     </row>
     <row r="129" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B129" t="s">
         <v>340</v>
@@ -16843,7 +16793,7 @@
     </row>
     <row r="130" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B130" t="s">
         <v>340</v>
@@ -16894,7 +16844,7 @@
     </row>
     <row r="131" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B131" t="s">
         <v>340</v>
@@ -16960,7 +16910,7 @@
       <c r="F132" s="127"/>
       <c r="G132" s="127"/>
       <c r="H132" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="I132" s="127"/>
       <c r="J132" s="127"/>
@@ -16968,7 +16918,7 @@
       <c r="L132" s="127"/>
       <c r="M132" s="127"/>
       <c r="N132" s="128" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O132" s="130"/>
       <c r="P132" s="127"/>
@@ -17035,7 +16985,7 @@
     </row>
     <row r="134" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B134" t="s">
         <v>340</v>
@@ -17392,7 +17342,7 @@
     </row>
     <row r="141" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B141" t="s">
         <v>340</v>
@@ -17475,2413 +17425,2363 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD63"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" customWidth="1"/>
-    <col min="2" max="3" width="14.81640625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="11.54296875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="6"/>
-    <col min="8" max="8" width="11.54296875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.1796875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="6"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.26953125" style="6" customWidth="1"/>
-    <col min="18" max="18" width="16.54296875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" customWidth="1"/>
-    <col min="20" max="20" width="17.26953125" customWidth="1"/>
-    <col min="21" max="21" width="32.54296875" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" customWidth="1"/>
+    <col min="1" max="2" width="25.7265625" customWidth="1"/>
+    <col min="3" max="4" width="14.81640625" style="6" customWidth="1"/>
+    <col min="5" max="6" width="11.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="6"/>
+    <col min="9" max="9" width="11.54296875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="8.7265625" style="6"/>
+    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.26953125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="16.54296875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="5.1796875" customWidth="1"/>
+    <col min="21" max="21" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.54296875" customWidth="1"/>
+    <col min="23" max="23" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="D1" s="59" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="E1" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="F1" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="H1" s="59" t="s">
         <v>406</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="I1" s="59" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="J1" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="K1" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="L1" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="M1" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="O1" s="59" t="s">
+      <c r="O1" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="P1" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="P1" s="59" t="s">
+      <c r="Q1" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="S1" s="122" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="U1" s="12" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>414</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="82">
         <v>19</v>
       </c>
-      <c r="C4" s="82">
+      <c r="D4" s="82">
         <v>25.4</v>
       </c>
-      <c r="D4" s="82">
+      <c r="E4" s="82">
         <v>57</v>
       </c>
-      <c r="E4" s="82">
+      <c r="F4" s="82">
         <v>30</v>
       </c>
-      <c r="F4" s="86">
-        <f>D4/B4</f>
+      <c r="G4" s="86">
+        <f>E4/C4</f>
         <v>3</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="H4" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H4" s="82">
+      <c r="I4" s="82">
         <v>70</v>
       </c>
-      <c r="I4" s="84">
-        <f>H4*F4</f>
+      <c r="J4" s="84">
+        <f>I4*G4</f>
         <v>210</v>
       </c>
-      <c r="J4" s="82">
+      <c r="K4" s="82">
         <v>32</v>
       </c>
-      <c r="K4" s="86">
-        <f>J4/F4</f>
+      <c r="L4" s="86">
+        <f>K4/G4</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L4" s="82">
+      <c r="M4" s="82">
         <v>230</v>
       </c>
-      <c r="M4" s="82">
+      <c r="N4" s="82">
         <v>40</v>
       </c>
-      <c r="N4" s="82">
-        <f>M4/F4</f>
+      <c r="O4" s="82">
+        <f>N4/G4</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>77.16</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>230</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>25.4</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="67" t="s">
         <v>416</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="82">
         <v>15</v>
       </c>
-      <c r="C5" s="82">
+      <c r="D5" s="82">
         <v>25.4</v>
       </c>
-      <c r="D5" s="82">
+      <c r="E5" s="82">
         <v>57</v>
       </c>
-      <c r="E5" s="82">
+      <c r="F5" s="82">
         <v>30</v>
       </c>
-      <c r="F5" s="86">
-        <f>D5/B5</f>
+      <c r="G5" s="86">
+        <f>E5/C5</f>
         <v>3.8</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="H5" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H5" s="82">
+      <c r="I5" s="82">
         <v>71</v>
       </c>
-      <c r="I5" s="84">
-        <f>H5*F5</f>
+      <c r="J5" s="84">
+        <f>I5*G5</f>
         <v>269.8</v>
       </c>
-      <c r="J5" s="82">
-        <v>33</v>
-      </c>
-      <c r="K5" s="86">
-        <f>J5/F5</f>
-        <v>8.6842105263157894</v>
-      </c>
-      <c r="L5" s="82">
+      <c r="K5" s="82">
+        <v>32</v>
+      </c>
+      <c r="L5" s="86">
+        <f>K5/G5</f>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="M5" s="82">
         <v>230</v>
       </c>
-      <c r="M5" s="82">
+      <c r="N5" s="82">
         <v>40</v>
       </c>
-      <c r="N5" s="82">
-        <f>M5/F5</f>
+      <c r="O5" s="82">
+        <f>N5/G5</f>
         <v>10.526315789473685</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5" s="6">
         <v>61.09</v>
       </c>
-      <c r="P5" s="6">
+      <c r="Q5" s="6">
         <v>230</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="6">
+      <c r="R5" s="1"/>
+      <c r="S5" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="73"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="87"/>
       <c r="H6" s="72"/>
       <c r="I6" s="72"/>
       <c r="J6" s="72"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="72"/>
       <c r="N6" s="72"/>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="72"/>
+      <c r="P6" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="P6" s="72"/>
       <c r="Q6" s="72"/>
       <c r="R6" s="72"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S6" s="72"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="67" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="82">
         <v>19</v>
       </c>
-      <c r="C7" s="82">
+      <c r="D7" s="82">
         <v>25.4</v>
       </c>
-      <c r="D7" s="82">
+      <c r="E7" s="82">
         <v>57</v>
       </c>
-      <c r="E7" s="82">
+      <c r="F7" s="82">
         <v>30</v>
       </c>
-      <c r="F7" s="86">
-        <f>D7/B7</f>
+      <c r="G7" s="86">
+        <f>E7/C7</f>
         <v>3</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="H7" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H7" s="82">
+      <c r="I7" s="82">
         <v>90</v>
       </c>
-      <c r="I7" s="84">
-        <f>H7*F7</f>
+      <c r="J7" s="84">
+        <f>I7*G7</f>
         <v>270</v>
       </c>
-      <c r="J7" s="82">
+      <c r="K7" s="82">
         <v>24</v>
       </c>
-      <c r="K7" s="86">
-        <f>J7/F7</f>
+      <c r="L7" s="86">
+        <f>K7/G7</f>
         <v>8</v>
       </c>
-      <c r="L7" s="82">
+      <c r="M7" s="82">
         <v>230</v>
       </c>
-      <c r="M7" s="82">
+      <c r="N7" s="82">
         <v>40</v>
       </c>
-      <c r="N7" s="82">
-        <f t="shared" ref="N7:N17" si="0">M7/F7</f>
+      <c r="O7" s="82">
+        <f t="shared" ref="O7:O18" si="0">N7/G7</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>77.16</v>
       </c>
-      <c r="P7" s="6">
+      <c r="Q7" s="6">
         <v>230</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>25.4</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="67" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="82">
         <v>15</v>
       </c>
-      <c r="C8" s="82">
+      <c r="D8" s="82">
         <v>25.4</v>
       </c>
-      <c r="D8" s="82">
+      <c r="E8" s="82">
         <v>57</v>
       </c>
-      <c r="E8" s="82">
+      <c r="F8" s="82">
         <v>30</v>
       </c>
-      <c r="F8" s="86">
-        <f t="shared" ref="F8" si="1">D8/B8</f>
+      <c r="G8" s="86">
+        <f t="shared" ref="G8" si="1">E8/C8</f>
         <v>3.8</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="H8" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H8" s="82">
+      <c r="I8" s="82">
         <v>90</v>
       </c>
-      <c r="I8" s="84">
-        <f t="shared" ref="I8" si="2">H8*F8</f>
+      <c r="J8" s="84">
+        <f t="shared" ref="J8" si="2">I8*G8</f>
         <v>342</v>
       </c>
-      <c r="J8" s="82">
+      <c r="K8" s="82">
         <v>24</v>
       </c>
-      <c r="K8" s="86">
-        <f t="shared" ref="K8" si="3">J8/F8</f>
+      <c r="L8" s="86">
+        <f t="shared" ref="L8" si="3">K8/G8</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L8" s="82">
+      <c r="M8" s="82">
         <v>230</v>
       </c>
-      <c r="M8" s="82">
+      <c r="N8" s="82">
         <v>40</v>
       </c>
-      <c r="N8" s="82">
+      <c r="O8" s="82">
         <f t="shared" si="0"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8" s="6">
         <v>61.09</v>
       </c>
-      <c r="P8" s="6">
+      <c r="Q8" s="6">
         <v>230</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>25.4</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="73"/>
-      <c r="B9" s="72"/>
+      <c r="B9" s="73"/>
       <c r="C9" s="72"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
       <c r="J9" s="72"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="72"/>
       <c r="N9" s="72"/>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="72"/>
+      <c r="P9" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="P9" s="72"/>
       <c r="Q9" s="72"/>
       <c r="R9" s="72"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="S9" s="72"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="82">
         <v>19</v>
       </c>
-      <c r="C10" s="82">
+      <c r="D10" s="82">
         <v>25.4</v>
       </c>
-      <c r="D10" s="82">
+      <c r="E10" s="82">
         <v>57</v>
       </c>
-      <c r="E10" s="82">
+      <c r="F10" s="82">
         <v>30</v>
       </c>
-      <c r="F10" s="86">
-        <f>D10/B10</f>
+      <c r="G10" s="86">
+        <f>E10/C10</f>
         <v>3</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="H10" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H10" s="82">
+      <c r="I10" s="82">
         <v>90</v>
       </c>
-      <c r="I10" s="84">
-        <f>H10*F10</f>
+      <c r="J10" s="84">
+        <f>I10*G10</f>
         <v>270</v>
       </c>
-      <c r="J10" s="82">
+      <c r="K10" s="82">
         <v>32</v>
       </c>
-      <c r="K10" s="86">
-        <f>J10/F10</f>
+      <c r="L10" s="86">
+        <f>K10/G10</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="L10" s="82">
+      <c r="M10" s="82">
         <v>415</v>
       </c>
-      <c r="M10" s="82">
+      <c r="N10" s="82">
         <v>40</v>
       </c>
-      <c r="N10" s="82">
+      <c r="O10" s="82">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10" s="6">
         <v>77.16</v>
       </c>
-      <c r="P10" s="6">
+      <c r="Q10" s="6">
         <v>230</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>25.4</v>
       </c>
-      <c r="R10" s="6">
+      <c r="S10" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>420</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="82">
         <v>15</v>
       </c>
-      <c r="C11" s="82">
+      <c r="D11" s="82">
         <v>25.4</v>
       </c>
-      <c r="D11" s="82">
+      <c r="E11" s="82">
         <v>57</v>
       </c>
-      <c r="E11" s="82">
+      <c r="F11" s="82">
         <v>30</v>
       </c>
-      <c r="F11" s="86">
-        <f t="shared" ref="F11" si="4">D11/B11</f>
+      <c r="G11" s="86">
+        <f t="shared" ref="G11" si="4">E11/C11</f>
         <v>3.8</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="H11" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H11" s="82">
+      <c r="I11" s="82">
         <v>90</v>
       </c>
-      <c r="I11" s="84">
-        <f t="shared" ref="I11" si="5">H11*F11</f>
+      <c r="J11" s="84">
+        <f t="shared" ref="J11" si="5">I11*G11</f>
         <v>342</v>
       </c>
-      <c r="J11" s="82">
+      <c r="K11" s="82">
         <v>32</v>
       </c>
-      <c r="K11" s="86">
-        <f t="shared" ref="K11" si="6">J11/F11</f>
+      <c r="L11" s="86">
+        <f t="shared" ref="L11" si="6">K11/G11</f>
         <v>8.4210526315789469</v>
       </c>
-      <c r="L11" s="82">
+      <c r="M11" s="82">
         <v>415</v>
       </c>
-      <c r="M11" s="82">
+      <c r="N11" s="82">
         <v>40</v>
       </c>
-      <c r="N11" s="82">
+      <c r="O11" s="82">
         <f t="shared" si="0"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11" s="6">
         <v>61.09</v>
       </c>
-      <c r="P11" s="6">
+      <c r="Q11" s="6">
         <v>230</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>25.4</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="73"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="137" t="s">
+        <v>594</v>
+      </c>
+      <c r="B12" s="137" t="s">
+        <v>340</v>
+      </c>
+      <c r="C12" s="138">
+        <v>12</v>
+      </c>
+      <c r="D12" s="138">
+        <v>25.4</v>
+      </c>
+      <c r="E12" s="138">
+        <v>57</v>
+      </c>
+      <c r="F12" s="138">
+        <v>30</v>
+      </c>
+      <c r="G12" s="139">
+        <f t="shared" ref="G12" si="7">E12/C12</f>
+        <v>4.75</v>
+      </c>
+      <c r="H12" s="138" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="138">
+        <v>90</v>
+      </c>
+      <c r="J12" s="140">
+        <f t="shared" ref="J12" si="8">I12*G12</f>
+        <v>427.5</v>
+      </c>
+      <c r="K12" s="138">
+        <v>32</v>
+      </c>
+      <c r="L12" s="139">
+        <f t="shared" ref="L12" si="9">K12/G12</f>
+        <v>6.7368421052631575</v>
+      </c>
+      <c r="M12" s="138">
+        <v>415</v>
+      </c>
+      <c r="N12" s="138">
+        <v>40</v>
+      </c>
+      <c r="O12" s="138">
+        <f t="shared" ref="O12" si="10">N12/G12</f>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="P12" s="6">
+        <v>61.09</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>230</v>
+      </c>
+      <c r="R12" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S12" s="6">
+        <v>18000</v>
+      </c>
+      <c r="U12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
-        <v>551</v>
-      </c>
-      <c r="B13" s="82">
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" s="82">
         <v>15</v>
       </c>
-      <c r="C13" s="82">
+      <c r="D14" s="82">
         <v>25.4</v>
       </c>
-      <c r="D13" s="82">
+      <c r="E14" s="82">
         <v>57</v>
       </c>
-      <c r="E13" s="82">
+      <c r="F14" s="82">
         <v>30</v>
       </c>
-      <c r="F13" s="86">
-        <f t="shared" ref="F13:F14" si="7">D13/B13</f>
+      <c r="G14" s="86">
+        <f t="shared" ref="G14:G15" si="11">E14/C14</f>
         <v>3.8</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="H14" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="H13" s="82">
+      <c r="I14" s="82">
         <v>150</v>
       </c>
-      <c r="I13" s="84">
-        <f>H13*F13</f>
+      <c r="J14" s="84">
+        <f>I14*G14</f>
         <v>570</v>
       </c>
-      <c r="J13" s="82">
+      <c r="K14" s="82">
         <v>48</v>
       </c>
-      <c r="K13" s="86">
-        <f t="shared" ref="K13" si="8">J13/F13</f>
+      <c r="L14" s="86">
+        <f t="shared" ref="L14" si="12">K14/G14</f>
         <v>12.631578947368421</v>
       </c>
-      <c r="L13" s="82">
+      <c r="M14" s="82">
         <v>415</v>
       </c>
-      <c r="M13" s="82">
+      <c r="N14" s="82">
         <v>40</v>
       </c>
-      <c r="N13" s="82">
+      <c r="O14" s="82">
         <f t="shared" si="0"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P14" s="6">
         <v>91.42</v>
       </c>
-      <c r="P13" s="6">
+      <c r="Q14" s="6">
         <v>288</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R14" s="1">
         <v>25.4</v>
       </c>
-      <c r="R13" s="6">
+      <c r="S14" s="6">
         <v>22400</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="67" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="67" t="s">
         <v>422</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B15" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="82">
         <v>12</v>
       </c>
-      <c r="C14" s="82">
+      <c r="D15" s="82">
         <v>25.4</v>
       </c>
-      <c r="D14" s="82">
+      <c r="E15" s="82">
         <v>57</v>
       </c>
-      <c r="E14" s="82">
+      <c r="F15" s="82">
         <v>40</v>
       </c>
-      <c r="F14" s="86">
-        <f t="shared" si="7"/>
+      <c r="G15" s="86">
+        <f t="shared" si="11"/>
         <v>4.75</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="H15" s="82" t="s">
         <v>421</v>
       </c>
-      <c r="H14" s="82">
+      <c r="I15" s="82">
         <v>150</v>
       </c>
-      <c r="I14" s="84">
-        <f>H14*F14</f>
+      <c r="J15" s="84">
+        <f>I15*G15</f>
         <v>712.5</v>
       </c>
-      <c r="J14" s="82">
+      <c r="K15" s="82">
         <v>48</v>
       </c>
-      <c r="K14" s="86">
-        <f>J14/F14</f>
+      <c r="L15" s="86">
+        <f>K15/G15</f>
         <v>10.105263157894736</v>
       </c>
-      <c r="L14" s="82">
+      <c r="M15" s="82">
         <v>415</v>
       </c>
-      <c r="M14" s="82">
+      <c r="N15" s="82">
         <v>40</v>
       </c>
-      <c r="N14" s="82">
+      <c r="O15" s="82">
         <f t="shared" si="0"/>
         <v>8.4210526315789469</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P15" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="P14" s="6">
+      <c r="Q15" s="6">
         <v>288</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R15" s="1">
         <v>25.4</v>
       </c>
-      <c r="R14" s="6">
+      <c r="S15" s="6">
         <v>22400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="73"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72" t="s">
         <v>289</v>
       </c>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="67" t="s">
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B17" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C17" s="82">
         <v>15</v>
       </c>
-      <c r="C16" s="82">
+      <c r="D17" s="82">
         <v>30</v>
       </c>
-      <c r="D16" s="82">
+      <c r="E17" s="82">
         <v>57</v>
       </c>
-      <c r="E16" s="82">
+      <c r="F17" s="82">
         <v>30</v>
       </c>
-      <c r="F16" s="86">
-        <f>D16/B16</f>
+      <c r="G17" s="86">
+        <f>E17/C17</f>
         <v>3.8</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="H17" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="H16" s="82">
+      <c r="I17" s="82">
         <v>220</v>
       </c>
-      <c r="I16" s="84">
-        <f>H16*F16</f>
+      <c r="J17" s="84">
+        <f>I17*G17</f>
         <v>836</v>
       </c>
-      <c r="J16" s="82">
+      <c r="K17" s="82">
         <v>24</v>
       </c>
-      <c r="K16" s="86">
-        <f>J16/F16</f>
+      <c r="L17" s="86">
+        <f>K17/G17</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="L16" s="82">
+      <c r="M17" s="82">
         <v>415</v>
       </c>
-      <c r="M16" s="82">
+      <c r="N17" s="82">
         <v>40</v>
       </c>
-      <c r="N16" s="82">
+      <c r="O17" s="82">
         <f t="shared" si="0"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P17" s="6">
         <v>115.75</v>
       </c>
-      <c r="P16" s="6">
+      <c r="Q17" s="6">
         <v>345.81</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R17" s="1">
         <v>25.4</v>
       </c>
-      <c r="R16" s="6">
+      <c r="S17" s="6">
         <v>22400</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="67" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B18" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="82">
         <v>12</v>
       </c>
-      <c r="C17" s="82">
+      <c r="D18" s="82">
         <v>40</v>
       </c>
-      <c r="D17" s="82">
+      <c r="E18" s="82">
         <v>57</v>
       </c>
-      <c r="E17" s="82">
+      <c r="F18" s="82">
         <v>30</v>
       </c>
-      <c r="F17" s="86">
-        <f>D17/B17</f>
+      <c r="G18" s="86">
+        <f>E18/C18</f>
         <v>4.75</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="H18" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="H17" s="82">
+      <c r="I18" s="82">
         <v>220</v>
       </c>
-      <c r="I17" s="84">
-        <f>H17*F17</f>
+      <c r="J18" s="84">
+        <f>I18*G18</f>
         <v>1045</v>
       </c>
-      <c r="J17" s="82">
+      <c r="K18" s="82">
         <v>24</v>
       </c>
-      <c r="K17" s="86">
-        <f>J17/F17</f>
+      <c r="L18" s="86">
+        <f>K18/G18</f>
         <v>5.0526315789473681</v>
       </c>
-      <c r="L17" s="82">
+      <c r="M18" s="82">
         <v>415</v>
       </c>
-      <c r="M17" s="82">
+      <c r="N18" s="82">
         <v>40</v>
       </c>
-      <c r="N17" s="82">
+      <c r="O18" s="82">
         <f t="shared" si="0"/>
         <v>8.4210526315789469</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P18" s="6">
         <v>73.599999999999994</v>
       </c>
-      <c r="P17" s="6">
+      <c r="Q18" s="6">
         <v>345.81</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R18" s="1">
         <v>25.4</v>
       </c>
-      <c r="R17" s="6">
+      <c r="S18" s="6">
         <v>22400</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="F18" s="85"/>
-      <c r="I18" s="83"/>
-      <c r="K18" s="85"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="G19" s="85"/>
+      <c r="J19" s="83"/>
+      <c r="L19" s="85"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="73"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="67" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="67" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C21" s="82">
+        <v>19</v>
+      </c>
+      <c r="D21" s="82">
+        <v>25.4</v>
+      </c>
+      <c r="E21" s="82">
+        <v>57</v>
+      </c>
+      <c r="F21" s="82">
+        <v>30</v>
+      </c>
+      <c r="G21" s="86">
+        <f>E21/C21</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="I21" s="82">
+        <v>90</v>
+      </c>
+      <c r="J21" s="84">
+        <f>I21*G21</f>
+        <v>270</v>
+      </c>
+      <c r="K21" s="82">
+        <v>80</v>
+      </c>
+      <c r="L21" s="86">
+        <f>K21/G21</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="M21" s="82">
+        <v>230</v>
+      </c>
+      <c r="N21" s="82">
+        <v>20</v>
+      </c>
+      <c r="O21" s="82">
+        <f t="shared" ref="O21:O22" si="13">N21/G21</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P21" s="6">
+        <v>77.16</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>230</v>
+      </c>
+      <c r="R21" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S21" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="67" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C22" s="82">
+        <v>15</v>
+      </c>
+      <c r="D22" s="82">
+        <v>25.4</v>
+      </c>
+      <c r="E22" s="82">
+        <v>57</v>
+      </c>
+      <c r="F22" s="82">
+        <v>30</v>
+      </c>
+      <c r="G22" s="86">
+        <f t="shared" ref="G22" si="14">E22/C22</f>
+        <v>3.8</v>
+      </c>
+      <c r="H22" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="I22" s="82">
+        <v>90</v>
+      </c>
+      <c r="J22" s="84">
+        <f t="shared" ref="J22" si="15">I22*G22</f>
+        <v>342</v>
+      </c>
+      <c r="K22" s="82">
+        <v>80</v>
+      </c>
+      <c r="L22" s="86">
+        <f t="shared" ref="L22" si="16">K22/G22</f>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="M22" s="82">
+        <v>230</v>
+      </c>
+      <c r="N22" s="82">
+        <v>20</v>
+      </c>
+      <c r="O22" s="82">
+        <f t="shared" si="13"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P22" s="6">
+        <v>61.09</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>230</v>
+      </c>
+      <c r="R22" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S22" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" s="82">
+        <v>15</v>
+      </c>
+      <c r="D24" s="82">
+        <v>25.4</v>
+      </c>
+      <c r="E24" s="82">
+        <v>57</v>
+      </c>
+      <c r="F24" s="82">
+        <v>30</v>
+      </c>
+      <c r="G24" s="86">
+        <f t="shared" ref="G24:G25" si="17">E24/C24</f>
+        <v>3.8</v>
+      </c>
+      <c r="H24" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="I24" s="82">
+        <v>150</v>
+      </c>
+      <c r="J24" s="84">
+        <f>I24*G24</f>
+        <v>570</v>
+      </c>
+      <c r="K24" s="82">
+        <v>80</v>
+      </c>
+      <c r="L24" s="86">
+        <f t="shared" ref="L24" si="18">K24/G24</f>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="M24" s="82">
+        <v>230</v>
+      </c>
+      <c r="N24" s="82">
+        <v>20</v>
+      </c>
+      <c r="O24" s="82">
+        <f t="shared" ref="O24:O25" si="19">N24/G24</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P24" s="6">
+        <v>91.42</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>288</v>
+      </c>
+      <c r="R24" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S24" s="6">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="82">
+        <v>12</v>
+      </c>
+      <c r="D25" s="82">
+        <v>25.4</v>
+      </c>
+      <c r="E25" s="82">
+        <v>57</v>
+      </c>
+      <c r="F25" s="82">
+        <v>40</v>
+      </c>
+      <c r="G25" s="86">
+        <f t="shared" si="17"/>
+        <v>4.75</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>421</v>
+      </c>
+      <c r="I25" s="82">
+        <v>150</v>
+      </c>
+      <c r="J25" s="84">
+        <f>I25*G25</f>
+        <v>712.5</v>
+      </c>
+      <c r="K25" s="82">
+        <v>80</v>
+      </c>
+      <c r="L25" s="86">
+        <f>K25/G25</f>
+        <v>16.842105263157894</v>
+      </c>
+      <c r="M25" s="82">
+        <v>230</v>
+      </c>
+      <c r="N25" s="82">
+        <v>20</v>
+      </c>
+      <c r="O25" s="82">
+        <f t="shared" si="19"/>
+        <v>4.2105263157894735</v>
+      </c>
+      <c r="P25" s="6">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>288</v>
+      </c>
+      <c r="R25" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S25" s="6">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N26" s="6"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B29" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="6">
+        <v>19</v>
+      </c>
+      <c r="D29" s="6">
+        <v>40</v>
+      </c>
+      <c r="E29" s="6">
+        <v>57</v>
+      </c>
+      <c r="F29" s="6">
+        <v>40</v>
+      </c>
+      <c r="G29" s="85">
+        <f t="shared" ref="G29:G34" si="20">E29/C29</f>
+        <v>3</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I29" s="6">
+        <v>300</v>
+      </c>
+      <c r="J29" s="83">
+        <f t="shared" ref="J29:J34" si="21">I29*G29</f>
+        <v>900</v>
+      </c>
+      <c r="K29" s="1">
+        <v>24</v>
+      </c>
+      <c r="L29" s="85">
+        <f t="shared" ref="L29:L34" si="22">K29/G29</f>
+        <v>8</v>
+      </c>
+      <c r="M29" s="6">
+        <v>415</v>
+      </c>
+      <c r="N29" s="82">
+        <v>20</v>
+      </c>
+      <c r="O29" s="82">
+        <f>N29/G29</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P29" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>345.81</v>
+      </c>
+      <c r="R29" s="6">
+        <f>D29</f>
+        <v>40</v>
+      </c>
+      <c r="S29" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="101" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="6">
+        <v>19</v>
+      </c>
+      <c r="D30" s="6">
+        <v>40</v>
+      </c>
+      <c r="E30" s="6">
+        <v>57</v>
+      </c>
+      <c r="F30" s="6">
+        <v>40</v>
+      </c>
+      <c r="G30" s="85">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I30" s="6">
+        <v>400</v>
+      </c>
+      <c r="J30" s="83">
+        <f t="shared" si="21"/>
+        <v>1200</v>
+      </c>
+      <c r="K30" s="1">
+        <v>24</v>
+      </c>
+      <c r="L30" s="85">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="M30" s="6">
+        <v>415</v>
+      </c>
+      <c r="N30" s="82">
+        <v>20</v>
+      </c>
+      <c r="O30" s="82">
+        <f t="shared" ref="O30:O34" si="23">N30/G30</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P30" s="6">
+        <v>192.91</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>461</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" ref="R30:R34" si="24">D30</f>
+        <v>40</v>
+      </c>
+      <c r="S30" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="101" t="s">
+        <v>521</v>
+      </c>
+      <c r="B31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" s="6">
+        <v>15</v>
+      </c>
+      <c r="D31" s="6">
+        <v>40</v>
+      </c>
+      <c r="E31" s="6">
+        <v>57</v>
+      </c>
+      <c r="F31" s="6">
+        <v>40</v>
+      </c>
+      <c r="G31" s="85">
+        <f t="shared" ref="G31" si="25">E31/C31</f>
+        <v>3.8</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I31" s="6">
+        <v>400</v>
+      </c>
+      <c r="J31" s="83">
+        <f t="shared" ref="J31" si="26">I31*G31</f>
+        <v>1520</v>
+      </c>
+      <c r="K31" s="1">
+        <v>24</v>
+      </c>
+      <c r="L31" s="85">
+        <f t="shared" ref="L31" si="27">K31/G31</f>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="M31" s="6">
+        <v>415</v>
+      </c>
+      <c r="N31" s="82">
+        <v>20</v>
+      </c>
+      <c r="O31" s="82">
+        <f t="shared" si="23"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P31" s="6">
+        <v>192.91</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>461</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="S31" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" s="6">
+        <v>19</v>
+      </c>
+      <c r="D32" s="6">
+        <v>55</v>
+      </c>
+      <c r="E32" s="6">
+        <v>57</v>
+      </c>
+      <c r="F32" s="6">
+        <v>55</v>
+      </c>
+      <c r="G32" s="85">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I32" s="6">
+        <v>600</v>
+      </c>
+      <c r="J32" s="83">
+        <f t="shared" si="21"/>
+        <v>1800</v>
+      </c>
+      <c r="K32" s="1">
+        <v>24</v>
+      </c>
+      <c r="L32" s="85">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="M32" s="6">
+        <v>415</v>
+      </c>
+      <c r="N32" s="82">
+        <v>20</v>
+      </c>
+      <c r="O32" s="82">
+        <f t="shared" si="23"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P32" s="6">
+        <v>192.91</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>461</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="S32" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33" t="s">
+        <v>340</v>
+      </c>
+      <c r="C33" s="6">
+        <v>15</v>
+      </c>
+      <c r="D33" s="6">
+        <v>55</v>
+      </c>
+      <c r="E33" s="6">
+        <v>57</v>
+      </c>
+      <c r="F33" s="6">
+        <v>55</v>
+      </c>
+      <c r="G33" s="85">
+        <f t="shared" si="20"/>
+        <v>3.8</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="I33" s="6">
+        <v>800</v>
+      </c>
+      <c r="J33" s="83">
+        <f t="shared" si="21"/>
+        <v>3040</v>
+      </c>
+      <c r="K33" s="1">
+        <v>24</v>
+      </c>
+      <c r="L33" s="85">
+        <f t="shared" si="22"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="M33" s="6">
+        <v>415</v>
+      </c>
+      <c r="N33" s="82">
+        <v>20</v>
+      </c>
+      <c r="O33" s="82">
+        <f t="shared" si="23"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P33" s="6">
+        <v>152.72</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>576</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="S33" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="B34" t="s">
+        <v>340</v>
+      </c>
+      <c r="C34" s="58">
+        <v>15</v>
+      </c>
+      <c r="D34" s="58">
+        <v>55</v>
+      </c>
+      <c r="E34" s="58">
+        <v>57</v>
+      </c>
+      <c r="F34" s="58">
+        <v>55</v>
+      </c>
+      <c r="G34" s="96">
+        <f t="shared" si="20"/>
+        <v>3.8</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>432</v>
+      </c>
+      <c r="I34" s="58">
+        <v>1200</v>
+      </c>
+      <c r="J34" s="97">
+        <f t="shared" si="21"/>
+        <v>4560</v>
+      </c>
+      <c r="K34" s="63">
+        <v>24</v>
+      </c>
+      <c r="L34" s="96">
+        <f t="shared" si="22"/>
+        <v>6.3157894736842106</v>
+      </c>
+      <c r="M34" s="58" t="s">
+        <v>426</v>
+      </c>
+      <c r="N34" s="58">
+        <v>20</v>
+      </c>
+      <c r="O34" s="33">
+        <f t="shared" si="23"/>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P34" s="58">
+        <v>152.72</v>
+      </c>
+      <c r="Q34" s="58">
+        <v>576</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="24"/>
+        <v>55</v>
+      </c>
+      <c r="S34" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>568</v>
+      </c>
+      <c r="B37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C37" s="6">
+        <v>15</v>
+      </c>
+      <c r="D37" s="6">
+        <v>40</v>
+      </c>
+      <c r="E37" s="6">
+        <v>57</v>
+      </c>
+      <c r="F37" s="6">
+        <v>40</v>
+      </c>
+      <c r="G37" s="85">
+        <f t="shared" ref="G37" si="28">E37/C37</f>
+        <v>3.8</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I37" s="6">
+        <v>300</v>
+      </c>
+      <c r="J37" s="83">
+        <f t="shared" ref="J37" si="29">I37*G37</f>
+        <v>1140</v>
+      </c>
+      <c r="K37" s="1">
+        <v>40</v>
+      </c>
+      <c r="L37" s="85">
+        <f t="shared" ref="L37" si="30">K37/G37</f>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N37" s="82">
+        <v>20</v>
+      </c>
+      <c r="O37" s="82">
+        <f>N37/G37</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P37" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>345.81</v>
+      </c>
+      <c r="R37" s="6">
+        <v>40</v>
+      </c>
+      <c r="S37" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" s="6">
+        <v>15</v>
+      </c>
+      <c r="D38" s="6">
+        <v>55</v>
+      </c>
+      <c r="E38" s="6">
+        <v>57</v>
+      </c>
+      <c r="F38" s="6">
+        <v>55</v>
+      </c>
+      <c r="G38" s="85">
+        <f t="shared" ref="G38" si="31">E38/C38</f>
+        <v>3.8</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I38" s="6">
+        <v>500</v>
+      </c>
+      <c r="J38" s="83">
+        <f t="shared" ref="J38" si="32">I38*G38</f>
+        <v>1900</v>
+      </c>
+      <c r="K38" s="1">
+        <v>80</v>
+      </c>
+      <c r="L38" s="85">
+        <f>K38/G38</f>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N38" s="82">
+        <v>20</v>
+      </c>
+      <c r="O38" s="82">
+        <f>N38/G38</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P38" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>345.81</v>
+      </c>
+      <c r="R38" s="6">
+        <v>55</v>
+      </c>
+      <c r="S38" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>570</v>
+      </c>
+      <c r="B39" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="6">
+        <v>15</v>
+      </c>
+      <c r="D39" s="6">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6">
+        <v>57</v>
+      </c>
+      <c r="F39" s="6">
+        <v>55</v>
+      </c>
+      <c r="G39" s="85">
+        <f t="shared" ref="G39" si="33">E39/C39</f>
+        <v>3.8</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I39" s="6">
+        <v>800</v>
+      </c>
+      <c r="J39" s="83">
+        <f t="shared" ref="J39" si="34">I39*G39</f>
+        <v>3040</v>
+      </c>
+      <c r="K39" s="1">
+        <v>40</v>
+      </c>
+      <c r="L39" s="85">
+        <f>K39/G39</f>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N39" s="82">
+        <v>20</v>
+      </c>
+      <c r="O39" s="82">
+        <f>N39/G39</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P39" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>345.81</v>
+      </c>
+      <c r="R39" s="6">
+        <v>55</v>
+      </c>
+      <c r="S39" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
         <v>571</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B40" t="s">
+        <v>340</v>
+      </c>
+      <c r="C40" s="6">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6">
+        <v>55</v>
+      </c>
+      <c r="E40" s="6">
+        <v>57</v>
+      </c>
+      <c r="F40" s="6">
+        <v>55</v>
+      </c>
+      <c r="G40" s="85">
+        <f t="shared" ref="G40" si="35">E40/C40</f>
+        <v>3.8</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I40" s="6">
+        <v>1200</v>
+      </c>
+      <c r="J40" s="83">
+        <f t="shared" ref="J40" si="36">I40*G40</f>
+        <v>4560</v>
+      </c>
+      <c r="K40" s="1">
+        <v>40</v>
+      </c>
+      <c r="L40" s="85">
+        <f>K40/G40</f>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="N40" s="82">
+        <v>20</v>
+      </c>
+      <c r="O40" s="82">
+        <f>N40/G40</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P40" s="6">
+        <v>115.75</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>345.81</v>
+      </c>
+      <c r="R40" s="6">
+        <v>55</v>
+      </c>
+      <c r="S40" s="6">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="6">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E43" s="6">
+        <v>61</v>
+      </c>
+      <c r="G43" s="85">
+        <f>E43/C43</f>
+        <v>5.5454545454545459</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I43" s="1">
+        <v>20</v>
+      </c>
+      <c r="J43" s="32">
+        <f>I43*G43</f>
+        <v>110.90909090909092</v>
+      </c>
+      <c r="K43" s="1">
+        <v>34</v>
+      </c>
+      <c r="L43" s="85">
+        <f t="shared" ref="L43:L48" si="37">K43/G43</f>
+        <v>6.1311475409836058</v>
+      </c>
+      <c r="M43" s="6">
+        <v>415</v>
+      </c>
+      <c r="R43" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S43" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="6">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6">
+        <v>50</v>
+      </c>
+      <c r="G44" s="85">
+        <f t="shared" ref="G44:G45" si="38">E44/C44</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I44" s="1">
+        <v>62</v>
+      </c>
+      <c r="J44" s="32">
+        <f t="shared" ref="J44:J47" si="39">I44*G44</f>
+        <v>344.44444444444446</v>
+      </c>
+      <c r="K44" s="1">
+        <v>34</v>
+      </c>
+      <c r="L44" s="85">
+        <f t="shared" si="37"/>
+        <v>6.12</v>
+      </c>
+      <c r="M44" s="6">
+        <v>415</v>
+      </c>
+      <c r="S44" s="6">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="E45" s="6">
+        <v>64</v>
+      </c>
+      <c r="G45" s="85">
+        <f t="shared" si="38"/>
+        <v>6.4</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="I45" s="1">
+        <v>95</v>
+      </c>
+      <c r="J45" s="32">
+        <f t="shared" si="39"/>
+        <v>608</v>
+      </c>
+      <c r="K45" s="1">
+        <v>22</v>
+      </c>
+      <c r="L45" s="85">
+        <f t="shared" si="37"/>
+        <v>3.4375</v>
+      </c>
+      <c r="M45" s="6">
+        <v>415</v>
+      </c>
+      <c r="S45" s="6">
+        <v>22400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="6">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6">
+        <v>57</v>
+      </c>
+      <c r="G46" s="85">
+        <f t="shared" ref="G46:G48" si="40">E46/C46</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="I46" s="6">
+        <v>128</v>
+      </c>
+      <c r="J46" s="32">
+        <f>I46*G46</f>
+        <v>810.66666666666663</v>
+      </c>
+      <c r="K46" s="6">
+        <v>22</v>
+      </c>
+      <c r="L46" s="85">
+        <f>K46/G46</f>
+        <v>3.4736842105263159</v>
+      </c>
+      <c r="M46" s="6">
+        <v>415</v>
+      </c>
+      <c r="S46" s="6">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" s="6">
+        <v>11</v>
+      </c>
+      <c r="E47" s="6">
+        <v>48</v>
+      </c>
+      <c r="G47" s="85">
+        <f t="shared" si="40"/>
+        <v>4.3636363636363633</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="I47" s="6">
+        <v>369</v>
+      </c>
+      <c r="J47" s="32">
+        <f t="shared" si="39"/>
+        <v>1610.181818181818</v>
+      </c>
+      <c r="K47" s="6">
+        <v>15</v>
+      </c>
+      <c r="L47" s="85">
+        <f t="shared" si="37"/>
+        <v>3.4375000000000004</v>
+      </c>
+      <c r="M47" s="6">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>437</v>
+      </c>
+      <c r="C48" s="6">
+        <v>14</v>
+      </c>
+      <c r="E48" s="6">
+        <v>72</v>
+      </c>
+      <c r="G48" s="85">
+        <f t="shared" si="40"/>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I48" s="6">
+        <v>428</v>
+      </c>
+      <c r="J48" s="32">
+        <f>I48*G48</f>
+        <v>2201.1428571428573</v>
+      </c>
+      <c r="K48" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="L48" s="85">
+        <f t="shared" si="37"/>
+        <v>3.208333333333333</v>
+      </c>
+      <c r="M48" s="6">
+        <v>415</v>
+      </c>
+      <c r="R48" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S48" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="82">
+      <c r="D50" s="6">
         <v>25.4</v>
       </c>
-      <c r="D20" s="82">
+      <c r="E50" s="6">
         <v>57</v>
       </c>
-      <c r="E20" s="82">
-        <v>30</v>
-      </c>
-      <c r="F20" s="86">
-        <f>D20/B20</f>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50:G52" si="41">E50/C50</f>
         <v>3</v>
       </c>
-      <c r="G20" s="82" t="s">
+      <c r="H50" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="H20" s="82">
-        <v>90</v>
-      </c>
-      <c r="I20" s="84">
-        <f>H20*F20</f>
-        <v>270</v>
-      </c>
-      <c r="J20" s="82">
-        <v>80</v>
-      </c>
-      <c r="K20" s="86">
-        <f>J20/F20</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="L20" s="82">
+      <c r="I50" s="1">
+        <v>15</v>
+      </c>
+      <c r="J50" s="1">
+        <f>I50*G50</f>
+        <v>45</v>
+      </c>
+      <c r="K50" s="1">
+        <v>34</v>
+      </c>
+      <c r="L50" s="85">
+        <f>K50/G50</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="M50" s="6">
         <v>230</v>
       </c>
-      <c r="M20" s="82">
-        <v>20</v>
-      </c>
-      <c r="N20" s="82">
-        <f t="shared" ref="N20:N21" si="9">M20/F20</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="O20" s="6">
-        <v>77.16</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="R50" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S50" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="6">
+        <v>19</v>
+      </c>
+      <c r="D51" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E51" s="6">
+        <v>57</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I51" s="1">
+        <v>62</v>
+      </c>
+      <c r="J51" s="1">
+        <f>I51*G51</f>
+        <v>186</v>
+      </c>
+      <c r="K51" s="1">
+        <v>34</v>
+      </c>
+      <c r="L51" s="85">
+        <f>K51/G51</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="M51" s="6">
         <v>230</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R51" s="1">
         <v>25.4</v>
       </c>
-      <c r="R20" s="6">
+      <c r="S51" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="67" t="s">
-        <v>572</v>
-      </c>
-      <c r="B21" s="82">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="6">
+        <v>19</v>
+      </c>
+      <c r="D52" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E52" s="6">
+        <v>57</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="41"/>
+        <v>3</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I52" s="1">
+        <v>95</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" ref="J52" si="42">I52*G52</f>
+        <v>285</v>
+      </c>
+      <c r="K52" s="1">
+        <v>22</v>
+      </c>
+      <c r="L52" s="85">
+        <f t="shared" ref="L52" si="43">K52/G52</f>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="M52" s="6">
+        <v>230</v>
+      </c>
+      <c r="R52" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="S52" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G53" s="85"/>
+      <c r="L53" s="85"/>
+    </row>
+    <row r="54" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="67" t="s">
+        <v>562</v>
+      </c>
+      <c r="B54" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="82">
+        <v>19</v>
+      </c>
+      <c r="D54" s="82">
+        <v>25.4</v>
+      </c>
+      <c r="E54" s="82">
+        <v>57</v>
+      </c>
+      <c r="F54" s="82"/>
+      <c r="G54" s="82">
+        <f t="shared" ref="G54" si="44">E54/C54</f>
+        <v>3</v>
+      </c>
+      <c r="H54" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="I54" s="134">
+        <v>100</v>
+      </c>
+      <c r="J54" s="134">
+        <f>I54*G54</f>
+        <v>300</v>
+      </c>
+      <c r="K54" s="134">
+        <v>28</v>
+      </c>
+      <c r="L54" s="86">
+        <f t="shared" ref="L54" si="45">K54/G54</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="M54" s="82">
+        <v>415</v>
+      </c>
+      <c r="P54" s="82"/>
+      <c r="Q54" s="82"/>
+      <c r="R54" s="134">
+        <v>25.4</v>
+      </c>
+      <c r="S54" s="82">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B55" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="82">
         <v>15</v>
       </c>
-      <c r="C21" s="82">
+      <c r="D55" s="82">
         <v>25.4</v>
       </c>
-      <c r="D21" s="82">
+      <c r="E55" s="82">
         <v>57</v>
       </c>
-      <c r="E21" s="82">
-        <v>30</v>
-      </c>
-      <c r="F21" s="86">
-        <f t="shared" ref="F21" si="10">D21/B21</f>
+      <c r="F55" s="82"/>
+      <c r="G55" s="82">
+        <f t="shared" ref="G55" si="46">E55/C55</f>
         <v>3.8</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="H55" s="82" t="s">
         <v>415</v>
       </c>
-      <c r="H21" s="82">
-        <v>90</v>
-      </c>
-      <c r="I21" s="84">
-        <f t="shared" ref="I21" si="11">H21*F21</f>
-        <v>342</v>
-      </c>
-      <c r="J21" s="82">
-        <v>80</v>
-      </c>
-      <c r="K21" s="86">
-        <f t="shared" ref="K21" si="12">J21/F21</f>
-        <v>21.05263157894737</v>
-      </c>
-      <c r="L21" s="82">
+      <c r="I55" s="134">
+        <v>160</v>
+      </c>
+      <c r="J55" s="134">
+        <f>I55*G55</f>
+        <v>608</v>
+      </c>
+      <c r="K55" s="134">
+        <v>28</v>
+      </c>
+      <c r="L55" s="86">
+        <f t="shared" ref="L55" si="47">K55/G55</f>
+        <v>7.3684210526315796</v>
+      </c>
+      <c r="M55" s="82">
+        <v>415</v>
+      </c>
+      <c r="P55" s="82"/>
+      <c r="Q55" s="82"/>
+      <c r="R55" s="134">
+        <v>25.4</v>
+      </c>
+      <c r="S55" s="82">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="G56" s="85"/>
+      <c r="L56" s="85"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="6">
+        <v>19</v>
+      </c>
+      <c r="D57" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E57" s="6">
+        <v>57</v>
+      </c>
+      <c r="G57" s="6">
+        <f>E57/C57</f>
+        <v>3</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I57" s="1">
+        <v>70</v>
+      </c>
+      <c r="J57" s="1">
+        <f>I57*G57</f>
+        <v>210</v>
+      </c>
+      <c r="K57" s="1">
+        <v>28</v>
+      </c>
+      <c r="L57" s="85">
+        <f t="shared" ref="L57" si="48">K57/G57</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="M57" s="6">
         <v>230</v>
       </c>
-      <c r="M21" s="82">
-        <v>20</v>
-      </c>
-      <c r="N21" s="82">
-        <f t="shared" si="9"/>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O21" s="6">
-        <v>61.09</v>
-      </c>
-      <c r="P21" s="6">
-        <v>230</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1">
         <v>25.4</v>
       </c>
-      <c r="R21" s="6">
+      <c r="S57" s="6">
         <v>18000</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="67" t="s">
-        <v>570</v>
-      </c>
-      <c r="B23" s="82">
-        <v>15</v>
-      </c>
-      <c r="C23" s="82">
-        <v>25.4</v>
-      </c>
-      <c r="D23" s="82">
-        <v>57</v>
-      </c>
-      <c r="E23" s="82">
-        <v>30</v>
-      </c>
-      <c r="F23" s="86">
-        <f t="shared" ref="F23:F24" si="13">D23/B23</f>
-        <v>3.8</v>
-      </c>
-      <c r="G23" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="H23" s="82">
-        <v>150</v>
-      </c>
-      <c r="I23" s="84">
-        <f>H23*F23</f>
-        <v>570</v>
-      </c>
-      <c r="J23" s="82">
-        <v>80</v>
-      </c>
-      <c r="K23" s="86">
-        <f t="shared" ref="K23" si="14">J23/F23</f>
-        <v>21.05263157894737</v>
-      </c>
-      <c r="L23" s="82">
-        <v>230</v>
-      </c>
-      <c r="M23" s="82">
-        <v>20</v>
-      </c>
-      <c r="N23" s="82">
-        <f t="shared" ref="N23:N24" si="15">M23/F23</f>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O23" s="6">
-        <v>91.42</v>
-      </c>
-      <c r="P23" s="6">
-        <v>288</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R23" s="6">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="67" t="s">
-        <v>573</v>
-      </c>
-      <c r="B24" s="82">
-        <v>12</v>
-      </c>
-      <c r="C24" s="82">
-        <v>25.4</v>
-      </c>
-      <c r="D24" s="82">
-        <v>57</v>
-      </c>
-      <c r="E24" s="82">
-        <v>40</v>
-      </c>
-      <c r="F24" s="86">
-        <f t="shared" si="13"/>
-        <v>4.75</v>
-      </c>
-      <c r="G24" s="82" t="s">
-        <v>421</v>
-      </c>
-      <c r="H24" s="82">
-        <v>150</v>
-      </c>
-      <c r="I24" s="84">
-        <f>H24*F24</f>
-        <v>712.5</v>
-      </c>
-      <c r="J24" s="82">
-        <v>80</v>
-      </c>
-      <c r="K24" s="86">
-        <f>J24/F24</f>
-        <v>16.842105263157894</v>
-      </c>
-      <c r="L24" s="82">
-        <v>230</v>
-      </c>
-      <c r="M24" s="82">
-        <v>20</v>
-      </c>
-      <c r="N24" s="82">
-        <f t="shared" si="15"/>
-        <v>4.2105263157894735</v>
-      </c>
-      <c r="O24" s="6">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="P24" s="6">
-        <v>288</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R24" s="6">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="M25" s="6"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>427</v>
-      </c>
-      <c r="B28" s="6">
-        <v>19</v>
-      </c>
-      <c r="C28" s="6">
-        <v>40</v>
-      </c>
-      <c r="D28" s="6">
-        <v>57</v>
-      </c>
-      <c r="E28" s="6">
-        <v>40</v>
-      </c>
-      <c r="F28" s="85">
-        <f t="shared" ref="F28:F33" si="16">D28/B28</f>
-        <v>3</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H28" s="6">
-        <v>300</v>
-      </c>
-      <c r="I28" s="83">
-        <f t="shared" ref="I28:I33" si="17">H28*F28</f>
-        <v>900</v>
-      </c>
-      <c r="J28" s="1">
-        <v>24</v>
-      </c>
-      <c r="K28" s="85">
-        <f t="shared" ref="K28:K33" si="18">J28/F28</f>
-        <v>8</v>
-      </c>
-      <c r="L28" s="6">
-        <v>415</v>
-      </c>
-      <c r="M28" s="82">
-        <v>20</v>
-      </c>
-      <c r="N28" s="82">
-        <f>M28/F28</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="O28" s="6">
-        <v>115.75</v>
-      </c>
-      <c r="P28" s="6">
-        <v>345.81</v>
-      </c>
-      <c r="Q28" s="6">
-        <f>C28</f>
-        <v>40</v>
-      </c>
-      <c r="R28" s="6">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A29" s="101" t="s">
-        <v>428</v>
-      </c>
-      <c r="B29" s="6">
-        <v>19</v>
-      </c>
-      <c r="C29" s="6">
-        <v>40</v>
-      </c>
-      <c r="D29" s="6">
-        <v>57</v>
-      </c>
-      <c r="E29" s="6">
-        <v>40</v>
-      </c>
-      <c r="F29" s="85">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="H29" s="6">
-        <v>400</v>
-      </c>
-      <c r="I29" s="83">
-        <f t="shared" si="17"/>
-        <v>1200</v>
-      </c>
-      <c r="J29" s="1">
-        <v>24</v>
-      </c>
-      <c r="K29" s="85">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="L29" s="6">
-        <v>415</v>
-      </c>
-      <c r="M29" s="82">
-        <v>20</v>
-      </c>
-      <c r="N29" s="82">
-        <f t="shared" ref="N29:N33" si="19">M29/F29</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="O29" s="6">
-        <v>192.91</v>
-      </c>
-      <c r="P29" s="6">
-        <v>461</v>
-      </c>
-      <c r="Q29" s="6">
-        <f t="shared" ref="Q29:Q33" si="20">C29</f>
-        <v>40</v>
-      </c>
-      <c r="R29" s="6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A30" s="101" t="s">
-        <v>527</v>
-      </c>
-      <c r="B30" s="6">
-        <v>15</v>
-      </c>
-      <c r="C30" s="6">
-        <v>40</v>
-      </c>
-      <c r="D30" s="6">
-        <v>57</v>
-      </c>
-      <c r="E30" s="6">
-        <v>40</v>
-      </c>
-      <c r="F30" s="85">
-        <f t="shared" ref="F30" si="21">D30/B30</f>
-        <v>3.8</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="H30" s="6">
-        <v>400</v>
-      </c>
-      <c r="I30" s="83">
-        <f t="shared" ref="I30" si="22">H30*F30</f>
-        <v>1520</v>
-      </c>
-      <c r="J30" s="1">
-        <v>24</v>
-      </c>
-      <c r="K30" s="85">
-        <f t="shared" ref="K30" si="23">J30/F30</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L30" s="6">
-        <v>415</v>
-      </c>
-      <c r="M30" s="82">
-        <v>20</v>
-      </c>
-      <c r="N30" s="82">
-        <f t="shared" si="19"/>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O30" s="6">
-        <v>192.91</v>
-      </c>
-      <c r="P30" s="6">
-        <v>461</v>
-      </c>
-      <c r="Q30" s="6">
-        <f t="shared" si="20"/>
-        <v>40</v>
-      </c>
-      <c r="R30" s="6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>430</v>
-      </c>
-      <c r="B31" s="6">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6">
-        <v>55</v>
-      </c>
-      <c r="D31" s="6">
-        <v>57</v>
-      </c>
-      <c r="E31" s="6">
-        <v>55</v>
-      </c>
-      <c r="F31" s="85">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="H31" s="6">
-        <v>600</v>
-      </c>
-      <c r="I31" s="83">
-        <f t="shared" si="17"/>
-        <v>1800</v>
-      </c>
-      <c r="J31" s="1">
-        <v>24</v>
-      </c>
-      <c r="K31" s="85">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="L31" s="6">
-        <v>415</v>
-      </c>
-      <c r="M31" s="82">
-        <v>20</v>
-      </c>
-      <c r="N31" s="82">
-        <f t="shared" si="19"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="O31" s="6">
-        <v>192.91</v>
-      </c>
-      <c r="P31" s="6">
-        <v>461</v>
-      </c>
-      <c r="Q31" s="6">
-        <f t="shared" si="20"/>
-        <v>55</v>
-      </c>
-      <c r="R31" s="6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>431</v>
-      </c>
-      <c r="B32" s="6">
-        <v>15</v>
-      </c>
-      <c r="C32" s="6">
-        <v>55</v>
-      </c>
-      <c r="D32" s="6">
-        <v>57</v>
-      </c>
-      <c r="E32" s="6">
-        <v>55</v>
-      </c>
-      <c r="F32" s="85">
-        <f t="shared" si="16"/>
-        <v>3.8</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="H32" s="6">
-        <v>800</v>
-      </c>
-      <c r="I32" s="83">
-        <f t="shared" si="17"/>
-        <v>3040</v>
-      </c>
-      <c r="J32" s="1">
-        <v>24</v>
-      </c>
-      <c r="K32" s="85">
-        <f t="shared" si="18"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L32" s="6">
-        <v>415</v>
-      </c>
-      <c r="M32" s="82">
-        <v>20</v>
-      </c>
-      <c r="N32" s="82">
-        <f t="shared" si="19"/>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O32" s="6">
-        <v>152.72</v>
-      </c>
-      <c r="P32" s="6">
-        <v>576</v>
-      </c>
-      <c r="Q32" s="6">
-        <f t="shared" si="20"/>
-        <v>55</v>
-      </c>
-      <c r="R32" s="6">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A33" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="B33" s="58">
-        <v>15</v>
-      </c>
-      <c r="C33" s="58">
-        <v>55</v>
-      </c>
-      <c r="D33" s="58">
-        <v>57</v>
-      </c>
-      <c r="E33" s="58">
-        <v>55</v>
-      </c>
-      <c r="F33" s="96">
-        <f t="shared" si="16"/>
-        <v>3.8</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>432</v>
-      </c>
-      <c r="H33" s="58">
-        <v>1200</v>
-      </c>
-      <c r="I33" s="97">
-        <f t="shared" si="17"/>
-        <v>4560</v>
-      </c>
-      <c r="J33" s="63">
-        <v>24</v>
-      </c>
-      <c r="K33" s="96">
-        <f t="shared" si="18"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L33" s="58" t="s">
-        <v>426</v>
-      </c>
-      <c r="M33" s="58">
-        <v>20</v>
-      </c>
-      <c r="N33" s="33">
-        <f t="shared" si="19"/>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O33" s="58">
-        <v>152.72</v>
-      </c>
-      <c r="P33" s="58">
-        <v>576</v>
-      </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="20"/>
-        <v>55</v>
-      </c>
-      <c r="R33" s="6">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>574</v>
-      </c>
-      <c r="B36" s="6">
-        <v>15</v>
-      </c>
-      <c r="C36" s="6">
-        <v>40</v>
-      </c>
-      <c r="D36" s="6">
-        <v>57</v>
-      </c>
-      <c r="E36" s="6">
-        <v>40</v>
-      </c>
-      <c r="F36" s="85">
-        <f t="shared" ref="F36" si="24">D36/B36</f>
-        <v>3.8</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H36" s="6">
-        <v>300</v>
-      </c>
-      <c r="I36" s="83">
-        <f t="shared" ref="I36" si="25">H36*F36</f>
-        <v>1140</v>
-      </c>
-      <c r="J36" s="1">
-        <v>40</v>
-      </c>
-      <c r="K36" s="85">
-        <f t="shared" ref="K36" si="26">J36/F36</f>
-        <v>10.526315789473685</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="M36" s="82">
-        <v>20</v>
-      </c>
-      <c r="N36" s="82">
-        <f>M36/F36</f>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O36" s="6">
-        <v>115.75</v>
-      </c>
-      <c r="P36" s="6">
-        <v>345.81</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>40</v>
-      </c>
-      <c r="R36" s="6">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>575</v>
-      </c>
-      <c r="B37" s="6">
-        <v>15</v>
-      </c>
-      <c r="C37" s="6">
-        <v>55</v>
-      </c>
-      <c r="D37" s="6">
-        <v>57</v>
-      </c>
-      <c r="E37" s="6">
-        <v>55</v>
-      </c>
-      <c r="F37" s="85">
-        <f t="shared" ref="F37" si="27">D37/B37</f>
-        <v>3.8</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H37" s="6">
-        <v>500</v>
-      </c>
-      <c r="I37" s="83">
-        <f t="shared" ref="I37" si="28">H37*F37</f>
-        <v>1900</v>
-      </c>
-      <c r="J37" s="1">
-        <v>80</v>
-      </c>
-      <c r="K37" s="85">
-        <f>J37/F37</f>
-        <v>21.05263157894737</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="M37" s="82">
-        <v>20</v>
-      </c>
-      <c r="N37" s="82">
-        <f>M37/F37</f>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O37" s="6">
-        <v>115.75</v>
-      </c>
-      <c r="P37" s="6">
-        <v>345.81</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>55</v>
-      </c>
-      <c r="R37" s="6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>576</v>
-      </c>
-      <c r="B38" s="6">
-        <v>15</v>
-      </c>
-      <c r="C38" s="6">
-        <v>55</v>
-      </c>
-      <c r="D38" s="6">
-        <v>57</v>
-      </c>
-      <c r="E38" s="6">
-        <v>55</v>
-      </c>
-      <c r="F38" s="85">
-        <f t="shared" ref="F38" si="29">D38/B38</f>
-        <v>3.8</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H38" s="6">
-        <v>800</v>
-      </c>
-      <c r="I38" s="83">
-        <f t="shared" ref="I38" si="30">H38*F38</f>
-        <v>3040</v>
-      </c>
-      <c r="J38" s="1">
-        <v>40</v>
-      </c>
-      <c r="K38" s="85">
-        <f>J38/F38</f>
-        <v>10.526315789473685</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="M38" s="82">
-        <v>20</v>
-      </c>
-      <c r="N38" s="82">
-        <f>M38/F38</f>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O38" s="6">
-        <v>115.75</v>
-      </c>
-      <c r="P38" s="6">
-        <v>345.81</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>55</v>
-      </c>
-      <c r="R38" s="6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>577</v>
-      </c>
-      <c r="B39" s="6">
-        <v>15</v>
-      </c>
-      <c r="C39" s="6">
-        <v>55</v>
-      </c>
-      <c r="D39" s="6">
-        <v>57</v>
-      </c>
-      <c r="E39" s="6">
-        <v>55</v>
-      </c>
-      <c r="F39" s="85">
-        <f t="shared" ref="F39" si="31">D39/B39</f>
-        <v>3.8</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H39" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I39" s="83">
-        <f t="shared" ref="I39" si="32">H39*F39</f>
-        <v>4560</v>
-      </c>
-      <c r="J39" s="1">
-        <v>40</v>
-      </c>
-      <c r="K39" s="85">
-        <f>J39/F39</f>
-        <v>10.526315789473685</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="M39" s="82">
-        <v>20</v>
-      </c>
-      <c r="N39" s="82">
-        <f>M39/F39</f>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="O39" s="6">
-        <v>115.75</v>
-      </c>
-      <c r="P39" s="6">
-        <v>345.81</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>55</v>
-      </c>
-      <c r="R39" s="6">
-        <v>95000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B42" s="6">
-        <v>11</v>
-      </c>
-      <c r="C42" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="D42" s="6">
-        <v>61</v>
-      </c>
-      <c r="F42" s="85">
-        <f>D42/B42</f>
-        <v>5.5454545454545459</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H42" s="1">
-        <v>20</v>
-      </c>
-      <c r="I42" s="32">
-        <f>H42*F42</f>
-        <v>110.90909090909092</v>
-      </c>
-      <c r="J42" s="1">
-        <v>34</v>
-      </c>
-      <c r="K42" s="85">
-        <f t="shared" ref="K42:K47" si="33">J42/F42</f>
-        <v>6.1311475409836058</v>
-      </c>
-      <c r="L42" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R42" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B43" s="6">
-        <v>9</v>
-      </c>
-      <c r="D43" s="6">
-        <v>50</v>
-      </c>
-      <c r="F43" s="85">
-        <f t="shared" ref="F43:F44" si="34">D43/B43</f>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="H43" s="1">
-        <v>62</v>
-      </c>
-      <c r="I43" s="32">
-        <f t="shared" ref="I43:I46" si="35">H43*F43</f>
-        <v>344.44444444444446</v>
-      </c>
-      <c r="J43" s="1">
-        <v>34</v>
-      </c>
-      <c r="K43" s="85">
-        <f t="shared" si="33"/>
-        <v>6.12</v>
-      </c>
-      <c r="L43" s="6">
-        <v>415</v>
-      </c>
-      <c r="R43" s="6">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B44" s="6">
-        <v>10</v>
-      </c>
-      <c r="D44" s="6">
-        <v>64</v>
-      </c>
-      <c r="F44" s="85">
-        <f t="shared" si="34"/>
-        <v>6.4</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="H44" s="1">
-        <v>95</v>
-      </c>
-      <c r="I44" s="32">
-        <f t="shared" si="35"/>
-        <v>608</v>
-      </c>
-      <c r="J44" s="1">
-        <v>22</v>
-      </c>
-      <c r="K44" s="85">
-        <f t="shared" si="33"/>
-        <v>3.4375</v>
-      </c>
-      <c r="L44" s="6">
-        <v>415</v>
-      </c>
-      <c r="R44" s="6">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="B45" s="6">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6">
-        <v>57</v>
-      </c>
-      <c r="F45" s="85">
-        <f t="shared" ref="F45:F47" si="36">D45/B45</f>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H45" s="6">
-        <v>128</v>
-      </c>
-      <c r="I45" s="32">
-        <f>H45*F45</f>
-        <v>810.66666666666663</v>
-      </c>
-      <c r="J45" s="6">
-        <v>22</v>
-      </c>
-      <c r="K45" s="85">
-        <f>J45/F45</f>
-        <v>3.4736842105263159</v>
-      </c>
-      <c r="L45" s="6">
-        <v>415</v>
-      </c>
-      <c r="R45" s="6">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B46" s="6">
-        <v>11</v>
-      </c>
-      <c r="D46" s="6">
-        <v>48</v>
-      </c>
-      <c r="F46" s="85">
-        <f t="shared" si="36"/>
-        <v>4.3636363636363633</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="H46" s="6">
-        <v>369</v>
-      </c>
-      <c r="I46" s="32">
-        <f t="shared" si="35"/>
-        <v>1610.181818181818</v>
-      </c>
-      <c r="J46" s="6">
-        <v>15</v>
-      </c>
-      <c r="K46" s="85">
-        <f t="shared" si="33"/>
-        <v>3.4375000000000004</v>
-      </c>
-      <c r="L46" s="6">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>437</v>
-      </c>
-      <c r="B47" s="6">
-        <v>14</v>
-      </c>
-      <c r="D47" s="6">
-        <v>72</v>
-      </c>
-      <c r="F47" s="85">
-        <f t="shared" si="36"/>
-        <v>5.1428571428571432</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H47" s="6">
-        <v>428</v>
-      </c>
-      <c r="I47" s="32">
-        <f>H47*F47</f>
-        <v>2201.1428571428573</v>
-      </c>
-      <c r="J47" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="K47" s="85">
-        <f t="shared" si="33"/>
-        <v>3.208333333333333</v>
-      </c>
-      <c r="L47" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R47" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B49" s="6">
-        <v>19</v>
-      </c>
-      <c r="C49" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="D49" s="6">
-        <v>57</v>
-      </c>
-      <c r="F49" s="6">
-        <f t="shared" ref="F49:F51" si="37">D49/B49</f>
-        <v>3</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H49" s="1">
-        <v>15</v>
-      </c>
-      <c r="I49" s="1">
-        <f>H49*F49</f>
-        <v>45</v>
-      </c>
-      <c r="J49" s="1">
-        <v>34</v>
-      </c>
-      <c r="K49" s="85">
-        <f>J49/F49</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="L49" s="6">
-        <v>230</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R49" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B50" s="6">
-        <v>19</v>
-      </c>
-      <c r="C50" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="D50" s="6">
-        <v>57</v>
-      </c>
-      <c r="F50" s="6">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H50" s="1">
-        <v>62</v>
-      </c>
-      <c r="I50" s="1">
-        <f>H50*F50</f>
-        <v>186</v>
-      </c>
-      <c r="J50" s="1">
-        <v>34</v>
-      </c>
-      <c r="K50" s="85">
-        <f>J50/F50</f>
-        <v>11.333333333333334</v>
-      </c>
-      <c r="L50" s="6">
-        <v>230</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R50" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B51" s="6">
-        <v>19</v>
-      </c>
-      <c r="C51" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="D51" s="6">
-        <v>57</v>
-      </c>
-      <c r="F51" s="6">
-        <f t="shared" si="37"/>
-        <v>3</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H51" s="1">
-        <v>95</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" ref="I51" si="38">H51*F51</f>
-        <v>285</v>
-      </c>
-      <c r="J51" s="1">
-        <v>22</v>
-      </c>
-      <c r="K51" s="85">
-        <f t="shared" ref="K51" si="39">J51/F51</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="L51" s="6">
-        <v>230</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R51" s="6">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F52" s="85"/>
-      <c r="K52" s="85"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A53" s="67" t="s">
-        <v>568</v>
-      </c>
-      <c r="B53" s="82">
-        <v>19</v>
-      </c>
-      <c r="C53" s="82">
-        <v>25.4</v>
-      </c>
-      <c r="D53" s="82">
-        <v>57</v>
-      </c>
-      <c r="E53" s="82"/>
-      <c r="F53" s="82">
-        <f t="shared" ref="F53" si="40">D53/B53</f>
-        <v>3</v>
-      </c>
-      <c r="G53" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="H53" s="134">
-        <v>100</v>
-      </c>
-      <c r="I53" s="134">
-        <f>H53*F53</f>
-        <v>300</v>
-      </c>
-      <c r="J53" s="134">
-        <v>28</v>
-      </c>
-      <c r="K53" s="86">
-        <f t="shared" ref="K53" si="41">J53/F53</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="L53" s="82">
-        <v>415</v>
-      </c>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="82"/>
-      <c r="P53" s="82"/>
-      <c r="Q53" s="134">
-        <v>25.4</v>
-      </c>
-      <c r="R53" s="82">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A54" s="67" t="s">
-        <v>569</v>
-      </c>
-      <c r="B54" s="82">
-        <v>15</v>
-      </c>
-      <c r="C54" s="82">
-        <v>25.4</v>
-      </c>
-      <c r="D54" s="82">
-        <v>57</v>
-      </c>
-      <c r="E54" s="82"/>
-      <c r="F54" s="82">
-        <f t="shared" ref="F54" si="42">D54/B54</f>
-        <v>3.8</v>
-      </c>
-      <c r="G54" s="82" t="s">
-        <v>415</v>
-      </c>
-      <c r="H54" s="134">
-        <v>160</v>
-      </c>
-      <c r="I54" s="134">
-        <f>H54*F54</f>
-        <v>608</v>
-      </c>
-      <c r="J54" s="134">
-        <v>28</v>
-      </c>
-      <c r="K54" s="86">
-        <f t="shared" ref="K54" si="43">J54/F54</f>
-        <v>7.3684210526315796</v>
-      </c>
-      <c r="L54" s="82">
-        <v>415</v>
-      </c>
-      <c r="M54" s="67"/>
-      <c r="N54" s="67"/>
-      <c r="O54" s="82"/>
-      <c r="P54" s="82"/>
-      <c r="Q54" s="134">
-        <v>25.4</v>
-      </c>
-      <c r="R54" s="82">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="F55" s="85"/>
-      <c r="K55" s="85"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B56" s="6">
-        <v>19</v>
-      </c>
-      <c r="C56" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="D56" s="6">
-        <v>57</v>
-      </c>
-      <c r="F56" s="6">
-        <f>D56/B56</f>
-        <v>3</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="H56" s="1">
-        <v>70</v>
-      </c>
-      <c r="I56" s="1">
-        <f>H56*F56</f>
-        <v>210</v>
-      </c>
-      <c r="J56" s="1">
-        <v>28</v>
-      </c>
-      <c r="K56" s="85">
-        <f t="shared" ref="K56" si="44">J56/F56</f>
-        <v>9.3333333333333339</v>
-      </c>
-      <c r="L56" s="6">
-        <v>230</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="R56" s="6">
-        <v>18000</v>
-      </c>
-      <c r="T56" s="6"/>
-      <c r="W56" s="92"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>440</v>
-      </c>
-      <c r="B58" s="6">
-        <v>15</v>
-      </c>
-      <c r="D58" s="6">
-        <v>57</v>
-      </c>
-      <c r="F58" s="6">
-        <f t="shared" ref="F58:F62" si="45">D58/B58</f>
-        <v>3.8</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="H58" s="6">
-        <v>200</v>
-      </c>
-      <c r="I58" s="1">
-        <f t="shared" ref="I58:I59" si="46">H58*F58</f>
-        <v>760</v>
-      </c>
-      <c r="J58" s="6">
-        <v>24</v>
-      </c>
-      <c r="K58" s="85">
-        <f t="shared" ref="K58:K59" si="47">J58/F58</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L58" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>40</v>
-      </c>
-      <c r="R58" s="6">
-        <v>22400</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>441</v>
-      </c>
-      <c r="B59" s="6">
-        <v>15</v>
-      </c>
-      <c r="D59" s="6">
-        <v>57</v>
-      </c>
-      <c r="F59" s="6">
-        <f t="shared" si="45"/>
-        <v>3.8</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H59" s="6">
-        <v>300</v>
-      </c>
-      <c r="I59" s="1">
-        <f t="shared" si="46"/>
-        <v>1140</v>
-      </c>
-      <c r="J59" s="6">
-        <v>24</v>
-      </c>
-      <c r="K59" s="85">
-        <f t="shared" si="47"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L59" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q59" s="6">
-        <v>40</v>
-      </c>
-      <c r="R59" s="6">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>442</v>
-      </c>
-      <c r="B60" s="6">
-        <v>15</v>
-      </c>
-      <c r="D60" s="6">
-        <v>57</v>
-      </c>
-      <c r="F60" s="6">
-        <f>D60/B60</f>
-        <v>3.8</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H60" s="6">
-        <v>400</v>
-      </c>
-      <c r="I60" s="1">
-        <f>H60*F60</f>
-        <v>1520</v>
-      </c>
-      <c r="J60" s="6">
-        <v>24</v>
-      </c>
-      <c r="K60" s="85">
-        <f>J60/F60</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L60" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>40</v>
-      </c>
-      <c r="R60" s="6">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>443</v>
-      </c>
-      <c r="B61" s="6">
-        <v>15</v>
-      </c>
-      <c r="D61" s="6">
-        <v>57</v>
-      </c>
-      <c r="F61" s="6">
-        <f t="shared" si="45"/>
-        <v>3.8</v>
-      </c>
-      <c r="H61" s="6">
-        <v>600</v>
-      </c>
-      <c r="I61" s="1">
-        <f t="shared" ref="I61:I63" si="48">H61*F61</f>
-        <v>2280</v>
-      </c>
-      <c r="J61" s="6">
-        <v>24</v>
-      </c>
-      <c r="K61" s="85">
-        <f t="shared" ref="K61:K63" si="49">J61/F61</f>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L61" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>444</v>
-      </c>
-      <c r="B62" s="6">
-        <v>15</v>
-      </c>
-      <c r="D62" s="6">
-        <v>57</v>
-      </c>
-      <c r="F62" s="6">
-        <f t="shared" si="45"/>
-        <v>3.8</v>
-      </c>
-      <c r="H62" s="6">
-        <v>800</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="48"/>
-        <v>3040</v>
-      </c>
-      <c r="J62" s="6">
-        <v>24</v>
-      </c>
-      <c r="K62" s="85">
-        <f t="shared" si="49"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L62" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>445</v>
-      </c>
-      <c r="B63" s="6">
-        <v>15</v>
-      </c>
-      <c r="D63" s="6">
-        <v>57</v>
-      </c>
-      <c r="F63" s="6">
-        <f>D63/B63</f>
-        <v>3.8</v>
-      </c>
-      <c r="H63" s="6">
-        <v>1200</v>
-      </c>
-      <c r="I63" s="1">
-        <f t="shared" si="48"/>
-        <v>4560</v>
-      </c>
-      <c r="J63" s="6">
-        <v>24</v>
-      </c>
-      <c r="K63" s="85">
-        <f t="shared" si="49"/>
-        <v>6.3157894736842106</v>
-      </c>
-      <c r="L63" s="6">
-        <v>415</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>55</v>
-      </c>
+      <c r="U57" s="6"/>
+      <c r="X57" s="92"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -19914,34 +19814,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -20060,7 +19960,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F5" s="105">
         <v>22400</v>
@@ -20094,7 +19994,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F6" s="105">
         <v>22400</v>
@@ -20128,7 +20028,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F7" s="6">
         <v>29000</v>
@@ -20162,7 +20062,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F8" s="6">
         <v>29000</v>
@@ -20196,7 +20096,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F9" s="6">
         <v>29000</v>
@@ -20230,7 +20130,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F10" s="6">
         <v>60000</v>
@@ -20263,7 +20163,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F11" s="6">
         <v>95000</v>
@@ -20297,7 +20197,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20312,27 +20212,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -20350,7 +20250,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B4" s="6">
         <v>40</v>
@@ -20371,7 +20271,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B6" s="6">
         <v>30</v>
@@ -20387,12 +20287,12 @@
         <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B7" s="6">
         <v>40</v>
@@ -20408,12 +20308,12 @@
         <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B8" s="6">
         <v>55</v>
@@ -20429,12 +20329,12 @@
         <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B9" s="6">
         <v>60</v>
@@ -20450,7 +20350,7 @@
         <v>340</v>
       </c>
       <c r="F9" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -20458,7 +20358,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -20476,8 +20376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0484E2-9992-4491-920F-B8AE57D8A0EE}">
   <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20497,28 +20397,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E1" s="45" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F1" s="46" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>269</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I1" s="49" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>199</v>
@@ -20526,7 +20426,7 @@
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B2" s="98">
         <v>95</v>
@@ -20538,10 +20438,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -20549,7 +20449,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B3" s="98">
         <v>147</v>
@@ -20561,10 +20461,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G3" s="98" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -20572,7 +20472,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B4" s="98">
         <v>332</v>
@@ -20584,7 +20484,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F4" s="98">
         <v>480</v>
@@ -20598,7 +20498,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B5" s="98">
         <v>552</v>
@@ -20610,7 +20510,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G5" s="98">
         <v>40</v>
@@ -20621,7 +20521,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="113" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B6" s="114">
         <v>800</v>
@@ -20633,7 +20533,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -20645,7 +20545,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="113" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B7" s="114">
         <v>1200</v>
@@ -20657,7 +20557,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -20669,7 +20569,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="113" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B8" s="114">
         <v>2200</v>
@@ -20681,7 +20581,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -20693,7 +20593,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="123" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B9" s="124">
         <v>3600</v>
@@ -20705,7 +20605,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="58">
@@ -20716,12 +20616,12 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="99" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B10" s="98">
         <v>130</v>
@@ -20736,7 +20636,7 @@
         <v>259</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -20744,7 +20644,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="99" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B11" s="98">
         <v>145</v>
@@ -20762,7 +20662,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -20778,7 +20678,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P24" s="113" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="Q24" s="114">
         <v>400</v>
@@ -20790,7 +20690,7 @@
         <v>24</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6">
@@ -20802,7 +20702,7 @@
     </row>
     <row r="25" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P25" s="113" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q25" s="114">
         <v>400</v>
@@ -20814,7 +20714,7 @@
         <v>24</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6">
@@ -20826,7 +20726,7 @@
     </row>
     <row r="26" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P26" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="Q26" s="98">
         <v>599</v>
@@ -20838,7 +20738,7 @@
         <v>20</v>
       </c>
       <c r="T26" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="V26" s="98">
         <v>40</v>
@@ -20849,7 +20749,7 @@
     </row>
     <row r="27" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q27" s="98">
         <v>1063</v>
@@ -20861,7 +20761,7 @@
         <v>18</v>
       </c>
       <c r="T27" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="V27" s="98">
         <v>50</v>
@@ -20872,7 +20772,7 @@
     </row>
     <row r="28" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P28" s="99" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="98">
         <v>1943</v>
@@ -20884,7 +20784,7 @@
         <v>12</v>
       </c>
       <c r="T28" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="V28" s="98">
         <v>65</v>
@@ -20895,7 +20795,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P29" s="99" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Q29" s="98">
         <v>3503</v>
@@ -20907,7 +20807,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="V29" s="98">
         <v>80</v>
@@ -20922,7 +20822,7 @@
     <row r="31" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J31" s="8"/>
       <c r="P31" s="99" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="Q31" s="98">
         <v>332</v>
@@ -20948,7 +20848,7 @@
     </row>
     <row r="32" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P32" s="100" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="Q32" s="98">
         <v>542</v>
@@ -20972,7 +20872,7 @@
     </row>
     <row r="33" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P33" s="99" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Q33" s="98">
         <v>1000</v>
@@ -20995,7 +20895,7 @@
     </row>
     <row r="34" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P34" s="99" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="98">
         <v>1063</v>
@@ -21015,7 +20915,7 @@
     </row>
     <row r="35" spans="16:23" x14ac:dyDescent="0.35">
       <c r="P35" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q35" s="98">
         <v>145</v>
@@ -21033,7 +20933,7 @@
         <v>200</v>
       </c>
       <c r="V35" s="98" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="W35">
         <v>10</v>
@@ -21070,22 +20970,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -21098,7 +20998,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -21122,7 +21022,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -21146,7 +21046,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -21170,7 +21070,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -21194,7 +21094,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B7" s="6">
         <v>300</v>
@@ -21218,7 +21118,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B8" s="6">
         <v>350</v>
@@ -21242,7 +21142,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B9" s="6">
         <v>400</v>
@@ -21266,7 +21166,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B10" s="6">
         <v>450</v>
@@ -21298,7 +21198,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -21322,7 +21222,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -21346,7 +21246,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -21370,7 +21270,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B16" s="6">
         <v>450</v>
@@ -21394,7 +21294,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B17" s="6">
         <v>500</v>
@@ -21418,7 +21318,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B18" s="6">
         <v>550</v>
@@ -21442,7 +21342,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="57" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B19" s="58">
         <v>600</v>
@@ -21469,7 +21369,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="34" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B21" s="6">
         <v>135</v>
@@ -21490,7 +21390,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="34" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B22" s="6">
         <v>180</v>
@@ -21511,7 +21411,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B23" s="6">
         <v>205</v>
@@ -21532,7 +21432,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B24" s="6">
         <v>250</v>
@@ -21553,7 +21453,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B25" s="6">
         <v>300</v>
@@ -21574,7 +21474,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B26" s="6">
         <v>350</v>
@@ -21619,7 +21519,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -21638,7 +21538,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B3">
         <v>1875</v>
@@ -21669,19 +21569,19 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D3" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E3" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -21756,13 +21656,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="P18" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q18" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
@@ -21771,18 +21671,18 @@
         <v>0.4206302983239496</v>
       </c>
       <c r="O19" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P19" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="O20" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="P20" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -21812,33 +21712,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="137" t="s">
-        <v>591</v>
-      </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
+      <c r="A2" s="142" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -21850,7 +21750,7 @@
         <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C5" s="6">
         <v>1000</v>
@@ -21874,7 +21774,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C6" s="6">
         <v>1000</v>
@@ -21894,7 +21794,7 @@
         <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C7" s="6">
         <v>1000</v>
@@ -21918,7 +21818,7 @@
         <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C8" s="6">
         <v>1000</v>
@@ -21942,7 +21842,7 @@
         <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C9" s="6">
         <v>1000</v>
@@ -21966,7 +21866,7 @@
         <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C11" s="6">
         <v>1000</v>
@@ -21986,7 +21886,7 @@
         <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C12" s="6">
         <v>1000</v>
@@ -22006,7 +21906,7 @@
         <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C13" s="6">
         <v>1000</v>
@@ -22026,7 +21926,7 @@
         <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C14" s="6">
         <v>1000</v>
@@ -22046,7 +21946,7 @@
         <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C15" s="6">
         <v>1000</v>
@@ -22066,7 +21966,7 @@
         <v>145</v>
       </c>
       <c r="B17" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C17" s="6">
         <v>1000</v>
@@ -22086,7 +21986,7 @@
         <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C18" s="6">
         <v>1000</v>
@@ -22106,7 +22006,7 @@
         <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C19" s="6">
         <v>1000</v>
@@ -22126,7 +22026,7 @@
         <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C20" s="6">
         <v>1000</v>
@@ -22146,7 +22046,7 @@
         <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="C21" s="6">
         <v>1000</v>
@@ -22602,9 +22502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E91FF3-79AA-48A9-9F88-C48DFFEF60AE}">
   <dimension ref="A1:S211"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22703,7 +22603,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="5">
-        <v>6200</v>
+        <v>4600</v>
       </c>
       <c r="I2" s="50">
         <v>100</v>
@@ -22797,7 +22697,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="I4" s="50">
         <v>100</v>
@@ -22842,7 +22742,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="22">
-        <v>8200</v>
+        <v>10000</v>
       </c>
       <c r="I5" s="51">
         <v>100</v>
@@ -22887,7 +22787,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="5">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="I6" s="50">
         <v>100</v>
@@ -22977,7 +22877,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="5">
-        <v>6200</v>
+        <v>4000</v>
       </c>
       <c r="I8" s="50">
         <v>100</v>
@@ -23067,7 +22967,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="5">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="I10" s="50">
         <v>100</v>
@@ -23157,7 +23057,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="5">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="I12" s="50">
         <v>100</v>
@@ -23247,7 +23147,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="5">
-        <v>6100</v>
+        <v>4000</v>
       </c>
       <c r="I14" s="50">
         <v>100</v>
@@ -23337,7 +23237,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="5">
-        <v>8200</v>
+        <v>4000</v>
       </c>
       <c r="I16" s="50">
         <v>100</v>
@@ -24989,7 +24889,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="110" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B11" s="25">
         <v>0.95</v>
@@ -25131,7 +25031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0CC1CC-64D0-4115-AE5E-AF959282EFAA}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -25289,7 +25189,7 @@
         <v>206</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C7" s="6">
         <v>82</v>
@@ -25311,15 +25211,15 @@
         <v>169</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="C8" s="6">
         <v>78</v>
@@ -25341,7 +25241,7 @@
         <v>153</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -25403,7 +25303,7 @@
         <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C13" s="6">
         <v>70</v>
@@ -25481,8 +25381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DB295D-7881-4D5C-8380-F1C84A7F5934}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25542,7 +25442,7 @@
         <v>225</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
@@ -26024,13 +25924,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="116" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B13" s="116" t="s">
         <v>233</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D13" s="117">
         <v>273.05</v>
@@ -26066,10 +25966,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438F573-1137-4940-BD62-685CBD871B42}">
-  <dimension ref="A2:J54"/>
+  <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26086,13 +25986,13 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>251</v>
@@ -26113,7 +26013,7 @@
         <v>256</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -26127,574 +26027,296 @@
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B27" s="6">
         <f>Axles!F9</f>
         <v>158.4</v>
       </c>
-      <c r="C4" s="121">
-        <f t="shared" ref="C4:C16" si="0">(D4-B4)/2</f>
+      <c r="C27" s="121">
+        <f t="shared" ref="C27:C39" si="0">(D27-B27)/2</f>
         <v>-1.7000000000000028</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D27" s="6">
         <v>155</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F27" s="6">
         <v>40</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C5" s="121">
-        <f t="shared" si="0"/>
-        <v>-1.7000000000000028</v>
-      </c>
-      <c r="D5" s="6">
-        <v>155</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C6" s="121">
-        <f t="shared" si="0"/>
-        <v>-1.7000000000000028</v>
-      </c>
-      <c r="D6" s="6">
-        <v>155</v>
-      </c>
-      <c r="F6" s="6">
-        <v>55</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C7" s="121">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D7" s="6">
-        <v>158</v>
-      </c>
-      <c r="F7" s="6">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C8" s="121">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D8" s="6">
-        <v>158</v>
-      </c>
-      <c r="F8" s="6">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C9" s="121">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D9" s="6">
-        <v>158</v>
-      </c>
-      <c r="F9" s="6">
-        <v>40</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C10" s="121">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D10" s="6">
-        <v>158</v>
-      </c>
-      <c r="F10" s="6">
-        <v>45</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C11" s="121">
-        <f t="shared" si="0"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D11" s="6">
-        <v>158</v>
-      </c>
-      <c r="F11" s="6">
-        <v>55</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C12" s="121">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="D12" s="6">
-        <v>161</v>
-      </c>
-      <c r="F12" s="6">
-        <v>30</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B13" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C13" s="121">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="D13" s="6">
-        <v>161</v>
-      </c>
-      <c r="F13" s="6">
-        <v>35</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C14" s="121">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="D14" s="6">
-        <v>161</v>
-      </c>
-      <c r="F14" s="6">
-        <v>40</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B15" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C15" s="121">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="D15" s="6">
-        <v>161</v>
-      </c>
-      <c r="F15" s="6">
-        <v>45</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="6">
-        <f>Axles!F9</f>
-        <v>158.4</v>
-      </c>
-      <c r="C16" s="121">
-        <f t="shared" si="0"/>
-        <v>1.2999999999999972</v>
-      </c>
-      <c r="D16" s="6">
-        <v>161</v>
-      </c>
-      <c r="F16" s="6">
-        <v>55</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="121">
-        <f>Axles!F10</f>
-        <v>180.4</v>
-      </c>
-      <c r="C17" s="121">
-        <f>(D17-B17)/2</f>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D17" s="6">
-        <v>180</v>
-      </c>
-      <c r="F17" s="6">
-        <v>40</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="B18" s="121">
-        <f>Axles!F10</f>
-        <v>180.4</v>
-      </c>
-      <c r="C18" s="121">
-        <f t="shared" ref="C18:C34" si="1">(D18-B18)/2</f>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D18" s="6">
-        <v>180</v>
-      </c>
-      <c r="F18" s="6">
-        <v>45</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" s="121">
-        <f>Axles!F10</f>
-        <v>180.4</v>
-      </c>
-      <c r="C19" s="121">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D19" s="6">
-        <v>180</v>
-      </c>
-      <c r="F19" s="6">
-        <v>50</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="B20" s="121">
-        <f>Axles!F10</f>
-        <v>180.4</v>
-      </c>
-      <c r="C20" s="121">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D20" s="6">
-        <v>180</v>
-      </c>
-      <c r="F20" s="6">
-        <v>55</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="121" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="121">
-        <f>Axles!F10</f>
-        <v>180.4</v>
-      </c>
-      <c r="C21" s="121">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D21" s="6">
-        <v>180</v>
-      </c>
-      <c r="F21" s="6">
-        <v>60</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
-      </c>
-      <c r="C22" s="121">
-        <f t="shared" si="1"/>
-        <v>-3.7000000000000028</v>
-      </c>
-      <c r="D22" s="6">
-        <v>199</v>
-      </c>
-      <c r="F22" s="6">
-        <v>50</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
-      </c>
-      <c r="C23" s="121">
-        <f t="shared" si="1"/>
-        <v>-3.7000000000000028</v>
-      </c>
-      <c r="D23" s="6">
-        <v>199</v>
-      </c>
-      <c r="F23" s="6">
-        <v>55</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B24" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
-      </c>
-      <c r="C24" s="121">
-        <f t="shared" si="1"/>
-        <v>-3.7000000000000028</v>
-      </c>
-      <c r="D24" s="6">
-        <v>199</v>
-      </c>
-      <c r="F24" s="6">
-        <v>60</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
-      </c>
-      <c r="C25" s="121">
-        <f t="shared" si="1"/>
-        <v>-1.7000000000000028</v>
-      </c>
-      <c r="D25" s="6">
-        <v>203</v>
-      </c>
-      <c r="F25" s="6">
-        <v>55</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
-      </c>
-      <c r="C26" s="121">
-        <f t="shared" si="1"/>
-        <v>-1.7000000000000028</v>
-      </c>
-      <c r="D26" s="6">
-        <v>203</v>
-      </c>
-      <c r="F26" s="6">
-        <v>60</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B27" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
-      </c>
-      <c r="C27" s="121">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
-      </c>
-      <c r="D27" s="6">
-        <v>206</v>
-      </c>
-      <c r="F27" s="6">
-        <v>30</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -26703,22 +26325,22 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B28" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
+      <c r="A28" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C28" s="121">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000028</v>
       </c>
       <c r="D28" s="6">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="F28" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
@@ -26727,22 +26349,22 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
+      <c r="A29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C29" s="121">
-        <f t="shared" si="1"/>
-        <v>-0.20000000000000284</v>
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000028</v>
       </c>
       <c r="D29" s="6">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="F29" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -26751,22 +26373,22 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B30" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
+      <c r="A30" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C30" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="D30" s="6">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="F30" s="6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -26775,22 +26397,22 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="121">
-        <f>Axles!F11</f>
-        <v>206.4</v>
+      <c r="A31" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C31" s="121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.20000000000000284</v>
       </c>
       <c r="D31" s="6">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="F31" s="6">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -26799,22 +26421,22 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B32" s="1">
-        <f>Axles!F12</f>
-        <v>261.27000000000004</v>
+      <c r="A32" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C32" s="121">
-        <f t="shared" si="1"/>
-        <v>-2.1350000000000193</v>
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="D32" s="6">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="F32" s="6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -26823,22 +26445,22 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" s="1">
-        <f>Axles!F12</f>
-        <v>261.27000000000004</v>
+      <c r="A33" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C33" s="121">
-        <f t="shared" si="1"/>
-        <v>-1.1350000000000193</v>
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="D33" s="6">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="F33" s="6">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -26847,22 +26469,22 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B34" s="1">
-        <f>Axles!F12</f>
-        <v>261.27000000000004</v>
+      <c r="A34" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
       </c>
       <c r="C34" s="121">
-        <f t="shared" si="1"/>
-        <v>-1.1350000000000193</v>
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="D34" s="6">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c r="F34" s="6">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -26871,363 +26493,915 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
+      <c r="A35" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B35" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
+      </c>
+      <c r="C35" s="121">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="D35" s="6">
+        <v>161</v>
+      </c>
+      <c r="F35" s="6">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="B36" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
+      </c>
+      <c r="C36" s="121">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
       <c r="D36" s="6">
-        <v>93</v>
-      </c>
-      <c r="E36" s="6">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F36" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="B37" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
+      </c>
+      <c r="C37" s="121">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
       <c r="D37" s="6">
-        <v>97</v>
-      </c>
-      <c r="E37" s="6">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="F37" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="A38" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
+      </c>
+      <c r="C38" s="121">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
       <c r="D38" s="6">
-        <v>120</v>
-      </c>
-      <c r="E38" s="6">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F38" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="A39" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="6">
+        <f>Axles!F9</f>
+        <v>158.4</v>
+      </c>
+      <c r="C39" s="121">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999972</v>
+      </c>
       <c r="D39" s="6">
-        <v>128</v>
-      </c>
-      <c r="E39" s="6">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="F39" s="6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="A40" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B40" s="121">
+        <f>Axles!F10</f>
+        <v>180.4</v>
+      </c>
+      <c r="C40" s="121">
+        <f>(D40-B40)/2</f>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D40" s="6">
-        <v>133</v>
-      </c>
-      <c r="E40" s="6">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F40" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="A41" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B41" s="121">
+        <f>Axles!F10</f>
+        <v>180.4</v>
+      </c>
+      <c r="C41" s="121">
+        <f t="shared" ref="C41:C57" si="1">(D41-B41)/2</f>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D41" s="6">
-        <v>157</v>
-      </c>
-      <c r="E41" s="6">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F41" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="A42" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" s="121">
+        <f>Axles!F10</f>
+        <v>180.4</v>
+      </c>
+      <c r="C42" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D42" s="6">
-        <v>93</v>
-      </c>
-      <c r="E42" s="6">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F42" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="A43" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="121">
+        <f>Axles!F10</f>
+        <v>180.4</v>
+      </c>
+      <c r="C43" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D43" s="6">
-        <v>97</v>
-      </c>
-      <c r="E43" s="6">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="F43" s="6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="A44" s="121" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="121">
+        <f>Axles!F10</f>
+        <v>180.4</v>
+      </c>
+      <c r="C44" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D44" s="6">
-        <v>120</v>
-      </c>
-      <c r="E44" s="6">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="F44" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="A45" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C45" s="121">
+        <f t="shared" si="1"/>
+        <v>-3.7000000000000028</v>
+      </c>
       <c r="D45" s="6">
-        <v>128</v>
-      </c>
-      <c r="E45" s="6">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="F45" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="A46" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C46" s="121">
+        <f t="shared" si="1"/>
+        <v>-3.7000000000000028</v>
+      </c>
       <c r="D46" s="6">
-        <v>133</v>
-      </c>
-      <c r="E46" s="6">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="F46" s="6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C47" s="121">
+        <f t="shared" si="1"/>
+        <v>-3.7000000000000028</v>
+      </c>
       <c r="D47" s="6">
-        <v>157</v>
-      </c>
-      <c r="E47" s="6">
-        <v>6</v>
+        <v>199</v>
       </c>
       <c r="F47" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="A48" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B48" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C48" s="121">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000028</v>
+      </c>
       <c r="D48" s="6">
-        <v>182</v>
-      </c>
-      <c r="E48" s="6">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="F48" s="6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="A49" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C49" s="121">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000028</v>
+      </c>
       <c r="D49" s="6">
-        <v>133</v>
-      </c>
-      <c r="E49" s="6">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="F49" s="6">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C50" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D50" s="6">
-        <v>157</v>
-      </c>
-      <c r="E50" s="6">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F50" s="6">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C51" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D51" s="6">
-        <v>182</v>
-      </c>
-      <c r="E51" s="6">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="F51" s="6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="A52" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C52" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="D52" s="6">
+        <v>206</v>
+      </c>
+      <c r="F52" s="6">
+        <v>50</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="A53" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C53" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="D53" s="6">
+        <v>206</v>
+      </c>
+      <c r="F53" s="6">
+        <v>55</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="A54" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" s="121">
+        <f>Axles!F11</f>
+        <v>206.4</v>
+      </c>
+      <c r="C54" s="121">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000000284</v>
+      </c>
       <c r="D54" s="6">
+        <v>206</v>
+      </c>
+      <c r="F54" s="6">
+        <v>60</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B55" s="1">
+        <f>Axles!F12</f>
+        <v>261.27000000000004</v>
+      </c>
+      <c r="C55" s="121">
+        <f t="shared" si="1"/>
+        <v>-2.1350000000000193</v>
+      </c>
+      <c r="D55" s="6">
+        <v>257</v>
+      </c>
+      <c r="F55" s="6">
+        <v>55</v>
+      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B56" s="1">
+        <f>Axles!F12</f>
+        <v>261.27000000000004</v>
+      </c>
+      <c r="C56" s="121">
+        <f t="shared" si="1"/>
+        <v>-1.1350000000000193</v>
+      </c>
+      <c r="D56" s="6">
+        <v>259</v>
+      </c>
+      <c r="F56" s="6">
+        <v>50</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="1">
+        <f>Axles!F12</f>
+        <v>261.27000000000004</v>
+      </c>
+      <c r="C57" s="121">
+        <f t="shared" si="1"/>
+        <v>-1.1350000000000193</v>
+      </c>
+      <c r="D57" s="6">
+        <v>259</v>
+      </c>
+      <c r="F57" s="6">
+        <v>60</v>
+      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="72"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72"/>
+      <c r="I58" s="72"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6">
+        <v>93</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="6">
+        <v>30</v>
+      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6">
+        <v>97</v>
+      </c>
+      <c r="E60" s="6">
+        <v>4</v>
+      </c>
+      <c r="F60" s="6">
+        <v>30</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6">
+        <v>120</v>
+      </c>
+      <c r="E61" s="6">
+        <v>5</v>
+      </c>
+      <c r="F61" s="6">
+        <v>30</v>
+      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6">
+        <v>128</v>
+      </c>
+      <c r="E62" s="6">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6">
+        <v>30</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6">
+        <v>133</v>
+      </c>
+      <c r="E63" s="6">
+        <v>5</v>
+      </c>
+      <c r="F63" s="6">
+        <v>30</v>
+      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6">
+        <v>157</v>
+      </c>
+      <c r="E64" s="6">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6">
+        <v>30</v>
+      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6">
+        <v>93</v>
+      </c>
+      <c r="E65" s="6">
+        <v>4</v>
+      </c>
+      <c r="F65" s="6">
+        <v>40</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6">
+        <v>97</v>
+      </c>
+      <c r="E66" s="6">
+        <v>4</v>
+      </c>
+      <c r="F66" s="6">
+        <v>40</v>
+      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6">
+        <v>120</v>
+      </c>
+      <c r="E67" s="6">
+        <v>5</v>
+      </c>
+      <c r="F67" s="6">
+        <v>40</v>
+      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6">
+        <v>128</v>
+      </c>
+      <c r="E68" s="6">
+        <v>5</v>
+      </c>
+      <c r="F68" s="6">
+        <v>40</v>
+      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6">
+        <v>133</v>
+      </c>
+      <c r="E69" s="6">
+        <v>5</v>
+      </c>
+      <c r="F69" s="6">
+        <v>40</v>
+      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6">
+        <v>157</v>
+      </c>
+      <c r="E70" s="6">
+        <v>6</v>
+      </c>
+      <c r="F70" s="6">
+        <v>40</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6">
+        <v>182</v>
+      </c>
+      <c r="E71" s="6">
+        <v>6</v>
+      </c>
+      <c r="F71" s="6">
+        <v>40</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6">
+        <v>133</v>
+      </c>
+      <c r="E72" s="6">
+        <v>8</v>
+      </c>
+      <c r="F72" s="6">
+        <v>55</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6">
+        <v>157</v>
+      </c>
+      <c r="E73" s="6">
+        <v>8</v>
+      </c>
+      <c r="F73" s="6">
+        <v>55</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6">
+        <v>182</v>
+      </c>
+      <c r="E74" s="6">
+        <v>8</v>
+      </c>
+      <c r="F74" s="6">
+        <v>55</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6">
         <v>94</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F77" s="6">
         <v>30</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>258</v>
       </c>
     </row>

--- a/Calculation Data.xlsx
+++ b/Calculation Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://securitywindowshutt-my.sharepoint.com/personal/rob_hyrons_swsuk_co_uk/Documents/SWS product dev/Projects/P190 - Industrial EVO/Calculators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2915" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46A1F9D9-8823-41E7-AA81-485ED6CA3E41}"/>
+  <xr:revisionPtr revIDLastSave="2950" documentId="13_ncr:1_{DBA201A5-D078-4ADB-A563-7B8EA9522FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57FCDD88-B322-4893-A4A1-EC71A6C6C9D9}"/>
   <bookViews>
-    <workbookView xWindow="3550" yWindow="490" windowWidth="32860" windowHeight="21110" tabRatio="859" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1090" yWindow="0" windowWidth="23470" windowHeight="21110" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="Size range" sheetId="19" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9">Motors!$A$1:$S$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -761,7 +761,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="597">
   <si>
     <t>This over view explaines the working of this file and how it feeds information to the online calculator.</t>
   </si>
@@ -2032,9 +2032,6 @@
     <t>Ranger150 3ph 12-57 5/8"</t>
   </si>
   <si>
-    <t>Ranger220 3ph 19-57 3/4"</t>
-  </si>
-  <si>
     <t>3/4"</t>
   </si>
   <si>
@@ -2549,6 +2546,12 @@
   </si>
   <si>
     <t xml:space="preserve">This is in current offering, too slow and should be removed. </t>
+  </si>
+  <si>
+    <t>Question for Peter , why do you not use a 18t 5/8" on a ranger 150?</t>
+  </si>
+  <si>
+    <t>Ranger220 3ph 15-57 3/4"</t>
   </si>
 </sst>
 </file>
@@ -4715,13 +4718,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146279</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>143781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3780</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>96381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4759,13 +4762,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>628682</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5551,13 +5554,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>596931</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>476274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5595,13 +5598,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>641383</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5639,13 +5642,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>641383</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5683,13 +5686,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>641383</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5727,13 +5730,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>641383</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5771,13 +5774,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>641383</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5815,13 +5818,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>622332</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5859,13 +5862,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>628682</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>438173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5903,13 +5906,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>679485</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>469924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5947,13 +5950,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>698536</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>387370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5991,13 +5994,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>704886</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>381020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6035,13 +6038,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>704886</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>387370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6079,13 +6082,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>723937</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>469924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6123,13 +6126,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>717587</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>463574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6167,13 +6170,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>711237</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6211,13 +6214,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>717587</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>450873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6255,13 +6258,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>711237</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6299,13 +6302,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>711237</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>444523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6343,13 +6346,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>654084</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>12727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6387,13 +6390,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6431,13 +6434,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6475,13 +6478,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6519,13 +6522,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666784</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>19077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6563,13 +6566,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431822</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>463574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6607,13 +6610,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431822</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6651,13 +6654,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>403696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6695,13 +6698,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>685835</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>476274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6739,13 +6742,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>673135</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>482625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6783,13 +6786,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>654084</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>463574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6827,13 +6830,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>679485</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>476274</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6871,13 +6874,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6915,13 +6918,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6959,13 +6962,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647733</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>457223</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7003,13 +7006,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>723937</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>488975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8147,13 +8150,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>27216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>666012</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>495054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8191,13 +8194,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>36285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>656941</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>504123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8235,13 +8238,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>102333</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>695956</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>475915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8279,13 +8282,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>34470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>682341</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>502308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8323,13 +8326,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>45358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>702480</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>439630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8367,13 +8370,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>720623</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>457772</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8411,13 +8414,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>154214</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>747837</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>448700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8455,13 +8458,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>720623</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>439629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8499,13 +8502,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>172358</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>63501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>693709</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>399405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8543,13 +8546,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>86082</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>722315</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>435429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8587,13 +8590,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>125186</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>79829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>646537</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>415733</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8631,13 +8634,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>151269</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>758090</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>480786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8675,7 +8678,7 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>151269</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="606821" cy="435429"/>
@@ -8714,13 +8717,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>198559</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>706419</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>462643</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8802,13 +8805,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>179917</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>52916</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>687777</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>470202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8846,13 +8849,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>21166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>634860</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>438452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8890,13 +8893,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>137583</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>645443</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>480786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8934,13 +8937,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>74084</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>677334</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>493956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8978,13 +8981,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>137584</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>740834</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>493956</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9022,13 +9025,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>730250</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>7123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9066,13 +9069,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>116417</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>719667</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>7123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9150,6 +9153,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596931</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>476274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA0A796-58C8-4407-A49B-9E93844CC195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22447250" y="34544000"/>
+          <a:ext cx="596931" cy="476274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9157,16 +9204,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244928</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>322157</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>121485</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>555670</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>75612</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3913A84D-DF88-B7A4-A771-36C77CCC4989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4871357" y="10595427"/>
+          <a:ext cx="2959599" cy="4375471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>519007</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>51635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9189,7 +9285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="177800"/>
+          <a:off x="6115050" y="3054350"/>
           <a:ext cx="3567007" cy="3848935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9202,15 +9298,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>155995</xdr:rowOff>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>96177</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>115227</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9233,7 +9329,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1320800" y="2956345"/>
+          <a:off x="698500" y="4264445"/>
           <a:ext cx="3937000" cy="2886582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9246,7 +9342,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10489,11 +10585,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}">
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10578,7 +10674,7 @@
         <v>275</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U1" s="91" t="s">
         <v>277</v>
@@ -10989,10 +11085,10 @@
         <v>289</v>
       </c>
       <c r="H10" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N10" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="63"/>
     </row>
@@ -11109,7 +11205,7 @@
       <c r="F13" s="127"/>
       <c r="G13" s="127"/>
       <c r="H13" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I13" s="127"/>
       <c r="J13" s="127"/>
@@ -11117,7 +11213,7 @@
       <c r="L13" s="127"/>
       <c r="M13" s="127"/>
       <c r="N13" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O13" s="130"/>
       <c r="P13" s="127"/>
@@ -11241,7 +11337,7 @@
     </row>
     <row r="16" spans="1:22" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>294</v>
@@ -11896,7 +11992,7 @@
       <c r="F28" s="127"/>
       <c r="G28" s="127"/>
       <c r="H28" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I28" s="127"/>
       <c r="J28" s="127"/>
@@ -11904,7 +12000,7 @@
       <c r="L28" s="127"/>
       <c r="M28" s="127"/>
       <c r="N28" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O28" s="130"/>
       <c r="P28" s="127"/>
@@ -11952,7 +12048,7 @@
         <v>62</v>
       </c>
       <c r="N29" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O29" s="58"/>
       <c r="P29" s="63"/>
@@ -11978,7 +12074,7 @@
       <c r="F30" s="127"/>
       <c r="G30" s="127"/>
       <c r="H30" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I30" s="127"/>
       <c r="J30" s="127"/>
@@ -11986,7 +12082,7 @@
       <c r="L30" s="127"/>
       <c r="M30" s="127"/>
       <c r="N30" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O30" s="130"/>
       <c r="P30" s="127"/>
@@ -12341,7 +12437,7 @@
       <c r="F38" s="127"/>
       <c r="G38" s="127"/>
       <c r="H38" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I38" s="127"/>
       <c r="J38" s="127"/>
@@ -12349,7 +12445,7 @@
       <c r="L38" s="127"/>
       <c r="M38" s="127"/>
       <c r="N38" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O38" s="130"/>
       <c r="P38" s="127"/>
@@ -12360,7 +12456,7 @@
     </row>
     <row r="39" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>324</v>
@@ -12408,7 +12504,7 @@
     </row>
     <row r="40" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>324</v>
@@ -12457,7 +12553,7 @@
     </row>
     <row r="41" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>324</v>
@@ -12506,7 +12602,7 @@
     </row>
     <row r="42" spans="1:21" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>324</v>
@@ -12785,7 +12881,7 @@
       <c r="F48" s="127"/>
       <c r="G48" s="127"/>
       <c r="H48" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I48" s="127"/>
       <c r="J48" s="127"/>
@@ -12793,7 +12889,7 @@
       <c r="L48" s="127"/>
       <c r="M48" s="127"/>
       <c r="N48" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O48" s="130"/>
       <c r="P48" s="127"/>
@@ -12988,7 +13084,7 @@
       <c r="F53" s="127"/>
       <c r="G53" s="127"/>
       <c r="H53" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I53" s="127"/>
       <c r="J53" s="127"/>
@@ -12996,7 +13092,7 @@
       <c r="L53" s="127"/>
       <c r="M53" s="127"/>
       <c r="N53" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O53" s="130"/>
       <c r="P53" s="127"/>
@@ -13167,7 +13263,7 @@
       <c r="F57" s="127"/>
       <c r="G57" s="127"/>
       <c r="H57" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I57" s="127"/>
       <c r="J57" s="127"/>
@@ -13175,7 +13271,7 @@
       <c r="L57" s="127"/>
       <c r="M57" s="127"/>
       <c r="N57" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O57" s="130"/>
       <c r="P57" s="127"/>
@@ -13482,7 +13578,7 @@
       <c r="F64" s="127"/>
       <c r="G64" s="127"/>
       <c r="H64" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I64" s="127"/>
       <c r="J64" s="127"/>
@@ -13490,7 +13586,7 @@
       <c r="L64" s="127"/>
       <c r="M64" s="127"/>
       <c r="N64" s="128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O64" s="130"/>
       <c r="P64" s="127"/>
@@ -13735,7 +13831,7 @@
     <row r="69" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="str">
         <f>Chaindrive!A17</f>
-        <v>Ranger220 3ph 19-57 3/4"</v>
+        <v>Ranger220 3ph 15-57 3/4"</v>
       </c>
       <c r="B69" t="s">
         <v>340</v>
@@ -13786,689 +13882,682 @@
         <v>650</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="126" t="s">
+    <row r="70" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="str">
+        <f>Chaindrive!A18</f>
+        <v>Ranger220 3ph 12-57 3/4"</v>
+      </c>
+      <c r="B70" t="s">
+        <v>340</v>
+      </c>
+      <c r="C70" s="2">
+        <v>713.01</v>
+      </c>
+      <c r="D70" s="32">
+        <f>Chaindrive!J18</f>
+        <v>1045</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" s="2">
+        <f>Chaindrive!L18</f>
+        <v>5.0526315789473681</v>
+      </c>
+      <c r="G70" s="1">
+        <v>415</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L70" s="1">
+        <v>30</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" s="6">
+        <f>Chaindrive!O18</f>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="P70" s="1">
+        <v>10</v>
+      </c>
+      <c r="R70" s="6">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B70" s="126" t="s">
+      <c r="B71" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="C70" s="126" t="s">
+      <c r="C71" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="D70" s="126" t="s">
+      <c r="D71" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="127"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="127"/>
-      <c r="L70" s="127"/>
-      <c r="M70" s="127"/>
-      <c r="N70" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="O70" s="130"/>
-      <c r="P70" s="127"/>
-      <c r="Q70" s="127"/>
-      <c r="R70" s="130"/>
-      <c r="S70" s="130"/>
-      <c r="U70" s="131"/>
-    </row>
-    <row r="71" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="str">
+      <c r="E71" s="127"/>
+      <c r="F71" s="132"/>
+      <c r="G71" s="127"/>
+      <c r="H71" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="I71" s="127"/>
+      <c r="J71" s="127"/>
+      <c r="K71" s="127"/>
+      <c r="L71" s="127"/>
+      <c r="M71" s="127"/>
+      <c r="N71" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="O71" s="130"/>
+      <c r="P71" s="127"/>
+      <c r="Q71" s="127"/>
+      <c r="R71" s="130"/>
+      <c r="S71" s="130"/>
+      <c r="U71" s="131"/>
+    </row>
+    <row r="72" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="str">
         <f>Chaindrive!A21</f>
         <v>Ranger 90 Fi 1ph 19-57 1/2"</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>340</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C72" s="2">
         <v>0</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D72" s="32">
         <f>Chaindrive!J21</f>
         <v>270</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F72" s="31">
         <f>Chaindrive!L21</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="G71" s="1">
+      <c r="G72" s="1">
         <v>415</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I72" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L72" s="1">
         <v>25.4</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O72" s="6">
         <f>Chaindrive!O21</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="P71" s="1">
+      <c r="P72" s="1">
         <v>18</v>
       </c>
-      <c r="R71" s="6">
+      <c r="R72" s="6">
         <v>850</v>
       </c>
-      <c r="S71" s="6" t="s">
+      <c r="S72" s="6" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="str">
+    <row r="73" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="str">
         <f>Chaindrive!A22</f>
         <v>Ranger 90 Fi 1ph 15-57 1/2"</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>340</v>
       </c>
-      <c r="C72" s="2">
-        <f>D71+0.01</f>
+      <c r="C73" s="2">
+        <f>D72+0.01</f>
         <v>270.01</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D73" s="32">
         <f>Chaindrive!J22</f>
         <v>342</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F72" s="31">
+      <c r="F73" s="31">
         <f>Chaindrive!L22</f>
         <v>21.05263157894737</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G73" s="1">
         <v>415</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I73" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L73" s="1">
         <v>25.4</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O73" s="6">
         <f>Chaindrive!O22</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P73" s="1">
         <v>18</v>
       </c>
-      <c r="R72" s="6">
+      <c r="R73" s="6">
         <v>850</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="str">
+    <row r="74" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="str">
         <f>Chaindrive!A24</f>
         <v>Ranger140 Fi 3ph 15-57 5/8"</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>340</v>
       </c>
-      <c r="C73" s="2">
-        <f>D72+0.01</f>
+      <c r="C74" s="2">
+        <f>D73+0.01</f>
         <v>342.01</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D74" s="32">
         <f>Chaindrive!J24</f>
         <v>570</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F73" s="31">
+      <c r="F74" s="31">
         <f>Chaindrive!L24</f>
         <v>21.05263157894737</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G74" s="1">
         <v>415</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L74" s="1">
         <v>25.4</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O74" s="6">
         <f>Chaindrive!O24</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="P73" s="1">
+      <c r="P74" s="1">
         <v>18</v>
       </c>
-      <c r="R73" s="6">
+      <c r="R74" s="6">
         <v>850</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="str">
+    <row r="75" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="str">
         <f>Chaindrive!A25</f>
         <v>Ranger140 fi 3ph 12-57 5/8"</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>340</v>
       </c>
-      <c r="C74" s="2">
-        <f>D73+0.01</f>
+      <c r="C75" s="2">
+        <f>D74+0.01</f>
         <v>570.01</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D75" s="32">
         <f>Chaindrive!J25</f>
         <v>712.5</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F74" s="31">
+      <c r="F75" s="31">
         <f>Chaindrive!L25</f>
         <v>16.842105263157894</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G75" s="1">
         <v>415</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L75" s="1">
         <v>25.4</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O75" s="6">
         <f>Chaindrive!O25</f>
         <v>4.2105263157894735</v>
       </c>
-      <c r="P74" s="1">
+      <c r="P75" s="1">
         <v>18</v>
       </c>
-      <c r="R74" s="6">
+      <c r="R75" s="6">
         <v>850</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="32"/>
-      <c r="F75" s="31"/>
-    </row>
-    <row r="76" spans="1:22" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="126"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="135"/>
-      <c r="E76" s="127"/>
-      <c r="F76" s="132"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="127"/>
-      <c r="I76" s="127"/>
-      <c r="J76" s="127"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="127"/>
-      <c r="M76" s="127"/>
-      <c r="N76" s="127"/>
-      <c r="O76" s="130"/>
-      <c r="P76" s="127"/>
-      <c r="Q76" s="127"/>
-      <c r="R76" s="130"/>
-      <c r="S76" s="130"/>
-      <c r="U76" s="131"/>
-    </row>
-    <row r="77" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="str">
+    <row r="76" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="32"/>
+      <c r="F76" s="31"/>
+    </row>
+    <row r="77" spans="1:22" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="126"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="127"/>
+      <c r="F77" s="132"/>
+      <c r="G77" s="127"/>
+      <c r="H77" s="127"/>
+      <c r="I77" s="127"/>
+      <c r="J77" s="127"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="127"/>
+      <c r="M77" s="127"/>
+      <c r="N77" s="127"/>
+      <c r="O77" s="130"/>
+      <c r="P77" s="127"/>
+      <c r="Q77" s="127"/>
+      <c r="R77" s="130"/>
+      <c r="S77" s="130"/>
+      <c r="U77" s="131"/>
+    </row>
+    <row r="78" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="str">
         <f>Chaindrive!A29</f>
         <v>KE 30.24  19-57 3/4"</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>340</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C78" s="1">
         <v>600.01</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D78" s="32">
         <f>Chaindrive!J29</f>
         <v>900</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F78" s="2">
         <f>Chaindrive!L29</f>
         <v>8</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G78" s="1">
         <f>Chaindrive!M29</f>
         <v>415</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L78" s="1">
         <f>Chaindrive!D29</f>
         <v>40</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="M78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="N78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O78" s="6">
         <f>Chaindrive!O29</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="P77" s="1">
+      <c r="P78" s="1">
         <v>11</v>
       </c>
-      <c r="R77" s="6">
+      <c r="R78" s="6">
         <v>850</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="str">
+    <row r="79" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="str">
         <f>Chaindrive!A30</f>
         <v>KE 40.24  19-57 1"</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>340</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C79" s="2">
         <v>900.01</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D79" s="32">
         <f>Chaindrive!J30</f>
         <v>1200</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F79" s="2">
         <f>Chaindrive!L30</f>
         <v>8</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G79" s="1">
         <f>Chaindrive!M30</f>
         <v>415</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L79" s="1">
         <f>Chaindrive!D30</f>
         <v>40</v>
       </c>
-      <c r="M78" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N78" s="1" t="s">
+      <c r="N79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O79" s="6">
         <f>Chaindrive!O30</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="P78" s="1">
+      <c r="P79" s="1">
         <v>11</v>
       </c>
-      <c r="R78" s="6">
+      <c r="R79" s="6">
         <v>1100</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="str">
+    <row r="80" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="str">
         <f>Chaindrive!A31</f>
         <v>KE 40.24  15-57 1"</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>340</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C80" s="2">
         <v>900.01</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D80" s="32">
         <f>Chaindrive!J31</f>
         <v>1520</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F80" s="2">
         <f>Chaindrive!L31</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G79" s="1">
+      <c r="G80" s="1">
         <f>Chaindrive!M31</f>
         <v>415</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="1" t="s">
+      <c r="J80" s="3"/>
+      <c r="K80" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L80" s="1">
         <f>Chaindrive!D31</f>
         <v>40</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="M80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="N80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O80" s="6">
         <f>Chaindrive!O31</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="P79" s="1">
+      <c r="P80" s="1">
         <v>11</v>
       </c>
-      <c r="R79" s="6">
+      <c r="R80" s="6">
         <v>1100</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="str">
+    <row r="81" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="str">
         <f>Chaindrive!A32</f>
         <v>KE 60.24   19-57 1"</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>340</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C81" s="2">
         <v>1200.01</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D81" s="32">
         <f>Chaindrive!J32</f>
         <v>1800</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F81" s="2">
         <f>Chaindrive!L32</f>
         <v>8</v>
       </c>
-      <c r="G80" s="1">
+      <c r="G81" s="1">
         <f>Chaindrive!M32</f>
         <v>415</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L81" s="1">
         <f>Chaindrive!D32</f>
         <v>55</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="M81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N80" s="1" t="s">
+      <c r="N81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O81" s="6">
         <f>Chaindrive!O32</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="P80" s="1">
+      <c r="P81" s="1">
         <v>11</v>
       </c>
-      <c r="R80" s="6">
+      <c r="R81" s="6">
         <v>1500</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="str">
+    <row r="82" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="str">
         <f>Chaindrive!A33</f>
         <v>KE 80.24   19-57 1 1/4"</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>340</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C82" s="2">
         <v>1800.01</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D82" s="32">
         <f>Chaindrive!J33</f>
         <v>3040</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F82" s="2">
         <f>Chaindrive!L33</f>
         <v>6.3157894736842106</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G82" s="1">
         <f>Chaindrive!M33</f>
         <v>415</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L82" s="1">
         <f>Chaindrive!D33</f>
         <v>55</v>
       </c>
-      <c r="M81" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N81" s="1" t="s">
+      <c r="N82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O82" s="6">
         <f>Chaindrive!O33</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P82" s="1">
         <v>12</v>
       </c>
-      <c r="R81" s="6">
+      <c r="R82" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="126" t="s">
+    <row r="83" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B82" s="126" t="s">
+      <c r="B83" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="C82" s="126" t="s">
+      <c r="C83" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="D82" s="126" t="s">
+      <c r="D83" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="E82" s="127"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="127"/>
-      <c r="L82" s="127"/>
-      <c r="M82" s="127"/>
-      <c r="N82" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="O82" s="130"/>
-      <c r="P82" s="127"/>
-      <c r="Q82" s="127"/>
-      <c r="R82" s="130"/>
-      <c r="S82" s="130"/>
-      <c r="U82" s="131"/>
-    </row>
-    <row r="83" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="str">
+      <c r="E83" s="127"/>
+      <c r="F83" s="132"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="I83" s="127"/>
+      <c r="J83" s="127"/>
+      <c r="K83" s="127"/>
+      <c r="L83" s="127"/>
+      <c r="M83" s="127"/>
+      <c r="N83" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="O83" s="130"/>
+      <c r="P83" s="127"/>
+      <c r="Q83" s="127"/>
+      <c r="R83" s="130"/>
+      <c r="S83" s="130"/>
+      <c r="U83" s="131"/>
+    </row>
+    <row r="84" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="str">
         <f>Chaindrive!A37</f>
         <v>KE 40.40 Fi 19-57 3/4"</v>
       </c>
-      <c r="B83" s="68" t="s">
+      <c r="B84" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C84" s="1">
         <v>0</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D84" s="32">
         <f>Chaindrive!J37</f>
         <v>1140</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F84" s="2">
         <f>Chaindrive!L37</f>
         <v>10.526315789473685</v>
       </c>
-      <c r="G83" s="1" t="str">
+      <c r="G84" s="1" t="str">
         <f>Chaindrive!M37</f>
-        <v>230/415</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L83" s="1">
-        <f>Chaindrive!R37</f>
-        <v>40</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O83" s="1">
-        <f>Chaindrive!O37</f>
-        <v>5.2631578947368425</v>
-      </c>
-      <c r="P83" s="1">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1">
-        <v>1500</v>
-      </c>
-      <c r="S83" s="1"/>
-      <c r="U83" s="133"/>
-    </row>
-    <row r="84" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="str">
-        <f>Chaindrive!A38</f>
-        <v>KE 50.80 Fi 19-57 1"</v>
-      </c>
-      <c r="B84" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" s="2">
-        <f>D83+0.01</f>
-        <v>1140.01</v>
-      </c>
-      <c r="D84" s="32">
-        <f>Chaindrive!J38</f>
-        <v>1900</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F84" s="2">
-        <f>Chaindrive!L38</f>
-        <v>21.05263157894737</v>
-      </c>
-      <c r="G84" s="1" t="str">
-        <f>Chaindrive!M38</f>
         <v>230/415</v>
       </c>
       <c r="H84" s="1" t="s">
@@ -14482,8 +14571,8 @@
         <v>281</v>
       </c>
       <c r="L84" s="1">
-        <f>Chaindrive!R38</f>
-        <v>55</v>
+        <f>Chaindrive!R37</f>
+        <v>40</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>28</v>
@@ -14492,44 +14581,44 @@
         <v>28</v>
       </c>
       <c r="O84" s="1">
-        <f>Chaindrive!O38</f>
+        <f>Chaindrive!O37</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P84" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q84" s="1"/>
       <c r="R84" s="1">
-        <v>4500</v>
+        <v>1500</v>
       </c>
       <c r="S84" s="1"/>
       <c r="U84" s="133"/>
     </row>
     <row r="85" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="str">
-        <f>Chaindrive!A39</f>
-        <v>KE 80.40 Fi 19-57 1"</v>
+        <f>Chaindrive!A38</f>
+        <v>KE 50.80 Fi 19-57 1"</v>
       </c>
       <c r="B85" s="68" t="s">
         <v>340</v>
       </c>
       <c r="C85" s="2">
         <f>D84+0.01</f>
-        <v>1900.01</v>
+        <v>1140.01</v>
       </c>
       <c r="D85" s="32">
-        <f>Chaindrive!J39</f>
-        <v>3040</v>
+        <f>Chaindrive!J38</f>
+        <v>1900</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F85" s="2">
-        <f>Chaindrive!L39</f>
-        <v>10.526315789473685</v>
+        <f>Chaindrive!L38</f>
+        <v>21.05263157894737</v>
       </c>
       <c r="G85" s="1" t="str">
-        <f>Chaindrive!M39</f>
+        <f>Chaindrive!M38</f>
         <v>230/415</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -14543,7 +14632,7 @@
         <v>281</v>
       </c>
       <c r="L85" s="1">
-        <f>Chaindrive!R39</f>
+        <f>Chaindrive!R38</f>
         <v>55</v>
       </c>
       <c r="M85" s="1" t="s">
@@ -14553,11 +14642,11 @@
         <v>28</v>
       </c>
       <c r="O85" s="1">
-        <f>Chaindrive!O39</f>
+        <f>Chaindrive!O38</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P85" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1">
@@ -14568,29 +14657,29 @@
     </row>
     <row r="86" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="str">
-        <f>Chaindrive!A40</f>
-        <v>KE 120.30 Fi 19-57 1 1/4""</v>
+        <f>Chaindrive!A39</f>
+        <v>KE 80.40 Fi 19-57 1"</v>
       </c>
       <c r="B86" s="68" t="s">
         <v>340</v>
       </c>
       <c r="C86" s="2">
         <f>D85+0.01</f>
-        <v>3040.01</v>
+        <v>1900.01</v>
       </c>
       <c r="D86" s="32">
-        <f>Chaindrive!J40</f>
-        <v>4560</v>
+        <f>Chaindrive!J39</f>
+        <v>3040</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F86" s="2">
-        <f>Chaindrive!L40</f>
+        <f>Chaindrive!L39</f>
         <v>10.526315789473685</v>
       </c>
       <c r="G86" s="1" t="str">
-        <f>Chaindrive!M40</f>
+        <f>Chaindrive!M39</f>
         <v>230/415</v>
       </c>
       <c r="H86" s="1" t="s">
@@ -14604,7 +14693,7 @@
         <v>281</v>
       </c>
       <c r="L86" s="1">
-        <f>Chaindrive!R40</f>
+        <f>Chaindrive!R39</f>
         <v>55</v>
       </c>
       <c r="M86" s="1" t="s">
@@ -14614,11 +14703,11 @@
         <v>28</v>
       </c>
       <c r="O86" s="1">
-        <f>Chaindrive!O40</f>
+        <f>Chaindrive!O39</f>
         <v>5.2631578947368425</v>
       </c>
       <c r="P86" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q86" s="1"/>
       <c r="R86" s="1">
@@ -14627,123 +14716,127 @@
       <c r="S86" s="1"/>
       <c r="U86" s="133"/>
     </row>
-    <row r="87" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="126"/>
-      <c r="B87" s="126"/>
-      <c r="C87" s="126"/>
-      <c r="D87" s="126"/>
-      <c r="E87" s="127"/>
-      <c r="F87" s="132"/>
-      <c r="G87" s="127"/>
-      <c r="H87" s="128"/>
-      <c r="I87" s="127"/>
-      <c r="J87" s="127"/>
-      <c r="K87" s="127"/>
-      <c r="L87" s="127"/>
-      <c r="M87" s="127"/>
-      <c r="N87" s="128"/>
-      <c r="O87" s="130"/>
-      <c r="P87" s="127"/>
-      <c r="Q87" s="127"/>
-      <c r="R87" s="130"/>
-      <c r="S87" s="130"/>
-      <c r="U87" s="131"/>
-    </row>
-    <row r="88" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H88" s="115" t="s">
-        <v>520</v>
-      </c>
-      <c r="N88" s="115" t="s">
-        <v>520</v>
-      </c>
+    <row r="87" spans="1:21" s="68" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="str">
+        <f>Chaindrive!A40</f>
+        <v>KE 120.30 Fi 19-57 1 1/4""</v>
+      </c>
+      <c r="B87" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" s="2">
+        <f>D86+0.01</f>
+        <v>3040.01</v>
+      </c>
+      <c r="D87" s="32">
+        <f>Chaindrive!J40</f>
+        <v>4560</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" s="2">
+        <f>Chaindrive!L40</f>
+        <v>10.526315789473685</v>
+      </c>
+      <c r="G87" s="1" t="str">
+        <f>Chaindrive!M40</f>
+        <v>230/415</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L87" s="1">
+        <f>Chaindrive!R40</f>
+        <v>55</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O87" s="1">
+        <f>Chaindrive!O40</f>
+        <v>5.2631578947368425</v>
+      </c>
+      <c r="P87" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1">
+        <v>4500</v>
+      </c>
+      <c r="S87" s="1"/>
+      <c r="U87" s="133"/>
+    </row>
+    <row r="88" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="126"/>
+      <c r="B88" s="126"/>
+      <c r="C88" s="126"/>
+      <c r="D88" s="126"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="132"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="127"/>
+      <c r="J88" s="127"/>
+      <c r="K88" s="127"/>
+      <c r="L88" s="127"/>
+      <c r="M88" s="127"/>
+      <c r="N88" s="128"/>
+      <c r="O88" s="130"/>
+      <c r="P88" s="127"/>
+      <c r="Q88" s="127"/>
+      <c r="R88" s="130"/>
+      <c r="S88" s="130"/>
+      <c r="U88" s="131"/>
     </row>
     <row r="89" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H89" s="115" t="s">
+        <v>519</v>
+      </c>
+      <c r="N89" s="115" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C90" s="1">
         <v>0</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D90" s="1">
         <v>100</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F89" s="1">
-        <v>15</v>
-      </c>
-      <c r="G89" s="1">
-        <v>415</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L89" s="1">
-        <v>30</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O89" s="6">
-        <v>20</v>
-      </c>
-      <c r="P89" s="1">
-        <v>8</v>
-      </c>
-      <c r="R89" s="6">
-        <v>300</v>
-      </c>
-      <c r="S89" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="U89" s="107">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>553</v>
-      </c>
-      <c r="B90" t="s">
-        <v>340</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" ref="C90" si="2">D89+0.01</f>
-        <v>100.01</v>
-      </c>
-      <c r="D90" s="6">
-        <v>140</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F90" s="6">
-        <v>20</v>
+      <c r="F90" s="1">
+        <v>15</v>
       </c>
       <c r="G90" s="1">
         <v>415</v>
@@ -14773,34 +14866,34 @@
         <v>8</v>
       </c>
       <c r="R90" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S90" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U90" s="107">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>346</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s">
         <v>340</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" ref="C91" si="3">D90+0.01</f>
-        <v>140.01</v>
+        <f t="shared" ref="C91" si="2">D90+0.01</f>
+        <v>100.01</v>
       </c>
       <c r="D91" s="6">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F91" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G91" s="1">
         <v>415</v>
@@ -14830,23 +14923,28 @@
         <v>8</v>
       </c>
       <c r="R91" s="6">
-        <v>450</v>
-      </c>
-      <c r="U91" s="107"/>
+        <v>400</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="U91" s="107">
+        <v>280</v>
+      </c>
     </row>
     <row r="92" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B92" t="s">
         <v>340</v>
       </c>
       <c r="C92" s="1">
-        <f>D91+0.01</f>
-        <v>170.01</v>
+        <f t="shared" ref="C92" si="3">D91+0.01</f>
+        <v>140.01</v>
       </c>
       <c r="D92" s="6">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>163</v>
@@ -14879,31 +14977,26 @@
         <v>20</v>
       </c>
       <c r="P92" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R92" s="6">
-        <v>750</v>
-      </c>
-      <c r="S92" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="U92" s="107">
-        <v>307</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="U92" s="107"/>
     </row>
     <row r="93" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B93" t="s">
         <v>340</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" ref="C93:C101" si="4">D92+0.01</f>
-        <v>250.01</v>
+        <f>D92+0.01</f>
+        <v>170.01</v>
       </c>
       <c r="D93" s="6">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>163</v>
@@ -14924,7 +15017,7 @@
         <v>281</v>
       </c>
       <c r="L93" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>62</v>
@@ -14936,474 +15029,476 @@
         <v>20</v>
       </c>
       <c r="P93" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R93" s="6">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="S93" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="U93" s="107">
-        <v>383</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B94" t="s">
         <v>340</v>
       </c>
       <c r="C94" s="1">
+        <f t="shared" ref="C94:C102" si="4">D93+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D94" s="6">
+        <v>350</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="6">
+        <v>15</v>
+      </c>
+      <c r="G94" s="1">
+        <v>415</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L94" s="1">
+        <v>40</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O94" s="6">
+        <v>20</v>
+      </c>
+      <c r="P94" s="1">
+        <v>9</v>
+      </c>
+      <c r="R94" s="6">
+        <v>850</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="U94" s="107">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>352</v>
+      </c>
+      <c r="B95" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" s="1">
         <f t="shared" si="4"/>
         <v>350.01</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D95" s="6">
         <v>450</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F95" s="6">
         <v>15</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G95" s="1">
         <v>415</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L94" s="1">
+      <c r="L95" s="1">
         <v>40</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O95" s="6">
         <v>20</v>
       </c>
-      <c r="P94" s="1">
+      <c r="P95" s="1">
         <v>9</v>
       </c>
-      <c r="R94" s="6">
+      <c r="R95" s="6">
         <v>1100</v>
       </c>
-      <c r="S94" s="6" t="s">
+      <c r="S95" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="U94" s="107"/>
-    </row>
-    <row r="95" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="U95" s="107"/>
+    </row>
+    <row r="96" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>354</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>340</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C96" s="1">
         <f t="shared" si="4"/>
         <v>450.01</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D96" s="6">
         <v>550</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F96" s="6">
         <v>15</v>
       </c>
-      <c r="G95" s="1">
+      <c r="G96" s="1">
         <v>415</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I96" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L95" s="1">
+      <c r="L96" s="1">
         <v>40</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O95" s="6">
+      <c r="O96" s="6">
         <v>20</v>
       </c>
-      <c r="P95" s="1">
+      <c r="P96" s="1">
         <v>9</v>
       </c>
-      <c r="R95" s="6">
+      <c r="R96" s="6">
         <v>1100</v>
       </c>
-      <c r="S95" s="6" t="s">
+      <c r="S96" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="U95" s="107"/>
-    </row>
-    <row r="96" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="U96" s="107"/>
+    </row>
+    <row r="97" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>356</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>340</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C97" s="1">
         <f t="shared" si="4"/>
         <v>550.01</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D97" s="6">
         <v>650</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F97" s="6">
         <v>15</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G97" s="1">
         <v>415</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I97" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L96" s="1">
+      <c r="L97" s="1">
         <v>40</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O96" s="6">
+      <c r="O97" s="6">
         <v>20</v>
       </c>
-      <c r="P96" s="1">
+      <c r="P97" s="1">
         <v>9</v>
       </c>
-      <c r="R96" s="6">
+      <c r="R97" s="6">
         <v>1100</v>
       </c>
-      <c r="S96" s="6" t="s">
+      <c r="S97" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="U96" s="107"/>
-    </row>
-    <row r="97" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="U97" s="107"/>
+    </row>
+    <row r="98" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>358</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>340</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C98" s="1">
         <f t="shared" si="4"/>
         <v>650.01</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D98" s="6">
         <v>750</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>15</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G98" s="1">
         <v>415</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I98" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L97" s="1">
+      <c r="L98" s="1">
         <v>55</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N97" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O97" s="6">
+      <c r="O98" s="6">
         <v>20</v>
       </c>
-      <c r="P97" s="1">
+      <c r="P98" s="1">
         <v>9</v>
       </c>
-      <c r="R97" s="6">
+      <c r="R98" s="6">
         <v>2800</v>
       </c>
-      <c r="S97" s="6" t="s">
+      <c r="S98" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="U97" s="107"/>
-    </row>
-    <row r="98" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="U98" s="107"/>
+    </row>
+    <row r="99" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>360</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>340</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C99" s="1">
         <f t="shared" si="4"/>
         <v>750.01</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D99" s="6">
         <v>850</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F99" s="6">
         <v>10</v>
       </c>
-      <c r="G98" s="1">
+      <c r="G99" s="1">
         <v>415</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I99" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L99" s="1">
         <v>55</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N98" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O98" s="6">
+      <c r="O99" s="6">
         <v>20</v>
       </c>
-      <c r="P98" s="1">
+      <c r="P99" s="1">
         <v>7</v>
       </c>
-      <c r="R98" s="6">
+      <c r="R99" s="6">
         <v>1100</v>
       </c>
-      <c r="S98" s="6" t="s">
+      <c r="S99" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>362</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>340</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C100" s="1">
         <f t="shared" si="4"/>
         <v>850.01</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D100" s="6">
         <v>1000</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F100" s="6">
         <v>10</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G100" s="1">
         <v>415</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L100" s="1">
         <v>55</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M100" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N99" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O99" s="6">
+      <c r="O100" s="6">
         <v>20</v>
       </c>
-      <c r="P99" s="1">
+      <c r="P100" s="1">
         <v>7</v>
       </c>
-      <c r="R99" s="6">
+      <c r="R100" s="6">
         <v>2800</v>
       </c>
-      <c r="S99" s="6" t="s">
+      <c r="S100" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>364</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>340</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C101" s="1">
         <f t="shared" si="4"/>
         <v>1000.01</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D101" s="6">
         <v>1400</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F101" s="6">
         <v>7</v>
       </c>
-      <c r="G100" s="1">
+      <c r="G101" s="1">
         <v>415</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I101" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K100" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L100" s="1">
+      <c r="L101" s="1">
         <v>55</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N100" s="1" t="s">
+      <c r="N101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O100" s="6">
+      <c r="O101" s="6">
         <v>20</v>
       </c>
-      <c r="P100" s="1">
+      <c r="P101" s="1">
         <v>7</v>
       </c>
-      <c r="R100" s="6">
+      <c r="R101" s="6">
         <v>2800</v>
       </c>
-      <c r="S100" s="6" t="s">
+      <c r="S101" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="102" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>366</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>340</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C102" s="1">
         <f t="shared" si="4"/>
         <v>1400.01</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D102" s="6">
         <v>1800</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F101" s="6">
-        <v>6</v>
-      </c>
-      <c r="G101" s="1">
-        <v>415</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L101" s="1">
-        <v>60</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O101" s="6">
-        <v>10</v>
-      </c>
-      <c r="P101" s="1">
-        <v>7</v>
-      </c>
-      <c r="R101" s="6">
-        <v>3125</v>
-      </c>
-      <c r="T101" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U101" s="107"/>
-    </row>
-    <row r="102" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>367</v>
-      </c>
-      <c r="B102" t="s">
-        <v>340</v>
-      </c>
-      <c r="C102" s="1">
-        <f t="shared" ref="C102:C105" si="5">D101+0.01</f>
-        <v>1800.01</v>
-      </c>
-      <c r="D102" s="1">
-        <v>2600</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F102" s="1">
-        <v>5</v>
+      <c r="F102" s="6">
+        <v>6</v>
       </c>
       <c r="G102" s="1">
         <v>415</v>
@@ -15418,7 +15513,7 @@
         <v>281</v>
       </c>
       <c r="L102" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>62</v>
@@ -15430,76 +15525,79 @@
         <v>10</v>
       </c>
       <c r="P102" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R102" s="6">
-        <v>1500</v>
+        <v>3125</v>
+      </c>
+      <c r="T102" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="U102" s="107"/>
     </row>
     <row r="103" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
         <v>340</v>
       </c>
       <c r="C103" s="1">
+        <f t="shared" ref="C103:C106" si="5">D102+0.01</f>
+        <v>1800.01</v>
+      </c>
+      <c r="D103" s="1">
+        <v>2600</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F103" s="1">
+        <v>5</v>
+      </c>
+      <c r="G103" s="1">
+        <v>415</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L103" s="1">
+        <v>80</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O103" s="6">
+        <v>10</v>
+      </c>
+      <c r="P103" s="1">
+        <v>9</v>
+      </c>
+      <c r="R103" s="6">
+        <v>1500</v>
+      </c>
+      <c r="U103" s="107"/>
+    </row>
+    <row r="104" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>368</v>
+      </c>
+      <c r="B104" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" s="1">
         <f t="shared" si="5"/>
         <v>2600.0100000000002</v>
       </c>
-      <c r="D103" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F103" s="1">
-        <v>5</v>
-      </c>
-      <c r="G103" s="1">
-        <v>415</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L103" s="1">
-        <v>80</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O103" s="6">
-        <v>10</v>
-      </c>
-      <c r="P103" s="1">
-        <v>9</v>
-      </c>
-      <c r="R103" s="6">
-        <v>2000</v>
-      </c>
-      <c r="U103" s="107"/>
-    </row>
-    <row r="104" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>369</v>
-      </c>
-      <c r="B104" t="s">
-        <v>340</v>
-      </c>
-      <c r="C104" s="1">
-        <f t="shared" si="5"/>
-        <v>3600.01</v>
-      </c>
       <c r="D104" s="1">
         <v>3600</v>
       </c>
@@ -15507,7 +15605,7 @@
         <v>163</v>
       </c>
       <c r="F104" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G104" s="1">
         <v>415</v>
@@ -15534,16 +15632,16 @@
         <v>10</v>
       </c>
       <c r="P104" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R104" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="U104" s="107"/>
     </row>
     <row r="105" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s">
         <v>340</v>
@@ -15553,7 +15651,7 @@
         <v>3600.01</v>
       </c>
       <c r="D105" s="1">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>163</v>
@@ -15574,7 +15672,7 @@
         <v>281</v>
       </c>
       <c r="L105" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>62</v>
@@ -15595,23 +15693,23 @@
     </row>
     <row r="106" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>554</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
         <v>340</v>
       </c>
       <c r="C106" s="1">
-        <f t="shared" ref="C106" si="6">D105+0.01</f>
-        <v>4800.01</v>
+        <f t="shared" si="5"/>
+        <v>3600.01</v>
       </c>
       <c r="D106" s="1">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F106" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G106" s="1">
         <v>415</v>
@@ -15638,116 +15736,111 @@
         <v>10</v>
       </c>
       <c r="P106" s="1">
+        <v>10</v>
+      </c>
+      <c r="R106" s="6">
+        <v>3000</v>
+      </c>
+      <c r="U106" s="107"/>
+    </row>
+    <row r="107" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>553</v>
+      </c>
+      <c r="B107" t="s">
+        <v>340</v>
+      </c>
+      <c r="C107" s="1">
+        <f t="shared" ref="C107" si="6">D106+0.01</f>
+        <v>4800.01</v>
+      </c>
+      <c r="D107" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F107" s="1">
+        <v>5</v>
+      </c>
+      <c r="G107" s="1">
+        <v>415</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L107" s="1">
+        <v>100</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O107" s="6">
+        <v>10</v>
+      </c>
+      <c r="P107" s="1">
         <v>9</v>
       </c>
-      <c r="R106" s="6">
+      <c r="R107" s="6">
         <v>2500</v>
       </c>
-      <c r="U106" s="107"/>
-    </row>
-    <row r="107" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="126" t="s">
+      <c r="U107" s="107"/>
+    </row>
+    <row r="108" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B107" s="126" t="s">
+      <c r="B108" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="C107" s="126" t="s">
+      <c r="C108" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="D107" s="126" t="s">
+      <c r="D108" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="E107" s="127"/>
-      <c r="F107" s="127"/>
-      <c r="G107" s="127"/>
-      <c r="H107" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="I107" s="127"/>
-      <c r="J107" s="127"/>
-      <c r="K107" s="127"/>
-      <c r="L107" s="127"/>
-      <c r="M107" s="127"/>
-      <c r="N107" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="O107" s="130"/>
-      <c r="P107" s="127"/>
-      <c r="Q107" s="127"/>
-      <c r="R107" s="130"/>
-      <c r="S107" s="130"/>
-      <c r="U107" s="131"/>
-    </row>
-    <row r="108" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C108" s="1">
-        <v>0</v>
-      </c>
-      <c r="D108" s="1">
-        <v>170</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F108" s="1">
-        <v>10</v>
-      </c>
-      <c r="G108" s="1">
-        <v>230</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L108" s="1">
-        <v>30</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O108" s="1">
-        <v>10</v>
-      </c>
-      <c r="P108" s="1">
-        <v>8</v>
-      </c>
-      <c r="R108" s="1">
-        <v>400</v>
-      </c>
-      <c r="S108" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="U108" s="92">
-        <v>418</v>
-      </c>
+      <c r="E108" s="127"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="127"/>
+      <c r="H108" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="I108" s="127"/>
+      <c r="J108" s="127"/>
+      <c r="K108" s="127"/>
+      <c r="L108" s="127"/>
+      <c r="M108" s="127"/>
+      <c r="N108" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="O108" s="130"/>
+      <c r="P108" s="127"/>
+      <c r="Q108" s="127"/>
+      <c r="R108" s="130"/>
+      <c r="S108" s="130"/>
+      <c r="U108" s="131"/>
     </row>
     <row r="109" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C109" s="1">
-        <f>D108+0.01</f>
-        <v>170.01</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>163</v>
@@ -15780,28 +15873,28 @@
         <v>10</v>
       </c>
       <c r="P109" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R109" s="1">
         <v>400</v>
       </c>
       <c r="S109" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="U109" s="92">
-        <v>474</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>340</v>
       </c>
       <c r="C110" s="1">
         <f>D109+0.01</f>
-        <v>250.01</v>
+        <v>170.01</v>
       </c>
       <c r="D110" s="1">
         <v>250</v>
@@ -15810,7 +15903,7 @@
         <v>163</v>
       </c>
       <c r="F110" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G110" s="1">
         <v>230</v>
@@ -15834,24 +15927,24 @@
         <v>28</v>
       </c>
       <c r="O110" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P110" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R110" s="1">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="S110" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="T110" t="e" vm="2">
-        <v>#VALUE!</v>
+        <v>374</v>
+      </c>
+      <c r="U110" s="92">
+        <v>474</v>
       </c>
     </row>
     <row r="111" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>340</v>
@@ -15861,13 +15954,13 @@
         <v>250.01</v>
       </c>
       <c r="D111" s="1">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F111" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G111" s="1">
         <v>230</v>
@@ -15882,7 +15975,7 @@
         <v>281</v>
       </c>
       <c r="L111" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>62</v>
@@ -15894,119 +15987,125 @@
         <v>20</v>
       </c>
       <c r="P111" s="1">
+        <v>7</v>
+      </c>
+      <c r="R111" s="1">
+        <v>550</v>
+      </c>
+      <c r="S111" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="T111" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C112" s="1">
+        <f>D111+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D112" s="1">
+        <v>450</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F112" s="1">
+        <v>7</v>
+      </c>
+      <c r="G112" s="1">
+        <v>230</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L112" s="1">
+        <v>40</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O112" s="1">
+        <v>20</v>
+      </c>
+      <c r="P112" s="1">
         <v>5</v>
       </c>
-      <c r="R111" s="1">
+      <c r="R112" s="1">
         <v>750</v>
       </c>
-      <c r="S111" s="6" t="s">
+      <c r="S112" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="U111" s="107"/>
-    </row>
-    <row r="112" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="126" t="s">
+      <c r="U112" s="107"/>
+    </row>
+    <row r="113" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B112" s="126" t="s">
+      <c r="B113" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="C112" s="126" t="s">
+      <c r="C113" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="D112" s="126" t="s">
+      <c r="D113" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="E112" s="127"/>
-      <c r="F112" s="127"/>
-      <c r="G112" s="127"/>
-      <c r="H112" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="I112" s="127"/>
-      <c r="J112" s="127"/>
-      <c r="K112" s="127"/>
-      <c r="L112" s="127"/>
-      <c r="M112" s="127"/>
-      <c r="N112" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="O112" s="130"/>
-      <c r="P112" s="127"/>
-      <c r="Q112" s="127"/>
-      <c r="R112" s="130"/>
-      <c r="S112" s="130"/>
-      <c r="U112" s="131"/>
-    </row>
-    <row r="113" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>379</v>
-      </c>
-      <c r="B113" t="s">
-        <v>340</v>
-      </c>
-      <c r="C113" s="1">
-        <v>0</v>
-      </c>
-      <c r="D113" s="6">
-        <v>250</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F113" s="6">
-        <v>80</v>
-      </c>
-      <c r="G113" s="1">
-        <v>230</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O113" s="6">
-        <v>20</v>
-      </c>
-      <c r="P113" s="1">
-        <v>8</v>
-      </c>
-      <c r="R113" s="6">
-        <v>750</v>
-      </c>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="I113" s="127"/>
+      <c r="J113" s="127"/>
+      <c r="K113" s="127"/>
+      <c r="L113" s="127"/>
+      <c r="M113" s="127"/>
+      <c r="N113" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="O113" s="130"/>
+      <c r="P113" s="127"/>
+      <c r="Q113" s="127"/>
+      <c r="R113" s="130"/>
+      <c r="S113" s="130"/>
+      <c r="U113" s="131"/>
     </row>
     <row r="114" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B114" t="s">
         <v>340</v>
       </c>
       <c r="C114" s="1">
-        <f>D113+0.01</f>
-        <v>250.01</v>
+        <v>0</v>
       </c>
       <c r="D114" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F114" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G114" s="1">
         <v>230</v>
@@ -16020,8 +16119,8 @@
       <c r="K114" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L114" s="1">
-        <v>40</v>
+      <c r="L114" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>62</v>
@@ -16038,32 +16137,26 @@
       <c r="R114" s="6">
         <v>750</v>
       </c>
-      <c r="S114" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="U114" s="92">
-        <v>1481.78</v>
-      </c>
     </row>
     <row r="115" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>383</v>
+      <c r="A115" t="s">
+        <v>381</v>
       </c>
       <c r="B115" t="s">
         <v>340</v>
       </c>
       <c r="C115" s="1">
         <f>D114+0.01</f>
-        <v>400.01</v>
+        <v>250.01</v>
       </c>
       <c r="D115" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F115" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G115" s="1">
         <v>230</v>
@@ -16095,20 +16188,26 @@
       <c r="R115" s="6">
         <v>750</v>
       </c>
+      <c r="S115" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="U115" s="92">
+        <v>1481.78</v>
+      </c>
     </row>
     <row r="116" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B116" t="s">
         <v>340</v>
       </c>
       <c r="C116" s="1">
         <f>D115+0.01</f>
-        <v>550.01</v>
+        <v>400.01</v>
       </c>
       <c r="D116" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>380</v>
@@ -16129,7 +16228,7 @@
         <v>281</v>
       </c>
       <c r="L116" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>62</v>
@@ -16147,93 +16246,94 @@
         <v>750</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="126" t="s">
+    <row r="117" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B117" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="1">
+        <f>D116+0.01</f>
+        <v>550.01</v>
+      </c>
+      <c r="D117" s="6">
+        <v>750</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F117" s="6">
+        <v>20</v>
+      </c>
+      <c r="G117" s="1">
+        <v>230</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L117" s="1">
+        <v>55</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O117" s="6">
+        <v>20</v>
+      </c>
+      <c r="P117" s="1">
+        <v>8</v>
+      </c>
+      <c r="R117" s="6">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B117" s="126" t="s">
+      <c r="B118" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="C117" s="126" t="s">
+      <c r="C118" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="D117" s="126" t="s">
+      <c r="D118" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="E117" s="127"/>
-      <c r="F117" s="127"/>
-      <c r="G117" s="127"/>
-      <c r="H117" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="I117" s="127"/>
-      <c r="J117" s="127"/>
-      <c r="K117" s="127"/>
-      <c r="L117" s="127"/>
-      <c r="M117" s="127"/>
-      <c r="N117" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="O117" s="130"/>
-      <c r="P117" s="127"/>
-      <c r="Q117" s="127"/>
-      <c r="R117" s="130"/>
-      <c r="S117" s="130"/>
-      <c r="U117" s="131"/>
-    </row>
-    <row r="118" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>557</v>
-      </c>
-      <c r="B118" t="s">
-        <v>340</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D118" s="6">
-        <v>250</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F118" s="6">
-        <v>80</v>
-      </c>
-      <c r="G118" s="1">
-        <v>415</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O118" s="6">
-        <v>20</v>
-      </c>
-      <c r="P118" s="1">
-        <v>26</v>
-      </c>
-      <c r="R118" s="6">
-        <v>1500</v>
-      </c>
+      <c r="E118" s="127"/>
+      <c r="F118" s="127"/>
+      <c r="G118" s="127"/>
+      <c r="H118" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="I118" s="127"/>
+      <c r="J118" s="127"/>
+      <c r="K118" s="127"/>
+      <c r="L118" s="127"/>
+      <c r="M118" s="127"/>
+      <c r="N118" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="O118" s="130"/>
+      <c r="P118" s="127"/>
+      <c r="Q118" s="127"/>
+      <c r="R118" s="130"/>
+      <c r="S118" s="130"/>
+      <c r="U118" s="131"/>
     </row>
     <row r="119" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B119" t="s">
         <v>340</v>
@@ -16263,7 +16363,7 @@
         <v>281</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>449</v>
+        <v>557</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>62</v>
@@ -16283,23 +16383,22 @@
     </row>
     <row r="120" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>381</v>
+        <v>550</v>
       </c>
       <c r="B120" t="s">
         <v>340</v>
       </c>
       <c r="C120" s="1">
-        <f t="shared" ref="C120:C128" si="7">D119+0.01</f>
-        <v>250.01</v>
+        <v>0.01</v>
       </c>
       <c r="D120" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F120" s="6">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G120" s="1">
         <v>415</v>
@@ -16313,8 +16412,8 @@
       <c r="K120" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L120" s="1">
-        <v>40</v>
+      <c r="L120" s="1" t="s">
+        <v>448</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>62</v>
@@ -16326,7 +16425,7 @@
         <v>20</v>
       </c>
       <c r="P120" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="R120" s="6">
         <v>1500</v>
@@ -16334,168 +16433,168 @@
     </row>
     <row r="121" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B121" t="s">
         <v>340</v>
       </c>
       <c r="C121" s="1">
+        <f t="shared" ref="C121:C129" si="7">D120+0.01</f>
+        <v>250.01</v>
+      </c>
+      <c r="D121" s="6">
+        <v>400</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F121" s="6">
+        <v>40</v>
+      </c>
+      <c r="G121" s="1">
+        <v>415</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L121" s="1">
+        <v>40</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O121" s="6">
+        <v>20</v>
+      </c>
+      <c r="P121" s="1">
+        <v>17</v>
+      </c>
+      <c r="R121" s="6">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>385</v>
+      </c>
+      <c r="B122" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" s="1">
         <f t="shared" si="7"/>
         <v>400.01</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D122" s="6">
         <v>450</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F122" s="6">
         <v>60</v>
       </c>
-      <c r="G121" s="1">
+      <c r="G122" s="1">
         <v>415</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K121" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L121" s="1">
+      <c r="L122" s="1">
         <v>40</v>
       </c>
-      <c r="M121" s="1" t="s">
+      <c r="M122" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N121" s="1" t="s">
+      <c r="N122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O121" s="6">
+      <c r="O122" s="6">
         <v>20</v>
       </c>
-      <c r="P121" s="1">
+      <c r="P122" s="1">
         <v>11</v>
       </c>
-      <c r="R121" s="6">
+      <c r="R122" s="6">
         <v>1500</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+    <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>386</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>340</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C123" s="1">
         <f t="shared" si="7"/>
         <v>450.01</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D123" s="6">
         <v>500</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F123" s="6">
         <v>80</v>
       </c>
-      <c r="G122" s="1">
+      <c r="G123" s="1">
         <v>415</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="K122" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L122" s="1">
+      <c r="L123" s="1">
         <v>55</v>
       </c>
-      <c r="M122" s="1" t="s">
+      <c r="M123" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N122" s="1" t="s">
+      <c r="N123" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O122" s="6">
+      <c r="O123" s="6">
         <v>20</v>
       </c>
-      <c r="P122" s="1">
+      <c r="P123" s="1">
         <v>19</v>
       </c>
-      <c r="R122" s="6">
+      <c r="R123" s="6">
         <v>4500</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+    <row r="124" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>340</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C124" s="1">
         <f t="shared" si="7"/>
         <v>500.01</v>
       </c>
-      <c r="D123" s="6">
-        <v>550</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F123" s="6">
-        <v>20</v>
-      </c>
-      <c r="G123" s="1">
-        <v>415</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L123" s="1">
-        <v>40</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O123" s="6">
-        <v>20</v>
-      </c>
-      <c r="P123" s="1">
-        <v>12</v>
-      </c>
-      <c r="R123" s="6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="B124" t="s">
-        <v>340</v>
-      </c>
-      <c r="C124" s="1">
-        <f t="shared" si="7"/>
-        <v>550.01</v>
-      </c>
       <c r="D124" s="6">
         <v>550</v>
       </c>
@@ -16503,7 +16602,7 @@
         <v>380</v>
       </c>
       <c r="F124" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G124" s="1">
         <v>415</v>
@@ -16533,12 +16632,12 @@
         <v>12</v>
       </c>
       <c r="R124" s="6">
-        <v>4500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B125" t="s">
         <v>340</v>
@@ -16548,13 +16647,13 @@
         <v>550.01</v>
       </c>
       <c r="D125" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F125" s="6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G125" s="1">
         <v>415</v>
@@ -16569,7 +16668,7 @@
         <v>281</v>
       </c>
       <c r="L125" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>62</v>
@@ -16578,25 +16677,25 @@
         <v>28</v>
       </c>
       <c r="O125" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P125" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="R125" s="6">
-        <v>1500</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B126" t="s">
         <v>340</v>
       </c>
       <c r="C126" s="1">
         <f t="shared" si="7"/>
-        <v>750.01</v>
+        <v>550.01</v>
       </c>
       <c r="D126" s="6">
         <v>750</v>
@@ -16605,7 +16704,7 @@
         <v>380</v>
       </c>
       <c r="F126" s="6">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="G126" s="1">
         <v>415</v>
@@ -16629,18 +16728,18 @@
         <v>28</v>
       </c>
       <c r="O126" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P126" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R126" s="6">
-        <v>4500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B127" t="s">
         <v>340</v>
@@ -16650,13 +16749,13 @@
         <v>750.01</v>
       </c>
       <c r="D127" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F127" s="6">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G127" s="1">
         <v>415</v>
@@ -16683,7 +16782,7 @@
         <v>20</v>
       </c>
       <c r="P127" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R127" s="6">
         <v>4500</v>
@@ -16691,23 +16790,23 @@
     </row>
     <row r="128" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B128" t="s">
         <v>340</v>
       </c>
       <c r="C128" s="1">
         <f t="shared" si="7"/>
-        <v>1000.01</v>
+        <v>750.01</v>
       </c>
       <c r="D128" s="6">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F128" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G128" s="1">
         <v>415</v>
@@ -16734,7 +16833,7 @@
         <v>20</v>
       </c>
       <c r="P128" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R128" s="6">
         <v>4500</v>
@@ -16742,23 +16841,23 @@
     </row>
     <row r="129" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>550</v>
+        <v>390</v>
       </c>
       <c r="B129" t="s">
         <v>340</v>
       </c>
       <c r="C129" s="1">
-        <f t="shared" ref="C129" si="8">D128+0.01</f>
-        <v>1400.01</v>
+        <f t="shared" si="7"/>
+        <v>1000.01</v>
       </c>
       <c r="D129" s="6">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F129" s="1">
-        <v>12</v>
+      <c r="F129" s="6">
+        <v>20</v>
       </c>
       <c r="G129" s="1">
         <v>415</v>
@@ -16773,7 +16872,7 @@
         <v>281</v>
       </c>
       <c r="L129" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>62</v>
@@ -16782,7 +16881,7 @@
         <v>28</v>
       </c>
       <c r="O129" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P129" s="1">
         <v>10</v>
@@ -16793,17 +16892,17 @@
     </row>
     <row r="130" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B130" t="s">
         <v>340</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ref="C130" si="9">D129+0.01</f>
-        <v>1800.01</v>
+        <f t="shared" ref="C130" si="8">D129+0.01</f>
+        <v>1400.01</v>
       </c>
       <c r="D130" s="6">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>380</v>
@@ -16824,7 +16923,7 @@
         <v>281</v>
       </c>
       <c r="L130" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>62</v>
@@ -16836,7 +16935,7 @@
         <v>10</v>
       </c>
       <c r="P130" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R130" s="6">
         <v>4500</v>
@@ -16844,17 +16943,17 @@
     </row>
     <row r="131" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B131" t="s">
         <v>340</v>
       </c>
       <c r="C131" s="1">
-        <f t="shared" ref="C131" si="10">D130+0.01</f>
-        <v>2600.0100000000002</v>
+        <f t="shared" ref="C131" si="9">D130+0.01</f>
+        <v>1800.01</v>
       </c>
       <c r="D131" s="6">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>380</v>
@@ -16893,106 +16992,100 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="132" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="126" t="s">
+    <row r="132" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132" s="1">
+        <f t="shared" ref="C132" si="10">D131+0.01</f>
+        <v>2600.0100000000002</v>
+      </c>
+      <c r="D132" s="6">
+        <v>3600</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F132" s="1">
+        <v>12</v>
+      </c>
+      <c r="G132" s="1">
+        <v>415</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L132" s="1">
+        <v>80</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O132" s="6">
+        <v>10</v>
+      </c>
+      <c r="P132" s="1">
+        <v>11</v>
+      </c>
+      <c r="R132" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" s="129" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="B132" s="126" t="s">
+      <c r="B133" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="C132" s="126" t="s">
+      <c r="C133" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="D132" s="126" t="s">
+      <c r="D133" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="E132" s="127"/>
-      <c r="F132" s="127"/>
-      <c r="G132" s="127"/>
-      <c r="H132" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="I132" s="127"/>
-      <c r="J132" s="127"/>
-      <c r="K132" s="127"/>
-      <c r="L132" s="127"/>
-      <c r="M132" s="127"/>
-      <c r="N132" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="O132" s="130"/>
-      <c r="P132" s="127"/>
-      <c r="Q132" s="127"/>
-      <c r="R132" s="130"/>
-      <c r="S132" s="130"/>
-      <c r="U132" s="131"/>
-    </row>
-    <row r="133" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B133" t="s">
-        <v>340</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D133" s="6">
-        <v>250</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="F133" s="6">
-        <v>15</v>
-      </c>
-      <c r="G133" s="1">
-        <v>415</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L133" s="1">
-        <v>30</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O133" s="6">
-        <v>20</v>
-      </c>
-      <c r="P133" s="1">
-        <v>11</v>
-      </c>
-      <c r="R133" s="6">
-        <v>510</v>
-      </c>
-      <c r="S133" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="U133" s="92">
-        <v>624.37</v>
-      </c>
+      <c r="E133" s="127"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="127"/>
+      <c r="H133" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="I133" s="127"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="127"/>
+      <c r="L133" s="127"/>
+      <c r="M133" s="127"/>
+      <c r="N133" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="O133" s="130"/>
+      <c r="P133" s="127"/>
+      <c r="Q133" s="127"/>
+      <c r="R133" s="130"/>
+      <c r="S133" s="130"/>
+      <c r="U133" s="131"/>
     </row>
     <row r="134" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>555</v>
+        <v>391</v>
       </c>
       <c r="B134" t="s">
         <v>340</v>
       </c>
       <c r="C134" s="1">
-        <f>D133+0.01</f>
-        <v>250.01</v>
+        <v>0.01</v>
       </c>
       <c r="D134" s="6">
         <v>250</v>
@@ -17001,7 +17094,7 @@
         <v>392</v>
       </c>
       <c r="F134" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G134" s="1">
         <v>415</v>
@@ -17031,28 +17124,34 @@
         <v>11</v>
       </c>
       <c r="R134" s="6">
-        <v>850</v>
+        <v>510</v>
+      </c>
+      <c r="S134" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="U134" s="92">
+        <v>624.37</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>394</v>
+        <v>554</v>
       </c>
       <c r="B135" t="s">
         <v>340</v>
       </c>
       <c r="C135" s="1">
-        <f t="shared" ref="C135:C141" si="11">D134+0.01</f>
+        <f>D134+0.01</f>
         <v>250.01</v>
       </c>
       <c r="D135" s="6">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F135" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G135" s="1">
         <v>415</v>
@@ -17067,7 +17166,7 @@
         <v>281</v>
       </c>
       <c r="L135" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>62</v>
@@ -17082,19 +17181,19 @@
         <v>11</v>
       </c>
       <c r="R135" s="6">
-        <v>1100</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B136" t="s">
         <v>340</v>
       </c>
       <c r="C136" s="1">
-        <f t="shared" si="11"/>
-        <v>400.01</v>
+        <f t="shared" ref="C136:C142" si="11">D135+0.01</f>
+        <v>250.01</v>
       </c>
       <c r="D136" s="6">
         <v>400</v>
@@ -17103,7 +17202,7 @@
         <v>392</v>
       </c>
       <c r="F136" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G136" s="1">
         <v>415</v>
@@ -17138,7 +17237,7 @@
     </row>
     <row r="137" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B137" t="s">
         <v>340</v>
@@ -17148,13 +17247,13 @@
         <v>400.01</v>
       </c>
       <c r="D137" s="6">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F137" s="6">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G137" s="1">
         <v>415</v>
@@ -17181,7 +17280,7 @@
         <v>20</v>
       </c>
       <c r="P137" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R137" s="6">
         <v>1100</v>
@@ -17189,14 +17288,14 @@
     </row>
     <row r="138" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B138" t="s">
         <v>340</v>
       </c>
       <c r="C138" s="1">
         <f t="shared" si="11"/>
-        <v>550.01</v>
+        <v>400.01</v>
       </c>
       <c r="D138" s="6">
         <v>550</v>
@@ -17205,7 +17304,7 @@
         <v>392</v>
       </c>
       <c r="F138" s="6">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G138" s="1">
         <v>415</v>
@@ -17220,7 +17319,7 @@
         <v>281</v>
       </c>
       <c r="L138" s="1">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>62</v>
@@ -17232,15 +17331,15 @@
         <v>20</v>
       </c>
       <c r="P138" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R138" s="6">
-        <v>1500</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
         <v>340</v>
@@ -17250,7 +17349,7 @@
         <v>550.01</v>
       </c>
       <c r="D139" s="6">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>392</v>
@@ -17283,25 +17382,25 @@
         <v>20</v>
       </c>
       <c r="P139" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R139" s="6">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B140" t="s">
         <v>340</v>
       </c>
       <c r="C140" s="1">
         <f t="shared" si="11"/>
-        <v>750.01</v>
+        <v>550.01</v>
       </c>
       <c r="D140" s="6">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>392</v>
@@ -17334,31 +17433,31 @@
         <v>20</v>
       </c>
       <c r="P140" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R140" s="6">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="141" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>556</v>
+        <v>399</v>
       </c>
       <c r="B141" t="s">
         <v>340</v>
       </c>
       <c r="C141" s="1">
         <f t="shared" si="11"/>
-        <v>1000.01</v>
+        <v>750.01</v>
       </c>
       <c r="D141" s="6">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>392</v>
       </c>
       <c r="F141" s="6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G141" s="1">
         <v>415</v>
@@ -17385,7 +17484,7 @@
         <v>20</v>
       </c>
       <c r="P141" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R141" s="6">
         <v>3000</v>
@@ -17393,16 +17492,66 @@
     </row>
     <row r="142" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B142" t="s">
+        <v>340</v>
+      </c>
+      <c r="C142" s="1">
+        <f t="shared" si="11"/>
+        <v>1000.01</v>
+      </c>
+      <c r="D142" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F142" s="6">
+        <v>12</v>
+      </c>
+      <c r="G142" s="1">
+        <v>415</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L142" s="1">
+        <v>55</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O142" s="6">
+        <v>20</v>
+      </c>
+      <c r="P142" s="1">
+        <v>10</v>
+      </c>
+      <c r="R142" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="146" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17413,8 +17562,9 @@
     <row r="151" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="152" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="153" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A1:S142" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
+  <autoFilter ref="A1:S143" xr:uid="{5FB77DDB-B6D9-4CBA-9145-50EF6FDCE517}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -17425,11 +17575,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E18F3-2DFA-476D-A4F8-F41E93C21C92}">
-  <dimension ref="A1:X57"/>
+  <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17500,7 +17650,7 @@
         <v>410</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P1" s="59" t="s">
         <v>411</v>
@@ -17614,11 +17764,11 @@
         <v>415</v>
       </c>
       <c r="I5" s="82">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="84">
         <f>I5*G5</f>
-        <v>269.8</v>
+        <v>266</v>
       </c>
       <c r="K5" s="82">
         <v>32</v>
@@ -17948,7 +18098,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="137" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B12" s="137" t="s">
         <v>340</v>
@@ -18009,7 +18159,7 @@
         <v>18000</v>
       </c>
       <c r="U12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -18037,7 +18187,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B14" s="67" t="s">
         <v>340</v>
@@ -18186,7 +18336,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="67" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
       <c r="B17" s="67" t="s">
         <v>340</v>
@@ -18208,7 +18358,7 @@
         <v>3.8</v>
       </c>
       <c r="H17" s="82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I17" s="82">
         <v>220</v>
@@ -18249,7 +18399,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="67" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>340</v>
@@ -18271,7 +18421,7 @@
         <v>4.75</v>
       </c>
       <c r="H18" s="82" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I18" s="82">
         <v>220</v>
@@ -18343,7 +18493,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" s="67" t="s">
         <v>340</v>
@@ -18406,7 +18556,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="67" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B22" s="67" t="s">
         <v>340</v>
@@ -18469,7 +18619,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B24" s="67" t="s">
         <v>340</v>
@@ -18532,7 +18682,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="67" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B25" s="67" t="s">
         <v>340</v>
@@ -18598,7 +18748,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B29" t="s">
         <v>340</v>
@@ -18620,7 +18770,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I29" s="6">
         <v>300</v>
@@ -18662,7 +18812,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" s="101" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B30" t="s">
         <v>340</v>
@@ -18684,7 +18834,7 @@
         <v>3</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I30" s="6">
         <v>400</v>
@@ -18726,7 +18876,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31" s="101" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B31" t="s">
         <v>340</v>
@@ -18748,7 +18898,7 @@
         <v>3.8</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I31" s="6">
         <v>400</v>
@@ -18790,7 +18940,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B32" t="s">
         <v>340</v>
@@ -18812,7 +18962,7 @@
         <v>3</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I32" s="6">
         <v>600</v>
@@ -18854,7 +19004,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B33" t="s">
         <v>340</v>
@@ -18876,7 +19026,7 @@
         <v>3.8</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I33" s="6">
         <v>800</v>
@@ -18918,7 +19068,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B34" t="s">
         <v>340</v>
@@ -18940,7 +19090,7 @@
         <v>3.8</v>
       </c>
       <c r="H34" s="58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I34" s="58">
         <v>1200</v>
@@ -18957,7 +19107,7 @@
         <v>6.3157894736842106</v>
       </c>
       <c r="M34" s="58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N34" s="58">
         <v>20</v>
@@ -18982,7 +19132,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B37" t="s">
         <v>340</v>
@@ -19004,7 +19154,7 @@
         <v>3.8</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I37" s="6">
         <v>300</v>
@@ -19021,7 +19171,7 @@
         <v>10.526315789473685</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N37" s="82">
         <v>20</v>
@@ -19045,7 +19195,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B38" t="s">
         <v>340</v>
@@ -19067,7 +19217,7 @@
         <v>3.8</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I38" s="6">
         <v>500</v>
@@ -19084,7 +19234,7 @@
         <v>21.05263157894737</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N38" s="82">
         <v>20</v>
@@ -19108,7 +19258,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B39" t="s">
         <v>340</v>
@@ -19130,7 +19280,7 @@
         <v>3.8</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I39" s="6">
         <v>800</v>
@@ -19147,7 +19297,7 @@
         <v>10.526315789473685</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N39" s="82">
         <v>20</v>
@@ -19171,7 +19321,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B40" t="s">
         <v>340</v>
@@ -19193,7 +19343,7 @@
         <v>3.8</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I40" s="6">
         <v>1200</v>
@@ -19210,7 +19360,7 @@
         <v>10.526315789473685</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N40" s="82">
         <v>20</v>
@@ -19234,7 +19384,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>259</v>
@@ -19363,7 +19513,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>259</v>
@@ -19379,7 +19529,7 @@
         <v>6.333333333333333</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I46" s="6">
         <v>128</v>
@@ -19404,7 +19554,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>259</v>
@@ -19420,7 +19570,7 @@
         <v>4.3636363636363633</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I47" s="6">
         <v>369</v>
@@ -19442,7 +19592,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C48" s="6">
         <v>14</v>
@@ -19483,7 +19633,7 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>259</v>
@@ -19628,7 +19778,7 @@
     </row>
     <row r="54" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="67" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B54" s="141" t="s">
         <v>259</v>
@@ -19678,7 +19828,7 @@
     </row>
     <row r="55" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B55" s="141" t="s">
         <v>259</v>
@@ -19732,7 +19882,7 @@
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>259</v>
@@ -19783,10 +19933,29 @@
       <c r="U57" s="6"/>
       <c r="X57" s="92"/>
     </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="H62" s="142" t="s">
+        <v>595</v>
+      </c>
+      <c r="I62" s="142"/>
+      <c r="J62" s="142"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="142"/>
+      <c r="M62" s="142"/>
+      <c r="N62" s="142"/>
+      <c r="O62" s="142"/>
+      <c r="P62" s="142"/>
+      <c r="Q62" s="142"/>
+      <c r="R62" s="142"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H62:R62"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19814,34 +19983,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>448</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -19960,7 +20129,7 @@
         <v>57</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F5" s="105">
         <v>22400</v>
@@ -19994,7 +20163,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F6" s="105">
         <v>22400</v>
@@ -20016,7 +20185,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="6">
         <v>12</v>
@@ -20028,7 +20197,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F7" s="6">
         <v>29000</v>
@@ -20050,7 +20219,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B8" s="6">
         <v>12</v>
@@ -20062,7 +20231,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F8" s="6">
         <v>29000</v>
@@ -20084,7 +20253,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9" s="6">
         <v>15</v>
@@ -20096,7 +20265,7 @@
         <v>57</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F9" s="6">
         <v>29000</v>
@@ -20118,7 +20287,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="6">
         <v>15</v>
@@ -20130,7 +20299,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F10" s="6">
         <v>60000</v>
@@ -20151,7 +20320,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -20163,7 +20332,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F11" s="6">
         <v>95000</v>
@@ -20212,27 +20381,27 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="D1" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>586</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" s="6">
         <v>30</v>
@@ -20250,7 +20419,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B4" s="6">
         <v>40</v>
@@ -20271,7 +20440,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B6" s="6">
         <v>30</v>
@@ -20287,12 +20456,12 @@
         <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" s="6">
         <v>40</v>
@@ -20308,12 +20477,12 @@
         <v>340</v>
       </c>
       <c r="F7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B8" s="6">
         <v>55</v>
@@ -20329,12 +20498,12 @@
         <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B9" s="6">
         <v>60</v>
@@ -20350,7 +20519,7 @@
         <v>340</v>
       </c>
       <c r="F9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -20358,7 +20527,7 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -20397,28 +20566,28 @@
         <v>3</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="46" t="s">
         <v>462</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>456</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>463</v>
       </c>
       <c r="G1" s="47" t="s">
         <v>269</v>
       </c>
       <c r="H1" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="I1" s="49" t="s">
         <v>464</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>465</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>199</v>
@@ -20426,7 +20595,7 @@
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2" s="98">
         <v>95</v>
@@ -20438,10 +20607,10 @@
         <v>22</v>
       </c>
       <c r="E2" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="G2" s="98" t="s">
         <v>467</v>
-      </c>
-      <c r="G2" s="98" t="s">
-        <v>468</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -20449,7 +20618,7 @@
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" s="98">
         <v>147</v>
@@ -20461,10 +20630,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="98" t="s">
+        <v>466</v>
+      </c>
+      <c r="G3" s="98" t="s">
         <v>467</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>468</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -20472,7 +20641,7 @@
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" s="98">
         <v>332</v>
@@ -20484,7 +20653,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F4" s="98">
         <v>480</v>
@@ -20498,7 +20667,7 @@
     </row>
     <row r="5" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" s="98">
         <v>552</v>
@@ -20510,7 +20679,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G5" s="98">
         <v>40</v>
@@ -20521,7 +20690,7 @@
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="113" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B6" s="114">
         <v>800</v>
@@ -20533,7 +20702,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
@@ -20545,7 +20714,7 @@
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="113" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B7" s="114">
         <v>1200</v>
@@ -20557,7 +20726,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6">
@@ -20569,7 +20738,7 @@
     </row>
     <row r="8" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" s="114">
         <v>2200</v>
@@ -20581,7 +20750,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6">
@@ -20593,7 +20762,7 @@
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="123" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B9" s="124">
         <v>3600</v>
@@ -20605,7 +20774,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="58" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F9" s="33"/>
       <c r="G9" s="58">
@@ -20616,12 +20785,12 @@
       </c>
       <c r="I9" s="33"/>
       <c r="J9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="99" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B10" s="98">
         <v>130</v>
@@ -20636,7 +20805,7 @@
         <v>259</v>
       </c>
       <c r="G10" s="98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -20644,7 +20813,7 @@
     </row>
     <row r="11" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B11" s="98">
         <v>145</v>
@@ -20662,7 +20831,7 @@
         <v>200</v>
       </c>
       <c r="G11" s="98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -20678,7 +20847,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P24" s="113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q24" s="114">
         <v>400</v>
@@ -20690,7 +20859,7 @@
         <v>24</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="6">
@@ -20702,7 +20871,7 @@
     </row>
     <row r="25" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P25" s="113" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="114">
         <v>400</v>
@@ -20714,7 +20883,7 @@
         <v>24</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="6">
@@ -20726,7 +20895,7 @@
     </row>
     <row r="26" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q26" s="98">
         <v>599</v>
@@ -20738,7 +20907,7 @@
         <v>20</v>
       </c>
       <c r="T26" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V26" s="98">
         <v>40</v>
@@ -20749,7 +20918,7 @@
     </row>
     <row r="27" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q27" s="98">
         <v>1063</v>
@@ -20761,7 +20930,7 @@
         <v>18</v>
       </c>
       <c r="T27" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V27" s="98">
         <v>50</v>
@@ -20772,7 +20941,7 @@
     </row>
     <row r="28" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P28" s="99" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="98">
         <v>1943</v>
@@ -20784,7 +20953,7 @@
         <v>12</v>
       </c>
       <c r="T28" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V28" s="98">
         <v>65</v>
@@ -20795,7 +20964,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
       <c r="P29" s="99" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="98">
         <v>3503</v>
@@ -20807,7 +20976,7 @@
         <v>10</v>
       </c>
       <c r="T29" s="98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="V29" s="98">
         <v>80</v>
@@ -20822,7 +20991,7 @@
     <row r="31" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J31" s="8"/>
       <c r="P31" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q31" s="98">
         <v>332</v>
@@ -20848,7 +21017,7 @@
     </row>
     <row r="32" spans="2:24" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P32" s="100" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q32" s="98">
         <v>542</v>
@@ -20872,7 +21041,7 @@
     </row>
     <row r="33" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P33" s="99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q33" s="98">
         <v>1000</v>
@@ -20895,7 +21064,7 @@
     </row>
     <row r="34" spans="16:23" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P34" s="99" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q34" s="98">
         <v>1063</v>
@@ -20915,7 +21084,7 @@
     </row>
     <row r="35" spans="16:23" x14ac:dyDescent="0.35">
       <c r="P35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q35" s="98">
         <v>145</v>
@@ -20933,7 +21102,7 @@
         <v>200</v>
       </c>
       <c r="V35" s="98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W35">
         <v>10</v>
@@ -20970,22 +21139,22 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>489</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>490</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -20998,7 +21167,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" s="6">
         <v>300</v>
@@ -21022,7 +21191,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B4" s="6">
         <v>350</v>
@@ -21046,7 +21215,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" s="6">
         <v>400</v>
@@ -21070,7 +21239,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B6" s="6">
         <v>450</v>
@@ -21094,7 +21263,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B7" s="6">
         <v>300</v>
@@ -21118,7 +21287,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B8" s="6">
         <v>350</v>
@@ -21142,7 +21311,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9" s="6">
         <v>400</v>
@@ -21166,7 +21335,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B10" s="6">
         <v>450</v>
@@ -21198,7 +21367,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B13" s="6">
         <v>300</v>
@@ -21222,7 +21391,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B14" s="6">
         <v>350</v>
@@ -21246,7 +21415,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B15" s="6">
         <v>400</v>
@@ -21270,7 +21439,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <